--- a/xlsx/model2.xlsx
+++ b/xlsx/model2.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\R\TA\xlsx\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B1B7BC07-F640-483C-A9F7-E2984D55B776}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ECD28806-FDEE-403D-9CA3-A3F0B8B30F1E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="16080" yWindow="-120" windowWidth="29040" windowHeight="15720" tabRatio="878" firstSheet="2" activeTab="19" xr2:uid="{BCC5EA96-140E-4D1F-AEAE-F8AA11DA45EB}"/>
+    <workbookView xWindow="16080" yWindow="-120" windowWidth="29040" windowHeight="15720" tabRatio="878" firstSheet="7" activeTab="17" xr2:uid="{BCC5EA96-140E-4D1F-AEAE-F8AA11DA45EB}"/>
   </bookViews>
   <sheets>
     <sheet name="シナリオ" sheetId="1" r:id="rId1"/>
@@ -61,7 +61,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="422" uniqueCount="99">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="452" uniqueCount="99">
   <si>
     <t>シナリオ1</t>
     <phoneticPr fontId="1"/>
@@ -1454,7 +1454,7 @@
                   <c:v>4.3663423534669175</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.58609776743233954</c:v>
+                  <c:v>0.47379050220901781</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1525,7 +1525,7 @@
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.43041711350870043</c:v>
+                  <c:v>0.49749833534104249</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1596,7 +1596,7 @@
                   <c:v>0.48420870994772131</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.67823302734704616</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1667,7 +1667,7 @@
                   <c:v>0.70872822713912309</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>1.6576344116581256</c:v>
+                  <c:v>1.145362489883333</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1738,7 +1738,7 @@
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>2.0346990820411293</c:v>
+                  <c:v>5.291573203172959</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1809,7 +1809,7 @@
                   <c:v>0.32495050102189632</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.1119084495122641</c:v>
+                  <c:v>0.12934956718867333</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1871,16 +1871,16 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="4"/>
                 <c:pt idx="0">
-                  <c:v>9.619362132052052E-2</c:v>
+                  <c:v>9.6193621320520527E-3</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.11027890434022726</c:v>
+                  <c:v>1.1027890434022726E-2</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.12337126131657267</c:v>
+                  <c:v>1.2337126131657267E-2</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>1.1190844951226211</c:v>
+                  <c:v>0.12934956718867105</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1951,7 +1951,7 @@
                   <c:v>3.6986638168771971E-2</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>1.3429013941471692</c:v>
+                  <c:v>1.0347965375093775</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2022,7 +2022,7 @@
                   <c:v>0.32610504491122272</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>1.5667182931716814</c:v>
+                  <c:v>1.293495671886715</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2692,7 +2692,7 @@
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.22381689902452423</c:v>
+                  <c:v>0.2586991343773421</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2763,7 +2763,7 @@
                   <c:v>0.15978887428274804</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.22381689902452523</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2905,7 +2905,7 @@
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.89526759609809692</c:v>
+                  <c:v>2.328292209396102</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2976,7 +2976,7 @@
                   <c:v>0.32495050102189632</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.1119084495122641</c:v>
+                  <c:v>0.12934956718867333</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3047,7 +3047,7 @@
                   <c:v>1.2337126131657267E-2</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.11190844951226211</c:v>
+                  <c:v>0.12934956718867105</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3118,7 +3118,7 @@
                   <c:v>3.6986638168771971E-2</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>1.3429013941471692</c:v>
+                  <c:v>1.0347965375093775</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3189,7 +3189,7 @@
                   <c:v>0.32610504491122272</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>1.5667182931716814</c:v>
+                  <c:v>1.293495671886715</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3640,7 +3640,7 @@
                   <c:v>1.2356808259875667</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.58609776743233954</c:v>
+                  <c:v>0.47379050220901781</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3711,7 +3711,7 @@
                   <c:v>0.27889491081018242</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>1.6576344116581256</c:v>
+                  <c:v>1.145362489883333</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3782,7 +3782,7 @@
                   <c:v>3.662467371948483</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>4.0075234690451813</c:v>
+                  <c:v>4.6321026560432896</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4297,7 +4297,7 @@
                   <c:v>0.17255094076651772</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.58101536992724601</c:v>
+                  <c:v>0.38734357995150304</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4368,7 +4368,7 @@
                   <c:v>1.4100800882583475</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>1.1620307398544989</c:v>
+                  <c:v>1.3557025298302521</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4883,7 +4883,7 @@
                   <c:v>1.5963357781759287E-2</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.79650032949761229</c:v>
+                  <c:v>0.47790019769856285</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4954,7 +4954,7 @@
                   <c:v>5.4206672644149065E-2</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.71685029654785559</c:v>
+                  <c:v>1.0354504283468937</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -5984,7 +5984,7 @@
                   <c:v>0.34111893896843343</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.22461453044664287</c:v>
+                  <c:v>0.11230726522332106</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -6126,7 +6126,7 @@
                   <c:v>0.83323817252990939</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.78615085656325145</c:v>
+                  <c:v>0.89845812178656848</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -6456,19 +6456,19 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="5"/>
                 <c:pt idx="0">
-                  <c:v>1046.2116092114004</c:v>
+                  <c:v>1062.4741439646548</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>933.96164880375397</c:v>
+                  <c:v>970.46242648442171</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>961.99988684901234</c:v>
+                  <c:v>1000.2706216729191</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>980.8417343935289</c:v>
+                  <c:v>1020.2921596305989</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>1002.8626836518463</c:v>
+                  <c:v>1043.6968487030956</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -6537,19 +6537,19 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="5"/>
                 <c:pt idx="0">
-                  <c:v>1046.2116092114004</c:v>
+                  <c:v>1062.4741439646548</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>933.96164880375397</c:v>
+                  <c:v>970.46242648442171</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>674.01679243812714</c:v>
+                  <c:v>578.47162826157955</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>385.96588511358931</c:v>
+                  <c:v>91.776045595205815</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>111.38612679691381</c:v>
+                  <c:v>-397.42560225630592</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -7143,16 +7143,16 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="4"/>
                 <c:pt idx="0">
-                  <c:v>460.11701980667925</c:v>
+                  <c:v>476.37955455993358</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>412.50475952227805</c:v>
+                  <c:v>449.00553720294573</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>461.47749459267129</c:v>
+                  <c:v>502.31165964392062</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>1.2073200033919047</c:v>
+                  <c:v>-501.30397147079947</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -9263,8 +9263,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E986FF72-BEDE-45A8-BC8F-658BE92277B0}">
   <dimension ref="A1:F41"/>
   <sheetViews>
-    <sheetView topLeftCell="A25" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="F5" sqref="F5"/>
+    <sheetView topLeftCell="B22" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="F36" sqref="F36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
@@ -9452,7 +9452,7 @@
         <v>4.45472571891143E-2</v>
       </c>
       <c r="F11" s="19">
-        <v>0.3</v>
+        <v>0.2</v>
       </c>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.4">
@@ -9468,7 +9468,7 @@
         <v>0.36403858518447696</v>
       </c>
       <c r="F12" s="18">
-        <v>0.6</v>
+        <v>0.7</v>
       </c>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.4">
@@ -9534,7 +9534,7 @@
         <v>7.0146552571294599E-3</v>
       </c>
       <c r="F16" s="19">
-        <v>0.5</v>
+        <v>0.3</v>
       </c>
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.4">
@@ -9550,7 +9550,7 @@
         <v>2.3819620310036701E-2</v>
       </c>
       <c r="F17" s="18">
-        <v>0.45</v>
+        <v>0.65</v>
       </c>
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.4">
@@ -9682,7 +9682,7 @@
         <v>0.21261603762061798</v>
       </c>
       <c r="F25" s="19">
-        <v>0.2</v>
+        <v>0.1</v>
       </c>
     </row>
     <row r="26" spans="1:6" x14ac:dyDescent="0.4">
@@ -9714,7 +9714,7 @@
         <v>0.51934905512223195</v>
       </c>
       <c r="F27" s="18">
-        <v>0.7</v>
+        <v>0.8</v>
       </c>
     </row>
     <row r="28" spans="1:6" x14ac:dyDescent="0.4">
@@ -9822,7 +9822,7 @@
         <v>3.9059436827267403E-2</v>
       </c>
       <c r="F34" s="19">
-        <v>0.05</v>
+        <v>0</v>
       </c>
     </row>
     <row r="35" spans="1:6" x14ac:dyDescent="0.4">
@@ -9852,7 +9852,7 @@
         <v>0</v>
       </c>
       <c r="F36" s="19">
-        <v>0.2</v>
+        <v>0.45</v>
       </c>
     </row>
     <row r="37" spans="1:6" x14ac:dyDescent="0.4">
@@ -9897,7 +9897,7 @@
         <v>9.0411629939251906E-3</v>
       </c>
       <c r="F39" s="19">
-        <v>0.3</v>
+        <v>0.2</v>
       </c>
     </row>
     <row r="40" spans="1:6" x14ac:dyDescent="0.4">
@@ -9913,7 +9913,7 @@
         <v>7.9714432296606602E-2</v>
       </c>
       <c r="F40" s="18">
-        <v>0.35</v>
+        <v>0.25</v>
       </c>
     </row>
     <row r="41" spans="1:6" x14ac:dyDescent="0.4">
@@ -9938,8 +9938,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{927AF4A7-4AA5-47BE-8010-41C5D856CFFA}">
   <dimension ref="A1:I45"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B14" sqref="B14"/>
+    <sheetView topLeftCell="A26" workbookViewId="0">
+      <selection activeCell="C42" sqref="C42"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10" defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
@@ -11386,7 +11386,7 @@
         <v>0.49720261949109501</v>
       </c>
       <c r="C42" s="28">
-        <f t="shared" si="1"/>
+        <f>_xlfn.FORECAST.LINEAR($A42,C$44:C$45,$A$44:$A$45)*C$12</f>
         <v>0.24860130974554751</v>
       </c>
       <c r="D42" s="28">
@@ -13994,11 +13994,11 @@
       </c>
       <c r="J14" s="28">
         <f t="shared" si="1"/>
-        <v>5.3062348616141009E-2</v>
+        <v>4.9729015282810707E-2</v>
       </c>
       <c r="K14" s="28">
         <f>_xlfn.FORECAST.LINEAR($A14,K$45:K$46,$A$45:$A$46)</f>
-        <v>0.37190396567832629</v>
+        <v>0.37523729901165837</v>
       </c>
     </row>
     <row r="15" spans="1:11" x14ac:dyDescent="0.4">
@@ -14039,11 +14039,11 @@
       </c>
       <c r="J15" s="28">
         <f t="shared" si="1"/>
-        <v>6.1577440043173226E-2</v>
+        <v>5.4910773376507294E-2</v>
       </c>
       <c r="K15" s="28">
         <f t="shared" si="1"/>
-        <v>0.37976934617217672</v>
+        <v>0.38643601283884266</v>
       </c>
     </row>
     <row r="16" spans="1:11" x14ac:dyDescent="0.4">
@@ -14084,11 +14084,11 @@
       </c>
       <c r="J16" s="28">
         <f t="shared" si="1"/>
-        <v>7.0092531470201891E-2</v>
+        <v>6.009253147020388E-2</v>
       </c>
       <c r="K16" s="28">
         <f t="shared" si="1"/>
-        <v>0.38763472666602716</v>
+        <v>0.39763472666602695</v>
       </c>
     </row>
     <row r="17" spans="1:11" x14ac:dyDescent="0.4">
@@ -14129,11 +14129,11 @@
       </c>
       <c r="J17" s="28">
         <f t="shared" si="1"/>
-        <v>7.8607622897230556E-2</v>
+        <v>6.5274289563898691E-2</v>
       </c>
       <c r="K17" s="28">
         <f t="shared" si="1"/>
-        <v>0.39550010715987938</v>
+        <v>0.40883344049321124</v>
       </c>
     </row>
     <row r="18" spans="1:11" x14ac:dyDescent="0.4">
@@ -14174,11 +14174,11 @@
       </c>
       <c r="J18" s="28">
         <f t="shared" si="1"/>
-        <v>8.7122714324259221E-2</v>
+        <v>7.0456047657595278E-2</v>
       </c>
       <c r="K18" s="28">
         <f t="shared" si="1"/>
-        <v>0.40336548765372982</v>
+        <v>0.42003215432039553</v>
       </c>
     </row>
     <row r="19" spans="1:11" x14ac:dyDescent="0.4">
@@ -14219,11 +14219,11 @@
       </c>
       <c r="J19" s="28">
         <f t="shared" si="1"/>
-        <v>9.5637805751291438E-2</v>
+        <v>7.5637805751291864E-2</v>
       </c>
       <c r="K19" s="28">
         <f t="shared" si="1"/>
-        <v>0.41123086814758025</v>
+        <v>0.43123086814757983</v>
       </c>
     </row>
     <row r="20" spans="1:11" x14ac:dyDescent="0.4">
@@ -14264,11 +14264,11 @@
       </c>
       <c r="J20" s="28">
         <f t="shared" si="1"/>
-        <v>0.1041528971783201</v>
+        <v>8.0819563844988451E-2</v>
       </c>
       <c r="K20" s="28">
         <f t="shared" si="1"/>
-        <v>0.41909624864143069</v>
+        <v>0.44242958197476412</v>
       </c>
     </row>
     <row r="21" spans="1:11" x14ac:dyDescent="0.4">
@@ -14309,11 +14309,11 @@
       </c>
       <c r="J21" s="28">
         <f t="shared" si="1"/>
-        <v>0.11266798860534877</v>
+        <v>8.6001321938683262E-2</v>
       </c>
       <c r="K21" s="28">
         <f t="shared" si="1"/>
-        <v>0.42696162913528113</v>
+        <v>0.45362829580194841</v>
       </c>
     </row>
     <row r="22" spans="1:11" x14ac:dyDescent="0.4">
@@ -14354,11 +14354,11 @@
       </c>
       <c r="J22" s="28">
         <f t="shared" si="1"/>
-        <v>0.12118308003237743</v>
+        <v>9.1183080032379848E-2</v>
       </c>
       <c r="K22" s="28">
         <f t="shared" si="1"/>
-        <v>0.43482700962913157</v>
+        <v>0.4648270096291327</v>
       </c>
     </row>
     <row r="23" spans="1:11" x14ac:dyDescent="0.4">
@@ -14399,11 +14399,11 @@
       </c>
       <c r="J23" s="28">
         <f t="shared" si="1"/>
-        <v>0.12969817145940965</v>
+        <v>9.6364838126076435E-2</v>
       </c>
       <c r="K23" s="28">
         <f t="shared" si="1"/>
-        <v>0.44269239012298378</v>
+        <v>0.476025723456317</v>
       </c>
     </row>
     <row r="24" spans="1:11" x14ac:dyDescent="0.4">
@@ -14444,11 +14444,11 @@
       </c>
       <c r="J24" s="28">
         <f t="shared" si="1"/>
-        <v>0.13821326288643832</v>
+        <v>0.10154659621977302</v>
       </c>
       <c r="K24" s="28">
         <f t="shared" si="1"/>
-        <v>0.45055777061683422</v>
+        <v>0.48722443728350129</v>
       </c>
     </row>
     <row r="25" spans="1:11" x14ac:dyDescent="0.4">
@@ -14489,11 +14489,11 @@
       </c>
       <c r="J25" s="28">
         <f t="shared" si="1"/>
-        <v>0.14672835431346698</v>
+        <v>0.10672835431346961</v>
       </c>
       <c r="K25" s="28">
         <f t="shared" si="1"/>
-        <v>0.45842315111068466</v>
+        <v>0.49842315111068558</v>
       </c>
     </row>
     <row r="26" spans="1:11" x14ac:dyDescent="0.4">
@@ -14534,11 +14534,11 @@
       </c>
       <c r="J26" s="28">
         <f t="shared" si="1"/>
-        <v>0.15524344574049564</v>
+        <v>0.11191011240716442</v>
       </c>
       <c r="K26" s="28">
         <f t="shared" si="1"/>
-        <v>0.46628853160453509</v>
+        <v>0.50962186493786987</v>
       </c>
     </row>
     <row r="27" spans="1:11" x14ac:dyDescent="0.4">
@@ -14579,11 +14579,11 @@
       </c>
       <c r="J27" s="28">
         <f t="shared" si="1"/>
-        <v>0.16375853716752786</v>
+        <v>0.11709187050086101</v>
       </c>
       <c r="K27" s="28">
         <f t="shared" si="1"/>
-        <v>0.47415391209838553</v>
+        <v>0.52082057876505417</v>
       </c>
     </row>
     <row r="28" spans="1:11" x14ac:dyDescent="0.4">
@@ -14624,11 +14624,11 @@
       </c>
       <c r="J28" s="28">
         <f t="shared" si="1"/>
-        <v>0.17227362859455653</v>
+        <v>0.12227362859455759</v>
       </c>
       <c r="K28" s="28">
         <f t="shared" si="1"/>
-        <v>0.48201929259223775</v>
+        <v>0.53201929259223846</v>
       </c>
     </row>
     <row r="29" spans="1:11" x14ac:dyDescent="0.4">
@@ -14669,11 +14669,11 @@
       </c>
       <c r="J29" s="28">
         <f t="shared" si="1"/>
-        <v>0.18078872002158519</v>
+        <v>0.12745538668825418</v>
       </c>
       <c r="K29" s="28">
         <f t="shared" si="1"/>
-        <v>0.48988467308608818</v>
+        <v>0.54321800641942275</v>
       </c>
     </row>
     <row r="30" spans="1:11" x14ac:dyDescent="0.4">
@@ -14714,11 +14714,11 @@
       </c>
       <c r="J30" s="28">
         <f t="shared" si="2"/>
-        <v>0.18930381144861386</v>
+        <v>0.13263714478194899</v>
       </c>
       <c r="K30" s="28">
         <f t="shared" si="2"/>
-        <v>0.49775005357993862</v>
+        <v>0.55441672024660704</v>
       </c>
     </row>
     <row r="31" spans="1:11" x14ac:dyDescent="0.4">
@@ -14759,11 +14759,11 @@
       </c>
       <c r="J31" s="28">
         <f t="shared" si="2"/>
-        <v>0.19781890287564607</v>
+        <v>0.13781890287564558</v>
       </c>
       <c r="K31" s="28">
         <f t="shared" si="2"/>
-        <v>0.50561543407378906</v>
+        <v>0.56561543407379133</v>
       </c>
     </row>
     <row r="32" spans="1:11" x14ac:dyDescent="0.4">
@@ -14804,11 +14804,11 @@
       </c>
       <c r="J32" s="28">
         <f t="shared" si="2"/>
-        <v>0.20633399430267474</v>
+        <v>0.14300066096934216</v>
       </c>
       <c r="K32" s="28">
         <f t="shared" si="2"/>
-        <v>0.5134808145676395</v>
+        <v>0.57681414790097207</v>
       </c>
     </row>
     <row r="33" spans="1:11" x14ac:dyDescent="0.4">
@@ -14849,11 +14849,11 @@
       </c>
       <c r="J33" s="28">
         <f t="shared" si="2"/>
-        <v>0.2148490857297034</v>
+        <v>0.14818241906303875</v>
       </c>
       <c r="K33" s="28">
         <f t="shared" si="2"/>
-        <v>0.52134619506148994</v>
+        <v>0.58801286172815637</v>
       </c>
     </row>
     <row r="34" spans="1:11" x14ac:dyDescent="0.4">
@@ -14894,11 +14894,11 @@
       </c>
       <c r="J34" s="28">
         <f t="shared" si="2"/>
-        <v>0.22336417715673207</v>
+        <v>0.15336417715673534</v>
       </c>
       <c r="K34" s="28">
         <f t="shared" si="2"/>
-        <v>0.52921157555534037</v>
+        <v>0.59921157555534066</v>
       </c>
     </row>
     <row r="35" spans="1:11" x14ac:dyDescent="0.4">
@@ -14939,11 +14939,11 @@
       </c>
       <c r="J35" s="28">
         <f t="shared" si="2"/>
-        <v>0.23187926858376429</v>
+        <v>0.15854593525043015</v>
       </c>
       <c r="K35" s="28">
         <f t="shared" si="2"/>
-        <v>0.53707695604919081</v>
+        <v>0.61041028938252495</v>
       </c>
     </row>
     <row r="36" spans="1:11" x14ac:dyDescent="0.4">
@@ -14984,11 +14984,11 @@
       </c>
       <c r="J36" s="28">
         <f t="shared" si="2"/>
-        <v>0.24039436001079295</v>
+        <v>0.16372769334412673</v>
       </c>
       <c r="K36" s="28">
         <f t="shared" si="2"/>
-        <v>0.5449423365430448</v>
+        <v>0.62160900320970924</v>
       </c>
     </row>
     <row r="37" spans="1:11" x14ac:dyDescent="0.4">
@@ -15029,11 +15029,11 @@
       </c>
       <c r="J37" s="28">
         <f t="shared" si="2"/>
-        <v>0.24890945143782162</v>
+        <v>0.16890945143782332</v>
       </c>
       <c r="K37" s="28">
         <f t="shared" si="2"/>
-        <v>0.55280771703689524</v>
+        <v>0.63280771703689354</v>
       </c>
     </row>
     <row r="38" spans="1:11" x14ac:dyDescent="0.4">
@@ -15074,11 +15074,11 @@
       </c>
       <c r="J38" s="28">
         <f t="shared" si="2"/>
-        <v>0.25742454286485028</v>
+        <v>0.17409120953151991</v>
       </c>
       <c r="K38" s="28">
         <f t="shared" si="2"/>
-        <v>0.56067309753074568</v>
+        <v>0.64400643086407783</v>
       </c>
     </row>
     <row r="39" spans="1:11" x14ac:dyDescent="0.4">
@@ -15119,11 +15119,11 @@
       </c>
       <c r="J39" s="28">
         <f t="shared" si="2"/>
-        <v>0.2659396342918825</v>
+        <v>0.17927296762521472</v>
       </c>
       <c r="K39" s="28">
         <f t="shared" si="2"/>
-        <v>0.56853847802459612</v>
+        <v>0.65520514469126212</v>
       </c>
     </row>
     <row r="40" spans="1:11" x14ac:dyDescent="0.4">
@@ -15164,11 +15164,11 @@
       </c>
       <c r="J40" s="28">
         <f t="shared" si="2"/>
-        <v>0.27445472571891116</v>
+        <v>0.18445472571891131</v>
       </c>
       <c r="K40" s="28">
         <f t="shared" si="2"/>
-        <v>0.57640385851844655</v>
+        <v>0.66640385851844641</v>
       </c>
     </row>
     <row r="41" spans="1:11" x14ac:dyDescent="0.4">
@@ -15209,11 +15209,11 @@
       </c>
       <c r="J41" s="28">
         <f t="shared" si="2"/>
-        <v>0.28296981714593983</v>
+        <v>0.18963648381260789</v>
       </c>
       <c r="K41" s="28">
         <f t="shared" si="2"/>
-        <v>0.58426923901229699</v>
+        <v>0.6776025723456307</v>
       </c>
     </row>
     <row r="42" spans="1:11" x14ac:dyDescent="0.4">
@@ -15254,11 +15254,11 @@
       </c>
       <c r="J42" s="28">
         <f t="shared" si="2"/>
-        <v>0.29148490857296849</v>
+        <v>0.19481824190630448</v>
       </c>
       <c r="K42" s="28">
         <f t="shared" si="2"/>
-        <v>0.59213461950614743</v>
+        <v>0.688801286172815</v>
       </c>
     </row>
     <row r="43" spans="1:11" x14ac:dyDescent="0.4">
@@ -15299,11 +15299,11 @@
       </c>
       <c r="J43" s="28">
         <f t="shared" si="2"/>
-        <v>0.29999999999999716</v>
+        <v>0.20000000000000107</v>
       </c>
       <c r="K43" s="28">
         <f t="shared" si="2"/>
-        <v>0.59999999999999787</v>
+        <v>0.69999999999999929</v>
       </c>
     </row>
     <row r="45" spans="1:11" x14ac:dyDescent="0.4">
@@ -15389,11 +15389,11 @@
       </c>
       <c r="J46" s="24">
         <f>シナリオ!F11</f>
-        <v>0.3</v>
+        <v>0.2</v>
       </c>
       <c r="K46" s="24">
         <f>シナリオ!F12</f>
-        <v>0.6</v>
+        <v>0.7</v>
       </c>
     </row>
   </sheetData>
@@ -15896,11 +15896,11 @@
       </c>
       <c r="J14" s="28">
         <f t="shared" si="0"/>
-        <v>2.3447500081893224E-2</v>
+        <v>1.6780833415221963E-2</v>
       </c>
       <c r="K14" s="28">
         <f t="shared" si="0"/>
-        <v>3.8025632966370182E-2</v>
+        <v>4.4692299633034338E-2</v>
       </c>
     </row>
     <row r="15" spans="1:11" x14ac:dyDescent="0.4">
@@ -15941,11 +15941,11 @@
       </c>
       <c r="J15" s="28">
         <f t="shared" si="1"/>
-        <v>3.9880344906656262E-2</v>
+        <v>2.6547011573317292E-2</v>
       </c>
       <c r="K15" s="28">
         <f t="shared" si="1"/>
-        <v>5.2231645622704548E-2</v>
+        <v>6.556497895603286E-2</v>
       </c>
     </row>
     <row r="16" spans="1:11" x14ac:dyDescent="0.4">
@@ -15986,11 +15986,11 @@
       </c>
       <c r="J16" s="28">
         <f t="shared" si="1"/>
-        <v>5.6313189731412194E-2</v>
+        <v>3.6313189731412621E-2</v>
       </c>
       <c r="K16" s="28">
         <f t="shared" si="1"/>
-        <v>6.6437658279035361E-2</v>
+        <v>8.6437658279031382E-2</v>
       </c>
     </row>
     <row r="17" spans="1:11" x14ac:dyDescent="0.4">
@@ -16031,11 +16031,11 @@
       </c>
       <c r="J17" s="28">
         <f t="shared" si="1"/>
-        <v>7.2746034556175232E-2</v>
+        <v>4.6079367889511502E-2</v>
       </c>
       <c r="K17" s="28">
         <f t="shared" si="1"/>
-        <v>8.0643670935366174E-2</v>
+        <v>0.1073103376020299</v>
       </c>
     </row>
     <row r="18" spans="1:11" x14ac:dyDescent="0.4">
@@ -16076,11 +16076,11 @@
       </c>
       <c r="J18" s="28">
         <f t="shared" si="1"/>
-        <v>8.917887938093827E-2</v>
+        <v>5.5845546047606831E-2</v>
       </c>
       <c r="K18" s="28">
         <f t="shared" si="1"/>
-        <v>9.484968359170054E-2</v>
+        <v>0.12818301692502843</v>
       </c>
     </row>
     <row r="19" spans="1:11" x14ac:dyDescent="0.4">
@@ -16121,11 +16121,11 @@
       </c>
       <c r="J19" s="28">
         <f t="shared" si="1"/>
-        <v>0.10561172420570131</v>
+        <v>6.561172420570216E-2</v>
       </c>
       <c r="K19" s="28">
         <f t="shared" si="1"/>
-        <v>0.10905569624803135</v>
+        <v>0.14905569624802695</v>
       </c>
     </row>
     <row r="20" spans="1:11" x14ac:dyDescent="0.4">
@@ -16166,11 +16166,11 @@
       </c>
       <c r="J20" s="28">
         <f t="shared" si="1"/>
-        <v>0.12204456903046434</v>
+        <v>7.5377902363797489E-2</v>
       </c>
       <c r="K20" s="28">
         <f t="shared" si="1"/>
-        <v>0.12326170890436217</v>
+        <v>0.16992837557102547</v>
       </c>
     </row>
     <row r="21" spans="1:11" x14ac:dyDescent="0.4">
@@ -16211,11 +16211,11 @@
       </c>
       <c r="J21" s="28">
         <f t="shared" si="1"/>
-        <v>0.13847741385522738</v>
+        <v>8.5144080521892818E-2</v>
       </c>
       <c r="K21" s="28">
         <f t="shared" si="1"/>
-        <v>0.13746772156069653</v>
+        <v>0.19080105489402399</v>
       </c>
     </row>
     <row r="22" spans="1:11" x14ac:dyDescent="0.4">
@@ -16256,11 +16256,11 @@
       </c>
       <c r="J22" s="28">
         <f t="shared" si="1"/>
-        <v>0.15491025867999042</v>
+        <v>9.4910258679988146E-2</v>
       </c>
       <c r="K22" s="28">
         <f t="shared" si="1"/>
-        <v>0.15167373421702735</v>
+        <v>0.21167373421702251</v>
       </c>
     </row>
     <row r="23" spans="1:11" x14ac:dyDescent="0.4">
@@ -16301,11 +16301,11 @@
       </c>
       <c r="J23" s="28">
         <f t="shared" si="1"/>
-        <v>0.17134310350475346</v>
+        <v>0.10467643683808348</v>
       </c>
       <c r="K23" s="28">
         <f t="shared" si="1"/>
-        <v>0.16587974687335816</v>
+        <v>0.23254641354002104</v>
       </c>
     </row>
     <row r="24" spans="1:11" x14ac:dyDescent="0.4">
@@ -16346,11 +16346,11 @@
       </c>
       <c r="J24" s="28">
         <f t="shared" si="1"/>
-        <v>0.1877759483295165</v>
+        <v>0.1144426149961788</v>
       </c>
       <c r="K24" s="28">
         <f t="shared" si="1"/>
-        <v>0.18008575952969252</v>
+        <v>0.25341909286301956</v>
       </c>
     </row>
     <row r="25" spans="1:11" x14ac:dyDescent="0.4">
@@ -16391,11 +16391,11 @@
       </c>
       <c r="J25" s="28">
         <f t="shared" si="1"/>
-        <v>0.20420879315427953</v>
+        <v>0.12420879315427413</v>
       </c>
       <c r="K25" s="28">
         <f t="shared" si="1"/>
-        <v>0.19429177218602334</v>
+        <v>0.27429177218601808</v>
       </c>
     </row>
     <row r="26" spans="1:11" x14ac:dyDescent="0.4">
@@ -16436,11 +16436,11 @@
       </c>
       <c r="J26" s="28">
         <f t="shared" si="1"/>
-        <v>0.22064163797903547</v>
+        <v>0.13397497131236946</v>
       </c>
       <c r="K26" s="28">
         <f t="shared" si="1"/>
-        <v>0.2084977848423577</v>
+        <v>0.2951644515090166</v>
       </c>
     </row>
     <row r="27" spans="1:11" x14ac:dyDescent="0.4">
@@ -16481,11 +16481,11 @@
       </c>
       <c r="J27" s="28">
         <f t="shared" si="1"/>
-        <v>0.2370744828037985</v>
+        <v>0.14374114947046834</v>
       </c>
       <c r="K27" s="28">
         <f t="shared" si="1"/>
-        <v>0.22270379749868852</v>
+        <v>0.31603713083201512</v>
       </c>
     </row>
     <row r="28" spans="1:11" x14ac:dyDescent="0.4">
@@ -16526,11 +16526,11 @@
       </c>
       <c r="J28" s="28">
         <f t="shared" si="1"/>
-        <v>0.25350732762856154</v>
+        <v>0.15350732762856367</v>
       </c>
       <c r="K28" s="28">
         <f t="shared" si="1"/>
-        <v>0.23690981015501933</v>
+        <v>0.33690981015502075</v>
       </c>
     </row>
     <row r="29" spans="1:11" x14ac:dyDescent="0.4">
@@ -16571,11 +16571,11 @@
       </c>
       <c r="J29" s="28">
         <f t="shared" si="1"/>
-        <v>0.26994017245332458</v>
+        <v>0.163273505786659</v>
       </c>
       <c r="K29" s="28">
         <f t="shared" si="1"/>
-        <v>0.25111582281135369</v>
+        <v>0.35778248947801927</v>
       </c>
     </row>
     <row r="30" spans="1:11" x14ac:dyDescent="0.4">
@@ -16616,11 +16616,11 @@
       </c>
       <c r="J30" s="28">
         <f t="shared" si="1"/>
-        <v>0.28637301727808762</v>
+        <v>0.17303968394475433</v>
       </c>
       <c r="K30" s="28">
         <f t="shared" si="1"/>
-        <v>0.26532183546768451</v>
+        <v>0.37865516880101779</v>
       </c>
     </row>
     <row r="31" spans="1:11" x14ac:dyDescent="0.4">
@@ -16661,11 +16661,11 @@
       </c>
       <c r="J31" s="28">
         <f t="shared" si="1"/>
-        <v>0.30280586210285065</v>
+        <v>0.18280586210284966</v>
       </c>
       <c r="K31" s="28">
         <f t="shared" si="1"/>
-        <v>0.27952784812401532</v>
+        <v>0.39952784812401632</v>
       </c>
     </row>
     <row r="32" spans="1:11" x14ac:dyDescent="0.4">
@@ -16706,11 +16706,11 @@
       </c>
       <c r="J32" s="28">
         <f t="shared" si="1"/>
-        <v>0.31923870692761369</v>
+        <v>0.19257204026094499</v>
       </c>
       <c r="K32" s="28">
         <f t="shared" si="1"/>
-        <v>0.29373386078034969</v>
+        <v>0.42040052744701484</v>
       </c>
     </row>
     <row r="33" spans="1:11" x14ac:dyDescent="0.4">
@@ -16751,11 +16751,11 @@
       </c>
       <c r="J33" s="28">
         <f t="shared" si="1"/>
-        <v>0.33567155175237673</v>
+        <v>0.20233821841904032</v>
       </c>
       <c r="K33" s="28">
         <f t="shared" si="1"/>
-        <v>0.3079398734366805</v>
+        <v>0.44127320677001336</v>
       </c>
     </row>
     <row r="34" spans="1:11" x14ac:dyDescent="0.4">
@@ -16796,11 +16796,11 @@
       </c>
       <c r="J34" s="28">
         <f t="shared" si="1"/>
-        <v>0.35210439657713977</v>
+        <v>0.21210439657713565</v>
       </c>
       <c r="K34" s="28">
         <f t="shared" si="1"/>
-        <v>0.32214588609301131</v>
+        <v>0.46214588609301188</v>
       </c>
     </row>
     <row r="35" spans="1:11" x14ac:dyDescent="0.4">
@@ -16841,11 +16841,11 @@
       </c>
       <c r="J35" s="28">
         <f t="shared" si="1"/>
-        <v>0.3685372414019028</v>
+        <v>0.22187057473523097</v>
       </c>
       <c r="K35" s="28">
         <f t="shared" si="1"/>
-        <v>0.33635189874934568</v>
+        <v>0.4830185654160104</v>
       </c>
     </row>
     <row r="36" spans="1:11" x14ac:dyDescent="0.4">
@@ -16886,11 +16886,11 @@
       </c>
       <c r="J36" s="28">
         <f t="shared" si="1"/>
-        <v>0.38497008622665874</v>
+        <v>0.2316367528933263</v>
       </c>
       <c r="K36" s="28">
         <f t="shared" si="1"/>
-        <v>0.35055791140567649</v>
+        <v>0.50389124473900893</v>
       </c>
     </row>
     <row r="37" spans="1:11" x14ac:dyDescent="0.4">
@@ -16931,11 +16931,11 @@
       </c>
       <c r="J37" s="28">
         <f t="shared" si="1"/>
-        <v>0.40140293105142177</v>
+        <v>0.24140293105142518</v>
       </c>
       <c r="K37" s="28">
         <f t="shared" si="1"/>
-        <v>0.36476392406201086</v>
+        <v>0.52476392406200745</v>
       </c>
     </row>
     <row r="38" spans="1:11" x14ac:dyDescent="0.4">
@@ -16976,11 +16976,11 @@
       </c>
       <c r="J38" s="28">
         <f t="shared" si="1"/>
-        <v>0.41783577587618481</v>
+        <v>0.25116910920952051</v>
       </c>
       <c r="K38" s="28">
         <f t="shared" si="1"/>
-        <v>0.37896993671834167</v>
+        <v>0.54563660338500597</v>
       </c>
     </row>
     <row r="39" spans="1:11" x14ac:dyDescent="0.4">
@@ -17021,11 +17021,11 @@
       </c>
       <c r="J39" s="28">
         <f t="shared" si="1"/>
-        <v>0.43426862070094785</v>
+        <v>0.26093528736761584</v>
       </c>
       <c r="K39" s="28">
         <f t="shared" si="1"/>
-        <v>0.39317594937467248</v>
+        <v>0.56650928270800449</v>
       </c>
     </row>
     <row r="40" spans="1:11" x14ac:dyDescent="0.4">
@@ -17066,11 +17066,11 @@
       </c>
       <c r="J40" s="28">
         <f t="shared" si="2"/>
-        <v>0.45070146552571089</v>
+        <v>0.27070146552571117</v>
       </c>
       <c r="K40" s="28">
         <f t="shared" si="2"/>
-        <v>0.40738196203100685</v>
+        <v>0.58738196203100301</v>
       </c>
     </row>
     <row r="41" spans="1:11" x14ac:dyDescent="0.4">
@@ -17111,11 +17111,11 @@
       </c>
       <c r="J41" s="28">
         <f t="shared" si="2"/>
-        <v>0.46713431035047392</v>
+        <v>0.2804676436838065</v>
       </c>
       <c r="K41" s="28">
         <f t="shared" si="2"/>
-        <v>0.42158797468733766</v>
+        <v>0.60825464135400154</v>
       </c>
     </row>
     <row r="42" spans="1:11" x14ac:dyDescent="0.4">
@@ -17156,11 +17156,11 @@
       </c>
       <c r="J42" s="28">
         <f t="shared" si="2"/>
-        <v>0.48356715517523696</v>
+        <v>0.29023382184190183</v>
       </c>
       <c r="K42" s="28">
         <f t="shared" si="2"/>
-        <v>0.43579398734366848</v>
+        <v>0.62912732067700006</v>
       </c>
     </row>
     <row r="43" spans="1:11" x14ac:dyDescent="0.4">
@@ -17201,11 +17201,11 @@
       </c>
       <c r="J43" s="28">
         <f t="shared" si="2"/>
-        <v>0.5</v>
+        <v>0.29999999999999716</v>
       </c>
       <c r="K43" s="28">
         <f t="shared" si="2"/>
-        <v>0.45000000000000284</v>
+        <v>0.64999999999999858</v>
       </c>
     </row>
     <row r="45" spans="1:11" x14ac:dyDescent="0.4">
@@ -17291,11 +17291,11 @@
       </c>
       <c r="J46" s="24">
         <f>シナリオ!F16</f>
-        <v>0.5</v>
+        <v>0.3</v>
       </c>
       <c r="K46" s="24">
         <f>シナリオ!F17</f>
-        <v>0.45</v>
+        <v>0.65</v>
       </c>
     </row>
   </sheetData>
@@ -19692,7 +19692,7 @@
       </c>
       <c r="I14" s="28">
         <f t="shared" si="0"/>
-        <v>0.21219550303326395</v>
+        <v>0.20886216969993043</v>
       </c>
       <c r="J14" s="28">
         <f t="shared" si="0"/>
@@ -19700,7 +19700,7 @@
       </c>
       <c r="K14" s="28">
         <f t="shared" si="0"/>
-        <v>0.5253707532848253</v>
+        <v>0.5287040866181556</v>
       </c>
     </row>
     <row r="15" spans="1:11" x14ac:dyDescent="0.4">
@@ -19737,7 +19737,7 @@
       </c>
       <c r="I15" s="28">
         <f t="shared" si="0"/>
-        <v>0.21177496844591004</v>
+        <v>0.20510830177924344</v>
       </c>
       <c r="J15" s="28">
         <f t="shared" si="0"/>
@@ -19745,7 +19745,7 @@
       </c>
       <c r="K15" s="28">
         <f t="shared" si="0"/>
-        <v>0.53139245144741842</v>
+        <v>0.5380591181140808</v>
       </c>
     </row>
     <row r="16" spans="1:11" x14ac:dyDescent="0.4">
@@ -19782,7 +19782,7 @@
       </c>
       <c r="I16" s="28">
         <f t="shared" si="0"/>
-        <v>0.21135443385855612</v>
+        <v>0.20135443385855645</v>
       </c>
       <c r="J16" s="28">
         <f t="shared" si="0"/>
@@ -19790,7 +19790,7 @@
       </c>
       <c r="K16" s="28">
         <f t="shared" si="0"/>
-        <v>0.53741414961000977</v>
+        <v>0.54741414961000601</v>
       </c>
     </row>
     <row r="17" spans="1:11" x14ac:dyDescent="0.4">
@@ -19827,7 +19827,7 @@
       </c>
       <c r="I17" s="28">
         <f t="shared" si="0"/>
-        <v>0.21093389927120221</v>
+        <v>0.19760056593786857</v>
       </c>
       <c r="J17" s="28">
         <f t="shared" si="0"/>
@@ -19835,7 +19835,7 @@
       </c>
       <c r="K17" s="28">
         <f t="shared" si="0"/>
-        <v>0.5434358477726029</v>
+        <v>0.55676918110593121</v>
       </c>
     </row>
     <row r="18" spans="1:11" x14ac:dyDescent="0.4">
@@ -19872,7 +19872,7 @@
       </c>
       <c r="I18" s="28">
         <f t="shared" si="0"/>
-        <v>0.21051336468384829</v>
+        <v>0.19384669801718157</v>
       </c>
       <c r="J18" s="28">
         <f t="shared" si="0"/>
@@ -19880,7 +19880,7 @@
       </c>
       <c r="K18" s="28">
         <f t="shared" si="0"/>
-        <v>0.54945754593519425</v>
+        <v>0.56612421260185641</v>
       </c>
     </row>
     <row r="19" spans="1:11" x14ac:dyDescent="0.4">
@@ -19917,7 +19917,7 @@
       </c>
       <c r="I19" s="28">
         <f t="shared" si="0"/>
-        <v>0.21009283009649427</v>
+        <v>0.19009283009649458</v>
       </c>
       <c r="J19" s="28">
         <f t="shared" si="0"/>
@@ -19925,7 +19925,7 @@
       </c>
       <c r="K19" s="28">
         <f t="shared" si="0"/>
-        <v>0.55547924409778737</v>
+        <v>0.57547924409778517</v>
       </c>
     </row>
     <row r="20" spans="1:11" x14ac:dyDescent="0.4">
@@ -19962,7 +19962,7 @@
       </c>
       <c r="I20" s="28">
         <f t="shared" si="0"/>
-        <v>0.20967229550914035</v>
+        <v>0.1863389621758067</v>
       </c>
       <c r="J20" s="28">
         <f t="shared" si="0"/>
@@ -19970,7 +19970,7 @@
       </c>
       <c r="K20" s="28">
         <f t="shared" si="0"/>
-        <v>0.56150094226037872</v>
+        <v>0.58483427559371037</v>
       </c>
     </row>
     <row r="21" spans="1:11" x14ac:dyDescent="0.4">
@@ -20007,7 +20007,7 @@
       </c>
       <c r="I21" s="28">
         <f t="shared" si="0"/>
-        <v>0.20925176092178643</v>
+        <v>0.18258509425511971</v>
       </c>
       <c r="J21" s="28">
         <f t="shared" si="0"/>
@@ -20015,7 +20015,7 @@
       </c>
       <c r="K21" s="28">
         <f t="shared" si="0"/>
-        <v>0.56752264042297185</v>
+        <v>0.59418930708963558</v>
       </c>
     </row>
     <row r="22" spans="1:11" x14ac:dyDescent="0.4">
@@ -20052,7 +20052,7 @@
       </c>
       <c r="I22" s="28">
         <f t="shared" si="0"/>
-        <v>0.20883122633443252</v>
+        <v>0.17883122633443271</v>
       </c>
       <c r="J22" s="28">
         <f t="shared" si="0"/>
@@ -20060,7 +20060,7 @@
       </c>
       <c r="K22" s="28">
         <f t="shared" si="0"/>
-        <v>0.5735443385855632</v>
+        <v>0.60354433858556078</v>
       </c>
     </row>
     <row r="23" spans="1:11" x14ac:dyDescent="0.4">
@@ -20097,7 +20097,7 @@
       </c>
       <c r="I23" s="28">
         <f t="shared" si="0"/>
-        <v>0.2084106917470786</v>
+        <v>0.17507735841374572</v>
       </c>
       <c r="J23" s="28">
         <f t="shared" si="0"/>
@@ -20105,7 +20105,7 @@
       </c>
       <c r="K23" s="28">
         <f t="shared" si="0"/>
-        <v>0.57956603674815632</v>
+        <v>0.61289937008148598</v>
       </c>
     </row>
     <row r="24" spans="1:11" x14ac:dyDescent="0.4">
@@ -20142,7 +20142,7 @@
       </c>
       <c r="I24" s="28">
         <f t="shared" si="0"/>
-        <v>0.20799015715972469</v>
+        <v>0.17132349049305784</v>
       </c>
       <c r="J24" s="28">
         <f t="shared" si="0"/>
@@ -20150,7 +20150,7 @@
       </c>
       <c r="K24" s="28">
         <f t="shared" si="0"/>
-        <v>0.58558773491074767</v>
+        <v>0.62225440157741119</v>
       </c>
     </row>
     <row r="25" spans="1:11" x14ac:dyDescent="0.4">
@@ -20187,7 +20187,7 @@
       </c>
       <c r="I25" s="28">
         <f t="shared" si="0"/>
-        <v>0.20756962257237077</v>
+        <v>0.16756962257237085</v>
       </c>
       <c r="J25" s="28">
         <f t="shared" si="0"/>
@@ -20195,7 +20195,7 @@
       </c>
       <c r="K25" s="28">
         <f t="shared" si="0"/>
-        <v>0.5916094330733408</v>
+        <v>0.63160943307333639</v>
       </c>
     </row>
     <row r="26" spans="1:11" x14ac:dyDescent="0.4">
@@ -20232,7 +20232,7 @@
       </c>
       <c r="I26" s="28">
         <f t="shared" si="0"/>
-        <v>0.20714908798501674</v>
+        <v>0.16381575465168385</v>
       </c>
       <c r="J26" s="28">
         <f t="shared" si="0"/>
@@ -20240,7 +20240,7 @@
       </c>
       <c r="K26" s="28">
         <f t="shared" si="0"/>
-        <v>0.59763113123593214</v>
+        <v>0.64096446456926159</v>
       </c>
     </row>
     <row r="27" spans="1:11" x14ac:dyDescent="0.4">
@@ -20277,7 +20277,7 @@
       </c>
       <c r="I27" s="28">
         <f t="shared" si="0"/>
-        <v>0.20672855339766283</v>
+        <v>0.16006188673099597</v>
       </c>
       <c r="J27" s="28">
         <f t="shared" si="0"/>
@@ -20285,7 +20285,7 @@
       </c>
       <c r="K27" s="28">
         <f t="shared" si="0"/>
-        <v>0.60365282939852527</v>
+        <v>0.6503194960651868</v>
       </c>
     </row>
     <row r="28" spans="1:11" x14ac:dyDescent="0.4">
@@ -20322,7 +20322,7 @@
       </c>
       <c r="I28" s="28">
         <f t="shared" si="0"/>
-        <v>0.20630801881030891</v>
+        <v>0.15630801881030898</v>
       </c>
       <c r="J28" s="28">
         <f t="shared" si="0"/>
@@ -20330,7 +20330,7 @@
       </c>
       <c r="K28" s="28">
         <f t="shared" si="0"/>
-        <v>0.60967452756111662</v>
+        <v>0.65967452756111555</v>
       </c>
     </row>
     <row r="29" spans="1:11" x14ac:dyDescent="0.4">
@@ -20367,7 +20367,7 @@
       </c>
       <c r="I29" s="28">
         <f t="shared" si="0"/>
-        <v>0.205887484222955</v>
+        <v>0.15255415088962199</v>
       </c>
       <c r="J29" s="28">
         <f t="shared" si="0"/>
@@ -20375,7 +20375,7 @@
       </c>
       <c r="K29" s="28">
         <f t="shared" si="0"/>
-        <v>0.61569622572370974</v>
+        <v>0.66902955905704076</v>
       </c>
     </row>
     <row r="30" spans="1:11" x14ac:dyDescent="0.4">
@@ -20412,7 +20412,7 @@
       </c>
       <c r="I30" s="28">
         <f t="shared" si="1"/>
-        <v>0.20546694963560108</v>
+        <v>0.14880028296893411</v>
       </c>
       <c r="J30" s="28">
         <f t="shared" si="1"/>
@@ -20420,7 +20420,7 @@
       </c>
       <c r="K30" s="28">
         <f t="shared" si="1"/>
-        <v>0.62171792388630109</v>
+        <v>0.67838459055296596</v>
       </c>
     </row>
     <row r="31" spans="1:11" x14ac:dyDescent="0.4">
@@ -20457,7 +20457,7 @@
       </c>
       <c r="I31" s="28">
         <f t="shared" si="1"/>
-        <v>0.20504641504824717</v>
+        <v>0.14504641504824711</v>
       </c>
       <c r="J31" s="28">
         <f t="shared" si="1"/>
@@ -20465,7 +20465,7 @@
       </c>
       <c r="K31" s="28">
         <f t="shared" si="1"/>
-        <v>0.62773962204889422</v>
+        <v>0.68773962204889116</v>
       </c>
     </row>
     <row r="32" spans="1:11" x14ac:dyDescent="0.4">
@@ -20502,7 +20502,7 @@
       </c>
       <c r="I32" s="28">
         <f t="shared" si="1"/>
-        <v>0.20462588046089314</v>
+        <v>0.14129254712756012</v>
       </c>
       <c r="J32" s="28">
         <f t="shared" si="1"/>
@@ -20510,7 +20510,7 @@
       </c>
       <c r="K32" s="28">
         <f t="shared" si="1"/>
-        <v>0.63376132021148557</v>
+        <v>0.69709465354481637</v>
       </c>
     </row>
     <row r="33" spans="1:11" x14ac:dyDescent="0.4">
@@ -20547,7 +20547,7 @@
       </c>
       <c r="I33" s="28">
         <f t="shared" si="1"/>
-        <v>0.20420534587353922</v>
+        <v>0.13753867920687224</v>
       </c>
       <c r="J33" s="28">
         <f t="shared" si="1"/>
@@ -20555,7 +20555,7 @@
       </c>
       <c r="K33" s="28">
         <f t="shared" si="1"/>
-        <v>0.63978301837407869</v>
+        <v>0.70644968504074157</v>
       </c>
     </row>
     <row r="34" spans="1:11" x14ac:dyDescent="0.4">
@@ -20592,7 +20592,7 @@
       </c>
       <c r="I34" s="28">
         <f t="shared" si="1"/>
-        <v>0.20378481128618531</v>
+        <v>0.13378481128618525</v>
       </c>
       <c r="J34" s="28">
         <f t="shared" si="1"/>
@@ -20600,7 +20600,7 @@
       </c>
       <c r="K34" s="28">
         <f t="shared" si="1"/>
-        <v>0.64580471653667004</v>
+        <v>0.71580471653666677</v>
       </c>
     </row>
     <row r="35" spans="1:11" x14ac:dyDescent="0.4">
@@ -20637,7 +20637,7 @@
       </c>
       <c r="I35" s="28">
         <f t="shared" si="1"/>
-        <v>0.20336427669883139</v>
+        <v>0.13003094336549825</v>
       </c>
       <c r="J35" s="28">
         <f t="shared" si="1"/>
@@ -20645,7 +20645,7 @@
       </c>
       <c r="K35" s="28">
         <f t="shared" si="1"/>
-        <v>0.65182641469926317</v>
+        <v>0.72515974803259198</v>
       </c>
     </row>
     <row r="36" spans="1:11" x14ac:dyDescent="0.4">
@@ -20682,7 +20682,7 @@
       </c>
       <c r="I36" s="28">
         <f t="shared" si="1"/>
-        <v>0.20294374211147748</v>
+        <v>0.12627707544481126</v>
       </c>
       <c r="J36" s="28">
         <f t="shared" si="1"/>
@@ -20690,7 +20690,7 @@
       </c>
       <c r="K36" s="28">
         <f t="shared" si="1"/>
-        <v>0.65784811286185452</v>
+        <v>0.73451477952851718</v>
       </c>
     </row>
     <row r="37" spans="1:11" x14ac:dyDescent="0.4">
@@ -20727,7 +20727,7 @@
       </c>
       <c r="I37" s="28">
         <f t="shared" si="1"/>
-        <v>0.20252320752412356</v>
+        <v>0.12252320752412338</v>
       </c>
       <c r="J37" s="28">
         <f t="shared" si="1"/>
@@ -20735,7 +20735,7 @@
       </c>
       <c r="K37" s="28">
         <f t="shared" si="1"/>
-        <v>0.66386981102444764</v>
+        <v>0.74386981102444594</v>
       </c>
     </row>
     <row r="38" spans="1:11" x14ac:dyDescent="0.4">
@@ -20772,7 +20772,7 @@
       </c>
       <c r="I38" s="28">
         <f t="shared" si="1"/>
-        <v>0.20210267293676953</v>
+        <v>0.11876933960343639</v>
       </c>
       <c r="J38" s="28">
         <f t="shared" si="1"/>
@@ -20780,7 +20780,7 @@
       </c>
       <c r="K38" s="28">
         <f t="shared" si="1"/>
-        <v>0.66989150918703899</v>
+        <v>0.75322484252037114</v>
       </c>
     </row>
     <row r="39" spans="1:11" x14ac:dyDescent="0.4">
@@ -20817,7 +20817,7 @@
       </c>
       <c r="I39" s="28">
         <f t="shared" si="1"/>
-        <v>0.20168213834941562</v>
+        <v>0.11501547168274939</v>
       </c>
       <c r="J39" s="28">
         <f t="shared" si="1"/>
@@ -20825,7 +20825,7 @@
       </c>
       <c r="K39" s="28">
         <f t="shared" si="1"/>
-        <v>0.67591320734963212</v>
+        <v>0.76257987401629634</v>
       </c>
     </row>
     <row r="40" spans="1:11" x14ac:dyDescent="0.4">
@@ -20862,7 +20862,7 @@
       </c>
       <c r="I40" s="28">
         <f t="shared" si="1"/>
-        <v>0.2012616037620617</v>
+        <v>0.11126160376206151</v>
       </c>
       <c r="J40" s="28">
         <f t="shared" si="1"/>
@@ -20870,7 +20870,7 @@
       </c>
       <c r="K40" s="28">
         <f t="shared" si="1"/>
-        <v>0.68193490551222347</v>
+        <v>0.77193490551222155</v>
       </c>
     </row>
     <row r="41" spans="1:11" x14ac:dyDescent="0.4">
@@ -20907,7 +20907,7 @@
       </c>
       <c r="I41" s="28">
         <f t="shared" si="1"/>
-        <v>0.20084106917470779</v>
+        <v>0.10750773584137452</v>
       </c>
       <c r="J41" s="28">
         <f t="shared" si="1"/>
@@ -20915,7 +20915,7 @@
       </c>
       <c r="K41" s="28">
         <f t="shared" si="1"/>
-        <v>0.68795660367481659</v>
+        <v>0.78128993700814675</v>
       </c>
     </row>
     <row r="42" spans="1:11" x14ac:dyDescent="0.4">
@@ -20952,7 +20952,7 @@
       </c>
       <c r="I42" s="28">
         <f t="shared" si="1"/>
-        <v>0.20042053458735387</v>
+        <v>0.10375386792068753</v>
       </c>
       <c r="J42" s="28">
         <f t="shared" si="1"/>
@@ -20960,7 +20960,7 @@
       </c>
       <c r="K42" s="28">
         <f t="shared" si="1"/>
-        <v>0.69397830183740972</v>
+        <v>0.79064496850407195</v>
       </c>
     </row>
     <row r="43" spans="1:11" x14ac:dyDescent="0.4">
@@ -20997,7 +20997,7 @@
       </c>
       <c r="I43" s="28">
         <f t="shared" si="1"/>
-        <v>0.19999999999999996</v>
+        <v>9.9999999999999645E-2</v>
       </c>
       <c r="J43" s="28">
         <f t="shared" si="1"/>
@@ -21005,7 +21005,7 @@
       </c>
       <c r="K43" s="28">
         <f t="shared" si="1"/>
-        <v>0.70000000000000107</v>
+        <v>0.79999999999999716</v>
       </c>
     </row>
     <row r="45" spans="1:11" x14ac:dyDescent="0.4">
@@ -21087,7 +21087,7 @@
       </c>
       <c r="I46" s="24">
         <f>シナリオ!F25</f>
-        <v>0.2</v>
+        <v>0.1</v>
       </c>
       <c r="J46" s="24">
         <f>シナリオ!F26</f>
@@ -21095,7 +21095,7 @@
       </c>
       <c r="K46" s="24">
         <f>シナリオ!F27</f>
-        <v>0.7</v>
+        <v>0.8</v>
       </c>
     </row>
   </sheetData>
@@ -22232,7 +22232,7 @@
       </c>
       <c r="U14" s="28">
         <f t="shared" si="1"/>
-        <v>3.9424122266358608E-2</v>
+        <v>3.7757455599691792E-2</v>
       </c>
       <c r="V14" s="28">
         <f t="shared" si="1"/>
@@ -22240,7 +22240,7 @@
       </c>
       <c r="W14" s="28">
         <f t="shared" si="1"/>
-        <v>6.6666666666659324E-3</v>
+        <v>1.5000000000000568E-2</v>
       </c>
       <c r="X14" s="28">
         <f t="shared" si="1"/>
@@ -22252,11 +22252,11 @@
       </c>
       <c r="Z14" s="28">
         <f t="shared" si="1"/>
-        <v>1.8739790894130692E-2</v>
+        <v>1.5406457560795062E-2</v>
       </c>
       <c r="AA14" s="28">
         <f t="shared" si="1"/>
-        <v>8.8723951220053721E-2</v>
+        <v>8.5390617886719866E-2</v>
       </c>
     </row>
     <row r="15" spans="1:27" x14ac:dyDescent="0.4">
@@ -22341,7 +22341,7 @@
       </c>
       <c r="U15" s="28">
         <f t="shared" si="1"/>
-        <v>3.978880770544968E-2</v>
+        <v>3.6455474372116381E-2</v>
       </c>
       <c r="V15" s="28">
         <f t="shared" si="1"/>
@@ -22349,7 +22349,7 @@
       </c>
       <c r="W15" s="28">
         <f t="shared" si="1"/>
-        <v>1.3333333333331865E-2</v>
+        <v>3.0000000000001137E-2</v>
       </c>
       <c r="X15" s="28">
         <f t="shared" si="1"/>
@@ -22361,11 +22361,11 @@
       </c>
       <c r="Z15" s="28">
         <f t="shared" si="1"/>
-        <v>2.8438418794333842E-2</v>
+        <v>2.1771752127664357E-2</v>
       </c>
       <c r="AA15" s="28">
         <f t="shared" si="1"/>
-        <v>9.773347014349909E-2</v>
+        <v>9.1066803476833158E-2</v>
       </c>
     </row>
     <row r="16" spans="1:27" x14ac:dyDescent="0.4">
@@ -22450,7 +22450,7 @@
       </c>
       <c r="U16" s="28">
         <f t="shared" si="1"/>
-        <v>4.0153493144540753E-2</v>
+        <v>3.515349314454097E-2</v>
       </c>
       <c r="V16" s="28">
         <f t="shared" si="1"/>
@@ -22458,7 +22458,7 @@
       </c>
       <c r="W16" s="28">
         <f t="shared" si="1"/>
-        <v>1.9999999999999574E-2</v>
+        <v>4.5000000000001705E-2</v>
       </c>
       <c r="X16" s="28">
         <f t="shared" si="1"/>
@@ -22470,11 +22470,11 @@
       </c>
       <c r="Z16" s="28">
         <f t="shared" si="1"/>
-        <v>3.8137046694536991E-2</v>
+        <v>2.8137046694533652E-2</v>
       </c>
       <c r="AA16" s="28">
         <f t="shared" si="1"/>
-        <v>0.10674298906694446</v>
+        <v>9.674298906694645E-2</v>
       </c>
     </row>
     <row r="17" spans="1:27" x14ac:dyDescent="0.4">
@@ -22559,7 +22559,7 @@
       </c>
       <c r="U17" s="28">
         <f t="shared" si="1"/>
-        <v>4.0518178583631825E-2</v>
+        <v>3.3851511916965116E-2</v>
       </c>
       <c r="V17" s="28">
         <f t="shared" si="1"/>
@@ -22567,7 +22567,7 @@
       </c>
       <c r="W17" s="28">
         <f t="shared" si="1"/>
-        <v>2.6666666666665506E-2</v>
+        <v>6.0000000000002274E-2</v>
       </c>
       <c r="X17" s="28">
         <f t="shared" si="1"/>
@@ -22579,11 +22579,11 @@
       </c>
       <c r="Z17" s="28">
         <f t="shared" si="1"/>
-        <v>4.7835674594736588E-2</v>
+        <v>3.4502341261402947E-2</v>
       </c>
       <c r="AA17" s="28">
         <f t="shared" si="1"/>
-        <v>0.11575250799039338</v>
+        <v>0.10241917465705797</v>
       </c>
     </row>
     <row r="18" spans="1:27" x14ac:dyDescent="0.4">
@@ -22668,7 +22668,7 @@
       </c>
       <c r="U18" s="28">
         <f t="shared" si="1"/>
-        <v>4.0882864022722898E-2</v>
+        <v>3.2549530689389705E-2</v>
       </c>
       <c r="V18" s="28">
         <f t="shared" si="1"/>
@@ -22676,7 +22676,7 @@
       </c>
       <c r="W18" s="28">
         <f t="shared" si="1"/>
-        <v>3.3333333333331439E-2</v>
+        <v>7.5000000000002842E-2</v>
       </c>
       <c r="X18" s="28">
         <f t="shared" si="1"/>
@@ -22688,11 +22688,11 @@
       </c>
       <c r="Z18" s="28">
         <f t="shared" si="1"/>
-        <v>5.7534302494939737E-2</v>
+        <v>4.0867635828272242E-2</v>
       </c>
       <c r="AA18" s="28">
         <f t="shared" si="1"/>
-        <v>0.12476202691383875</v>
+        <v>0.10809536024717126</v>
       </c>
     </row>
     <row r="19" spans="1:27" x14ac:dyDescent="0.4">
@@ -22777,7 +22777,7 @@
       </c>
       <c r="U19" s="28">
         <f t="shared" si="1"/>
-        <v>4.124754946181397E-2</v>
+        <v>3.1247549461813851E-2</v>
       </c>
       <c r="V19" s="28">
         <f t="shared" si="1"/>
@@ -22785,7 +22785,7 @@
       </c>
       <c r="W19" s="28">
         <f t="shared" si="1"/>
-        <v>3.9999999999999147E-2</v>
+        <v>9.0000000000003411E-2</v>
       </c>
       <c r="X19" s="28">
         <f t="shared" si="1"/>
@@ -22797,11 +22797,11 @@
       </c>
       <c r="Z19" s="28">
         <f t="shared" si="1"/>
-        <v>6.7232930395142887E-2</v>
+        <v>4.7232930395141537E-2</v>
       </c>
       <c r="AA19" s="28">
         <f t="shared" si="1"/>
-        <v>0.13377154583728412</v>
+        <v>0.11377154583728455</v>
       </c>
     </row>
     <row r="20" spans="1:27" x14ac:dyDescent="0.4">
@@ -22886,7 +22886,7 @@
       </c>
       <c r="U20" s="28">
         <f t="shared" si="1"/>
-        <v>4.1612234900905043E-2</v>
+        <v>2.994556823423844E-2</v>
       </c>
       <c r="V20" s="28">
         <f t="shared" si="1"/>
@@ -22894,7 +22894,7 @@
       </c>
       <c r="W20" s="28">
         <f t="shared" si="1"/>
-        <v>4.666666666666508E-2</v>
+        <v>0.10500000000000043</v>
       </c>
       <c r="X20" s="28">
         <f t="shared" si="1"/>
@@ -22906,11 +22906,11 @@
       </c>
       <c r="Z20" s="28">
         <f t="shared" si="1"/>
-        <v>7.6931558295346036E-2</v>
+        <v>5.3598224962010832E-2</v>
       </c>
       <c r="AA20" s="28">
         <f t="shared" si="1"/>
-        <v>0.14278106476073305</v>
+        <v>0.11944773142739784</v>
       </c>
     </row>
     <row r="21" spans="1:27" x14ac:dyDescent="0.4">
@@ -22995,7 +22995,7 @@
       </c>
       <c r="U21" s="28">
         <f t="shared" si="1"/>
-        <v>4.1976920339996115E-2</v>
+        <v>2.8643587006663029E-2</v>
       </c>
       <c r="V21" s="28">
         <f t="shared" si="1"/>
@@ -23003,7 +23003,7 @@
       </c>
       <c r="W21" s="28">
         <f t="shared" si="1"/>
-        <v>5.3333333333332789E-2</v>
+        <v>0.12000000000000099</v>
       </c>
       <c r="X21" s="28">
         <f t="shared" si="1"/>
@@ -23015,11 +23015,11 @@
       </c>
       <c r="Z21" s="28">
         <f t="shared" si="1"/>
-        <v>8.6630186195549186E-2</v>
+        <v>5.9963519528880127E-2</v>
       </c>
       <c r="AA21" s="28">
         <f t="shared" si="1"/>
-        <v>0.15179058368417842</v>
+        <v>0.12512391701751113</v>
       </c>
     </row>
     <row r="22" spans="1:27" x14ac:dyDescent="0.4">
@@ -23104,7 +23104,7 @@
       </c>
       <c r="U22" s="28">
         <f t="shared" si="1"/>
-        <v>4.2341605779087299E-2</v>
+        <v>2.7341605779087175E-2</v>
       </c>
       <c r="V22" s="28">
         <f t="shared" si="1"/>
@@ -23112,7 +23112,7 @@
       </c>
       <c r="W22" s="28">
         <f t="shared" si="1"/>
-        <v>5.9999999999998721E-2</v>
+        <v>0.13500000000000156</v>
       </c>
       <c r="X22" s="28">
         <f t="shared" si="1"/>
@@ -23124,11 +23124,11 @@
       </c>
       <c r="Z22" s="28">
         <f t="shared" si="1"/>
-        <v>9.6328814095752335E-2</v>
+        <v>6.6328814095747646E-2</v>
       </c>
       <c r="AA22" s="28">
         <f t="shared" si="1"/>
-        <v>0.16080010260762378</v>
+        <v>0.13080010260762442</v>
       </c>
     </row>
     <row r="23" spans="1:27" x14ac:dyDescent="0.4">
@@ -23213,7 +23213,7 @@
       </c>
       <c r="U23" s="28">
         <f t="shared" si="1"/>
-        <v>4.2706291218178372E-2</v>
+        <v>2.6039624551511764E-2</v>
       </c>
       <c r="V23" s="28">
         <f t="shared" si="1"/>
@@ -23221,7 +23221,7 @@
       </c>
       <c r="W23" s="28">
         <f t="shared" si="1"/>
-        <v>6.666666666666643E-2</v>
+        <v>0.15000000000000213</v>
       </c>
       <c r="X23" s="28">
         <f t="shared" si="1"/>
@@ -23233,11 +23233,11 @@
       </c>
       <c r="Z23" s="28">
         <f t="shared" si="1"/>
-        <v>0.10602744199595193</v>
+        <v>7.2694108662616941E-2</v>
       </c>
       <c r="AA23" s="28">
         <f t="shared" si="1"/>
-        <v>0.16980962153107271</v>
+        <v>0.13647628819773772</v>
       </c>
     </row>
     <row r="24" spans="1:27" x14ac:dyDescent="0.4">
@@ -23322,7 +23322,7 @@
       </c>
       <c r="U24" s="28">
         <f t="shared" si="1"/>
-        <v>4.3070976657269444E-2</v>
+        <v>2.4737643323935909E-2</v>
       </c>
       <c r="V24" s="28">
         <f t="shared" si="1"/>
@@ -23330,7 +23330,7 @@
       </c>
       <c r="W24" s="28">
         <f t="shared" si="1"/>
-        <v>7.3333333333332362E-2</v>
+        <v>0.1650000000000027</v>
       </c>
       <c r="X24" s="28">
         <f t="shared" si="1"/>
@@ -23342,11 +23342,11 @@
       </c>
       <c r="Z24" s="28">
         <f t="shared" si="1"/>
-        <v>0.11572606989615508</v>
+        <v>7.9059403229486236E-2</v>
       </c>
       <c r="AA24" s="28">
         <f t="shared" si="1"/>
-        <v>0.17881914045451808</v>
+        <v>0.14215247378785101</v>
       </c>
     </row>
     <row r="25" spans="1:27" x14ac:dyDescent="0.4">
@@ -23431,7 +23431,7 @@
       </c>
       <c r="U25" s="28">
         <f t="shared" si="1"/>
-        <v>4.3435662096360517E-2</v>
+        <v>2.3435662096360499E-2</v>
       </c>
       <c r="V25" s="28">
         <f t="shared" si="1"/>
@@ -23439,7 +23439,7 @@
       </c>
       <c r="W25" s="28">
         <f t="shared" si="1"/>
-        <v>7.9999999999998295E-2</v>
+        <v>0.18000000000000327</v>
       </c>
       <c r="X25" s="28">
         <f t="shared" si="1"/>
@@ -23451,11 +23451,11 @@
       </c>
       <c r="Z25" s="28">
         <f t="shared" si="1"/>
-        <v>0.12542469779635823</v>
+        <v>8.5424697796355531E-2</v>
       </c>
       <c r="AA25" s="28">
         <f t="shared" si="1"/>
-        <v>0.18782865937796345</v>
+        <v>0.1478286593779643</v>
       </c>
     </row>
     <row r="26" spans="1:27" x14ac:dyDescent="0.4">
@@ -23540,7 +23540,7 @@
       </c>
       <c r="U26" s="28">
         <f t="shared" si="1"/>
-        <v>4.3800347535451589E-2</v>
+        <v>2.2133680868785088E-2</v>
       </c>
       <c r="V26" s="28">
         <f t="shared" si="1"/>
@@ -23548,7 +23548,7 @@
       </c>
       <c r="W26" s="28">
         <f t="shared" si="1"/>
-        <v>8.6666666666666003E-2</v>
+        <v>0.19500000000000028</v>
       </c>
       <c r="X26" s="28">
         <f t="shared" si="1"/>
@@ -23560,11 +23560,11 @@
       </c>
       <c r="Z26" s="28">
         <f t="shared" si="1"/>
-        <v>0.13512332569656138</v>
+        <v>9.1789992363224826E-2</v>
       </c>
       <c r="AA26" s="28">
         <f t="shared" si="1"/>
-        <v>0.19683817830140882</v>
+        <v>0.15350484496807759</v>
       </c>
     </row>
     <row r="27" spans="1:27" x14ac:dyDescent="0.4">
@@ -23649,7 +23649,7 @@
       </c>
       <c r="U27" s="28">
         <f t="shared" si="1"/>
-        <v>4.4165032974542662E-2</v>
+        <v>2.0831699641209234E-2</v>
       </c>
       <c r="V27" s="28">
         <f t="shared" si="1"/>
@@ -23657,7 +23657,7 @@
       </c>
       <c r="W27" s="28">
         <f t="shared" si="1"/>
-        <v>9.3333333333331936E-2</v>
+        <v>0.21000000000000085</v>
       </c>
       <c r="X27" s="28">
         <f t="shared" si="1"/>
@@ -23669,11 +23669,11 @@
       </c>
       <c r="Z27" s="28">
         <f t="shared" si="1"/>
-        <v>0.14482195359676453</v>
+        <v>9.8155286930094121E-2</v>
       </c>
       <c r="AA27" s="28">
         <f t="shared" si="1"/>
-        <v>0.20584769722485774</v>
+        <v>0.15918103055818911</v>
       </c>
     </row>
     <row r="28" spans="1:27" x14ac:dyDescent="0.4">
@@ -23758,7 +23758,7 @@
       </c>
       <c r="U28" s="28">
         <f t="shared" si="1"/>
-        <v>4.4529718413633734E-2</v>
+        <v>1.9529718413633823E-2</v>
       </c>
       <c r="V28" s="28">
         <f t="shared" si="1"/>
@@ -23766,7 +23766,7 @@
       </c>
       <c r="W28" s="28">
         <f t="shared" si="1"/>
-        <v>9.9999999999999645E-2</v>
+        <v>0.22500000000000142</v>
       </c>
       <c r="X28" s="28">
         <f t="shared" si="1"/>
@@ -23778,11 +23778,11 @@
       </c>
       <c r="Z28" s="28">
         <f t="shared" si="1"/>
-        <v>0.15452058149696413</v>
+        <v>0.10452058149696342</v>
       </c>
       <c r="AA28" s="28">
         <f t="shared" si="1"/>
-        <v>0.21485721614830311</v>
+        <v>0.1648572161483024</v>
       </c>
     </row>
     <row r="29" spans="1:27" x14ac:dyDescent="0.4">
@@ -23867,7 +23867,7 @@
       </c>
       <c r="U29" s="28">
         <f t="shared" si="1"/>
-        <v>4.4894403852724807E-2</v>
+        <v>1.8227737186058413E-2</v>
       </c>
       <c r="V29" s="28">
         <f t="shared" si="1"/>
@@ -23875,7 +23875,7 @@
       </c>
       <c r="W29" s="28">
         <f t="shared" si="1"/>
-        <v>0.10666666666666558</v>
+        <v>0.24000000000000199</v>
       </c>
       <c r="X29" s="28">
         <f t="shared" si="1"/>
@@ -23887,11 +23887,11 @@
       </c>
       <c r="Z29" s="28">
         <f t="shared" si="1"/>
-        <v>0.16421920939716728</v>
+        <v>0.11088587606383271</v>
       </c>
       <c r="AA29" s="28">
         <f t="shared" si="1"/>
-        <v>0.22386673507174848</v>
+        <v>0.17053340173841569</v>
       </c>
     </row>
     <row r="30" spans="1:27" x14ac:dyDescent="0.4">
@@ -23976,7 +23976,7 @@
       </c>
       <c r="U30" s="28">
         <f t="shared" si="3"/>
-        <v>4.525908929181599E-2</v>
+        <v>1.6925755958482558E-2</v>
       </c>
       <c r="V30" s="28">
         <f t="shared" si="3"/>
@@ -23984,7 +23984,7 @@
       </c>
       <c r="W30" s="28">
         <f t="shared" si="3"/>
-        <v>0.11333333333333151</v>
+        <v>0.25500000000000256</v>
       </c>
       <c r="X30" s="28">
         <f t="shared" si="3"/>
@@ -23996,11 +23996,11 @@
       </c>
       <c r="Z30" s="28">
         <f t="shared" si="3"/>
-        <v>0.17391783729737043</v>
+        <v>0.11725117063070201</v>
       </c>
       <c r="AA30" s="28">
         <f t="shared" si="3"/>
-        <v>0.2328762539951974</v>
+        <v>0.17620958732852898</v>
       </c>
     </row>
     <row r="31" spans="1:27" x14ac:dyDescent="0.4">
@@ -24085,7 +24085,7 @@
       </c>
       <c r="U31" s="28">
         <f t="shared" si="3"/>
-        <v>4.5623774730907063E-2</v>
+        <v>1.5623774730907147E-2</v>
       </c>
       <c r="V31" s="28">
         <f t="shared" si="3"/>
@@ -24093,7 +24093,7 @@
       </c>
       <c r="W31" s="28">
         <f t="shared" si="3"/>
-        <v>0.11999999999999922</v>
+        <v>0.27000000000000313</v>
       </c>
       <c r="X31" s="28">
         <f t="shared" si="3"/>
@@ -24105,11 +24105,11 @@
       </c>
       <c r="Z31" s="28">
         <f t="shared" si="3"/>
-        <v>0.18361646519757358</v>
+        <v>0.1236164651975713</v>
       </c>
       <c r="AA31" s="28">
         <f t="shared" si="3"/>
-        <v>0.24188577291864277</v>
+        <v>0.18188577291864227</v>
       </c>
     </row>
     <row r="32" spans="1:27" x14ac:dyDescent="0.4">
@@ -24194,7 +24194,7 @@
       </c>
       <c r="U32" s="28">
         <f t="shared" si="3"/>
-        <v>4.5988460169998135E-2</v>
+        <v>1.4321793503331293E-2</v>
       </c>
       <c r="V32" s="28">
         <f t="shared" si="3"/>
@@ -24202,7 +24202,7 @@
       </c>
       <c r="W32" s="28">
         <f t="shared" si="3"/>
-        <v>0.12666666666666515</v>
+        <v>0.28500000000000014</v>
       </c>
       <c r="X32" s="28">
         <f t="shared" si="3"/>
@@ -24214,11 +24214,11 @@
       </c>
       <c r="Z32" s="28">
         <f t="shared" si="3"/>
-        <v>0.19331509309777672</v>
+        <v>0.1299817597644406</v>
       </c>
       <c r="AA32" s="28">
         <f t="shared" si="3"/>
-        <v>0.25089529184208814</v>
+        <v>0.18756195850875557</v>
       </c>
     </row>
     <row r="33" spans="1:27" x14ac:dyDescent="0.4">
@@ -24303,7 +24303,7 @@
       </c>
       <c r="U33" s="28">
         <f t="shared" si="3"/>
-        <v>4.6353145609089208E-2</v>
+        <v>1.3019812275755882E-2</v>
       </c>
       <c r="V33" s="28">
         <f t="shared" si="3"/>
@@ -24311,7 +24311,7 @@
       </c>
       <c r="W33" s="28">
         <f t="shared" si="3"/>
-        <v>0.13333333333333286</v>
+        <v>0.30000000000000071</v>
       </c>
       <c r="X33" s="28">
         <f t="shared" si="3"/>
@@ -24323,11 +24323,11 @@
       </c>
       <c r="Z33" s="28">
         <f t="shared" si="3"/>
-        <v>0.20301372099797632</v>
+        <v>0.13634705433130989</v>
       </c>
       <c r="AA33" s="28">
         <f t="shared" si="3"/>
-        <v>0.25990481076553706</v>
+        <v>0.19323814409886886</v>
       </c>
     </row>
     <row r="34" spans="1:27" x14ac:dyDescent="0.4">
@@ -24412,7 +24412,7 @@
       </c>
       <c r="U34" s="28">
         <f t="shared" si="3"/>
-        <v>4.6717831048180281E-2</v>
+        <v>1.1717831048180471E-2</v>
       </c>
       <c r="V34" s="28">
         <f t="shared" si="3"/>
@@ -24420,7 +24420,7 @@
       </c>
       <c r="W34" s="28">
         <f t="shared" si="3"/>
-        <v>0.13999999999999879</v>
+        <v>0.31500000000000128</v>
       </c>
       <c r="X34" s="28">
         <f t="shared" si="3"/>
@@ -24432,11 +24432,11 @@
       </c>
       <c r="Z34" s="28">
         <f t="shared" si="3"/>
-        <v>0.21271234889817947</v>
+        <v>0.14271234889817919</v>
       </c>
       <c r="AA34" s="28">
         <f t="shared" si="3"/>
-        <v>0.26891432968898243</v>
+        <v>0.19891432968898215</v>
       </c>
     </row>
     <row r="35" spans="1:27" x14ac:dyDescent="0.4">
@@ -24521,7 +24521,7 @@
       </c>
       <c r="U35" s="28">
         <f t="shared" si="3"/>
-        <v>4.7082516487271353E-2</v>
+        <v>1.0415849820604617E-2</v>
       </c>
       <c r="V35" s="28">
         <f t="shared" si="3"/>
@@ -24529,7 +24529,7 @@
       </c>
       <c r="W35" s="28">
         <f t="shared" si="3"/>
-        <v>0.1466666666666665</v>
+        <v>0.33000000000000185</v>
       </c>
       <c r="X35" s="28">
         <f t="shared" si="3"/>
@@ -24541,11 +24541,11 @@
       </c>
       <c r="Z35" s="28">
         <f t="shared" si="3"/>
-        <v>0.22241097679838262</v>
+        <v>0.14907764346504671</v>
       </c>
       <c r="AA35" s="28">
         <f t="shared" si="3"/>
-        <v>0.2779238486124278</v>
+        <v>0.20459051527909544</v>
       </c>
     </row>
     <row r="36" spans="1:27" x14ac:dyDescent="0.4">
@@ -24630,7 +24630,7 @@
       </c>
       <c r="U36" s="28">
         <f t="shared" si="3"/>
-        <v>4.7447201926362426E-2</v>
+        <v>9.1138685930292063E-3</v>
       </c>
       <c r="V36" s="28">
         <f t="shared" si="3"/>
@@ -24638,7 +24638,7 @@
       </c>
       <c r="W36" s="28">
         <f t="shared" si="3"/>
-        <v>0.15333333333333243</v>
+        <v>0.34500000000000242</v>
       </c>
       <c r="X36" s="28">
         <f t="shared" si="3"/>
@@ -24650,11 +24650,11 @@
       </c>
       <c r="Z36" s="28">
         <f t="shared" si="3"/>
-        <v>0.23210960469858577</v>
+        <v>0.155442938031916</v>
       </c>
       <c r="AA36" s="28">
         <f t="shared" si="3"/>
-        <v>0.28693336753587317</v>
+        <v>0.21026670086920873</v>
       </c>
     </row>
     <row r="37" spans="1:27" x14ac:dyDescent="0.4">
@@ -24739,7 +24739,7 @@
       </c>
       <c r="U37" s="28">
         <f t="shared" si="3"/>
-        <v>4.7811887365453498E-2</v>
+        <v>7.8118873654537957E-3</v>
       </c>
       <c r="V37" s="28">
         <f t="shared" si="3"/>
@@ -24747,7 +24747,7 @@
       </c>
       <c r="W37" s="28">
         <f t="shared" si="3"/>
-        <v>0.15999999999999837</v>
+        <v>0.36000000000000298</v>
       </c>
       <c r="X37" s="28">
         <f t="shared" si="3"/>
@@ -24759,11 +24759,11 @@
       </c>
       <c r="Z37" s="28">
         <f t="shared" si="3"/>
-        <v>0.24180823259878892</v>
+        <v>0.1618082325987853</v>
       </c>
       <c r="AA37" s="28">
         <f t="shared" si="3"/>
-        <v>0.2959428864593221</v>
+        <v>0.21594288645932025</v>
       </c>
     </row>
     <row r="38" spans="1:27" x14ac:dyDescent="0.4">
@@ -24848,7 +24848,7 @@
       </c>
       <c r="U38" s="28">
         <f t="shared" si="3"/>
-        <v>4.8176572804544682E-2</v>
+        <v>6.509906137877941E-3</v>
       </c>
       <c r="V38" s="28">
         <f t="shared" si="3"/>
@@ -24856,7 +24856,7 @@
       </c>
       <c r="W38" s="28">
         <f t="shared" si="3"/>
-        <v>0.16666666666666607</v>
+        <v>0.375</v>
       </c>
       <c r="X38" s="28">
         <f t="shared" si="3"/>
@@ -24868,11 +24868,11 @@
       </c>
       <c r="Z38" s="28">
         <f t="shared" si="3"/>
-        <v>0.25150686049899207</v>
+        <v>0.16817352716565459</v>
       </c>
       <c r="AA38" s="28">
         <f t="shared" si="3"/>
-        <v>0.30495240538276747</v>
+        <v>0.22161907204943354</v>
       </c>
     </row>
     <row r="39" spans="1:27" x14ac:dyDescent="0.4">
@@ -24957,7 +24957,7 @@
       </c>
       <c r="U39" s="28">
         <f t="shared" si="3"/>
-        <v>4.8541258243635754E-2</v>
+        <v>5.2079249103025305E-3</v>
       </c>
       <c r="V39" s="28">
         <f t="shared" si="3"/>
@@ -24965,7 +24965,7 @@
       </c>
       <c r="W39" s="28">
         <f t="shared" si="3"/>
-        <v>0.17333333333333201</v>
+        <v>0.39000000000000057</v>
       </c>
       <c r="X39" s="28">
         <f t="shared" si="3"/>
@@ -24977,11 +24977,11 @@
       </c>
       <c r="Z39" s="28">
         <f t="shared" si="3"/>
-        <v>0.26120548839919167</v>
+        <v>0.17453882173252389</v>
       </c>
       <c r="AA39" s="28">
         <f t="shared" si="3"/>
-        <v>0.31396192430621284</v>
+        <v>0.22729525763954683</v>
       </c>
     </row>
     <row r="40" spans="1:27" x14ac:dyDescent="0.4">
@@ -25066,7 +25066,7 @@
       </c>
       <c r="U40" s="28">
         <f t="shared" si="3"/>
-        <v>4.8905943682726827E-2</v>
+        <v>3.9059436827266758E-3</v>
       </c>
       <c r="V40" s="28">
         <f t="shared" si="3"/>
@@ -25074,7 +25074,7 @@
       </c>
       <c r="W40" s="28">
         <f t="shared" si="3"/>
-        <v>0.17999999999999972</v>
+        <v>0.40500000000000114</v>
       </c>
       <c r="X40" s="28">
         <f t="shared" si="3"/>
@@ -25086,11 +25086,11 @@
       </c>
       <c r="Z40" s="28">
         <f t="shared" si="3"/>
-        <v>0.27090411629939481</v>
+        <v>0.18090411629939318</v>
       </c>
       <c r="AA40" s="28">
         <f t="shared" si="3"/>
-        <v>0.32297144322966176</v>
+        <v>0.23297144322966012</v>
       </c>
     </row>
     <row r="41" spans="1:27" x14ac:dyDescent="0.4">
@@ -25175,7 +25175,7 @@
       </c>
       <c r="U41" s="28">
         <f t="shared" si="3"/>
-        <v>4.9270629121817899E-2</v>
+        <v>2.6039624551512652E-3</v>
       </c>
       <c r="V41" s="28">
         <f t="shared" si="3"/>
@@ -25183,7 +25183,7 @@
       </c>
       <c r="W41" s="28">
         <f t="shared" si="3"/>
-        <v>0.18666666666666565</v>
+        <v>0.42000000000000171</v>
       </c>
       <c r="X41" s="28">
         <f t="shared" si="3"/>
@@ -25195,11 +25195,11 @@
       </c>
       <c r="Z41" s="28">
         <f t="shared" si="3"/>
-        <v>0.28060274419959796</v>
+        <v>0.18726941086626248</v>
       </c>
       <c r="AA41" s="28">
         <f t="shared" si="3"/>
-        <v>0.33198096215310713</v>
+        <v>0.23864762881977342</v>
       </c>
     </row>
     <row r="42" spans="1:27" x14ac:dyDescent="0.4">
@@ -25284,7 +25284,7 @@
       </c>
       <c r="U42" s="28">
         <f t="shared" si="3"/>
-        <v>4.9635314560908972E-2</v>
+        <v>1.3019812275758547E-3</v>
       </c>
       <c r="V42" s="28">
         <f t="shared" si="3"/>
@@ -25292,7 +25292,7 @@
       </c>
       <c r="W42" s="28">
         <f t="shared" si="3"/>
-        <v>0.19333333333333158</v>
+        <v>0.43500000000000227</v>
       </c>
       <c r="X42" s="28">
         <f t="shared" si="3"/>
@@ -25304,11 +25304,11 @@
       </c>
       <c r="Z42" s="28">
         <f t="shared" si="3"/>
-        <v>0.29030137209980111</v>
+        <v>0.19363470543313177</v>
       </c>
       <c r="AA42" s="28">
         <f t="shared" si="3"/>
-        <v>0.3409904810765525</v>
+        <v>0.24432381440988671</v>
       </c>
     </row>
     <row r="43" spans="1:27" x14ac:dyDescent="0.4">
@@ -25393,7 +25393,7 @@
       </c>
       <c r="U43" s="28">
         <f t="shared" si="3"/>
-        <v>5.0000000000000044E-2</v>
+        <v>0</v>
       </c>
       <c r="V43" s="28">
         <f t="shared" si="3"/>
@@ -25401,7 +25401,7 @@
       </c>
       <c r="W43" s="28">
         <f t="shared" si="3"/>
-        <v>0.19999999999999929</v>
+        <v>0.45000000000000284</v>
       </c>
       <c r="X43" s="28">
         <f t="shared" si="3"/>
@@ -25413,11 +25413,11 @@
       </c>
       <c r="Z43" s="28">
         <f t="shared" si="3"/>
-        <v>0.30000000000000426</v>
+        <v>0.20000000000000107</v>
       </c>
       <c r="AA43" s="28">
         <f t="shared" si="3"/>
-        <v>0.35000000000000142</v>
+        <v>0.25</v>
       </c>
     </row>
     <row r="45" spans="1:27" x14ac:dyDescent="0.4">
@@ -25611,7 +25611,7 @@
       </c>
       <c r="U46" s="24">
         <f>シナリオ!$F34</f>
-        <v>0.05</v>
+        <v>0</v>
       </c>
       <c r="V46" s="24">
         <f>シナリオ!$F35</f>
@@ -25619,7 +25619,7 @@
       </c>
       <c r="W46" s="24">
         <f>シナリオ!$F36</f>
-        <v>0.2</v>
+        <v>0.45</v>
       </c>
       <c r="X46" s="24">
         <f>シナリオ!$F37</f>
@@ -25631,11 +25631,11 @@
       </c>
       <c r="Z46" s="24">
         <f>シナリオ!$F39</f>
-        <v>0.3</v>
+        <v>0.2</v>
       </c>
       <c r="AA46" s="24">
         <f>シナリオ!$F40</f>
-        <v>0.35</v>
+        <v>0.25</v>
       </c>
     </row>
   </sheetData>
@@ -25653,8 +25653,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{64B08CB0-75F6-47E4-8051-A6D81E1FCE5A}">
   <dimension ref="A1:N42"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B12" sqref="B12"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="Q35" sqref="Q35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10" defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
@@ -25741,7 +25741,7 @@
         <v>1</v>
       </c>
       <c r="L2" s="24">
-        <v>0.1</v>
+        <v>1</v>
       </c>
       <c r="M2" s="24">
         <v>1</v>
@@ -25785,7 +25785,7 @@
         <v>1</v>
       </c>
       <c r="L3" s="24">
-        <v>0.1</v>
+        <v>1</v>
       </c>
       <c r="M3" s="24">
         <v>1</v>
@@ -25829,7 +25829,7 @@
         <v>1</v>
       </c>
       <c r="L4" s="24">
-        <v>0.1</v>
+        <v>1</v>
       </c>
       <c r="M4" s="24">
         <v>1</v>
@@ -25873,7 +25873,7 @@
         <v>1</v>
       </c>
       <c r="L5" s="24">
-        <v>0.1</v>
+        <v>1</v>
       </c>
       <c r="M5" s="24">
         <v>1</v>
@@ -25917,7 +25917,7 @@
         <v>1</v>
       </c>
       <c r="L6" s="24">
-        <v>0.1</v>
+        <v>1</v>
       </c>
       <c r="M6" s="24">
         <v>1</v>
@@ -25961,7 +25961,7 @@
         <v>1</v>
       </c>
       <c r="L7" s="24">
-        <v>0.1</v>
+        <v>1</v>
       </c>
       <c r="M7" s="24">
         <v>1</v>
@@ -26005,7 +26005,7 @@
         <v>1</v>
       </c>
       <c r="L8" s="24">
-        <v>0.1</v>
+        <v>1</v>
       </c>
       <c r="M8" s="24">
         <v>1</v>
@@ -26049,7 +26049,7 @@
         <v>1</v>
       </c>
       <c r="L9" s="24">
-        <v>0.1</v>
+        <v>1</v>
       </c>
       <c r="M9" s="24">
         <v>1</v>
@@ -26093,7 +26093,7 @@
         <v>1</v>
       </c>
       <c r="L10" s="24">
-        <v>0.1</v>
+        <v>1</v>
       </c>
       <c r="M10" s="24">
         <v>1</v>
@@ -26137,7 +26137,7 @@
         <v>1</v>
       </c>
       <c r="L11" s="24">
-        <v>0.1</v>
+        <v>1</v>
       </c>
       <c r="M11" s="24">
         <v>1</v>
@@ -26181,7 +26181,7 @@
         <v>1</v>
       </c>
       <c r="L12" s="24">
-        <v>0.1</v>
+        <v>1</v>
       </c>
       <c r="M12" s="24">
         <v>1</v>
@@ -26225,7 +26225,7 @@
         <v>1</v>
       </c>
       <c r="L13" s="24">
-        <v>0.1</v>
+        <v>1</v>
       </c>
       <c r="M13" s="24">
         <v>1</v>
@@ -26269,7 +26269,7 @@
         <v>1</v>
       </c>
       <c r="L14" s="24">
-        <v>0.1</v>
+        <v>1</v>
       </c>
       <c r="M14" s="24">
         <v>1</v>
@@ -26313,7 +26313,7 @@
         <v>1</v>
       </c>
       <c r="L15" s="24">
-        <v>0.1</v>
+        <v>1</v>
       </c>
       <c r="M15" s="24">
         <v>1</v>
@@ -26357,7 +26357,7 @@
         <v>1</v>
       </c>
       <c r="L16" s="24">
-        <v>0.1</v>
+        <v>1</v>
       </c>
       <c r="M16" s="24">
         <v>1</v>
@@ -26401,7 +26401,7 @@
         <v>1</v>
       </c>
       <c r="L17" s="24">
-        <v>0.1</v>
+        <v>1</v>
       </c>
       <c r="M17" s="24">
         <v>1</v>
@@ -26445,7 +26445,7 @@
         <v>1</v>
       </c>
       <c r="L18" s="24">
-        <v>0.1</v>
+        <v>1</v>
       </c>
       <c r="M18" s="24">
         <v>1</v>
@@ -26489,7 +26489,7 @@
         <v>1</v>
       </c>
       <c r="L19" s="24">
-        <v>0.1</v>
+        <v>1</v>
       </c>
       <c r="M19" s="24">
         <v>1</v>
@@ -26533,7 +26533,7 @@
         <v>1</v>
       </c>
       <c r="L20" s="24">
-        <v>0.1</v>
+        <v>1</v>
       </c>
       <c r="M20" s="24">
         <v>1</v>
@@ -26577,7 +26577,7 @@
         <v>1</v>
       </c>
       <c r="L21" s="24">
-        <v>0.1</v>
+        <v>1</v>
       </c>
       <c r="M21" s="24">
         <v>1</v>
@@ -26621,7 +26621,7 @@
         <v>1</v>
       </c>
       <c r="L22" s="24">
-        <v>0.1</v>
+        <v>1</v>
       </c>
       <c r="M22" s="24">
         <v>1</v>
@@ -26665,7 +26665,7 @@
         <v>1</v>
       </c>
       <c r="L23" s="24">
-        <v>0.1</v>
+        <v>1</v>
       </c>
       <c r="M23" s="24">
         <v>1</v>
@@ -26709,7 +26709,7 @@
         <v>1</v>
       </c>
       <c r="L24" s="24">
-        <v>0.1</v>
+        <v>1</v>
       </c>
       <c r="M24" s="24">
         <v>1</v>
@@ -26753,7 +26753,7 @@
         <v>1</v>
       </c>
       <c r="L25" s="24">
-        <v>0.1</v>
+        <v>1</v>
       </c>
       <c r="M25" s="24">
         <v>1</v>
@@ -26797,7 +26797,7 @@
         <v>1</v>
       </c>
       <c r="L26" s="24">
-        <v>0.1</v>
+        <v>1</v>
       </c>
       <c r="M26" s="24">
         <v>1</v>
@@ -26841,7 +26841,7 @@
         <v>1</v>
       </c>
       <c r="L27" s="24">
-        <v>0.1</v>
+        <v>1</v>
       </c>
       <c r="M27" s="24">
         <v>1</v>
@@ -26885,7 +26885,7 @@
         <v>1</v>
       </c>
       <c r="L28" s="24">
-        <v>0.1</v>
+        <v>1</v>
       </c>
       <c r="M28" s="24">
         <v>1</v>
@@ -26929,7 +26929,7 @@
         <v>1</v>
       </c>
       <c r="L29" s="24">
-        <v>0.1</v>
+        <v>1</v>
       </c>
       <c r="M29" s="24">
         <v>1</v>
@@ -26973,7 +26973,7 @@
         <v>1</v>
       </c>
       <c r="L30" s="24">
-        <v>0.1</v>
+        <v>1</v>
       </c>
       <c r="M30" s="24">
         <v>1</v>
@@ -27017,7 +27017,7 @@
         <v>1</v>
       </c>
       <c r="L31" s="24">
-        <v>0.1</v>
+        <v>1</v>
       </c>
       <c r="M31" s="24">
         <v>1</v>
@@ -27061,7 +27061,7 @@
         <v>1</v>
       </c>
       <c r="L32" s="24">
-        <v>0.1</v>
+        <v>1</v>
       </c>
       <c r="M32" s="24">
         <v>1</v>
@@ -27105,7 +27105,7 @@
         <v>1</v>
       </c>
       <c r="L33" s="24">
-        <v>0.1</v>
+        <v>1</v>
       </c>
       <c r="M33" s="24">
         <v>1</v>
@@ -27149,7 +27149,7 @@
         <v>1</v>
       </c>
       <c r="L34" s="24">
-        <v>0.1</v>
+        <v>1</v>
       </c>
       <c r="M34" s="24">
         <v>1</v>
@@ -27193,7 +27193,7 @@
         <v>1</v>
       </c>
       <c r="L35" s="24">
-        <v>0.1</v>
+        <v>1</v>
       </c>
       <c r="M35" s="24">
         <v>1</v>
@@ -27237,7 +27237,7 @@
         <v>1</v>
       </c>
       <c r="L36" s="24">
-        <v>0.1</v>
+        <v>1</v>
       </c>
       <c r="M36" s="24">
         <v>1</v>
@@ -27281,7 +27281,7 @@
         <v>1</v>
       </c>
       <c r="L37" s="24">
-        <v>0.1</v>
+        <v>1</v>
       </c>
       <c r="M37" s="24">
         <v>1</v>
@@ -27325,7 +27325,7 @@
         <v>1</v>
       </c>
       <c r="L38" s="24">
-        <v>0.1</v>
+        <v>1</v>
       </c>
       <c r="M38" s="24">
         <v>1</v>
@@ -27369,7 +27369,7 @@
         <v>1</v>
       </c>
       <c r="L39" s="24">
-        <v>0.1</v>
+        <v>1</v>
       </c>
       <c r="M39" s="24">
         <v>1</v>
@@ -27413,7 +27413,7 @@
         <v>1</v>
       </c>
       <c r="L40" s="24">
-        <v>0.1</v>
+        <v>1</v>
       </c>
       <c r="M40" s="24">
         <v>1</v>
@@ -27457,7 +27457,7 @@
         <v>1</v>
       </c>
       <c r="L41" s="24">
-        <v>0.1</v>
+        <v>1</v>
       </c>
       <c r="M41" s="24">
         <v>1</v>
@@ -27501,7 +27501,7 @@
         <v>1</v>
       </c>
       <c r="L42" s="24">
-        <v>0.1</v>
+        <v>1</v>
       </c>
       <c r="M42" s="24">
         <v>1</v>
@@ -27521,7 +27521,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E7FB534B-C217-4F2D-A729-94D9310B1BD4}">
   <dimension ref="A1:M2"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="I3" sqref="I3"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10" defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
   <cols>
@@ -27592,10 +27594,10 @@
         <v>0</v>
       </c>
       <c r="H2" s="24">
+        <v>0</v>
+      </c>
+      <c r="I2" s="24">
         <v>-95</v>
-      </c>
-      <c r="I2" s="24">
-        <v>0</v>
       </c>
       <c r="J2" s="24">
         <v>0</v>
@@ -27814,11 +27816,11 @@
       </c>
       <c r="K5">
         <f>'Consumption(EJyr)'!$C$22*sIND!J23</f>
-        <v>0.36626287337882413</v>
+        <v>0.27213076412405629</v>
       </c>
       <c r="L5">
         <f>'Consumption(EJyr)'!$C$22*sIND!K23</f>
-        <v>1.2501470529993348</v>
+        <v>1.3442791622541026</v>
       </c>
     </row>
     <row r="6" spans="1:12" x14ac:dyDescent="0.4">
@@ -27859,11 +27861,11 @@
       </c>
       <c r="K6">
         <f>'Consumption(EJyr)'!$C$32*sIND!J33</f>
-        <v>0.52009175138717911</v>
+        <v>0.35870971288303621</v>
       </c>
       <c r="L6">
         <f>'Consumption(EJyr)'!$C$32*sIND!K33</f>
-        <v>1.2620386758810644</v>
+        <v>1.4234207143852118</v>
       </c>
     </row>
     <row r="7" spans="1:12" x14ac:dyDescent="0.4">
@@ -27904,11 +27906,11 @@
       </c>
       <c r="K7">
         <f>'Consumption(EJyr)'!$C$42*sIND!J43</f>
-        <v>0.58101536992724601</v>
+        <v>0.38734357995150304</v>
       </c>
       <c r="L7">
         <f>'Consumption(EJyr)'!$C$42*sIND!K43</f>
-        <v>1.1620307398544989</v>
+        <v>1.3557025298302521</v>
       </c>
     </row>
     <row r="8" spans="1:12" x14ac:dyDescent="0.4">
@@ -28042,11 +28044,11 @@
       </c>
       <c r="K10">
         <f>'Consumption(EJyr)'!$E$22*sTRA!J23</f>
-        <v>0.38584043571901733</v>
+        <v>0.23571653117628896</v>
       </c>
       <c r="L10">
         <f>'Consumption(EJyr)'!$E$22*sTRA!K23</f>
-        <v>0.37353772927780088</v>
+        <v>0.52366163382051323</v>
       </c>
     </row>
     <row r="11" spans="1:12" x14ac:dyDescent="0.4">
@@ -28087,11 +28089,11 @@
       </c>
       <c r="K11">
         <f>'Consumption(EJyr)'!$E$32*sTRA!J33</f>
-        <v>0.64150597127557674</v>
+        <v>0.38669102179034209</v>
       </c>
       <c r="L11">
         <f>'Consumption(EJyr)'!$E$32*sTRA!K33</f>
-        <v>0.5885076247069162</v>
+        <v>0.84332257419214407</v>
       </c>
     </row>
     <row r="12" spans="1:12" x14ac:dyDescent="0.4">
@@ -28132,11 +28134,11 @@
       </c>
       <c r="K12">
         <f>'Consumption(EJyr)'!$E$42*sTRA!J43</f>
-        <v>0.79650032949761229</v>
+        <v>0.47790019769856285</v>
       </c>
       <c r="L12">
         <f>'Consumption(EJyr)'!$E$42*sTRA!K43</f>
-        <v>0.71685029654785559</v>
+        <v>1.0354504283468937</v>
       </c>
     </row>
     <row r="13" spans="1:12" x14ac:dyDescent="0.4">
@@ -28494,7 +28496,7 @@
       </c>
       <c r="J20">
         <f>'Consumption(EJyr)'!$I$22*sRES!I23</f>
-        <v>0.33086665588118896</v>
+        <v>0.27794764084928664</v>
       </c>
       <c r="K20">
         <f>'Consumption(EJyr)'!$I$22*sRES!J23</f>
@@ -28502,7 +28504,7 @@
       </c>
       <c r="L20">
         <f>'Consumption(EJyr)'!$I$22*sRES!K23</f>
-        <v>0.9201019143196848</v>
+        <v>0.97302092935158202</v>
       </c>
     </row>
     <row r="21" spans="1:12" x14ac:dyDescent="0.4">
@@ -28539,7 +28541,7 @@
       </c>
       <c r="J21">
         <f>'Consumption(EJyr)'!$I$32*sRES!I33</f>
-        <v>0.27513457560429738</v>
+        <v>0.18531173104641963</v>
       </c>
       <c r="K21">
         <f>'Consumption(EJyr)'!$I$32*sRES!J33</f>
@@ -28547,7 +28549,7 @@
       </c>
       <c r="L21">
         <f>'Consumption(EJyr)'!$I$32*sRES!K33</f>
-        <v>0.86200695915276682</v>
+        <v>0.95182980371063908</v>
       </c>
     </row>
     <row r="22" spans="1:12" x14ac:dyDescent="0.4">
@@ -28584,7 +28586,7 @@
       </c>
       <c r="J22">
         <f>'Consumption(EJyr)'!$I$42*sRES!I43</f>
-        <v>0.22461453044664287</v>
+        <v>0.11230726522332106</v>
       </c>
       <c r="K22">
         <f>'Consumption(EJyr)'!$I$42*sRES!J43</f>
@@ -28592,7 +28594,7 @@
       </c>
       <c r="L22">
         <f>'Consumption(EJyr)'!$I$42*sRES!K43</f>
-        <v>0.78615085656325145</v>
+        <v>0.89845812178656848</v>
       </c>
     </row>
     <row r="23" spans="1:12" x14ac:dyDescent="0.4">
@@ -28722,15 +28724,15 @@
       </c>
       <c r="J25">
         <f t="shared" si="4"/>
-        <v>0.9436280342125003</v>
+        <v>0.89070901918059797</v>
       </c>
       <c r="K25">
         <f t="shared" si="4"/>
-        <v>0.91810630775181645</v>
+        <v>0.67385029395432017</v>
       </c>
       <c r="L25">
         <f t="shared" si="4"/>
-        <v>3.7933118987472287</v>
+        <v>4.0904869275766069</v>
       </c>
     </row>
     <row r="26" spans="1:12" x14ac:dyDescent="0.4">
@@ -28767,15 +28769,15 @@
       </c>
       <c r="J26">
         <f t="shared" si="6"/>
-        <v>0.75919594370387422</v>
+        <v>0.66937309914599641</v>
       </c>
       <c r="K26">
         <f t="shared" si="6"/>
-        <v>1.3944781865221005</v>
+        <v>0.97828119853272322</v>
       </c>
       <c r="L26">
         <f t="shared" si="6"/>
-        <v>4.0180828124231764</v>
+        <v>4.5241026449704238</v>
       </c>
     </row>
     <row r="27" spans="1:12" x14ac:dyDescent="0.4">
@@ -28812,15 +28814,15 @@
       </c>
       <c r="J27">
         <f t="shared" si="8"/>
-        <v>0.58609776743233954</v>
+        <v>0.47379050220901781</v>
       </c>
       <c r="K27">
         <f t="shared" si="8"/>
-        <v>1.6576344116581256</v>
+        <v>1.145362489883333</v>
       </c>
       <c r="L27">
         <f t="shared" si="8"/>
-        <v>4.0075234690451813</v>
+        <v>4.6321026560432896</v>
       </c>
     </row>
   </sheetData>
@@ -28837,7 +28839,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{16F681C9-CDBC-487E-8F80-B8CCB9B41242}">
   <dimension ref="A1:E43"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
+    <sheetView topLeftCell="A10" workbookViewId="0">
       <selection activeCell="K25" sqref="K25"/>
     </sheetView>
   </sheetViews>
@@ -29585,7 +29587,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8A352688-02A1-495B-81D2-06D9AFFE8253}">
   <dimension ref="A1:F43"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView topLeftCell="A13" workbookViewId="0">
       <selection activeCell="J11" sqref="J11"/>
     </sheetView>
   </sheetViews>
@@ -30623,8 +30625,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6F232DE2-A209-4371-A5A3-29AEA220A30D}">
   <dimension ref="A1:E43"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C13" sqref="C13"/>
+    <sheetView topLeftCell="A28" workbookViewId="0">
+      <selection activeCell="F48" sqref="F48"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10" defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
@@ -30868,6 +30870,9 @@
       </c>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A14" s="24" t="s">
+        <v>39</v>
+      </c>
       <c r="B14" s="24">
         <v>2021</v>
       </c>
@@ -30884,6 +30889,9 @@
       </c>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A15" s="24" t="s">
+        <v>39</v>
+      </c>
       <c r="B15" s="24">
         <v>2022</v>
       </c>
@@ -30900,6 +30908,9 @@
       </c>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A16" s="24" t="s">
+        <v>39</v>
+      </c>
       <c r="B16" s="24">
         <v>2023</v>
       </c>
@@ -30915,7 +30926,10 @@
         <v>0.66561760141912396</v>
       </c>
     </row>
-    <row r="17" spans="2:5" x14ac:dyDescent="0.4">
+    <row r="17" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A17" s="24" t="s">
+        <v>39</v>
+      </c>
       <c r="B17" s="24">
         <v>2024</v>
       </c>
@@ -30931,7 +30945,10 @@
         <v>0.67062846855883196</v>
       </c>
     </row>
-    <row r="18" spans="2:5" x14ac:dyDescent="0.4">
+    <row r="18" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A18" s="24" t="s">
+        <v>39</v>
+      </c>
       <c r="B18" s="24">
         <v>2025</v>
       </c>
@@ -30947,7 +30964,10 @@
         <v>0.67563933569853851</v>
       </c>
     </row>
-    <row r="19" spans="2:5" x14ac:dyDescent="0.4">
+    <row r="19" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A19" s="24" t="s">
+        <v>39</v>
+      </c>
       <c r="B19" s="24">
         <v>2026</v>
       </c>
@@ -30963,7 +30983,10 @@
         <v>0.68065020283824662</v>
       </c>
     </row>
-    <row r="20" spans="2:5" x14ac:dyDescent="0.4">
+    <row r="20" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A20" s="24" t="s">
+        <v>39</v>
+      </c>
       <c r="B20" s="24">
         <v>2027</v>
       </c>
@@ -30979,7 +31002,10 @@
         <v>0.68566106997795306</v>
       </c>
     </row>
-    <row r="21" spans="2:5" x14ac:dyDescent="0.4">
+    <row r="21" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A21" s="24" t="s">
+        <v>39</v>
+      </c>
       <c r="B21" s="24">
         <v>2028</v>
       </c>
@@ -30995,7 +31021,10 @@
         <v>0.69067193711766106</v>
       </c>
     </row>
-    <row r="22" spans="2:5" x14ac:dyDescent="0.4">
+    <row r="22" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A22" s="24" t="s">
+        <v>39</v>
+      </c>
       <c r="B22" s="24">
         <v>2029</v>
       </c>
@@ -31011,7 +31040,10 @@
         <v>0.69568280425736762</v>
       </c>
     </row>
-    <row r="23" spans="2:5" x14ac:dyDescent="0.4">
+    <row r="23" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A23" s="24" t="s">
+        <v>39</v>
+      </c>
       <c r="B23" s="24">
         <v>2030</v>
       </c>
@@ -31027,7 +31059,10 @@
         <v>0.70069367139707572</v>
       </c>
     </row>
-    <row r="24" spans="2:5" x14ac:dyDescent="0.4">
+    <row r="24" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A24" s="24" t="s">
+        <v>39</v>
+      </c>
       <c r="B24" s="24">
         <v>2031</v>
       </c>
@@ -31043,7 +31078,10 @@
         <v>0.70570453853678228</v>
       </c>
     </row>
-    <row r="25" spans="2:5" x14ac:dyDescent="0.4">
+    <row r="25" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A25" s="24" t="s">
+        <v>39</v>
+      </c>
       <c r="B25" s="24">
         <v>2032</v>
       </c>
@@ -31059,7 +31097,10 @@
         <v>0.71071540567648872</v>
       </c>
     </row>
-    <row r="26" spans="2:5" x14ac:dyDescent="0.4">
+    <row r="26" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A26" s="24" t="s">
+        <v>39</v>
+      </c>
       <c r="B26" s="24">
         <v>2033</v>
       </c>
@@ -31075,7 +31116,10 @@
         <v>0.71572627281619694</v>
       </c>
     </row>
-    <row r="27" spans="2:5" x14ac:dyDescent="0.4">
+    <row r="27" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A27" s="24" t="s">
+        <v>39</v>
+      </c>
       <c r="B27" s="24">
         <v>2034</v>
       </c>
@@ -31091,7 +31135,10 @@
         <v>0.72073713995590338</v>
       </c>
     </row>
-    <row r="28" spans="2:5" x14ac:dyDescent="0.4">
+    <row r="28" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A28" s="24" t="s">
+        <v>39</v>
+      </c>
       <c r="B28" s="24">
         <v>2035</v>
       </c>
@@ -31107,7 +31154,10 @@
         <v>0.72574800709561138</v>
       </c>
     </row>
-    <row r="29" spans="2:5" x14ac:dyDescent="0.4">
+    <row r="29" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A29" s="24" t="s">
+        <v>39</v>
+      </c>
       <c r="B29" s="24">
         <v>2036</v>
       </c>
@@ -31123,7 +31173,10 @@
         <v>0.73075887423531805</v>
       </c>
     </row>
-    <row r="30" spans="2:5" x14ac:dyDescent="0.4">
+    <row r="30" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A30" s="24" t="s">
+        <v>39</v>
+      </c>
       <c r="B30" s="24">
         <v>2037</v>
       </c>
@@ -31139,7 +31192,10 @@
         <v>0.73576974137502604</v>
       </c>
     </row>
-    <row r="31" spans="2:5" x14ac:dyDescent="0.4">
+    <row r="31" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A31" s="24" t="s">
+        <v>39</v>
+      </c>
       <c r="B31" s="24">
         <v>2038</v>
       </c>
@@ -31155,7 +31211,10 @@
         <v>0.7407806085147326</v>
       </c>
     </row>
-    <row r="32" spans="2:5" x14ac:dyDescent="0.4">
+    <row r="32" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A32" s="24" t="s">
+        <v>39</v>
+      </c>
       <c r="B32" s="24">
         <v>2039</v>
       </c>
@@ -31171,7 +31230,10 @@
         <v>0.74579147565444071</v>
       </c>
     </row>
-    <row r="33" spans="2:5" x14ac:dyDescent="0.4">
+    <row r="33" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A33" s="24" t="s">
+        <v>39</v>
+      </c>
       <c r="B33" s="24">
         <v>2040</v>
       </c>
@@ -31187,7 +31249,10 @@
         <v>0.75080234279414715</v>
       </c>
     </row>
-    <row r="34" spans="2:5" x14ac:dyDescent="0.4">
+    <row r="34" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A34" s="24" t="s">
+        <v>39</v>
+      </c>
       <c r="B34" s="24">
         <v>2041</v>
       </c>
@@ -31203,7 +31268,10 @@
         <v>0.75581320993385526</v>
       </c>
     </row>
-    <row r="35" spans="2:5" x14ac:dyDescent="0.4">
+    <row r="35" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A35" s="24" t="s">
+        <v>39</v>
+      </c>
       <c r="B35" s="24">
         <v>2042</v>
       </c>
@@ -31219,7 +31287,10 @@
         <v>0.76082407707356181</v>
       </c>
     </row>
-    <row r="36" spans="2:5" x14ac:dyDescent="0.4">
+    <row r="36" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A36" s="24" t="s">
+        <v>39</v>
+      </c>
       <c r="B36" s="24">
         <v>2043</v>
       </c>
@@ -31235,7 +31306,10 @@
         <v>0.76583494421326981</v>
       </c>
     </row>
-    <row r="37" spans="2:5" x14ac:dyDescent="0.4">
+    <row r="37" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A37" s="24" t="s">
+        <v>39</v>
+      </c>
       <c r="B37" s="24">
         <v>2044</v>
       </c>
@@ -31251,7 +31325,10 @@
         <v>0.77084581135297636</v>
       </c>
     </row>
-    <row r="38" spans="2:5" x14ac:dyDescent="0.4">
+    <row r="38" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A38" s="24" t="s">
+        <v>39</v>
+      </c>
       <c r="B38" s="24">
         <v>2045</v>
       </c>
@@ -31267,7 +31344,10 @@
         <v>0.77585667849268447</v>
       </c>
     </row>
-    <row r="39" spans="2:5" x14ac:dyDescent="0.4">
+    <row r="39" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A39" s="24" t="s">
+        <v>39</v>
+      </c>
       <c r="B39" s="24">
         <v>2046</v>
       </c>
@@ -31283,7 +31363,10 @@
         <v>0.78086754563239102</v>
       </c>
     </row>
-    <row r="40" spans="2:5" x14ac:dyDescent="0.4">
+    <row r="40" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A40" s="24" t="s">
+        <v>39</v>
+      </c>
       <c r="B40" s="24">
         <v>2047</v>
       </c>
@@ -31299,7 +31382,10 @@
         <v>0.78587841277209902</v>
       </c>
     </row>
-    <row r="41" spans="2:5" x14ac:dyDescent="0.4">
+    <row r="41" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A41" s="24" t="s">
+        <v>39</v>
+      </c>
       <c r="B41" s="24">
         <v>2048</v>
       </c>
@@ -31315,7 +31401,10 @@
         <v>0.79088927991180558</v>
       </c>
     </row>
-    <row r="42" spans="2:5" x14ac:dyDescent="0.4">
+    <row r="42" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A42" s="24" t="s">
+        <v>39</v>
+      </c>
       <c r="B42" s="24">
         <v>2049</v>
       </c>
@@ -31331,7 +31420,10 @@
         <v>0.79590014705151213</v>
       </c>
     </row>
-    <row r="43" spans="2:5" x14ac:dyDescent="0.4">
+    <row r="43" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A43" s="24" t="s">
+        <v>39</v>
+      </c>
       <c r="B43" s="24">
         <v>2050</v>
       </c>
@@ -31758,7 +31850,7 @@
       </c>
       <c r="O5">
         <f>sELE!O23*最終エネルギー消費!$L25/LOSS!$B$12</f>
-        <v>0.88534078883088863</v>
+        <v>0.95470001408508809</v>
       </c>
       <c r="P5">
         <f>sELE!P23*最終エネルギー消費!$L25/LOSS!$B$12</f>
@@ -31766,7 +31858,7 @@
       </c>
       <c r="Q5">
         <f>sELE!Q23*最終エネルギー消費!$L25/LOSS!$B$12</f>
-        <v>9.0780457460358718E-2</v>
+        <v>9.789236541389025E-2</v>
       </c>
       <c r="R5">
         <f>sELE!R23*最終エネルギー消費!$L25/LOSS!$B$12</f>
@@ -31774,39 +31866,39 @@
       </c>
       <c r="S5">
         <f>sELE!S23*最終エネルギー消費!$L25/LOSS!$B$12</f>
-        <v>1.1240690490659091</v>
+        <v>1.2121306851714702</v>
       </c>
       <c r="T5">
         <f>sELE!T23*最終エネルギー消費!$L25/LOSS!$B$12</f>
-        <v>7.0617786168799518E-2</v>
+        <v>7.6150113380677495E-2</v>
       </c>
       <c r="U5">
         <f>sELE!U23*最終エネルギー消費!$L25/LOSS!$B$12</f>
-        <v>0.18094942447846868</v>
+        <v>0.11897522171927408</v>
       </c>
       <c r="V5">
         <f>sELE!V23*最終エネルギー消費!$L25/LOSS!$B$12</f>
-        <v>0.1305889052010106</v>
+        <v>0.1408194801454869</v>
       </c>
       <c r="W5">
         <f>sELE!W23*最終エネルギー消費!$L25/LOSS!$B$12</f>
-        <v>0.28247114467519807</v>
+        <v>0.68535102042610974</v>
       </c>
       <c r="X5">
         <f>sELE!X23*最終エネルギー消費!$L25/LOSS!$B$12</f>
-        <v>0.25968196854553943</v>
+        <v>0.28002593143308285</v>
       </c>
       <c r="Y5">
         <f>sELE!Y23*最終エネルギー消費!$L25/LOSS!$B$12</f>
-        <v>4.3827479526970879E-2</v>
+        <v>4.7261004857763737E-2</v>
       </c>
       <c r="Z5">
         <f>sELE!Z23*最終エネルギー消費!$L25/LOSS!$B$12</f>
-        <v>0.4492453936136972</v>
+        <v>0.33213987700593545</v>
       </c>
       <c r="AA5">
         <f>sELE!AA23*最終エネルギー消費!$L25/LOSS!$B$12</f>
-        <v>0.71949477256116656</v>
+        <v>0.623561089201907</v>
       </c>
     </row>
     <row r="6" spans="1:27" x14ac:dyDescent="0.4">
@@ -31867,7 +31959,7 @@
       </c>
       <c r="O6">
         <f>sELE!O33*最終エネルギー消費!$L26/LOSS!$B$12</f>
-        <v>0.46890062057820248</v>
+        <v>0.52795192055954621</v>
       </c>
       <c r="P6">
         <f>sELE!P33*最終エネルギー消費!$L26/LOSS!$B$12</f>
@@ -31875,7 +31967,7 @@
       </c>
       <c r="Q6">
         <f>sELE!Q33*最終エネルギー消費!$L26/LOSS!$B$12</f>
-        <v>4.8079805399845854E-2</v>
+        <v>5.4134766487783717E-2</v>
       </c>
       <c r="R6">
         <f>sELE!R33*最終エネルギー消費!$L26/LOSS!$B$12</f>
@@ -31883,39 +31975,39 @@
       </c>
       <c r="S6">
         <f>sELE!S33*最終エネルギー消費!$L26/LOSS!$B$12</f>
-        <v>0.5953376161238122</v>
+        <v>0.67031184012154332</v>
       </c>
       <c r="T6">
         <f>sELE!T33*最終エネルギー消費!$L26/LOSS!$B$12</f>
-        <v>0.14960441979471209</v>
+        <v>0.16844494822254569</v>
       </c>
       <c r="U6">
         <f>sELE!U33*最終エネルギー消費!$L26/LOSS!$B$12</f>
-        <v>0.2080390636352287</v>
+        <v>6.5793648139709157E-2</v>
       </c>
       <c r="V6">
         <f>sELE!V33*最終エネルギー消費!$L26/LOSS!$B$12</f>
-        <v>6.916344470047725E-2</v>
+        <v>7.7873587407720282E-2</v>
       </c>
       <c r="W6">
         <f>sELE!W33*最終エネルギー消費!$L26/LOSS!$B$12</f>
-        <v>0.59841767917884836</v>
+        <v>1.51600453400292</v>
       </c>
       <c r="X6">
         <f>sELE!X33*最終エネルギー消費!$L26/LOSS!$B$12</f>
-        <v>0.19363630819265906</v>
+        <v>0.21802202068812296</v>
       </c>
       <c r="Y6">
         <f>sELE!Y33*最終エネルギー消費!$L26/LOSS!$B$12</f>
-        <v>7.9313885536570441E-2</v>
+        <v>8.9302330511820502E-2</v>
       </c>
       <c r="Z6">
         <f>sELE!Z33*最終エネルギー消費!$L26/LOSS!$B$12</f>
-        <v>0.91115249820803756</v>
+        <v>0.68900917521402605</v>
       </c>
       <c r="AA6">
         <f>sELE!AA33*最終エネルギー消費!$L26/LOSS!$B$12</f>
-        <v>1.1664872524929826</v>
+        <v>0.97649967532064696</v>
       </c>
     </row>
     <row r="7" spans="1:27" x14ac:dyDescent="0.4">
@@ -31996,11 +32088,11 @@
       </c>
       <c r="T7">
         <f>sELE!T43*最終エネルギー消費!$L27/LOSS!$B$12</f>
-        <v>0.22381689902452423</v>
+        <v>0.2586991343773421</v>
       </c>
       <c r="U7">
         <f>sELE!U43*最終エネルギー消費!$L27/LOSS!$B$12</f>
-        <v>0.22381689902452523</v>
+        <v>0</v>
       </c>
       <c r="V7">
         <f>sELE!V43*最終エネルギー消費!$L27/LOSS!$B$12</f>
@@ -32008,23 +32100,23 @@
       </c>
       <c r="W7">
         <f>sELE!W43*最終エネルギー消費!$L27/LOSS!$B$12</f>
-        <v>0.89526759609809692</v>
+        <v>2.328292209396102</v>
       </c>
       <c r="X7">
         <f>sELE!X43*最終エネルギー消費!$L27/LOSS!$B$12</f>
-        <v>0.1119084495122641</v>
+        <v>0.12934956718867333</v>
       </c>
       <c r="Y7">
         <f>sELE!Y43*最終エネルギー消費!$L27/LOSS!$B$12</f>
-        <v>0.11190844951226211</v>
+        <v>0.12934956718867105</v>
       </c>
       <c r="Z7">
         <f>sELE!Z43*最終エネルギー消費!$L27/LOSS!$B$12</f>
-        <v>1.3429013941471692</v>
+        <v>1.0347965375093775</v>
       </c>
       <c r="AA7">
         <f>sELE!AA43*最終エネルギー消費!$L27/LOSS!$B$12</f>
-        <v>1.5667182931716814</v>
+        <v>1.293495671886715</v>
       </c>
     </row>
   </sheetData>
@@ -32216,7 +32308,7 @@
       </c>
       <c r="L3">
         <f>発電電力量!L3/eELE!L$12</f>
-        <v>9.619362132052052E-2</v>
+        <v>9.6193621320520527E-3</v>
       </c>
       <c r="M3">
         <f>発電電力量!M3/eELE!M$12</f>
@@ -32228,7 +32320,7 @@
       </c>
       <c r="O3" s="5">
         <f>SUM(B3:N3)</f>
-        <v>18.520508905164586</v>
+        <v>18.43393464597612</v>
       </c>
       <c r="P3">
         <f>発電電力量!O3/eELE!B$12+最終エネルギー消費!H23</f>
@@ -32272,7 +32364,7 @@
       </c>
       <c r="Z3">
         <f>発電電力量!Y3/eELE!L$12</f>
-        <v>9.619362132052052E-2</v>
+        <v>9.6193621320520527E-3</v>
       </c>
       <c r="AA3">
         <f>発電電力量!Z3/eELE!M$12</f>
@@ -32284,7 +32376,7 @@
       </c>
       <c r="AC3">
         <f>SUM(P3:AB3)</f>
-        <v>18.520508905164586</v>
+        <v>18.43393464597612</v>
       </c>
     </row>
     <row r="4" spans="1:29" x14ac:dyDescent="0.4">
@@ -32333,7 +32425,7 @@
       </c>
       <c r="L4">
         <f>発電電力量!L4/eELE!L$12</f>
-        <v>0.11027890434022726</v>
+        <v>1.1027890434022726E-2</v>
       </c>
       <c r="M4">
         <f>発電電力量!M4/eELE!M$12</f>
@@ -32345,7 +32437,7 @@
       </c>
       <c r="O4" s="5">
         <f>SUM(B4:N4)</f>
-        <v>14.421519005374396</v>
+        <v>14.322267991468191</v>
       </c>
       <c r="P4">
         <f>発電電力量!O4/eELE!B$12+最終エネルギー消費!H24</f>
@@ -32389,7 +32481,7 @@
       </c>
       <c r="Z4">
         <f>発電電力量!Y4/eELE!L$12</f>
-        <v>0.11027890434022726</v>
+        <v>1.1027890434022726E-2</v>
       </c>
       <c r="AA4">
         <f>発電電力量!Z4/eELE!M$12</f>
@@ -32401,7 +32493,7 @@
       </c>
       <c r="AC4">
         <f>SUM(P4:AB4)</f>
-        <v>14.421519005374396</v>
+        <v>14.322267991468191</v>
       </c>
     </row>
     <row r="5" spans="1:29" x14ac:dyDescent="0.4">
@@ -32450,7 +32542,7 @@
       </c>
       <c r="L5">
         <f>発電電力量!L5/eELE!L$12</f>
-        <v>0.11562643244478522</v>
+        <v>1.1562643244478523E-2</v>
       </c>
       <c r="M5">
         <f>発電電力量!M5/eELE!M$12</f>
@@ -32462,11 +32554,11 @@
       </c>
       <c r="O5" s="5">
         <f t="shared" ref="O5:O7" si="0">SUM(B5:N5)</f>
-        <v>14.926952256036888</v>
+        <v>14.822888466836581</v>
       </c>
       <c r="P5">
         <f>発電電力量!O5/eELE!B$12+最終エネルギー消費!H25</f>
-        <v>3.311323076177743</v>
+        <v>3.4804919182611567</v>
       </c>
       <c r="Q5">
         <f>発電電力量!P5/eELE!C$12</f>
@@ -32474,7 +32566,7 @@
       </c>
       <c r="R5">
         <f>発電電力量!Q5/eELE!D$12+最終エネルギー消費!I25</f>
-        <v>2.7656978768739835</v>
+        <v>2.7872491130968062</v>
       </c>
       <c r="S5">
         <f>発電電力量!R5/eELE!E$12</f>
@@ -32482,43 +32574,43 @@
       </c>
       <c r="T5">
         <f>発電電力量!S5/eELE!F$12+最終エネルギー消費!J25</f>
-        <v>3.1052992824161714</v>
+        <v>3.2217295675872712</v>
       </c>
       <c r="U5">
         <f>発電電力量!T5/eELE!G$12</f>
-        <v>0.13580343493999908</v>
+        <v>0.14644252573207209</v>
       </c>
       <c r="V5">
         <f>発電電力量!U5/eELE!H$12</f>
-        <v>0.54833158932869297</v>
+        <v>0.36053097490689112</v>
       </c>
       <c r="W5">
         <f>発電電力量!V5/eELE!I$12+最終エネルギー消費!K25</f>
-        <v>1.2148992741177496</v>
+        <v>0.99389456701224499</v>
       </c>
       <c r="X5">
         <f>発電電力量!W5/eELE!J$12</f>
-        <v>0.6419798742618138</v>
+        <v>1.5576159555138858</v>
       </c>
       <c r="Y5">
         <f>発電電力量!X5/eELE!K$12</f>
-        <v>0.25968196854553943</v>
+        <v>0.28002593143308285</v>
       </c>
       <c r="Z5">
         <f>発電電力量!Y5/eELE!L$12</f>
-        <v>0.43827479526970875</v>
+        <v>4.7261004857763737E-2</v>
       </c>
       <c r="AA5">
         <f>発電電力量!Z5/eELE!M$12</f>
-        <v>0.4492453936136972</v>
+        <v>0.33213987700593545</v>
       </c>
       <c r="AB5">
         <f>発電電力量!AA5/eELE!N$12</f>
-        <v>0.71949477256116656</v>
+        <v>0.623561089201907</v>
       </c>
       <c r="AC5">
         <f t="shared" ref="AC5:AC7" si="1">SUM(P5:AB5)</f>
-        <v>13.590031338106268</v>
+        <v>13.830942524609014</v>
       </c>
     </row>
     <row r="6" spans="1:29" x14ac:dyDescent="0.4">
@@ -32567,7 +32659,7 @@
       </c>
       <c r="L6">
         <f>発電電力量!L6/eELE!L$12</f>
-        <v>0.11919060215542712</v>
+        <v>1.1919060215542713E-2</v>
       </c>
       <c r="M6">
         <f>発電電力量!M6/eELE!M$12</f>
@@ -32579,11 +32671,11 @@
       </c>
       <c r="O6" s="5">
         <f t="shared" si="0"/>
-        <v>15.271181974560204</v>
+        <v>15.16391043262032</v>
       </c>
       <c r="P6">
         <f>発電電力量!O6/eELE!B$12+最終エネルギー消費!H26</f>
-        <v>2.0880084253320925</v>
+        <v>2.2320359862621992</v>
       </c>
       <c r="Q6">
         <f>発電電力量!P6/eELE!C$12</f>
@@ -32591,7 +32683,7 @@
       </c>
       <c r="R6">
         <f>発電電力量!Q6/eELE!D$12+最終エネルギー消費!I26</f>
-        <v>1.264986617997478</v>
+        <v>1.283334984930623</v>
       </c>
       <c r="S6">
         <f>発電電力量!R6/eELE!E$12</f>
@@ -32599,43 +32691,43 @@
       </c>
       <c r="T6">
         <f>発電電力量!S6/eELE!F$12+最終エネルギー消費!J26</f>
-        <v>1.9040759747112053</v>
+        <v>1.9584343301489642</v>
       </c>
       <c r="U6">
         <f>発電電力量!T6/eELE!G$12</f>
-        <v>0.28770080729752323</v>
+        <v>0.32393259273566477</v>
       </c>
       <c r="V6">
         <f>発電電力量!U6/eELE!H$12</f>
-        <v>0.63042140495523846</v>
+        <v>0.19937469133245198</v>
       </c>
       <c r="W6">
         <f>発電電力量!V6/eELE!I$12+最終エネルギー消費!K26</f>
-        <v>1.5516678335686398</v>
+        <v>1.1552666244593601</v>
       </c>
       <c r="X6">
         <f>発電電力量!W6/eELE!J$12</f>
-        <v>1.3600401799519282</v>
+        <v>3.4454648500066365</v>
       </c>
       <c r="Y6">
         <f>発電電力量!X6/eELE!K$12</f>
-        <v>0.19363630819265906</v>
+        <v>0.21802202068812296</v>
       </c>
       <c r="Z6">
         <f>発電電力量!Y6/eELE!L$12</f>
-        <v>0.79313885536570439</v>
+        <v>8.9302330511820502E-2</v>
       </c>
       <c r="AA6">
         <f>発電電力量!Z6/eELE!M$12</f>
-        <v>0.91115249820803756</v>
+        <v>0.68900917521402605</v>
       </c>
       <c r="AB6">
         <f>発電電力量!AA6/eELE!N$12</f>
-        <v>1.1664872524929826</v>
+        <v>0.97649967532064696</v>
       </c>
       <c r="AC6">
         <f t="shared" si="1"/>
-        <v>12.15131615807349</v>
+        <v>12.570677261610516</v>
       </c>
     </row>
     <row r="7" spans="1:29" x14ac:dyDescent="0.4">
@@ -32684,7 +32776,7 @@
       </c>
       <c r="L7">
         <f>発電電力量!L7/eELE!L$12</f>
-        <v>0.12337126131657267</v>
+        <v>1.2337126131657267E-2</v>
       </c>
       <c r="M7">
         <f>発電電力量!M7/eELE!M$12</f>
@@ -32696,7 +32788,7 @@
       </c>
       <c r="O7" s="5">
         <f t="shared" si="0"/>
-        <v>15.671138168079667</v>
+        <v>15.560104032894751</v>
       </c>
       <c r="P7">
         <f>発電電力量!O7/eELE!B$12+最終エネルギー消費!H27</f>
@@ -32716,43 +32808,43 @@
       </c>
       <c r="T7">
         <f>発電電力量!S7/eELE!F$12+最終エネルギー消費!J27</f>
-        <v>0.58609776743233954</v>
+        <v>0.47379050220901781</v>
       </c>
       <c r="U7">
         <f>発電電力量!T7/eELE!G$12</f>
-        <v>0.43041711350870043</v>
+        <v>0.49749833534104249</v>
       </c>
       <c r="V7">
         <f>発電電力量!U7/eELE!H$12</f>
-        <v>0.67823302734704616</v>
+        <v>0</v>
       </c>
       <c r="W7">
         <f>発電電力量!V7/eELE!I$12+最終エネルギー消費!K27</f>
-        <v>1.6576344116581256</v>
+        <v>1.145362489883333</v>
       </c>
       <c r="X7">
         <f>発電電力量!W7/eELE!J$12</f>
-        <v>2.0346990820411293</v>
+        <v>5.291573203172959</v>
       </c>
       <c r="Y7">
         <f>発電電力量!X7/eELE!K$12</f>
-        <v>0.1119084495122641</v>
+        <v>0.12934956718867333</v>
       </c>
       <c r="Z7">
         <f>発電電力量!Y7/eELE!L$12</f>
-        <v>1.1190844951226211</v>
+        <v>0.12934956718867105</v>
       </c>
       <c r="AA7">
         <f>発電電力量!Z7/eELE!M$12</f>
-        <v>1.3429013941471692</v>
+        <v>1.0347965375093775</v>
       </c>
       <c r="AB7">
         <f>発電電力量!AA7/eELE!N$12</f>
-        <v>1.5667182931716814</v>
+        <v>1.293495671886715</v>
       </c>
       <c r="AC7">
         <f t="shared" si="1"/>
-        <v>10.408255081082054</v>
+        <v>10.875776921520767</v>
       </c>
     </row>
   </sheetData>
@@ -33556,11 +33648,11 @@
       </c>
       <c r="U20">
         <f>最終エネルギー消費!J20*EMF!$E$2</f>
-        <v>18.561619394934702</v>
+        <v>15.59286265164498</v>
       </c>
       <c r="AD20" s="5">
         <f t="shared" si="3"/>
-        <v>40.503485613664481</v>
+        <v>37.534728870374757</v>
       </c>
     </row>
     <row r="21" spans="1:30" x14ac:dyDescent="0.4">
@@ -33594,11 +33686,11 @@
       </c>
       <c r="U21">
         <f>最終エネルギー消費!J21*EMF!$E$2</f>
-        <v>15.435049691401083</v>
+        <v>10.395988111704142</v>
       </c>
       <c r="AD21" s="5">
         <f t="shared" si="3"/>
-        <v>24.745884546729396</v>
+        <v>19.706822967032455</v>
       </c>
     </row>
     <row r="22" spans="1:30" x14ac:dyDescent="0.4">
@@ -33632,11 +33724,11 @@
       </c>
       <c r="U22">
         <f>最終エネルギー消費!J22*EMF!$E$2</f>
-        <v>12.600875158056665</v>
+        <v>6.300437579028312</v>
       </c>
       <c r="AD22" s="5">
         <f t="shared" si="3"/>
-        <v>12.600875158056665</v>
+        <v>6.300437579028312</v>
       </c>
     </row>
     <row r="23" spans="1:30" x14ac:dyDescent="0.4">
@@ -33676,7 +33768,7 @@
       </c>
       <c r="J23">
         <f>発電電力量!I3/eELE!I$12*EMF!H$2</f>
-        <v>-16.262534753254329</v>
+        <v>0</v>
       </c>
       <c r="K23">
         <f>発電電力量!J3/eELE!J$12*EMF!I$2</f>
@@ -33700,7 +33792,7 @@
       </c>
       <c r="P23" s="5">
         <f t="shared" ref="P23" si="8">SUM(C23:O23)</f>
-        <v>460.11701980667925</v>
+        <v>476.37955455993358</v>
       </c>
       <c r="Q23" s="17">
         <f>発電電力量!O3/eELE!B$12*EMF!A$2</f>
@@ -33732,7 +33824,7 @@
       </c>
       <c r="X23">
         <f>発電電力量!V3/eELE!I$12*EMF!H$2</f>
-        <v>-16.262534753254329</v>
+        <v>0</v>
       </c>
       <c r="Y23">
         <f>発電電力量!W3/eELE!J$12*EMF!I$2</f>
@@ -33756,7 +33848,7 @@
       </c>
       <c r="AD23" s="5">
         <f t="shared" ref="AD23" si="9">SUM(Q23:AC23)</f>
-        <v>460.11701980667925</v>
+        <v>476.37955455993358</v>
       </c>
     </row>
     <row r="24" spans="1:30" x14ac:dyDescent="0.4">
@@ -33794,7 +33886,7 @@
       </c>
       <c r="J24">
         <f>発電電力量!I4/eELE!I$12*EMF!H$2</f>
-        <v>-36.500777680667703</v>
+        <v>0</v>
       </c>
       <c r="K24">
         <f>発電電力量!J4/eELE!J$12*EMF!I$2</f>
@@ -33818,7 +33910,7 @@
       </c>
       <c r="P24" s="5">
         <f t="shared" si="2"/>
-        <v>412.50475952227805</v>
+        <v>449.00553720294573</v>
       </c>
       <c r="Q24" s="17">
         <f>発電電力量!O4/eELE!B$12*EMF!A$2</f>
@@ -33850,7 +33942,7 @@
       </c>
       <c r="X24">
         <f>発電電力量!V4/eELE!I$12*EMF!H$2</f>
-        <v>-36.500777680667703</v>
+        <v>0</v>
       </c>
       <c r="Y24">
         <f>発電電力量!W4/eELE!J$12*EMF!I$2</f>
@@ -33874,7 +33966,7 @@
       </c>
       <c r="AD24" s="5">
         <f t="shared" si="3"/>
-        <v>412.50475952227805</v>
+        <v>449.00553720294573</v>
       </c>
     </row>
     <row r="25" spans="1:30" x14ac:dyDescent="0.4">
@@ -33912,7 +34004,7 @@
       </c>
       <c r="J25">
         <f>発電電力量!I5/eELE!I$12*EMF!H$2</f>
-        <v>-38.270734823907041</v>
+        <v>0</v>
       </c>
       <c r="K25">
         <f>発電電力量!J5/eELE!J$12*EMF!I$2</f>
@@ -33936,11 +34028,11 @@
       </c>
       <c r="P25" s="5">
         <f t="shared" si="2"/>
-        <v>432.50750445347387</v>
+        <v>470.77823927738092</v>
       </c>
       <c r="Q25" s="17">
         <f>発電電力量!O5/eELE!B$12*EMF!A$2</f>
-        <v>204.27619176439529</v>
+        <v>220.27956422548618</v>
       </c>
       <c r="R25">
         <f>発電電力量!P5/eELE!C$12*EMF!B$2</f>
@@ -33948,7 +34040,7 @@
       </c>
       <c r="S25">
         <f>発電電力量!Q5/eELE!D$12*EMF!C$2</f>
-        <v>21.29214365888414</v>
+        <v>22.960209342530622</v>
       </c>
       <c r="T25">
         <f>発電電力量!R5/eELE!E$12*EMF!D$2</f>
@@ -33956,11 +34048,11 @@
       </c>
       <c r="U25">
         <f>発電電力量!S5/eELE!F$12*EMF!E$2</f>
-        <v>121.26975702422595</v>
+        <v>130.77025276561437</v>
       </c>
       <c r="V25">
         <f>発電電力量!T5/eELE!G$12*EMF!F$2</f>
-        <v>0.38092863500669744</v>
+        <v>0.41077128467846225</v>
       </c>
       <c r="W25">
         <f>発電電力量!U5/eELE!H$12*EMF!G$2</f>
@@ -33968,11 +34060,11 @@
       </c>
       <c r="X25">
         <f>発電電力量!V5/eELE!I$12*EMF!H$2</f>
-        <v>-28.195331804763651</v>
+        <v>0</v>
       </c>
       <c r="Y25">
         <f>発電電力量!W5/eELE!J$12*EMF!I$2</f>
-        <v>0</v>
+        <v>-147.97351577381914</v>
       </c>
       <c r="Z25">
         <f>発電電力量!X5/eELE!K$12*EMF!J$2</f>
@@ -33992,7 +34084,7 @@
       </c>
       <c r="AD25" s="5">
         <f t="shared" si="3"/>
-        <v>319.02368927774836</v>
+        <v>226.44728184449048</v>
       </c>
     </row>
     <row r="26" spans="1:30" x14ac:dyDescent="0.4">
@@ -34030,7 +34122,7 @@
       </c>
       <c r="J26">
         <f>発電電力量!I6/eELE!I$12*EMF!H$2</f>
-        <v>-39.450425237070263</v>
+        <v>0</v>
       </c>
       <c r="K26">
         <f>発電電力量!J6/eELE!J$12*EMF!I$2</f>
@@ -34054,11 +34146,11 @@
       </c>
       <c r="P26" s="5">
         <f t="shared" si="2"/>
-        <v>445.83949191001426</v>
+        <v>485.28991714708451</v>
       </c>
       <c r="Q26" s="17">
         <f>発電電力量!O6/eELE!B$12*EMF!A$2</f>
-        <v>108.19024074804381</v>
+        <v>121.81524801203187</v>
       </c>
       <c r="R26">
         <f>発電電力量!P6/eELE!C$12*EMF!B$2</f>
@@ -34066,7 +34158,7 @@
       </c>
       <c r="S26">
         <f>発電電力量!Q6/eELE!D$12*EMF!C$2</f>
-        <v>11.276899811963846</v>
+        <v>12.697063412589273</v>
       </c>
       <c r="T26">
         <f>発電電力量!R6/eELE!E$12*EMF!D$2</f>
@@ -34074,11 +34166,11 @@
       </c>
       <c r="U26">
         <f>発電電力量!S6/eELE!F$12*EMF!E$2</f>
-        <v>64.227769739511274</v>
+        <v>72.316335059266507</v>
       </c>
       <c r="V26">
         <f>発電電力量!T6/eELE!G$12*EMF!F$2</f>
-        <v>0.80700076446955271</v>
+        <v>0.90863092262353973</v>
       </c>
       <c r="W26">
         <f>発電電力量!U6/eELE!H$12*EMF!G$2</f>
@@ -34086,11 +34178,11 @@
       </c>
       <c r="X26">
         <f>発電電力量!V6/eELE!I$12*EMF!H$2</f>
-        <v>-14.933016469421224</v>
+        <v>0</v>
       </c>
       <c r="Y26">
         <f>発電電力量!W6/eELE!J$12*EMF!I$2</f>
-        <v>0</v>
+        <v>-327.31916075063049</v>
       </c>
       <c r="Z26">
         <f>発電電力量!X6/eELE!K$12*EMF!J$2</f>
@@ -34110,7 +34202,7 @@
       </c>
       <c r="AD26" s="5">
         <f t="shared" si="3"/>
-        <v>169.56889459456727</v>
+        <v>-119.58188334411929</v>
       </c>
     </row>
     <row r="27" spans="1:30" x14ac:dyDescent="0.4">
@@ -34148,7 +34240,7 @@
       </c>
       <c r="J27">
         <f>発電電力量!I7/eELE!I$12*EMF!H$2</f>
-        <v>-40.834165051249357</v>
+        <v>0</v>
       </c>
       <c r="K27">
         <f>発電電力量!J7/eELE!J$12*EMF!I$2</f>
@@ -34172,7 +34264,7 @@
       </c>
       <c r="P27" s="5">
         <f t="shared" si="2"/>
-        <v>461.47749459267129</v>
+        <v>502.31165964392062</v>
       </c>
       <c r="Q27" s="17">
         <f>発電電力量!O7/eELE!B$12*EMF!A$2</f>
@@ -34196,7 +34288,7 @@
       </c>
       <c r="V27">
         <f>発電電力量!T7/eELE!G$12*EMF!F$2</f>
-        <v>1.2073200033919047</v>
+        <v>1.3954828306316243</v>
       </c>
       <c r="W27">
         <f>発電電力量!U7/eELE!H$12*EMF!G$2</f>
@@ -34208,7 +34300,7 @@
       </c>
       <c r="Y27">
         <f>発電電力量!W7/eELE!J$12*EMF!I$2</f>
-        <v>0</v>
+        <v>-502.6994543014311</v>
       </c>
       <c r="Z27">
         <f>発電電力量!X7/eELE!K$12*EMF!J$2</f>
@@ -34228,7 +34320,7 @@
       </c>
       <c r="AD27" s="5">
         <f t="shared" si="3"/>
-        <v>1.2073200033919047</v>
+        <v>-501.30397147079947</v>
       </c>
     </row>
     <row r="28" spans="1:30" x14ac:dyDescent="0.4">
@@ -34514,7 +34606,7 @@
       </c>
       <c r="J43">
         <f t="shared" si="10"/>
-        <v>-16.262534753254329</v>
+        <v>0</v>
       </c>
       <c r="K43">
         <f t="shared" si="10"/>
@@ -34538,7 +34630,7 @@
       </c>
       <c r="P43" s="5">
         <f t="shared" si="10"/>
-        <v>1046.2116092114004</v>
+        <v>1062.4741439646548</v>
       </c>
       <c r="Q43" s="17">
         <f t="shared" si="10"/>
@@ -34570,7 +34662,7 @@
       </c>
       <c r="X43">
         <f t="shared" si="10"/>
-        <v>-16.262534753254329</v>
+        <v>0</v>
       </c>
       <c r="Y43">
         <f t="shared" si="10"/>
@@ -34594,7 +34686,7 @@
       </c>
       <c r="AD43" s="5">
         <f>SUM(AD3,AD8,AD13,AD18,AD23,AD28,AD33,AD38)</f>
-        <v>1046.2116092114004</v>
+        <v>1062.4741439646548</v>
       </c>
     </row>
     <row r="44" spans="1:30" x14ac:dyDescent="0.4">
@@ -34632,7 +34724,7 @@
       </c>
       <c r="J44">
         <f t="shared" si="11"/>
-        <v>-36.500777680667703</v>
+        <v>0</v>
       </c>
       <c r="K44">
         <f t="shared" si="11"/>
@@ -34656,7 +34748,7 @@
       </c>
       <c r="P44" s="5">
         <f t="shared" si="11"/>
-        <v>933.96164880375397</v>
+        <v>970.46242648442171</v>
       </c>
       <c r="Q44" s="17">
         <f t="shared" si="11"/>
@@ -34688,7 +34780,7 @@
       </c>
       <c r="X44">
         <f t="shared" si="11"/>
-        <v>-36.500777680667703</v>
+        <v>0</v>
       </c>
       <c r="Y44">
         <f t="shared" si="11"/>
@@ -34712,7 +34804,7 @@
       </c>
       <c r="AD44" s="5">
         <f t="shared" si="11"/>
-        <v>933.96164880375397</v>
+        <v>970.46242648442171</v>
       </c>
     </row>
     <row r="45" spans="1:30" x14ac:dyDescent="0.4">
@@ -34750,7 +34842,7 @@
       </c>
       <c r="J45">
         <f t="shared" si="12"/>
-        <v>-38.270734823907041</v>
+        <v>0</v>
       </c>
       <c r="K45">
         <f t="shared" si="12"/>
@@ -34774,11 +34866,11 @@
       </c>
       <c r="P45" s="5">
         <f t="shared" si="12"/>
-        <v>961.99988684901234</v>
+        <v>1000.2706216729191</v>
       </c>
       <c r="Q45" s="17">
         <f t="shared" si="12"/>
-        <v>313.25116300641452</v>
+        <v>329.25453546750538</v>
       </c>
       <c r="R45">
         <f t="shared" si="12"/>
@@ -34786,7 +34878,7 @@
       </c>
       <c r="S45">
         <f t="shared" si="12"/>
-        <v>214.06501567004634</v>
+        <v>215.73308135369282</v>
       </c>
       <c r="T45">
         <f t="shared" si="12"/>
@@ -34794,11 +34886,11 @@
       </c>
       <c r="U45">
         <f t="shared" si="12"/>
-        <v>174.20728974354722</v>
+        <v>180.73902874164591</v>
       </c>
       <c r="V45">
         <f t="shared" si="12"/>
-        <v>0.38092863500669744</v>
+        <v>0.41077128467846225</v>
       </c>
       <c r="W45">
         <f t="shared" si="12"/>
@@ -34806,11 +34898,11 @@
       </c>
       <c r="X45">
         <f t="shared" si="12"/>
-        <v>-28.195331804763651</v>
+        <v>0</v>
       </c>
       <c r="Y45">
         <f t="shared" si="12"/>
-        <v>0</v>
+        <v>-147.97351577381914</v>
       </c>
       <c r="Z45">
         <f t="shared" si="12"/>
@@ -34830,7 +34922,7 @@
       </c>
       <c r="AD45" s="5">
         <f t="shared" si="12"/>
-        <v>674.01679243812714</v>
+        <v>578.47162826157955</v>
       </c>
     </row>
     <row r="46" spans="1:30" x14ac:dyDescent="0.4">
@@ -34868,7 +34960,7 @@
       </c>
       <c r="J46">
         <f t="shared" si="13"/>
-        <v>-39.450425237070263</v>
+        <v>0</v>
       </c>
       <c r="K46">
         <f t="shared" si="13"/>
@@ -34892,11 +34984,11 @@
       </c>
       <c r="P46" s="5">
         <f t="shared" si="13"/>
-        <v>980.8417343935289</v>
+        <v>1020.2921596305989</v>
       </c>
       <c r="Q46" s="17">
         <f t="shared" si="13"/>
-        <v>197.52559703641595</v>
+        <v>211.15060430040404</v>
       </c>
       <c r="R46">
         <f t="shared" si="13"/>
@@ -34904,7 +34996,7 @@
       </c>
       <c r="S46">
         <f t="shared" si="13"/>
-        <v>97.909964233004814</v>
+        <v>99.330127833630243</v>
       </c>
       <c r="T46">
         <f t="shared" si="13"/>
@@ -34912,11 +35004,11 @@
       </c>
       <c r="U46">
         <f t="shared" si="13"/>
-        <v>106.81866218129862</v>
+        <v>109.8681659213569</v>
       </c>
       <c r="V46">
         <f t="shared" si="13"/>
-        <v>0.80700076446955271</v>
+        <v>0.90863092262353973</v>
       </c>
       <c r="W46">
         <f t="shared" si="13"/>
@@ -34924,11 +35016,11 @@
       </c>
       <c r="X46">
         <f t="shared" si="13"/>
-        <v>-14.933016469421224</v>
+        <v>0</v>
       </c>
       <c r="Y46">
         <f t="shared" si="13"/>
-        <v>0</v>
+        <v>-327.31916075063049</v>
       </c>
       <c r="Z46">
         <f t="shared" si="13"/>
@@ -34948,7 +35040,7 @@
       </c>
       <c r="AD46" s="5">
         <f t="shared" si="13"/>
-        <v>385.96588511358931</v>
+        <v>91.776045595205815</v>
       </c>
     </row>
     <row r="47" spans="1:30" x14ac:dyDescent="0.4">
@@ -34986,7 +35078,7 @@
       </c>
       <c r="J47" s="11">
         <f t="shared" si="14"/>
-        <v>-40.834165051249357</v>
+        <v>0</v>
       </c>
       <c r="K47" s="11">
         <f t="shared" si="14"/>
@@ -35010,7 +35102,7 @@
       </c>
       <c r="P47" s="13">
         <f t="shared" si="14"/>
-        <v>1002.8626836518463</v>
+        <v>1043.6968487030956</v>
       </c>
       <c r="Q47" s="16">
         <f t="shared" si="14"/>
@@ -35030,11 +35122,11 @@
       </c>
       <c r="U47" s="11">
         <f t="shared" si="14"/>
-        <v>32.880084752954254</v>
+        <v>26.579647173925899</v>
       </c>
       <c r="V47" s="11">
         <f t="shared" si="14"/>
-        <v>1.2073200033919047</v>
+        <v>1.3954828306316243</v>
       </c>
       <c r="W47" s="11">
         <f t="shared" si="14"/>
@@ -35046,7 +35138,7 @@
       </c>
       <c r="Y47" s="11">
         <f t="shared" si="14"/>
-        <v>0</v>
+        <v>-502.6994543014311</v>
       </c>
       <c r="Z47" s="11">
         <f t="shared" si="14"/>
@@ -35066,7 +35158,7 @@
       </c>
       <c r="AD47" s="13">
         <f t="shared" si="14"/>
-        <v>111.38612679691381</v>
+        <v>-397.42560225630592</v>
       </c>
     </row>
   </sheetData>
@@ -35199,19 +35291,19 @@
       </c>
       <c r="B6" s="65">
         <f>部門別CO2排出量!P23</f>
-        <v>460.11701980667925</v>
+        <v>476.37955455993358</v>
       </c>
       <c r="C6" s="65">
         <f>部門別CO2排出量!P24</f>
-        <v>412.50475952227805</v>
+        <v>449.00553720294573</v>
       </c>
       <c r="D6" s="65">
         <f>部門別CO2排出量!P27</f>
-        <v>461.47749459267129</v>
+        <v>502.31165964392062</v>
       </c>
       <c r="E6" s="65">
         <f>部門別CO2排出量!AD27</f>
-        <v>1.2073200033919047</v>
+        <v>-501.30397147079947</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.4">
@@ -35283,19 +35375,19 @@
       </c>
       <c r="B10" s="61">
         <f>SUM(B2:B9)</f>
-        <v>1115.7996146439791</v>
+        <v>1132.0621493972333</v>
       </c>
       <c r="C10" s="61">
         <f>SUM(C2:C9)</f>
-        <v>926.6295566257852</v>
+        <v>963.13033430645282</v>
       </c>
       <c r="D10" s="61">
         <f>SUM(D2:D9)</f>
-        <v>1002.8626836518463</v>
+        <v>1043.6968487030956</v>
       </c>
       <c r="E10" s="61">
         <f>SUM(E2:E9)</f>
-        <v>153.82678903480763</v>
+        <v>-348.68450243938378</v>
       </c>
     </row>
   </sheetData>
@@ -35604,7 +35696,7 @@
       </c>
       <c r="L3">
         <f>一次エネルギー供給!L3</f>
-        <v>9.619362132052052E-2</v>
+        <v>9.6193621320520527E-3</v>
       </c>
       <c r="M3">
         <f>一次エネルギー供給!M3</f>
@@ -35813,7 +35905,7 @@
       </c>
       <c r="L4">
         <f>一次エネルギー供給!L4</f>
-        <v>0.11027890434022726</v>
+        <v>1.1027890434022726E-2</v>
       </c>
       <c r="M4">
         <f>一次エネルギー供給!M4</f>
@@ -36022,7 +36114,7 @@
       </c>
       <c r="L5">
         <f>一次エネルギー供給!L7</f>
-        <v>0.12337126131657267</v>
+        <v>1.2337126131657267E-2</v>
       </c>
       <c r="M5">
         <f>一次エネルギー供給!M7</f>
@@ -36207,39 +36299,39 @@
       </c>
       <c r="F6">
         <f>一次エネルギー供給!T7</f>
-        <v>0.58609776743233954</v>
+        <v>0.47379050220901781</v>
       </c>
       <c r="G6">
         <f>一次エネルギー供給!U7</f>
-        <v>0.43041711350870043</v>
+        <v>0.49749833534104249</v>
       </c>
       <c r="H6">
         <f>一次エネルギー供給!V7</f>
-        <v>0.67823302734704616</v>
+        <v>0</v>
       </c>
       <c r="I6">
         <f>一次エネルギー供給!W7</f>
-        <v>1.6576344116581256</v>
+        <v>1.145362489883333</v>
       </c>
       <c r="J6">
         <f>一次エネルギー供給!X7</f>
-        <v>2.0346990820411293</v>
+        <v>5.291573203172959</v>
       </c>
       <c r="K6">
         <f>一次エネルギー供給!Y7</f>
-        <v>0.1119084495122641</v>
+        <v>0.12934956718867333</v>
       </c>
       <c r="L6">
         <f>一次エネルギー供給!Z7</f>
-        <v>1.1190844951226211</v>
+        <v>0.12934956718867105</v>
       </c>
       <c r="M6">
         <f>一次エネルギー供給!AA7</f>
-        <v>1.3429013941471692</v>
+        <v>1.0347965375093775</v>
       </c>
       <c r="N6">
         <f>一次エネルギー供給!AB7</f>
-        <v>1.5667182931716814</v>
+        <v>1.293495671886715</v>
       </c>
       <c r="O6">
         <f>発電電力量!O7</f>
@@ -36263,11 +36355,11 @@
       </c>
       <c r="T6">
         <f>発電電力量!T7</f>
-        <v>0.22381689902452423</v>
+        <v>0.2586991343773421</v>
       </c>
       <c r="U6">
         <f>発電電力量!U7</f>
-        <v>0.22381689902452523</v>
+        <v>0</v>
       </c>
       <c r="V6">
         <f>発電電力量!V7</f>
@@ -36275,23 +36367,23 @@
       </c>
       <c r="W6">
         <f>発電電力量!W7</f>
-        <v>0.89526759609809692</v>
+        <v>2.328292209396102</v>
       </c>
       <c r="X6">
         <f>発電電力量!X7</f>
-        <v>0.1119084495122641</v>
+        <v>0.12934956718867333</v>
       </c>
       <c r="Y6">
         <f>発電電力量!Y7</f>
-        <v>0.11190844951226211</v>
+        <v>0.12934956718867105</v>
       </c>
       <c r="Z6">
         <f>発電電力量!Z7</f>
-        <v>1.3429013941471692</v>
+        <v>1.0347965375093775</v>
       </c>
       <c r="AA6">
         <f>発電電力量!AA7</f>
-        <v>1.5667182931716814</v>
+        <v>1.293495671886715</v>
       </c>
       <c r="AB6">
         <f>最終エネルギー消費!H27</f>
@@ -36303,15 +36395,15 @@
       </c>
       <c r="AD6">
         <f>最終エネルギー消費!J27</f>
-        <v>0.58609776743233954</v>
+        <v>0.47379050220901781</v>
       </c>
       <c r="AE6">
         <f>最終エネルギー消費!K27</f>
-        <v>1.6576344116581256</v>
+        <v>1.145362489883333</v>
       </c>
       <c r="AF6">
         <f>最終エネルギー消費!L27</f>
-        <v>4.0075234690451813</v>
+        <v>4.6321026560432896</v>
       </c>
       <c r="AG6">
         <f>最終エネルギー消費!H7</f>
@@ -36327,11 +36419,11 @@
       </c>
       <c r="AJ6">
         <f>最終エネルギー消費!K7</f>
-        <v>0.58101536992724601</v>
+        <v>0.38734357995150304</v>
       </c>
       <c r="AK6">
         <f>最終エネルギー消費!L7</f>
-        <v>1.1620307398544989</v>
+        <v>1.3557025298302521</v>
       </c>
       <c r="AL6">
         <f>最終エネルギー消費!H12</f>
@@ -36347,11 +36439,11 @@
       </c>
       <c r="AO6">
         <f>最終エネルギー消費!K12</f>
-        <v>0.79650032949761229</v>
+        <v>0.47790019769856285</v>
       </c>
       <c r="AP6">
         <f>最終エネルギー消費!L12</f>
-        <v>0.71685029654785559</v>
+        <v>1.0354504283468937</v>
       </c>
       <c r="AQ6">
         <f>最終エネルギー消費!H17</f>
@@ -36383,7 +36475,7 @@
       </c>
       <c r="AX6">
         <f>最終エネルギー消費!J22</f>
-        <v>0.22461453044664287</v>
+        <v>0.11230726522332106</v>
       </c>
       <c r="AY6">
         <f>最終エネルギー消費!K22</f>
@@ -36391,7 +36483,7 @@
       </c>
       <c r="AZ6">
         <f>最終エネルギー消費!L22</f>
-        <v>0.78615085656325145</v>
+        <v>0.89845812178656848</v>
       </c>
     </row>
     <row r="7" spans="1:60" x14ac:dyDescent="0.4">
@@ -36433,11 +36525,11 @@
       </c>
       <c r="B10" s="58">
         <f>部門別CO2排出量!P43</f>
-        <v>1046.2116092114004</v>
+        <v>1062.4741439646548</v>
       </c>
       <c r="C10">
         <f>部門別CO2排出量!AD43</f>
-        <v>1046.2116092114004</v>
+        <v>1062.4741439646548</v>
       </c>
       <c r="D10" s="58"/>
       <c r="E10" s="63" t="s">
@@ -36466,11 +36558,11 @@
       </c>
       <c r="B11" s="58">
         <f>部門別CO2排出量!P44</f>
-        <v>933.96164880375397</v>
+        <v>970.46242648442171</v>
       </c>
       <c r="C11">
         <f>部門別CO2排出量!AD44</f>
-        <v>933.96164880375397</v>
+        <v>970.46242648442171</v>
       </c>
       <c r="E11" s="63" t="s">
         <v>6</v>
@@ -36498,11 +36590,11 @@
       </c>
       <c r="B12" s="58">
         <f>部門別CO2排出量!P45</f>
-        <v>961.99988684901234</v>
+        <v>1000.2706216729191</v>
       </c>
       <c r="C12">
         <f>部門別CO2排出量!AD45</f>
-        <v>674.01679243812714</v>
+        <v>578.47162826157955</v>
       </c>
       <c r="E12" s="63" t="s">
         <v>7</v>
@@ -36530,11 +36622,11 @@
       </c>
       <c r="B13" s="58">
         <f>部門別CO2排出量!P46</f>
-        <v>980.8417343935289</v>
+        <v>1020.2921596305989</v>
       </c>
       <c r="C13">
         <f>部門別CO2排出量!AD46</f>
-        <v>385.96588511358931</v>
+        <v>91.776045595205815</v>
       </c>
       <c r="E13" s="63" t="s">
         <v>8</v>
@@ -36562,30 +36654,30 @@
       </c>
       <c r="B14" s="58">
         <f>部門別CO2排出量!P47</f>
-        <v>1002.8626836518463</v>
+        <v>1043.6968487030956</v>
       </c>
       <c r="C14">
         <f>部門別CO2排出量!AD47</f>
-        <v>111.38612679691381</v>
+        <v>-397.42560225630592</v>
       </c>
       <c r="E14" s="66" t="s">
         <v>33</v>
       </c>
       <c r="F14">
         <f>部門別CO2排出量_表!B6</f>
-        <v>460.11701980667925</v>
+        <v>476.37955455993358</v>
       </c>
       <c r="G14">
         <f>部門別CO2排出量_表!C6</f>
-        <v>412.50475952227805</v>
+        <v>449.00553720294573</v>
       </c>
       <c r="H14">
         <f>部門別CO2排出量_表!D6</f>
-        <v>461.47749459267129</v>
+        <v>502.31165964392062</v>
       </c>
       <c r="I14">
         <f>部門別CO2排出量_表!E6</f>
-        <v>1.2073200033919047</v>
+        <v>-501.30397147079947</v>
       </c>
     </row>
     <row r="15" spans="1:60" x14ac:dyDescent="0.4">

--- a/xlsx/model2.xlsx
+++ b/xlsx/model2.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\R\TA_model\xlsx\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A3376E3A-EDB8-4025-8AB1-54E31258B202}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1F459991-9DED-4345-8662-401C39E48CA4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11500" tabRatio="878" xr2:uid="{BCC5EA96-140E-4D1F-AEAE-F8AA11DA45EB}"/>
   </bookViews>
@@ -8921,7 +8921,7 @@
   <dimension ref="A1:I40"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="69" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="H8" sqref="H8:H12"/>
+      <selection activeCell="F8" sqref="F8:F12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.55000000000000004"/>

--- a/xlsx/model2.xlsx
+++ b/xlsx/model2.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\R\TA\xlsx\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\yumi\Desktop\M2\xlsx\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1C4A35C0-C063-48CC-8627-4C78880629EC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C564894F-0E4C-40FB-8E94-8FB53C963912}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="38280" yWindow="2385" windowWidth="29040" windowHeight="15720" tabRatio="878" xr2:uid="{BCC5EA96-140E-4D1F-AEAE-F8AA11DA45EB}"/>
+    <workbookView xWindow="-98" yWindow="-98" windowWidth="19396" windowHeight="10395" tabRatio="878" xr2:uid="{BCC5EA96-140E-4D1F-AEAE-F8AA11DA45EB}"/>
   </bookViews>
   <sheets>
     <sheet name="シナリオ" sheetId="1" r:id="rId1"/>
@@ -62,7 +62,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="479" uniqueCount="108">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="479" uniqueCount="109">
   <si>
     <t>シナリオ1</t>
     <phoneticPr fontId="1"/>
@@ -576,11 +576,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t xml:space="preserve">2050
-</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>排出量</t>
     <rPh sb="0" eb="2">
       <t>ハイシュツ</t>
@@ -674,13 +669,29 @@
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
+  <si>
+    <t>2050
+ベースライン</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>合計（MtCO₂/年）</t>
+    <rPh sb="0" eb="2">
+      <t>ゴウケイ</t>
+    </rPh>
+    <rPh sb="9" eb="10">
+      <t>ネン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="1">
-    <numFmt numFmtId="179" formatCode="0.000_ "/>
+  <numFmts count="2">
+    <numFmt numFmtId="176" formatCode="0.000_ "/>
+    <numFmt numFmtId="184" formatCode="0.0"/>
   </numFmts>
   <fonts count="4" x14ac:knownFonts="1">
     <font>
@@ -912,7 +923,7 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="97">
+  <cellXfs count="95">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -993,9 +1004,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1026,20 +1034,68 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="13" xfId="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="15" xfId="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="1" applyBorder="1"/>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="2" fillId="0" borderId="13" xfId="1" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="2" fillId="0" borderId="12" xfId="1" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1"/>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1050,6 +1106,24 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1057,9 +1131,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -1077,73 +1148,9 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="13" xfId="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="184" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="15" xfId="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="179" fontId="0" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="179" fontId="2" fillId="0" borderId="13" xfId="1" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="179" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="179" fontId="2" fillId="0" borderId="12" xfId="1" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="179" fontId="0" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="179" fontId="0" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="179" fontId="0" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="179" fontId="0" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="179" fontId="0" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="179" fontId="0" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="179" fontId="0" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="179" fontId="0" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="179" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1"/>
-    <xf numFmtId="179" fontId="0" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="179" fontId="0" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="179" fontId="0" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="標準" xfId="0" builtinId="0"/>
@@ -2371,6 +2378,32 @@
             <a:effectLst/>
           </c:spPr>
         </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr b="0"/>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="ja-JP" altLang="en-US" b="0"/>
+                  <a:t>一次エネルギー供給（</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="en-US" altLang="ja-JP" b="0"/>
+                  <a:t>EJ/</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="ja-JP" altLang="en-US" b="0"/>
+                  <a:t>年）</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+        </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
@@ -5109,6 +5142,32 @@
             <a:effectLst/>
           </c:spPr>
         </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr b="0"/>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="ja-JP" altLang="en-US" b="0"/>
+                  <a:t>発電電力量（</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="en-US" altLang="ja-JP" b="0"/>
+                  <a:t>EJ/</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="ja-JP" altLang="en-US" b="0"/>
+                  <a:t>年）</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+        </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
@@ -5747,6 +5806,32 @@
             <a:effectLst/>
           </c:spPr>
         </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr b="0"/>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="ja-JP" altLang="en-US" b="0"/>
+                  <a:t>最終エネルギー消費（</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="en-US" altLang="ja-JP" b="0"/>
+                  <a:t>EJ/</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="ja-JP" altLang="en-US" b="0"/>
+                  <a:t>年）</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+        </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
@@ -6378,6 +6463,32 @@
             <a:effectLst/>
           </c:spPr>
         </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr b="0"/>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="ja-JP" altLang="en-US" b="0"/>
+                  <a:t>最終エネルギー消費（</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="en-US" altLang="ja-JP" b="0"/>
+                  <a:t>EJ/</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="ja-JP" altLang="en-US" b="0"/>
+                  <a:t>年）</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+        </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
@@ -7009,6 +7120,44 @@
             <a:effectLst/>
           </c:spPr>
         </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr b="0"/>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="ja-JP" altLang="en-US" sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:sysClr val="windowText" lastClr="000000"/>
+                    </a:solidFill>
+                  </a:rPr>
+                  <a:t>最終エネルギー消費（</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="en-US" altLang="ja-JP" sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:sysClr val="windowText" lastClr="000000"/>
+                    </a:solidFill>
+                  </a:rPr>
+                  <a:t>EJ/</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="ja-JP" altLang="en-US" sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:sysClr val="windowText" lastClr="000000"/>
+                    </a:solidFill>
+                  </a:rPr>
+                  <a:t>年）</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+        </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
@@ -7640,6 +7789,44 @@
             <a:effectLst/>
           </c:spPr>
         </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr b="0"/>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="ja-JP" altLang="en-US" sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:sysClr val="windowText" lastClr="000000"/>
+                    </a:solidFill>
+                  </a:rPr>
+                  <a:t>最終エネルギー消費（</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="en-US" altLang="ja-JP" sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:sysClr val="windowText" lastClr="000000"/>
+                    </a:solidFill>
+                  </a:rPr>
+                  <a:t>EJ/</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="ja-JP" altLang="en-US" sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:sysClr val="windowText" lastClr="000000"/>
+                    </a:solidFill>
+                  </a:rPr>
+                  <a:t>年）</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+        </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
@@ -8271,6 +8458,44 @@
             <a:effectLst/>
           </c:spPr>
         </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr b="0"/>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="ja-JP" altLang="en-US" sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:sysClr val="windowText" lastClr="000000"/>
+                    </a:solidFill>
+                  </a:rPr>
+                  <a:t>最終エネルギー消費（</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="en-US" altLang="ja-JP" sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:sysClr val="windowText" lastClr="000000"/>
+                    </a:solidFill>
+                  </a:rPr>
+                  <a:t>EJ/</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="ja-JP" altLang="en-US" sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:sysClr val="windowText" lastClr="000000"/>
+                    </a:solidFill>
+                  </a:rPr>
+                  <a:t>年）</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+        </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
@@ -8778,6 +9003,99 @@
             <a:effectLst/>
           </c:spPr>
         </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-ea"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US" altLang="ja-JP">
+                    <a:latin typeface="+mn-ea"/>
+                    <a:ea typeface="+mn-ea"/>
+                  </a:rPr>
+                  <a:t>CO</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="ja-JP" altLang="en-US">
+                    <a:latin typeface="+mn-ea"/>
+                    <a:ea typeface="+mn-ea"/>
+                  </a:rPr>
+                  <a:t>₂排出量（</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="en-US" altLang="ja-JP">
+                    <a:latin typeface="+mn-ea"/>
+                    <a:ea typeface="+mn-ea"/>
+                  </a:rPr>
+                  <a:t>MtCO</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="ja-JP" altLang="en-US">
+                    <a:latin typeface="+mn-ea"/>
+                    <a:ea typeface="+mn-ea"/>
+                  </a:rPr>
+                  <a:t>₂</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="en-US" altLang="ja-JP">
+                    <a:latin typeface="+mn-ea"/>
+                    <a:ea typeface="+mn-ea"/>
+                  </a:rPr>
+                  <a:t>/</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="ja-JP" altLang="en-US">
+                    <a:latin typeface="+mn-ea"/>
+                    <a:ea typeface="+mn-ea"/>
+                  </a:rPr>
+                  <a:t>年）</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-ea"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="ja-JP"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
@@ -9654,6 +9972,72 @@
             <a:effectLst/>
           </c:spPr>
         </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr b="0">
+                    <a:latin typeface="+mn-ea"/>
+                    <a:ea typeface="+mn-ea"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="ja-JP" altLang="en-US" b="0">
+                    <a:latin typeface="+mn-ea"/>
+                    <a:ea typeface="+mn-ea"/>
+                  </a:rPr>
+                  <a:t>部門別</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="en-US" altLang="ja-JP" b="0">
+                    <a:latin typeface="+mn-ea"/>
+                    <a:ea typeface="+mn-ea"/>
+                  </a:rPr>
+                  <a:t>CO</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="ja-JP" altLang="en-US" b="0">
+                    <a:latin typeface="+mn-ea"/>
+                    <a:ea typeface="+mn-ea"/>
+                  </a:rPr>
+                  <a:t>₂排出量（</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="en-US" altLang="ja-JP" b="0">
+                    <a:latin typeface="+mn-ea"/>
+                    <a:ea typeface="+mn-ea"/>
+                  </a:rPr>
+                  <a:t>MtCO</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="ja-JP" altLang="en-US" b="0">
+                    <a:latin typeface="+mn-ea"/>
+                    <a:ea typeface="+mn-ea"/>
+                  </a:rPr>
+                  <a:t>₂</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="en-US" altLang="ja-JP" b="0">
+                    <a:latin typeface="+mn-ea"/>
+                    <a:ea typeface="+mn-ea"/>
+                  </a:rPr>
+                  <a:t>/</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="ja-JP" altLang="en-US" b="0">
+                    <a:latin typeface="+mn-ea"/>
+                    <a:ea typeface="+mn-ea"/>
+                  </a:rPr>
+                  <a:t>年）</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+        </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
@@ -11180,100 +11564,100 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E986FF72-BEDE-45A8-BC8F-658BE92277B0}">
-  <dimension ref="A1:J82"/>
+  <dimension ref="A1:J80"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="G48" sqref="G48"/>
+    <sheetView tabSelected="1" zoomScale="52" zoomScaleNormal="52" workbookViewId="0">
+      <selection activeCell="AB9" sqref="AB9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.55000000000000004"/>
+  <sheetFormatPr defaultRowHeight="17.649999999999999" x14ac:dyDescent="0.7"/>
   <cols>
     <col min="1" max="1" width="14.5" style="2" customWidth="1"/>
-    <col min="3" max="3" width="10.58203125" customWidth="1"/>
-    <col min="4" max="4" width="14.1640625" customWidth="1"/>
-    <col min="5" max="5" width="14.58203125" customWidth="1"/>
-    <col min="6" max="6" width="11.58203125" customWidth="1"/>
-    <col min="7" max="7" width="5.9140625" customWidth="1"/>
-    <col min="8" max="8" width="11.58203125" customWidth="1"/>
-    <col min="9" max="10" width="5.9140625" customWidth="1"/>
+    <col min="3" max="3" width="10.5625" customWidth="1"/>
+    <col min="4" max="4" width="14.1875" customWidth="1"/>
+    <col min="5" max="5" width="14.5625" customWidth="1"/>
+    <col min="6" max="6" width="11.5625" customWidth="1"/>
+    <col min="7" max="7" width="5.9375" customWidth="1"/>
+    <col min="8" max="8" width="11.5625" customWidth="1"/>
+    <col min="9" max="10" width="5.9375" customWidth="1"/>
     <col min="11" max="11" width="11.25" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" ht="18" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A1" s="37"/>
-      <c r="B1" s="40"/>
-      <c r="C1" s="41"/>
-      <c r="D1" s="39" t="s">
+    <row r="1" spans="1:10" ht="18" customHeight="1" x14ac:dyDescent="0.7">
+      <c r="A1" s="36"/>
+      <c r="B1" s="39"/>
+      <c r="C1" s="40"/>
+      <c r="D1" s="38" t="s">
+        <v>98</v>
+      </c>
+      <c r="E1" s="36" t="s">
+        <v>97</v>
+      </c>
+      <c r="F1" s="71" t="s">
+        <v>100</v>
+      </c>
+      <c r="G1" s="72"/>
+      <c r="H1" s="71" t="s">
         <v>99</v>
       </c>
-      <c r="E1" s="37" t="s">
-        <v>98</v>
-      </c>
-      <c r="F1" s="49" t="s">
+      <c r="I1" s="72"/>
+    </row>
+    <row r="2" spans="1:10" ht="17.55" customHeight="1" x14ac:dyDescent="0.7">
+      <c r="A2" s="37"/>
+      <c r="B2" s="9"/>
+      <c r="C2" s="51"/>
+      <c r="D2" s="49" t="s">
         <v>101</v>
       </c>
-      <c r="G1" s="60"/>
-      <c r="H1" s="49" t="s">
-        <v>100</v>
-      </c>
-      <c r="I1" s="60"/>
-    </row>
-    <row r="2" spans="1:10" ht="17.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A2" s="38"/>
-      <c r="B2" s="9"/>
-      <c r="C2" s="71"/>
-      <c r="D2" s="69" t="s">
+      <c r="E2" s="50" t="s">
         <v>102</v>
       </c>
-      <c r="E2" s="70" t="s">
-        <v>103</v>
-      </c>
-      <c r="F2" s="72" t="s">
-        <v>103</v>
+      <c r="F2" s="73" t="s">
+        <v>102</v>
       </c>
       <c r="G2" s="74"/>
-      <c r="H2" s="72" t="s">
-        <v>103</v>
+      <c r="H2" s="73" t="s">
+        <v>102</v>
       </c>
       <c r="I2" s="74"/>
     </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.55000000000000004">
-      <c r="A3" s="77" t="s">
-        <v>106</v>
-      </c>
-      <c r="B3" s="77"/>
-      <c r="C3" s="78"/>
-      <c r="D3" s="81">
+    <row r="3" spans="1:10" x14ac:dyDescent="0.7">
+      <c r="A3" s="75" t="s">
+        <v>105</v>
+      </c>
+      <c r="B3" s="75"/>
+      <c r="C3" s="76"/>
+      <c r="D3" s="55">
         <f>6328236.97353098*137/10^6</f>
         <v>866.96846537374427</v>
       </c>
-      <c r="E3" s="82">
+      <c r="E3" s="56">
         <f>7790457.3461009*137/10^6</f>
         <v>1067.2926564158233</v>
       </c>
-      <c r="F3" s="73">
+      <c r="F3" s="52">
         <f>7790457.3461009*137/10^6</f>
         <v>1067.2926564158233</v>
       </c>
-      <c r="G3" s="75"/>
-      <c r="H3" s="76">
+      <c r="G3" s="53"/>
+      <c r="H3" s="54">
         <f>7790457.3461009*137/10^6</f>
         <v>1067.2926564158233</v>
       </c>
-      <c r="I3" s="75"/>
+      <c r="I3" s="53"/>
       <c r="J3" s="16"/>
     </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.55000000000000004">
-      <c r="A4" s="77" t="s">
-        <v>105</v>
-      </c>
-      <c r="B4" s="77"/>
-      <c r="C4" s="78"/>
-      <c r="D4" s="83">
+    <row r="4" spans="1:10" x14ac:dyDescent="0.7">
+      <c r="A4" s="75" t="s">
+        <v>104</v>
+      </c>
+      <c r="B4" s="75"/>
+      <c r="C4" s="76"/>
+      <c r="D4" s="57">
         <f>126175.348017836/10^3</f>
         <v>126.175348017836</v>
       </c>
-      <c r="E4" s="84">
+      <c r="E4" s="58">
         <f>109794.573642716/10^3</f>
         <v>109.794573642716</v>
       </c>
@@ -11281,26 +11665,26 @@
         <f>109794.573642716/10^3</f>
         <v>109.794573642716</v>
       </c>
-      <c r="G4" s="68"/>
+      <c r="G4" s="48"/>
       <c r="H4" s="16">
         <f>109794.573642716/10^3</f>
         <v>109.794573642716</v>
       </c>
-      <c r="I4" s="68"/>
+      <c r="I4" s="48"/>
       <c r="J4" s="16"/>
     </row>
-    <row r="5" spans="1:10" ht="18" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A5" s="49" t="s">
+    <row r="5" spans="1:10" ht="18" customHeight="1" x14ac:dyDescent="0.7">
+      <c r="A5" s="71" t="s">
         <v>1</v>
       </c>
       <c r="B5" s="28" t="s">
         <v>2</v>
       </c>
-      <c r="C5" s="46"/>
-      <c r="D5" s="85" t="s">
+      <c r="C5" s="45"/>
+      <c r="D5" s="59" t="s">
         <v>35</v>
       </c>
-      <c r="E5" s="86">
+      <c r="E5" s="60">
         <v>1</v>
       </c>
       <c r="F5" s="14">
@@ -11312,16 +11696,16 @@
       </c>
       <c r="I5" s="3"/>
     </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.55000000000000004">
-      <c r="A6" s="79"/>
+    <row r="6" spans="1:10" x14ac:dyDescent="0.7">
+      <c r="A6" s="80"/>
       <c r="B6" s="29" t="s">
         <v>3</v>
       </c>
-      <c r="C6" s="47"/>
-      <c r="D6" s="87" t="s">
+      <c r="C6" s="46"/>
+      <c r="D6" s="61" t="s">
         <v>35</v>
       </c>
-      <c r="E6" s="88">
+      <c r="E6" s="62">
         <v>1</v>
       </c>
       <c r="F6" s="12">
@@ -11333,16 +11717,16 @@
       </c>
       <c r="I6" s="3"/>
     </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.55000000000000004">
-      <c r="A7" s="79"/>
+    <row r="7" spans="1:10" x14ac:dyDescent="0.7">
+      <c r="A7" s="80"/>
       <c r="B7" s="29" t="s">
         <v>4</v>
       </c>
-      <c r="C7" s="47"/>
-      <c r="D7" s="87" t="s">
+      <c r="C7" s="46"/>
+      <c r="D7" s="61" t="s">
         <v>35</v>
       </c>
-      <c r="E7" s="88">
+      <c r="E7" s="62">
         <v>1</v>
       </c>
       <c r="F7" s="12">
@@ -11354,29 +11738,29 @@
       </c>
       <c r="I7" s="3"/>
     </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.55000000000000004">
-      <c r="A8" s="80"/>
+    <row r="8" spans="1:10" x14ac:dyDescent="0.7">
+      <c r="A8" s="81"/>
       <c r="B8" s="30" t="s">
         <v>5</v>
       </c>
-      <c r="C8" s="48"/>
-      <c r="D8" s="89" t="s">
+      <c r="C8" s="47"/>
+      <c r="D8" s="63" t="s">
         <v>35</v>
       </c>
-      <c r="E8" s="90">
+      <c r="E8" s="64">
         <v>1</v>
       </c>
-      <c r="F8" s="42">
+      <c r="F8" s="41">
         <v>0.7</v>
       </c>
       <c r="G8" s="11"/>
-      <c r="H8" s="42">
+      <c r="H8" s="41">
         <v>0.7</v>
       </c>
       <c r="I8" s="3"/>
     </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.55000000000000004">
-      <c r="A9" s="52" t="s">
+    <row r="9" spans="1:10" x14ac:dyDescent="0.7">
+      <c r="A9" s="82" t="s">
         <v>25</v>
       </c>
       <c r="B9" s="28" t="s">
@@ -11385,975 +11769,868 @@
       <c r="C9" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="D9" s="91">
+      <c r="D9" s="65">
         <v>0.23783804227640001</v>
       </c>
-      <c r="E9" s="92">
+      <c r="E9" s="66">
         <v>0.23783804227640001</v>
       </c>
-      <c r="F9" s="43">
-        <v>0</v>
-      </c>
-      <c r="G9" s="54">
+      <c r="F9" s="42">
+        <v>0</v>
+      </c>
+      <c r="G9" s="77">
         <f>SUM(F9:F13)</f>
         <v>1</v>
       </c>
       <c r="H9" s="3">
         <v>0</v>
       </c>
-      <c r="I9" s="54">
+      <c r="I9" s="77">
         <f>SUM(H9:H13)</f>
         <v>1</v>
       </c>
       <c r="J9" s="2"/>
     </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.55000000000000004">
-      <c r="A10" s="53"/>
+    <row r="10" spans="1:10" x14ac:dyDescent="0.7">
+      <c r="A10" s="83"/>
       <c r="B10" s="29"/>
       <c r="C10" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="D10" s="93">
+      <c r="D10" s="67">
         <v>0.21895893991493101</v>
       </c>
-      <c r="E10" s="94">
+      <c r="E10" s="68">
         <v>0.21895893991493101</v>
       </c>
-      <c r="F10" s="44">
-        <v>0</v>
-      </c>
-      <c r="G10" s="55"/>
+      <c r="F10" s="43">
+        <v>0</v>
+      </c>
+      <c r="G10" s="78"/>
       <c r="H10" s="3">
         <v>0</v>
       </c>
-      <c r="I10" s="55"/>
+      <c r="I10" s="78"/>
       <c r="J10" s="2"/>
     </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.55000000000000004">
-      <c r="A11" s="53"/>
+    <row r="11" spans="1:10" x14ac:dyDescent="0.7">
+      <c r="A11" s="83"/>
       <c r="B11" s="29"/>
       <c r="C11" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="D11" s="93">
+      <c r="D11" s="67">
         <v>0.13461717543507801</v>
       </c>
-      <c r="E11" s="94">
+      <c r="E11" s="68">
         <v>0.13461717543507801</v>
       </c>
-      <c r="F11" s="44">
+      <c r="F11" s="43">
         <v>0.1</v>
       </c>
-      <c r="G11" s="55"/>
+      <c r="G11" s="78"/>
       <c r="H11" s="3">
         <v>0.1</v>
       </c>
-      <c r="I11" s="55"/>
+      <c r="I11" s="78"/>
       <c r="J11" s="2"/>
     </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.55000000000000004">
-      <c r="A12" s="53"/>
+    <row r="12" spans="1:10" x14ac:dyDescent="0.7">
+      <c r="A12" s="83"/>
       <c r="B12" s="29"/>
       <c r="C12" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="D12" s="93">
+      <c r="D12" s="67">
         <v>4.45472571891143E-2</v>
       </c>
-      <c r="E12" s="94">
+      <c r="E12" s="68">
         <v>4.45472571891143E-2</v>
       </c>
-      <c r="F12" s="44">
+      <c r="F12" s="43">
         <v>0.2</v>
       </c>
-      <c r="G12" s="55"/>
+      <c r="G12" s="78"/>
       <c r="H12" s="3">
         <v>0.2</v>
       </c>
-      <c r="I12" s="55"/>
+      <c r="I12" s="78"/>
       <c r="J12" s="2"/>
     </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.55000000000000004">
-      <c r="A13" s="53"/>
+    <row r="13" spans="1:10" x14ac:dyDescent="0.7">
+      <c r="A13" s="83"/>
       <c r="B13" s="30"/>
       <c r="C13" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="D13" s="95">
+      <c r="D13" s="69">
         <v>0.36403858518447696</v>
       </c>
-      <c r="E13" s="96">
+      <c r="E13" s="70">
         <v>0.36403858518447696</v>
       </c>
-      <c r="F13" s="45">
+      <c r="F13" s="44">
         <v>0.7</v>
       </c>
-      <c r="G13" s="56"/>
+      <c r="G13" s="79"/>
       <c r="H13" s="7">
         <v>0.7</v>
       </c>
-      <c r="I13" s="56"/>
+      <c r="I13" s="79"/>
       <c r="J13" s="2"/>
     </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.55000000000000004">
-      <c r="A14" s="53"/>
+    <row r="14" spans="1:10" x14ac:dyDescent="0.7">
+      <c r="A14" s="83"/>
       <c r="B14" s="28" t="s">
         <v>3</v>
       </c>
       <c r="C14" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="D14" s="91">
+      <c r="D14" s="65">
         <v>1.3765472295266299E-5</v>
       </c>
-      <c r="E14" s="92">
+      <c r="E14" s="66">
         <v>1.3765472295266299E-5</v>
       </c>
-      <c r="F14" s="43">
-        <v>0</v>
-      </c>
-      <c r="G14" s="54">
+      <c r="F14" s="42">
+        <v>0</v>
+      </c>
+      <c r="G14" s="77">
         <f>SUM(F14:F18)</f>
         <v>1</v>
       </c>
       <c r="H14" s="6">
         <v>0</v>
       </c>
-      <c r="I14" s="54">
+      <c r="I14" s="77">
         <f>SUM(H14:H18)</f>
         <v>1</v>
       </c>
       <c r="J14" s="2"/>
     </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.55000000000000004">
-      <c r="A15" s="53"/>
+    <row r="15" spans="1:10" x14ac:dyDescent="0.7">
+      <c r="A15" s="83"/>
       <c r="B15" s="29"/>
       <c r="C15" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="D15" s="93">
+      <c r="D15" s="67">
         <v>0.96874549515359798</v>
       </c>
-      <c r="E15" s="94">
+      <c r="E15" s="68">
         <v>0.96874549515359798</v>
       </c>
-      <c r="F15" s="44">
+      <c r="F15" s="43">
         <v>0.05</v>
       </c>
-      <c r="G15" s="55"/>
+      <c r="G15" s="78"/>
       <c r="H15" s="3">
         <v>0.05</v>
       </c>
-      <c r="I15" s="55"/>
+      <c r="I15" s="78"/>
       <c r="J15" s="2"/>
     </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.55000000000000004">
-      <c r="A16" s="53"/>
+    <row r="16" spans="1:10" x14ac:dyDescent="0.7">
+      <c r="A16" s="83"/>
       <c r="B16" s="29"/>
       <c r="C16" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="D16" s="93">
+      <c r="D16" s="67">
         <v>4.0646380694078099E-4</v>
       </c>
-      <c r="E16" s="94">
+      <c r="E16" s="68">
         <v>4.0646380694078099E-4</v>
       </c>
-      <c r="F16" s="44">
-        <v>0</v>
-      </c>
-      <c r="G16" s="55"/>
+      <c r="F16" s="43">
+        <v>0</v>
+      </c>
+      <c r="G16" s="78"/>
       <c r="H16" s="3">
         <v>0</v>
       </c>
-      <c r="I16" s="55"/>
+      <c r="I16" s="78"/>
       <c r="J16" s="2"/>
     </row>
-    <row r="17" spans="1:10" x14ac:dyDescent="0.55000000000000004">
-      <c r="A17" s="53"/>
+    <row r="17" spans="1:10" x14ac:dyDescent="0.7">
+      <c r="A17" s="83"/>
       <c r="B17" s="29"/>
       <c r="C17" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="D17" s="93">
+      <c r="D17" s="67">
         <v>7.0146552571294599E-3</v>
       </c>
-      <c r="E17" s="94">
+      <c r="E17" s="68">
         <v>7.0146552571294599E-3</v>
       </c>
-      <c r="F17" s="44">
+      <c r="F17" s="43">
         <v>0.3</v>
       </c>
-      <c r="G17" s="55"/>
+      <c r="G17" s="78"/>
       <c r="H17" s="3">
         <v>0.3</v>
       </c>
-      <c r="I17" s="55"/>
+      <c r="I17" s="78"/>
       <c r="J17" s="2"/>
     </row>
-    <row r="18" spans="1:10" x14ac:dyDescent="0.55000000000000004">
-      <c r="A18" s="53"/>
+    <row r="18" spans="1:10" x14ac:dyDescent="0.7">
+      <c r="A18" s="83"/>
       <c r="B18" s="30"/>
       <c r="C18" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="D18" s="95">
+      <c r="D18" s="69">
         <v>2.3819620310036701E-2</v>
       </c>
-      <c r="E18" s="96">
+      <c r="E18" s="70">
         <v>2.3819620310036701E-2</v>
       </c>
-      <c r="F18" s="45">
+      <c r="F18" s="44">
         <v>0.65</v>
       </c>
-      <c r="G18" s="56"/>
+      <c r="G18" s="79"/>
       <c r="H18" s="7">
         <v>0.65</v>
       </c>
-      <c r="I18" s="56"/>
+      <c r="I18" s="79"/>
       <c r="J18" s="2"/>
     </row>
-    <row r="19" spans="1:10" x14ac:dyDescent="0.55000000000000004">
-      <c r="A19" s="53"/>
+    <row r="19" spans="1:10" x14ac:dyDescent="0.7">
+      <c r="A19" s="83"/>
       <c r="B19" s="28" t="s">
         <v>4</v>
       </c>
       <c r="C19" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="D19" s="91">
+      <c r="D19" s="65">
         <v>2.6974338488937699E-3</v>
       </c>
-      <c r="E19" s="92">
+      <c r="E19" s="66">
         <v>2.6974338488937699E-3</v>
       </c>
-      <c r="F19" s="43">
-        <v>0</v>
-      </c>
-      <c r="G19" s="54">
+      <c r="F19" s="42">
+        <v>0</v>
+      </c>
+      <c r="G19" s="77">
         <f>SUM(F19:F23)</f>
         <v>1</v>
       </c>
       <c r="H19" s="6">
         <v>0</v>
       </c>
-      <c r="I19" s="54">
+      <c r="I19" s="77">
         <f>SUM(H19:H23)</f>
         <v>1</v>
       </c>
       <c r="J19" s="2"/>
     </row>
-    <row r="20" spans="1:10" x14ac:dyDescent="0.55000000000000004">
-      <c r="A20" s="53"/>
+    <row r="20" spans="1:10" x14ac:dyDescent="0.7">
+      <c r="A20" s="83"/>
       <c r="B20" s="29"/>
       <c r="C20" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="D20" s="93">
+      <c r="D20" s="67">
         <v>0.235100657037878</v>
       </c>
-      <c r="E20" s="94">
+      <c r="E20" s="68">
         <v>0.235100657037878</v>
       </c>
-      <c r="F20" s="44">
-        <v>0</v>
-      </c>
-      <c r="G20" s="55"/>
+      <c r="F20" s="43">
+        <v>0</v>
+      </c>
+      <c r="G20" s="78"/>
       <c r="H20" s="3">
         <v>0</v>
       </c>
-      <c r="I20" s="55"/>
+      <c r="I20" s="78"/>
       <c r="J20" s="2"/>
     </row>
-    <row r="21" spans="1:10" x14ac:dyDescent="0.55000000000000004">
-      <c r="A21" s="53"/>
+    <row r="21" spans="1:10" x14ac:dyDescent="0.7">
+      <c r="A21" s="83"/>
       <c r="B21" s="11"/>
       <c r="C21" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="D21" s="93">
+      <c r="D21" s="67">
         <v>0.155260048019108</v>
       </c>
-      <c r="E21" s="94">
+      <c r="E21" s="68">
         <v>0.155260048019108</v>
       </c>
-      <c r="F21" s="44">
+      <c r="F21" s="43">
         <v>0.1</v>
       </c>
-      <c r="G21" s="55"/>
+      <c r="G21" s="78"/>
       <c r="H21" s="3">
         <v>0.1</v>
       </c>
-      <c r="I21" s="55"/>
+      <c r="I21" s="78"/>
       <c r="J21" s="2"/>
     </row>
-    <row r="22" spans="1:10" x14ac:dyDescent="0.55000000000000004">
-      <c r="A22" s="53"/>
+    <row r="22" spans="1:10" x14ac:dyDescent="0.7">
+      <c r="A22" s="83"/>
       <c r="B22" s="11"/>
       <c r="C22" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="D22" s="93">
+      <c r="D22" s="67">
         <v>3.7576824330790903E-2</v>
       </c>
-      <c r="E22" s="94">
+      <c r="E22" s="68">
         <v>3.7576824330790903E-2</v>
       </c>
-      <c r="F22" s="44">
+      <c r="F22" s="43">
         <v>0.1</v>
       </c>
-      <c r="G22" s="55"/>
+      <c r="G22" s="78"/>
       <c r="H22" s="3">
         <v>0.1</v>
       </c>
-      <c r="I22" s="55"/>
+      <c r="I22" s="78"/>
       <c r="J22" s="2"/>
     </row>
-    <row r="23" spans="1:10" x14ac:dyDescent="0.55000000000000004">
-      <c r="A23" s="53"/>
+    <row r="23" spans="1:10" x14ac:dyDescent="0.7">
+      <c r="A23" s="83"/>
       <c r="B23" s="10"/>
       <c r="C23" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="D23" s="95">
+      <c r="D23" s="69">
         <v>0.56936503676332895</v>
       </c>
-      <c r="E23" s="96">
+      <c r="E23" s="70">
         <v>0.56936503676332895</v>
       </c>
-      <c r="F23" s="45">
+      <c r="F23" s="44">
         <v>0.8</v>
       </c>
-      <c r="G23" s="56"/>
+      <c r="G23" s="79"/>
       <c r="H23" s="7">
         <v>0.8</v>
       </c>
-      <c r="I23" s="56"/>
+      <c r="I23" s="79"/>
       <c r="J23" s="2"/>
     </row>
-    <row r="24" spans="1:10" x14ac:dyDescent="0.55000000000000004">
-      <c r="A24" s="53"/>
+    <row r="24" spans="1:10" x14ac:dyDescent="0.7">
+      <c r="A24" s="83"/>
       <c r="B24" s="28" t="s">
         <v>5</v>
       </c>
       <c r="C24" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="D24" s="91">
-        <v>0</v>
-      </c>
-      <c r="E24" s="92">
-        <v>0</v>
-      </c>
-      <c r="F24" s="43">
-        <v>0</v>
-      </c>
-      <c r="G24" s="54">
+      <c r="D24" s="65">
+        <v>0</v>
+      </c>
+      <c r="E24" s="66">
+        <v>0</v>
+      </c>
+      <c r="F24" s="42">
+        <v>0</v>
+      </c>
+      <c r="G24" s="77">
         <f>SUM(F24:F28)</f>
         <v>1</v>
       </c>
       <c r="H24" s="6">
         <v>0</v>
       </c>
-      <c r="I24" s="54">
+      <c r="I24" s="77">
         <f>SUM(H24:H28)</f>
         <v>1</v>
       </c>
       <c r="J24" s="2"/>
     </row>
-    <row r="25" spans="1:10" x14ac:dyDescent="0.55000000000000004">
-      <c r="A25" s="53"/>
+    <row r="25" spans="1:10" x14ac:dyDescent="0.7">
+      <c r="A25" s="83"/>
       <c r="B25" s="11"/>
       <c r="C25" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="D25" s="93">
+      <c r="D25" s="67">
         <v>0.267849508803155</v>
       </c>
-      <c r="E25" s="94">
+      <c r="E25" s="68">
         <v>0.267849508803155</v>
       </c>
-      <c r="F25" s="44">
-        <v>0</v>
-      </c>
-      <c r="G25" s="55"/>
+      <c r="F25" s="43">
+        <v>0</v>
+      </c>
+      <c r="G25" s="78"/>
       <c r="H25" s="3">
         <v>0</v>
       </c>
-      <c r="I25" s="55"/>
+      <c r="I25" s="78"/>
       <c r="J25" s="2"/>
     </row>
-    <row r="26" spans="1:10" x14ac:dyDescent="0.55000000000000004">
-      <c r="A26" s="53"/>
+    <row r="26" spans="1:10" x14ac:dyDescent="0.7">
+      <c r="A26" s="83"/>
       <c r="B26" s="11"/>
       <c r="C26" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="D26" s="93">
+      <c r="D26" s="67">
         <v>0.21261603762061798</v>
       </c>
-      <c r="E26" s="94">
+      <c r="E26" s="68">
         <v>0.21261603762061798</v>
       </c>
-      <c r="F26" s="44">
+      <c r="F26" s="43">
         <v>0.1</v>
       </c>
-      <c r="G26" s="55"/>
+      <c r="G26" s="78"/>
       <c r="H26" s="3">
         <v>0.1</v>
       </c>
-      <c r="I26" s="55"/>
+      <c r="I26" s="78"/>
       <c r="J26" s="2"/>
     </row>
-    <row r="27" spans="1:10" x14ac:dyDescent="0.55000000000000004">
-      <c r="A27" s="53"/>
+    <row r="27" spans="1:10" x14ac:dyDescent="0.7">
+      <c r="A27" s="83"/>
       <c r="B27" s="11"/>
       <c r="C27" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="D27" s="93">
+      <c r="D27" s="67">
         <v>1.8539845399500996E-4</v>
       </c>
-      <c r="E27" s="94">
+      <c r="E27" s="68">
         <v>1.8539845399500996E-4</v>
       </c>
-      <c r="F27" s="44">
+      <c r="F27" s="43">
         <v>0.1</v>
       </c>
-      <c r="G27" s="55"/>
+      <c r="G27" s="78"/>
       <c r="H27" s="3">
         <v>0.1</v>
       </c>
-      <c r="I27" s="55"/>
+      <c r="I27" s="78"/>
       <c r="J27" s="2"/>
     </row>
-    <row r="28" spans="1:10" x14ac:dyDescent="0.55000000000000004">
-      <c r="A28" s="53"/>
+    <row r="28" spans="1:10" x14ac:dyDescent="0.7">
+      <c r="A28" s="83"/>
       <c r="B28" s="10"/>
       <c r="C28" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="D28" s="95">
+      <c r="D28" s="69">
         <v>0.51934905512223195</v>
       </c>
-      <c r="E28" s="96">
+      <c r="E28" s="70">
         <v>0.51934905512223195</v>
       </c>
-      <c r="F28" s="45">
+      <c r="F28" s="44">
         <v>0.8</v>
       </c>
-      <c r="G28" s="56"/>
+      <c r="G28" s="79"/>
       <c r="H28" s="7">
         <v>0.8</v>
       </c>
-      <c r="I28" s="56"/>
+      <c r="I28" s="79"/>
       <c r="J28" s="2"/>
     </row>
-    <row r="29" spans="1:10" x14ac:dyDescent="0.55000000000000004">
-      <c r="A29" s="49" t="s">
+    <row r="29" spans="1:10" x14ac:dyDescent="0.7">
+      <c r="A29" s="71" t="s">
         <v>26</v>
       </c>
       <c r="B29" s="13"/>
       <c r="C29" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="D29" s="91">
+      <c r="D29" s="65">
         <v>0.31342698378940598</v>
       </c>
-      <c r="E29" s="92">
+      <c r="E29" s="66">
         <v>0.31342698378940598</v>
       </c>
-      <c r="F29" s="43">
-        <v>0</v>
-      </c>
-      <c r="G29" s="54">
+      <c r="F29" s="42">
+        <v>0</v>
+      </c>
+      <c r="G29" s="77">
         <f>SUM(F29:F41)</f>
         <v>1</v>
       </c>
       <c r="H29" s="6">
         <v>0</v>
       </c>
-      <c r="I29" s="54">
+      <c r="I29" s="77">
         <f>SUM(H29:H41)</f>
         <v>1</v>
       </c>
       <c r="J29" s="2"/>
     </row>
-    <row r="30" spans="1:10" x14ac:dyDescent="0.55000000000000004">
-      <c r="A30" s="50"/>
+    <row r="30" spans="1:10" x14ac:dyDescent="0.7">
+      <c r="A30" s="84"/>
       <c r="B30" s="11"/>
       <c r="C30" s="3" t="s">
         <v>76</v>
       </c>
-      <c r="D30" s="93">
-        <v>0</v>
-      </c>
-      <c r="E30" s="94">
-        <v>0</v>
-      </c>
-      <c r="F30" s="44">
-        <v>0</v>
-      </c>
-      <c r="G30" s="55"/>
+      <c r="D30" s="67">
+        <v>0</v>
+      </c>
+      <c r="E30" s="68">
+        <v>0</v>
+      </c>
+      <c r="F30" s="43">
+        <v>0</v>
+      </c>
+      <c r="G30" s="78"/>
       <c r="H30" s="3">
         <v>0</v>
       </c>
-      <c r="I30" s="55"/>
+      <c r="I30" s="78"/>
       <c r="J30" s="2"/>
     </row>
-    <row r="31" spans="1:10" x14ac:dyDescent="0.55000000000000004">
-      <c r="A31" s="50"/>
+    <row r="31" spans="1:10" x14ac:dyDescent="0.7">
+      <c r="A31" s="84"/>
       <c r="B31" s="11"/>
       <c r="C31" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="D31" s="93">
+      <c r="D31" s="67">
         <v>3.2137957866366203E-2</v>
       </c>
-      <c r="E31" s="94">
+      <c r="E31" s="68">
         <v>3.2137957866366203E-2</v>
       </c>
-      <c r="F31" s="44">
-        <v>0</v>
-      </c>
-      <c r="G31" s="55"/>
+      <c r="F31" s="43">
+        <v>0</v>
+      </c>
+      <c r="G31" s="78"/>
       <c r="H31" s="3">
         <v>0</v>
       </c>
-      <c r="I31" s="55"/>
+      <c r="I31" s="78"/>
       <c r="J31" s="2"/>
     </row>
-    <row r="32" spans="1:10" x14ac:dyDescent="0.55000000000000004">
-      <c r="A32" s="50"/>
+    <row r="32" spans="1:10" x14ac:dyDescent="0.7">
+      <c r="A32" s="84"/>
       <c r="B32" s="11"/>
       <c r="C32" s="3" t="s">
         <v>77</v>
       </c>
-      <c r="D32" s="93">
-        <v>0</v>
-      </c>
-      <c r="E32" s="94">
-        <v>0</v>
-      </c>
-      <c r="F32" s="44">
-        <v>0</v>
-      </c>
-      <c r="G32" s="55"/>
+      <c r="D32" s="67">
+        <v>0</v>
+      </c>
+      <c r="E32" s="68">
+        <v>0</v>
+      </c>
+      <c r="F32" s="43">
+        <v>0</v>
+      </c>
+      <c r="G32" s="78"/>
       <c r="H32" s="3">
         <v>0</v>
       </c>
-      <c r="I32" s="55"/>
+      <c r="I32" s="78"/>
       <c r="J32" s="2"/>
     </row>
-    <row r="33" spans="1:10" x14ac:dyDescent="0.55000000000000004">
-      <c r="A33" s="50"/>
+    <row r="33" spans="1:10" x14ac:dyDescent="0.7">
+      <c r="A33" s="84"/>
       <c r="B33" s="11"/>
       <c r="C33" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="D33" s="93">
+      <c r="D33" s="67">
         <v>0.39794119514700199</v>
       </c>
-      <c r="E33" s="94">
+      <c r="E33" s="68">
         <v>0.39794119514700199</v>
       </c>
-      <c r="F33" s="44">
-        <v>0</v>
-      </c>
-      <c r="G33" s="55"/>
+      <c r="F33" s="43">
+        <v>0</v>
+      </c>
+      <c r="G33" s="78"/>
       <c r="H33" s="3">
         <v>0</v>
       </c>
-      <c r="I33" s="55"/>
+      <c r="I33" s="78"/>
       <c r="J33" s="2"/>
     </row>
-    <row r="34" spans="1:10" x14ac:dyDescent="0.55000000000000004">
-      <c r="A34" s="50"/>
+    <row r="34" spans="1:10" x14ac:dyDescent="0.7">
+      <c r="A34" s="84"/>
       <c r="B34" s="11"/>
       <c r="C34" s="3" t="s">
         <v>78</v>
       </c>
-      <c r="D34" s="93">
-        <v>0</v>
-      </c>
-      <c r="E34" s="94">
-        <v>0</v>
-      </c>
-      <c r="F34" s="44">
+      <c r="D34" s="67">
+        <v>0</v>
+      </c>
+      <c r="E34" s="68">
+        <v>0</v>
+      </c>
+      <c r="F34" s="43">
         <v>0.05</v>
       </c>
-      <c r="G34" s="55"/>
+      <c r="G34" s="78"/>
       <c r="H34" s="3">
         <v>0.05</v>
       </c>
-      <c r="I34" s="55"/>
+      <c r="I34" s="78"/>
       <c r="J34" s="2"/>
     </row>
-    <row r="35" spans="1:10" x14ac:dyDescent="0.55000000000000004">
-      <c r="A35" s="50"/>
+    <row r="35" spans="1:10" x14ac:dyDescent="0.7">
+      <c r="A35" s="84"/>
       <c r="B35" s="11"/>
       <c r="C35" s="3" t="s">
         <v>79</v>
       </c>
-      <c r="D35" s="93">
+      <c r="D35" s="67">
         <v>3.9059436827267403E-2</v>
       </c>
-      <c r="E35" s="94">
+      <c r="E35" s="68">
         <v>3.9059436827267403E-2</v>
       </c>
-      <c r="F35" s="44">
-        <v>0</v>
-      </c>
-      <c r="G35" s="55"/>
+      <c r="F35" s="43">
+        <v>0</v>
+      </c>
+      <c r="G35" s="78"/>
       <c r="H35" s="3">
         <v>0</v>
       </c>
-      <c r="I35" s="55"/>
+      <c r="I35" s="78"/>
       <c r="J35" s="2"/>
     </row>
-    <row r="36" spans="1:10" x14ac:dyDescent="0.55000000000000004">
-      <c r="A36" s="50"/>
+    <row r="36" spans="1:10" x14ac:dyDescent="0.7">
+      <c r="A36" s="84"/>
       <c r="B36" s="11"/>
       <c r="C36" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="D36" s="93">
+      <c r="D36" s="67">
         <v>4.6230883282315102E-2</v>
       </c>
-      <c r="E36" s="94">
+      <c r="E36" s="68">
         <v>4.6230883282315102E-2</v>
       </c>
-      <c r="F36" s="44">
-        <v>0</v>
-      </c>
-      <c r="G36" s="55"/>
+      <c r="F36" s="43">
+        <v>0</v>
+      </c>
+      <c r="G36" s="78"/>
       <c r="H36" s="3">
         <v>0</v>
       </c>
-      <c r="I36" s="55"/>
+      <c r="I36" s="78"/>
       <c r="J36" s="2"/>
     </row>
-    <row r="37" spans="1:10" x14ac:dyDescent="0.55000000000000004">
-      <c r="A37" s="50"/>
+    <row r="37" spans="1:10" x14ac:dyDescent="0.7">
+      <c r="A37" s="84"/>
       <c r="B37" s="11"/>
       <c r="C37" s="3" t="s">
         <v>80</v>
       </c>
-      <c r="D37" s="93">
-        <v>0</v>
-      </c>
-      <c r="E37" s="94">
-        <v>0</v>
-      </c>
-      <c r="F37" s="44">
+      <c r="D37" s="67">
+        <v>0</v>
+      </c>
+      <c r="E37" s="68">
+        <v>0</v>
+      </c>
+      <c r="F37" s="43">
         <v>0.45</v>
       </c>
-      <c r="G37" s="55"/>
+      <c r="G37" s="78"/>
       <c r="H37" s="3">
         <v>0.1</v>
       </c>
-      <c r="I37" s="55"/>
+      <c r="I37" s="78"/>
       <c r="J37" s="2"/>
     </row>
-    <row r="38" spans="1:10" x14ac:dyDescent="0.55000000000000004">
-      <c r="A38" s="50"/>
+    <row r="38" spans="1:10" x14ac:dyDescent="0.7">
+      <c r="A38" s="84"/>
       <c r="B38" s="11"/>
       <c r="C38" s="3" t="s">
         <v>81</v>
       </c>
-      <c r="D38" s="93">
+      <c r="D38" s="67">
         <v>7.9432210932247699E-2</v>
       </c>
-      <c r="E38" s="94">
+      <c r="E38" s="68">
         <v>7.9432210932247699E-2</v>
       </c>
-      <c r="F38" s="44">
+      <c r="F38" s="43">
         <v>2.5000000000000001E-2</v>
       </c>
-      <c r="G38" s="55"/>
+      <c r="G38" s="78"/>
       <c r="H38" s="3">
         <v>2.5000000000000001E-2</v>
       </c>
-      <c r="I38" s="55"/>
+      <c r="I38" s="78"/>
       <c r="J38" s="2"/>
     </row>
-    <row r="39" spans="1:10" x14ac:dyDescent="0.55000000000000004">
-      <c r="A39" s="50"/>
+    <row r="39" spans="1:10" x14ac:dyDescent="0.7">
+      <c r="A39" s="84"/>
       <c r="B39" s="11"/>
       <c r="C39" s="3" t="s">
         <v>82</v>
       </c>
-      <c r="D39" s="93">
+      <c r="D39" s="67">
         <v>3.01573686486334E-3</v>
       </c>
-      <c r="E39" s="94">
+      <c r="E39" s="68">
         <v>3.01573686486334E-3</v>
       </c>
-      <c r="F39" s="44">
+      <c r="F39" s="43">
         <v>2.5000000000000001E-2</v>
       </c>
-      <c r="G39" s="55"/>
+      <c r="G39" s="78"/>
       <c r="H39" s="3">
         <v>2.5000000000000001E-2</v>
       </c>
-      <c r="I39" s="55"/>
+      <c r="I39" s="78"/>
       <c r="J39" s="2"/>
     </row>
-    <row r="40" spans="1:10" x14ac:dyDescent="0.55000000000000004">
-      <c r="A40" s="50"/>
+    <row r="40" spans="1:10" x14ac:dyDescent="0.7">
+      <c r="A40" s="84"/>
       <c r="B40" s="11"/>
       <c r="C40" s="3" t="s">
         <v>83</v>
       </c>
-      <c r="D40" s="93">
+      <c r="D40" s="67">
         <v>9.0411629939251906E-3</v>
       </c>
-      <c r="E40" s="94">
+      <c r="E40" s="68">
         <v>9.0411629939251906E-3</v>
       </c>
-      <c r="F40" s="44">
+      <c r="F40" s="43">
         <v>0.2</v>
       </c>
-      <c r="G40" s="55"/>
+      <c r="G40" s="78"/>
       <c r="H40" s="3">
         <v>0.4</v>
       </c>
-      <c r="I40" s="55"/>
+      <c r="I40" s="78"/>
       <c r="J40" s="2"/>
     </row>
-    <row r="41" spans="1:10" x14ac:dyDescent="0.55000000000000004">
-      <c r="A41" s="51"/>
+    <row r="41" spans="1:10" x14ac:dyDescent="0.7">
+      <c r="A41" s="85"/>
       <c r="B41" s="10"/>
       <c r="C41" s="7" t="s">
         <v>84</v>
       </c>
-      <c r="D41" s="95">
+      <c r="D41" s="69">
         <v>7.9714432296606602E-2</v>
       </c>
-      <c r="E41" s="96">
+      <c r="E41" s="70">
         <v>7.9714432296606602E-2</v>
       </c>
-      <c r="F41" s="45">
+      <c r="F41" s="44">
         <v>0.25</v>
       </c>
-      <c r="G41" s="56"/>
+      <c r="G41" s="79"/>
       <c r="H41" s="7">
         <v>0.4</v>
       </c>
-      <c r="I41" s="56"/>
+      <c r="I41" s="79"/>
       <c r="J41" s="2"/>
     </row>
-    <row r="43" spans="1:10" x14ac:dyDescent="0.55000000000000004">
-      <c r="E43" s="66"/>
-      <c r="F43" s="66"/>
-      <c r="G43" s="66"/>
-    </row>
-    <row r="44" spans="1:10" x14ac:dyDescent="0.55000000000000004">
-      <c r="E44" s="66"/>
-      <c r="F44" s="66"/>
-      <c r="G44" s="66"/>
-    </row>
-    <row r="45" spans="1:10" x14ac:dyDescent="0.55000000000000004">
-      <c r="E45" s="66"/>
-      <c r="F45" s="66"/>
-      <c r="G45" s="66"/>
-    </row>
-    <row r="46" spans="1:10" x14ac:dyDescent="0.55000000000000004">
-      <c r="E46" s="66"/>
-      <c r="F46" s="66"/>
-      <c r="G46" s="66"/>
-    </row>
-    <row r="47" spans="1:10" x14ac:dyDescent="0.55000000000000004">
-      <c r="E47" s="66"/>
-      <c r="F47" s="67"/>
-      <c r="G47" s="66"/>
-    </row>
-    <row r="48" spans="1:10" x14ac:dyDescent="0.55000000000000004">
-      <c r="E48" s="66"/>
-      <c r="F48" s="67"/>
-      <c r="G48" s="66"/>
-    </row>
-    <row r="49" spans="5:7" x14ac:dyDescent="0.55000000000000004">
-      <c r="E49" s="66"/>
-      <c r="F49" s="67"/>
-      <c r="G49" s="66"/>
-    </row>
-    <row r="50" spans="5:7" x14ac:dyDescent="0.55000000000000004">
-      <c r="E50" s="66"/>
-      <c r="F50" s="67"/>
-      <c r="G50" s="66"/>
-    </row>
-    <row r="51" spans="5:7" x14ac:dyDescent="0.55000000000000004">
-      <c r="E51" s="66"/>
-      <c r="F51" s="67"/>
-      <c r="G51" s="66"/>
-    </row>
-    <row r="52" spans="5:7" x14ac:dyDescent="0.55000000000000004">
-      <c r="E52" s="66"/>
-      <c r="F52" s="67"/>
-      <c r="G52" s="66"/>
-    </row>
-    <row r="53" spans="5:7" x14ac:dyDescent="0.55000000000000004">
-      <c r="E53" s="66"/>
-      <c r="F53" s="67"/>
-      <c r="G53" s="66"/>
-    </row>
-    <row r="54" spans="5:7" x14ac:dyDescent="0.55000000000000004">
-      <c r="E54" s="66"/>
-      <c r="F54" s="67"/>
-      <c r="G54" s="66"/>
-    </row>
-    <row r="55" spans="5:7" x14ac:dyDescent="0.55000000000000004">
-      <c r="E55" s="66"/>
-      <c r="F55" s="67"/>
-      <c r="G55" s="66"/>
-    </row>
-    <row r="56" spans="5:7" x14ac:dyDescent="0.55000000000000004">
-      <c r="E56" s="66"/>
-      <c r="F56" s="67"/>
-      <c r="G56" s="66"/>
-    </row>
-    <row r="57" spans="5:7" x14ac:dyDescent="0.55000000000000004">
-      <c r="E57" s="66"/>
-      <c r="F57" s="67"/>
-      <c r="G57" s="66"/>
-    </row>
-    <row r="58" spans="5:7" x14ac:dyDescent="0.55000000000000004">
-      <c r="E58" s="66"/>
-      <c r="F58" s="67"/>
-      <c r="G58" s="66"/>
-    </row>
-    <row r="59" spans="5:7" x14ac:dyDescent="0.55000000000000004">
-      <c r="E59" s="66"/>
-      <c r="F59" s="67"/>
-      <c r="G59" s="66"/>
-    </row>
-    <row r="60" spans="5:7" x14ac:dyDescent="0.55000000000000004">
-      <c r="E60" s="66"/>
-      <c r="F60" s="67"/>
-      <c r="G60" s="66"/>
-    </row>
-    <row r="61" spans="5:7" x14ac:dyDescent="0.55000000000000004">
-      <c r="E61" s="66"/>
-      <c r="F61" s="67"/>
-      <c r="G61" s="66"/>
-    </row>
-    <row r="62" spans="5:7" x14ac:dyDescent="0.55000000000000004">
-      <c r="E62" s="66"/>
-      <c r="F62" s="67"/>
-      <c r="G62" s="66"/>
-    </row>
-    <row r="63" spans="5:7" x14ac:dyDescent="0.55000000000000004">
-      <c r="E63" s="66"/>
-      <c r="F63" s="67"/>
-      <c r="G63" s="66"/>
-    </row>
-    <row r="64" spans="5:7" x14ac:dyDescent="0.55000000000000004">
-      <c r="E64" s="66"/>
-      <c r="F64" s="67"/>
-      <c r="G64" s="66"/>
-    </row>
-    <row r="65" spans="5:7" x14ac:dyDescent="0.55000000000000004">
-      <c r="E65" s="66"/>
-      <c r="F65" s="67"/>
-      <c r="G65" s="66"/>
-    </row>
-    <row r="66" spans="5:7" x14ac:dyDescent="0.55000000000000004">
-      <c r="E66" s="66"/>
-      <c r="F66" s="67"/>
-      <c r="G66" s="66"/>
-    </row>
-    <row r="67" spans="5:7" x14ac:dyDescent="0.55000000000000004">
-      <c r="E67" s="66"/>
-      <c r="F67" s="67"/>
-      <c r="G67" s="66"/>
-    </row>
-    <row r="68" spans="5:7" x14ac:dyDescent="0.55000000000000004">
-      <c r="E68" s="66"/>
-      <c r="F68" s="67"/>
-      <c r="G68" s="66"/>
-    </row>
-    <row r="69" spans="5:7" x14ac:dyDescent="0.55000000000000004">
-      <c r="E69" s="66"/>
-      <c r="F69" s="67"/>
-      <c r="G69" s="66"/>
-    </row>
-    <row r="70" spans="5:7" x14ac:dyDescent="0.55000000000000004">
-      <c r="E70" s="66"/>
-      <c r="F70" s="67"/>
-      <c r="G70" s="66"/>
-    </row>
-    <row r="71" spans="5:7" x14ac:dyDescent="0.55000000000000004">
-      <c r="E71" s="66"/>
-      <c r="F71" s="67"/>
-      <c r="G71" s="66"/>
-    </row>
-    <row r="72" spans="5:7" x14ac:dyDescent="0.55000000000000004">
-      <c r="E72" s="66"/>
-      <c r="F72" s="67"/>
-      <c r="G72" s="66"/>
-    </row>
-    <row r="73" spans="5:7" x14ac:dyDescent="0.55000000000000004">
-      <c r="E73" s="66"/>
-      <c r="F73" s="67"/>
-      <c r="G73" s="66"/>
-    </row>
-    <row r="74" spans="5:7" x14ac:dyDescent="0.55000000000000004">
-      <c r="E74" s="66"/>
-      <c r="F74" s="67"/>
-      <c r="G74" s="66"/>
-    </row>
-    <row r="75" spans="5:7" x14ac:dyDescent="0.55000000000000004">
-      <c r="E75" s="66"/>
-      <c r="F75" s="67"/>
-      <c r="G75" s="66"/>
-    </row>
-    <row r="76" spans="5:7" x14ac:dyDescent="0.55000000000000004">
-      <c r="E76" s="66"/>
-      <c r="F76" s="67"/>
-      <c r="G76" s="66"/>
-    </row>
-    <row r="77" spans="5:7" x14ac:dyDescent="0.55000000000000004">
-      <c r="E77" s="66"/>
-      <c r="F77" s="67"/>
-      <c r="G77" s="66"/>
-    </row>
-    <row r="78" spans="5:7" x14ac:dyDescent="0.55000000000000004">
-      <c r="E78" s="66"/>
-      <c r="F78" s="67"/>
-      <c r="G78" s="66"/>
-    </row>
-    <row r="79" spans="5:7" x14ac:dyDescent="0.55000000000000004">
-      <c r="E79" s="66"/>
-      <c r="F79" s="67"/>
-      <c r="G79" s="66"/>
-    </row>
-    <row r="80" spans="5:7" x14ac:dyDescent="0.55000000000000004">
-      <c r="E80" s="66"/>
-      <c r="F80" s="67"/>
-      <c r="G80" s="66"/>
-    </row>
-    <row r="81" spans="5:7" x14ac:dyDescent="0.55000000000000004">
-      <c r="E81" s="66"/>
-      <c r="F81" s="66"/>
-      <c r="G81" s="66"/>
-    </row>
-    <row r="82" spans="5:7" x14ac:dyDescent="0.55000000000000004">
-      <c r="F82" s="66"/>
+    <row r="47" spans="1:10" x14ac:dyDescent="0.7">
+      <c r="F47" s="1"/>
+    </row>
+    <row r="48" spans="1:10" x14ac:dyDescent="0.7">
+      <c r="F48" s="1"/>
+    </row>
+    <row r="49" spans="6:6" x14ac:dyDescent="0.7">
+      <c r="F49" s="1"/>
+    </row>
+    <row r="50" spans="6:6" x14ac:dyDescent="0.7">
+      <c r="F50" s="1"/>
+    </row>
+    <row r="51" spans="6:6" x14ac:dyDescent="0.7">
+      <c r="F51" s="1"/>
+    </row>
+    <row r="52" spans="6:6" x14ac:dyDescent="0.7">
+      <c r="F52" s="1"/>
+    </row>
+    <row r="53" spans="6:6" x14ac:dyDescent="0.7">
+      <c r="F53" s="1"/>
+    </row>
+    <row r="54" spans="6:6" x14ac:dyDescent="0.7">
+      <c r="F54" s="1"/>
+    </row>
+    <row r="55" spans="6:6" x14ac:dyDescent="0.7">
+      <c r="F55" s="1"/>
+    </row>
+    <row r="56" spans="6:6" x14ac:dyDescent="0.7">
+      <c r="F56" s="1"/>
+    </row>
+    <row r="57" spans="6:6" x14ac:dyDescent="0.7">
+      <c r="F57" s="1"/>
+    </row>
+    <row r="58" spans="6:6" x14ac:dyDescent="0.7">
+      <c r="F58" s="1"/>
+    </row>
+    <row r="59" spans="6:6" x14ac:dyDescent="0.7">
+      <c r="F59" s="1"/>
+    </row>
+    <row r="60" spans="6:6" x14ac:dyDescent="0.7">
+      <c r="F60" s="1"/>
+    </row>
+    <row r="61" spans="6:6" x14ac:dyDescent="0.7">
+      <c r="F61" s="1"/>
+    </row>
+    <row r="62" spans="6:6" x14ac:dyDescent="0.7">
+      <c r="F62" s="1"/>
+    </row>
+    <row r="63" spans="6:6" x14ac:dyDescent="0.7">
+      <c r="F63" s="1"/>
+    </row>
+    <row r="64" spans="6:6" x14ac:dyDescent="0.7">
+      <c r="F64" s="1"/>
+    </row>
+    <row r="65" spans="6:6" x14ac:dyDescent="0.7">
+      <c r="F65" s="1"/>
+    </row>
+    <row r="66" spans="6:6" x14ac:dyDescent="0.7">
+      <c r="F66" s="1"/>
+    </row>
+    <row r="67" spans="6:6" x14ac:dyDescent="0.7">
+      <c r="F67" s="1"/>
+    </row>
+    <row r="68" spans="6:6" x14ac:dyDescent="0.7">
+      <c r="F68" s="1"/>
+    </row>
+    <row r="69" spans="6:6" x14ac:dyDescent="0.7">
+      <c r="F69" s="1"/>
+    </row>
+    <row r="70" spans="6:6" x14ac:dyDescent="0.7">
+      <c r="F70" s="1"/>
+    </row>
+    <row r="71" spans="6:6" x14ac:dyDescent="0.7">
+      <c r="F71" s="1"/>
+    </row>
+    <row r="72" spans="6:6" x14ac:dyDescent="0.7">
+      <c r="F72" s="1"/>
+    </row>
+    <row r="73" spans="6:6" x14ac:dyDescent="0.7">
+      <c r="F73" s="1"/>
+    </row>
+    <row r="74" spans="6:6" x14ac:dyDescent="0.7">
+      <c r="F74" s="1"/>
+    </row>
+    <row r="75" spans="6:6" x14ac:dyDescent="0.7">
+      <c r="F75" s="1"/>
+    </row>
+    <row r="76" spans="6:6" x14ac:dyDescent="0.7">
+      <c r="F76" s="1"/>
+    </row>
+    <row r="77" spans="6:6" x14ac:dyDescent="0.7">
+      <c r="F77" s="1"/>
+    </row>
+    <row r="78" spans="6:6" x14ac:dyDescent="0.7">
+      <c r="F78" s="1"/>
+    </row>
+    <row r="79" spans="6:6" x14ac:dyDescent="0.7">
+      <c r="F79" s="1"/>
+    </row>
+    <row r="80" spans="6:6" x14ac:dyDescent="0.7">
+      <c r="F80" s="1"/>
     </row>
   </sheetData>
   <mergeCells count="19">
-    <mergeCell ref="F1:G1"/>
-    <mergeCell ref="F2:G2"/>
-    <mergeCell ref="H1:I1"/>
-    <mergeCell ref="H2:I2"/>
-    <mergeCell ref="A4:C4"/>
-    <mergeCell ref="A3:C3"/>
-    <mergeCell ref="I9:I13"/>
-    <mergeCell ref="I14:I18"/>
-    <mergeCell ref="I19:I23"/>
-    <mergeCell ref="I24:I28"/>
-    <mergeCell ref="I29:I41"/>
     <mergeCell ref="A5:A8"/>
     <mergeCell ref="A9:A28"/>
     <mergeCell ref="A29:A41"/>
@@ -12362,6 +12639,17 @@
     <mergeCell ref="G19:G23"/>
     <mergeCell ref="G24:G28"/>
     <mergeCell ref="G29:G41"/>
+    <mergeCell ref="I9:I13"/>
+    <mergeCell ref="I14:I18"/>
+    <mergeCell ref="I19:I23"/>
+    <mergeCell ref="I24:I28"/>
+    <mergeCell ref="I29:I41"/>
+    <mergeCell ref="F1:G1"/>
+    <mergeCell ref="F2:G2"/>
+    <mergeCell ref="H1:I1"/>
+    <mergeCell ref="H2:I2"/>
+    <mergeCell ref="A4:C4"/>
+    <mergeCell ref="A3:C3"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -12377,21 +12665,21 @@
       <selection activeCell="C42" sqref="C42"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10" defaultRowHeight="18" x14ac:dyDescent="0.55000000000000004"/>
+  <sheetFormatPr defaultColWidth="10" defaultRowHeight="17.649999999999999" x14ac:dyDescent="0.7"/>
   <cols>
     <col min="1" max="1" width="10" style="16"/>
-    <col min="2" max="2" width="16.83203125" style="16" customWidth="1"/>
+    <col min="2" max="2" width="16.8125" style="16" customWidth="1"/>
     <col min="3" max="3" width="17" style="16" customWidth="1"/>
-    <col min="4" max="4" width="16.08203125" style="16" customWidth="1"/>
-    <col min="5" max="5" width="15.33203125" style="16" customWidth="1"/>
-    <col min="6" max="6" width="18.58203125" style="16" customWidth="1"/>
-    <col min="7" max="7" width="18.83203125" style="16" customWidth="1"/>
-    <col min="8" max="8" width="13.33203125" style="18" customWidth="1"/>
+    <col min="4" max="4" width="16.0625" style="16" customWidth="1"/>
+    <col min="5" max="5" width="15.3125" style="16" customWidth="1"/>
+    <col min="6" max="6" width="18.5625" style="16" customWidth="1"/>
+    <col min="7" max="7" width="18.8125" style="16" customWidth="1"/>
+    <col min="8" max="8" width="13.3125" style="18" customWidth="1"/>
     <col min="9" max="9" width="14" style="18" customWidth="1"/>
     <col min="10" max="16384" width="10" style="16"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" s="19" customFormat="1" ht="54" x14ac:dyDescent="0.55000000000000004">
+    <row r="1" spans="1:9" s="19" customFormat="1" ht="52.9" x14ac:dyDescent="0.7">
       <c r="A1" s="19" t="s">
         <v>29</v>
       </c>
@@ -12420,7 +12708,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.7">
       <c r="A2" s="16">
         <v>2010</v>
       </c>
@@ -12449,7 +12737,7 @@
         <v>16.3401519996122</v>
       </c>
     </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="3" spans="1:9" x14ac:dyDescent="0.7">
       <c r="A3" s="16">
         <v>2011</v>
       </c>
@@ -12478,7 +12766,7 @@
         <v>15.7177648858708</v>
       </c>
     </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="4" spans="1:9" x14ac:dyDescent="0.7">
       <c r="A4" s="16">
         <v>2012</v>
       </c>
@@ -12507,7 +12795,7 @@
         <v>15.8924660448982</v>
       </c>
     </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="5" spans="1:9" x14ac:dyDescent="0.7">
       <c r="A5" s="16">
         <v>2013</v>
       </c>
@@ -12536,7 +12824,7 @@
         <v>15.489876394344099</v>
       </c>
     </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="6" spans="1:9" x14ac:dyDescent="0.7">
       <c r="A6" s="16">
         <v>2014</v>
       </c>
@@ -12565,7 +12853,7 @@
         <v>14.8733928932292</v>
       </c>
     </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="7" spans="1:9" x14ac:dyDescent="0.7">
       <c r="A7" s="16">
         <v>2015</v>
       </c>
@@ -12594,7 +12882,7 @@
         <v>14.4876777795296</v>
       </c>
     </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="8" spans="1:9" x14ac:dyDescent="0.7">
       <c r="A8" s="16">
         <v>2016</v>
       </c>
@@ -12623,7 +12911,7 @@
         <v>14.5307612958216</v>
       </c>
     </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="9" spans="1:9" x14ac:dyDescent="0.7">
       <c r="A9" s="16">
         <v>2017</v>
       </c>
@@ -12652,7 +12940,7 @@
         <v>15.166789716565599</v>
       </c>
     </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="10" spans="1:9" x14ac:dyDescent="0.7">
       <c r="A10" s="16">
         <v>2018</v>
       </c>
@@ -12681,7 +12969,7 @@
         <v>14.0185452434716</v>
       </c>
     </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="11" spans="1:9" x14ac:dyDescent="0.7">
       <c r="A11" s="16">
         <v>2019</v>
       </c>
@@ -12710,7 +12998,7 @@
         <v>13.920608715937799</v>
       </c>
     </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="12" spans="1:9" x14ac:dyDescent="0.7">
       <c r="A12" s="16">
         <v>2020</v>
       </c>
@@ -12739,7 +13027,7 @@
         <v>14.612648421143</v>
       </c>
     </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="13" spans="1:9" x14ac:dyDescent="0.7">
       <c r="A13" s="16">
         <v>2021</v>
       </c>
@@ -12776,7 +13064,7 @@
         <v>14.466521936931599</v>
       </c>
     </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="14" spans="1:9" x14ac:dyDescent="0.7">
       <c r="A14" s="16">
         <v>2022</v>
       </c>
@@ -12813,7 +13101,7 @@
         <v>14.320395452720199</v>
       </c>
     </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="15" spans="1:9" x14ac:dyDescent="0.7">
       <c r="A15" s="16">
         <v>2023</v>
       </c>
@@ -12850,7 +13138,7 @@
         <v>14.174268968508745</v>
       </c>
     </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="16" spans="1:9" x14ac:dyDescent="0.7">
       <c r="A16" s="16">
         <v>2024</v>
       </c>
@@ -12887,7 +13175,7 @@
         <v>14.028142484297293</v>
       </c>
     </row>
-    <row r="17" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="17" spans="1:9" x14ac:dyDescent="0.7">
       <c r="A17" s="16">
         <v>2025</v>
       </c>
@@ -12924,7 +13212,7 @@
         <v>13.882016000085891</v>
       </c>
     </row>
-    <row r="18" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="18" spans="1:9" x14ac:dyDescent="0.7">
       <c r="A18" s="16">
         <v>2026</v>
       </c>
@@ -12961,7 +13249,7 @@
         <v>13.735889515874439</v>
       </c>
     </row>
-    <row r="19" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="19" spans="1:9" x14ac:dyDescent="0.7">
       <c r="A19" s="16">
         <v>2027</v>
       </c>
@@ -12998,7 +13286,7 @@
         <v>13.589763031663038</v>
       </c>
     </row>
-    <row r="20" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="20" spans="1:9" x14ac:dyDescent="0.7">
       <c r="A20" s="16">
         <v>2028</v>
       </c>
@@ -13035,7 +13323,7 @@
         <v>13.443636547451584</v>
       </c>
     </row>
-    <row r="21" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="21" spans="1:9" x14ac:dyDescent="0.7">
       <c r="A21" s="16">
         <v>2029</v>
       </c>
@@ -13072,7 +13360,7 @@
         <v>13.297510063240184</v>
       </c>
     </row>
-    <row r="22" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="22" spans="1:9" x14ac:dyDescent="0.7">
       <c r="A22" s="16">
         <v>2030</v>
       </c>
@@ -13109,7 +13397,7 @@
         <v>13.151383579028732</v>
       </c>
     </row>
-    <row r="23" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="23" spans="1:9" x14ac:dyDescent="0.7">
       <c r="A23" s="16">
         <v>2031</v>
       </c>
@@ -13146,7 +13434,7 @@
         <v>13.005257094817329</v>
       </c>
     </row>
-    <row r="24" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="24" spans="1:9" x14ac:dyDescent="0.7">
       <c r="A24" s="16">
         <v>2032</v>
       </c>
@@ -13183,7 +13471,7 @@
         <v>12.859130610605877</v>
       </c>
     </row>
-    <row r="25" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="25" spans="1:9" x14ac:dyDescent="0.7">
       <c r="A25" s="16">
         <v>2033</v>
       </c>
@@ -13220,7 +13508,7 @@
         <v>12.713004126394424</v>
       </c>
     </row>
-    <row r="26" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="26" spans="1:9" x14ac:dyDescent="0.7">
       <c r="A26" s="16">
         <v>2034</v>
       </c>
@@ -13257,7 +13545,7 @@
         <v>12.566877642183023</v>
       </c>
     </row>
-    <row r="27" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="27" spans="1:9" x14ac:dyDescent="0.7">
       <c r="A27" s="16">
         <v>2035</v>
       </c>
@@ -13294,7 +13582,7 @@
         <v>12.420751157971571</v>
       </c>
     </row>
-    <row r="28" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="28" spans="1:9" x14ac:dyDescent="0.7">
       <c r="A28" s="16">
         <v>2036</v>
       </c>
@@ -13331,7 +13619,7 @@
         <v>12.274624673760169</v>
       </c>
     </row>
-    <row r="29" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="29" spans="1:9" x14ac:dyDescent="0.7">
       <c r="A29" s="16">
         <v>2037</v>
       </c>
@@ -13368,7 +13656,7 @@
         <v>12.128498189548717</v>
       </c>
     </row>
-    <row r="30" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="30" spans="1:9" x14ac:dyDescent="0.7">
       <c r="A30" s="16">
         <v>2038</v>
       </c>
@@ -13405,7 +13693,7 @@
         <v>11.982371705337316</v>
       </c>
     </row>
-    <row r="31" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="31" spans="1:9" x14ac:dyDescent="0.7">
       <c r="A31" s="16">
         <v>2039</v>
       </c>
@@ -13442,7 +13730,7 @@
         <v>11.836245221125862</v>
       </c>
     </row>
-    <row r="32" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="32" spans="1:9" x14ac:dyDescent="0.7">
       <c r="A32" s="16">
         <v>2040</v>
       </c>
@@ -13479,7 +13767,7 @@
         <v>11.69011873691441</v>
       </c>
     </row>
-    <row r="33" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="33" spans="1:9" x14ac:dyDescent="0.7">
       <c r="A33" s="16">
         <v>2041</v>
       </c>
@@ -13516,7 +13804,7 @@
         <v>11.54399225270301</v>
       </c>
     </row>
-    <row r="34" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="34" spans="1:9" x14ac:dyDescent="0.7">
       <c r="A34" s="16">
         <v>2042</v>
       </c>
@@ -13553,7 +13841,7 @@
         <v>11.397865768491556</v>
       </c>
     </row>
-    <row r="35" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="35" spans="1:9" x14ac:dyDescent="0.7">
       <c r="A35" s="16">
         <v>2043</v>
       </c>
@@ -13590,7 +13878,7 @@
         <v>11.251739284280156</v>
       </c>
     </row>
-    <row r="36" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="36" spans="1:9" x14ac:dyDescent="0.7">
       <c r="A36" s="16">
         <v>2044</v>
       </c>
@@ -13627,7 +13915,7 @@
         <v>11.105612800068702</v>
       </c>
     </row>
-    <row r="37" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="37" spans="1:9" x14ac:dyDescent="0.7">
       <c r="A37" s="16">
         <v>2045</v>
       </c>
@@ -13664,7 +13952,7 @@
         <v>10.959486315857301</v>
       </c>
     </row>
-    <row r="38" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="38" spans="1:9" x14ac:dyDescent="0.7">
       <c r="A38" s="16">
         <v>2046</v>
       </c>
@@ -13701,7 +13989,7 @@
         <v>10.813359831645849</v>
       </c>
     </row>
-    <row r="39" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="39" spans="1:9" x14ac:dyDescent="0.7">
       <c r="A39" s="16">
         <v>2047</v>
       </c>
@@ -13738,7 +14026,7 @@
         <v>10.667233347434449</v>
       </c>
     </row>
-    <row r="40" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="40" spans="1:9" x14ac:dyDescent="0.7">
       <c r="A40" s="16">
         <v>2048</v>
       </c>
@@ -13775,7 +14063,7 @@
         <v>10.521106863222995</v>
       </c>
     </row>
-    <row r="41" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="41" spans="1:9" x14ac:dyDescent="0.7">
       <c r="A41" s="16">
         <v>2049</v>
       </c>
@@ -13812,7 +14100,7 @@
         <v>10.374980379011543</v>
       </c>
     </row>
-    <row r="42" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="42" spans="1:9" x14ac:dyDescent="0.7">
       <c r="A42" s="16">
         <v>2050</v>
       </c>
@@ -13849,7 +14137,7 @@
         <v>10.228853894800141</v>
       </c>
     </row>
-    <row r="44" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="44" spans="1:9" x14ac:dyDescent="0.7">
       <c r="A44" s="16">
         <v>2020</v>
       </c>
@@ -13878,7 +14166,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="45" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="45" spans="1:9" x14ac:dyDescent="0.7">
       <c r="A45" s="16">
         <v>2050</v>
       </c>
@@ -13930,19 +14218,19 @@
       <selection activeCell="D2" sqref="D2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.55000000000000004"/>
+  <sheetFormatPr defaultRowHeight="17.649999999999999" x14ac:dyDescent="0.7"/>
   <cols>
     <col min="2" max="3" width="13" customWidth="1"/>
-    <col min="4" max="4" width="12.33203125" customWidth="1"/>
-    <col min="5" max="5" width="11.33203125" customWidth="1"/>
+    <col min="4" max="4" width="12.3125" customWidth="1"/>
+    <col min="5" max="5" width="11.3125" customWidth="1"/>
     <col min="6" max="6" width="11.5" customWidth="1"/>
-    <col min="7" max="7" width="10.58203125" customWidth="1"/>
-    <col min="8" max="8" width="11.58203125" customWidth="1"/>
-    <col min="9" max="9" width="10.58203125" customWidth="1"/>
-    <col min="10" max="11" width="12.33203125" customWidth="1"/>
+    <col min="7" max="7" width="10.5625" customWidth="1"/>
+    <col min="8" max="8" width="11.5625" customWidth="1"/>
+    <col min="9" max="9" width="10.5625" customWidth="1"/>
+    <col min="10" max="11" width="12.3125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" s="21" customFormat="1" ht="36" x14ac:dyDescent="0.55000000000000004">
+    <row r="1" spans="1:11" s="21" customFormat="1" ht="35.25" x14ac:dyDescent="0.7">
       <c r="A1" s="19" t="s">
         <v>29</v>
       </c>
@@ -13977,7 +14265,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.55000000000000004">
+    <row r="2" spans="1:11" x14ac:dyDescent="0.7">
       <c r="A2" s="16">
         <v>2010</v>
       </c>
@@ -14022,7 +14310,7 @@
         <v>11.416995000000011</v>
       </c>
     </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.55000000000000004">
+    <row r="3" spans="1:11" x14ac:dyDescent="0.7">
       <c r="A3" s="16">
         <v>2011</v>
       </c>
@@ -14067,7 +14355,7 @@
         <v>11.260452000000017</v>
       </c>
     </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.55000000000000004">
+    <row r="4" spans="1:11" x14ac:dyDescent="0.7">
       <c r="A4" s="16">
         <v>2012</v>
       </c>
@@ -14112,7 +14400,7 @@
         <v>11.086868000000003</v>
       </c>
     </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.55000000000000004">
+    <row r="5" spans="1:11" x14ac:dyDescent="0.7">
       <c r="A5" s="16">
         <v>2013</v>
       </c>
@@ -14157,7 +14445,7 @@
         <v>11.112475000000002</v>
       </c>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.55000000000000004">
+    <row r="6" spans="1:11" x14ac:dyDescent="0.7">
       <c r="A6" s="16">
         <v>2014</v>
       </c>
@@ -14202,7 +14490,7 @@
         <v>10.807040000000024</v>
       </c>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.55000000000000004">
+    <row r="7" spans="1:11" x14ac:dyDescent="0.7">
       <c r="A7" s="16">
         <v>2015</v>
       </c>
@@ -14247,7 +14535,7 @@
         <v>10.552321000000006</v>
       </c>
     </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.55000000000000004">
+    <row r="8" spans="1:11" x14ac:dyDescent="0.7">
       <c r="A8" s="16">
         <v>2016</v>
       </c>
@@ -14292,7 +14580,7 @@
         <v>10.399278000000001</v>
       </c>
     </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.55000000000000004">
+    <row r="9" spans="1:11" x14ac:dyDescent="0.7">
       <c r="A9" s="16">
         <v>2017</v>
       </c>
@@ -14337,7 +14625,7 @@
         <v>10.494455999999985</v>
       </c>
     </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.55000000000000004">
+    <row r="10" spans="1:11" x14ac:dyDescent="0.7">
       <c r="A10" s="16">
         <v>2018</v>
       </c>
@@ -14382,7 +14670,7 @@
         <v>10.330226999999992</v>
       </c>
     </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.55000000000000004">
+    <row r="11" spans="1:11" x14ac:dyDescent="0.7">
       <c r="A11" s="16">
         <v>2019</v>
       </c>
@@ -14427,7 +14715,7 @@
         <v>10.083009000000013</v>
       </c>
     </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.55000000000000004">
+    <row r="12" spans="1:11" x14ac:dyDescent="0.7">
       <c r="A12" s="16">
         <v>2020</v>
       </c>
@@ -14472,7 +14760,7 @@
         <v>9.5523820000000033</v>
       </c>
     </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.55000000000000004">
+    <row r="13" spans="1:11" x14ac:dyDescent="0.7">
       <c r="A13" s="16">
         <v>2021</v>
       </c>
@@ -14517,7 +14805,7 @@
         <v>9.4826992616388424</v>
       </c>
     </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.55000000000000004">
+    <row r="14" spans="1:11" x14ac:dyDescent="0.7">
       <c r="A14" s="16">
         <v>2022</v>
       </c>
@@ -14562,7 +14850,7 @@
         <v>9.4126888624314464</v>
       </c>
     </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.55000000000000004">
+    <row r="15" spans="1:11" x14ac:dyDescent="0.7">
       <c r="A15" s="16">
         <v>2023</v>
       </c>
@@ -14607,7 +14895,7 @@
         <v>9.3423498866472876</v>
       </c>
     </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.55000000000000004">
+    <row r="16" spans="1:11" x14ac:dyDescent="0.7">
       <c r="A16" s="16">
         <v>2024</v>
       </c>
@@ -14652,7 +14940,7 @@
         <v>9.2716812985195354</v>
       </c>
     </row>
-    <row r="17" spans="1:11" x14ac:dyDescent="0.55000000000000004">
+    <row r="17" spans="1:11" x14ac:dyDescent="0.7">
       <c r="A17" s="16">
         <v>2025</v>
       </c>
@@ -14697,7 +14985,7 @@
         <v>9.2006819548414231</v>
       </c>
     </row>
-    <row r="18" spans="1:11" x14ac:dyDescent="0.55000000000000004">
+    <row r="18" spans="1:11" x14ac:dyDescent="0.7">
       <c r="A18" s="16">
         <v>2026</v>
       </c>
@@ -14742,7 +15030,7 @@
         <v>9.1257361893347984</v>
       </c>
     </row>
-    <row r="19" spans="1:11" x14ac:dyDescent="0.55000000000000004">
+    <row r="19" spans="1:11" x14ac:dyDescent="0.7">
       <c r="A19" s="16">
         <v>2027</v>
       </c>
@@ -14787,7 +15075,7 @@
         <v>9.0504787078258531</v>
       </c>
     </row>
-    <row r="20" spans="1:11" x14ac:dyDescent="0.55000000000000004">
+    <row r="20" spans="1:11" x14ac:dyDescent="0.7">
       <c r="A20" s="16">
         <v>2028</v>
       </c>
@@ -14832,7 +15120,7 @@
         <v>8.974909038080062</v>
       </c>
     </row>
-    <row r="21" spans="1:11" x14ac:dyDescent="0.55000000000000004">
+    <row r="21" spans="1:11" x14ac:dyDescent="0.7">
       <c r="A21" s="16">
         <v>2029</v>
       </c>
@@ -14877,7 +15165,7 @@
         <v>8.8990265491578224</v>
       </c>
     </row>
-    <row r="22" spans="1:11" x14ac:dyDescent="0.55000000000000004">
+    <row r="22" spans="1:11" x14ac:dyDescent="0.7">
       <c r="A22" s="16">
         <v>2030</v>
       </c>
@@ -14922,7 +15210,7 @@
         <v>8.8228305116069272</v>
       </c>
     </row>
-    <row r="23" spans="1:11" x14ac:dyDescent="0.55000000000000004">
+    <row r="23" spans="1:11" x14ac:dyDescent="0.7">
       <c r="A23" s="16">
         <v>2031</v>
       </c>
@@ -14967,7 +15255,7 @@
         <v>8.7407933331987984</v>
       </c>
     </row>
-    <row r="24" spans="1:11" x14ac:dyDescent="0.55000000000000004">
+    <row r="24" spans="1:11" x14ac:dyDescent="0.7">
       <c r="A24" s="16">
         <v>2032</v>
       </c>
@@ -15012,7 +15300,7 @@
         <v>8.6584813772148088</v>
       </c>
     </row>
-    <row r="25" spans="1:11" x14ac:dyDescent="0.55000000000000004">
+    <row r="25" spans="1:11" x14ac:dyDescent="0.7">
       <c r="A25" s="16">
         <v>2033</v>
       </c>
@@ -15057,7 +15345,7 @@
         <v>8.5758950243882186</v>
       </c>
     </row>
-    <row r="26" spans="1:11" x14ac:dyDescent="0.55000000000000004">
+    <row r="26" spans="1:11" x14ac:dyDescent="0.7">
       <c r="A26" s="16">
         <v>2034</v>
       </c>
@@ -15102,7 +15390,7 @@
         <v>8.4930345496986721</v>
       </c>
     </row>
-    <row r="27" spans="1:11" x14ac:dyDescent="0.55000000000000004">
+    <row r="27" spans="1:11" x14ac:dyDescent="0.7">
       <c r="A27" s="16">
         <v>2035</v>
       </c>
@@ -15147,7 +15435,7 @@
         <v>8.4099000895579579</v>
       </c>
     </row>
-    <row r="28" spans="1:11" x14ac:dyDescent="0.55000000000000004">
+    <row r="28" spans="1:11" x14ac:dyDescent="0.7">
       <c r="A28" s="16">
         <v>2036</v>
       </c>
@@ -15192,7 +15480,7 @@
         <v>8.3220472185360883</v>
       </c>
     </row>
-    <row r="29" spans="1:11" x14ac:dyDescent="0.55000000000000004">
+    <row r="29" spans="1:11" x14ac:dyDescent="0.7">
       <c r="A29" s="16">
         <v>2037</v>
       </c>
@@ -15237,7 +15525,7 @@
         <v>8.2340044627024209</v>
       </c>
     </row>
-    <row r="30" spans="1:11" x14ac:dyDescent="0.55000000000000004">
+    <row r="30" spans="1:11" x14ac:dyDescent="0.7">
       <c r="A30" s="16">
         <v>2038</v>
       </c>
@@ -15282,7 +15570,7 @@
         <v>8.1457721188682459</v>
       </c>
     </row>
-    <row r="31" spans="1:11" x14ac:dyDescent="0.55000000000000004">
+    <row r="31" spans="1:11" x14ac:dyDescent="0.7">
       <c r="A31" s="16">
         <v>2039</v>
       </c>
@@ -15327,7 +15615,7 @@
         <v>8.0573504004179082</v>
       </c>
     </row>
-    <row r="32" spans="1:11" x14ac:dyDescent="0.55000000000000004">
+    <row r="32" spans="1:11" x14ac:dyDescent="0.7">
       <c r="A32" s="16">
         <v>2040</v>
       </c>
@@ -15372,7 +15660,7 @@
         <v>7.9687393285067696</v>
       </c>
     </row>
-    <row r="33" spans="1:11" x14ac:dyDescent="0.55000000000000004">
+    <row r="33" spans="1:11" x14ac:dyDescent="0.7">
       <c r="A33" s="16">
         <v>2041</v>
       </c>
@@ -15417,7 +15705,7 @@
         <v>7.8843811214198656</v>
       </c>
     </row>
-    <row r="34" spans="1:11" x14ac:dyDescent="0.55000000000000004">
+    <row r="34" spans="1:11" x14ac:dyDescent="0.7">
       <c r="A34" s="16">
         <v>2042</v>
       </c>
@@ -15462,7 +15750,7 @@
         <v>7.7997050665184906</v>
       </c>
     </row>
-    <row r="35" spans="1:11" x14ac:dyDescent="0.55000000000000004">
+    <row r="35" spans="1:11" x14ac:dyDescent="0.7">
       <c r="A35" s="16">
         <v>2043</v>
       </c>
@@ -15507,7 +15795,7 @@
         <v>7.7147106981730813</v>
       </c>
     </row>
-    <row r="36" spans="1:11" x14ac:dyDescent="0.55000000000000004">
+    <row r="36" spans="1:11" x14ac:dyDescent="0.7">
       <c r="A36" s="16">
         <v>2044</v>
       </c>
@@ -15552,7 +15840,7 @@
         <v>7.6293974619193952</v>
       </c>
     </row>
-    <row r="37" spans="1:11" x14ac:dyDescent="0.55000000000000004">
+    <row r="37" spans="1:11" x14ac:dyDescent="0.7">
       <c r="A37" s="16">
         <v>2045</v>
       </c>
@@ -15597,7 +15885,7 @@
         <v>7.5437647061597168</v>
       </c>
     </row>
-    <row r="38" spans="1:11" x14ac:dyDescent="0.55000000000000004">
+    <row r="38" spans="1:11" x14ac:dyDescent="0.7">
       <c r="A38" s="16">
         <v>2046</v>
       </c>
@@ -15642,7 +15930,7 @@
         <v>7.456731169542012</v>
       </c>
     </row>
-    <row r="39" spans="1:11" x14ac:dyDescent="0.55000000000000004">
+    <row r="39" spans="1:11" x14ac:dyDescent="0.7">
       <c r="A39" s="16">
         <v>2047</v>
       </c>
@@ -15687,7 +15975,7 @@
         <v>7.3693980356631705</v>
       </c>
     </row>
-    <row r="40" spans="1:11" x14ac:dyDescent="0.55000000000000004">
+    <row r="40" spans="1:11" x14ac:dyDescent="0.7">
       <c r="A40" s="16">
         <v>2048</v>
       </c>
@@ -15732,7 +16020,7 @@
         <v>7.2817645338327077</v>
       </c>
     </row>
-    <row r="41" spans="1:11" x14ac:dyDescent="0.55000000000000004">
+    <row r="41" spans="1:11" x14ac:dyDescent="0.7">
       <c r="A41" s="16">
         <v>2049</v>
       </c>
@@ -15777,7 +16065,7 @@
         <v>7.1938297906443172</v>
       </c>
     </row>
-    <row r="42" spans="1:11" x14ac:dyDescent="0.55000000000000004">
+    <row r="42" spans="1:11" x14ac:dyDescent="0.7">
       <c r="A42" s="16">
         <v>2050</v>
       </c>
@@ -15836,12 +16124,12 @@
       <selection activeCell="B12" sqref="B12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10" defaultRowHeight="18" x14ac:dyDescent="0.55000000000000004"/>
+  <sheetFormatPr defaultColWidth="10" defaultRowHeight="17.649999999999999" x14ac:dyDescent="0.7"/>
   <cols>
     <col min="1" max="16384" width="10" style="16"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.7">
       <c r="A1" s="16" t="s">
         <v>29</v>
       </c>
@@ -15849,7 +16137,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.7">
       <c r="A2" s="16">
         <v>2010</v>
       </c>
@@ -15857,7 +16145,7 @@
         <v>0.90509542880924898</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.7">
       <c r="A3" s="16">
         <v>2011</v>
       </c>
@@ -15865,7 +16153,7 @@
         <v>0.90634179687697403</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.7">
       <c r="A4" s="16">
         <v>2012</v>
       </c>
@@ -15873,7 +16161,7 @@
         <v>0.90931390033078996</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.7">
       <c r="A5" s="16">
         <v>2013</v>
       </c>
@@ -15881,7 +16169,7 @@
         <v>0.90579011844059698</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.7">
       <c r="A6" s="16">
         <v>2014</v>
       </c>
@@ -15889,7 +16177,7 @@
         <v>0.91084416308302496</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.7">
       <c r="A7" s="16">
         <v>2015</v>
       </c>
@@ -15897,7 +16185,7 @@
         <v>0.911547003404931</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="8" spans="1:2" x14ac:dyDescent="0.7">
       <c r="A8" s="16">
         <v>2016</v>
       </c>
@@ -15905,7 +16193,7 @@
         <v>0.897322110943927</v>
       </c>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="9" spans="1:2" x14ac:dyDescent="0.7">
       <c r="A9" s="16">
         <v>2017</v>
       </c>
@@ -15913,7 +16201,7 @@
         <v>0.89979408323514198</v>
       </c>
     </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="10" spans="1:2" x14ac:dyDescent="0.7">
       <c r="A10" s="16">
         <v>2018</v>
       </c>
@@ -15921,7 +16209,7 @@
         <v>0.89832727188289996</v>
       </c>
     </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="11" spans="1:2" x14ac:dyDescent="0.7">
       <c r="A11" s="16">
         <v>2019</v>
       </c>
@@ -15929,7 +16217,7 @@
         <v>0.898813117102369</v>
       </c>
     </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="12" spans="1:2" x14ac:dyDescent="0.7">
       <c r="A12" s="16">
         <v>2020</v>
       </c>
@@ -15952,28 +16240,28 @@
       <selection activeCell="D14" sqref="D14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10" defaultRowHeight="18" x14ac:dyDescent="0.55000000000000004"/>
+  <sheetFormatPr defaultColWidth="10" defaultRowHeight="17.649999999999999" x14ac:dyDescent="0.7"/>
   <cols>
     <col min="1" max="16384" width="10" style="16"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.55000000000000004">
-      <c r="B1" s="62" t="s">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.7">
+      <c r="B1" s="90" t="s">
         <v>43</v>
       </c>
-      <c r="C1" s="62"/>
-      <c r="D1" s="62"/>
-      <c r="E1" s="62"/>
-      <c r="F1" s="62"/>
-      <c r="G1" s="63" t="s">
+      <c r="C1" s="90"/>
+      <c r="D1" s="90"/>
+      <c r="E1" s="90"/>
+      <c r="F1" s="90"/>
+      <c r="G1" s="91" t="s">
         <v>44</v>
       </c>
-      <c r="H1" s="62"/>
-      <c r="I1" s="62"/>
-      <c r="J1" s="62"/>
-      <c r="K1" s="62"/>
-    </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.55000000000000004">
+      <c r="H1" s="90"/>
+      <c r="I1" s="90"/>
+      <c r="J1" s="90"/>
+      <c r="K1" s="90"/>
+    </row>
+    <row r="2" spans="1:11" x14ac:dyDescent="0.7">
       <c r="A2" s="16" t="s">
         <v>29</v>
       </c>
@@ -16008,7 +16296,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.55000000000000004">
+    <row r="3" spans="1:11" x14ac:dyDescent="0.7">
       <c r="A3" s="16">
         <v>2010</v>
       </c>
@@ -16043,7 +16331,7 @@
         <v>0.355815055496294</v>
       </c>
     </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.55000000000000004">
+    <row r="4" spans="1:11" x14ac:dyDescent="0.7">
       <c r="A4" s="16">
         <v>2011</v>
       </c>
@@ -16078,7 +16366,7 @@
         <v>0.33721278408655597</v>
       </c>
     </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.55000000000000004">
+    <row r="5" spans="1:11" x14ac:dyDescent="0.7">
       <c r="A5" s="16">
         <v>2012</v>
       </c>
@@ -16113,7 +16401,7 @@
         <v>0.342300080355736</v>
       </c>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.55000000000000004">
+    <row r="6" spans="1:11" x14ac:dyDescent="0.7">
       <c r="A6" s="16">
         <v>2013</v>
       </c>
@@ -16148,7 +16436,7 @@
         <v>0.34401954994486</v>
       </c>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.55000000000000004">
+    <row r="7" spans="1:11" x14ac:dyDescent="0.7">
       <c r="A7" s="16">
         <v>2014</v>
       </c>
@@ -16183,7 +16471,7 @@
         <v>0.34832237989362602</v>
       </c>
     </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.55000000000000004">
+    <row r="8" spans="1:11" x14ac:dyDescent="0.7">
       <c r="A8" s="16">
         <v>2015</v>
       </c>
@@ -16218,7 +16506,7 @@
         <v>0.35055897168193201</v>
       </c>
     </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.55000000000000004">
+    <row r="9" spans="1:11" x14ac:dyDescent="0.7">
       <c r="A9" s="16">
         <v>2016</v>
       </c>
@@ -16253,7 +16541,7 @@
         <v>0.356268710652069</v>
       </c>
     </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.55000000000000004">
+    <row r="10" spans="1:11" x14ac:dyDescent="0.7">
       <c r="A10" s="16">
         <v>2017</v>
       </c>
@@ -16288,7 +16576,7 @@
         <v>0.35891569789875399</v>
       </c>
     </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.55000000000000004">
+    <row r="11" spans="1:11" x14ac:dyDescent="0.7">
       <c r="A11" s="16">
         <v>2018</v>
       </c>
@@ -16323,7 +16611,7 @@
         <v>0.35805873972690599</v>
       </c>
     </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.55000000000000004">
+    <row r="12" spans="1:11" x14ac:dyDescent="0.7">
       <c r="A12" s="16">
         <v>2019</v>
       </c>
@@ -16358,7 +16646,7 @@
         <v>0.36171762838518701</v>
       </c>
     </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.55000000000000004">
+    <row r="13" spans="1:11" x14ac:dyDescent="0.7">
       <c r="A13" s="16">
         <v>2020</v>
       </c>
@@ -16393,7 +16681,7 @@
         <v>0.36403858518447701</v>
       </c>
     </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.55000000000000004">
+    <row r="14" spans="1:11" x14ac:dyDescent="0.7">
       <c r="A14" s="16">
         <v>2021</v>
       </c>
@@ -16438,7 +16726,7 @@
         <v>0.37523729901165837</v>
       </c>
     </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.55000000000000004">
+    <row r="15" spans="1:11" x14ac:dyDescent="0.7">
       <c r="A15" s="16">
         <v>2022</v>
       </c>
@@ -16483,7 +16771,7 @@
         <v>0.38643601283884266</v>
       </c>
     </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.55000000000000004">
+    <row r="16" spans="1:11" x14ac:dyDescent="0.7">
       <c r="A16" s="16">
         <v>2023</v>
       </c>
@@ -16528,7 +16816,7 @@
         <v>0.39763472666602695</v>
       </c>
     </row>
-    <row r="17" spans="1:11" x14ac:dyDescent="0.55000000000000004">
+    <row r="17" spans="1:11" x14ac:dyDescent="0.7">
       <c r="A17" s="16">
         <v>2024</v>
       </c>
@@ -16573,7 +16861,7 @@
         <v>0.40883344049321124</v>
       </c>
     </row>
-    <row r="18" spans="1:11" x14ac:dyDescent="0.55000000000000004">
+    <row r="18" spans="1:11" x14ac:dyDescent="0.7">
       <c r="A18" s="16">
         <v>2025</v>
       </c>
@@ -16618,7 +16906,7 @@
         <v>0.42003215432039553</v>
       </c>
     </row>
-    <row r="19" spans="1:11" x14ac:dyDescent="0.55000000000000004">
+    <row r="19" spans="1:11" x14ac:dyDescent="0.7">
       <c r="A19" s="16">
         <v>2026</v>
       </c>
@@ -16663,7 +16951,7 @@
         <v>0.43123086814757983</v>
       </c>
     </row>
-    <row r="20" spans="1:11" x14ac:dyDescent="0.55000000000000004">
+    <row r="20" spans="1:11" x14ac:dyDescent="0.7">
       <c r="A20" s="16">
         <v>2027</v>
       </c>
@@ -16708,7 +16996,7 @@
         <v>0.44242958197476412</v>
       </c>
     </row>
-    <row r="21" spans="1:11" x14ac:dyDescent="0.55000000000000004">
+    <row r="21" spans="1:11" x14ac:dyDescent="0.7">
       <c r="A21" s="16">
         <v>2028</v>
       </c>
@@ -16753,7 +17041,7 @@
         <v>0.45362829580194841</v>
       </c>
     </row>
-    <row r="22" spans="1:11" x14ac:dyDescent="0.55000000000000004">
+    <row r="22" spans="1:11" x14ac:dyDescent="0.7">
       <c r="A22" s="16">
         <v>2029</v>
       </c>
@@ -16798,7 +17086,7 @@
         <v>0.4648270096291327</v>
       </c>
     </row>
-    <row r="23" spans="1:11" x14ac:dyDescent="0.55000000000000004">
+    <row r="23" spans="1:11" x14ac:dyDescent="0.7">
       <c r="A23" s="16">
         <v>2030</v>
       </c>
@@ -16843,7 +17131,7 @@
         <v>0.476025723456317</v>
       </c>
     </row>
-    <row r="24" spans="1:11" x14ac:dyDescent="0.55000000000000004">
+    <row r="24" spans="1:11" x14ac:dyDescent="0.7">
       <c r="A24" s="16">
         <v>2031</v>
       </c>
@@ -16888,7 +17176,7 @@
         <v>0.48722443728350129</v>
       </c>
     </row>
-    <row r="25" spans="1:11" x14ac:dyDescent="0.55000000000000004">
+    <row r="25" spans="1:11" x14ac:dyDescent="0.7">
       <c r="A25" s="16">
         <v>2032</v>
       </c>
@@ -16933,7 +17221,7 @@
         <v>0.49842315111068558</v>
       </c>
     </row>
-    <row r="26" spans="1:11" x14ac:dyDescent="0.55000000000000004">
+    <row r="26" spans="1:11" x14ac:dyDescent="0.7">
       <c r="A26" s="16">
         <v>2033</v>
       </c>
@@ -16978,7 +17266,7 @@
         <v>0.50962186493786987</v>
       </c>
     </row>
-    <row r="27" spans="1:11" x14ac:dyDescent="0.55000000000000004">
+    <row r="27" spans="1:11" x14ac:dyDescent="0.7">
       <c r="A27" s="16">
         <v>2034</v>
       </c>
@@ -17023,7 +17311,7 @@
         <v>0.52082057876505417</v>
       </c>
     </row>
-    <row r="28" spans="1:11" x14ac:dyDescent="0.55000000000000004">
+    <row r="28" spans="1:11" x14ac:dyDescent="0.7">
       <c r="A28" s="16">
         <v>2035</v>
       </c>
@@ -17068,7 +17356,7 @@
         <v>0.53201929259223846</v>
       </c>
     </row>
-    <row r="29" spans="1:11" x14ac:dyDescent="0.55000000000000004">
+    <row r="29" spans="1:11" x14ac:dyDescent="0.7">
       <c r="A29" s="16">
         <v>2036</v>
       </c>
@@ -17113,7 +17401,7 @@
         <v>0.54321800641942275</v>
       </c>
     </row>
-    <row r="30" spans="1:11" x14ac:dyDescent="0.55000000000000004">
+    <row r="30" spans="1:11" x14ac:dyDescent="0.7">
       <c r="A30" s="16">
         <v>2037</v>
       </c>
@@ -17158,7 +17446,7 @@
         <v>0.55441672024660704</v>
       </c>
     </row>
-    <row r="31" spans="1:11" x14ac:dyDescent="0.55000000000000004">
+    <row r="31" spans="1:11" x14ac:dyDescent="0.7">
       <c r="A31" s="16">
         <v>2038</v>
       </c>
@@ -17203,7 +17491,7 @@
         <v>0.56561543407379133</v>
       </c>
     </row>
-    <row r="32" spans="1:11" x14ac:dyDescent="0.55000000000000004">
+    <row r="32" spans="1:11" x14ac:dyDescent="0.7">
       <c r="A32" s="16">
         <v>2039</v>
       </c>
@@ -17248,7 +17536,7 @@
         <v>0.57681414790097207</v>
       </c>
     </row>
-    <row r="33" spans="1:11" x14ac:dyDescent="0.55000000000000004">
+    <row r="33" spans="1:11" x14ac:dyDescent="0.7">
       <c r="A33" s="16">
         <v>2040</v>
       </c>
@@ -17293,7 +17581,7 @@
         <v>0.58801286172815637</v>
       </c>
     </row>
-    <row r="34" spans="1:11" x14ac:dyDescent="0.55000000000000004">
+    <row r="34" spans="1:11" x14ac:dyDescent="0.7">
       <c r="A34" s="16">
         <v>2041</v>
       </c>
@@ -17338,7 +17626,7 @@
         <v>0.59921157555534066</v>
       </c>
     </row>
-    <row r="35" spans="1:11" x14ac:dyDescent="0.55000000000000004">
+    <row r="35" spans="1:11" x14ac:dyDescent="0.7">
       <c r="A35" s="16">
         <v>2042</v>
       </c>
@@ -17383,7 +17671,7 @@
         <v>0.61041028938252495</v>
       </c>
     </row>
-    <row r="36" spans="1:11" x14ac:dyDescent="0.55000000000000004">
+    <row r="36" spans="1:11" x14ac:dyDescent="0.7">
       <c r="A36" s="16">
         <v>2043</v>
       </c>
@@ -17428,7 +17716,7 @@
         <v>0.62160900320970924</v>
       </c>
     </row>
-    <row r="37" spans="1:11" x14ac:dyDescent="0.55000000000000004">
+    <row r="37" spans="1:11" x14ac:dyDescent="0.7">
       <c r="A37" s="16">
         <v>2044</v>
       </c>
@@ -17473,7 +17761,7 @@
         <v>0.63280771703689354</v>
       </c>
     </row>
-    <row r="38" spans="1:11" x14ac:dyDescent="0.55000000000000004">
+    <row r="38" spans="1:11" x14ac:dyDescent="0.7">
       <c r="A38" s="16">
         <v>2045</v>
       </c>
@@ -17518,7 +17806,7 @@
         <v>0.64400643086407783</v>
       </c>
     </row>
-    <row r="39" spans="1:11" x14ac:dyDescent="0.55000000000000004">
+    <row r="39" spans="1:11" x14ac:dyDescent="0.7">
       <c r="A39" s="16">
         <v>2046</v>
       </c>
@@ -17563,7 +17851,7 @@
         <v>0.65520514469126212</v>
       </c>
     </row>
-    <row r="40" spans="1:11" x14ac:dyDescent="0.55000000000000004">
+    <row r="40" spans="1:11" x14ac:dyDescent="0.7">
       <c r="A40" s="16">
         <v>2047</v>
       </c>
@@ -17608,7 +17896,7 @@
         <v>0.66640385851844641</v>
       </c>
     </row>
-    <row r="41" spans="1:11" x14ac:dyDescent="0.55000000000000004">
+    <row r="41" spans="1:11" x14ac:dyDescent="0.7">
       <c r="A41" s="16">
         <v>2048</v>
       </c>
@@ -17653,7 +17941,7 @@
         <v>0.6776025723456307</v>
       </c>
     </row>
-    <row r="42" spans="1:11" x14ac:dyDescent="0.55000000000000004">
+    <row r="42" spans="1:11" x14ac:dyDescent="0.7">
       <c r="A42" s="16">
         <v>2049</v>
       </c>
@@ -17698,7 +17986,7 @@
         <v>0.688801286172815</v>
       </c>
     </row>
-    <row r="43" spans="1:11" x14ac:dyDescent="0.55000000000000004">
+    <row r="43" spans="1:11" x14ac:dyDescent="0.7">
       <c r="A43" s="16">
         <v>2050</v>
       </c>
@@ -17743,7 +18031,7 @@
         <v>0.69999999999999929</v>
       </c>
     </row>
-    <row r="45" spans="1:11" x14ac:dyDescent="0.55000000000000004">
+    <row r="45" spans="1:11" x14ac:dyDescent="0.7">
       <c r="A45" s="16">
         <v>2020</v>
       </c>
@@ -17788,7 +18076,7 @@
         <v>0.36403858518447701</v>
       </c>
     </row>
-    <row r="46" spans="1:11" x14ac:dyDescent="0.55000000000000004">
+    <row r="46" spans="1:11" x14ac:dyDescent="0.7">
       <c r="A46" s="16">
         <v>2050</v>
       </c>
@@ -17852,30 +18140,30 @@
       <selection activeCell="B15" sqref="B15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10" defaultRowHeight="18" x14ac:dyDescent="0.55000000000000004"/>
+  <sheetFormatPr defaultColWidth="10" defaultRowHeight="17.649999999999999" x14ac:dyDescent="0.7"/>
   <cols>
     <col min="1" max="1" width="10" style="16"/>
-    <col min="2" max="2" width="13.33203125" style="16" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="13.3125" style="16" bestFit="1" customWidth="1"/>
     <col min="3" max="16384" width="10" style="16"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.55000000000000004">
-      <c r="B1" s="62" t="s">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.7">
+      <c r="B1" s="90" t="s">
         <v>45</v>
       </c>
-      <c r="C1" s="62"/>
-      <c r="D1" s="62"/>
-      <c r="E1" s="62"/>
-      <c r="F1" s="62"/>
-      <c r="G1" s="63" t="s">
+      <c r="C1" s="90"/>
+      <c r="D1" s="90"/>
+      <c r="E1" s="90"/>
+      <c r="F1" s="90"/>
+      <c r="G1" s="91" t="s">
         <v>48</v>
       </c>
-      <c r="H1" s="62"/>
-      <c r="I1" s="62"/>
-      <c r="J1" s="62"/>
-      <c r="K1" s="62"/>
-    </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.55000000000000004">
+      <c r="H1" s="90"/>
+      <c r="I1" s="90"/>
+      <c r="J1" s="90"/>
+      <c r="K1" s="90"/>
+    </row>
+    <row r="2" spans="1:11" x14ac:dyDescent="0.7">
       <c r="A2" s="16" t="s">
         <v>29</v>
       </c>
@@ -17910,7 +18198,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.55000000000000004">
+    <row r="3" spans="1:11" x14ac:dyDescent="0.7">
       <c r="A3" s="16">
         <v>2010</v>
       </c>
@@ -17945,7 +18233,7 @@
         <v>1.9948215248407401E-2</v>
       </c>
     </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.55000000000000004">
+    <row r="4" spans="1:11" x14ac:dyDescent="0.7">
       <c r="A4" s="16">
         <v>2011</v>
       </c>
@@ -17980,7 +18268,7 @@
         <v>1.99022710538319E-2</v>
       </c>
     </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.55000000000000004">
+    <row r="5" spans="1:11" x14ac:dyDescent="0.7">
       <c r="A5" s="16">
         <v>2012</v>
       </c>
@@ -18015,7 +18303,7 @@
         <v>2.0018386158406599E-2</v>
       </c>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.55000000000000004">
+    <row r="6" spans="1:11" x14ac:dyDescent="0.7">
       <c r="A6" s="16">
         <v>2013</v>
       </c>
@@ -18050,7 +18338,7 @@
         <v>2.0305912796869299E-2</v>
       </c>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.55000000000000004">
+    <row r="7" spans="1:11" x14ac:dyDescent="0.7">
       <c r="A7" s="16">
         <v>2014</v>
       </c>
@@ -18085,7 +18373,7 @@
         <v>2.0739314865951899E-2</v>
       </c>
     </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.55000000000000004">
+    <row r="8" spans="1:11" x14ac:dyDescent="0.7">
       <c r="A8" s="16">
         <v>2015</v>
       </c>
@@ -18120,7 +18408,7 @@
         <v>2.0721920310650101E-2</v>
       </c>
     </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.55000000000000004">
+    <row r="9" spans="1:11" x14ac:dyDescent="0.7">
       <c r="A9" s="16">
         <v>2016</v>
       </c>
@@ -18155,7 +18443,7 @@
         <v>2.0939502430685202E-2</v>
       </c>
     </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.55000000000000004">
+    <row r="10" spans="1:11" x14ac:dyDescent="0.7">
       <c r="A10" s="16">
         <v>2017</v>
       </c>
@@ -18190,7 +18478,7 @@
         <v>2.11142185141413E-2</v>
       </c>
     </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.55000000000000004">
+    <row r="11" spans="1:11" x14ac:dyDescent="0.7">
       <c r="A11" s="16">
         <v>2018</v>
       </c>
@@ -18225,7 +18513,7 @@
         <v>2.1087352361621702E-2</v>
       </c>
     </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.55000000000000004">
+    <row r="12" spans="1:11" x14ac:dyDescent="0.7">
       <c r="A12" s="16">
         <v>2019</v>
       </c>
@@ -18260,7 +18548,7 @@
         <v>2.15264593615252E-2</v>
       </c>
     </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.55000000000000004">
+    <row r="13" spans="1:11" x14ac:dyDescent="0.7">
       <c r="A13" s="16">
         <v>2020</v>
       </c>
@@ -18295,7 +18583,7 @@
         <v>2.3819620310036701E-2</v>
       </c>
     </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.55000000000000004">
+    <row r="14" spans="1:11" x14ac:dyDescent="0.7">
       <c r="A14" s="16">
         <v>2021</v>
       </c>
@@ -18340,7 +18628,7 @@
         <v>4.4692299633034338E-2</v>
       </c>
     </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.55000000000000004">
+    <row r="15" spans="1:11" x14ac:dyDescent="0.7">
       <c r="A15" s="16">
         <v>2022</v>
       </c>
@@ -18385,7 +18673,7 @@
         <v>6.556497895603286E-2</v>
       </c>
     </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.55000000000000004">
+    <row r="16" spans="1:11" x14ac:dyDescent="0.7">
       <c r="A16" s="16">
         <v>2023</v>
       </c>
@@ -18430,7 +18718,7 @@
         <v>8.6437658279031382E-2</v>
       </c>
     </row>
-    <row r="17" spans="1:11" x14ac:dyDescent="0.55000000000000004">
+    <row r="17" spans="1:11" x14ac:dyDescent="0.7">
       <c r="A17" s="16">
         <v>2024</v>
       </c>
@@ -18475,7 +18763,7 @@
         <v>0.1073103376020299</v>
       </c>
     </row>
-    <row r="18" spans="1:11" x14ac:dyDescent="0.55000000000000004">
+    <row r="18" spans="1:11" x14ac:dyDescent="0.7">
       <c r="A18" s="16">
         <v>2025</v>
       </c>
@@ -18520,7 +18808,7 @@
         <v>0.12818301692502843</v>
       </c>
     </row>
-    <row r="19" spans="1:11" x14ac:dyDescent="0.55000000000000004">
+    <row r="19" spans="1:11" x14ac:dyDescent="0.7">
       <c r="A19" s="16">
         <v>2026</v>
       </c>
@@ -18565,7 +18853,7 @@
         <v>0.14905569624802695</v>
       </c>
     </row>
-    <row r="20" spans="1:11" x14ac:dyDescent="0.55000000000000004">
+    <row r="20" spans="1:11" x14ac:dyDescent="0.7">
       <c r="A20" s="16">
         <v>2027</v>
       </c>
@@ -18610,7 +18898,7 @@
         <v>0.16992837557102547</v>
       </c>
     </row>
-    <row r="21" spans="1:11" x14ac:dyDescent="0.55000000000000004">
+    <row r="21" spans="1:11" x14ac:dyDescent="0.7">
       <c r="A21" s="16">
         <v>2028</v>
       </c>
@@ -18655,7 +18943,7 @@
         <v>0.19080105489402399</v>
       </c>
     </row>
-    <row r="22" spans="1:11" x14ac:dyDescent="0.55000000000000004">
+    <row r="22" spans="1:11" x14ac:dyDescent="0.7">
       <c r="A22" s="16">
         <v>2029</v>
       </c>
@@ -18700,7 +18988,7 @@
         <v>0.21167373421702251</v>
       </c>
     </row>
-    <row r="23" spans="1:11" x14ac:dyDescent="0.55000000000000004">
+    <row r="23" spans="1:11" x14ac:dyDescent="0.7">
       <c r="A23" s="16">
         <v>2030</v>
       </c>
@@ -18745,7 +19033,7 @@
         <v>0.23254641354002104</v>
       </c>
     </row>
-    <row r="24" spans="1:11" x14ac:dyDescent="0.55000000000000004">
+    <row r="24" spans="1:11" x14ac:dyDescent="0.7">
       <c r="A24" s="16">
         <v>2031</v>
       </c>
@@ -18790,7 +19078,7 @@
         <v>0.25341909286301956</v>
       </c>
     </row>
-    <row r="25" spans="1:11" x14ac:dyDescent="0.55000000000000004">
+    <row r="25" spans="1:11" x14ac:dyDescent="0.7">
       <c r="A25" s="16">
         <v>2032</v>
       </c>
@@ -18835,7 +19123,7 @@
         <v>0.27429177218601808</v>
       </c>
     </row>
-    <row r="26" spans="1:11" x14ac:dyDescent="0.55000000000000004">
+    <row r="26" spans="1:11" x14ac:dyDescent="0.7">
       <c r="A26" s="16">
         <v>2033</v>
       </c>
@@ -18880,7 +19168,7 @@
         <v>0.2951644515090166</v>
       </c>
     </row>
-    <row r="27" spans="1:11" x14ac:dyDescent="0.55000000000000004">
+    <row r="27" spans="1:11" x14ac:dyDescent="0.7">
       <c r="A27" s="16">
         <v>2034</v>
       </c>
@@ -18925,7 +19213,7 @@
         <v>0.31603713083201512</v>
       </c>
     </row>
-    <row r="28" spans="1:11" x14ac:dyDescent="0.55000000000000004">
+    <row r="28" spans="1:11" x14ac:dyDescent="0.7">
       <c r="A28" s="16">
         <v>2035</v>
       </c>
@@ -18970,7 +19258,7 @@
         <v>0.33690981015502075</v>
       </c>
     </row>
-    <row r="29" spans="1:11" x14ac:dyDescent="0.55000000000000004">
+    <row r="29" spans="1:11" x14ac:dyDescent="0.7">
       <c r="A29" s="16">
         <v>2036</v>
       </c>
@@ -19015,7 +19303,7 @@
         <v>0.35778248947801927</v>
       </c>
     </row>
-    <row r="30" spans="1:11" x14ac:dyDescent="0.55000000000000004">
+    <row r="30" spans="1:11" x14ac:dyDescent="0.7">
       <c r="A30" s="16">
         <v>2037</v>
       </c>
@@ -19060,7 +19348,7 @@
         <v>0.37865516880101779</v>
       </c>
     </row>
-    <row r="31" spans="1:11" x14ac:dyDescent="0.55000000000000004">
+    <row r="31" spans="1:11" x14ac:dyDescent="0.7">
       <c r="A31" s="16">
         <v>2038</v>
       </c>
@@ -19105,7 +19393,7 @@
         <v>0.39952784812401632</v>
       </c>
     </row>
-    <row r="32" spans="1:11" x14ac:dyDescent="0.55000000000000004">
+    <row r="32" spans="1:11" x14ac:dyDescent="0.7">
       <c r="A32" s="16">
         <v>2039</v>
       </c>
@@ -19150,7 +19438,7 @@
         <v>0.42040052744701484</v>
       </c>
     </row>
-    <row r="33" spans="1:11" x14ac:dyDescent="0.55000000000000004">
+    <row r="33" spans="1:11" x14ac:dyDescent="0.7">
       <c r="A33" s="16">
         <v>2040</v>
       </c>
@@ -19195,7 +19483,7 @@
         <v>0.44127320677001336</v>
       </c>
     </row>
-    <row r="34" spans="1:11" x14ac:dyDescent="0.55000000000000004">
+    <row r="34" spans="1:11" x14ac:dyDescent="0.7">
       <c r="A34" s="16">
         <v>2041</v>
       </c>
@@ -19240,7 +19528,7 @@
         <v>0.46214588609301188</v>
       </c>
     </row>
-    <row r="35" spans="1:11" x14ac:dyDescent="0.55000000000000004">
+    <row r="35" spans="1:11" x14ac:dyDescent="0.7">
       <c r="A35" s="16">
         <v>2042</v>
       </c>
@@ -19285,7 +19573,7 @@
         <v>0.4830185654160104</v>
       </c>
     </row>
-    <row r="36" spans="1:11" x14ac:dyDescent="0.55000000000000004">
+    <row r="36" spans="1:11" x14ac:dyDescent="0.7">
       <c r="A36" s="16">
         <v>2043</v>
       </c>
@@ -19330,7 +19618,7 @@
         <v>0.50389124473900893</v>
       </c>
     </row>
-    <row r="37" spans="1:11" x14ac:dyDescent="0.55000000000000004">
+    <row r="37" spans="1:11" x14ac:dyDescent="0.7">
       <c r="A37" s="16">
         <v>2044</v>
       </c>
@@ -19375,7 +19663,7 @@
         <v>0.52476392406200745</v>
       </c>
     </row>
-    <row r="38" spans="1:11" x14ac:dyDescent="0.55000000000000004">
+    <row r="38" spans="1:11" x14ac:dyDescent="0.7">
       <c r="A38" s="16">
         <v>2045</v>
       </c>
@@ -19420,7 +19708,7 @@
         <v>0.54563660338500597</v>
       </c>
     </row>
-    <row r="39" spans="1:11" x14ac:dyDescent="0.55000000000000004">
+    <row r="39" spans="1:11" x14ac:dyDescent="0.7">
       <c r="A39" s="16">
         <v>2046</v>
       </c>
@@ -19465,7 +19753,7 @@
         <v>0.56650928270800449</v>
       </c>
     </row>
-    <row r="40" spans="1:11" x14ac:dyDescent="0.55000000000000004">
+    <row r="40" spans="1:11" x14ac:dyDescent="0.7">
       <c r="A40" s="16">
         <v>2047</v>
       </c>
@@ -19510,7 +19798,7 @@
         <v>0.58738196203100301</v>
       </c>
     </row>
-    <row r="41" spans="1:11" x14ac:dyDescent="0.55000000000000004">
+    <row r="41" spans="1:11" x14ac:dyDescent="0.7">
       <c r="A41" s="16">
         <v>2048</v>
       </c>
@@ -19555,7 +19843,7 @@
         <v>0.60825464135400154</v>
       </c>
     </row>
-    <row r="42" spans="1:11" x14ac:dyDescent="0.55000000000000004">
+    <row r="42" spans="1:11" x14ac:dyDescent="0.7">
       <c r="A42" s="16">
         <v>2049</v>
       </c>
@@ -19600,7 +19888,7 @@
         <v>0.62912732067700006</v>
       </c>
     </row>
-    <row r="43" spans="1:11" x14ac:dyDescent="0.55000000000000004">
+    <row r="43" spans="1:11" x14ac:dyDescent="0.7">
       <c r="A43" s="16">
         <v>2050</v>
       </c>
@@ -19645,7 +19933,7 @@
         <v>0.64999999999999858</v>
       </c>
     </row>
-    <row r="45" spans="1:11" x14ac:dyDescent="0.55000000000000004">
+    <row r="45" spans="1:11" x14ac:dyDescent="0.7">
       <c r="A45" s="16">
         <v>2020</v>
       </c>
@@ -19690,7 +19978,7 @@
         <v>2.3819620310036701E-2</v>
       </c>
     </row>
-    <row r="46" spans="1:11" x14ac:dyDescent="0.55000000000000004">
+    <row r="46" spans="1:11" x14ac:dyDescent="0.7">
       <c r="A46" s="16">
         <v>2050</v>
       </c>
@@ -19754,28 +20042,28 @@
       <selection activeCell="A15" sqref="A15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10" defaultRowHeight="18" x14ac:dyDescent="0.55000000000000004"/>
+  <sheetFormatPr defaultColWidth="10" defaultRowHeight="17.649999999999999" x14ac:dyDescent="0.7"/>
   <cols>
     <col min="1" max="16384" width="10" style="16"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.55000000000000004">
-      <c r="B1" s="62" t="s">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.7">
+      <c r="B1" s="90" t="s">
         <v>46</v>
       </c>
-      <c r="C1" s="62"/>
-      <c r="D1" s="62"/>
-      <c r="E1" s="62"/>
-      <c r="F1" s="62"/>
-      <c r="G1" s="63" t="s">
+      <c r="C1" s="90"/>
+      <c r="D1" s="90"/>
+      <c r="E1" s="90"/>
+      <c r="F1" s="90"/>
+      <c r="G1" s="91" t="s">
         <v>50</v>
       </c>
-      <c r="H1" s="62"/>
-      <c r="I1" s="62"/>
-      <c r="J1" s="62"/>
-      <c r="K1" s="62"/>
-    </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.55000000000000004">
+      <c r="H1" s="90"/>
+      <c r="I1" s="90"/>
+      <c r="J1" s="90"/>
+      <c r="K1" s="90"/>
+    </row>
+    <row r="2" spans="1:11" x14ac:dyDescent="0.7">
       <c r="A2" s="16" t="s">
         <v>29</v>
       </c>
@@ -19810,7 +20098,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.55000000000000004">
+    <row r="3" spans="1:11" x14ac:dyDescent="0.7">
       <c r="A3" s="16">
         <v>2010</v>
       </c>
@@ -19845,7 +20133,7 @@
         <v>0.55732520516860795</v>
       </c>
     </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.55000000000000004">
+    <row r="4" spans="1:11" x14ac:dyDescent="0.7">
       <c r="A4" s="16">
         <v>2011</v>
       </c>
@@ -19880,7 +20168,7 @@
         <v>0.55075772411194002</v>
       </c>
     </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.55000000000000004">
+    <row r="5" spans="1:11" x14ac:dyDescent="0.7">
       <c r="A5" s="16">
         <v>2012</v>
       </c>
@@ -19915,7 +20203,7 @@
         <v>0.55859887852123102</v>
       </c>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.55000000000000004">
+    <row r="6" spans="1:11" x14ac:dyDescent="0.7">
       <c r="A6" s="16">
         <v>2013</v>
       </c>
@@ -19950,7 +20238,7 @@
         <v>0.53255686585837703</v>
       </c>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.55000000000000004">
+    <row r="7" spans="1:11" x14ac:dyDescent="0.7">
       <c r="A7" s="16">
         <v>2014</v>
       </c>
@@ -19985,7 +20273,7 @@
         <v>0.54431860366728002</v>
       </c>
     </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.55000000000000004">
+    <row r="8" spans="1:11" x14ac:dyDescent="0.7">
       <c r="A8" s="16">
         <v>2015</v>
       </c>
@@ -20020,7 +20308,7 @@
         <v>0.54334958541660205</v>
       </c>
     </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.55000000000000004">
+    <row r="9" spans="1:11" x14ac:dyDescent="0.7">
       <c r="A9" s="16">
         <v>2016</v>
       </c>
@@ -20055,7 +20343,7 @@
         <v>0.56257471947510895</v>
       </c>
     </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.55000000000000004">
+    <row r="10" spans="1:11" x14ac:dyDescent="0.7">
       <c r="A10" s="16">
         <v>2017</v>
       </c>
@@ -20090,7 +20378,7 @@
         <v>0.55955856522163305</v>
       </c>
     </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.55000000000000004">
+    <row r="11" spans="1:11" x14ac:dyDescent="0.7">
       <c r="A11" s="16">
         <v>2018</v>
       </c>
@@ -20125,7 +20413,7 @@
         <v>0.54606851341540696</v>
       </c>
     </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.55000000000000004">
+    <row r="12" spans="1:11" x14ac:dyDescent="0.7">
       <c r="A12" s="16">
         <v>2019</v>
       </c>
@@ -20160,7 +20448,7 @@
         <v>0.55856731867259402</v>
       </c>
     </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.55000000000000004">
+    <row r="13" spans="1:11" x14ac:dyDescent="0.7">
       <c r="A13" s="16">
         <v>2020</v>
       </c>
@@ -20195,7 +20483,7 @@
         <v>0.56936503676332895</v>
       </c>
     </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.55000000000000004">
+    <row r="14" spans="1:11" x14ac:dyDescent="0.7">
       <c r="A14" s="16">
         <v>2021</v>
       </c>
@@ -20240,7 +20528,7 @@
         <v>0.57705286887121865</v>
       </c>
     </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.55000000000000004">
+    <row r="15" spans="1:11" x14ac:dyDescent="0.7">
       <c r="A15" s="16">
         <v>2022</v>
       </c>
@@ -20285,7 +20573,7 @@
         <v>0.58474070097910769</v>
       </c>
     </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.55000000000000004">
+    <row r="16" spans="1:11" x14ac:dyDescent="0.7">
       <c r="A16" s="16">
         <v>2023</v>
       </c>
@@ -20330,7 +20618,7 @@
         <v>0.59242853308699672</v>
       </c>
     </row>
-    <row r="17" spans="1:11" x14ac:dyDescent="0.55000000000000004">
+    <row r="17" spans="1:11" x14ac:dyDescent="0.7">
       <c r="A17" s="16">
         <v>2024</v>
       </c>
@@ -20375,7 +20663,7 @@
         <v>0.60011636519488576</v>
       </c>
     </row>
-    <row r="18" spans="1:11" x14ac:dyDescent="0.55000000000000004">
+    <row r="18" spans="1:11" x14ac:dyDescent="0.7">
       <c r="A18" s="16">
         <v>2025</v>
       </c>
@@ -20420,7 +20708,7 @@
         <v>0.6078041973027748</v>
       </c>
     </row>
-    <row r="19" spans="1:11" x14ac:dyDescent="0.55000000000000004">
+    <row r="19" spans="1:11" x14ac:dyDescent="0.7">
       <c r="A19" s="16">
         <v>2026</v>
       </c>
@@ -20465,7 +20753,7 @@
         <v>0.61549202941066383</v>
       </c>
     </row>
-    <row r="20" spans="1:11" x14ac:dyDescent="0.55000000000000004">
+    <row r="20" spans="1:11" x14ac:dyDescent="0.7">
       <c r="A20" s="16">
         <v>2027</v>
       </c>
@@ -20510,7 +20798,7 @@
         <v>0.62317986151855287</v>
       </c>
     </row>
-    <row r="21" spans="1:11" x14ac:dyDescent="0.55000000000000004">
+    <row r="21" spans="1:11" x14ac:dyDescent="0.7">
       <c r="A21" s="16">
         <v>2028</v>
       </c>
@@ -20555,7 +20843,7 @@
         <v>0.63086769362644191</v>
       </c>
     </row>
-    <row r="22" spans="1:11" x14ac:dyDescent="0.55000000000000004">
+    <row r="22" spans="1:11" x14ac:dyDescent="0.7">
       <c r="A22" s="16">
         <v>2029</v>
       </c>
@@ -20600,7 +20888,7 @@
         <v>0.63855552573433094</v>
       </c>
     </row>
-    <row r="23" spans="1:11" x14ac:dyDescent="0.55000000000000004">
+    <row r="23" spans="1:11" x14ac:dyDescent="0.7">
       <c r="A23" s="16">
         <v>2030</v>
       </c>
@@ -20645,7 +20933,7 @@
         <v>0.64624335784221998</v>
       </c>
     </row>
-    <row r="24" spans="1:11" x14ac:dyDescent="0.55000000000000004">
+    <row r="24" spans="1:11" x14ac:dyDescent="0.7">
       <c r="A24" s="16">
         <v>2031</v>
       </c>
@@ -20690,7 +20978,7 @@
         <v>0.65393118995010902</v>
       </c>
     </row>
-    <row r="25" spans="1:11" x14ac:dyDescent="0.55000000000000004">
+    <row r="25" spans="1:11" x14ac:dyDescent="0.7">
       <c r="A25" s="16">
         <v>2032</v>
       </c>
@@ -20735,7 +21023,7 @@
         <v>0.66161902205799805</v>
       </c>
     </row>
-    <row r="26" spans="1:11" x14ac:dyDescent="0.55000000000000004">
+    <row r="26" spans="1:11" x14ac:dyDescent="0.7">
       <c r="A26" s="16">
         <v>2033</v>
       </c>
@@ -20780,7 +21068,7 @@
         <v>0.66930685416588709</v>
       </c>
     </row>
-    <row r="27" spans="1:11" x14ac:dyDescent="0.55000000000000004">
+    <row r="27" spans="1:11" x14ac:dyDescent="0.7">
       <c r="A27" s="16">
         <v>2034</v>
       </c>
@@ -20825,7 +21113,7 @@
         <v>0.67699468627377613</v>
       </c>
     </row>
-    <row r="28" spans="1:11" x14ac:dyDescent="0.55000000000000004">
+    <row r="28" spans="1:11" x14ac:dyDescent="0.7">
       <c r="A28" s="16">
         <v>2035</v>
       </c>
@@ -20870,7 +21158,7 @@
         <v>0.68468251838166516</v>
       </c>
     </row>
-    <row r="29" spans="1:11" x14ac:dyDescent="0.55000000000000004">
+    <row r="29" spans="1:11" x14ac:dyDescent="0.7">
       <c r="A29" s="16">
         <v>2036</v>
       </c>
@@ -20915,7 +21203,7 @@
         <v>0.6923703504895542</v>
       </c>
     </row>
-    <row r="30" spans="1:11" x14ac:dyDescent="0.55000000000000004">
+    <row r="30" spans="1:11" x14ac:dyDescent="0.7">
       <c r="A30" s="16">
         <v>2037</v>
       </c>
@@ -20960,7 +21248,7 @@
         <v>0.70005818259744323</v>
       </c>
     </row>
-    <row r="31" spans="1:11" x14ac:dyDescent="0.55000000000000004">
+    <row r="31" spans="1:11" x14ac:dyDescent="0.7">
       <c r="A31" s="16">
         <v>2038</v>
       </c>
@@ -21005,7 +21293,7 @@
         <v>0.70774601470533227</v>
       </c>
     </row>
-    <row r="32" spans="1:11" x14ac:dyDescent="0.55000000000000004">
+    <row r="32" spans="1:11" x14ac:dyDescent="0.7">
       <c r="A32" s="16">
         <v>2039</v>
       </c>
@@ -21050,7 +21338,7 @@
         <v>0.71543384681322131</v>
       </c>
     </row>
-    <row r="33" spans="1:11" x14ac:dyDescent="0.55000000000000004">
+    <row r="33" spans="1:11" x14ac:dyDescent="0.7">
       <c r="A33" s="16">
         <v>2040</v>
       </c>
@@ -21095,7 +21383,7 @@
         <v>0.72312167892111034</v>
       </c>
     </row>
-    <row r="34" spans="1:11" x14ac:dyDescent="0.55000000000000004">
+    <row r="34" spans="1:11" x14ac:dyDescent="0.7">
       <c r="A34" s="16">
         <v>2041</v>
       </c>
@@ -21140,7 +21428,7 @@
         <v>0.73080951102899938</v>
       </c>
     </row>
-    <row r="35" spans="1:11" x14ac:dyDescent="0.55000000000000004">
+    <row r="35" spans="1:11" x14ac:dyDescent="0.7">
       <c r="A35" s="16">
         <v>2042</v>
       </c>
@@ -21185,7 +21473,7 @@
         <v>0.73849734313688842</v>
       </c>
     </row>
-    <row r="36" spans="1:11" x14ac:dyDescent="0.55000000000000004">
+    <row r="36" spans="1:11" x14ac:dyDescent="0.7">
       <c r="A36" s="16">
         <v>2043</v>
       </c>
@@ -21230,7 +21518,7 @@
         <v>0.74618517524477745</v>
       </c>
     </row>
-    <row r="37" spans="1:11" x14ac:dyDescent="0.55000000000000004">
+    <row r="37" spans="1:11" x14ac:dyDescent="0.7">
       <c r="A37" s="16">
         <v>2044</v>
       </c>
@@ -21275,7 +21563,7 @@
         <v>0.75387300735266649</v>
       </c>
     </row>
-    <row r="38" spans="1:11" x14ac:dyDescent="0.55000000000000004">
+    <row r="38" spans="1:11" x14ac:dyDescent="0.7">
       <c r="A38" s="16">
         <v>2045</v>
       </c>
@@ -21320,7 +21608,7 @@
         <v>0.76156083946055553</v>
       </c>
     </row>
-    <row r="39" spans="1:11" x14ac:dyDescent="0.55000000000000004">
+    <row r="39" spans="1:11" x14ac:dyDescent="0.7">
       <c r="A39" s="16">
         <v>2046</v>
       </c>
@@ -21365,7 +21653,7 @@
         <v>0.76924867156844456</v>
       </c>
     </row>
-    <row r="40" spans="1:11" x14ac:dyDescent="0.55000000000000004">
+    <row r="40" spans="1:11" x14ac:dyDescent="0.7">
       <c r="A40" s="16">
         <v>2047</v>
       </c>
@@ -21410,7 +21698,7 @@
         <v>0.7769365036763336</v>
       </c>
     </row>
-    <row r="41" spans="1:11" x14ac:dyDescent="0.55000000000000004">
+    <row r="41" spans="1:11" x14ac:dyDescent="0.7">
       <c r="A41" s="16">
         <v>2048</v>
       </c>
@@ -21455,7 +21743,7 @@
         <v>0.78462433578422264</v>
       </c>
     </row>
-    <row r="42" spans="1:11" x14ac:dyDescent="0.55000000000000004">
+    <row r="42" spans="1:11" x14ac:dyDescent="0.7">
       <c r="A42" s="16">
         <v>2049</v>
       </c>
@@ -21500,7 +21788,7 @@
         <v>0.79231216789211167</v>
       </c>
     </row>
-    <row r="43" spans="1:11" x14ac:dyDescent="0.55000000000000004">
+    <row r="43" spans="1:11" x14ac:dyDescent="0.7">
       <c r="A43" s="16">
         <v>2050</v>
       </c>
@@ -21545,7 +21833,7 @@
         <v>0.80000000000000071</v>
       </c>
     </row>
-    <row r="45" spans="1:11" x14ac:dyDescent="0.55000000000000004">
+    <row r="45" spans="1:11" x14ac:dyDescent="0.7">
       <c r="A45" s="16">
         <v>2020</v>
       </c>
@@ -21590,7 +21878,7 @@
         <v>0.56936503676332895</v>
       </c>
     </row>
-    <row r="46" spans="1:11" x14ac:dyDescent="0.55000000000000004">
+    <row r="46" spans="1:11" x14ac:dyDescent="0.7">
       <c r="A46" s="16">
         <v>2050</v>
       </c>
@@ -21654,28 +21942,28 @@
       <selection activeCell="B15" sqref="B15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10" defaultRowHeight="18" x14ac:dyDescent="0.55000000000000004"/>
+  <sheetFormatPr defaultColWidth="10" defaultRowHeight="17.649999999999999" x14ac:dyDescent="0.7"/>
   <cols>
     <col min="1" max="16384" width="10" style="16"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.55000000000000004">
-      <c r="B1" s="62" t="s">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.7">
+      <c r="B1" s="90" t="s">
         <v>47</v>
       </c>
-      <c r="C1" s="62"/>
-      <c r="D1" s="62"/>
-      <c r="E1" s="62"/>
-      <c r="F1" s="62"/>
-      <c r="G1" s="63" t="s">
+      <c r="C1" s="90"/>
+      <c r="D1" s="90"/>
+      <c r="E1" s="90"/>
+      <c r="F1" s="90"/>
+      <c r="G1" s="91" t="s">
         <v>49</v>
       </c>
-      <c r="H1" s="62"/>
-      <c r="I1" s="62"/>
-      <c r="J1" s="62"/>
-      <c r="K1" s="62"/>
-    </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.55000000000000004">
+      <c r="H1" s="90"/>
+      <c r="I1" s="90"/>
+      <c r="J1" s="90"/>
+      <c r="K1" s="90"/>
+    </row>
+    <row r="2" spans="1:11" x14ac:dyDescent="0.7">
       <c r="A2" s="16" t="s">
         <v>29</v>
       </c>
@@ -21710,7 +21998,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.55000000000000004">
+    <row r="3" spans="1:11" x14ac:dyDescent="0.7">
       <c r="A3" s="16">
         <v>2010</v>
       </c>
@@ -21745,7 +22033,7 @@
         <v>0.51857825307810101</v>
       </c>
     </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.55000000000000004">
+    <row r="4" spans="1:11" x14ac:dyDescent="0.7">
       <c r="A4" s="16">
         <v>2011</v>
       </c>
@@ -21780,7 +22068,7 @@
         <v>0.51214718071078702</v>
       </c>
     </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.55000000000000004">
+    <row r="5" spans="1:11" x14ac:dyDescent="0.7">
       <c r="A5" s="16">
         <v>2012</v>
       </c>
@@ -21815,7 +22103,7 @@
         <v>0.51639781193598799</v>
       </c>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.55000000000000004">
+    <row r="6" spans="1:11" x14ac:dyDescent="0.7">
       <c r="A6" s="16">
         <v>2013</v>
       </c>
@@ -21850,7 +22138,7 @@
         <v>0.52006519397348305</v>
       </c>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.55000000000000004">
+    <row r="7" spans="1:11" x14ac:dyDescent="0.7">
       <c r="A7" s="16">
         <v>2014</v>
       </c>
@@ -21885,7 +22173,7 @@
         <v>0.51782712540092501</v>
       </c>
     </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.55000000000000004">
+    <row r="8" spans="1:11" x14ac:dyDescent="0.7">
       <c r="A8" s="16">
         <v>2015</v>
       </c>
@@ -21920,7 +22208,7 @@
         <v>0.52641634986173302</v>
       </c>
     </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.55000000000000004">
+    <row r="9" spans="1:11" x14ac:dyDescent="0.7">
       <c r="A9" s="16">
         <v>2016</v>
       </c>
@@ -21955,7 +22243,7 @@
         <v>0.52459722707906398</v>
       </c>
     </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.55000000000000004">
+    <row r="10" spans="1:11" x14ac:dyDescent="0.7">
       <c r="A10" s="16">
         <v>2017</v>
       </c>
@@ -21990,7 +22278,7 @@
         <v>0.515437750449948</v>
       </c>
     </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.55000000000000004">
+    <row r="11" spans="1:11" x14ac:dyDescent="0.7">
       <c r="A11" s="16">
         <v>2018</v>
       </c>
@@ -22025,7 +22313,7 @@
         <v>0.53404454960835501</v>
       </c>
     </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.55000000000000004">
+    <row r="12" spans="1:11" x14ac:dyDescent="0.7">
       <c r="A12" s="16">
         <v>2019</v>
       </c>
@@ -22060,7 +22348,7 @@
         <v>0.51866285234160903</v>
       </c>
     </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.55000000000000004">
+    <row r="13" spans="1:11" x14ac:dyDescent="0.7">
       <c r="A13" s="16">
         <v>2020</v>
       </c>
@@ -22095,7 +22383,7 @@
         <v>0.51934905512223195</v>
       </c>
     </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.55000000000000004">
+    <row r="14" spans="1:11" x14ac:dyDescent="0.7">
       <c r="A14" s="16">
         <v>2021</v>
       </c>
@@ -22140,7 +22428,7 @@
         <v>0.5287040866181556</v>
       </c>
     </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.55000000000000004">
+    <row r="15" spans="1:11" x14ac:dyDescent="0.7">
       <c r="A15" s="16">
         <v>2022</v>
       </c>
@@ -22185,7 +22473,7 @@
         <v>0.5380591181140808</v>
       </c>
     </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.55000000000000004">
+    <row r="16" spans="1:11" x14ac:dyDescent="0.7">
       <c r="A16" s="16">
         <v>2023</v>
       </c>
@@ -22230,7 +22518,7 @@
         <v>0.54741414961000601</v>
       </c>
     </row>
-    <row r="17" spans="1:11" x14ac:dyDescent="0.55000000000000004">
+    <row r="17" spans="1:11" x14ac:dyDescent="0.7">
       <c r="A17" s="16">
         <v>2024</v>
       </c>
@@ -22275,7 +22563,7 @@
         <v>0.55676918110593121</v>
       </c>
     </row>
-    <row r="18" spans="1:11" x14ac:dyDescent="0.55000000000000004">
+    <row r="18" spans="1:11" x14ac:dyDescent="0.7">
       <c r="A18" s="16">
         <v>2025</v>
       </c>
@@ -22320,7 +22608,7 @@
         <v>0.56612421260185641</v>
       </c>
     </row>
-    <row r="19" spans="1:11" x14ac:dyDescent="0.55000000000000004">
+    <row r="19" spans="1:11" x14ac:dyDescent="0.7">
       <c r="A19" s="16">
         <v>2026</v>
       </c>
@@ -22365,7 +22653,7 @@
         <v>0.57547924409778517</v>
       </c>
     </row>
-    <row r="20" spans="1:11" x14ac:dyDescent="0.55000000000000004">
+    <row r="20" spans="1:11" x14ac:dyDescent="0.7">
       <c r="A20" s="16">
         <v>2027</v>
       </c>
@@ -22410,7 +22698,7 @@
         <v>0.58483427559371037</v>
       </c>
     </row>
-    <row r="21" spans="1:11" x14ac:dyDescent="0.55000000000000004">
+    <row r="21" spans="1:11" x14ac:dyDescent="0.7">
       <c r="A21" s="16">
         <v>2028</v>
       </c>
@@ -22455,7 +22743,7 @@
         <v>0.59418930708963558</v>
       </c>
     </row>
-    <row r="22" spans="1:11" x14ac:dyDescent="0.55000000000000004">
+    <row r="22" spans="1:11" x14ac:dyDescent="0.7">
       <c r="A22" s="16">
         <v>2029</v>
       </c>
@@ -22500,7 +22788,7 @@
         <v>0.60354433858556078</v>
       </c>
     </row>
-    <row r="23" spans="1:11" x14ac:dyDescent="0.55000000000000004">
+    <row r="23" spans="1:11" x14ac:dyDescent="0.7">
       <c r="A23" s="16">
         <v>2030</v>
       </c>
@@ -22545,7 +22833,7 @@
         <v>0.61289937008148598</v>
       </c>
     </row>
-    <row r="24" spans="1:11" x14ac:dyDescent="0.55000000000000004">
+    <row r="24" spans="1:11" x14ac:dyDescent="0.7">
       <c r="A24" s="16">
         <v>2031</v>
       </c>
@@ -22590,7 +22878,7 @@
         <v>0.62225440157741119</v>
       </c>
     </row>
-    <row r="25" spans="1:11" x14ac:dyDescent="0.55000000000000004">
+    <row r="25" spans="1:11" x14ac:dyDescent="0.7">
       <c r="A25" s="16">
         <v>2032</v>
       </c>
@@ -22635,7 +22923,7 @@
         <v>0.63160943307333639</v>
       </c>
     </row>
-    <row r="26" spans="1:11" x14ac:dyDescent="0.55000000000000004">
+    <row r="26" spans="1:11" x14ac:dyDescent="0.7">
       <c r="A26" s="16">
         <v>2033</v>
       </c>
@@ -22680,7 +22968,7 @@
         <v>0.64096446456926159</v>
       </c>
     </row>
-    <row r="27" spans="1:11" x14ac:dyDescent="0.55000000000000004">
+    <row r="27" spans="1:11" x14ac:dyDescent="0.7">
       <c r="A27" s="16">
         <v>2034</v>
       </c>
@@ -22725,7 +23013,7 @@
         <v>0.6503194960651868</v>
       </c>
     </row>
-    <row r="28" spans="1:11" x14ac:dyDescent="0.55000000000000004">
+    <row r="28" spans="1:11" x14ac:dyDescent="0.7">
       <c r="A28" s="16">
         <v>2035</v>
       </c>
@@ -22770,7 +23058,7 @@
         <v>0.65967452756111555</v>
       </c>
     </row>
-    <row r="29" spans="1:11" x14ac:dyDescent="0.55000000000000004">
+    <row r="29" spans="1:11" x14ac:dyDescent="0.7">
       <c r="A29" s="16">
         <v>2036</v>
       </c>
@@ -22815,7 +23103,7 @@
         <v>0.66902955905704076</v>
       </c>
     </row>
-    <row r="30" spans="1:11" x14ac:dyDescent="0.55000000000000004">
+    <row r="30" spans="1:11" x14ac:dyDescent="0.7">
       <c r="A30" s="16">
         <v>2037</v>
       </c>
@@ -22860,7 +23148,7 @@
         <v>0.67838459055296596</v>
       </c>
     </row>
-    <row r="31" spans="1:11" x14ac:dyDescent="0.55000000000000004">
+    <row r="31" spans="1:11" x14ac:dyDescent="0.7">
       <c r="A31" s="16">
         <v>2038</v>
       </c>
@@ -22905,7 +23193,7 @@
         <v>0.68773962204889116</v>
       </c>
     </row>
-    <row r="32" spans="1:11" x14ac:dyDescent="0.55000000000000004">
+    <row r="32" spans="1:11" x14ac:dyDescent="0.7">
       <c r="A32" s="16">
         <v>2039</v>
       </c>
@@ -22950,7 +23238,7 @@
         <v>0.69709465354481637</v>
       </c>
     </row>
-    <row r="33" spans="1:11" x14ac:dyDescent="0.55000000000000004">
+    <row r="33" spans="1:11" x14ac:dyDescent="0.7">
       <c r="A33" s="16">
         <v>2040</v>
       </c>
@@ -22995,7 +23283,7 @@
         <v>0.70644968504074157</v>
       </c>
     </row>
-    <row r="34" spans="1:11" x14ac:dyDescent="0.55000000000000004">
+    <row r="34" spans="1:11" x14ac:dyDescent="0.7">
       <c r="A34" s="16">
         <v>2041</v>
       </c>
@@ -23040,7 +23328,7 @@
         <v>0.71580471653666677</v>
       </c>
     </row>
-    <row r="35" spans="1:11" x14ac:dyDescent="0.55000000000000004">
+    <row r="35" spans="1:11" x14ac:dyDescent="0.7">
       <c r="A35" s="16">
         <v>2042</v>
       </c>
@@ -23085,7 +23373,7 @@
         <v>0.72515974803259198</v>
       </c>
     </row>
-    <row r="36" spans="1:11" x14ac:dyDescent="0.55000000000000004">
+    <row r="36" spans="1:11" x14ac:dyDescent="0.7">
       <c r="A36" s="16">
         <v>2043</v>
       </c>
@@ -23130,7 +23418,7 @@
         <v>0.73451477952851718</v>
       </c>
     </row>
-    <row r="37" spans="1:11" x14ac:dyDescent="0.55000000000000004">
+    <row r="37" spans="1:11" x14ac:dyDescent="0.7">
       <c r="A37" s="16">
         <v>2044</v>
       </c>
@@ -23175,7 +23463,7 @@
         <v>0.74386981102444594</v>
       </c>
     </row>
-    <row r="38" spans="1:11" x14ac:dyDescent="0.55000000000000004">
+    <row r="38" spans="1:11" x14ac:dyDescent="0.7">
       <c r="A38" s="16">
         <v>2045</v>
       </c>
@@ -23220,7 +23508,7 @@
         <v>0.75322484252037114</v>
       </c>
     </row>
-    <row r="39" spans="1:11" x14ac:dyDescent="0.55000000000000004">
+    <row r="39" spans="1:11" x14ac:dyDescent="0.7">
       <c r="A39" s="16">
         <v>2046</v>
       </c>
@@ -23265,7 +23553,7 @@
         <v>0.76257987401629634</v>
       </c>
     </row>
-    <row r="40" spans="1:11" x14ac:dyDescent="0.55000000000000004">
+    <row r="40" spans="1:11" x14ac:dyDescent="0.7">
       <c r="A40" s="16">
         <v>2047</v>
       </c>
@@ -23310,7 +23598,7 @@
         <v>0.77193490551222155</v>
       </c>
     </row>
-    <row r="41" spans="1:11" x14ac:dyDescent="0.55000000000000004">
+    <row r="41" spans="1:11" x14ac:dyDescent="0.7">
       <c r="A41" s="16">
         <v>2048</v>
       </c>
@@ -23355,7 +23643,7 @@
         <v>0.78128993700814675</v>
       </c>
     </row>
-    <row r="42" spans="1:11" x14ac:dyDescent="0.55000000000000004">
+    <row r="42" spans="1:11" x14ac:dyDescent="0.7">
       <c r="A42" s="16">
         <v>2049</v>
       </c>
@@ -23400,7 +23688,7 @@
         <v>0.79064496850407195</v>
       </c>
     </row>
-    <row r="43" spans="1:11" x14ac:dyDescent="0.55000000000000004">
+    <row r="43" spans="1:11" x14ac:dyDescent="0.7">
       <c r="A43" s="16">
         <v>2050</v>
       </c>
@@ -23445,7 +23733,7 @@
         <v>0.79999999999999716</v>
       </c>
     </row>
-    <row r="45" spans="1:11" x14ac:dyDescent="0.55000000000000004">
+    <row r="45" spans="1:11" x14ac:dyDescent="0.7">
       <c r="A45" s="16">
         <v>2020</v>
       </c>
@@ -23490,7 +23778,7 @@
         <v>0.51934905512223195</v>
       </c>
     </row>
-    <row r="46" spans="1:11" x14ac:dyDescent="0.55000000000000004">
+    <row r="46" spans="1:11" x14ac:dyDescent="0.7">
       <c r="A46" s="16">
         <v>2050</v>
       </c>
@@ -23554,44 +23842,44 @@
       <selection activeCell="R11" sqref="R11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10" defaultRowHeight="18" x14ac:dyDescent="0.55000000000000004"/>
+  <sheetFormatPr defaultColWidth="10" defaultRowHeight="17.649999999999999" x14ac:dyDescent="0.7"/>
   <cols>
     <col min="1" max="16384" width="10" style="16"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:27" x14ac:dyDescent="0.55000000000000004">
-      <c r="B1" s="64" t="s">
-        <v>0</v>
-      </c>
-      <c r="C1" s="64"/>
-      <c r="D1" s="64"/>
-      <c r="E1" s="64"/>
-      <c r="F1" s="64"/>
-      <c r="G1" s="64"/>
-      <c r="H1" s="64"/>
-      <c r="I1" s="64"/>
-      <c r="J1" s="64"/>
-      <c r="K1" s="64"/>
-      <c r="L1" s="64"/>
-      <c r="M1" s="64"/>
-      <c r="N1" s="65"/>
-      <c r="O1" s="64" t="s">
+    <row r="1" spans="1:27" x14ac:dyDescent="0.7">
+      <c r="B1" s="92" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="92"/>
+      <c r="D1" s="92"/>
+      <c r="E1" s="92"/>
+      <c r="F1" s="92"/>
+      <c r="G1" s="92"/>
+      <c r="H1" s="92"/>
+      <c r="I1" s="92"/>
+      <c r="J1" s="92"/>
+      <c r="K1" s="92"/>
+      <c r="L1" s="92"/>
+      <c r="M1" s="92"/>
+      <c r="N1" s="93"/>
+      <c r="O1" s="92" t="s">
         <v>6</v>
       </c>
-      <c r="P1" s="64"/>
-      <c r="Q1" s="64"/>
-      <c r="R1" s="64"/>
-      <c r="S1" s="64"/>
-      <c r="T1" s="64"/>
-      <c r="U1" s="64"/>
-      <c r="V1" s="64"/>
-      <c r="W1" s="64"/>
-      <c r="X1" s="64"/>
-      <c r="Y1" s="64"/>
-      <c r="Z1" s="64"/>
-      <c r="AA1" s="64"/>
-    </row>
-    <row r="2" spans="1:27" x14ac:dyDescent="0.55000000000000004">
+      <c r="P1" s="92"/>
+      <c r="Q1" s="92"/>
+      <c r="R1" s="92"/>
+      <c r="S1" s="92"/>
+      <c r="T1" s="92"/>
+      <c r="U1" s="92"/>
+      <c r="V1" s="92"/>
+      <c r="W1" s="92"/>
+      <c r="X1" s="92"/>
+      <c r="Y1" s="92"/>
+      <c r="Z1" s="92"/>
+      <c r="AA1" s="92"/>
+    </row>
+    <row r="2" spans="1:27" x14ac:dyDescent="0.7">
       <c r="A2" s="16" t="s">
         <v>29</v>
       </c>
@@ -23674,7 +23962,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="3" spans="1:27" x14ac:dyDescent="0.55000000000000004">
+    <row r="3" spans="1:27" x14ac:dyDescent="0.7">
       <c r="A3" s="16">
         <v>2010</v>
       </c>
@@ -23757,7 +24045,7 @@
         <v>3.0992955510281599E-3</v>
       </c>
     </row>
-    <row r="4" spans="1:27" x14ac:dyDescent="0.55000000000000004">
+    <row r="4" spans="1:27" x14ac:dyDescent="0.7">
       <c r="A4" s="16">
         <v>2011</v>
       </c>
@@ -23840,7 +24128,7 @@
         <v>4.4683462132635698E-3</v>
       </c>
     </row>
-    <row r="5" spans="1:27" x14ac:dyDescent="0.55000000000000004">
+    <row r="5" spans="1:27" x14ac:dyDescent="0.7">
       <c r="A5" s="16">
         <v>2012</v>
       </c>
@@ -23923,7 +24211,7 @@
         <v>6.1751163261933098E-3</v>
       </c>
     </row>
-    <row r="6" spans="1:27" x14ac:dyDescent="0.55000000000000004">
+    <row r="6" spans="1:27" x14ac:dyDescent="0.7">
       <c r="A6" s="16">
         <v>2013</v>
       </c>
@@ -24006,7 +24294,7 @@
         <v>1.19610270564952E-2</v>
       </c>
     </row>
-    <row r="7" spans="1:27" x14ac:dyDescent="0.55000000000000004">
+    <row r="7" spans="1:27" x14ac:dyDescent="0.7">
       <c r="A7" s="16">
         <v>2014</v>
       </c>
@@ -24089,7 +24377,7 @@
         <v>2.1832204403918601E-2</v>
       </c>
     </row>
-    <row r="8" spans="1:27" x14ac:dyDescent="0.55000000000000004">
+    <row r="8" spans="1:27" x14ac:dyDescent="0.7">
       <c r="A8" s="16">
         <v>2015</v>
       </c>
@@ -24172,7 +24460,7 @@
         <v>3.3671893745307602E-2</v>
       </c>
     </row>
-    <row r="9" spans="1:27" x14ac:dyDescent="0.55000000000000004">
+    <row r="9" spans="1:27" x14ac:dyDescent="0.7">
       <c r="A9" s="16">
         <v>2016</v>
       </c>
@@ -24255,7 +24543,7 @@
         <v>4.3832795333288599E-2</v>
       </c>
     </row>
-    <row r="10" spans="1:27" x14ac:dyDescent="0.55000000000000004">
+    <row r="10" spans="1:27" x14ac:dyDescent="0.7">
       <c r="A10" s="16">
         <v>2017</v>
       </c>
@@ -24338,7 +24626,7 @@
         <v>5.2301517502854E-2</v>
       </c>
     </row>
-    <row r="11" spans="1:27" x14ac:dyDescent="0.55000000000000004">
+    <row r="11" spans="1:27" x14ac:dyDescent="0.7">
       <c r="A11" s="16">
         <v>2018</v>
       </c>
@@ -24421,7 +24709,7 @@
         <v>6.01445165203554E-2</v>
       </c>
     </row>
-    <row r="12" spans="1:27" x14ac:dyDescent="0.55000000000000004">
+    <row r="12" spans="1:27" x14ac:dyDescent="0.7">
       <c r="A12" s="16">
         <v>2019</v>
       </c>
@@ -24504,7 +24792,7 @@
         <v>6.8415899088964699E-2</v>
       </c>
     </row>
-    <row r="13" spans="1:27" x14ac:dyDescent="0.55000000000000004">
+    <row r="13" spans="1:27" x14ac:dyDescent="0.7">
       <c r="A13" s="16">
         <v>2020</v>
       </c>
@@ -24587,7 +24875,7 @@
         <v>7.9714432296606602E-2</v>
       </c>
     </row>
-    <row r="14" spans="1:27" x14ac:dyDescent="0.55000000000000004">
+    <row r="14" spans="1:27" x14ac:dyDescent="0.7">
       <c r="A14" s="16">
         <v>2021</v>
       </c>
@@ -24696,7 +24984,7 @@
         <v>9.0390617886715319E-2</v>
       </c>
     </row>
-    <row r="15" spans="1:27" x14ac:dyDescent="0.55000000000000004">
+    <row r="15" spans="1:27" x14ac:dyDescent="0.7">
       <c r="A15" s="16">
         <v>2022</v>
       </c>
@@ -24805,7 +25093,7 @@
         <v>0.10106680347682939</v>
       </c>
     </row>
-    <row r="16" spans="1:27" x14ac:dyDescent="0.55000000000000004">
+    <row r="16" spans="1:27" x14ac:dyDescent="0.7">
       <c r="A16" s="16">
         <v>2023</v>
       </c>
@@ -24914,7 +25202,7 @@
         <v>0.11174298906694347</v>
       </c>
     </row>
-    <row r="17" spans="1:27" x14ac:dyDescent="0.55000000000000004">
+    <row r="17" spans="1:27" x14ac:dyDescent="0.7">
       <c r="A17" s="16">
         <v>2024</v>
       </c>
@@ -25023,7 +25311,7 @@
         <v>0.12241917465705399</v>
       </c>
     </row>
-    <row r="18" spans="1:27" x14ac:dyDescent="0.55000000000000004">
+    <row r="18" spans="1:27" x14ac:dyDescent="0.7">
       <c r="A18" s="16">
         <v>2025</v>
       </c>
@@ -25132,7 +25420,7 @@
         <v>0.13309536024716806</v>
       </c>
     </row>
-    <row r="19" spans="1:27" x14ac:dyDescent="0.55000000000000004">
+    <row r="19" spans="1:27" x14ac:dyDescent="0.7">
       <c r="A19" s="16">
         <v>2026</v>
       </c>
@@ -25241,7 +25529,7 @@
         <v>0.14377154583728213</v>
       </c>
     </row>
-    <row r="20" spans="1:27" x14ac:dyDescent="0.55000000000000004">
+    <row r="20" spans="1:27" x14ac:dyDescent="0.7">
       <c r="A20" s="16">
         <v>2027</v>
       </c>
@@ -25350,7 +25638,7 @@
         <v>0.15444773142739621</v>
       </c>
     </row>
-    <row r="21" spans="1:27" x14ac:dyDescent="0.55000000000000004">
+    <row r="21" spans="1:27" x14ac:dyDescent="0.7">
       <c r="A21" s="16">
         <v>2028</v>
       </c>
@@ -25459,7 +25747,7 @@
         <v>0.16512391701750673</v>
       </c>
     </row>
-    <row r="22" spans="1:27" x14ac:dyDescent="0.55000000000000004">
+    <row r="22" spans="1:27" x14ac:dyDescent="0.7">
       <c r="A22" s="16">
         <v>2029</v>
       </c>
@@ -25568,7 +25856,7 @@
         <v>0.1758001026076208</v>
       </c>
     </row>
-    <row r="23" spans="1:27" x14ac:dyDescent="0.55000000000000004">
+    <row r="23" spans="1:27" x14ac:dyDescent="0.7">
       <c r="A23" s="16">
         <v>2030</v>
       </c>
@@ -25677,7 +25965,7 @@
         <v>0.18647628819773487</v>
       </c>
     </row>
-    <row r="24" spans="1:27" x14ac:dyDescent="0.55000000000000004">
+    <row r="24" spans="1:27" x14ac:dyDescent="0.7">
       <c r="A24" s="16">
         <v>2031</v>
       </c>
@@ -25786,7 +26074,7 @@
         <v>0.19715247378784895</v>
       </c>
     </row>
-    <row r="25" spans="1:27" x14ac:dyDescent="0.55000000000000004">
+    <row r="25" spans="1:27" x14ac:dyDescent="0.7">
       <c r="A25" s="16">
         <v>2032</v>
       </c>
@@ -25895,7 +26183,7 @@
         <v>0.20782865937795947</v>
       </c>
     </row>
-    <row r="26" spans="1:27" x14ac:dyDescent="0.55000000000000004">
+    <row r="26" spans="1:27" x14ac:dyDescent="0.7">
       <c r="A26" s="16">
         <v>2033</v>
       </c>
@@ -26004,7 +26292,7 @@
         <v>0.21850484496807354</v>
       </c>
     </row>
-    <row r="27" spans="1:27" x14ac:dyDescent="0.55000000000000004">
+    <row r="27" spans="1:27" x14ac:dyDescent="0.7">
       <c r="A27" s="16">
         <v>2034</v>
       </c>
@@ -26113,7 +26401,7 @@
         <v>0.22918103055818762</v>
       </c>
     </row>
-    <row r="28" spans="1:27" x14ac:dyDescent="0.55000000000000004">
+    <row r="28" spans="1:27" x14ac:dyDescent="0.7">
       <c r="A28" s="16">
         <v>2035</v>
       </c>
@@ -26222,7 +26510,7 @@
         <v>0.23985721614830169</v>
       </c>
     </row>
-    <row r="29" spans="1:27" x14ac:dyDescent="0.55000000000000004">
+    <row r="29" spans="1:27" x14ac:dyDescent="0.7">
       <c r="A29" s="16">
         <v>2036</v>
       </c>
@@ -26331,7 +26619,7 @@
         <v>0.25053340173841221</v>
       </c>
     </row>
-    <row r="30" spans="1:27" x14ac:dyDescent="0.55000000000000004">
+    <row r="30" spans="1:27" x14ac:dyDescent="0.7">
       <c r="A30" s="16">
         <v>2037</v>
       </c>
@@ -26440,7 +26728,7 @@
         <v>0.26120958732852628</v>
       </c>
     </row>
-    <row r="31" spans="1:27" x14ac:dyDescent="0.55000000000000004">
+    <row r="31" spans="1:27" x14ac:dyDescent="0.7">
       <c r="A31" s="16">
         <v>2038</v>
       </c>
@@ -26549,7 +26837,7 @@
         <v>0.27188577291864036</v>
       </c>
     </row>
-    <row r="32" spans="1:27" x14ac:dyDescent="0.55000000000000004">
+    <row r="32" spans="1:27" x14ac:dyDescent="0.7">
       <c r="A32" s="16">
         <v>2039</v>
       </c>
@@ -26658,7 +26946,7 @@
         <v>0.28256195850875088</v>
       </c>
     </row>
-    <row r="33" spans="1:27" x14ac:dyDescent="0.55000000000000004">
+    <row r="33" spans="1:27" x14ac:dyDescent="0.7">
       <c r="A33" s="16">
         <v>2040</v>
       </c>
@@ -26767,7 +27055,7 @@
         <v>0.29323814409886495</v>
       </c>
     </row>
-    <row r="34" spans="1:27" x14ac:dyDescent="0.55000000000000004">
+    <row r="34" spans="1:27" x14ac:dyDescent="0.7">
       <c r="A34" s="16">
         <v>2041</v>
       </c>
@@ -26876,7 +27164,7 @@
         <v>0.30391432968897902</v>
       </c>
     </row>
-    <row r="35" spans="1:27" x14ac:dyDescent="0.55000000000000004">
+    <row r="35" spans="1:27" x14ac:dyDescent="0.7">
       <c r="A35" s="16">
         <v>2042</v>
       </c>
@@ -26985,7 +27273,7 @@
         <v>0.3145905152790931</v>
       </c>
     </row>
-    <row r="36" spans="1:27" x14ac:dyDescent="0.55000000000000004">
+    <row r="36" spans="1:27" x14ac:dyDescent="0.7">
       <c r="A36" s="16">
         <v>2043</v>
       </c>
@@ -27094,7 +27382,7 @@
         <v>0.32526670086920362</v>
       </c>
     </row>
-    <row r="37" spans="1:27" x14ac:dyDescent="0.55000000000000004">
+    <row r="37" spans="1:27" x14ac:dyDescent="0.7">
       <c r="A37" s="16">
         <v>2044</v>
       </c>
@@ -27203,7 +27491,7 @@
         <v>0.33594288645931769</v>
       </c>
     </row>
-    <row r="38" spans="1:27" x14ac:dyDescent="0.55000000000000004">
+    <row r="38" spans="1:27" x14ac:dyDescent="0.7">
       <c r="A38" s="16">
         <v>2045</v>
       </c>
@@ -27312,7 +27600,7 @@
         <v>0.34661907204943176</v>
       </c>
     </row>
-    <row r="39" spans="1:27" x14ac:dyDescent="0.55000000000000004">
+    <row r="39" spans="1:27" x14ac:dyDescent="0.7">
       <c r="A39" s="16">
         <v>2046</v>
       </c>
@@ -27421,7 +27709,7 @@
         <v>0.35729525763954584</v>
       </c>
     </row>
-    <row r="40" spans="1:27" x14ac:dyDescent="0.55000000000000004">
+    <row r="40" spans="1:27" x14ac:dyDescent="0.7">
       <c r="A40" s="16">
         <v>2047</v>
       </c>
@@ -27530,7 +27818,7 @@
         <v>0.36797144322965636</v>
       </c>
     </row>
-    <row r="41" spans="1:27" x14ac:dyDescent="0.55000000000000004">
+    <row r="41" spans="1:27" x14ac:dyDescent="0.7">
       <c r="A41" s="16">
         <v>2048</v>
       </c>
@@ -27639,7 +27927,7 @@
         <v>0.37864762881977043</v>
       </c>
     </row>
-    <row r="42" spans="1:27" x14ac:dyDescent="0.55000000000000004">
+    <row r="42" spans="1:27" x14ac:dyDescent="0.7">
       <c r="A42" s="16">
         <v>2049</v>
       </c>
@@ -27748,7 +28036,7 @@
         <v>0.38932381440988451</v>
       </c>
     </row>
-    <row r="43" spans="1:27" x14ac:dyDescent="0.55000000000000004">
+    <row r="43" spans="1:27" x14ac:dyDescent="0.7">
       <c r="A43" s="16">
         <v>2050</v>
       </c>
@@ -27857,7 +28145,7 @@
         <v>0.39999999999999503</v>
       </c>
     </row>
-    <row r="45" spans="1:27" x14ac:dyDescent="0.55000000000000004">
+    <row r="45" spans="1:27" x14ac:dyDescent="0.7">
       <c r="A45" s="16">
         <v>2020</v>
       </c>
@@ -27966,7 +28254,7 @@
         <v>7.9714432296606602E-2</v>
       </c>
     </row>
-    <row r="46" spans="1:27" x14ac:dyDescent="0.55000000000000004">
+    <row r="46" spans="1:27" x14ac:dyDescent="0.7">
       <c r="A46" s="16">
         <v>2050</v>
       </c>
@@ -28094,12 +28382,12 @@
       <selection activeCell="Q35" sqref="Q35"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10" defaultRowHeight="18" x14ac:dyDescent="0.55000000000000004"/>
+  <sheetFormatPr defaultColWidth="10" defaultRowHeight="17.649999999999999" x14ac:dyDescent="0.7"/>
   <cols>
     <col min="1" max="16384" width="10" style="16"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" x14ac:dyDescent="0.55000000000000004">
+    <row r="1" spans="1:14" x14ac:dyDescent="0.7">
       <c r="A1" s="16" t="s">
         <v>29</v>
       </c>
@@ -28143,7 +28431,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="2" spans="1:14" x14ac:dyDescent="0.55000000000000004">
+    <row r="2" spans="1:14" x14ac:dyDescent="0.7">
       <c r="A2" s="16">
         <v>2010</v>
       </c>
@@ -28187,7 +28475,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:14" x14ac:dyDescent="0.55000000000000004">
+    <row r="3" spans="1:14" x14ac:dyDescent="0.7">
       <c r="A3" s="16">
         <v>2011</v>
       </c>
@@ -28231,7 +28519,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:14" x14ac:dyDescent="0.55000000000000004">
+    <row r="4" spans="1:14" x14ac:dyDescent="0.7">
       <c r="A4" s="16">
         <v>2012</v>
       </c>
@@ -28275,7 +28563,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:14" x14ac:dyDescent="0.55000000000000004">
+    <row r="5" spans="1:14" x14ac:dyDescent="0.7">
       <c r="A5" s="16">
         <v>2013</v>
       </c>
@@ -28319,7 +28607,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:14" x14ac:dyDescent="0.55000000000000004">
+    <row r="6" spans="1:14" x14ac:dyDescent="0.7">
       <c r="A6" s="16">
         <v>2014</v>
       </c>
@@ -28363,7 +28651,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:14" x14ac:dyDescent="0.55000000000000004">
+    <row r="7" spans="1:14" x14ac:dyDescent="0.7">
       <c r="A7" s="16">
         <v>2015</v>
       </c>
@@ -28407,7 +28695,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="8" spans="1:14" x14ac:dyDescent="0.55000000000000004">
+    <row r="8" spans="1:14" x14ac:dyDescent="0.7">
       <c r="A8" s="16">
         <v>2016</v>
       </c>
@@ -28451,7 +28739,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="9" spans="1:14" x14ac:dyDescent="0.55000000000000004">
+    <row r="9" spans="1:14" x14ac:dyDescent="0.7">
       <c r="A9" s="16">
         <v>2017</v>
       </c>
@@ -28495,7 +28783,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="10" spans="1:14" x14ac:dyDescent="0.55000000000000004">
+    <row r="10" spans="1:14" x14ac:dyDescent="0.7">
       <c r="A10" s="16">
         <v>2018</v>
       </c>
@@ -28539,7 +28827,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="11" spans="1:14" x14ac:dyDescent="0.55000000000000004">
+    <row r="11" spans="1:14" x14ac:dyDescent="0.7">
       <c r="A11" s="16">
         <v>2019</v>
       </c>
@@ -28583,7 +28871,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="12" spans="1:14" x14ac:dyDescent="0.55000000000000004">
+    <row r="12" spans="1:14" x14ac:dyDescent="0.7">
       <c r="A12" s="16">
         <v>2020</v>
       </c>
@@ -28627,7 +28915,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="13" spans="1:14" x14ac:dyDescent="0.55000000000000004">
+    <row r="13" spans="1:14" x14ac:dyDescent="0.7">
       <c r="A13" s="16">
         <v>2021</v>
       </c>
@@ -28671,7 +28959,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="14" spans="1:14" x14ac:dyDescent="0.55000000000000004">
+    <row r="14" spans="1:14" x14ac:dyDescent="0.7">
       <c r="A14" s="16">
         <v>2022</v>
       </c>
@@ -28715,7 +29003,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="15" spans="1:14" x14ac:dyDescent="0.55000000000000004">
+    <row r="15" spans="1:14" x14ac:dyDescent="0.7">
       <c r="A15" s="16">
         <v>2023</v>
       </c>
@@ -28759,7 +29047,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="16" spans="1:14" x14ac:dyDescent="0.55000000000000004">
+    <row r="16" spans="1:14" x14ac:dyDescent="0.7">
       <c r="A16" s="16">
         <v>2024</v>
       </c>
@@ -28803,7 +29091,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="17" spans="1:14" x14ac:dyDescent="0.55000000000000004">
+    <row r="17" spans="1:14" x14ac:dyDescent="0.7">
       <c r="A17" s="16">
         <v>2025</v>
       </c>
@@ -28847,7 +29135,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="18" spans="1:14" x14ac:dyDescent="0.55000000000000004">
+    <row r="18" spans="1:14" x14ac:dyDescent="0.7">
       <c r="A18" s="16">
         <v>2026</v>
       </c>
@@ -28891,7 +29179,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="19" spans="1:14" x14ac:dyDescent="0.55000000000000004">
+    <row r="19" spans="1:14" x14ac:dyDescent="0.7">
       <c r="A19" s="16">
         <v>2027</v>
       </c>
@@ -28935,7 +29223,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="20" spans="1:14" x14ac:dyDescent="0.55000000000000004">
+    <row r="20" spans="1:14" x14ac:dyDescent="0.7">
       <c r="A20" s="16">
         <v>2028</v>
       </c>
@@ -28979,7 +29267,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="21" spans="1:14" x14ac:dyDescent="0.55000000000000004">
+    <row r="21" spans="1:14" x14ac:dyDescent="0.7">
       <c r="A21" s="16">
         <v>2029</v>
       </c>
@@ -29023,7 +29311,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="22" spans="1:14" x14ac:dyDescent="0.55000000000000004">
+    <row r="22" spans="1:14" x14ac:dyDescent="0.7">
       <c r="A22" s="16">
         <v>2030</v>
       </c>
@@ -29067,7 +29355,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="23" spans="1:14" x14ac:dyDescent="0.55000000000000004">
+    <row r="23" spans="1:14" x14ac:dyDescent="0.7">
       <c r="A23" s="16">
         <v>2031</v>
       </c>
@@ -29111,7 +29399,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="24" spans="1:14" x14ac:dyDescent="0.55000000000000004">
+    <row r="24" spans="1:14" x14ac:dyDescent="0.7">
       <c r="A24" s="16">
         <v>2032</v>
       </c>
@@ -29155,7 +29443,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="25" spans="1:14" x14ac:dyDescent="0.55000000000000004">
+    <row r="25" spans="1:14" x14ac:dyDescent="0.7">
       <c r="A25" s="16">
         <v>2033</v>
       </c>
@@ -29199,7 +29487,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="26" spans="1:14" x14ac:dyDescent="0.55000000000000004">
+    <row r="26" spans="1:14" x14ac:dyDescent="0.7">
       <c r="A26" s="16">
         <v>2034</v>
       </c>
@@ -29243,7 +29531,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="27" spans="1:14" x14ac:dyDescent="0.55000000000000004">
+    <row r="27" spans="1:14" x14ac:dyDescent="0.7">
       <c r="A27" s="16">
         <v>2035</v>
       </c>
@@ -29287,7 +29575,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="28" spans="1:14" x14ac:dyDescent="0.55000000000000004">
+    <row r="28" spans="1:14" x14ac:dyDescent="0.7">
       <c r="A28" s="16">
         <v>2036</v>
       </c>
@@ -29331,7 +29619,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="29" spans="1:14" x14ac:dyDescent="0.55000000000000004">
+    <row r="29" spans="1:14" x14ac:dyDescent="0.7">
       <c r="A29" s="16">
         <v>2037</v>
       </c>
@@ -29375,7 +29663,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="30" spans="1:14" x14ac:dyDescent="0.55000000000000004">
+    <row r="30" spans="1:14" x14ac:dyDescent="0.7">
       <c r="A30" s="16">
         <v>2038</v>
       </c>
@@ -29419,7 +29707,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="31" spans="1:14" x14ac:dyDescent="0.55000000000000004">
+    <row r="31" spans="1:14" x14ac:dyDescent="0.7">
       <c r="A31" s="16">
         <v>2039</v>
       </c>
@@ -29463,7 +29751,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="32" spans="1:14" x14ac:dyDescent="0.55000000000000004">
+    <row r="32" spans="1:14" x14ac:dyDescent="0.7">
       <c r="A32" s="16">
         <v>2040</v>
       </c>
@@ -29507,7 +29795,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="33" spans="1:14" x14ac:dyDescent="0.55000000000000004">
+    <row r="33" spans="1:14" x14ac:dyDescent="0.7">
       <c r="A33" s="16">
         <v>2041</v>
       </c>
@@ -29551,7 +29839,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="34" spans="1:14" x14ac:dyDescent="0.55000000000000004">
+    <row r="34" spans="1:14" x14ac:dyDescent="0.7">
       <c r="A34" s="16">
         <v>2042</v>
       </c>
@@ -29595,7 +29883,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="35" spans="1:14" x14ac:dyDescent="0.55000000000000004">
+    <row r="35" spans="1:14" x14ac:dyDescent="0.7">
       <c r="A35" s="16">
         <v>2043</v>
       </c>
@@ -29639,7 +29927,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="36" spans="1:14" x14ac:dyDescent="0.55000000000000004">
+    <row r="36" spans="1:14" x14ac:dyDescent="0.7">
       <c r="A36" s="16">
         <v>2044</v>
       </c>
@@ -29683,7 +29971,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="37" spans="1:14" x14ac:dyDescent="0.55000000000000004">
+    <row r="37" spans="1:14" x14ac:dyDescent="0.7">
       <c r="A37" s="16">
         <v>2045</v>
       </c>
@@ -29727,7 +30015,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="38" spans="1:14" x14ac:dyDescent="0.55000000000000004">
+    <row r="38" spans="1:14" x14ac:dyDescent="0.7">
       <c r="A38" s="16">
         <v>2046</v>
       </c>
@@ -29771,7 +30059,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="39" spans="1:14" x14ac:dyDescent="0.55000000000000004">
+    <row r="39" spans="1:14" x14ac:dyDescent="0.7">
       <c r="A39" s="16">
         <v>2047</v>
       </c>
@@ -29815,7 +30103,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="40" spans="1:14" x14ac:dyDescent="0.55000000000000004">
+    <row r="40" spans="1:14" x14ac:dyDescent="0.7">
       <c r="A40" s="16">
         <v>2048</v>
       </c>
@@ -29859,7 +30147,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="41" spans="1:14" x14ac:dyDescent="0.55000000000000004">
+    <row r="41" spans="1:14" x14ac:dyDescent="0.7">
       <c r="A41" s="16">
         <v>2049</v>
       </c>
@@ -29903,7 +30191,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="42" spans="1:14" x14ac:dyDescent="0.55000000000000004">
+    <row r="42" spans="1:14" x14ac:dyDescent="0.7">
       <c r="A42" s="16">
         <v>2050</v>
       </c>
@@ -29962,12 +30250,12 @@
       <selection activeCell="I3" sqref="I3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10" defaultRowHeight="18" x14ac:dyDescent="0.55000000000000004"/>
+  <sheetFormatPr defaultColWidth="10" defaultRowHeight="17.649999999999999" x14ac:dyDescent="0.7"/>
   <cols>
     <col min="1" max="16384" width="10" style="16"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" x14ac:dyDescent="0.55000000000000004">
+    <row r="1" spans="1:13" x14ac:dyDescent="0.7">
       <c r="A1" s="16" t="s">
         <v>12</v>
       </c>
@@ -30008,7 +30296,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="2" spans="1:13" x14ac:dyDescent="0.55000000000000004">
+    <row r="2" spans="1:13" x14ac:dyDescent="0.7">
       <c r="A2" s="16">
         <v>94.6</v>
       </c>
@@ -30064,31 +30352,31 @@
       <selection activeCell="F13" sqref="F13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.55000000000000004"/>
+  <sheetFormatPr defaultRowHeight="17.649999999999999" x14ac:dyDescent="0.7"/>
   <cols>
-    <col min="3" max="3" width="13.33203125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="10.83203125" customWidth="1"/>
-    <col min="8" max="8" width="13.33203125" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="11.58203125" customWidth="1"/>
+    <col min="3" max="3" width="13.3125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="10.8125" customWidth="1"/>
+    <col min="8" max="8" width="13.3125" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="11.5625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" x14ac:dyDescent="0.55000000000000004">
-      <c r="C1" s="57" t="s">
-        <v>0</v>
-      </c>
-      <c r="D1" s="57"/>
-      <c r="E1" s="57"/>
-      <c r="F1" s="57"/>
-      <c r="G1" s="57"/>
-      <c r="H1" s="57" t="s">
+    <row r="1" spans="1:12" x14ac:dyDescent="0.7">
+      <c r="C1" s="86" t="s">
+        <v>0</v>
+      </c>
+      <c r="D1" s="86"/>
+      <c r="E1" s="86"/>
+      <c r="F1" s="86"/>
+      <c r="G1" s="86"/>
+      <c r="H1" s="86" t="s">
         <v>6</v>
       </c>
-      <c r="I1" s="57"/>
-      <c r="J1" s="57"/>
-      <c r="K1" s="57"/>
-      <c r="L1" s="57"/>
-    </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.55000000000000004">
+      <c r="I1" s="86"/>
+      <c r="J1" s="86"/>
+      <c r="K1" s="86"/>
+      <c r="L1" s="86"/>
+    </row>
+    <row r="2" spans="1:12" x14ac:dyDescent="0.7">
       <c r="A2" s="5"/>
       <c r="B2" s="5"/>
       <c r="C2" s="5" t="s">
@@ -30122,7 +30410,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.55000000000000004">
+    <row r="3" spans="1:12" x14ac:dyDescent="0.7">
       <c r="A3" t="s">
         <v>2</v>
       </c>
@@ -30170,7 +30458,7 @@
         <v>1.3636103186366102</v>
       </c>
     </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.55000000000000004">
+    <row r="4" spans="1:12" x14ac:dyDescent="0.7">
       <c r="B4">
         <v>2020</v>
       </c>
@@ -30215,7 +30503,7 @@
         <v>1.1454168290418023</v>
       </c>
     </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.55000000000000004">
+    <row r="5" spans="1:12" x14ac:dyDescent="0.7">
       <c r="B5">
         <v>2030</v>
       </c>
@@ -30260,7 +30548,7 @@
         <v>1.4518214952344426</v>
       </c>
     </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.55000000000000004">
+    <row r="6" spans="1:12" x14ac:dyDescent="0.7">
       <c r="B6">
         <v>2040</v>
       </c>
@@ -30305,7 +30593,7 @@
         <v>1.7081048572622619</v>
       </c>
     </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.55000000000000004">
+    <row r="7" spans="1:12" x14ac:dyDescent="0.7">
       <c r="B7">
         <v>2050</v>
       </c>
@@ -30350,7 +30638,7 @@
         <v>1.8979835417623603</v>
       </c>
     </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.55000000000000004">
+    <row r="8" spans="1:12" x14ac:dyDescent="0.7">
       <c r="A8" t="s">
         <v>3</v>
       </c>
@@ -30398,7 +30686,7 @@
         <v>6.5678980051785088E-2</v>
       </c>
     </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.55000000000000004">
+    <row r="9" spans="1:12" x14ac:dyDescent="0.7">
       <c r="B9">
         <v>2020</v>
       </c>
@@ -30443,7 +30731,7 @@
         <v>6.2294023819620542E-2</v>
       </c>
     </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.55000000000000004">
+    <row r="10" spans="1:12" x14ac:dyDescent="0.7">
       <c r="B10">
         <v>2030</v>
       </c>
@@ -30488,7 +30776,7 @@
         <v>0.52366163382051323</v>
       </c>
     </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.55000000000000004">
+    <row r="11" spans="1:12" x14ac:dyDescent="0.7">
       <c r="B11">
         <v>2040</v>
       </c>
@@ -30533,7 +30821,7 @@
         <v>0.84332257419214407</v>
       </c>
     </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.55000000000000004">
+    <row r="12" spans="1:12" x14ac:dyDescent="0.7">
       <c r="B12">
         <v>2050</v>
       </c>
@@ -30578,7 +30866,7 @@
         <v>1.0354504283468937</v>
       </c>
     </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.55000000000000004">
+    <row r="13" spans="1:12" x14ac:dyDescent="0.7">
       <c r="A13" t="s">
         <v>4</v>
       </c>
@@ -30626,7 +30914,7 @@
         <v>1.2272144966755287</v>
       </c>
     </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.55000000000000004">
+    <row r="14" spans="1:12" x14ac:dyDescent="0.7">
       <c r="B14">
         <v>2020</v>
       </c>
@@ -30671,7 +30959,7 @@
         <v>1.108536645627096</v>
       </c>
     </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.55000000000000004">
+    <row r="15" spans="1:12" x14ac:dyDescent="0.7">
       <c r="B15">
         <v>2030</v>
       </c>
@@ -30716,7 +31004,7 @@
         <v>1.2495252021504084</v>
       </c>
     </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.55000000000000004">
+    <row r="16" spans="1:12" x14ac:dyDescent="0.7">
       <c r="B16">
         <v>2040</v>
       </c>
@@ -30761,7 +31049,7 @@
         <v>1.3055295526824291</v>
       </c>
     </row>
-    <row r="17" spans="1:12" x14ac:dyDescent="0.55000000000000004">
+    <row r="17" spans="1:12" x14ac:dyDescent="0.7">
       <c r="B17">
         <v>2050</v>
       </c>
@@ -30806,7 +31094,7 @@
         <v>1.3424915760795757</v>
       </c>
     </row>
-    <row r="18" spans="1:12" x14ac:dyDescent="0.55000000000000004">
+    <row r="18" spans="1:12" x14ac:dyDescent="0.7">
       <c r="A18" t="s">
         <v>5</v>
       </c>
@@ -30854,7 +31142,7 @@
         <v>1.0839281159578253</v>
       </c>
     </row>
-    <row r="19" spans="1:12" x14ac:dyDescent="0.55000000000000004">
+    <row r="19" spans="1:12" x14ac:dyDescent="0.7">
       <c r="B19">
         <v>2020</v>
       </c>
@@ -30899,7 +31187,7 @@
         <v>0.95755293647594575</v>
       </c>
     </row>
-    <row r="20" spans="1:12" x14ac:dyDescent="0.55000000000000004">
+    <row r="20" spans="1:12" x14ac:dyDescent="0.7">
       <c r="B20">
         <v>2030</v>
       </c>
@@ -30944,7 +31232,7 @@
         <v>0.97302092935158202</v>
       </c>
     </row>
-    <row r="21" spans="1:12" x14ac:dyDescent="0.55000000000000004">
+    <row r="21" spans="1:12" x14ac:dyDescent="0.7">
       <c r="B21">
         <v>2040</v>
       </c>
@@ -30989,7 +31277,7 @@
         <v>0.95182980371063908</v>
       </c>
     </row>
-    <row r="22" spans="1:12" x14ac:dyDescent="0.55000000000000004">
+    <row r="22" spans="1:12" x14ac:dyDescent="0.7">
       <c r="B22">
         <v>2050</v>
       </c>
@@ -31034,7 +31322,7 @@
         <v>0.89845812178656848</v>
       </c>
     </row>
-    <row r="23" spans="1:12" x14ac:dyDescent="0.55000000000000004">
+    <row r="23" spans="1:12" x14ac:dyDescent="0.7">
       <c r="A23" s="4" t="s">
         <v>27</v>
       </c>
@@ -31082,7 +31370,7 @@
         <v>3.7404319113217492</v>
       </c>
     </row>
-    <row r="24" spans="1:12" x14ac:dyDescent="0.55000000000000004">
+    <row r="24" spans="1:12" x14ac:dyDescent="0.7">
       <c r="B24">
         <v>2020</v>
       </c>
@@ -31127,7 +31415,7 @@
         <v>3.2738004349644645</v>
       </c>
     </row>
-    <row r="25" spans="1:12" x14ac:dyDescent="0.55000000000000004">
+    <row r="25" spans="1:12" x14ac:dyDescent="0.7">
       <c r="B25">
         <v>2030</v>
       </c>
@@ -31172,7 +31460,7 @@
         <v>4.1980292605569467</v>
       </c>
     </row>
-    <row r="26" spans="1:12" x14ac:dyDescent="0.55000000000000004">
+    <row r="26" spans="1:12" x14ac:dyDescent="0.7">
       <c r="B26">
         <v>2040</v>
       </c>
@@ -31217,7 +31505,7 @@
         <v>4.8087867878474739</v>
       </c>
     </row>
-    <row r="27" spans="1:12" x14ac:dyDescent="0.55000000000000004">
+    <row r="27" spans="1:12" x14ac:dyDescent="0.7">
       <c r="B27">
         <v>2050</v>
       </c>
@@ -31280,9 +31568,9 @@
       <selection activeCell="F11" sqref="F11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.55000000000000004"/>
+  <sheetFormatPr defaultRowHeight="17.649999999999999" x14ac:dyDescent="0.7"/>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.7">
       <c r="A1" s="1" t="s">
         <v>29</v>
       </c>
@@ -31302,7 +31590,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.7">
       <c r="A2" s="1">
         <v>2010</v>
       </c>
@@ -31322,7 +31610,7 @@
         <v>5942.4722222222199</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.7">
       <c r="A3" s="1">
         <v>2020</v>
       </c>
@@ -31356,22 +31644,22 @@
       <selection activeCell="K25" sqref="K25"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10" defaultRowHeight="18" x14ac:dyDescent="0.55000000000000004"/>
+  <sheetFormatPr defaultColWidth="10" defaultRowHeight="17.649999999999999" x14ac:dyDescent="0.7"/>
   <cols>
     <col min="1" max="16384" width="10" style="16"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.55000000000000004">
-      <c r="B1" s="64" t="s">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.7">
+      <c r="B1" s="92" t="s">
         <v>69</v>
       </c>
-      <c r="C1" s="64"/>
-      <c r="D1" s="64" t="s">
+      <c r="C1" s="92"/>
+      <c r="D1" s="92" t="s">
         <v>70</v>
       </c>
-      <c r="E1" s="64"/>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="E1" s="92"/>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.7">
       <c r="A2" s="16" t="s">
         <v>29</v>
       </c>
@@ -31388,7 +31676,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.7">
       <c r="A3" s="16">
         <v>2010</v>
       </c>
@@ -31405,7 +31693,7 @@
         <v>0.230332955424876</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.7">
       <c r="A4" s="16">
         <v>2011</v>
       </c>
@@ -31422,7 +31710,7 @@
         <v>0.22455793605441199</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.7">
       <c r="A5" s="16">
         <v>2012</v>
       </c>
@@ -31439,7 +31727,7 @@
         <v>0.23783218565866601</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.7">
       <c r="A6" s="16">
         <v>2013</v>
       </c>
@@ -31456,7 +31744,7 @@
         <v>0.23424266271646299</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.7">
       <c r="A7" s="16">
         <v>2014</v>
       </c>
@@ -31473,7 +31761,7 @@
         <v>0.22860367681669699</v>
       </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.7">
       <c r="A8" s="16">
         <v>2015</v>
       </c>
@@ -31490,7 +31778,7 @@
         <v>0.23216273461540901</v>
       </c>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.7">
       <c r="A9" s="16">
         <v>2016</v>
       </c>
@@ -31507,7 +31795,7 @@
         <v>0.23402053483115001</v>
       </c>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.7">
       <c r="A10" s="16">
         <v>2017</v>
       </c>
@@ -31524,7 +31812,7 @@
         <v>0.23714107803461101</v>
       </c>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.7">
       <c r="A11" s="16">
         <v>2018</v>
       </c>
@@ -31541,7 +31829,7 @@
         <v>0.243046304205839</v>
       </c>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.7">
       <c r="A12" s="16">
         <v>2019</v>
       </c>
@@ -31558,7 +31846,7 @@
         <v>0.247694641217198</v>
       </c>
     </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="13" spans="1:5" x14ac:dyDescent="0.7">
       <c r="A13" s="16">
         <v>2020</v>
       </c>
@@ -31575,7 +31863,7 @@
         <v>0.24636864205299799</v>
       </c>
     </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="14" spans="1:5" x14ac:dyDescent="0.7">
       <c r="A14" s="16">
         <v>2021</v>
       </c>
@@ -31592,7 +31880,7 @@
         <v>0.24636864205299799</v>
       </c>
     </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="15" spans="1:5" x14ac:dyDescent="0.7">
       <c r="A15" s="16">
         <v>2022</v>
       </c>
@@ -31609,7 +31897,7 @@
         <v>0.24636864205299799</v>
       </c>
     </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="16" spans="1:5" x14ac:dyDescent="0.7">
       <c r="A16" s="16">
         <v>2023</v>
       </c>
@@ -31626,7 +31914,7 @@
         <v>0.24636864205299799</v>
       </c>
     </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="17" spans="1:5" x14ac:dyDescent="0.7">
       <c r="A17" s="16">
         <v>2024</v>
       </c>
@@ -31643,7 +31931,7 @@
         <v>0.24636864205299799</v>
       </c>
     </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="18" spans="1:5" x14ac:dyDescent="0.7">
       <c r="A18" s="16">
         <v>2025</v>
       </c>
@@ -31660,7 +31948,7 @@
         <v>0.24636864205299799</v>
       </c>
     </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="19" spans="1:5" x14ac:dyDescent="0.7">
       <c r="A19" s="16">
         <v>2026</v>
       </c>
@@ -31677,7 +31965,7 @@
         <v>0.24636864205299799</v>
       </c>
     </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="20" spans="1:5" x14ac:dyDescent="0.7">
       <c r="A20" s="16">
         <v>2027</v>
       </c>
@@ -31694,7 +31982,7 @@
         <v>0.24636864205299799</v>
       </c>
     </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="21" spans="1:5" x14ac:dyDescent="0.7">
       <c r="A21" s="16">
         <v>2028</v>
       </c>
@@ -31711,7 +31999,7 @@
         <v>0.24636864205299799</v>
       </c>
     </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="22" spans="1:5" x14ac:dyDescent="0.7">
       <c r="A22" s="16">
         <v>2029</v>
       </c>
@@ -31728,7 +32016,7 @@
         <v>0.24636864205299799</v>
       </c>
     </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="23" spans="1:5" x14ac:dyDescent="0.7">
       <c r="A23" s="16">
         <v>2030</v>
       </c>
@@ -31745,7 +32033,7 @@
         <v>0.24636864205299799</v>
       </c>
     </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="24" spans="1:5" x14ac:dyDescent="0.7">
       <c r="A24" s="16">
         <v>2031</v>
       </c>
@@ -31762,7 +32050,7 @@
         <v>0.24636864205299799</v>
       </c>
     </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="25" spans="1:5" x14ac:dyDescent="0.7">
       <c r="A25" s="16">
         <v>2032</v>
       </c>
@@ -31779,7 +32067,7 @@
         <v>0.24636864205299799</v>
       </c>
     </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="26" spans="1:5" x14ac:dyDescent="0.7">
       <c r="A26" s="16">
         <v>2033</v>
       </c>
@@ -31796,7 +32084,7 @@
         <v>0.24636864205299799</v>
       </c>
     </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="27" spans="1:5" x14ac:dyDescent="0.7">
       <c r="A27" s="16">
         <v>2034</v>
       </c>
@@ -31813,7 +32101,7 @@
         <v>0.24636864205299799</v>
       </c>
     </row>
-    <row r="28" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="28" spans="1:5" x14ac:dyDescent="0.7">
       <c r="A28" s="16">
         <v>2035</v>
       </c>
@@ -31830,7 +32118,7 @@
         <v>0.24636864205299799</v>
       </c>
     </row>
-    <row r="29" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="29" spans="1:5" x14ac:dyDescent="0.7">
       <c r="A29" s="16">
         <v>2036</v>
       </c>
@@ -31847,7 +32135,7 @@
         <v>0.24636864205299799</v>
       </c>
     </row>
-    <row r="30" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="30" spans="1:5" x14ac:dyDescent="0.7">
       <c r="A30" s="16">
         <v>2037</v>
       </c>
@@ -31864,7 +32152,7 @@
         <v>0.24636864205299799</v>
       </c>
     </row>
-    <row r="31" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="31" spans="1:5" x14ac:dyDescent="0.7">
       <c r="A31" s="16">
         <v>2038</v>
       </c>
@@ -31881,7 +32169,7 @@
         <v>0.24636864205299799</v>
       </c>
     </row>
-    <row r="32" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="32" spans="1:5" x14ac:dyDescent="0.7">
       <c r="A32" s="16">
         <v>2039</v>
       </c>
@@ -31898,7 +32186,7 @@
         <v>0.24636864205299799</v>
       </c>
     </row>
-    <row r="33" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="33" spans="1:5" x14ac:dyDescent="0.7">
       <c r="A33" s="16">
         <v>2040</v>
       </c>
@@ -31915,7 +32203,7 @@
         <v>0.24636864205299799</v>
       </c>
     </row>
-    <row r="34" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="34" spans="1:5" x14ac:dyDescent="0.7">
       <c r="A34" s="16">
         <v>2041</v>
       </c>
@@ -31932,7 +32220,7 @@
         <v>0.24636864205299799</v>
       </c>
     </row>
-    <row r="35" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="35" spans="1:5" x14ac:dyDescent="0.7">
       <c r="A35" s="16">
         <v>2042</v>
       </c>
@@ -31949,7 +32237,7 @@
         <v>0.24636864205299799</v>
       </c>
     </row>
-    <row r="36" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="36" spans="1:5" x14ac:dyDescent="0.7">
       <c r="A36" s="16">
         <v>2043</v>
       </c>
@@ -31966,7 +32254,7 @@
         <v>0.24636864205299799</v>
       </c>
     </row>
-    <row r="37" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="37" spans="1:5" x14ac:dyDescent="0.7">
       <c r="A37" s="16">
         <v>2044</v>
       </c>
@@ -31983,7 +32271,7 @@
         <v>0.24636864205299799</v>
       </c>
     </row>
-    <row r="38" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="38" spans="1:5" x14ac:dyDescent="0.7">
       <c r="A38" s="16">
         <v>2045</v>
       </c>
@@ -32000,7 +32288,7 @@
         <v>0.24636864205299799</v>
       </c>
     </row>
-    <row r="39" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="39" spans="1:5" x14ac:dyDescent="0.7">
       <c r="A39" s="16">
         <v>2046</v>
       </c>
@@ -32017,7 +32305,7 @@
         <v>0.24636864205299799</v>
       </c>
     </row>
-    <row r="40" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="40" spans="1:5" x14ac:dyDescent="0.7">
       <c r="A40" s="16">
         <v>2047</v>
       </c>
@@ -32034,7 +32322,7 @@
         <v>0.24636864205299799</v>
       </c>
     </row>
-    <row r="41" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="41" spans="1:5" x14ac:dyDescent="0.7">
       <c r="A41" s="16">
         <v>2048</v>
       </c>
@@ -32051,7 +32339,7 @@
         <v>0.24636864205299799</v>
       </c>
     </row>
-    <row r="42" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="42" spans="1:5" x14ac:dyDescent="0.7">
       <c r="A42" s="16">
         <v>2049</v>
       </c>
@@ -32068,7 +32356,7 @@
         <v>0.24636864205299799</v>
       </c>
     </row>
-    <row r="43" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="43" spans="1:5" x14ac:dyDescent="0.7">
       <c r="A43" s="16">
         <v>2050</v>
       </c>
@@ -32104,22 +32392,22 @@
       <selection activeCell="J11" sqref="J11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10" defaultRowHeight="18" x14ac:dyDescent="0.55000000000000004"/>
+  <sheetFormatPr defaultColWidth="10" defaultRowHeight="17.649999999999999" x14ac:dyDescent="0.7"/>
   <cols>
     <col min="1" max="16384" width="10" style="16"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.55000000000000004">
-      <c r="B1" s="64" t="s">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.7">
+      <c r="B1" s="92" t="s">
         <v>69</v>
       </c>
-      <c r="C1" s="64"/>
-      <c r="D1" s="64" t="s">
+      <c r="C1" s="92"/>
+      <c r="D1" s="92" t="s">
         <v>70</v>
       </c>
-      <c r="E1" s="64"/>
-    </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+      <c r="E1" s="92"/>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.7">
       <c r="A2" s="16" t="s">
         <v>29</v>
       </c>
@@ -32139,7 +32427,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.7">
       <c r="A3" s="16">
         <v>2010</v>
       </c>
@@ -32163,7 +32451,7 @@
         <v>-54.3</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.7">
       <c r="A4" s="16">
         <v>2011</v>
       </c>
@@ -32187,7 +32475,7 @@
         <v>-54.3</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.7">
       <c r="A5" s="16">
         <v>2012</v>
       </c>
@@ -32211,7 +32499,7 @@
         <v>-54.3</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.7">
       <c r="A6" s="16">
         <v>2013</v>
       </c>
@@ -32235,7 +32523,7 @@
         <v>-54.3</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.7">
       <c r="A7" s="16">
         <v>2014</v>
       </c>
@@ -32259,7 +32547,7 @@
         <v>-54.3</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.7">
       <c r="A8" s="16">
         <v>2015</v>
       </c>
@@ -32283,7 +32571,7 @@
         <v>-54.3</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.7">
       <c r="A9" s="16">
         <v>2016</v>
       </c>
@@ -32307,7 +32595,7 @@
         <v>-54.3</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.7">
       <c r="A10" s="16">
         <v>2017</v>
       </c>
@@ -32331,7 +32619,7 @@
         <v>-54.3</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.7">
       <c r="A11" s="16">
         <v>2018</v>
       </c>
@@ -32355,7 +32643,7 @@
         <v>-54.3</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.7">
       <c r="A12" s="16">
         <v>2019</v>
       </c>
@@ -32379,7 +32667,7 @@
         <v>-54.3</v>
       </c>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.7">
       <c r="A13" s="16">
         <v>2020</v>
       </c>
@@ -32403,7 +32691,7 @@
         <v>-54.3</v>
       </c>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.7">
       <c r="A14" s="16">
         <v>2021</v>
       </c>
@@ -32427,7 +32715,7 @@
         <v>-54.3</v>
       </c>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.7">
       <c r="A15" s="16">
         <v>2022</v>
       </c>
@@ -32451,7 +32739,7 @@
         <v>-54.3</v>
       </c>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.7">
       <c r="A16" s="16">
         <v>2023</v>
       </c>
@@ -32475,7 +32763,7 @@
         <v>-54.3</v>
       </c>
     </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.7">
       <c r="A17" s="16">
         <v>2024</v>
       </c>
@@ -32499,7 +32787,7 @@
         <v>-54.3</v>
       </c>
     </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.7">
       <c r="A18" s="16">
         <v>2025</v>
       </c>
@@ -32523,7 +32811,7 @@
         <v>-54.3</v>
       </c>
     </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="19" spans="1:6" x14ac:dyDescent="0.7">
       <c r="A19" s="16">
         <v>2026</v>
       </c>
@@ -32547,7 +32835,7 @@
         <v>-54.3</v>
       </c>
     </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="20" spans="1:6" x14ac:dyDescent="0.7">
       <c r="A20" s="16">
         <v>2027</v>
       </c>
@@ -32571,7 +32859,7 @@
         <v>-54.3</v>
       </c>
     </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="21" spans="1:6" x14ac:dyDescent="0.7">
       <c r="A21" s="16">
         <v>2028</v>
       </c>
@@ -32595,7 +32883,7 @@
         <v>-54.3</v>
       </c>
     </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="22" spans="1:6" x14ac:dyDescent="0.7">
       <c r="A22" s="16">
         <v>2029</v>
       </c>
@@ -32619,7 +32907,7 @@
         <v>-54.3</v>
       </c>
     </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="23" spans="1:6" x14ac:dyDescent="0.7">
       <c r="A23" s="16">
         <v>2030</v>
       </c>
@@ -32643,7 +32931,7 @@
         <v>-54.3</v>
       </c>
     </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="24" spans="1:6" x14ac:dyDescent="0.7">
       <c r="A24" s="16">
         <v>2031</v>
       </c>
@@ -32667,7 +32955,7 @@
         <v>-54.3</v>
       </c>
     </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="25" spans="1:6" x14ac:dyDescent="0.7">
       <c r="A25" s="16">
         <v>2032</v>
       </c>
@@ -32691,7 +32979,7 @@
         <v>-54.3</v>
       </c>
     </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="26" spans="1:6" x14ac:dyDescent="0.7">
       <c r="A26" s="16">
         <v>2033</v>
       </c>
@@ -32715,7 +33003,7 @@
         <v>-54.3</v>
       </c>
     </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="27" spans="1:6" x14ac:dyDescent="0.7">
       <c r="A27" s="16">
         <v>2034</v>
       </c>
@@ -32739,7 +33027,7 @@
         <v>-54.3</v>
       </c>
     </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="28" spans="1:6" x14ac:dyDescent="0.7">
       <c r="A28" s="16">
         <v>2035</v>
       </c>
@@ -32763,7 +33051,7 @@
         <v>-54.3</v>
       </c>
     </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="29" spans="1:6" x14ac:dyDescent="0.7">
       <c r="A29" s="16">
         <v>2036</v>
       </c>
@@ -32787,7 +33075,7 @@
         <v>-54.3</v>
       </c>
     </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="30" spans="1:6" x14ac:dyDescent="0.7">
       <c r="A30" s="16">
         <v>2037</v>
       </c>
@@ -32811,7 +33099,7 @@
         <v>-54.3</v>
       </c>
     </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="31" spans="1:6" x14ac:dyDescent="0.7">
       <c r="A31" s="16">
         <v>2038</v>
       </c>
@@ -32835,7 +33123,7 @@
         <v>-54.3</v>
       </c>
     </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="32" spans="1:6" x14ac:dyDescent="0.7">
       <c r="A32" s="16">
         <v>2039</v>
       </c>
@@ -32859,7 +33147,7 @@
         <v>-54.3</v>
       </c>
     </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="33" spans="1:6" x14ac:dyDescent="0.7">
       <c r="A33" s="16">
         <v>2040</v>
       </c>
@@ -32883,7 +33171,7 @@
         <v>-54.3</v>
       </c>
     </row>
-    <row r="34" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="34" spans="1:6" x14ac:dyDescent="0.7">
       <c r="A34" s="16">
         <v>2041</v>
       </c>
@@ -32907,7 +33195,7 @@
         <v>-54.3</v>
       </c>
     </row>
-    <row r="35" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="35" spans="1:6" x14ac:dyDescent="0.7">
       <c r="A35" s="16">
         <v>2042</v>
       </c>
@@ -32931,7 +33219,7 @@
         <v>-54.3</v>
       </c>
     </row>
-    <row r="36" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="36" spans="1:6" x14ac:dyDescent="0.7">
       <c r="A36" s="16">
         <v>2043</v>
       </c>
@@ -32955,7 +33243,7 @@
         <v>-54.3</v>
       </c>
     </row>
-    <row r="37" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="37" spans="1:6" x14ac:dyDescent="0.7">
       <c r="A37" s="16">
         <v>2044</v>
       </c>
@@ -32979,7 +33267,7 @@
         <v>-54.3</v>
       </c>
     </row>
-    <row r="38" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="38" spans="1:6" x14ac:dyDescent="0.7">
       <c r="A38" s="16">
         <v>2045</v>
       </c>
@@ -33003,7 +33291,7 @@
         <v>-54.3</v>
       </c>
     </row>
-    <row r="39" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="39" spans="1:6" x14ac:dyDescent="0.7">
       <c r="A39" s="16">
         <v>2046</v>
       </c>
@@ -33027,7 +33315,7 @@
         <v>-54.3</v>
       </c>
     </row>
-    <row r="40" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="40" spans="1:6" x14ac:dyDescent="0.7">
       <c r="A40" s="16">
         <v>2047</v>
       </c>
@@ -33051,7 +33339,7 @@
         <v>-54.3</v>
       </c>
     </row>
-    <row r="41" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="41" spans="1:6" x14ac:dyDescent="0.7">
       <c r="A41" s="16">
         <v>2048</v>
       </c>
@@ -33075,7 +33363,7 @@
         <v>-54.3</v>
       </c>
     </row>
-    <row r="42" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="42" spans="1:6" x14ac:dyDescent="0.7">
       <c r="A42" s="16">
         <v>2049</v>
       </c>
@@ -33099,7 +33387,7 @@
         <v>-54.3</v>
       </c>
     </row>
-    <row r="43" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="43" spans="1:6" x14ac:dyDescent="0.7">
       <c r="A43" s="16">
         <v>2050</v>
       </c>
@@ -33142,21 +33430,21 @@
       <selection activeCell="F48" sqref="F48"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10" defaultRowHeight="18" x14ac:dyDescent="0.55000000000000004"/>
+  <sheetFormatPr defaultColWidth="10" defaultRowHeight="17.649999999999999" x14ac:dyDescent="0.7"/>
   <cols>
     <col min="1" max="3" width="10" style="16"/>
     <col min="4" max="4" width="14" style="16" customWidth="1"/>
-    <col min="5" max="5" width="12.83203125" style="16" customWidth="1"/>
+    <col min="5" max="5" width="12.8125" style="16" customWidth="1"/>
     <col min="6" max="16384" width="10" style="16"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.55000000000000004">
-      <c r="D1" s="64" t="s">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.7">
+      <c r="D1" s="92" t="s">
         <v>72</v>
       </c>
-      <c r="E1" s="64"/>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="E1" s="92"/>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.7">
       <c r="A2" s="16" t="s">
         <v>32</v>
       </c>
@@ -33173,7 +33461,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.7">
       <c r="A3" s="16" t="s">
         <v>36</v>
       </c>
@@ -33192,7 +33480,7 @@
         <v>0.88145299999999904</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.7">
       <c r="A4" s="16" t="s">
         <v>36</v>
       </c>
@@ -33211,7 +33499,7 @@
         <v>0.83225699999999769</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.7">
       <c r="A5" s="16" t="s">
         <v>36</v>
       </c>
@@ -33230,7 +33518,7 @@
         <v>0.85032400000000197</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.7">
       <c r="A6" s="16" t="s">
         <v>36</v>
       </c>
@@ -33249,7 +33537,7 @@
         <v>0.89504799999999984</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.7">
       <c r="A7" s="16" t="s">
         <v>36</v>
       </c>
@@ -33268,7 +33556,7 @@
         <v>0.89164799999999844</v>
       </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.7">
       <c r="A8" s="16" t="s">
         <v>36</v>
       </c>
@@ -33287,7 +33575,7 @@
         <v>0.84963399999999989</v>
       </c>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.7">
       <c r="A9" s="16" t="s">
         <v>36</v>
       </c>
@@ -33306,7 +33594,7 @@
         <v>0.84928099999999918</v>
       </c>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.7">
       <c r="A10" s="16" t="s">
         <v>36</v>
       </c>
@@ -33325,7 +33613,7 @@
         <v>0.82729200000000336</v>
       </c>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.7">
       <c r="A11" s="16" t="s">
         <v>36</v>
       </c>
@@ -33344,7 +33632,7 @@
         <v>0.82366900000000076</v>
       </c>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.7">
       <c r="A12" s="16" t="s">
         <v>36</v>
       </c>
@@ -33363,7 +33651,7 @@
         <v>0.79807899999999898</v>
       </c>
     </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="13" spans="1:5" x14ac:dyDescent="0.7">
       <c r="A13" s="16" t="s">
         <v>36</v>
       </c>
@@ -33382,7 +33670,7 @@
         <v>0.65058500000000286</v>
       </c>
     </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="14" spans="1:5" x14ac:dyDescent="0.7">
       <c r="A14" s="16" t="s">
         <v>36</v>
       </c>
@@ -33401,7 +33689,7 @@
         <v>0.6555958671397093</v>
       </c>
     </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="15" spans="1:5" x14ac:dyDescent="0.7">
       <c r="A15" s="16" t="s">
         <v>36</v>
       </c>
@@ -33420,7 +33708,7 @@
         <v>0.6606067342794173</v>
       </c>
     </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="16" spans="1:5" x14ac:dyDescent="0.7">
       <c r="A16" s="16" t="s">
         <v>36</v>
       </c>
@@ -33439,7 +33727,7 @@
         <v>0.66561760141912396</v>
       </c>
     </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="17" spans="1:5" x14ac:dyDescent="0.7">
       <c r="A17" s="16" t="s">
         <v>36</v>
       </c>
@@ -33458,7 +33746,7 @@
         <v>0.67062846855883196</v>
       </c>
     </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="18" spans="1:5" x14ac:dyDescent="0.7">
       <c r="A18" s="16" t="s">
         <v>36</v>
       </c>
@@ -33477,7 +33765,7 @@
         <v>0.67563933569853851</v>
       </c>
     </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="19" spans="1:5" x14ac:dyDescent="0.7">
       <c r="A19" s="16" t="s">
         <v>36</v>
       </c>
@@ -33496,7 +33784,7 @@
         <v>0.68065020283824662</v>
       </c>
     </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="20" spans="1:5" x14ac:dyDescent="0.7">
       <c r="A20" s="16" t="s">
         <v>36</v>
       </c>
@@ -33515,7 +33803,7 @@
         <v>0.68566106997795306</v>
       </c>
     </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="21" spans="1:5" x14ac:dyDescent="0.7">
       <c r="A21" s="16" t="s">
         <v>36</v>
       </c>
@@ -33534,7 +33822,7 @@
         <v>0.69067193711766106</v>
       </c>
     </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="22" spans="1:5" x14ac:dyDescent="0.7">
       <c r="A22" s="16" t="s">
         <v>36</v>
       </c>
@@ -33553,7 +33841,7 @@
         <v>0.69568280425736762</v>
       </c>
     </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="23" spans="1:5" x14ac:dyDescent="0.7">
       <c r="A23" s="16" t="s">
         <v>36</v>
       </c>
@@ -33572,7 +33860,7 @@
         <v>0.70069367139707572</v>
       </c>
     </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="24" spans="1:5" x14ac:dyDescent="0.7">
       <c r="A24" s="16" t="s">
         <v>36</v>
       </c>
@@ -33591,7 +33879,7 @@
         <v>0.70570453853678228</v>
       </c>
     </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="25" spans="1:5" x14ac:dyDescent="0.7">
       <c r="A25" s="16" t="s">
         <v>36</v>
       </c>
@@ -33610,7 +33898,7 @@
         <v>0.71071540567648872</v>
       </c>
     </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="26" spans="1:5" x14ac:dyDescent="0.7">
       <c r="A26" s="16" t="s">
         <v>36</v>
       </c>
@@ -33629,7 +33917,7 @@
         <v>0.71572627281619694</v>
       </c>
     </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="27" spans="1:5" x14ac:dyDescent="0.7">
       <c r="A27" s="16" t="s">
         <v>36</v>
       </c>
@@ -33648,7 +33936,7 @@
         <v>0.72073713995590338</v>
       </c>
     </row>
-    <row r="28" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="28" spans="1:5" x14ac:dyDescent="0.7">
       <c r="A28" s="16" t="s">
         <v>36</v>
       </c>
@@ -33667,7 +33955,7 @@
         <v>0.72574800709561138</v>
       </c>
     </row>
-    <row r="29" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="29" spans="1:5" x14ac:dyDescent="0.7">
       <c r="A29" s="16" t="s">
         <v>36</v>
       </c>
@@ -33686,7 +33974,7 @@
         <v>0.73075887423531805</v>
       </c>
     </row>
-    <row r="30" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="30" spans="1:5" x14ac:dyDescent="0.7">
       <c r="A30" s="16" t="s">
         <v>36</v>
       </c>
@@ -33705,7 +33993,7 @@
         <v>0.73576974137502604</v>
       </c>
     </row>
-    <row r="31" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="31" spans="1:5" x14ac:dyDescent="0.7">
       <c r="A31" s="16" t="s">
         <v>36</v>
       </c>
@@ -33724,7 +34012,7 @@
         <v>0.7407806085147326</v>
       </c>
     </row>
-    <row r="32" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="32" spans="1:5" x14ac:dyDescent="0.7">
       <c r="A32" s="16" t="s">
         <v>36</v>
       </c>
@@ -33743,7 +34031,7 @@
         <v>0.74579147565444071</v>
       </c>
     </row>
-    <row r="33" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="33" spans="1:5" x14ac:dyDescent="0.7">
       <c r="A33" s="16" t="s">
         <v>36</v>
       </c>
@@ -33762,7 +34050,7 @@
         <v>0.75080234279414715</v>
       </c>
     </row>
-    <row r="34" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="34" spans="1:5" x14ac:dyDescent="0.7">
       <c r="A34" s="16" t="s">
         <v>36</v>
       </c>
@@ -33781,7 +34069,7 @@
         <v>0.75581320993385526</v>
       </c>
     </row>
-    <row r="35" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="35" spans="1:5" x14ac:dyDescent="0.7">
       <c r="A35" s="16" t="s">
         <v>36</v>
       </c>
@@ -33800,7 +34088,7 @@
         <v>0.76082407707356181</v>
       </c>
     </row>
-    <row r="36" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="36" spans="1:5" x14ac:dyDescent="0.7">
       <c r="A36" s="16" t="s">
         <v>36</v>
       </c>
@@ -33819,7 +34107,7 @@
         <v>0.76583494421326981</v>
       </c>
     </row>
-    <row r="37" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="37" spans="1:5" x14ac:dyDescent="0.7">
       <c r="A37" s="16" t="s">
         <v>36</v>
       </c>
@@ -33838,7 +34126,7 @@
         <v>0.77084581135297636</v>
       </c>
     </row>
-    <row r="38" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="38" spans="1:5" x14ac:dyDescent="0.7">
       <c r="A38" s="16" t="s">
         <v>36</v>
       </c>
@@ -33857,7 +34145,7 @@
         <v>0.77585667849268447</v>
       </c>
     </row>
-    <row r="39" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="39" spans="1:5" x14ac:dyDescent="0.7">
       <c r="A39" s="16" t="s">
         <v>36</v>
       </c>
@@ -33876,7 +34164,7 @@
         <v>0.78086754563239102</v>
       </c>
     </row>
-    <row r="40" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="40" spans="1:5" x14ac:dyDescent="0.7">
       <c r="A40" s="16" t="s">
         <v>36</v>
       </c>
@@ -33895,7 +34183,7 @@
         <v>0.78587841277209902</v>
       </c>
     </row>
-    <row r="41" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="41" spans="1:5" x14ac:dyDescent="0.7">
       <c r="A41" s="16" t="s">
         <v>36</v>
       </c>
@@ -33914,7 +34202,7 @@
         <v>0.79088927991180558</v>
       </c>
     </row>
-    <row r="42" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="42" spans="1:5" x14ac:dyDescent="0.7">
       <c r="A42" s="16" t="s">
         <v>36</v>
       </c>
@@ -33933,7 +34221,7 @@
         <v>0.79590014705151213</v>
       </c>
     </row>
-    <row r="43" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="43" spans="1:5" x14ac:dyDescent="0.7">
       <c r="A43" s="16" t="s">
         <v>36</v>
       </c>
@@ -33970,9 +34258,9 @@
       <selection activeCell="I22" sqref="I22"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.55000000000000004"/>
+  <sheetFormatPr defaultRowHeight="17.649999999999999" x14ac:dyDescent="0.7"/>
   <sheetData>
-    <row r="1" spans="1:13" x14ac:dyDescent="0.55000000000000004">
+    <row r="1" spans="1:13" x14ac:dyDescent="0.7">
       <c r="A1" s="1" t="s">
         <v>12</v>
       </c>
@@ -34013,7 +34301,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="2" spans="1:13" x14ac:dyDescent="0.55000000000000004">
+    <row r="2" spans="1:13" x14ac:dyDescent="0.7">
       <c r="A2" s="1">
         <v>8.5853463518325892</v>
       </c>
@@ -34068,44 +34356,44 @@
       <selection activeCell="O3" sqref="O3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.55000000000000004"/>
+  <sheetFormatPr defaultRowHeight="17.649999999999999" x14ac:dyDescent="0.7"/>
   <cols>
-    <col min="2" max="2" width="13.33203125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="13.3125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:27" x14ac:dyDescent="0.55000000000000004">
-      <c r="B1" s="57" t="s">
-        <v>0</v>
-      </c>
-      <c r="C1" s="57"/>
-      <c r="D1" s="57"/>
-      <c r="E1" s="57"/>
-      <c r="F1" s="57"/>
-      <c r="G1" s="57"/>
-      <c r="H1" s="57"/>
-      <c r="I1" s="57"/>
-      <c r="J1" s="57"/>
-      <c r="K1" s="57"/>
-      <c r="L1" s="57"/>
-      <c r="M1" s="57"/>
-      <c r="N1" s="58"/>
-      <c r="O1" s="57" t="s">
+    <row r="1" spans="1:27" x14ac:dyDescent="0.7">
+      <c r="B1" s="86" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="86"/>
+      <c r="D1" s="86"/>
+      <c r="E1" s="86"/>
+      <c r="F1" s="86"/>
+      <c r="G1" s="86"/>
+      <c r="H1" s="86"/>
+      <c r="I1" s="86"/>
+      <c r="J1" s="86"/>
+      <c r="K1" s="86"/>
+      <c r="L1" s="86"/>
+      <c r="M1" s="86"/>
+      <c r="N1" s="87"/>
+      <c r="O1" s="86" t="s">
         <v>6</v>
       </c>
-      <c r="P1" s="57"/>
-      <c r="Q1" s="57"/>
-      <c r="R1" s="57"/>
-      <c r="S1" s="57"/>
-      <c r="T1" s="57"/>
-      <c r="U1" s="57"/>
-      <c r="V1" s="57"/>
-      <c r="W1" s="57"/>
-      <c r="X1" s="57"/>
-      <c r="Y1" s="57"/>
-      <c r="Z1" s="57"/>
-      <c r="AA1" s="57"/>
-    </row>
-    <row r="2" spans="1:27" x14ac:dyDescent="0.55000000000000004">
+      <c r="P1" s="86"/>
+      <c r="Q1" s="86"/>
+      <c r="R1" s="86"/>
+      <c r="S1" s="86"/>
+      <c r="T1" s="86"/>
+      <c r="U1" s="86"/>
+      <c r="V1" s="86"/>
+      <c r="W1" s="86"/>
+      <c r="X1" s="86"/>
+      <c r="Y1" s="86"/>
+      <c r="Z1" s="86"/>
+      <c r="AA1" s="86"/>
+    </row>
+    <row r="2" spans="1:27" x14ac:dyDescent="0.7">
       <c r="B2" t="s">
         <v>7</v>
       </c>
@@ -34185,7 +34473,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="3" spans="1:27" x14ac:dyDescent="0.55000000000000004">
+    <row r="3" spans="1:27" x14ac:dyDescent="0.7">
       <c r="A3">
         <v>2010</v>
       </c>
@@ -34294,7 +34582,7 @@
         <v>1.2948860195235742E-2</v>
       </c>
     </row>
-    <row r="4" spans="1:27" x14ac:dyDescent="0.55000000000000004">
+    <row r="4" spans="1:27" x14ac:dyDescent="0.7">
       <c r="A4">
         <v>2020</v>
       </c>
@@ -34403,7 +34691,7 @@
         <v>0.29149825225787274</v>
       </c>
     </row>
-    <row r="5" spans="1:27" x14ac:dyDescent="0.55000000000000004">
+    <row r="5" spans="1:27" x14ac:dyDescent="0.7">
       <c r="A5">
         <v>2030</v>
       </c>
@@ -34512,7 +34800,7 @@
         <v>0.87441152460394178</v>
       </c>
     </row>
-    <row r="6" spans="1:27" x14ac:dyDescent="0.55000000000000004">
+    <row r="6" spans="1:27" x14ac:dyDescent="0.7">
       <c r="A6">
         <v>2040</v>
       </c>
@@ -34621,7 +34909,7 @@
         <v>1.575080589609934</v>
       </c>
     </row>
-    <row r="7" spans="1:27" x14ac:dyDescent="0.55000000000000004">
+    <row r="7" spans="1:27" x14ac:dyDescent="0.7">
       <c r="A7">
         <v>2050</v>
       </c>
@@ -34748,43 +35036,43 @@
       <selection activeCell="U3" sqref="U3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.55000000000000004"/>
+  <sheetFormatPr defaultRowHeight="17.649999999999999" x14ac:dyDescent="0.7"/>
   <sheetData>
-    <row r="1" spans="1:29" x14ac:dyDescent="0.55000000000000004">
-      <c r="B1" s="57" t="s">
-        <v>0</v>
-      </c>
-      <c r="C1" s="57"/>
-      <c r="D1" s="57"/>
-      <c r="E1" s="57"/>
-      <c r="F1" s="57"/>
-      <c r="G1" s="57"/>
-      <c r="H1" s="57"/>
-      <c r="I1" s="57"/>
-      <c r="J1" s="57"/>
-      <c r="K1" s="57"/>
-      <c r="L1" s="57"/>
-      <c r="M1" s="57"/>
-      <c r="N1" s="57"/>
-      <c r="O1" s="58"/>
-      <c r="P1" s="57" t="s">
+    <row r="1" spans="1:29" x14ac:dyDescent="0.7">
+      <c r="B1" s="86" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="86"/>
+      <c r="D1" s="86"/>
+      <c r="E1" s="86"/>
+      <c r="F1" s="86"/>
+      <c r="G1" s="86"/>
+      <c r="H1" s="86"/>
+      <c r="I1" s="86"/>
+      <c r="J1" s="86"/>
+      <c r="K1" s="86"/>
+      <c r="L1" s="86"/>
+      <c r="M1" s="86"/>
+      <c r="N1" s="86"/>
+      <c r="O1" s="87"/>
+      <c r="P1" s="86" t="s">
         <v>6</v>
       </c>
-      <c r="Q1" s="57"/>
-      <c r="R1" s="57"/>
-      <c r="S1" s="57"/>
-      <c r="T1" s="57"/>
-      <c r="U1" s="57"/>
-      <c r="V1" s="57"/>
-      <c r="W1" s="57"/>
-      <c r="X1" s="57"/>
-      <c r="Y1" s="57"/>
-      <c r="Z1" s="57"/>
-      <c r="AA1" s="57"/>
-      <c r="AB1" s="57"/>
-      <c r="AC1" s="57"/>
-    </row>
-    <row r="2" spans="1:29" x14ac:dyDescent="0.55000000000000004">
+      <c r="Q1" s="86"/>
+      <c r="R1" s="86"/>
+      <c r="S1" s="86"/>
+      <c r="T1" s="86"/>
+      <c r="U1" s="86"/>
+      <c r="V1" s="86"/>
+      <c r="W1" s="86"/>
+      <c r="X1" s="86"/>
+      <c r="Y1" s="86"/>
+      <c r="Z1" s="86"/>
+      <c r="AA1" s="86"/>
+      <c r="AB1" s="86"/>
+      <c r="AC1" s="86"/>
+    </row>
+    <row r="2" spans="1:29" x14ac:dyDescent="0.7">
       <c r="A2" s="1" t="s">
         <v>29</v>
       </c>
@@ -34873,7 +35161,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="3" spans="1:29" x14ac:dyDescent="0.55000000000000004">
+    <row r="3" spans="1:29" x14ac:dyDescent="0.7">
       <c r="A3" s="1">
         <v>2010</v>
       </c>
@@ -34990,7 +35278,7 @@
         <v>18.43393464597612</v>
       </c>
     </row>
-    <row r="4" spans="1:29" x14ac:dyDescent="0.55000000000000004">
+    <row r="4" spans="1:29" x14ac:dyDescent="0.7">
       <c r="A4">
         <v>2020</v>
       </c>
@@ -35107,7 +35395,7 @@
         <v>14.322267991468191</v>
       </c>
     </row>
-    <row r="5" spans="1:29" x14ac:dyDescent="0.55000000000000004">
+    <row r="5" spans="1:29" x14ac:dyDescent="0.7">
       <c r="A5">
         <v>2030</v>
       </c>
@@ -35224,7 +35512,7 @@
         <v>13.47978004620283</v>
       </c>
     </row>
-    <row r="6" spans="1:29" x14ac:dyDescent="0.55000000000000004">
+    <row r="6" spans="1:29" x14ac:dyDescent="0.7">
       <c r="A6">
         <v>2040</v>
       </c>
@@ -35341,7 +35629,7 @@
         <v>11.732501740641883</v>
       </c>
     </row>
-    <row r="7" spans="1:29" x14ac:dyDescent="0.55000000000000004">
+    <row r="7" spans="1:29" x14ac:dyDescent="0.7">
       <c r="A7">
         <v>2050</v>
       </c>
@@ -35476,45 +35764,45 @@
       <selection activeCell="P43" sqref="P43"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.55000000000000004"/>
+  <sheetFormatPr defaultRowHeight="17.649999999999999" x14ac:dyDescent="0.7"/>
   <sheetData>
-    <row r="1" spans="1:30" x14ac:dyDescent="0.55000000000000004">
+    <row r="1" spans="1:30" x14ac:dyDescent="0.7">
       <c r="A1" s="13"/>
       <c r="B1" s="4"/>
-      <c r="C1" s="49" t="s">
-        <v>0</v>
-      </c>
-      <c r="D1" s="59"/>
-      <c r="E1" s="59"/>
-      <c r="F1" s="59"/>
-      <c r="G1" s="59"/>
-      <c r="H1" s="59"/>
-      <c r="I1" s="59"/>
-      <c r="J1" s="59"/>
-      <c r="K1" s="59"/>
-      <c r="L1" s="59"/>
-      <c r="M1" s="59"/>
-      <c r="N1" s="59"/>
-      <c r="O1" s="59"/>
-      <c r="P1" s="60"/>
-      <c r="Q1" s="49" t="s">
+      <c r="C1" s="71" t="s">
+        <v>0</v>
+      </c>
+      <c r="D1" s="88"/>
+      <c r="E1" s="88"/>
+      <c r="F1" s="88"/>
+      <c r="G1" s="88"/>
+      <c r="H1" s="88"/>
+      <c r="I1" s="88"/>
+      <c r="J1" s="88"/>
+      <c r="K1" s="88"/>
+      <c r="L1" s="88"/>
+      <c r="M1" s="88"/>
+      <c r="N1" s="88"/>
+      <c r="O1" s="88"/>
+      <c r="P1" s="72"/>
+      <c r="Q1" s="71" t="s">
         <v>6</v>
       </c>
-      <c r="R1" s="59"/>
-      <c r="S1" s="59"/>
-      <c r="T1" s="59"/>
-      <c r="U1" s="59"/>
-      <c r="V1" s="59"/>
-      <c r="W1" s="59"/>
-      <c r="X1" s="59"/>
-      <c r="Y1" s="59"/>
-      <c r="Z1" s="59"/>
-      <c r="AA1" s="59"/>
-      <c r="AB1" s="59"/>
-      <c r="AC1" s="59"/>
-      <c r="AD1" s="60"/>
-    </row>
-    <row r="2" spans="1:30" x14ac:dyDescent="0.55000000000000004">
+      <c r="R1" s="88"/>
+      <c r="S1" s="88"/>
+      <c r="T1" s="88"/>
+      <c r="U1" s="88"/>
+      <c r="V1" s="88"/>
+      <c r="W1" s="88"/>
+      <c r="X1" s="88"/>
+      <c r="Y1" s="88"/>
+      <c r="Z1" s="88"/>
+      <c r="AA1" s="88"/>
+      <c r="AB1" s="88"/>
+      <c r="AC1" s="88"/>
+      <c r="AD1" s="72"/>
+    </row>
+    <row r="2" spans="1:30" x14ac:dyDescent="0.7">
       <c r="A2" s="10"/>
       <c r="B2" s="5"/>
       <c r="C2" s="32" t="s">
@@ -35602,7 +35890,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="3" spans="1:30" x14ac:dyDescent="0.55000000000000004">
+    <row r="3" spans="1:30" x14ac:dyDescent="0.7">
       <c r="A3" s="13" t="s">
         <v>2</v>
       </c>
@@ -35642,7 +35930,7 @@
         <v>269.51474216725944</v>
       </c>
     </row>
-    <row r="4" spans="1:30" x14ac:dyDescent="0.55000000000000004">
+    <row r="4" spans="1:30" x14ac:dyDescent="0.7">
       <c r="A4" s="11"/>
       <c r="B4" s="3">
         <v>2020</v>
@@ -35680,7 +35968,7 @@
         <v>209.4235083709562</v>
       </c>
     </row>
-    <row r="5" spans="1:30" x14ac:dyDescent="0.55000000000000004">
+    <row r="5" spans="1:30" x14ac:dyDescent="0.7">
       <c r="A5" s="11"/>
       <c r="B5" s="3">
         <v>2030</v>
@@ -35718,7 +36006,7 @@
         <v>167.54962767531052</v>
       </c>
     </row>
-    <row r="6" spans="1:30" x14ac:dyDescent="0.55000000000000004">
+    <row r="6" spans="1:30" x14ac:dyDescent="0.7">
       <c r="A6" s="11"/>
       <c r="B6" s="3">
         <v>2040</v>
@@ -35756,7 +36044,7 @@
         <v>127.39883371760904</v>
       </c>
     </row>
-    <row r="7" spans="1:30" x14ac:dyDescent="0.55000000000000004">
+    <row r="7" spans="1:30" x14ac:dyDescent="0.7">
       <c r="A7" s="11"/>
       <c r="B7" s="3">
         <v>2050</v>
@@ -35794,7 +36082,7 @@
         <v>90.97716432718488</v>
       </c>
     </row>
-    <row r="8" spans="1:30" x14ac:dyDescent="0.55000000000000004">
+    <row r="8" spans="1:30" x14ac:dyDescent="0.7">
       <c r="A8" s="11" t="s">
         <v>3</v>
       </c>
@@ -35834,7 +36122,7 @@
         <v>249.02275586606845</v>
       </c>
     </row>
-    <row r="9" spans="1:30" x14ac:dyDescent="0.55000000000000004">
+    <row r="9" spans="1:30" x14ac:dyDescent="0.7">
       <c r="A9" s="11"/>
       <c r="B9" s="3">
         <v>2020</v>
@@ -35872,7 +36160,7 @@
         <v>196.15609230500672</v>
       </c>
     </row>
-    <row r="10" spans="1:30" x14ac:dyDescent="0.55000000000000004">
+    <row r="10" spans="1:30" x14ac:dyDescent="0.7">
       <c r="A10" s="11"/>
       <c r="B10" s="3">
         <v>2030</v>
@@ -35910,7 +36198,7 @@
         <v>115.50534140000504</v>
       </c>
     </row>
-    <row r="11" spans="1:30" x14ac:dyDescent="0.55000000000000004">
+    <row r="11" spans="1:30" x14ac:dyDescent="0.7">
       <c r="A11" s="11"/>
       <c r="B11" s="3">
         <v>2040</v>
@@ -35948,7 +36236,7 @@
         <v>52.711661410851292</v>
       </c>
     </row>
-    <row r="12" spans="1:30" x14ac:dyDescent="0.55000000000000004">
+    <row r="12" spans="1:30" x14ac:dyDescent="0.7">
       <c r="A12" s="11"/>
       <c r="B12" s="3">
         <v>2050</v>
@@ -35986,7 +36274,7 @@
         <v>6.1649125503111692</v>
       </c>
     </row>
-    <row r="13" spans="1:30" x14ac:dyDescent="0.55000000000000004">
+    <row r="13" spans="1:30" x14ac:dyDescent="0.7">
       <c r="A13" s="11" t="s">
         <v>4</v>
       </c>
@@ -36026,7 +36314,7 @@
         <v>63.618347666356769</v>
       </c>
     </row>
-    <row r="14" spans="1:30" x14ac:dyDescent="0.55000000000000004">
+    <row r="14" spans="1:30" x14ac:dyDescent="0.7">
       <c r="A14" s="11"/>
       <c r="B14" s="3">
         <v>2020</v>
@@ -36064,7 +36352,7 @@
         <v>52.883709709806709</v>
       </c>
     </row>
-    <row r="15" spans="1:30" x14ac:dyDescent="0.55000000000000004">
+    <row r="15" spans="1:30" x14ac:dyDescent="0.7">
       <c r="A15" s="11"/>
       <c r="B15" s="3">
         <v>2030</v>
@@ -36102,7 +36390,7 @@
         <v>38.627958791756519</v>
       </c>
     </row>
-    <row r="16" spans="1:30" x14ac:dyDescent="0.55000000000000004">
+    <row r="16" spans="1:30" x14ac:dyDescent="0.7">
       <c r="A16" s="11"/>
       <c r="B16" s="3">
         <v>2040</v>
@@ -36140,7 +36428,7 @@
         <v>23.098422157558069</v>
       </c>
     </row>
-    <row r="17" spans="1:30" x14ac:dyDescent="0.55000000000000004">
+    <row r="17" spans="1:30" x14ac:dyDescent="0.7">
       <c r="A17" s="11"/>
       <c r="B17" s="3">
         <v>2050</v>
@@ -36178,7 +36466,7 @@
         <v>9.4142221772580257</v>
       </c>
     </row>
-    <row r="18" spans="1:30" x14ac:dyDescent="0.55000000000000004">
+    <row r="18" spans="1:30" x14ac:dyDescent="0.7">
       <c r="A18" s="11" t="s">
         <v>5</v>
       </c>
@@ -36190,7 +36478,7 @@
       <c r="Q18" s="11"/>
       <c r="AD18" s="3"/>
     </row>
-    <row r="19" spans="1:30" x14ac:dyDescent="0.55000000000000004">
+    <row r="19" spans="1:30" x14ac:dyDescent="0.7">
       <c r="A19" s="11"/>
       <c r="B19" s="3">
         <v>2020</v>
@@ -36228,7 +36516,7 @@
         <v>60.215801887775498</v>
       </c>
     </row>
-    <row r="20" spans="1:30" x14ac:dyDescent="0.55000000000000004">
+    <row r="20" spans="1:30" x14ac:dyDescent="0.7">
       <c r="A20" s="11"/>
       <c r="B20" s="3">
         <v>2030</v>
@@ -36266,7 +36554,7 @@
         <v>37.534728870374757</v>
       </c>
     </row>
-    <row r="21" spans="1:30" x14ac:dyDescent="0.55000000000000004">
+    <row r="21" spans="1:30" x14ac:dyDescent="0.7">
       <c r="A21" s="11"/>
       <c r="B21" s="3">
         <v>2040</v>
@@ -36304,7 +36592,7 @@
         <v>19.706822967032455</v>
       </c>
     </row>
-    <row r="22" spans="1:30" x14ac:dyDescent="0.55000000000000004">
+    <row r="22" spans="1:30" x14ac:dyDescent="0.7">
       <c r="A22" s="11"/>
       <c r="B22" s="3">
         <v>2050</v>
@@ -36342,7 +36630,7 @@
         <v>6.300437579028312</v>
       </c>
     </row>
-    <row r="23" spans="1:30" x14ac:dyDescent="0.55000000000000004">
+    <row r="23" spans="1:30" x14ac:dyDescent="0.7">
       <c r="A23" s="11" t="s">
         <v>30</v>
       </c>
@@ -36462,7 +36750,7 @@
         <v>476.37955455993358</v>
       </c>
     </row>
-    <row r="24" spans="1:30" x14ac:dyDescent="0.55000000000000004">
+    <row r="24" spans="1:30" x14ac:dyDescent="0.7">
       <c r="A24" s="11"/>
       <c r="B24" s="3">
         <v>2020</v>
@@ -36580,7 +36868,7 @@
         <v>449.00553720294573</v>
       </c>
     </row>
-    <row r="25" spans="1:30" x14ac:dyDescent="0.55000000000000004">
+    <row r="25" spans="1:30" x14ac:dyDescent="0.7">
       <c r="A25" s="11"/>
       <c r="B25" s="3">
         <v>2030</v>
@@ -36698,7 +36986,7 @@
         <v>350.51710924839961</v>
       </c>
     </row>
-    <row r="26" spans="1:30" x14ac:dyDescent="0.55000000000000004">
+    <row r="26" spans="1:30" x14ac:dyDescent="0.7">
       <c r="A26" s="11"/>
       <c r="B26" s="3">
         <v>2040</v>
@@ -36816,7 +37104,7 @@
         <v>143.49469009958364</v>
       </c>
     </row>
-    <row r="27" spans="1:30" x14ac:dyDescent="0.55000000000000004">
+    <row r="27" spans="1:30" x14ac:dyDescent="0.7">
       <c r="A27" s="11"/>
       <c r="B27" s="3">
         <v>2050</v>
@@ -36934,7 +37222,7 @@
         <v>-123.23016137684743</v>
       </c>
     </row>
-    <row r="28" spans="1:30" x14ac:dyDescent="0.55000000000000004">
+    <row r="28" spans="1:30" x14ac:dyDescent="0.7">
       <c r="A28" s="11" t="s">
         <v>73</v>
       </c>
@@ -36952,7 +37240,7 @@
         <v>28.775119328906975</v>
       </c>
     </row>
-    <row r="29" spans="1:30" x14ac:dyDescent="0.55000000000000004">
+    <row r="29" spans="1:30" x14ac:dyDescent="0.7">
       <c r="A29" s="11"/>
       <c r="B29" s="3">
         <v>2020</v>
@@ -36968,7 +37256,7 @@
         <v>25.99212785621209</v>
       </c>
     </row>
-    <row r="30" spans="1:30" x14ac:dyDescent="0.55000000000000004">
+    <row r="30" spans="1:30" x14ac:dyDescent="0.7">
       <c r="A30" s="11"/>
       <c r="B30" s="3">
         <v>2030</v>
@@ -36984,7 +37272,7 @@
         <v>24.867314415682454</v>
       </c>
     </row>
-    <row r="31" spans="1:30" x14ac:dyDescent="0.55000000000000004">
+    <row r="31" spans="1:30" x14ac:dyDescent="0.7">
       <c r="A31" s="11"/>
       <c r="B31" s="3">
         <v>2040</v>
@@ -37000,7 +37288,7 @@
         <v>23.742500975152865</v>
       </c>
     </row>
-    <row r="32" spans="1:30" x14ac:dyDescent="0.55000000000000004">
+    <row r="32" spans="1:30" x14ac:dyDescent="0.7">
       <c r="A32" s="11"/>
       <c r="B32" s="3">
         <v>2050</v>
@@ -37016,7 +37304,7 @@
         <v>22.617687534623279</v>
       </c>
     </row>
-    <row r="33" spans="1:30" x14ac:dyDescent="0.55000000000000004">
+    <row r="33" spans="1:30" x14ac:dyDescent="0.7">
       <c r="A33" s="11" t="s">
         <v>74</v>
       </c>
@@ -37034,7 +37322,7 @@
         <v>29.46362437612942</v>
       </c>
     </row>
-    <row r="34" spans="1:30" x14ac:dyDescent="0.55000000000000004">
+    <row r="34" spans="1:30" x14ac:dyDescent="0.7">
       <c r="A34" s="11"/>
       <c r="B34" s="3">
         <v>2020</v>
@@ -37050,7 +37338,7 @@
         <v>31.085649151718691</v>
       </c>
     </row>
-    <row r="35" spans="1:30" x14ac:dyDescent="0.55000000000000004">
+    <row r="35" spans="1:30" x14ac:dyDescent="0.7">
       <c r="A35" s="11"/>
       <c r="B35" s="3">
         <v>2030</v>
@@ -37066,7 +37354,7 @@
         <v>29.740412772193682</v>
       </c>
     </row>
-    <row r="36" spans="1:30" x14ac:dyDescent="0.55000000000000004">
+    <row r="36" spans="1:30" x14ac:dyDescent="0.7">
       <c r="A36" s="11"/>
       <c r="B36" s="3">
         <v>2040</v>
@@ -37082,7 +37370,7 @@
         <v>28.395176392668731</v>
       </c>
     </row>
-    <row r="37" spans="1:30" x14ac:dyDescent="0.55000000000000004">
+    <row r="37" spans="1:30" x14ac:dyDescent="0.7">
       <c r="A37" s="11"/>
       <c r="B37" s="3">
         <v>2050</v>
@@ -37098,7 +37386,7 @@
         <v>27.049940013143782</v>
       </c>
     </row>
-    <row r="38" spans="1:30" x14ac:dyDescent="0.55000000000000004">
+    <row r="38" spans="1:30" x14ac:dyDescent="0.7">
       <c r="A38" s="11" t="s">
         <v>75</v>
       </c>
@@ -37116,7 +37404,7 @@
         <v>-54.3</v>
       </c>
     </row>
-    <row r="39" spans="1:30" x14ac:dyDescent="0.55000000000000004">
+    <row r="39" spans="1:30" x14ac:dyDescent="0.7">
       <c r="A39" s="11"/>
       <c r="B39" s="3">
         <v>2020</v>
@@ -37132,7 +37420,7 @@
         <v>-54.3</v>
       </c>
     </row>
-    <row r="40" spans="1:30" x14ac:dyDescent="0.55000000000000004">
+    <row r="40" spans="1:30" x14ac:dyDescent="0.7">
       <c r="A40" s="11"/>
       <c r="B40" s="3">
         <v>2030</v>
@@ -37148,7 +37436,7 @@
         <v>-54.3</v>
       </c>
     </row>
-    <row r="41" spans="1:30" x14ac:dyDescent="0.55000000000000004">
+    <row r="41" spans="1:30" x14ac:dyDescent="0.7">
       <c r="A41" s="11"/>
       <c r="B41" s="3">
         <v>2040</v>
@@ -37164,7 +37452,7 @@
         <v>-54.3</v>
       </c>
     </row>
-    <row r="42" spans="1:30" x14ac:dyDescent="0.55000000000000004">
+    <row r="42" spans="1:30" x14ac:dyDescent="0.7">
       <c r="A42" s="11"/>
       <c r="B42" s="3">
         <v>2050</v>
@@ -37180,7 +37468,7 @@
         <v>-54.3</v>
       </c>
     </row>
-    <row r="43" spans="1:30" x14ac:dyDescent="0.55000000000000004">
+    <row r="43" spans="1:30" x14ac:dyDescent="0.7">
       <c r="A43" s="11" t="s">
         <v>28</v>
       </c>
@@ -37300,7 +37588,7 @@
         <v>1062.4741439646548</v>
       </c>
     </row>
-    <row r="44" spans="1:30" x14ac:dyDescent="0.55000000000000004">
+    <row r="44" spans="1:30" x14ac:dyDescent="0.7">
       <c r="A44" s="11"/>
       <c r="B44">
         <v>2020</v>
@@ -37418,7 +37706,7 @@
         <v>970.46242648442171</v>
       </c>
     </row>
-    <row r="45" spans="1:30" x14ac:dyDescent="0.55000000000000004">
+    <row r="45" spans="1:30" x14ac:dyDescent="0.7">
       <c r="A45" s="11"/>
       <c r="B45">
         <v>2030</v>
@@ -37536,7 +37824,7 @@
         <v>710.04249317372273</v>
       </c>
     </row>
-    <row r="46" spans="1:30" x14ac:dyDescent="0.55000000000000004">
+    <row r="46" spans="1:30" x14ac:dyDescent="0.7">
       <c r="A46" s="11"/>
       <c r="B46">
         <v>2040</v>
@@ -37654,7 +37942,7 @@
         <v>364.24810772045618</v>
       </c>
     </row>
-    <row r="47" spans="1:30" x14ac:dyDescent="0.55000000000000004">
+    <row r="47" spans="1:30" x14ac:dyDescent="0.7">
       <c r="A47" s="10"/>
       <c r="B47" s="5">
         <v>2050</v>
@@ -37787,17 +38075,16 @@
   <dimension ref="A1:F10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="I6" sqref="I6:J6"/>
+      <selection activeCell="D12" sqref="D12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.55000000000000004"/>
+  <sheetFormatPr defaultRowHeight="17.649999999999999" x14ac:dyDescent="0.7"/>
   <cols>
-    <col min="1" max="1" width="9.33203125" customWidth="1"/>
-    <col min="4" max="4" width="9.58203125" customWidth="1"/>
-    <col min="5" max="5" width="10.58203125" customWidth="1"/>
+    <col min="1" max="1" width="16.375" customWidth="1"/>
+    <col min="2" max="6" width="12.6875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" ht="36" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="1" spans="1:6" ht="36" customHeight="1" x14ac:dyDescent="0.7">
       <c r="A1" s="34"/>
       <c r="B1" s="34">
         <v>2010</v>
@@ -37806,7 +38093,7 @@
         <v>2020</v>
       </c>
       <c r="D1" s="35" t="s">
-        <v>94</v>
+        <v>107</v>
       </c>
       <c r="E1" s="35" t="s">
         <v>92</v>
@@ -37815,218 +38102,218 @@
         <v>93</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.7">
       <c r="A2" s="34" t="s">
         <v>2</v>
       </c>
-      <c r="B2" s="34">
+      <c r="B2" s="94">
         <f>[1]部門別CO2排出量!P3</f>
         <v>269.51474216725944</v>
       </c>
-      <c r="C2" s="34">
+      <c r="C2" s="94">
         <f>[1]部門別CO2排出量!P4</f>
         <v>209.4235083709562</v>
       </c>
-      <c r="D2" s="34">
+      <c r="D2" s="94">
         <v>257.81349782866999</v>
       </c>
-      <c r="E2" s="34">
+      <c r="E2" s="94">
         <f>部門別CO2排出量!P7</f>
         <v>86.631169360128993</v>
       </c>
-      <c r="F2" s="34">
+      <c r="F2" s="94">
         <f>部門別CO2排出量!AD7</f>
         <v>90.97716432718488</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.7">
       <c r="A3" s="34" t="s">
         <v>3</v>
       </c>
-      <c r="B3" s="34">
+      <c r="B3" s="94">
         <f>[1]部門別CO2排出量!P8</f>
         <v>249.02275586606845</v>
       </c>
-      <c r="C3" s="34">
+      <c r="C3" s="94">
         <f>[1]部門別CO2排出量!P9</f>
         <v>196.15609230500672</v>
       </c>
-      <c r="D3" s="34">
+      <c r="D3" s="94">
         <v>170.69003462550376</v>
       </c>
-      <c r="E3" s="34">
+      <c r="E3" s="94">
         <f>部門別CO2排出量!P12</f>
         <v>6.1649125503111692</v>
       </c>
-      <c r="F3" s="34">
+      <c r="F3" s="94">
         <f>部門別CO2排出量!AD12</f>
         <v>6.1649125503111692</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.7">
       <c r="A4" s="34" t="s">
         <v>4</v>
       </c>
-      <c r="B4" s="34">
+      <c r="B4" s="94">
         <f>[1]部門別CO2排出量!P13</f>
         <v>63.618347666356769</v>
       </c>
-      <c r="C4" s="34">
+      <c r="C4" s="94">
         <f>[1]部門別CO2排出量!P14</f>
         <v>52.883709709806709</v>
       </c>
-      <c r="D4" s="34">
+      <c r="D4" s="94">
         <v>65.1157721973603</v>
       </c>
-      <c r="E4" s="34">
+      <c r="E4" s="94">
         <f>部門別CO2排出量!P17</f>
         <v>9.4142221772580257</v>
       </c>
-      <c r="F4" s="34">
+      <c r="F4" s="94">
         <f>部門別CO2排出量!AD17</f>
         <v>9.4142221772580257</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.7">
       <c r="A5" s="34" t="s">
         <v>5</v>
       </c>
-      <c r="B5" s="34">
+      <c r="B5" s="94">
         <f>[1]部門別CO2排出量!P18</f>
         <v>69.588005432578569</v>
       </c>
-      <c r="C5" s="34">
+      <c r="C5" s="94">
         <f>[1]部門別CO2排出量!P14</f>
         <v>52.883709709806709</v>
       </c>
-      <c r="D5" s="34">
+      <c r="D5" s="94">
         <v>52.398256859873904</v>
       </c>
-      <c r="E5" s="34">
+      <c r="E5" s="94">
         <f>部門別CO2排出量!P22</f>
         <v>6.300437579028312</v>
       </c>
-      <c r="F5" s="34">
+      <c r="F5" s="94">
         <f>部門別CO2排出量!AD22</f>
         <v>6.300437579028312</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.7">
       <c r="A6" s="34" t="s">
         <v>30</v>
       </c>
-      <c r="B6" s="36">
+      <c r="B6" s="94">
         <f>部門別CO2排出量!P23</f>
         <v>476.37955455993358</v>
       </c>
-      <c r="C6" s="36">
+      <c r="C6" s="94">
         <f>部門別CO2排出量!P24</f>
         <v>449.00553720294573</v>
       </c>
-      <c r="D6" s="36">
+      <c r="D6" s="94">
         <v>-501.30397147079947</v>
       </c>
-      <c r="E6" s="36">
+      <c r="E6" s="94">
         <f>部門別CO2排出量!P27</f>
         <v>-501.30397147079947</v>
       </c>
-      <c r="F6" s="36">
+      <c r="F6" s="94">
         <f>部門別CO2排出量!AD27</f>
         <v>-123.23016137684743</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.7">
       <c r="A7" s="34" t="s">
         <v>73</v>
       </c>
-      <c r="B7" s="34">
+      <c r="B7" s="94">
         <f>[1]部門別CO2排出量!P28</f>
         <v>28.775119328906975</v>
       </c>
-      <c r="C7" s="34">
+      <c r="C7" s="94">
         <f>[1]部門別CO2排出量!P29</f>
         <v>25.99212785621209</v>
       </c>
-      <c r="D7" s="34">
+      <c r="D7" s="94">
         <v>22.617687534623279</v>
       </c>
-      <c r="E7" s="34">
+      <c r="E7" s="94">
         <f>部門別CO2排出量!P32</f>
         <v>22.617687534623279</v>
       </c>
-      <c r="F7" s="34">
+      <c r="F7" s="94">
         <f>部門別CO2排出量!AD32</f>
         <v>22.617687534623279</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.7">
       <c r="A8" s="34" t="s">
         <v>74</v>
       </c>
-      <c r="B8" s="34">
+      <c r="B8" s="94">
         <f>[1]部門別CO2排出量!P33</f>
         <v>29.46362437612942</v>
       </c>
-      <c r="C8" s="34">
+      <c r="C8" s="94">
         <f>[1]部門別CO2排出量!P34</f>
         <v>31.085649151718691</v>
       </c>
-      <c r="D8" s="34">
+      <c r="D8" s="94">
         <v>27.049940013143782</v>
       </c>
-      <c r="E8" s="34">
+      <c r="E8" s="94">
         <f>部門別CO2排出量!P37</f>
         <v>27.049940013143782</v>
       </c>
-      <c r="F8" s="34">
+      <c r="F8" s="94">
         <f>部門別CO2排出量!AD37</f>
         <v>27.049940013143782</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.7">
       <c r="A9" s="34" t="s">
         <v>75</v>
       </c>
-      <c r="B9" s="34">
+      <c r="B9" s="94">
         <f>[1]部門別CO2排出量!P38</f>
         <v>-54.3</v>
       </c>
-      <c r="C9" s="34">
+      <c r="C9" s="94">
         <f>[1]部門別CO2排出量!P39</f>
         <v>-54.3</v>
       </c>
-      <c r="D9" s="34">
+      <c r="D9" s="94">
         <v>-54.3</v>
       </c>
-      <c r="E9" s="34">
+      <c r="E9" s="94">
         <f>部門別CO2排出量!P42</f>
         <v>-54.3</v>
       </c>
-      <c r="F9" s="34">
+      <c r="F9" s="94">
         <f>部門別CO2排出量!AD42</f>
         <v>-54.3</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.7">
       <c r="A10" s="34" t="s">
-        <v>27</v>
-      </c>
-      <c r="B10" s="34">
+        <v>108</v>
+      </c>
+      <c r="B10" s="94">
         <f>SUM(B2:B9)</f>
         <v>1132.0621493972333</v>
       </c>
-      <c r="C10" s="34">
+      <c r="C10" s="94">
         <f>SUM(C2:C9)</f>
         <v>963.13033430645282</v>
       </c>
-      <c r="D10" s="34">
+      <c r="D10" s="94">
         <v>40.081217588375566</v>
       </c>
-      <c r="E10" s="34">
+      <c r="E10" s="94">
         <f>SUM(E2:E9)</f>
         <v>-397.42560225630592</v>
       </c>
-      <c r="F10" s="34">
+      <c r="F10" s="94">
         <f>SUM(F2:F9)</f>
         <v>-15.00579719529798</v>
       </c>
@@ -38048,80 +38335,80 @@
       <selection activeCell="H39" sqref="H39"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.55000000000000004"/>
+  <sheetFormatPr defaultRowHeight="17.649999999999999" x14ac:dyDescent="0.7"/>
   <cols>
-    <col min="1" max="52" width="28.9140625" customWidth="1"/>
-    <col min="53" max="60" width="14.33203125" customWidth="1"/>
+    <col min="1" max="52" width="28.9375" customWidth="1"/>
+    <col min="53" max="60" width="14.3125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:52" ht="37.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="B1" s="57" t="s">
+    <row r="1" spans="1:52" ht="37.5" customHeight="1" x14ac:dyDescent="0.7">
+      <c r="B1" s="86" t="s">
         <v>85</v>
       </c>
-      <c r="C1" s="57"/>
-      <c r="D1" s="57"/>
-      <c r="E1" s="57"/>
-      <c r="F1" s="57"/>
-      <c r="G1" s="57"/>
-      <c r="H1" s="57"/>
-      <c r="I1" s="57"/>
-      <c r="J1" s="57"/>
-      <c r="K1" s="57"/>
-      <c r="L1" s="57"/>
-      <c r="M1" s="57"/>
-      <c r="N1" s="57"/>
-      <c r="O1" s="57" t="s">
+      <c r="C1" s="86"/>
+      <c r="D1" s="86"/>
+      <c r="E1" s="86"/>
+      <c r="F1" s="86"/>
+      <c r="G1" s="86"/>
+      <c r="H1" s="86"/>
+      <c r="I1" s="86"/>
+      <c r="J1" s="86"/>
+      <c r="K1" s="86"/>
+      <c r="L1" s="86"/>
+      <c r="M1" s="86"/>
+      <c r="N1" s="86"/>
+      <c r="O1" s="86" t="s">
         <v>86</v>
       </c>
-      <c r="P1" s="57"/>
-      <c r="Q1" s="57"/>
-      <c r="R1" s="57"/>
-      <c r="S1" s="57"/>
-      <c r="T1" s="57"/>
-      <c r="U1" s="57"/>
-      <c r="V1" s="57"/>
-      <c r="W1" s="57"/>
-      <c r="X1" s="57"/>
-      <c r="Y1" s="57"/>
-      <c r="Z1" s="57"/>
-      <c r="AA1" s="57"/>
-      <c r="AB1" s="61" t="s">
+      <c r="P1" s="86"/>
+      <c r="Q1" s="86"/>
+      <c r="R1" s="86"/>
+      <c r="S1" s="86"/>
+      <c r="T1" s="86"/>
+      <c r="U1" s="86"/>
+      <c r="V1" s="86"/>
+      <c r="W1" s="86"/>
+      <c r="X1" s="86"/>
+      <c r="Y1" s="86"/>
+      <c r="Z1" s="86"/>
+      <c r="AA1" s="86"/>
+      <c r="AB1" s="89" t="s">
         <v>87</v>
       </c>
-      <c r="AC1" s="61"/>
-      <c r="AD1" s="61"/>
-      <c r="AE1" s="61"/>
-      <c r="AF1" s="61"/>
-      <c r="AG1" s="61" t="s">
+      <c r="AC1" s="89"/>
+      <c r="AD1" s="89"/>
+      <c r="AE1" s="89"/>
+      <c r="AF1" s="89"/>
+      <c r="AG1" s="89" t="s">
         <v>88</v>
       </c>
-      <c r="AH1" s="61"/>
-      <c r="AI1" s="61"/>
-      <c r="AJ1" s="61"/>
-      <c r="AK1" s="61"/>
-      <c r="AL1" s="61" t="s">
+      <c r="AH1" s="89"/>
+      <c r="AI1" s="89"/>
+      <c r="AJ1" s="89"/>
+      <c r="AK1" s="89"/>
+      <c r="AL1" s="89" t="s">
         <v>89</v>
       </c>
-      <c r="AM1" s="61"/>
-      <c r="AN1" s="61"/>
-      <c r="AO1" s="61"/>
-      <c r="AP1" s="61"/>
-      <c r="AQ1" s="61" t="s">
+      <c r="AM1" s="89"/>
+      <c r="AN1" s="89"/>
+      <c r="AO1" s="89"/>
+      <c r="AP1" s="89"/>
+      <c r="AQ1" s="89" t="s">
         <v>90</v>
       </c>
-      <c r="AR1" s="61"/>
-      <c r="AS1" s="61"/>
-      <c r="AT1" s="61"/>
-      <c r="AU1" s="61"/>
-      <c r="AV1" s="61" t="s">
+      <c r="AR1" s="89"/>
+      <c r="AS1" s="89"/>
+      <c r="AT1" s="89"/>
+      <c r="AU1" s="89"/>
+      <c r="AV1" s="89" t="s">
         <v>91</v>
       </c>
-      <c r="AW1" s="61"/>
-      <c r="AX1" s="61"/>
-      <c r="AY1" s="61"/>
-      <c r="AZ1" s="61"/>
-    </row>
-    <row r="2" spans="1:52" x14ac:dyDescent="0.55000000000000004">
+      <c r="AW1" s="89"/>
+      <c r="AX1" s="89"/>
+      <c r="AY1" s="89"/>
+      <c r="AZ1" s="89"/>
+    </row>
+    <row r="2" spans="1:52" x14ac:dyDescent="0.7">
       <c r="B2" t="s">
         <v>7</v>
       </c>
@@ -38276,7 +38563,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="3" spans="1:52" x14ac:dyDescent="0.55000000000000004">
+    <row r="3" spans="1:52" x14ac:dyDescent="0.7">
       <c r="A3" s="2">
         <v>2010</v>
       </c>
@@ -38485,7 +38772,7 @@
         <v>1.0839281159578253</v>
       </c>
     </row>
-    <row r="4" spans="1:52" x14ac:dyDescent="0.55000000000000004">
+    <row r="4" spans="1:52" x14ac:dyDescent="0.7">
       <c r="A4" s="2">
         <v>2020</v>
       </c>
@@ -38694,7 +38981,7 @@
         <v>0.95755293647594575</v>
       </c>
     </row>
-    <row r="5" spans="1:52" x14ac:dyDescent="0.55000000000000004">
+    <row r="5" spans="1:52" x14ac:dyDescent="0.7">
       <c r="A5" s="2" t="str">
         <f>シナリオ!E1&amp;CHAR(10) &amp;"（2050年）"</f>
         <v>ベースライン
@@ -38854,7 +39141,7 @@
         <v>0.83323817252990939</v>
       </c>
     </row>
-    <row r="6" spans="1:52" x14ac:dyDescent="0.55000000000000004">
+    <row r="6" spans="1:52" x14ac:dyDescent="0.7">
       <c r="A6" s="2" t="str">
         <f>シナリオ!F1&amp;CHAR(10) &amp;"（2050年）"</f>
         <v>シナリオ1
@@ -39065,7 +39352,7 @@
         <v>0.89845812178656848</v>
       </c>
     </row>
-    <row r="7" spans="1:52" x14ac:dyDescent="0.55000000000000004">
+    <row r="7" spans="1:52" x14ac:dyDescent="0.7">
       <c r="A7" s="2" t="str">
         <f>シナリオ!H1&amp;CHAR(10) &amp;"（2050年）"</f>
         <v>シナリオ2
@@ -39276,15 +39563,15 @@
         <v>0.89845812178656848</v>
       </c>
     </row>
-    <row r="8" spans="1:52" x14ac:dyDescent="0.55000000000000004">
+    <row r="8" spans="1:52" x14ac:dyDescent="0.7">
       <c r="A8" s="2"/>
     </row>
-    <row r="9" spans="1:52" x14ac:dyDescent="0.55000000000000004">
+    <row r="9" spans="1:52" x14ac:dyDescent="0.7">
       <c r="A9" s="2"/>
     </row>
-    <row r="10" spans="1:52" ht="36" x14ac:dyDescent="0.55000000000000004">
+    <row r="10" spans="1:52" ht="35.25" x14ac:dyDescent="0.7">
       <c r="A10" s="2" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="B10" s="2" t="str">
         <f>シナリオ!E1</f>
@@ -39320,7 +39607,7 @@
 （2050年）</v>
       </c>
     </row>
-    <row r="11" spans="1:52" x14ac:dyDescent="0.55000000000000004">
+    <row r="11" spans="1:52" x14ac:dyDescent="0.7">
       <c r="A11" s="2">
         <v>2010</v>
       </c>
@@ -39358,7 +39645,7 @@
         <v>90.97716432718488</v>
       </c>
     </row>
-    <row r="12" spans="1:52" x14ac:dyDescent="0.55000000000000004">
+    <row r="12" spans="1:52" x14ac:dyDescent="0.7">
       <c r="A12" s="2">
         <v>2020</v>
       </c>
@@ -39396,7 +39683,7 @@
         <v>6.1649125503111692</v>
       </c>
     </row>
-    <row r="13" spans="1:52" x14ac:dyDescent="0.55000000000000004">
+    <row r="13" spans="1:52" x14ac:dyDescent="0.7">
       <c r="A13" s="2">
         <v>2030</v>
       </c>
@@ -39434,7 +39721,7 @@
         <v>9.4142221772580257</v>
       </c>
     </row>
-    <row r="14" spans="1:52" x14ac:dyDescent="0.55000000000000004">
+    <row r="14" spans="1:52" x14ac:dyDescent="0.7">
       <c r="A14" s="2">
         <v>2040</v>
       </c>
@@ -39472,7 +39759,7 @@
         <v>6.300437579028312</v>
       </c>
     </row>
-    <row r="15" spans="1:52" x14ac:dyDescent="0.55000000000000004">
+    <row r="15" spans="1:52" x14ac:dyDescent="0.7">
       <c r="A15" s="2">
         <v>2050</v>
       </c>
@@ -39510,7 +39797,7 @@
         <v>-123.23016137684743</v>
       </c>
     </row>
-    <row r="16" spans="1:52" x14ac:dyDescent="0.55000000000000004">
+    <row r="16" spans="1:52" x14ac:dyDescent="0.7">
       <c r="A16" s="2"/>
       <c r="B16" s="2"/>
       <c r="C16" s="2"/>
@@ -39538,12 +39825,12 @@
         <v>22.617687534623279</v>
       </c>
     </row>
-    <row r="17" spans="1:11" x14ac:dyDescent="0.55000000000000004">
+    <row r="17" spans="1:11" x14ac:dyDescent="0.7">
       <c r="A17" s="2" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="B17" s="33" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="C17" s="2" t="str">
         <f>シナリオ!F1</f>
@@ -39576,7 +39863,7 @@
         <v>27.049940013143782</v>
       </c>
     </row>
-    <row r="18" spans="1:11" x14ac:dyDescent="0.55000000000000004">
+    <row r="18" spans="1:11" x14ac:dyDescent="0.7">
       <c r="A18" s="2">
         <v>2010</v>
       </c>
@@ -39614,7 +39901,7 @@
         <v>-54.3</v>
       </c>
     </row>
-    <row r="19" spans="1:11" x14ac:dyDescent="0.55000000000000004">
+    <row r="19" spans="1:11" x14ac:dyDescent="0.7">
       <c r="A19" s="2">
         <v>2020</v>
       </c>
@@ -39630,7 +39917,7 @@
         <v>10.093993459056732</v>
       </c>
     </row>
-    <row r="20" spans="1:11" x14ac:dyDescent="0.55000000000000004">
+    <row r="20" spans="1:11" x14ac:dyDescent="0.7">
       <c r="A20" s="2">
         <v>2030</v>
       </c>
@@ -39646,7 +39933,7 @@
         <v>11.154268672170637</v>
       </c>
     </row>
-    <row r="21" spans="1:11" x14ac:dyDescent="0.55000000000000004">
+    <row r="21" spans="1:11" x14ac:dyDescent="0.7">
       <c r="A21" s="2">
         <v>2040</v>
       </c>
@@ -39662,7 +39949,7 @@
         <v>12.214543885284558</v>
       </c>
     </row>
-    <row r="22" spans="1:11" x14ac:dyDescent="0.55000000000000004">
+    <row r="22" spans="1:11" x14ac:dyDescent="0.7">
       <c r="A22" s="2">
         <v>2050</v>
       </c>
@@ -39678,18 +39965,18 @@
         <v>13.274819098398471</v>
       </c>
     </row>
-    <row r="23" spans="1:11" x14ac:dyDescent="0.55000000000000004">
+    <row r="23" spans="1:11" x14ac:dyDescent="0.7">
       <c r="A23" s="2"/>
       <c r="B23" s="2"/>
       <c r="C23" s="2"/>
       <c r="D23" s="2"/>
     </row>
-    <row r="24" spans="1:11" x14ac:dyDescent="0.55000000000000004">
+    <row r="24" spans="1:11" x14ac:dyDescent="0.7">
       <c r="A24" s="2" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="B24" s="33" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="C24" s="2" t="str">
         <f>シナリオ!F1</f>
@@ -39700,7 +39987,7 @@
         <v>シナリオ2</v>
       </c>
     </row>
-    <row r="25" spans="1:11" x14ac:dyDescent="0.55000000000000004">
+    <row r="25" spans="1:11" x14ac:dyDescent="0.7">
       <c r="A25" s="2">
         <v>2010</v>
       </c>
@@ -39716,7 +40003,7 @@
         <v>78.783435162773898</v>
       </c>
     </row>
-    <row r="26" spans="1:11" x14ac:dyDescent="0.55000000000000004">
+    <row r="26" spans="1:11" x14ac:dyDescent="0.7">
       <c r="A26" s="2">
         <v>2020</v>
       </c>
@@ -39732,7 +40019,7 @@
         <v>88.304168489581173</v>
       </c>
     </row>
-    <row r="27" spans="1:11" x14ac:dyDescent="0.55000000000000004">
+    <row r="27" spans="1:11" x14ac:dyDescent="0.7">
       <c r="A27" s="2">
         <v>2030</v>
       </c>
@@ -39748,7 +40035,7 @@
         <v>73.19607686582529</v>
       </c>
     </row>
-    <row r="28" spans="1:11" x14ac:dyDescent="0.55000000000000004">
+    <row r="28" spans="1:11" x14ac:dyDescent="0.7">
       <c r="A28" s="2">
         <v>2040</v>
       </c>
@@ -39764,7 +40051,7 @@
         <v>52.148376625959138</v>
       </c>
     </row>
-    <row r="29" spans="1:11" ht="19" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="29" spans="1:11" ht="19.05" customHeight="1" x14ac:dyDescent="0.7">
       <c r="A29" s="2">
         <v>2050</v>
       </c>
@@ -39780,15 +40067,15 @@
         <v>20.890520298358474</v>
       </c>
     </row>
-    <row r="30" spans="1:11" x14ac:dyDescent="0.55000000000000004">
+    <row r="30" spans="1:11" x14ac:dyDescent="0.7">
       <c r="A30" s="21"/>
     </row>
-    <row r="31" spans="1:11" x14ac:dyDescent="0.55000000000000004">
+    <row r="31" spans="1:11" x14ac:dyDescent="0.7">
       <c r="A31" s="33" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="B31" s="33" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="C31" s="2" t="str">
         <f>シナリオ!F1</f>
@@ -39799,7 +40086,7 @@
         <v>シナリオ2</v>
       </c>
     </row>
-    <row r="32" spans="1:11" x14ac:dyDescent="0.55000000000000004">
+    <row r="32" spans="1:11" x14ac:dyDescent="0.7">
       <c r="A32" s="2">
         <v>2010</v>
       </c>
@@ -39815,7 +40102,7 @@
         <v>70.943107201375042</v>
       </c>
     </row>
-    <row r="33" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="33" spans="1:4" x14ac:dyDescent="0.7">
       <c r="A33" s="2">
         <v>2020</v>
       </c>
@@ -39831,7 +40118,7 @@
         <v>76.403160940504492</v>
       </c>
     </row>
-    <row r="34" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="34" spans="1:4" x14ac:dyDescent="0.7">
       <c r="A34" s="2">
         <v>2030</v>
       </c>
@@ -39847,7 +40134,7 @@
         <v>83.53874992188463</v>
       </c>
     </row>
-    <row r="35" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="35" spans="1:4" x14ac:dyDescent="0.7">
       <c r="A35" s="2">
         <v>2040</v>
       </c>
@@ -39863,7 +40150,7 @@
         <v>89.129680638015472</v>
       </c>
     </row>
-    <row r="36" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="36" spans="1:4" x14ac:dyDescent="0.7">
       <c r="A36" s="2">
         <v>2050</v>
       </c>
@@ -39879,59 +40166,59 @@
         <v>92.523874515413439</v>
       </c>
     </row>
-    <row r="37" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="37" spans="1:4" x14ac:dyDescent="0.7">
       <c r="A37" s="21"/>
     </row>
-    <row r="38" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="38" spans="1:4" x14ac:dyDescent="0.7">
       <c r="A38" s="21"/>
     </row>
-    <row r="39" spans="1:4" ht="37.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="39" spans="1:4" ht="37.5" customHeight="1" x14ac:dyDescent="0.7">
       <c r="A39" s="21"/>
     </row>
-    <row r="40" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="40" spans="1:4" x14ac:dyDescent="0.7">
       <c r="A40" s="21"/>
     </row>
-    <row r="41" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="41" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.7">
       <c r="A41" s="21"/>
     </row>
-    <row r="42" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="42" spans="1:4" x14ac:dyDescent="0.7">
       <c r="A42" s="21"/>
     </row>
-    <row r="43" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="43" spans="1:4" x14ac:dyDescent="0.7">
       <c r="A43" s="21"/>
     </row>
-    <row r="44" spans="1:4" ht="37.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="44" spans="1:4" ht="37.5" customHeight="1" x14ac:dyDescent="0.7">
       <c r="A44" s="21"/>
     </row>
-    <row r="45" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="45" spans="1:4" x14ac:dyDescent="0.7">
       <c r="A45" s="21"/>
     </row>
-    <row r="46" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="46" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.7">
       <c r="A46" s="21"/>
     </row>
-    <row r="47" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="47" spans="1:4" x14ac:dyDescent="0.7">
       <c r="A47" s="21"/>
     </row>
-    <row r="48" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="48" spans="1:4" x14ac:dyDescent="0.7">
       <c r="A48" s="21"/>
     </row>
-    <row r="49" spans="1:1" ht="37.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="49" spans="1:1" ht="37.5" customHeight="1" x14ac:dyDescent="0.7">
       <c r="A49" s="21"/>
     </row>
-    <row r="50" spans="1:1" x14ac:dyDescent="0.55000000000000004">
+    <row r="50" spans="1:1" x14ac:dyDescent="0.7">
       <c r="A50" s="21"/>
     </row>
-    <row r="51" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="51" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.7">
       <c r="A51" s="21"/>
     </row>
-    <row r="52" spans="1:1" x14ac:dyDescent="0.55000000000000004">
+    <row r="52" spans="1:1" x14ac:dyDescent="0.7">
       <c r="A52" s="21"/>
     </row>
-    <row r="53" spans="1:1" x14ac:dyDescent="0.55000000000000004">
+    <row r="53" spans="1:1" x14ac:dyDescent="0.7">
       <c r="A53" s="21"/>
     </row>
-    <row r="56" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.55000000000000004"/>
-    <row r="61" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.55000000000000004"/>
+    <row r="56" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.7"/>
+    <row r="61" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.7"/>
   </sheetData>
   <mergeCells count="7">
     <mergeCell ref="AL1:AP1"/>
@@ -39955,14 +40242,14 @@
       <selection activeCell="F15" sqref="F15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10" defaultRowHeight="18" x14ac:dyDescent="0.55000000000000004"/>
+  <sheetFormatPr defaultColWidth="10" defaultRowHeight="17.649999999999999" x14ac:dyDescent="0.7"/>
   <cols>
     <col min="1" max="1" width="10" style="16"/>
-    <col min="2" max="2" width="12.83203125" style="16" customWidth="1"/>
+    <col min="2" max="2" width="12.8125" style="16" customWidth="1"/>
     <col min="3" max="16384" width="10" style="16"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.7">
       <c r="A1" s="16" t="s">
         <v>29</v>
       </c>
@@ -39970,7 +40257,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.7">
       <c r="A2" s="16">
         <v>2010</v>
       </c>
@@ -39978,7 +40265,7 @@
         <v>1.8290999999999999</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.7">
       <c r="A3" s="16">
         <v>2011</v>
       </c>
@@ -39986,7 +40273,7 @@
         <v>1.84255172981084</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.7">
       <c r="A4" s="16">
         <v>2012</v>
       </c>
@@ -39994,7 +40281,7 @@
         <v>1.8560844157716301</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.7">
       <c r="A5" s="16">
         <v>2013</v>
       </c>
@@ -40002,7 +40289,7 @@
         <v>1.86970067145606</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.7">
       <c r="A6" s="16">
         <v>2014</v>
       </c>
@@ -40010,7 +40297,7 @@
         <v>1.88340306051096</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.7">
       <c r="A7" s="16">
         <v>2015</v>
       </c>
@@ -40018,7 +40305,7 @@
         <v>1.8971942330291101</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="8" spans="1:2" x14ac:dyDescent="0.7">
       <c r="A8" s="16">
         <v>2016</v>
       </c>
@@ -40026,7 +40313,7 @@
         <v>1.90451712657732</v>
       </c>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="9" spans="1:2" x14ac:dyDescent="0.7">
       <c r="A9" s="16">
         <v>2017</v>
       </c>
@@ -40034,7 +40321,7 @@
         <v>1.9118925866193599</v>
       </c>
     </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="10" spans="1:2" x14ac:dyDescent="0.7">
       <c r="A10" s="16">
         <v>2018</v>
       </c>
@@ -40042,7 +40329,7 @@
         <v>1.91932266425757</v>
       </c>
     </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="11" spans="1:2" x14ac:dyDescent="0.7">
       <c r="A11" s="16">
         <v>2019</v>
       </c>
@@ -40050,7 +40337,7 @@
         <v>1.92680944811888</v>
       </c>
     </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="12" spans="1:2" x14ac:dyDescent="0.7">
       <c r="A12" s="16">
         <v>2020</v>
       </c>
@@ -40058,7 +40345,7 @@
         <v>1.9343550010106301</v>
       </c>
     </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="13" spans="1:2" x14ac:dyDescent="0.7">
       <c r="A13" s="16">
         <v>2021</v>
       </c>
@@ -40066,7 +40353,7 @@
         <v>1.9404369264602701</v>
       </c>
     </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="14" spans="1:2" x14ac:dyDescent="0.7">
       <c r="A14" s="16">
         <v>2022</v>
       </c>
@@ -40074,7 +40361,7 @@
         <v>1.9466206595307201</v>
       </c>
     </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="15" spans="1:2" x14ac:dyDescent="0.7">
       <c r="A15" s="16">
         <v>2023</v>
       </c>
@@ -40082,7 +40369,7 @@
         <v>1.95290894128753</v>
       </c>
     </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="16" spans="1:2" x14ac:dyDescent="0.7">
       <c r="A16" s="16">
         <v>2024</v>
       </c>
@@ -40090,7 +40377,7 @@
         <v>1.95930451880223</v>
       </c>
     </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="17" spans="1:2" x14ac:dyDescent="0.7">
       <c r="A17" s="16">
         <v>2025</v>
       </c>
@@ -40098,7 +40385,7 @@
         <v>1.9658101622082</v>
       </c>
     </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="18" spans="1:2" x14ac:dyDescent="0.7">
       <c r="A18" s="16">
         <v>2026</v>
       </c>
@@ -40106,7 +40393,7 @@
         <v>1.9687772036618301</v>
       </c>
     </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="19" spans="1:2" x14ac:dyDescent="0.7">
       <c r="A19" s="16">
         <v>2027</v>
       </c>
@@ -40114,7 +40401,7 @@
         <v>1.9718573012510701</v>
       </c>
     </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="20" spans="1:2" x14ac:dyDescent="0.7">
       <c r="A20" s="16">
         <v>2028</v>
       </c>
@@ -40122,7 +40409,7 @@
         <v>1.97505257765538</v>
       </c>
     </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="21" spans="1:2" x14ac:dyDescent="0.7">
       <c r="A21" s="16">
         <v>2029</v>
       </c>
@@ -40130,7 +40417,7 @@
         <v>1.97836513237384</v>
       </c>
     </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="22" spans="1:2" x14ac:dyDescent="0.7">
       <c r="A22" s="16">
         <v>2030</v>
       </c>
@@ -40138,7 +40425,7 @@
         <v>1.9817971063443101</v>
       </c>
     </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="23" spans="1:2" x14ac:dyDescent="0.7">
       <c r="A23" s="16">
         <v>2031</v>
       </c>
@@ -40146,7 +40433,7 @@
         <v>1.9796629558919501</v>
       </c>
     </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="24" spans="1:2" x14ac:dyDescent="0.7">
       <c r="A24" s="16">
         <v>2032</v>
       </c>
@@ -40154,7 +40441,7 @@
         <v>1.9776463771528501</v>
       </c>
     </row>
-    <row r="25" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="25" spans="1:2" x14ac:dyDescent="0.7">
       <c r="A25" s="16">
         <v>2033</v>
       </c>
@@ -40162,7 +40449,7 @@
         <v>1.9757482913245501</v>
       </c>
     </row>
-    <row r="26" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="26" spans="1:2" x14ac:dyDescent="0.7">
       <c r="A26" s="16">
         <v>2034</v>
       </c>
@@ -40170,7 +40457,7 @@
         <v>1.97396964031083</v>
       </c>
     </row>
-    <row r="27" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="27" spans="1:2" x14ac:dyDescent="0.7">
       <c r="A27" s="16">
         <v>2035</v>
       </c>
@@ -40178,7 +40465,7 @@
         <v>1.97231135433044</v>
       </c>
     </row>
-    <row r="28" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="28" spans="1:2" x14ac:dyDescent="0.7">
       <c r="A28" s="16">
         <v>2036</v>
       </c>
@@ -40186,7 +40473,7 @@
         <v>1.9660943839543801</v>
       </c>
     </row>
-    <row r="29" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="29" spans="1:2" x14ac:dyDescent="0.7">
       <c r="A29" s="16">
         <v>2037</v>
       </c>
@@ -40194,7 +40481,7 @@
         <v>1.96004051696549</v>
       </c>
     </row>
-    <row r="30" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="30" spans="1:2" x14ac:dyDescent="0.7">
       <c r="A30" s="16">
         <v>2038</v>
       </c>
@@ -40202,7 +40489,7 @@
         <v>1.9541496091013399</v>
       </c>
     </row>
-    <row r="31" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="31" spans="1:2" x14ac:dyDescent="0.7">
       <c r="A31" s="16">
         <v>2039</v>
       </c>
@@ -40210,7 +40497,7 @@
         <v>1.94842158598563</v>
       </c>
     </row>
-    <row r="32" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="32" spans="1:2" x14ac:dyDescent="0.7">
       <c r="A32" s="16">
         <v>2040</v>
       </c>
@@ -40218,7 +40505,7 @@
         <v>1.9428563278086799</v>
       </c>
     </row>
-    <row r="33" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="33" spans="1:2" x14ac:dyDescent="0.7">
       <c r="A33" s="16">
         <v>2041</v>
       </c>
@@ -40226,7 +40513,7 @@
         <v>1.94226268158768</v>
       </c>
     </row>
-    <row r="34" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="34" spans="1:2" x14ac:dyDescent="0.7">
       <c r="A34" s="16">
         <v>2042</v>
       </c>
@@ -40234,7 +40521,7 @@
         <v>1.9417511966660199</v>
       </c>
     </row>
-    <row r="35" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="35" spans="1:2" x14ac:dyDescent="0.7">
       <c r="A35" s="16">
         <v>2043</v>
       </c>
@@ -40242,7 +40529,7 @@
         <v>1.9413226273914199</v>
       </c>
     </row>
-    <row r="36" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="36" spans="1:2" x14ac:dyDescent="0.7">
       <c r="A36" s="16">
         <v>2044</v>
       </c>
@@ -40250,7 +40537,7 @@
         <v>1.94097773425871</v>
       </c>
     </row>
-    <row r="37" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="37" spans="1:2" x14ac:dyDescent="0.7">
       <c r="A37" s="16">
         <v>2045</v>
       </c>
@@ -40258,7 +40545,7 @@
         <v>1.94071727619887</v>
       </c>
     </row>
-    <row r="38" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="38" spans="1:2" x14ac:dyDescent="0.7">
       <c r="A38" s="16">
         <v>2046</v>
       </c>
@@ -40266,7 +40553,7 @@
         <v>1.9393333586109001</v>
       </c>
     </row>
-    <row r="39" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="39" spans="1:2" x14ac:dyDescent="0.7">
       <c r="A39" s="16">
         <v>2047</v>
       </c>
@@ -40274,7 +40561,7 @@
         <v>1.9380421475133101</v>
       </c>
     </row>
-    <row r="40" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="40" spans="1:2" x14ac:dyDescent="0.7">
       <c r="A40" s="16">
         <v>2048</v>
       </c>
@@ -40282,7 +40569,7 @@
         <v>1.93684411362477</v>
       </c>
     </row>
-    <row r="41" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="41" spans="1:2" x14ac:dyDescent="0.7">
       <c r="A41" s="16">
         <v>2049</v>
       </c>
@@ -40290,7 +40577,7 @@
         <v>1.9357397233195399</v>
       </c>
     </row>
-    <row r="42" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="42" spans="1:2" x14ac:dyDescent="0.7">
       <c r="A42" s="16">
         <v>2050</v>
       </c>
@@ -40313,17 +40600,17 @@
       <selection activeCell="C52" sqref="C52"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10" defaultRowHeight="18" x14ac:dyDescent="0.55000000000000004"/>
+  <sheetFormatPr defaultColWidth="10" defaultRowHeight="17.649999999999999" x14ac:dyDescent="0.7"/>
   <cols>
     <col min="1" max="1" width="10" style="16"/>
-    <col min="2" max="5" width="14.58203125" style="16" customWidth="1"/>
+    <col min="2" max="5" width="14.5625" style="16" customWidth="1"/>
     <col min="6" max="6" width="14.75" style="16" customWidth="1"/>
-    <col min="7" max="7" width="15.58203125" style="16" customWidth="1"/>
+    <col min="7" max="7" width="15.5625" style="16" customWidth="1"/>
     <col min="8" max="8" width="15.75" style="16" customWidth="1"/>
     <col min="9" max="16384" width="10" style="16"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.7">
       <c r="A1" s="16" t="s">
         <v>29</v>
       </c>
@@ -40346,7 +40633,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.7">
       <c r="A2" s="16">
         <v>2010</v>
       </c>
@@ -40369,7 +40656,7 @@
         <v>127917.537122642</v>
       </c>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.7">
       <c r="A3" s="16">
         <v>2011</v>
       </c>
@@ -40392,7 +40679,7 @@
         <v>127830.198160436</v>
       </c>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.7">
       <c r="A4" s="16">
         <v>2012</v>
       </c>
@@ -40415,7 +40702,7 @@
         <v>127742.918831135</v>
       </c>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.7">
       <c r="A5" s="16">
         <v>2013</v>
       </c>
@@ -40438,7 +40725,7 @@
         <v>127655.699094023</v>
       </c>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.7">
       <c r="A6" s="16">
         <v>2014</v>
       </c>
@@ -40461,7 +40748,7 @@
         <v>127568.538908412</v>
       </c>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.7">
       <c r="A7" s="16">
         <v>2015</v>
       </c>
@@ -40484,7 +40771,7 @@
         <v>127481.43823364101</v>
       </c>
     </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="8" spans="1:8" x14ac:dyDescent="0.7">
       <c r="A8" s="16">
         <v>2016</v>
       </c>
@@ -40507,7 +40794,7 @@
         <v>127219.143055607</v>
       </c>
     </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="9" spans="1:8" x14ac:dyDescent="0.7">
       <c r="A9" s="16">
         <v>2017</v>
       </c>
@@ -40530,7 +40817,7 @@
         <v>126957.387554261</v>
       </c>
     </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="10" spans="1:8" x14ac:dyDescent="0.7">
       <c r="A10" s="16">
         <v>2018</v>
       </c>
@@ -40553,7 +40840,7 @@
         <v>126696.17061921</v>
       </c>
     </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="11" spans="1:8" x14ac:dyDescent="0.7">
       <c r="A11" s="16">
         <v>2019</v>
       </c>
@@ -40576,7 +40863,7 @@
         <v>126435.491142345</v>
       </c>
     </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="12" spans="1:8" x14ac:dyDescent="0.7">
       <c r="A12" s="16">
         <v>2020</v>
       </c>
@@ -40599,7 +40886,7 @@
         <v>126175.348017836</v>
       </c>
     </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="13" spans="1:8" x14ac:dyDescent="0.7">
       <c r="A13" s="16">
         <v>2021</v>
       </c>
@@ -40626,7 +40913,7 @@
         <v>125629.32220533188</v>
       </c>
     </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="14" spans="1:8" x14ac:dyDescent="0.7">
       <c r="A14" s="16">
         <v>2022</v>
       </c>
@@ -40653,7 +40940,7 @@
         <v>125083.29639282776</v>
       </c>
     </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="15" spans="1:8" x14ac:dyDescent="0.7">
       <c r="A15" s="16">
         <v>2023</v>
       </c>
@@ -40680,7 +40967,7 @@
         <v>124537.27058032388</v>
       </c>
     </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="16" spans="1:8" x14ac:dyDescent="0.7">
       <c r="A16" s="16">
         <v>2024</v>
       </c>
@@ -40707,7 +40994,7 @@
         <v>123991.24476781976</v>
       </c>
     </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="17" spans="1:8" x14ac:dyDescent="0.7">
       <c r="A17" s="16">
         <v>2025</v>
       </c>
@@ -40734,7 +41021,7 @@
         <v>123445.21895531588</v>
       </c>
     </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="18" spans="1:8" x14ac:dyDescent="0.7">
       <c r="A18" s="16">
         <v>2026</v>
       </c>
@@ -40761,7 +41048,7 @@
         <v>122899.19314281177</v>
       </c>
     </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="19" spans="1:8" x14ac:dyDescent="0.7">
       <c r="A19" s="16">
         <v>2027</v>
       </c>
@@ -40788,7 +41075,7 @@
         <v>122353.16733030789</v>
       </c>
     </row>
-    <row r="20" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="20" spans="1:8" x14ac:dyDescent="0.7">
       <c r="A20" s="16">
         <v>2028</v>
       </c>
@@ -40815,7 +41102,7 @@
         <v>121807.14151780377</v>
       </c>
     </row>
-    <row r="21" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="21" spans="1:8" x14ac:dyDescent="0.7">
       <c r="A21" s="16">
         <v>2029</v>
       </c>
@@ -40842,7 +41129,7 @@
         <v>121261.11570529989</v>
       </c>
     </row>
-    <row r="22" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="22" spans="1:8" x14ac:dyDescent="0.7">
       <c r="A22" s="16">
         <v>2030</v>
       </c>
@@ -40869,7 +41156,7 @@
         <v>120715.08989279578</v>
       </c>
     </row>
-    <row r="23" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="23" spans="1:8" x14ac:dyDescent="0.7">
       <c r="A23" s="16">
         <v>2031</v>
       </c>
@@ -40896,7 +41183,7 @@
         <v>120169.06408029189</v>
       </c>
     </row>
-    <row r="24" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="24" spans="1:8" x14ac:dyDescent="0.7">
       <c r="A24" s="16">
         <v>2032</v>
       </c>
@@ -40923,7 +41210,7 @@
         <v>119623.03826778778</v>
       </c>
     </row>
-    <row r="25" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="25" spans="1:8" x14ac:dyDescent="0.7">
       <c r="A25" s="16">
         <v>2033</v>
       </c>
@@ -40950,7 +41237,7 @@
         <v>119077.0124552839</v>
       </c>
     </row>
-    <row r="26" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="26" spans="1:8" x14ac:dyDescent="0.7">
       <c r="A26" s="16">
         <v>2034</v>
       </c>
@@ -40977,7 +41264,7 @@
         <v>118530.98664277978</v>
       </c>
     </row>
-    <row r="27" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="27" spans="1:8" x14ac:dyDescent="0.7">
       <c r="A27" s="16">
         <v>2035</v>
       </c>
@@ -41004,7 +41291,7 @@
         <v>117984.9608302759</v>
       </c>
     </row>
-    <row r="28" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="28" spans="1:8" x14ac:dyDescent="0.7">
       <c r="A28" s="16">
         <v>2036</v>
       </c>
@@ -41031,7 +41318,7 @@
         <v>117438.93501777179</v>
       </c>
     </row>
-    <row r="29" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="29" spans="1:8" x14ac:dyDescent="0.7">
       <c r="A29" s="16">
         <v>2037</v>
       </c>
@@ -41058,7 +41345,7 @@
         <v>116892.9092052679</v>
       </c>
     </row>
-    <row r="30" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="30" spans="1:8" x14ac:dyDescent="0.7">
       <c r="A30" s="16">
         <v>2038</v>
       </c>
@@ -41085,7 +41372,7 @@
         <v>116346.88339276379</v>
       </c>
     </row>
-    <row r="31" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="31" spans="1:8" x14ac:dyDescent="0.7">
       <c r="A31" s="16">
         <v>2039</v>
       </c>
@@ -41112,7 +41399,7 @@
         <v>115800.85758025991</v>
       </c>
     </row>
-    <row r="32" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="32" spans="1:8" x14ac:dyDescent="0.7">
       <c r="A32" s="16">
         <v>2040</v>
       </c>
@@ -41139,7 +41426,7 @@
         <v>115254.83176775579</v>
       </c>
     </row>
-    <row r="33" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="33" spans="1:8" x14ac:dyDescent="0.7">
       <c r="A33" s="16">
         <v>2041</v>
       </c>
@@ -41166,7 +41453,7 @@
         <v>114708.80595525191</v>
       </c>
     </row>
-    <row r="34" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="34" spans="1:8" x14ac:dyDescent="0.7">
       <c r="A34" s="16">
         <v>2042</v>
       </c>
@@ -41193,7 +41480,7 @@
         <v>114162.7801427478</v>
       </c>
     </row>
-    <row r="35" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="35" spans="1:8" x14ac:dyDescent="0.7">
       <c r="A35" s="16">
         <v>2043</v>
       </c>
@@ -41220,7 +41507,7 @@
         <v>113616.75433024392</v>
       </c>
     </row>
-    <row r="36" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="36" spans="1:8" x14ac:dyDescent="0.7">
       <c r="A36" s="16">
         <v>2044</v>
       </c>
@@ -41247,7 +41534,7 @@
         <v>113070.7285177398</v>
       </c>
     </row>
-    <row r="37" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="37" spans="1:8" x14ac:dyDescent="0.7">
       <c r="A37" s="16">
         <v>2045</v>
       </c>
@@ -41274,7 +41561,7 @@
         <v>112524.70270523592</v>
       </c>
     </row>
-    <row r="38" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="38" spans="1:8" x14ac:dyDescent="0.7">
       <c r="A38" s="16">
         <v>2046</v>
       </c>
@@ -41301,7 +41588,7 @@
         <v>111978.6768927318</v>
       </c>
     </row>
-    <row r="39" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="39" spans="1:8" x14ac:dyDescent="0.7">
       <c r="A39" s="16">
         <v>2047</v>
       </c>
@@ -41328,7 +41615,7 @@
         <v>111432.65108022792</v>
       </c>
     </row>
-    <row r="40" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="40" spans="1:8" x14ac:dyDescent="0.7">
       <c r="A40" s="16">
         <v>2048</v>
       </c>
@@ -41355,7 +41642,7 @@
         <v>110886.62526772381</v>
       </c>
     </row>
-    <row r="41" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="41" spans="1:8" x14ac:dyDescent="0.7">
       <c r="A41" s="16">
         <v>2049</v>
       </c>
@@ -41382,7 +41669,7 @@
         <v>110340.59945521969</v>
       </c>
     </row>
-    <row r="42" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="42" spans="1:8" x14ac:dyDescent="0.7">
       <c r="A42" s="16">
         <v>2050</v>
       </c>
@@ -41409,7 +41696,7 @@
         <v>109794.57364271581</v>
       </c>
     </row>
-    <row r="44" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="44" spans="1:8" x14ac:dyDescent="0.7">
       <c r="A44" s="16">
         <v>2020</v>
       </c>
@@ -41430,7 +41717,7 @@
         <v>126175.348017836</v>
       </c>
     </row>
-    <row r="45" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="45" spans="1:8" x14ac:dyDescent="0.7">
       <c r="A45" s="16">
         <v>2050</v>
       </c>
@@ -41451,9 +41738,9 @@
         <v>109794.573642716</v>
       </c>
     </row>
-    <row r="46" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="46" spans="1:8" x14ac:dyDescent="0.7">
       <c r="C46" s="16" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
     </row>
   </sheetData>

--- a/xlsx/model2.xlsx
+++ b/xlsx/model2.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\R\TA_model\xlsx\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3E1B0A91-44CC-4818-BC0D-6CF0C4CBDAAB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{80943849-0DB1-4F03-BD08-C61350349089}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="16905" yWindow="-16365" windowWidth="29130" windowHeight="15810" tabRatio="878" xr2:uid="{BCC5EA96-140E-4D1F-AEAE-F8AA11DA45EB}"/>
+    <workbookView xWindow="16950" yWindow="-16320" windowWidth="29040" windowHeight="15720" tabRatio="878" xr2:uid="{BCC5EA96-140E-4D1F-AEAE-F8AA11DA45EB}"/>
   </bookViews>
   <sheets>
     <sheet name="シナリオ" sheetId="1" r:id="rId1"/>
@@ -1124,7 +1124,7 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="183">
+  <cellXfs count="182">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1410,67 +1410,13 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="179" fontId="0" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="179" fontId="0" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="179" fontId="0" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="180" fontId="0" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
@@ -1497,13 +1443,13 @@
     <xf numFmtId="180" fontId="0" fillId="2" borderId="9" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="7" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1566,14 +1512,68 @@
     <xf numFmtId="0" fontId="4" fillId="6" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="1" fontId="0" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="1" fontId="0" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="1" fontId="0" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="179" fontId="0" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="179" fontId="0" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="179" fontId="0" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1610,9 +1610,6 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -1869,13 +1866,13 @@
                   <c:v>4.1996589281993275</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>4.805558553177983</c:v>
+                  <c:v>4.8144440050376272</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>4.805558553177983</c:v>
+                  <c:v>4.8144440050376272</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>4.805558553177983</c:v>
+                  <c:v>4.8144440050376272</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2026,19 +2023,19 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="5"/>
                 <c:pt idx="0">
-                  <c:v>6.3598072392570097</c:v>
+                  <c:v>6.3598072392570062</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>4.5301466613559409</c:v>
+                  <c:v>4.5301466613559338</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>4.4424687694952762</c:v>
+                  <c:v>4.9538030997262732</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>4.4424687694952762</c:v>
+                  <c:v>4.9538030997262732</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>4.4424687694952762</c:v>
+                  <c:v>4.9538030997262732</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2192,13 +2189,13 @@
                   <c:v>3.9173540691601554</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>4.3920663592286848</c:v>
+                  <c:v>4.4011061489618228</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>4.3920663592286848</c:v>
+                  <c:v>4.4011061489618228</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>4.3920663592286848</c:v>
+                  <c:v>4.4011061489618228</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2352,13 +2349,13 @@
                   <c:v>0.43282370168859208</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.49304162727540435</c:v>
+                  <c:v>0.49446607899092915</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.49304162727540435</c:v>
+                  <c:v>0.49446607899092915</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.49304162727540435</c:v>
+                  <c:v>0.49446607899092915</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2432,13 +2429,13 @@
                   <c:v>0.61623070139794456</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.71182067507746649</c:v>
+                  <c:v>0.71841657269937254</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.71182067507746649</c:v>
+                  <c:v>0.71841657269937254</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.71182067507746649</c:v>
+                  <c:v>0.71841657269937254</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2592,13 +2589,13 @@
                   <c:v>0.29046623042581166</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.32540747400176678</c:v>
+                  <c:v>0.32634761213401314</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.32540747400176678</c:v>
+                  <c:v>0.32634761213401314</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.32540747400176678</c:v>
+                  <c:v>0.32634761213401314</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2752,13 +2749,13 @@
                   <c:v>3.3061556548524024E-2</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>4.0675934250220827E-2</c:v>
+                  <c:v>4.0793451516751629E-2</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>4.0675934250220827E-2</c:v>
+                  <c:v>4.0793451516751629E-2</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>4.0675934250220827E-2</c:v>
+                  <c:v>4.0793451516751629E-2</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2832,13 +2829,13 @@
                   <c:v>0.29149825225787274</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.32540747400176678</c:v>
+                  <c:v>0.32634761213401314</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.32540747400176678</c:v>
+                  <c:v>0.32634761213401314</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.32540747400176678</c:v>
+                  <c:v>0.32634761213401314</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3164,19 +3161,19 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="5"/>
                 <c:pt idx="0">
-                  <c:v>78.415161398242645</c:v>
+                  <c:v>78.415161398242631</c:v>
                 </c:pt>
                 <c:pt idx="1">
                   <c:v>87.696446220417343</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>87.679987619523601</c:v>
+                  <c:v>87.818187725973928</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>87.737934506124816</c:v>
+                  <c:v>87.991282939933384</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>87.79416425840239</c:v>
+                  <c:v>88.141303878119331</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3245,19 +3242,19 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="5"/>
                 <c:pt idx="0">
-                  <c:v>78.415161398242645</c:v>
+                  <c:v>78.415161398242631</c:v>
                 </c:pt>
                 <c:pt idx="1">
                   <c:v>87.696446220417343</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>87.679987619523601</c:v>
+                  <c:v>87.818187725973928</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>87.737934506124816</c:v>
+                  <c:v>87.991282939933384</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>87.79416425840239</c:v>
+                  <c:v>88.141303878119331</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3326,19 +3323,19 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="5"/>
                 <c:pt idx="0">
-                  <c:v>78.415161398242645</c:v>
+                  <c:v>78.415161398242631</c:v>
                 </c:pt>
                 <c:pt idx="1">
                   <c:v>87.696446220417343</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>87.679987619523601</c:v>
+                  <c:v>87.818187725973928</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>87.737934506124816</c:v>
+                  <c:v>87.991282939933384</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>87.79416425840239</c:v>
+                  <c:v>88.141303878119331</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3711,13 +3708,13 @@
                   <c:v>10.093993459056732</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>10.10879224798782</c:v>
+                  <c:v>10.108792247987818</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>10.123591036918906</c:v>
+                  <c:v>10.123591036918908</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>10.138389825849996</c:v>
+                  <c:v>10.138389825849998</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3792,13 +3789,13 @@
                   <c:v>10.093993459056732</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>10.10879224798782</c:v>
+                  <c:v>10.108792247987818</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>10.123591036918906</c:v>
+                  <c:v>10.123591036918908</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>10.138389825849996</c:v>
+                  <c:v>10.138389825849998</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3873,13 +3870,13 @@
                   <c:v>10.093993459056732</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>10.10879224798782</c:v>
+                  <c:v>10.108792247987818</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>10.123591036918906</c:v>
+                  <c:v>10.123591036918908</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>10.138389825849996</c:v>
+                  <c:v>10.138389825849998</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4239,16 +4236,16 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="5"/>
                 <c:pt idx="0">
-                  <c:v>70.943107201375042</c:v>
+                  <c:v>70.929391695956568</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>76.403160940504492</c:v>
+                  <c:v>76.3870734590121</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>76.486715147663233</c:v>
+                  <c:v>76.475990160001643</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>76.570339720997595</c:v>
+                  <c:v>76.564977227166807</c:v>
                 </c:pt>
                 <c:pt idx="4">
                   <c:v>76.654034660507619</c:v>
@@ -4320,16 +4317,16 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="5"/>
                 <c:pt idx="0">
-                  <c:v>70.943107201375042</c:v>
+                  <c:v>70.929391695956568</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>76.403160940504492</c:v>
+                  <c:v>76.3870734590121</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>76.486715147663233</c:v>
+                  <c:v>76.475990160001643</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>76.570339720997595</c:v>
+                  <c:v>76.564977227166807</c:v>
                 </c:pt>
                 <c:pt idx="4">
                   <c:v>76.654034660507619</c:v>
@@ -4401,16 +4398,16 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="5"/>
                 <c:pt idx="0">
-                  <c:v>70.943107201375042</c:v>
+                  <c:v>70.929391695956568</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>76.403160940504492</c:v>
+                  <c:v>76.3870734590121</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>76.486715147663233</c:v>
+                  <c:v>76.475990160001643</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>76.570339720997595</c:v>
+                  <c:v>76.564977227166807</c:v>
                 </c:pt>
                 <c:pt idx="4">
                   <c:v>76.654034660507619</c:v>
@@ -4759,10 +4756,10 @@
                   <c:v>4.805558553177983</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>4.805558553177983</c:v>
+                  <c:v>4.8144440050376272</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>4.805558553177983</c:v>
+                  <c:v>4.8144440050376272</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4908,19 +4905,19 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="5"/>
                 <c:pt idx="0">
-                  <c:v>6.3598072392570097</c:v>
+                  <c:v>6.3598072392570062</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>4.5301466613559409</c:v>
+                  <c:v>4.5301466613559338</c:v>
                 </c:pt>
                 <c:pt idx="2">
                   <c:v>4.4424687694952762</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>4.4424687694952762</c:v>
+                  <c:v>4.9538030997262732</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>4.4424687694952762</c:v>
+                  <c:v>4.9538030997262732</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -5075,10 +5072,10 @@
                   <c:v>4.3920663592286848</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>4.3920663592286848</c:v>
+                  <c:v>4.4011061489618228</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>4.3920663592286848</c:v>
+                  <c:v>4.4011061489618228</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -5233,10 +5230,10 @@
                   <c:v>0.49304162727540435</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.49304162727540435</c:v>
+                  <c:v>0.49446607899092915</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.49304162727540435</c:v>
+                  <c:v>0.49446607899092915</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -5312,10 +5309,10 @@
                   <c:v>0.71182067507746649</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.71182067507746649</c:v>
+                  <c:v>0.71841657269937254</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.71182067507746649</c:v>
+                  <c:v>0.71841657269937254</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -5470,10 +5467,10 @@
                   <c:v>0.32540747400176678</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.32540747400176678</c:v>
+                  <c:v>0.32634761213401314</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.32540747400176678</c:v>
+                  <c:v>0.32634761213401314</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -5628,10 +5625,10 @@
                   <c:v>4.0675934250220827E-2</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>4.0675934250220827E-2</c:v>
+                  <c:v>4.0793451516751629E-2</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>4.0675934250220827E-2</c:v>
+                  <c:v>4.0793451516751629E-2</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -5707,10 +5704,10 @@
                   <c:v>0.32540747400176678</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.32540747400176678</c:v>
+                  <c:v>0.32634761213401314</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.32540747400176678</c:v>
+                  <c:v>0.32634761213401314</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -6212,7 +6209,7 @@
                   <c:v>4.1996589281993275</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>4.5301466613559409</c:v>
+                  <c:v>4.5301466613559338</c:v>
                 </c:pt>
                 <c:pt idx="2">
                   <c:v>3.9173540691601554</c:v>
@@ -6477,7 +6474,7 @@
                         <c:v>4.6214429510245836</c:v>
                       </c:pt>
                       <c:pt idx="1">
-                        <c:v>6.3598072392570097</c:v>
+                        <c:v>6.3598072392570062</c:v>
                       </c:pt>
                       <c:pt idx="2">
                         <c:v>3.5416367594791192</c:v>
@@ -6643,31 +6640,31 @@
                       <c:formatCode>General</c:formatCode>
                       <c:ptCount val="9"/>
                       <c:pt idx="0">
-                        <c:v>4.805558553177983</c:v>
+                        <c:v>4.8144440050376272</c:v>
                       </c:pt>
                       <c:pt idx="1">
-                        <c:v>4.4424687694952762</c:v>
+                        <c:v>4.9538030997262732</c:v>
                       </c:pt>
                       <c:pt idx="2">
-                        <c:v>4.3920663592286848</c:v>
+                        <c:v>4.4011061489618228</c:v>
                       </c:pt>
                       <c:pt idx="3">
-                        <c:v>0.49304162727540435</c:v>
+                        <c:v>0.49446607899092915</c:v>
                       </c:pt>
                       <c:pt idx="4">
-                        <c:v>0.71182067507746649</c:v>
+                        <c:v>0.71841657269937254</c:v>
                       </c:pt>
                       <c:pt idx="5">
-                        <c:v>0.32540747400176678</c:v>
+                        <c:v>0.32634761213401314</c:v>
                       </c:pt>
                       <c:pt idx="6">
                         <c:v>0</c:v>
                       </c:pt>
                       <c:pt idx="7">
-                        <c:v>4.0675934250220827E-2</c:v>
+                        <c:v>4.0793451516751629E-2</c:v>
                       </c:pt>
                       <c:pt idx="8">
-                        <c:v>0.32540747400176678</c:v>
+                        <c:v>0.32634761213401314</c:v>
                       </c:pt>
                     </c:numCache>
                   </c:numRef>
@@ -6770,31 +6767,31 @@
                       <c:formatCode>General</c:formatCode>
                       <c:ptCount val="9"/>
                       <c:pt idx="0">
-                        <c:v>4.805558553177983</c:v>
+                        <c:v>4.8144440050376272</c:v>
                       </c:pt>
                       <c:pt idx="1">
-                        <c:v>4.4424687694952762</c:v>
+                        <c:v>4.9538030997262732</c:v>
                       </c:pt>
                       <c:pt idx="2">
-                        <c:v>4.3920663592286848</c:v>
+                        <c:v>4.4011061489618228</c:v>
                       </c:pt>
                       <c:pt idx="3">
-                        <c:v>0.49304162727540435</c:v>
+                        <c:v>0.49446607899092915</c:v>
                       </c:pt>
                       <c:pt idx="4">
-                        <c:v>0.71182067507746649</c:v>
+                        <c:v>0.71841657269937254</c:v>
                       </c:pt>
                       <c:pt idx="5">
-                        <c:v>0.32540747400176678</c:v>
+                        <c:v>0.32634761213401314</c:v>
                       </c:pt>
                       <c:pt idx="6">
                         <c:v>0</c:v>
                       </c:pt>
                       <c:pt idx="7">
-                        <c:v>4.0675934250220827E-2</c:v>
+                        <c:v>4.0793451516751629E-2</c:v>
                       </c:pt>
                       <c:pt idx="8">
-                        <c:v>0.32540747400176678</c:v>
+                        <c:v>0.32634761213401314</c:v>
                       </c:pt>
                     </c:numCache>
                   </c:numRef>
@@ -6897,31 +6894,31 @@
                       <c:formatCode>General</c:formatCode>
                       <c:ptCount val="9"/>
                       <c:pt idx="0">
-                        <c:v>4.805558553177983</c:v>
+                        <c:v>4.8144440050376272</c:v>
                       </c:pt>
                       <c:pt idx="1">
-                        <c:v>4.4424687694952762</c:v>
+                        <c:v>4.9538030997262732</c:v>
                       </c:pt>
                       <c:pt idx="2">
-                        <c:v>4.3920663592286848</c:v>
+                        <c:v>4.4011061489618228</c:v>
                       </c:pt>
                       <c:pt idx="3">
-                        <c:v>0.49304162727540435</c:v>
+                        <c:v>0.49446607899092915</c:v>
                       </c:pt>
                       <c:pt idx="4">
-                        <c:v>0.71182067507746649</c:v>
+                        <c:v>0.71841657269937254</c:v>
                       </c:pt>
                       <c:pt idx="5">
-                        <c:v>0.32540747400176678</c:v>
+                        <c:v>0.32634761213401314</c:v>
                       </c:pt>
                       <c:pt idx="6">
                         <c:v>0</c:v>
                       </c:pt>
                       <c:pt idx="7">
-                        <c:v>4.0675934250220827E-2</c:v>
+                        <c:v>4.0793451516751629E-2</c:v>
                       </c:pt>
                       <c:pt idx="8">
-                        <c:v>0.32540747400176678</c:v>
+                        <c:v>0.32634761213401314</c:v>
                       </c:pt>
                     </c:numCache>
                   </c:numRef>
@@ -7168,13 +7165,13 @@
                   <c:v>1.1461339603488307</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>1.2609539617568468</c:v>
+                  <c:v>1.2645969970193012</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>1.2609539617568468</c:v>
+                  <c:v>1.2645969970193012</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>1.2609539617568468</c:v>
+                  <c:v>1.2645969970193012</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -7331,13 +7328,13 @@
                   <c:v>0.11752148612594081</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.12202780275066254</c:v>
+                  <c:v>0.12238035455025495</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.12202780275066254</c:v>
+                  <c:v>0.12238035455025495</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.12202780275066254</c:v>
+                  <c:v>0.12238035455025495</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -7491,13 +7488,13 @@
                   <c:v>1.4551839553362556</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>1.6270373700088341</c:v>
+                  <c:v>1.631738060670066</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>1.6270373700088341</c:v>
+                  <c:v>1.631738060670066</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>1.6270373700088341</c:v>
+                  <c:v>1.631738060670066</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -7651,13 +7648,13 @@
                   <c:v>0.14283182155723539</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.16270373700088345</c:v>
+                  <c:v>0.16317380606700663</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.16270373700088345</c:v>
+                  <c:v>0.16317380606700663</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.16270373700088345</c:v>
+                  <c:v>0.16317380606700663</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -7731,13 +7728,13 @@
                   <c:v>0.16905623346835569</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.2033796712511042</c:v>
+                  <c:v>0.20396725758375819</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.2033796712511042</c:v>
+                  <c:v>0.20396725758375819</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.2033796712511042</c:v>
+                  <c:v>0.20396725758375819</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -7891,13 +7888,13 @@
                   <c:v>0.29046623042581166</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.32540747400176678</c:v>
+                  <c:v>0.32634761213401314</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.32540747400176678</c:v>
+                  <c:v>0.32634761213401314</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.32540747400176678</c:v>
+                  <c:v>0.32634761213401314</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -8051,13 +8048,13 @@
                   <c:v>3.3061556548524024E-2</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>4.0675934250220827E-2</c:v>
+                  <c:v>4.0793451516751629E-2</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>4.0675934250220827E-2</c:v>
+                  <c:v>4.0793451516751629E-2</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>4.0675934250220827E-2</c:v>
+                  <c:v>4.0793451516751629E-2</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -8131,13 +8128,13 @@
                   <c:v>0.29149825225787274</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.32540747400176678</c:v>
+                  <c:v>0.32634761213401314</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.32540747400176678</c:v>
+                  <c:v>0.32634761213401314</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.32540747400176678</c:v>
+                  <c:v>0.32634761213401314</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -8989,31 +8986,31 @@
                       <c:formatCode>General</c:formatCode>
                       <c:ptCount val="9"/>
                       <c:pt idx="0">
-                        <c:v>1.2609539617568468</c:v>
+                        <c:v>1.2645969970193012</c:v>
                       </c:pt>
                       <c:pt idx="1">
-                        <c:v>0.12202780275066254</c:v>
+                        <c:v>0.12238035455025495</c:v>
                       </c:pt>
                       <c:pt idx="2">
-                        <c:v>1.6270373700088341</c:v>
+                        <c:v>1.631738060670066</c:v>
                       </c:pt>
                       <c:pt idx="3">
-                        <c:v>0.16270373700088345</c:v>
+                        <c:v>0.16317380606700663</c:v>
                       </c:pt>
                       <c:pt idx="4">
-                        <c:v>0.2033796712511042</c:v>
+                        <c:v>0.20396725758375819</c:v>
                       </c:pt>
                       <c:pt idx="5">
-                        <c:v>0.32540747400176678</c:v>
+                        <c:v>0.32634761213401314</c:v>
                       </c:pt>
                       <c:pt idx="6">
                         <c:v>0</c:v>
                       </c:pt>
                       <c:pt idx="7">
-                        <c:v>4.0675934250220827E-2</c:v>
+                        <c:v>4.0793451516751629E-2</c:v>
                       </c:pt>
                       <c:pt idx="8">
-                        <c:v>0.32540747400176678</c:v>
+                        <c:v>0.32634761213401314</c:v>
                       </c:pt>
                     </c:numCache>
                   </c:numRef>
@@ -9107,31 +9104,31 @@
                       <c:formatCode>General</c:formatCode>
                       <c:ptCount val="9"/>
                       <c:pt idx="0">
-                        <c:v>1.2609539617568468</c:v>
+                        <c:v>1.2645969970193012</c:v>
                       </c:pt>
                       <c:pt idx="1">
-                        <c:v>0.12202780275066254</c:v>
+                        <c:v>0.12238035455025495</c:v>
                       </c:pt>
                       <c:pt idx="2">
-                        <c:v>1.6270373700088341</c:v>
+                        <c:v>1.631738060670066</c:v>
                       </c:pt>
                       <c:pt idx="3">
-                        <c:v>0.16270373700088345</c:v>
+                        <c:v>0.16317380606700663</c:v>
                       </c:pt>
                       <c:pt idx="4">
-                        <c:v>0.2033796712511042</c:v>
+                        <c:v>0.20396725758375819</c:v>
                       </c:pt>
                       <c:pt idx="5">
-                        <c:v>0.32540747400176678</c:v>
+                        <c:v>0.32634761213401314</c:v>
                       </c:pt>
                       <c:pt idx="6">
                         <c:v>0</c:v>
                       </c:pt>
                       <c:pt idx="7">
-                        <c:v>4.0675934250220827E-2</c:v>
+                        <c:v>4.0793451516751629E-2</c:v>
                       </c:pt>
                       <c:pt idx="8">
-                        <c:v>0.32540747400176678</c:v>
+                        <c:v>0.32634761213401314</c:v>
                       </c:pt>
                     </c:numCache>
                   </c:numRef>
@@ -9225,31 +9222,31 @@
                       <c:formatCode>General</c:formatCode>
                       <c:ptCount val="9"/>
                       <c:pt idx="0">
-                        <c:v>1.2609539617568468</c:v>
+                        <c:v>1.2645969970193012</c:v>
                       </c:pt>
                       <c:pt idx="1">
-                        <c:v>0.12202780275066254</c:v>
+                        <c:v>0.12238035455025495</c:v>
                       </c:pt>
                       <c:pt idx="2">
-                        <c:v>1.6270373700088341</c:v>
+                        <c:v>1.631738060670066</c:v>
                       </c:pt>
                       <c:pt idx="3">
-                        <c:v>0.16270373700088345</c:v>
+                        <c:v>0.16317380606700663</c:v>
                       </c:pt>
                       <c:pt idx="4">
-                        <c:v>0.2033796712511042</c:v>
+                        <c:v>0.20396725758375819</c:v>
                       </c:pt>
                       <c:pt idx="5">
-                        <c:v>0.32540747400176678</c:v>
+                        <c:v>0.32634761213401314</c:v>
                       </c:pt>
                       <c:pt idx="6">
                         <c:v>0</c:v>
                       </c:pt>
                       <c:pt idx="7">
-                        <c:v>4.0675934250220827E-2</c:v>
+                        <c:v>4.0793451516751629E-2</c:v>
                       </c:pt>
                       <c:pt idx="8">
-                        <c:v>0.32540747400176678</c:v>
+                        <c:v>0.32634761213401314</c:v>
                       </c:pt>
                     </c:numCache>
                   </c:numRef>
@@ -9519,19 +9516,19 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="5"/>
                 <c:pt idx="0">
-                  <c:v>5.3540691272396712</c:v>
+                  <c:v>5.3540691272396677</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>4.1740209458227868</c:v>
+                  <c:v>4.1740209458227797</c:v>
                 </c:pt>
                 <c:pt idx="2">
                   <c:v>4.0726875490387231</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>4.0726875490387231</c:v>
+                  <c:v>4.5829535404830768</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>4.0726875490387231</c:v>
+                  <c:v>4.5829535404830768</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -9680,16 +9677,16 @@
                   <c:v>0.20418016053948937</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.2320119889698635</c:v>
+                  <c:v>0.23201198896986344</c:v>
                 </c:pt>
                 <c:pt idx="2">
                   <c:v>0.24959414950677511</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.24959414950677511</c:v>
+                  <c:v>0.2548546236453767</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.24959414950677511</c:v>
+                  <c:v>0.2548546236453767</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -9765,10 +9762,10 @@
                   <c:v>3.6415874280171483</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>3.6415874280171483</c:v>
+                  <c:v>3.6521083762943514</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>3.6415874280171483</c:v>
+                  <c:v>3.6521083762943514</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -10151,13 +10148,13 @@
                   <c:v>1.4042102444216913</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>4.1740209458227868</c:v>
+                  <c:v>4.1740209458227797</c:v>
                 </c:pt>
                 <c:pt idx="2">
                   <c:v>1.1189233858212027</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.2320119889698635</c:v>
+                  <c:v>0.23201198896986344</c:v>
                 </c:pt>
                 <c:pt idx="4">
                   <c:v>3.2738004349644645</c:v>
@@ -10250,7 +10247,7 @@
                         <c:v>1.7935580039863157</c:v>
                       </c:pt>
                       <c:pt idx="1">
-                        <c:v>5.3540691272396712</c:v>
+                        <c:v>5.3540691272396677</c:v>
                       </c:pt>
                       <c:pt idx="2">
                         <c:v>1.2062087969127833</c:v>
@@ -10338,16 +10335,16 @@
                         <c:v>1.7300610854783565</c:v>
                       </c:pt>
                       <c:pt idx="1">
-                        <c:v>4.0726875490387231</c:v>
+                        <c:v>4.5829535404830768</c:v>
                       </c:pt>
                       <c:pt idx="2">
                         <c:v>1.2631483399809271</c:v>
                       </c:pt>
                       <c:pt idx="3">
-                        <c:v>0.24959414950677511</c:v>
+                        <c:v>0.2548546236453767</c:v>
                       </c:pt>
                       <c:pt idx="4">
-                        <c:v>3.6415874280171483</c:v>
+                        <c:v>3.6521083762943514</c:v>
                       </c:pt>
                     </c:numCache>
                   </c:numRef>
@@ -10426,16 +10423,16 @@
                         <c:v>1.7300610854783565</c:v>
                       </c:pt>
                       <c:pt idx="1">
-                        <c:v>4.0726875490387231</c:v>
+                        <c:v>4.5829535404830768</c:v>
                       </c:pt>
                       <c:pt idx="2">
                         <c:v>1.2631483399809271</c:v>
                       </c:pt>
                       <c:pt idx="3">
-                        <c:v>0.24959414950677511</c:v>
+                        <c:v>0.2548546236453767</c:v>
                       </c:pt>
                       <c:pt idx="4">
-                        <c:v>3.6415874280171483</c:v>
+                        <c:v>3.6521083762943514</c:v>
                       </c:pt>
                     </c:numCache>
                   </c:numRef>
@@ -10514,16 +10511,16 @@
                         <c:v>1.7300610854783565</c:v>
                       </c:pt>
                       <c:pt idx="1">
-                        <c:v>4.0726875490387231</c:v>
+                        <c:v>4.5829535404830768</c:v>
                       </c:pt>
                       <c:pt idx="2">
                         <c:v>1.2631483399809271</c:v>
                       </c:pt>
                       <c:pt idx="3">
-                        <c:v>0.24959414950677511</c:v>
+                        <c:v>0.2548546236453767</c:v>
                       </c:pt>
                       <c:pt idx="4">
-                        <c:v>3.6415874280171483</c:v>
+                        <c:v>3.6521083762943514</c:v>
                       </c:pt>
                     </c:numCache>
                   </c:numRef>
@@ -10732,19 +10729,19 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="5"/>
                 <c:pt idx="0">
-                  <c:v>1070.7741439646547</c:v>
+                  <c:v>1070.7741439646545</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>978.76242648442167</c:v>
+                  <c:v>978.76242648442098</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>1007.4537582833925</c:v>
+                  <c:v>1022.4934872153367</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>1026.3482276252621</c:v>
+                  <c:v>1055.0267159154703</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>1048.6084006423907</c:v>
+                  <c:v>1089.5333737522215</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -10813,19 +10810,19 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="5"/>
                 <c:pt idx="0">
-                  <c:v>1070.7741439646547</c:v>
+                  <c:v>1070.7741439646545</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>978.76242648442167</c:v>
+                  <c:v>978.76242648442098</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>1007.4537582833925</c:v>
+                  <c:v>1022.4934872153367</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>1026.3482276252621</c:v>
+                  <c:v>1055.0267159154703</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>1048.6084006423907</c:v>
+                  <c:v>1089.5333737522215</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -10894,19 +10891,19 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="5"/>
                 <c:pt idx="0">
-                  <c:v>1070.7741439646547</c:v>
+                  <c:v>1070.7741439646545</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>978.76242648442167</c:v>
+                  <c:v>978.76242648442098</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>1007.4537582833925</c:v>
+                  <c:v>1022.4934872153367</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>1026.3482276252621</c:v>
+                  <c:v>1055.0267159154703</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>1048.6084006423907</c:v>
+                  <c:v>1089.5333737522215</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -11328,13 +11325,13 @@
                   <c:v>1.1461339603488307</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>1.2609539617568468</c:v>
+                  <c:v>1.2645969970193012</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>1.2609539617568468</c:v>
+                  <c:v>1.2645969970193012</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>1.2609539617568468</c:v>
+                  <c:v>1.2645969970193012</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -11491,13 +11488,13 @@
                   <c:v>0.11752148612594081</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.12202780275066254</c:v>
+                  <c:v>0.12238035455025495</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.12202780275066254</c:v>
+                  <c:v>0.12238035455025495</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.12202780275066254</c:v>
+                  <c:v>0.12238035455025495</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -11651,13 +11648,13 @@
                   <c:v>1.4551839553362556</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>1.6270373700088341</c:v>
+                  <c:v>1.631738060670066</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>1.6270373700088341</c:v>
+                  <c:v>1.631738060670066</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>1.6270373700088341</c:v>
+                  <c:v>1.631738060670066</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -11811,13 +11808,13 @@
                   <c:v>0.14283182155723539</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.16270373700088345</c:v>
+                  <c:v>0.16317380606700663</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.16270373700088345</c:v>
+                  <c:v>0.16317380606700663</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.16270373700088345</c:v>
+                  <c:v>0.16317380606700663</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -11891,13 +11888,13 @@
                   <c:v>0.16905623346835569</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.2033796712511042</c:v>
+                  <c:v>0.20396725758375819</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.2033796712511042</c:v>
+                  <c:v>0.20396725758375819</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.2033796712511042</c:v>
+                  <c:v>0.20396725758375819</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -12051,13 +12048,13 @@
                   <c:v>0.29046623042581166</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.32540747400176678</c:v>
+                  <c:v>0.32634761213401314</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.32540747400176678</c:v>
+                  <c:v>0.32634761213401314</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.32540747400176678</c:v>
+                  <c:v>0.32634761213401314</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -12211,13 +12208,13 @@
                   <c:v>3.3061556548524024E-2</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>4.0675934250220827E-2</c:v>
+                  <c:v>4.0793451516751629E-2</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>4.0675934250220827E-2</c:v>
+                  <c:v>4.0793451516751629E-2</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>4.0675934250220827E-2</c:v>
+                  <c:v>4.0793451516751629E-2</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -12291,13 +12288,13 @@
                   <c:v>0.29149825225787274</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.32540747400176678</c:v>
+                  <c:v>0.32634761213401314</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.32540747400176678</c:v>
+                  <c:v>0.32634761213401314</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.32540747400176678</c:v>
+                  <c:v>0.32634761213401314</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -12652,19 +12649,19 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="5"/>
                 <c:pt idx="0">
-                  <c:v>1070.7741439646547</c:v>
+                  <c:v>1070.7741439646545</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>978.76242648442167</c:v>
+                  <c:v>978.76242648442098</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>1007.4537582833925</c:v>
+                  <c:v>1022.4934872153367</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>1026.3482276252621</c:v>
+                  <c:v>1055.0267159154703</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>1048.6084006423907</c:v>
+                  <c:v>1089.5333737522215</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -12765,19 +12762,19 @@
                       <c:formatCode>General</c:formatCode>
                       <c:ptCount val="5"/>
                       <c:pt idx="0">
-                        <c:v>1070.7741439646547</c:v>
+                        <c:v>1070.7741439646545</c:v>
                       </c:pt>
                       <c:pt idx="1">
-                        <c:v>978.76242648442167</c:v>
+                        <c:v>978.76242648442098</c:v>
                       </c:pt>
                       <c:pt idx="2">
-                        <c:v>1007.4537582833925</c:v>
+                        <c:v>1022.4934872153367</c:v>
                       </c:pt>
                       <c:pt idx="3">
-                        <c:v>1026.3482276252621</c:v>
+                        <c:v>1055.0267159154703</c:v>
                       </c:pt>
                       <c:pt idx="4">
-                        <c:v>1048.6084006423907</c:v>
+                        <c:v>1089.5333737522215</c:v>
                       </c:pt>
                     </c:numCache>
                   </c:numRef>
@@ -12866,19 +12863,19 @@
                       <c:formatCode>General</c:formatCode>
                       <c:ptCount val="5"/>
                       <c:pt idx="0">
-                        <c:v>1070.7741439646547</c:v>
+                        <c:v>1070.7741439646545</c:v>
                       </c:pt>
                       <c:pt idx="1">
-                        <c:v>978.76242648442167</c:v>
+                        <c:v>978.76242648442098</c:v>
                       </c:pt>
                       <c:pt idx="2">
-                        <c:v>1007.4537582833925</c:v>
+                        <c:v>1022.4934872153367</c:v>
                       </c:pt>
                       <c:pt idx="3">
-                        <c:v>1026.3482276252621</c:v>
+                        <c:v>1055.0267159154703</c:v>
                       </c:pt>
                       <c:pt idx="4">
-                        <c:v>1048.6084006423907</c:v>
+                        <c:v>1089.5333737522215</c:v>
                       </c:pt>
                     </c:numCache>
                   </c:numRef>
@@ -14423,10 +14420,10 @@
                   <c:v>171.17582078035531</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>171.17582078035531</c:v>
+                  <c:v>210.67040851814829</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>171.17582078035531</c:v>
+                  <c:v>210.67040851814829</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -14651,10 +14648,10 @@
                   <c:v>495.09542778752109</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>495.09542778752109</c:v>
+                  <c:v>496.52581315955877</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>495.09542778752109</c:v>
+                  <c:v>496.52581315955877</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -15317,19 +15314,19 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="5"/>
                 <c:pt idx="0">
-                  <c:v>5.3540691272396712</c:v>
+                  <c:v>5.3540691272396677</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>4.1740209458227868</c:v>
+                  <c:v>4.1740209458227797</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>4.0726875490387231</c:v>
+                  <c:v>4.5829535404830768</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>4.0726875490387231</c:v>
+                  <c:v>4.5829535404830768</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>4.0726875490387231</c:v>
+                  <c:v>4.5829535404830768</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -15480,16 +15477,16 @@
                   <c:v>0.20418016053948937</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.2320119889698635</c:v>
+                  <c:v>0.23201198896986344</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.24959414950677511</c:v>
+                  <c:v>0.2548546236453767</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.24959414950677511</c:v>
+                  <c:v>0.2548546236453767</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.24959414950677511</c:v>
+                  <c:v>0.2548546236453767</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -15563,13 +15560,13 @@
                   <c:v>3.2738004349644645</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>3.6415874280171483</c:v>
+                  <c:v>3.6521083762943514</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>3.6415874280171483</c:v>
+                  <c:v>3.6521083762943514</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>3.6415874280171483</c:v>
+                  <c:v>3.6521083762943514</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -16551,10 +16548,10 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="5"/>
                 <c:pt idx="0">
-                  <c:v>4.1999987243639068E-5</c:v>
+                  <c:v>4.1999987243639028E-5</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>3.6000013765472331E-5</c:v>
+                  <c:v>3.6000013765472229E-5</c:v>
                 </c:pt>
                 <c:pt idx="2">
                   <c:v>0</c:v>
@@ -16631,19 +16628,19 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="5"/>
                 <c:pt idx="0">
-                  <c:v>3.2142520237578216</c:v>
+                  <c:v>3.2142520237578185</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>2.5335019687455023</c:v>
+                  <c:v>2.5335019687454952</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>2.2115739118908952</c:v>
+                  <c:v>2.7218399033352489</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>2.2115739118908952</c:v>
+                  <c:v>2.7218399033352489</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>2.2115739118908952</c:v>
+                  <c:v>2.7218399033352489</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -16711,10 +16708,10 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="5"/>
                 <c:pt idx="0">
-                  <c:v>4.2009987240601791E-3</c:v>
+                  <c:v>4.2009987240601756E-3</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>1.0630004064638109E-3</c:v>
+                  <c:v>1.0630004064638078E-3</c:v>
                 </c:pt>
                 <c:pt idx="2">
                   <c:v>0</c:v>
@@ -16791,19 +16788,19 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="5"/>
                 <c:pt idx="0">
-                  <c:v>8.299997479100079E-3</c:v>
+                  <c:v>8.299997479100072E-3</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>1.8345007014655294E-2</c:v>
+                  <c:v>1.8345007014655246E-2</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>2.2799731050421618E-2</c:v>
+                  <c:v>2.8060205189023208E-2</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>2.2799731050421618E-2</c:v>
+                  <c:v>2.8060205189023208E-2</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>2.2799731050421618E-2</c:v>
+                  <c:v>2.8060205189023208E-2</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -16871,19 +16868,19 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="5"/>
                 <c:pt idx="0">
-                  <c:v>6.5678980051785088E-2</c:v>
+                  <c:v>6.5678980051785033E-2</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>6.2294023819620542E-2</c:v>
+                  <c:v>6.2294023819620369E-2</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>4.5599462100843237E-2</c:v>
+                  <c:v>5.6120410378046416E-2</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>4.5599462100843237E-2</c:v>
+                  <c:v>5.6120410378046416E-2</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>4.5599462100843237E-2</c:v>
+                  <c:v>5.6120410378046416E-2</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -18584,19 +18581,19 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="5"/>
                 <c:pt idx="0">
-                  <c:v>1070.7741439646547</c:v>
+                  <c:v>1070.7741439646545</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>978.76242648442167</c:v>
+                  <c:v>978.76242648442098</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>1007.4537582833925</c:v>
+                  <c:v>1022.4934872153367</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>1026.3482276252621</c:v>
+                  <c:v>1055.0267159154703</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>1048.6084006423907</c:v>
+                  <c:v>1089.5333737522215</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -18665,19 +18662,19 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="5"/>
                 <c:pt idx="0">
-                  <c:v>1070.7741439646547</c:v>
+                  <c:v>1070.7741439646545</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>978.76242648442167</c:v>
+                  <c:v>978.76242648442098</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>1007.4537582833925</c:v>
+                  <c:v>1022.4934872153367</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>1026.3482276252621</c:v>
+                  <c:v>1055.0267159154703</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>1048.6084006423907</c:v>
+                  <c:v>1089.5333737522215</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -18746,19 +18743,19 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="5"/>
                 <c:pt idx="0">
-                  <c:v>1070.7741439646547</c:v>
+                  <c:v>1070.7741439646545</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>978.76242648442167</c:v>
+                  <c:v>978.76242648442098</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>1007.4537582833925</c:v>
+                  <c:v>1022.4934872153367</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>1026.3482276252621</c:v>
+                  <c:v>1055.0267159154703</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>1048.6084006423907</c:v>
+                  <c:v>1089.5333737522215</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -19257,13 +19254,13 @@
                   <c:v>196.15609230500672</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>171.17582078035531</c:v>
+                  <c:v>210.67040851814829</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>171.17582078035531</c:v>
+                  <c:v>210.67040851814829</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>171.17582078035531</c:v>
+                  <c:v>210.67040851814829</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -19488,13 +19485,13 @@
                   <c:v>449.00553720294573</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>495.09542778752109</c:v>
+                  <c:v>496.52581315955877</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>495.09542778752109</c:v>
+                  <c:v>496.52581315955877</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>495.09542778752109</c:v>
+                  <c:v>496.52581315955877</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -24509,10 +24506,10 @@
   </sheetPr>
   <dimension ref="A1:AE80"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScale="67" zoomScaleNormal="70" workbookViewId="0">
       <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="B1" sqref="B1"/>
-      <selection pane="bottomLeft" activeCell="AD18" sqref="AD18"/>
+      <selection pane="bottomLeft" activeCell="O1" sqref="O1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.55000000000000004"/>
@@ -24534,110 +24531,110 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:31" ht="18" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A1" s="151"/>
-      <c r="B1" s="152"/>
-      <c r="C1" s="153"/>
+      <c r="A1" s="133"/>
+      <c r="B1" s="134"/>
+      <c r="C1" s="135"/>
       <c r="D1" s="100" t="s">
         <v>111</v>
       </c>
       <c r="E1" s="101" t="s">
         <v>97</v>
       </c>
-      <c r="F1" s="147" t="s">
-        <v>0</v>
-      </c>
-      <c r="G1" s="148"/>
-      <c r="H1" s="147" t="s">
+      <c r="F1" s="129" t="s">
+        <v>0</v>
+      </c>
+      <c r="G1" s="130"/>
+      <c r="H1" s="129" t="s">
         <v>99</v>
       </c>
-      <c r="I1" s="148"/>
+      <c r="I1" s="130"/>
     </row>
     <row r="2" spans="1:31" ht="17.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A2" s="154"/>
-      <c r="B2" s="155"/>
-      <c r="C2" s="156"/>
+      <c r="A2" s="136"/>
+      <c r="B2" s="137"/>
+      <c r="C2" s="138"/>
       <c r="D2" s="102" t="s">
         <v>100</v>
       </c>
       <c r="E2" s="103" t="s">
         <v>101</v>
       </c>
-      <c r="F2" s="149" t="s">
+      <c r="F2" s="131" t="s">
         <v>101</v>
       </c>
-      <c r="G2" s="150"/>
-      <c r="H2" s="149" t="s">
+      <c r="G2" s="132"/>
+      <c r="H2" s="131" t="s">
         <v>101</v>
       </c>
-      <c r="I2" s="150"/>
+      <c r="I2" s="132"/>
     </row>
     <row r="3" spans="1:31" x14ac:dyDescent="0.55000000000000004">
-      <c r="A3" s="162" t="s">
+      <c r="A3" s="144" t="s">
         <v>110</v>
       </c>
-      <c r="B3" s="164" t="s">
+      <c r="B3" s="146" t="s">
         <v>104</v>
       </c>
-      <c r="C3" s="165"/>
+      <c r="C3" s="147"/>
       <c r="D3" s="96">
         <v>867</v>
       </c>
       <c r="E3" s="97">
         <v>1067</v>
       </c>
-      <c r="F3" s="157">
+      <c r="F3" s="139">
         <f>1067</f>
         <v>1067</v>
       </c>
-      <c r="G3" s="157"/>
-      <c r="H3" s="160">
+      <c r="G3" s="139"/>
+      <c r="H3" s="142">
         <v>1067</v>
       </c>
-      <c r="I3" s="157"/>
+      <c r="I3" s="139"/>
       <c r="J3" s="12"/>
     </row>
     <row r="4" spans="1:31" x14ac:dyDescent="0.55000000000000004">
-      <c r="A4" s="163"/>
-      <c r="B4" s="163" t="s">
+      <c r="A4" s="145"/>
+      <c r="B4" s="145" t="s">
         <v>103</v>
       </c>
-      <c r="C4" s="166"/>
+      <c r="C4" s="148"/>
       <c r="D4" s="98">
         <v>126</v>
       </c>
       <c r="E4" s="46">
         <v>110</v>
       </c>
-      <c r="F4" s="158">
+      <c r="F4" s="140">
         <v>110</v>
       </c>
-      <c r="G4" s="159"/>
-      <c r="H4" s="161">
+      <c r="G4" s="141"/>
+      <c r="H4" s="143">
         <v>110</v>
       </c>
-      <c r="I4" s="159"/>
+      <c r="I4" s="141"/>
       <c r="J4" s="12"/>
-      <c r="Z4" s="117" t="s">
+      <c r="Z4" s="162" t="s">
         <v>107</v>
       </c>
-      <c r="AA4" s="119">
+      <c r="AA4" s="164">
         <v>2010</v>
       </c>
-      <c r="AB4" s="121">
+      <c r="AB4" s="166">
         <v>2020</v>
       </c>
-      <c r="AC4" s="123" t="s">
+      <c r="AC4" s="168" t="s">
         <v>106</v>
       </c>
-      <c r="AD4" s="117" t="s">
+      <c r="AD4" s="162" t="s">
         <v>92</v>
       </c>
-      <c r="AE4" s="115" t="s">
+      <c r="AE4" s="160" t="s">
         <v>93</v>
       </c>
     </row>
     <row r="5" spans="1:31" ht="18" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A5" s="125" t="s">
+      <c r="A5" s="149" t="s">
         <v>1</v>
       </c>
       <c r="B5" s="60" t="s">
@@ -24650,23 +24647,23 @@
       <c r="E5" s="92">
         <v>1</v>
       </c>
-      <c r="F5" s="136">
+      <c r="F5" s="118">
         <v>1</v>
       </c>
-      <c r="G5" s="137"/>
-      <c r="H5" s="136">
+      <c r="G5" s="119"/>
+      <c r="H5" s="118">
         <v>1</v>
       </c>
-      <c r="I5" s="137"/>
-      <c r="Z5" s="118"/>
-      <c r="AA5" s="120"/>
-      <c r="AB5" s="122"/>
-      <c r="AC5" s="124"/>
-      <c r="AD5" s="118"/>
-      <c r="AE5" s="116"/>
+      <c r="I5" s="119"/>
+      <c r="Z5" s="163"/>
+      <c r="AA5" s="165"/>
+      <c r="AB5" s="167"/>
+      <c r="AC5" s="169"/>
+      <c r="AD5" s="163"/>
+      <c r="AE5" s="161"/>
     </row>
     <row r="6" spans="1:31" x14ac:dyDescent="0.55000000000000004">
-      <c r="A6" s="126"/>
+      <c r="A6" s="150"/>
       <c r="B6" s="61" t="s">
         <v>3</v>
       </c>
@@ -24677,14 +24674,14 @@
       <c r="E6" s="93">
         <v>1</v>
       </c>
-      <c r="F6" s="138">
+      <c r="F6" s="120">
         <v>1</v>
       </c>
-      <c r="G6" s="139"/>
-      <c r="H6" s="138">
+      <c r="G6" s="121"/>
+      <c r="H6" s="120">
         <v>1</v>
       </c>
-      <c r="I6" s="139"/>
+      <c r="I6" s="121"/>
       <c r="Z6" s="64" t="s">
         <v>2</v>
       </c>
@@ -24709,7 +24706,7 @@
       </c>
     </row>
     <row r="7" spans="1:31" x14ac:dyDescent="0.55000000000000004">
-      <c r="A7" s="126"/>
+      <c r="A7" s="150"/>
       <c r="B7" s="62" t="s">
         <v>4</v>
       </c>
@@ -24720,14 +24717,14 @@
       <c r="E7" s="92">
         <v>1</v>
       </c>
-      <c r="F7" s="140">
+      <c r="F7" s="122">
         <v>1</v>
       </c>
-      <c r="G7" s="141"/>
-      <c r="H7" s="140">
+      <c r="G7" s="123"/>
+      <c r="H7" s="122">
         <v>1</v>
       </c>
-      <c r="I7" s="141"/>
+      <c r="I7" s="123"/>
       <c r="Z7" s="99" t="s">
         <v>3</v>
       </c>
@@ -24744,15 +24741,15 @@
       </c>
       <c r="AD7" s="57">
         <f>CO2排出量!E3</f>
-        <v>171.17582078035531</v>
+        <v>210.67040851814829</v>
       </c>
       <c r="AE7" s="52">
         <f>CO2排出量!F3</f>
-        <v>171.17582078035531</v>
+        <v>210.67040851814829</v>
       </c>
     </row>
     <row r="8" spans="1:31" x14ac:dyDescent="0.55000000000000004">
-      <c r="A8" s="127"/>
+      <c r="A8" s="151"/>
       <c r="B8" s="63" t="s">
         <v>5</v>
       </c>
@@ -24763,14 +24760,14 @@
       <c r="E8" s="94">
         <v>1</v>
       </c>
-      <c r="F8" s="142">
+      <c r="F8" s="124">
         <v>1</v>
       </c>
-      <c r="G8" s="143"/>
-      <c r="H8" s="142">
+      <c r="G8" s="125"/>
+      <c r="H8" s="124">
         <v>1</v>
       </c>
-      <c r="I8" s="143"/>
+      <c r="I8" s="125"/>
       <c r="Z8" s="65" t="s">
         <v>4</v>
       </c>
@@ -24795,10 +24792,10 @@
       </c>
     </row>
     <row r="9" spans="1:31" x14ac:dyDescent="0.55000000000000004">
-      <c r="A9" s="128" t="s">
+      <c r="A9" s="152" t="s">
         <v>25</v>
       </c>
-      <c r="B9" s="144" t="s">
+      <c r="B9" s="115" t="s">
         <v>2</v>
       </c>
       <c r="C9" s="39" t="s">
@@ -24813,14 +24810,14 @@
       <c r="F9" s="68">
         <v>24</v>
       </c>
-      <c r="G9" s="133">
+      <c r="G9" s="157">
         <f>SUM(F9:F13)</f>
         <v>100</v>
       </c>
       <c r="H9" s="85">
         <v>24</v>
       </c>
-      <c r="I9" s="167">
+      <c r="I9" s="126">
         <f>SUM(H9:H13)</f>
         <v>100</v>
       </c>
@@ -24849,8 +24846,8 @@
       </c>
     </row>
     <row r="10" spans="1:31" x14ac:dyDescent="0.55000000000000004">
-      <c r="A10" s="129"/>
-      <c r="B10" s="145"/>
+      <c r="A10" s="153"/>
+      <c r="B10" s="116"/>
       <c r="C10" s="40" t="s">
         <v>8</v>
       </c>
@@ -24863,11 +24860,11 @@
       <c r="F10" s="69">
         <v>22</v>
       </c>
-      <c r="G10" s="133"/>
+      <c r="G10" s="157"/>
       <c r="H10" s="86">
         <v>22</v>
       </c>
-      <c r="I10" s="168"/>
+      <c r="I10" s="127"/>
       <c r="J10" s="2"/>
       <c r="Z10" s="65" t="s">
         <v>30</v>
@@ -24885,16 +24882,16 @@
       </c>
       <c r="AD10" s="58">
         <f>CO2排出量!E6</f>
-        <v>495.09542778752109</v>
+        <v>496.52581315955877</v>
       </c>
       <c r="AE10" s="53">
         <f>CO2排出量!F6</f>
-        <v>495.09542778752109</v>
+        <v>496.52581315955877</v>
       </c>
     </row>
     <row r="11" spans="1:31" ht="20" x14ac:dyDescent="0.55000000000000004">
-      <c r="A11" s="129"/>
-      <c r="B11" s="145"/>
+      <c r="A11" s="153"/>
+      <c r="B11" s="116"/>
       <c r="C11" s="41" t="s">
         <v>9</v>
       </c>
@@ -24907,11 +24904,11 @@
       <c r="F11" s="68">
         <v>14.000000000000002</v>
       </c>
-      <c r="G11" s="133"/>
+      <c r="G11" s="157"/>
       <c r="H11" s="85">
         <v>14.000000000000002</v>
       </c>
-      <c r="I11" s="168"/>
+      <c r="I11" s="127"/>
       <c r="J11" s="2"/>
       <c r="Z11" s="99" t="s">
         <v>112</v>
@@ -24937,8 +24934,8 @@
       </c>
     </row>
     <row r="12" spans="1:31" ht="20" x14ac:dyDescent="0.55000000000000004">
-      <c r="A12" s="129"/>
-      <c r="B12" s="145"/>
+      <c r="A12" s="153"/>
+      <c r="B12" s="116"/>
       <c r="C12" s="40" t="s">
         <v>10</v>
       </c>
@@ -24951,11 +24948,11 @@
       <c r="F12" s="69">
         <v>4</v>
       </c>
-      <c r="G12" s="133"/>
+      <c r="G12" s="157"/>
       <c r="H12" s="86">
         <v>4</v>
       </c>
-      <c r="I12" s="168"/>
+      <c r="I12" s="127"/>
       <c r="J12" s="2"/>
       <c r="Z12" s="65" t="s">
         <v>113</v>
@@ -24981,8 +24978,8 @@
       </c>
     </row>
     <row r="13" spans="1:31" ht="20" x14ac:dyDescent="0.55000000000000004">
-      <c r="A13" s="129"/>
-      <c r="B13" s="146"/>
+      <c r="A13" s="153"/>
+      <c r="B13" s="117"/>
       <c r="C13" s="42" t="s">
         <v>11</v>
       </c>
@@ -24995,11 +24992,11 @@
       <c r="F13" s="70">
         <v>36</v>
       </c>
-      <c r="G13" s="134"/>
+      <c r="G13" s="158"/>
       <c r="H13" s="87">
         <v>36</v>
       </c>
-      <c r="I13" s="169"/>
+      <c r="I13" s="128"/>
       <c r="J13" s="2"/>
       <c r="Z13" s="99" t="s">
         <v>114</v>
@@ -25025,8 +25022,8 @@
       </c>
     </row>
     <row r="14" spans="1:31" x14ac:dyDescent="0.55000000000000004">
-      <c r="A14" s="129"/>
-      <c r="B14" s="144" t="s">
+      <c r="A14" s="153"/>
+      <c r="B14" s="115" t="s">
         <v>3</v>
       </c>
       <c r="C14" s="43" t="s">
@@ -25041,14 +25038,14 @@
       <c r="F14" s="71">
         <v>0</v>
       </c>
-      <c r="G14" s="135">
+      <c r="G14" s="159">
         <f t="shared" ref="G14" si="0">SUM(F14:F18)</f>
         <v>100</v>
       </c>
       <c r="H14" s="88">
         <v>0</v>
       </c>
-      <c r="I14" s="167">
+      <c r="I14" s="126">
         <f>SUM(H14:H18)</f>
         <v>100</v>
       </c>
@@ -25069,16 +25066,16 @@
       </c>
       <c r="AD14" s="59">
         <f>CO2排出量!E10</f>
-        <v>1048.6084006423907</v>
+        <v>1089.5333737522215</v>
       </c>
       <c r="AE14" s="55">
         <f>CO2排出量!F10</f>
-        <v>1048.6084006423907</v>
+        <v>1089.5333737522215</v>
       </c>
     </row>
     <row r="15" spans="1:31" x14ac:dyDescent="0.55000000000000004">
-      <c r="A15" s="129"/>
-      <c r="B15" s="145"/>
+      <c r="A15" s="153"/>
+      <c r="B15" s="116"/>
       <c r="C15" s="41" t="s">
         <v>8</v>
       </c>
@@ -25091,16 +25088,16 @@
       <c r="F15" s="72">
         <v>97</v>
       </c>
-      <c r="G15" s="133"/>
+      <c r="G15" s="157"/>
       <c r="H15" s="85">
         <v>97</v>
       </c>
-      <c r="I15" s="168"/>
+      <c r="I15" s="127"/>
       <c r="J15" s="2"/>
     </row>
     <row r="16" spans="1:31" x14ac:dyDescent="0.55000000000000004">
-      <c r="A16" s="129"/>
-      <c r="B16" s="145"/>
+      <c r="A16" s="153"/>
+      <c r="B16" s="116"/>
       <c r="C16" s="40" t="s">
         <v>9</v>
       </c>
@@ -25113,16 +25110,16 @@
       <c r="F16" s="73">
         <v>0</v>
       </c>
-      <c r="G16" s="133"/>
+      <c r="G16" s="157"/>
       <c r="H16" s="86">
         <v>0</v>
       </c>
-      <c r="I16" s="168"/>
+      <c r="I16" s="127"/>
       <c r="J16" s="2"/>
     </row>
     <row r="17" spans="1:31" x14ac:dyDescent="0.55000000000000004">
-      <c r="A17" s="129"/>
-      <c r="B17" s="145"/>
+      <c r="A17" s="153"/>
+      <c r="B17" s="116"/>
       <c r="C17" s="41" t="s">
         <v>10</v>
       </c>
@@ -25135,16 +25132,16 @@
       <c r="F17" s="72">
         <v>1</v>
       </c>
-      <c r="G17" s="133"/>
+      <c r="G17" s="157"/>
       <c r="H17" s="85">
         <v>1</v>
       </c>
-      <c r="I17" s="168"/>
+      <c r="I17" s="127"/>
       <c r="J17" s="2"/>
     </row>
     <row r="18" spans="1:31" x14ac:dyDescent="0.55000000000000004">
-      <c r="A18" s="129"/>
-      <c r="B18" s="146"/>
+      <c r="A18" s="153"/>
+      <c r="B18" s="117"/>
       <c r="C18" s="44" t="s">
         <v>11</v>
       </c>
@@ -25157,17 +25154,17 @@
       <c r="F18" s="74">
         <v>2</v>
       </c>
-      <c r="G18" s="134"/>
+      <c r="G18" s="158"/>
       <c r="H18" s="89">
         <v>2</v>
       </c>
-      <c r="I18" s="169"/>
+      <c r="I18" s="128"/>
       <c r="J18" s="2"/>
       <c r="AE18" s="104"/>
     </row>
     <row r="19" spans="1:31" x14ac:dyDescent="0.55000000000000004">
-      <c r="A19" s="129"/>
-      <c r="B19" s="144" t="s">
+      <c r="A19" s="153"/>
+      <c r="B19" s="115" t="s">
         <v>4</v>
       </c>
       <c r="C19" s="39" t="s">
@@ -25182,22 +25179,22 @@
       <c r="F19" s="75">
         <v>0</v>
       </c>
-      <c r="G19" s="135">
+      <c r="G19" s="159">
         <f t="shared" ref="G19" si="1">SUM(F19:F23)</f>
         <v>100</v>
       </c>
       <c r="H19" s="90">
         <v>0</v>
       </c>
-      <c r="I19" s="167">
+      <c r="I19" s="126">
         <f>SUM(H19:H23)</f>
         <v>100</v>
       </c>
       <c r="J19" s="2"/>
     </row>
     <row r="20" spans="1:31" x14ac:dyDescent="0.55000000000000004">
-      <c r="A20" s="129"/>
-      <c r="B20" s="145"/>
+      <c r="A20" s="153"/>
+      <c r="B20" s="116"/>
       <c r="C20" s="40" t="s">
         <v>8</v>
       </c>
@@ -25210,16 +25207,16 @@
       <c r="F20" s="73">
         <v>24</v>
       </c>
-      <c r="G20" s="133"/>
+      <c r="G20" s="157"/>
       <c r="H20" s="86">
         <v>24</v>
       </c>
-      <c r="I20" s="168"/>
+      <c r="I20" s="127"/>
       <c r="J20" s="2"/>
     </row>
     <row r="21" spans="1:31" x14ac:dyDescent="0.55000000000000004">
-      <c r="A21" s="129"/>
-      <c r="B21" s="145"/>
+      <c r="A21" s="153"/>
+      <c r="B21" s="116"/>
       <c r="C21" s="41" t="s">
         <v>9</v>
       </c>
@@ -25232,16 +25229,16 @@
       <c r="F21" s="72">
         <v>16</v>
       </c>
-      <c r="G21" s="133"/>
+      <c r="G21" s="157"/>
       <c r="H21" s="85">
         <v>16</v>
       </c>
-      <c r="I21" s="168"/>
+      <c r="I21" s="127"/>
       <c r="J21" s="2"/>
     </row>
     <row r="22" spans="1:31" x14ac:dyDescent="0.55000000000000004">
-      <c r="A22" s="129"/>
-      <c r="B22" s="145"/>
+      <c r="A22" s="153"/>
+      <c r="B22" s="116"/>
       <c r="C22" s="40" t="s">
         <v>10</v>
       </c>
@@ -25254,16 +25251,16 @@
       <c r="F22" s="73">
         <v>3</v>
       </c>
-      <c r="G22" s="133"/>
+      <c r="G22" s="157"/>
       <c r="H22" s="86">
         <v>3</v>
       </c>
-      <c r="I22" s="168"/>
+      <c r="I22" s="127"/>
       <c r="J22" s="2"/>
     </row>
     <row r="23" spans="1:31" x14ac:dyDescent="0.55000000000000004">
-      <c r="A23" s="129"/>
-      <c r="B23" s="146"/>
+      <c r="A23" s="153"/>
+      <c r="B23" s="117"/>
       <c r="C23" s="42" t="s">
         <v>11</v>
       </c>
@@ -25276,16 +25273,16 @@
       <c r="F23" s="76">
         <v>56.999999999999993</v>
       </c>
-      <c r="G23" s="134"/>
+      <c r="G23" s="158"/>
       <c r="H23" s="87">
         <v>56.999999999999993</v>
       </c>
-      <c r="I23" s="169"/>
+      <c r="I23" s="128"/>
       <c r="J23" s="2"/>
     </row>
     <row r="24" spans="1:31" x14ac:dyDescent="0.55000000000000004">
-      <c r="A24" s="129"/>
-      <c r="B24" s="144" t="s">
+      <c r="A24" s="153"/>
+      <c r="B24" s="115" t="s">
         <v>5</v>
       </c>
       <c r="C24" s="43" t="s">
@@ -25300,22 +25297,22 @@
       <c r="F24" s="71">
         <v>0</v>
       </c>
-      <c r="G24" s="135">
+      <c r="G24" s="159">
         <f t="shared" ref="G24" si="2">SUM(F24:F28)</f>
         <v>100</v>
       </c>
       <c r="H24" s="88">
         <v>0</v>
       </c>
-      <c r="I24" s="167">
+      <c r="I24" s="126">
         <f>SUM(H24:H28)</f>
         <v>100</v>
       </c>
       <c r="J24" s="2"/>
     </row>
     <row r="25" spans="1:31" x14ac:dyDescent="0.55000000000000004">
-      <c r="A25" s="129"/>
-      <c r="B25" s="145"/>
+      <c r="A25" s="153"/>
+      <c r="B25" s="116"/>
       <c r="C25" s="41" t="s">
         <v>8</v>
       </c>
@@ -25328,16 +25325,16 @@
       <c r="F25" s="72">
         <v>27</v>
       </c>
-      <c r="G25" s="133"/>
+      <c r="G25" s="157"/>
       <c r="H25" s="85">
         <v>27</v>
       </c>
-      <c r="I25" s="168"/>
+      <c r="I25" s="127"/>
       <c r="J25" s="2"/>
     </row>
     <row r="26" spans="1:31" x14ac:dyDescent="0.55000000000000004">
-      <c r="A26" s="129"/>
-      <c r="B26" s="145"/>
+      <c r="A26" s="153"/>
+      <c r="B26" s="116"/>
       <c r="C26" s="40" t="s">
         <v>9</v>
       </c>
@@ -25350,16 +25347,16 @@
       <c r="F26" s="73">
         <v>21</v>
       </c>
-      <c r="G26" s="133"/>
+      <c r="G26" s="157"/>
       <c r="H26" s="86">
         <v>21</v>
       </c>
-      <c r="I26" s="168"/>
+      <c r="I26" s="127"/>
       <c r="J26" s="2"/>
     </row>
     <row r="27" spans="1:31" x14ac:dyDescent="0.55000000000000004">
-      <c r="A27" s="129"/>
-      <c r="B27" s="145"/>
+      <c r="A27" s="153"/>
+      <c r="B27" s="116"/>
       <c r="C27" s="41" t="s">
         <v>10</v>
       </c>
@@ -25372,16 +25369,16 @@
       <c r="F27" s="72">
         <v>0</v>
       </c>
-      <c r="G27" s="133"/>
+      <c r="G27" s="157"/>
       <c r="H27" s="85">
         <v>0</v>
       </c>
-      <c r="I27" s="168"/>
+      <c r="I27" s="127"/>
       <c r="J27" s="2"/>
     </row>
     <row r="28" spans="1:31" x14ac:dyDescent="0.55000000000000004">
-      <c r="A28" s="129"/>
-      <c r="B28" s="146"/>
+      <c r="A28" s="153"/>
+      <c r="B28" s="117"/>
       <c r="C28" s="44" t="s">
         <v>11</v>
       </c>
@@ -25394,18 +25391,18 @@
       <c r="F28" s="74">
         <v>52</v>
       </c>
-      <c r="G28" s="134"/>
+      <c r="G28" s="158"/>
       <c r="H28" s="89">
         <v>52</v>
       </c>
-      <c r="I28" s="169"/>
+      <c r="I28" s="128"/>
       <c r="J28" s="2"/>
     </row>
     <row r="29" spans="1:31" x14ac:dyDescent="0.55000000000000004">
-      <c r="A29" s="130" t="s">
+      <c r="A29" s="154" t="s">
         <v>26</v>
       </c>
-      <c r="B29" s="144" t="s">
+      <c r="B29" s="115" t="s">
         <v>30</v>
       </c>
       <c r="C29" s="39" t="s">
@@ -25420,22 +25417,22 @@
       <c r="F29" s="75">
         <v>31</v>
       </c>
-      <c r="G29" s="135">
+      <c r="G29" s="159">
         <f>SUM(F29:F41)</f>
         <v>100</v>
       </c>
       <c r="H29" s="90">
         <v>31</v>
       </c>
-      <c r="I29" s="167">
+      <c r="I29" s="126">
         <f>SUM(H29:H41)</f>
         <v>100</v>
       </c>
       <c r="J29" s="2"/>
     </row>
     <row r="30" spans="1:31" x14ac:dyDescent="0.55000000000000004">
-      <c r="A30" s="131"/>
-      <c r="B30" s="145"/>
+      <c r="A30" s="155"/>
+      <c r="B30" s="116"/>
       <c r="C30" s="45" t="s">
         <v>76</v>
       </c>
@@ -25448,16 +25445,16 @@
       <c r="F30" s="77">
         <v>0</v>
       </c>
-      <c r="G30" s="133"/>
+      <c r="G30" s="157"/>
       <c r="H30" s="91">
         <v>0</v>
       </c>
-      <c r="I30" s="168"/>
+      <c r="I30" s="127"/>
       <c r="J30" s="2"/>
     </row>
     <row r="31" spans="1:31" x14ac:dyDescent="0.55000000000000004">
-      <c r="A31" s="131"/>
-      <c r="B31" s="145"/>
+      <c r="A31" s="155"/>
+      <c r="B31" s="116"/>
       <c r="C31" s="41" t="s">
         <v>8</v>
       </c>
@@ -25470,16 +25467,16 @@
       <c r="F31" s="72">
         <v>3</v>
       </c>
-      <c r="G31" s="133"/>
+      <c r="G31" s="157"/>
       <c r="H31" s="85">
         <v>3</v>
       </c>
-      <c r="I31" s="168"/>
+      <c r="I31" s="127"/>
       <c r="J31" s="2"/>
     </row>
     <row r="32" spans="1:31" x14ac:dyDescent="0.55000000000000004">
-      <c r="A32" s="131"/>
-      <c r="B32" s="145"/>
+      <c r="A32" s="155"/>
+      <c r="B32" s="116"/>
       <c r="C32" s="45" t="s">
         <v>77</v>
       </c>
@@ -25492,16 +25489,16 @@
       <c r="F32" s="77">
         <v>0</v>
       </c>
-      <c r="G32" s="133"/>
+      <c r="G32" s="157"/>
       <c r="H32" s="91">
         <v>0</v>
       </c>
-      <c r="I32" s="168"/>
+      <c r="I32" s="127"/>
       <c r="J32" s="2"/>
     </row>
     <row r="33" spans="1:10" x14ac:dyDescent="0.55000000000000004">
-      <c r="A33" s="131"/>
-      <c r="B33" s="145"/>
+      <c r="A33" s="155"/>
+      <c r="B33" s="116"/>
       <c r="C33" s="41" t="s">
         <v>9</v>
       </c>
@@ -25514,16 +25511,16 @@
       <c r="F33" s="72">
         <v>40</v>
       </c>
-      <c r="G33" s="133"/>
+      <c r="G33" s="157"/>
       <c r="H33" s="85">
         <v>40</v>
       </c>
-      <c r="I33" s="168"/>
+      <c r="I33" s="127"/>
       <c r="J33" s="2"/>
     </row>
     <row r="34" spans="1:10" x14ac:dyDescent="0.55000000000000004">
-      <c r="A34" s="131"/>
-      <c r="B34" s="145"/>
+      <c r="A34" s="155"/>
+      <c r="B34" s="116"/>
       <c r="C34" s="45" t="s">
         <v>78</v>
       </c>
@@ -25536,16 +25533,16 @@
       <c r="F34" s="77">
         <v>0</v>
       </c>
-      <c r="G34" s="133"/>
+      <c r="G34" s="157"/>
       <c r="H34" s="91">
         <v>0</v>
       </c>
-      <c r="I34" s="168"/>
+      <c r="I34" s="127"/>
       <c r="J34" s="2"/>
     </row>
     <row r="35" spans="1:10" x14ac:dyDescent="0.55000000000000004">
-      <c r="A35" s="131"/>
-      <c r="B35" s="145"/>
+      <c r="A35" s="155"/>
+      <c r="B35" s="116"/>
       <c r="C35" s="41" t="s">
         <v>79</v>
       </c>
@@ -25558,16 +25555,16 @@
       <c r="F35" s="72">
         <v>4</v>
       </c>
-      <c r="G35" s="133"/>
+      <c r="G35" s="157"/>
       <c r="H35" s="85">
         <v>4</v>
       </c>
-      <c r="I35" s="168"/>
+      <c r="I35" s="127"/>
       <c r="J35" s="2"/>
     </row>
     <row r="36" spans="1:10" x14ac:dyDescent="0.55000000000000004">
-      <c r="A36" s="131"/>
-      <c r="B36" s="145"/>
+      <c r="A36" s="155"/>
+      <c r="B36" s="116"/>
       <c r="C36" s="45" t="s">
         <v>10</v>
       </c>
@@ -25580,16 +25577,16 @@
       <c r="F36" s="77">
         <v>5</v>
       </c>
-      <c r="G36" s="133"/>
+      <c r="G36" s="157"/>
       <c r="H36" s="91">
         <v>5</v>
       </c>
-      <c r="I36" s="168"/>
+      <c r="I36" s="127"/>
       <c r="J36" s="2"/>
     </row>
     <row r="37" spans="1:10" x14ac:dyDescent="0.55000000000000004">
-      <c r="A37" s="131"/>
-      <c r="B37" s="145"/>
+      <c r="A37" s="155"/>
+      <c r="B37" s="116"/>
       <c r="C37" s="41" t="s">
         <v>80</v>
       </c>
@@ -25602,16 +25599,16 @@
       <c r="F37" s="72">
         <v>0</v>
       </c>
-      <c r="G37" s="133"/>
+      <c r="G37" s="157"/>
       <c r="H37" s="85">
         <v>0</v>
       </c>
-      <c r="I37" s="168"/>
+      <c r="I37" s="127"/>
       <c r="J37" s="2"/>
     </row>
     <row r="38" spans="1:10" x14ac:dyDescent="0.55000000000000004">
-      <c r="A38" s="131"/>
-      <c r="B38" s="145"/>
+      <c r="A38" s="155"/>
+      <c r="B38" s="116"/>
       <c r="C38" s="45" t="s">
         <v>81</v>
       </c>
@@ -25624,16 +25621,16 @@
       <c r="F38" s="77">
         <v>8</v>
       </c>
-      <c r="G38" s="133"/>
+      <c r="G38" s="157"/>
       <c r="H38" s="91">
         <v>8</v>
       </c>
-      <c r="I38" s="168"/>
+      <c r="I38" s="127"/>
       <c r="J38" s="2"/>
     </row>
     <row r="39" spans="1:10" x14ac:dyDescent="0.55000000000000004">
-      <c r="A39" s="131"/>
-      <c r="B39" s="145"/>
+      <c r="A39" s="155"/>
+      <c r="B39" s="116"/>
       <c r="C39" s="41" t="s">
         <v>82</v>
       </c>
@@ -25646,16 +25643,16 @@
       <c r="F39" s="72">
         <v>0</v>
       </c>
-      <c r="G39" s="133"/>
+      <c r="G39" s="157"/>
       <c r="H39" s="85">
         <v>0</v>
       </c>
-      <c r="I39" s="168"/>
+      <c r="I39" s="127"/>
       <c r="J39" s="2"/>
     </row>
     <row r="40" spans="1:10" x14ac:dyDescent="0.55000000000000004">
-      <c r="A40" s="131"/>
-      <c r="B40" s="145"/>
+      <c r="A40" s="155"/>
+      <c r="B40" s="116"/>
       <c r="C40" s="45" t="s">
         <v>83</v>
       </c>
@@ -25668,16 +25665,16 @@
       <c r="F40" s="77">
         <v>1</v>
       </c>
-      <c r="G40" s="133"/>
+      <c r="G40" s="157"/>
       <c r="H40" s="91">
         <v>1</v>
       </c>
-      <c r="I40" s="168"/>
+      <c r="I40" s="127"/>
       <c r="J40" s="2"/>
     </row>
     <row r="41" spans="1:10" x14ac:dyDescent="0.55000000000000004">
-      <c r="A41" s="132"/>
-      <c r="B41" s="146"/>
+      <c r="A41" s="156"/>
+      <c r="B41" s="117"/>
       <c r="C41" s="42" t="s">
         <v>84</v>
       </c>
@@ -25690,11 +25687,11 @@
       <c r="F41" s="76">
         <v>8</v>
       </c>
-      <c r="G41" s="134"/>
+      <c r="G41" s="158"/>
       <c r="H41" s="87">
         <v>8</v>
       </c>
-      <c r="I41" s="169"/>
+      <c r="I41" s="128"/>
       <c r="J41" s="2"/>
     </row>
     <row r="43" spans="1:10" x14ac:dyDescent="0.55000000000000004">
@@ -25715,277 +25712,54 @@
     </row>
     <row r="47" spans="1:10" x14ac:dyDescent="0.55000000000000004">
       <c r="B47" s="17"/>
-      <c r="C47" s="182"/>
-      <c r="D47" s="182"/>
-      <c r="E47" s="182"/>
-      <c r="F47" s="182"/>
-      <c r="G47" s="182"/>
-      <c r="H47" s="182"/>
-      <c r="I47" s="182"/>
-    </row>
-    <row r="48" spans="1:10" x14ac:dyDescent="0.55000000000000004">
-      <c r="B48" s="182"/>
-      <c r="C48" s="182"/>
-      <c r="D48" s="182"/>
-      <c r="E48" s="182"/>
-      <c r="F48" s="182"/>
-      <c r="G48" s="182"/>
-      <c r="H48" s="182"/>
-      <c r="I48" s="182"/>
-    </row>
-    <row r="49" spans="2:9" x14ac:dyDescent="0.55000000000000004">
-      <c r="B49" s="182"/>
-      <c r="C49" s="182"/>
-      <c r="D49" s="182"/>
-      <c r="E49" s="182"/>
-      <c r="F49" s="182"/>
-      <c r="G49" s="182"/>
-      <c r="H49" s="182"/>
-      <c r="I49" s="182"/>
-    </row>
-    <row r="50" spans="2:9" x14ac:dyDescent="0.55000000000000004">
-      <c r="B50" s="182"/>
-      <c r="C50" s="182"/>
-      <c r="D50" s="182"/>
-      <c r="E50" s="182"/>
-      <c r="F50" s="182"/>
-      <c r="G50" s="182"/>
-      <c r="H50" s="182"/>
-      <c r="I50" s="182"/>
-    </row>
-    <row r="51" spans="2:9" x14ac:dyDescent="0.55000000000000004">
-      <c r="B51" s="182"/>
-      <c r="C51" s="182"/>
-      <c r="D51" s="182"/>
-      <c r="E51" s="182"/>
-      <c r="F51" s="182"/>
-      <c r="G51" s="182"/>
-      <c r="H51" s="182"/>
-      <c r="I51" s="182"/>
-    </row>
-    <row r="52" spans="2:9" x14ac:dyDescent="0.55000000000000004">
-      <c r="B52" s="182"/>
-      <c r="C52" s="182"/>
-      <c r="D52" s="182"/>
-      <c r="E52" s="182"/>
-      <c r="F52" s="182"/>
-      <c r="G52" s="182"/>
-      <c r="H52" s="182"/>
-      <c r="I52" s="182"/>
-    </row>
-    <row r="53" spans="2:9" x14ac:dyDescent="0.55000000000000004">
-      <c r="B53" s="182"/>
-      <c r="C53" s="182"/>
-      <c r="D53" s="182"/>
-      <c r="E53" s="182"/>
-      <c r="F53" s="182"/>
-      <c r="G53" s="182"/>
-      <c r="H53" s="182"/>
-      <c r="I53" s="182"/>
-    </row>
-    <row r="54" spans="2:9" x14ac:dyDescent="0.55000000000000004">
-      <c r="B54" s="182"/>
-      <c r="C54" s="182"/>
-      <c r="D54" s="182"/>
-      <c r="E54" s="182"/>
-      <c r="F54" s="182"/>
-      <c r="G54" s="182"/>
-      <c r="H54" s="182"/>
-      <c r="I54" s="182"/>
-    </row>
-    <row r="55" spans="2:9" x14ac:dyDescent="0.55000000000000004">
-      <c r="B55" s="182"/>
-      <c r="C55" s="182"/>
-      <c r="D55" s="182"/>
-      <c r="E55" s="182"/>
-      <c r="F55" s="182"/>
-      <c r="G55" s="182"/>
-      <c r="H55" s="182"/>
-      <c r="I55" s="182"/>
-    </row>
-    <row r="56" spans="2:9" x14ac:dyDescent="0.55000000000000004">
-      <c r="B56" s="182"/>
-      <c r="C56" s="182"/>
-      <c r="D56" s="182"/>
-      <c r="E56" s="182"/>
-      <c r="F56" s="182"/>
-      <c r="G56" s="182"/>
-      <c r="H56" s="182"/>
-      <c r="I56" s="182"/>
-    </row>
-    <row r="57" spans="2:9" x14ac:dyDescent="0.55000000000000004">
-      <c r="B57" s="182"/>
-      <c r="C57" s="182"/>
-      <c r="D57" s="182"/>
-      <c r="E57" s="182"/>
-      <c r="F57" s="182"/>
-      <c r="G57" s="182"/>
-      <c r="H57" s="182"/>
-      <c r="I57" s="182"/>
-    </row>
-    <row r="58" spans="2:9" x14ac:dyDescent="0.55000000000000004">
-      <c r="B58" s="182"/>
-      <c r="C58" s="182"/>
-      <c r="D58" s="182"/>
-      <c r="E58" s="182"/>
-      <c r="F58" s="182"/>
-      <c r="G58" s="182"/>
-      <c r="H58" s="182"/>
-      <c r="I58" s="182"/>
-    </row>
-    <row r="59" spans="2:9" x14ac:dyDescent="0.55000000000000004">
-      <c r="B59" s="182"/>
-      <c r="C59" s="182"/>
-      <c r="D59" s="182"/>
-      <c r="E59" s="182"/>
-      <c r="F59" s="182"/>
-      <c r="G59" s="182"/>
-      <c r="H59" s="182"/>
-      <c r="I59" s="182"/>
-    </row>
-    <row r="60" spans="2:9" x14ac:dyDescent="0.55000000000000004">
-      <c r="B60" s="182"/>
-      <c r="C60" s="182"/>
-      <c r="D60" s="182"/>
-      <c r="E60" s="182"/>
-      <c r="F60" s="182"/>
-      <c r="G60" s="182"/>
-      <c r="H60" s="182"/>
-      <c r="I60" s="182"/>
-    </row>
-    <row r="61" spans="2:9" x14ac:dyDescent="0.55000000000000004">
-      <c r="B61" s="182"/>
-      <c r="C61" s="182"/>
-      <c r="D61" s="182"/>
-      <c r="E61" s="182"/>
-      <c r="F61" s="182"/>
-      <c r="G61" s="182"/>
-      <c r="H61" s="182"/>
-      <c r="I61" s="182"/>
-    </row>
-    <row r="62" spans="2:9" x14ac:dyDescent="0.55000000000000004">
-      <c r="B62" s="182"/>
-      <c r="C62" s="182"/>
-      <c r="D62" s="182"/>
-      <c r="E62" s="182"/>
-      <c r="F62" s="182"/>
-      <c r="G62" s="182"/>
-      <c r="H62" s="182"/>
-      <c r="I62" s="182"/>
-    </row>
-    <row r="63" spans="2:9" x14ac:dyDescent="0.55000000000000004">
-      <c r="B63" s="182"/>
-      <c r="C63" s="182"/>
-      <c r="D63" s="182"/>
-      <c r="E63" s="182"/>
-      <c r="F63" s="182"/>
-      <c r="G63" s="182"/>
-      <c r="H63" s="182"/>
-      <c r="I63" s="182"/>
-    </row>
-    <row r="64" spans="2:9" x14ac:dyDescent="0.55000000000000004">
-      <c r="B64" s="182"/>
-      <c r="C64" s="182"/>
-      <c r="D64" s="182"/>
-      <c r="E64" s="182"/>
-      <c r="F64" s="182"/>
-      <c r="G64" s="182"/>
-      <c r="H64" s="182"/>
-      <c r="I64" s="182"/>
-    </row>
-    <row r="65" spans="2:9" x14ac:dyDescent="0.55000000000000004">
-      <c r="B65" s="182"/>
-      <c r="C65" s="182"/>
-      <c r="D65" s="182"/>
-      <c r="E65" s="182"/>
-      <c r="F65" s="182"/>
-      <c r="G65" s="182"/>
-      <c r="H65" s="182"/>
-      <c r="I65" s="182"/>
-    </row>
-    <row r="66" spans="2:9" x14ac:dyDescent="0.55000000000000004">
-      <c r="B66" s="182"/>
-      <c r="C66" s="182"/>
-      <c r="D66" s="182"/>
-      <c r="E66" s="182"/>
-      <c r="F66" s="182"/>
-      <c r="G66" s="182"/>
-      <c r="H66" s="182"/>
-      <c r="I66" s="182"/>
-    </row>
-    <row r="67" spans="2:9" x14ac:dyDescent="0.55000000000000004">
-      <c r="B67" s="182"/>
-      <c r="C67" s="182"/>
-      <c r="D67" s="182"/>
-      <c r="E67" s="182"/>
-      <c r="F67" s="182"/>
-      <c r="G67" s="182"/>
-      <c r="H67" s="182"/>
-      <c r="I67" s="182"/>
-    </row>
-    <row r="68" spans="2:9" x14ac:dyDescent="0.55000000000000004">
+    </row>
+    <row r="68" spans="6:6" x14ac:dyDescent="0.55000000000000004">
       <c r="F68" s="1"/>
     </row>
-    <row r="69" spans="2:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="69" spans="6:6" x14ac:dyDescent="0.55000000000000004">
       <c r="F69" s="1"/>
     </row>
-    <row r="70" spans="2:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="70" spans="6:6" x14ac:dyDescent="0.55000000000000004">
       <c r="F70" s="1"/>
     </row>
-    <row r="71" spans="2:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="71" spans="6:6" x14ac:dyDescent="0.55000000000000004">
       <c r="F71" s="1"/>
     </row>
-    <row r="72" spans="2:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="72" spans="6:6" x14ac:dyDescent="0.55000000000000004">
       <c r="F72" s="1"/>
     </row>
-    <row r="73" spans="2:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="73" spans="6:6" x14ac:dyDescent="0.55000000000000004">
       <c r="F73" s="1"/>
     </row>
-    <row r="74" spans="2:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="74" spans="6:6" x14ac:dyDescent="0.55000000000000004">
       <c r="F74" s="1"/>
     </row>
-    <row r="75" spans="2:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="75" spans="6:6" x14ac:dyDescent="0.55000000000000004">
       <c r="F75" s="1"/>
     </row>
-    <row r="76" spans="2:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="76" spans="6:6" x14ac:dyDescent="0.55000000000000004">
       <c r="F76" s="1"/>
     </row>
-    <row r="77" spans="2:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="77" spans="6:6" x14ac:dyDescent="0.55000000000000004">
       <c r="F77" s="1"/>
     </row>
-    <row r="78" spans="2:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="78" spans="6:6" x14ac:dyDescent="0.55000000000000004">
       <c r="F78" s="1"/>
     </row>
-    <row r="79" spans="2:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="79" spans="6:6" x14ac:dyDescent="0.55000000000000004">
       <c r="F79" s="1"/>
     </row>
-    <row r="80" spans="2:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="80" spans="6:6" x14ac:dyDescent="0.55000000000000004">
       <c r="F80" s="1"/>
     </row>
   </sheetData>
   <mergeCells count="44">
-    <mergeCell ref="B29:B41"/>
-    <mergeCell ref="H5:I5"/>
-    <mergeCell ref="H6:I6"/>
-    <mergeCell ref="H7:I7"/>
-    <mergeCell ref="H8:I8"/>
-    <mergeCell ref="I9:I13"/>
-    <mergeCell ref="I14:I18"/>
-    <mergeCell ref="I19:I23"/>
-    <mergeCell ref="I24:I28"/>
-    <mergeCell ref="I29:I41"/>
-    <mergeCell ref="H1:I1"/>
-    <mergeCell ref="H2:I2"/>
-    <mergeCell ref="A1:C2"/>
-    <mergeCell ref="F3:G3"/>
-    <mergeCell ref="F4:G4"/>
-    <mergeCell ref="H3:I3"/>
-    <mergeCell ref="H4:I4"/>
-    <mergeCell ref="A3:A4"/>
-    <mergeCell ref="B3:C3"/>
-    <mergeCell ref="B4:C4"/>
-    <mergeCell ref="F1:G1"/>
-    <mergeCell ref="F2:G2"/>
+    <mergeCell ref="AE4:AE5"/>
+    <mergeCell ref="Z4:Z5"/>
+    <mergeCell ref="AA4:AA5"/>
+    <mergeCell ref="AB4:AB5"/>
+    <mergeCell ref="AC4:AC5"/>
+    <mergeCell ref="AD4:AD5"/>
     <mergeCell ref="A5:A8"/>
     <mergeCell ref="A9:A28"/>
     <mergeCell ref="A29:A41"/>
@@ -26002,12 +25776,28 @@
     <mergeCell ref="B14:B18"/>
     <mergeCell ref="B19:B23"/>
     <mergeCell ref="B24:B28"/>
-    <mergeCell ref="AE4:AE5"/>
-    <mergeCell ref="Z4:Z5"/>
-    <mergeCell ref="AA4:AA5"/>
-    <mergeCell ref="AB4:AB5"/>
-    <mergeCell ref="AC4:AC5"/>
-    <mergeCell ref="AD4:AD5"/>
+    <mergeCell ref="H1:I1"/>
+    <mergeCell ref="H2:I2"/>
+    <mergeCell ref="A1:C2"/>
+    <mergeCell ref="F3:G3"/>
+    <mergeCell ref="F4:G4"/>
+    <mergeCell ref="H3:I3"/>
+    <mergeCell ref="H4:I4"/>
+    <mergeCell ref="A3:A4"/>
+    <mergeCell ref="B3:C3"/>
+    <mergeCell ref="B4:C4"/>
+    <mergeCell ref="F1:G1"/>
+    <mergeCell ref="F2:G2"/>
+    <mergeCell ref="B29:B41"/>
+    <mergeCell ref="H5:I5"/>
+    <mergeCell ref="H6:I6"/>
+    <mergeCell ref="H7:I7"/>
+    <mergeCell ref="H8:I8"/>
+    <mergeCell ref="I9:I13"/>
+    <mergeCell ref="I14:I18"/>
+    <mergeCell ref="I19:I23"/>
+    <mergeCell ref="I24:I28"/>
+    <mergeCell ref="I29:I41"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <conditionalFormatting sqref="G14">
@@ -27585,8 +27375,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{927AF4A7-4AA5-47BE-8010-41C5D856CFFA}">
   <dimension ref="A1:I45"/>
   <sheetViews>
-    <sheetView topLeftCell="A26" workbookViewId="0">
-      <selection activeCell="L40" sqref="L40"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D13" sqref="D13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10" defaultRowHeight="18" x14ac:dyDescent="0.55000000000000004"/>
@@ -27642,11 +27432,11 @@
       <c r="C2" s="12">
         <v>0.67106574761795801</v>
       </c>
-      <c r="D2" s="12">
-        <v>25.739035272726699</v>
-      </c>
-      <c r="E2" s="12">
-        <v>25.739035272726699</v>
+      <c r="D2" s="1">
+        <v>4.5070396490351302E-6</v>
+      </c>
+      <c r="E2" s="1">
+        <v>4.5070396490351302E-6</v>
       </c>
       <c r="F2" s="12">
         <v>0.21080138313295399</v>
@@ -27671,11 +27461,11 @@
       <c r="C3" s="12">
         <v>0.66679433030551205</v>
       </c>
-      <c r="D3" s="12">
-        <v>25.1266527488973</v>
-      </c>
-      <c r="E3" s="12">
-        <v>25.1266527488973</v>
+      <c r="D3" s="1">
+        <v>4.35102283570092E-6</v>
+      </c>
+      <c r="E3" s="1">
+        <v>4.35102283570092E-6</v>
       </c>
       <c r="F3" s="12">
         <v>0.20568933036292</v>
@@ -27700,11 +27490,11 @@
       <c r="C4" s="12">
         <v>0.64678397500359797</v>
       </c>
-      <c r="D4" s="12">
-        <v>24.881833209100801</v>
-      </c>
-      <c r="E4" s="12">
-        <v>24.881833209100801</v>
+      <c r="D4" s="1">
+        <v>4.2608545628119796E-6</v>
+      </c>
+      <c r="E4" s="1">
+        <v>4.2608545628119796E-6</v>
       </c>
       <c r="F4" s="12">
         <v>0.193863474295359</v>
@@ -27729,11 +27519,11 @@
       <c r="C5" s="12">
         <v>0.64003472773258296</v>
       </c>
-      <c r="D5" s="12">
-        <v>24.6110751207903</v>
-      </c>
-      <c r="E5" s="12">
-        <v>24.6110751207903</v>
+      <c r="D5" s="1">
+        <v>4.1677583781829004E-6</v>
+      </c>
+      <c r="E5" s="1">
+        <v>4.1677583781829004E-6</v>
       </c>
       <c r="F5" s="12">
         <v>0.20051862817264399</v>
@@ -27758,11 +27548,11 @@
       <c r="C6" s="12">
         <v>0.61462242638875197</v>
       </c>
-      <c r="D6" s="12">
-        <v>23.953358924913701</v>
-      </c>
-      <c r="E6" s="12">
-        <v>23.953358924913701</v>
+      <c r="D6" s="1">
+        <v>4.0114000957440798E-6</v>
+      </c>
+      <c r="E6" s="1">
+        <v>4.0114000957440798E-6</v>
       </c>
       <c r="F6" s="12">
         <v>0.19418294364486</v>
@@ -27787,11 +27577,11 @@
       <c r="C7" s="12">
         <v>0.58627645651037796</v>
       </c>
-      <c r="D7" s="12">
-        <v>23.917913401728299</v>
-      </c>
-      <c r="E7" s="12">
-        <v>23.917913401728299</v>
+      <c r="D7" s="1">
+        <v>3.9610512240868304E-6</v>
+      </c>
+      <c r="E7" s="1">
+        <v>3.9610512240868304E-6</v>
       </c>
       <c r="F7" s="12">
         <v>0.18472973359124201</v>
@@ -27816,11 +27606,11 @@
       <c r="C8" s="12">
         <v>0.56842091646138104</v>
       </c>
-      <c r="D8" s="12">
-        <v>23.707296933148701</v>
-      </c>
-      <c r="E8" s="12">
-        <v>23.707296933148701</v>
+      <c r="D8" s="1">
+        <v>3.8895130070346598E-6</v>
+      </c>
+      <c r="E8" s="1">
+        <v>3.8895130070346598E-6</v>
       </c>
       <c r="F8" s="12">
         <v>0.178322438763311</v>
@@ -27845,11 +27635,11 @@
       <c r="C9" s="12">
         <v>0.56444529506879604</v>
       </c>
-      <c r="D9" s="12">
-        <v>23.5595978904467</v>
-      </c>
-      <c r="E9" s="12">
-        <v>23.5595978904467</v>
+      <c r="D9" s="1">
+        <v>3.8291914626732703E-6</v>
+      </c>
+      <c r="E9" s="1">
+        <v>3.8291914626732703E-6</v>
       </c>
       <c r="F9" s="12">
         <v>0.178951120153517</v>
@@ -27874,11 +27664,11 @@
       <c r="C10" s="12">
         <v>0.56217100511779505</v>
       </c>
-      <c r="D10" s="12">
-        <v>23.3163558579732</v>
-      </c>
-      <c r="E10" s="12">
-        <v>23.3163558579732</v>
+      <c r="D10" s="1">
+        <v>3.75427345317949E-6</v>
+      </c>
+      <c r="E10" s="1">
+        <v>3.75427345317949E-6</v>
       </c>
       <c r="F10" s="12">
         <v>0.17689407706898699</v>
@@ -27903,11 +27693,11 @@
       <c r="C11" s="12">
         <v>0.53664632170332005</v>
       </c>
-      <c r="D11" s="12">
-        <v>22.887837693785201</v>
-      </c>
-      <c r="E11" s="12">
-        <v>22.887837693785201</v>
+      <c r="D11" s="1">
+        <v>3.6508669991895599E-6</v>
+      </c>
+      <c r="E11" s="1">
+        <v>3.6508669991895599E-6</v>
       </c>
       <c r="F11" s="12">
         <v>0.170934627743109</v>
@@ -27932,11 +27722,11 @@
       <c r="C12" s="12">
         <v>0.49720261949109501</v>
       </c>
-      <c r="D12" s="12">
-        <v>20.727028227656</v>
-      </c>
-      <c r="E12" s="12">
-        <v>20.727028227656</v>
+      <c r="D12" s="1">
+        <v>3.2753242829480899E-6</v>
+      </c>
+      <c r="E12" s="1">
+        <v>3.2753242829480899E-6</v>
       </c>
       <c r="F12" s="12">
         <v>0.15905244341833</v>
@@ -27965,11 +27755,11 @@
       </c>
       <c r="D13" s="13">
         <f t="shared" si="0"/>
-        <v>20.727028227656</v>
+        <v>3.2753242829480899E-6</v>
       </c>
       <c r="E13" s="13">
         <f t="shared" si="0"/>
-        <v>20.727028227656</v>
+        <v>3.2753242829480899E-6</v>
       </c>
       <c r="F13" s="13">
         <f t="shared" si="0"/>
@@ -28002,11 +27792,11 @@
       </c>
       <c r="D14" s="13">
         <f>_xlfn.FORECAST.LINEAR($A14,D$44:D$45,$A$44:$A$45)*D$12</f>
-        <v>20.727028227656</v>
+        <v>3.2753242829480899E-6</v>
       </c>
       <c r="E14" s="13">
         <f t="shared" si="0"/>
-        <v>20.727028227656</v>
+        <v>3.2753242829480899E-6</v>
       </c>
       <c r="F14" s="13">
         <f t="shared" si="0"/>
@@ -28039,11 +27829,11 @@
       </c>
       <c r="D15" s="13">
         <f t="shared" si="0"/>
-        <v>20.727028227656</v>
+        <v>3.2753242829480899E-6</v>
       </c>
       <c r="E15" s="13">
         <f t="shared" si="0"/>
-        <v>20.727028227656</v>
+        <v>3.2753242829480899E-6</v>
       </c>
       <c r="F15" s="13">
         <f t="shared" si="0"/>
@@ -28076,11 +27866,11 @@
       </c>
       <c r="D16" s="13">
         <f t="shared" si="0"/>
-        <v>20.727028227656</v>
+        <v>3.2753242829480899E-6</v>
       </c>
       <c r="E16" s="13">
         <f t="shared" si="0"/>
-        <v>20.727028227656</v>
+        <v>3.2753242829480899E-6</v>
       </c>
       <c r="F16" s="13">
         <f t="shared" si="0"/>
@@ -28113,11 +27903,11 @@
       </c>
       <c r="D17" s="13">
         <f t="shared" si="0"/>
-        <v>20.727028227656</v>
+        <v>3.2753242829480899E-6</v>
       </c>
       <c r="E17" s="13">
         <f t="shared" si="0"/>
-        <v>20.727028227656</v>
+        <v>3.2753242829480899E-6</v>
       </c>
       <c r="F17" s="13">
         <f t="shared" si="0"/>
@@ -28150,11 +27940,11 @@
       </c>
       <c r="D18" s="13">
         <f t="shared" si="0"/>
-        <v>20.727028227656</v>
+        <v>3.2753242829480899E-6</v>
       </c>
       <c r="E18" s="13">
         <f t="shared" si="0"/>
-        <v>20.727028227656</v>
+        <v>3.2753242829480899E-6</v>
       </c>
       <c r="F18" s="13">
         <f t="shared" si="0"/>
@@ -28187,11 +27977,11 @@
       </c>
       <c r="D19" s="13">
         <f t="shared" si="0"/>
-        <v>20.727028227656</v>
+        <v>3.2753242829480899E-6</v>
       </c>
       <c r="E19" s="13">
         <f t="shared" si="0"/>
-        <v>20.727028227656</v>
+        <v>3.2753242829480899E-6</v>
       </c>
       <c r="F19" s="13">
         <f t="shared" si="0"/>
@@ -28224,11 +28014,11 @@
       </c>
       <c r="D20" s="13">
         <f t="shared" si="0"/>
-        <v>20.727028227656</v>
+        <v>3.2753242829480899E-6</v>
       </c>
       <c r="E20" s="13">
         <f t="shared" si="0"/>
-        <v>20.727028227656</v>
+        <v>3.2753242829480899E-6</v>
       </c>
       <c r="F20" s="13">
         <f t="shared" si="0"/>
@@ -28261,11 +28051,11 @@
       </c>
       <c r="D21" s="13">
         <f t="shared" si="0"/>
-        <v>20.727028227656</v>
+        <v>3.2753242829480899E-6</v>
       </c>
       <c r="E21" s="13">
         <f t="shared" si="0"/>
-        <v>20.727028227656</v>
+        <v>3.2753242829480899E-6</v>
       </c>
       <c r="F21" s="13">
         <f t="shared" si="0"/>
@@ -28298,11 +28088,11 @@
       </c>
       <c r="D22" s="13">
         <f t="shared" si="0"/>
-        <v>20.727028227656</v>
+        <v>3.2753242829480899E-6</v>
       </c>
       <c r="E22" s="13">
         <f t="shared" si="0"/>
-        <v>20.727028227656</v>
+        <v>3.2753242829480899E-6</v>
       </c>
       <c r="F22" s="13">
         <f t="shared" si="0"/>
@@ -28335,11 +28125,11 @@
       </c>
       <c r="D23" s="13">
         <f t="shared" si="0"/>
-        <v>20.727028227656</v>
+        <v>3.2753242829480899E-6</v>
       </c>
       <c r="E23" s="13">
         <f t="shared" si="0"/>
-        <v>20.727028227656</v>
+        <v>3.2753242829480899E-6</v>
       </c>
       <c r="F23" s="13">
         <f t="shared" si="0"/>
@@ -28372,11 +28162,11 @@
       </c>
       <c r="D24" s="13">
         <f t="shared" si="0"/>
-        <v>20.727028227656</v>
+        <v>3.2753242829480899E-6</v>
       </c>
       <c r="E24" s="13">
         <f t="shared" si="0"/>
-        <v>20.727028227656</v>
+        <v>3.2753242829480899E-6</v>
       </c>
       <c r="F24" s="13">
         <f t="shared" si="0"/>
@@ -28409,11 +28199,11 @@
       </c>
       <c r="D25" s="13">
         <f t="shared" si="0"/>
-        <v>20.727028227656</v>
+        <v>3.2753242829480899E-6</v>
       </c>
       <c r="E25" s="13">
         <f t="shared" si="0"/>
-        <v>20.727028227656</v>
+        <v>3.2753242829480899E-6</v>
       </c>
       <c r="F25" s="13">
         <f t="shared" si="0"/>
@@ -28446,11 +28236,11 @@
       </c>
       <c r="D26" s="13">
         <f t="shared" si="0"/>
-        <v>20.727028227656</v>
+        <v>3.2753242829480899E-6</v>
       </c>
       <c r="E26" s="13">
         <f t="shared" si="0"/>
-        <v>20.727028227656</v>
+        <v>3.2753242829480899E-6</v>
       </c>
       <c r="F26" s="13">
         <f t="shared" si="0"/>
@@ -28483,11 +28273,11 @@
       </c>
       <c r="D27" s="13">
         <f t="shared" si="0"/>
-        <v>20.727028227656</v>
+        <v>3.2753242829480899E-6</v>
       </c>
       <c r="E27" s="13">
         <f t="shared" si="0"/>
-        <v>20.727028227656</v>
+        <v>3.2753242829480899E-6</v>
       </c>
       <c r="F27" s="13">
         <f t="shared" si="0"/>
@@ -28520,11 +28310,11 @@
       </c>
       <c r="D28" s="13">
         <f t="shared" si="0"/>
-        <v>20.727028227656</v>
+        <v>3.2753242829480899E-6</v>
       </c>
       <c r="E28" s="13">
         <f t="shared" si="0"/>
-        <v>20.727028227656</v>
+        <v>3.2753242829480899E-6</v>
       </c>
       <c r="F28" s="13">
         <f t="shared" si="0"/>
@@ -28557,11 +28347,11 @@
       </c>
       <c r="D29" s="13">
         <f t="shared" si="1"/>
-        <v>20.727028227656</v>
+        <v>3.2753242829480899E-6</v>
       </c>
       <c r="E29" s="13">
         <f t="shared" si="1"/>
-        <v>20.727028227656</v>
+        <v>3.2753242829480899E-6</v>
       </c>
       <c r="F29" s="13">
         <f t="shared" si="1"/>
@@ -28594,11 +28384,11 @@
       </c>
       <c r="D30" s="13">
         <f t="shared" si="1"/>
-        <v>20.727028227656</v>
+        <v>3.2753242829480899E-6</v>
       </c>
       <c r="E30" s="13">
         <f t="shared" si="1"/>
-        <v>20.727028227656</v>
+        <v>3.2753242829480899E-6</v>
       </c>
       <c r="F30" s="13">
         <f t="shared" si="1"/>
@@ -28631,11 +28421,11 @@
       </c>
       <c r="D31" s="13">
         <f t="shared" si="1"/>
-        <v>20.727028227656</v>
+        <v>3.2753242829480899E-6</v>
       </c>
       <c r="E31" s="13">
         <f t="shared" si="1"/>
-        <v>20.727028227656</v>
+        <v>3.2753242829480899E-6</v>
       </c>
       <c r="F31" s="13">
         <f t="shared" si="1"/>
@@ -28668,11 +28458,11 @@
       </c>
       <c r="D32" s="13">
         <f t="shared" si="1"/>
-        <v>20.727028227656</v>
+        <v>3.2753242829480899E-6</v>
       </c>
       <c r="E32" s="13">
         <f t="shared" si="1"/>
-        <v>20.727028227656</v>
+        <v>3.2753242829480899E-6</v>
       </c>
       <c r="F32" s="13">
         <f t="shared" si="1"/>
@@ -28705,11 +28495,11 @@
       </c>
       <c r="D33" s="13">
         <f t="shared" si="1"/>
-        <v>20.727028227656</v>
+        <v>3.2753242829480899E-6</v>
       </c>
       <c r="E33" s="13">
         <f t="shared" si="1"/>
-        <v>20.727028227656</v>
+        <v>3.2753242829480899E-6</v>
       </c>
       <c r="F33" s="13">
         <f t="shared" si="1"/>
@@ -28742,11 +28532,11 @@
       </c>
       <c r="D34" s="13">
         <f t="shared" si="1"/>
-        <v>20.727028227656</v>
+        <v>3.2753242829480899E-6</v>
       </c>
       <c r="E34" s="13">
         <f t="shared" si="1"/>
-        <v>20.727028227656</v>
+        <v>3.2753242829480899E-6</v>
       </c>
       <c r="F34" s="13">
         <f t="shared" si="1"/>
@@ -28779,11 +28569,11 @@
       </c>
       <c r="D35" s="13">
         <f t="shared" si="1"/>
-        <v>20.727028227656</v>
+        <v>3.2753242829480899E-6</v>
       </c>
       <c r="E35" s="13">
         <f t="shared" si="1"/>
-        <v>20.727028227656</v>
+        <v>3.2753242829480899E-6</v>
       </c>
       <c r="F35" s="13">
         <f t="shared" si="1"/>
@@ -28816,11 +28606,11 @@
       </c>
       <c r="D36" s="13">
         <f t="shared" si="1"/>
-        <v>20.727028227656</v>
+        <v>3.2753242829480899E-6</v>
       </c>
       <c r="E36" s="13">
         <f t="shared" si="1"/>
-        <v>20.727028227656</v>
+        <v>3.2753242829480899E-6</v>
       </c>
       <c r="F36" s="13">
         <f t="shared" si="1"/>
@@ -28853,11 +28643,11 @@
       </c>
       <c r="D37" s="13">
         <f t="shared" si="1"/>
-        <v>20.727028227656</v>
+        <v>3.2753242829480899E-6</v>
       </c>
       <c r="E37" s="13">
         <f t="shared" si="1"/>
-        <v>20.727028227656</v>
+        <v>3.2753242829480899E-6</v>
       </c>
       <c r="F37" s="13">
         <f t="shared" si="1"/>
@@ -28890,11 +28680,11 @@
       </c>
       <c r="D38" s="13">
         <f t="shared" si="1"/>
-        <v>20.727028227656</v>
+        <v>3.2753242829480899E-6</v>
       </c>
       <c r="E38" s="13">
         <f t="shared" si="1"/>
-        <v>20.727028227656</v>
+        <v>3.2753242829480899E-6</v>
       </c>
       <c r="F38" s="13">
         <f t="shared" si="1"/>
@@ -28927,11 +28717,11 @@
       </c>
       <c r="D39" s="13">
         <f t="shared" si="1"/>
-        <v>20.727028227656</v>
+        <v>3.2753242829480899E-6</v>
       </c>
       <c r="E39" s="13">
         <f t="shared" si="1"/>
-        <v>20.727028227656</v>
+        <v>3.2753242829480899E-6</v>
       </c>
       <c r="F39" s="13">
         <f t="shared" si="1"/>
@@ -28964,11 +28754,11 @@
       </c>
       <c r="D40" s="13">
         <f t="shared" si="1"/>
-        <v>20.727028227656</v>
+        <v>3.2753242829480899E-6</v>
       </c>
       <c r="E40" s="13">
         <f t="shared" si="1"/>
-        <v>20.727028227656</v>
+        <v>3.2753242829480899E-6</v>
       </c>
       <c r="F40" s="13">
         <f t="shared" si="1"/>
@@ -29001,11 +28791,11 @@
       </c>
       <c r="D41" s="13">
         <f t="shared" si="1"/>
-        <v>20.727028227656</v>
+        <v>3.2753242829480899E-6</v>
       </c>
       <c r="E41" s="13">
         <f t="shared" si="1"/>
-        <v>20.727028227656</v>
+        <v>3.2753242829480899E-6</v>
       </c>
       <c r="F41" s="13">
         <f t="shared" si="1"/>
@@ -29038,11 +28828,11 @@
       </c>
       <c r="D42" s="13">
         <f t="shared" si="1"/>
-        <v>20.727028227656</v>
+        <v>3.2753242829480899E-6</v>
       </c>
       <c r="E42" s="13">
         <f t="shared" si="1"/>
-        <v>20.727028227656</v>
+        <v>3.2753242829480899E-6</v>
       </c>
       <c r="F42" s="13">
         <f t="shared" si="1"/>
@@ -29138,8 +28928,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0C9D3627-AF3F-4743-A4A8-7979E2664556}">
   <dimension ref="A1:K42"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="L40" sqref="L40"/>
+    <sheetView topLeftCell="A14" workbookViewId="0">
+      <selection activeCell="G34" sqref="G34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.55000000000000004"/>
@@ -29202,12 +28992,12 @@
         <v>3.8323569999999987</v>
       </c>
       <c r="D2">
-        <f>GDP・POP!G2*Intensity!D2/10^6</f>
-        <v>3.2924740000000092</v>
+        <f>GDP・POP!G2*GDP・POP!C2*Intensity!D2/10^6</f>
+        <v>3.2924740000000061</v>
       </c>
       <c r="E2">
-        <f>GDP・POP!H2*Intensity!E2/10^6</f>
-        <v>3.2924740000000092</v>
+        <f>GDP・POP!H2*GDP・POP!D2*Intensity!E2/10^6</f>
+        <v>3.2924740000000061</v>
       </c>
       <c r="F2">
         <f>GDP・POP!C2*COMFLOOR!$B2*Intensity!F2/10^6</f>
@@ -29227,11 +29017,11 @@
       </c>
       <c r="J2">
         <f>SUM(B2,D2,F2,H2)</f>
-        <v>11.416995000000011</v>
+        <v>11.416995000000007</v>
       </c>
       <c r="K2">
         <f>SUM(C2,E2,G2,I2)</f>
-        <v>11.416995000000011</v>
+        <v>11.416995000000007</v>
       </c>
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.55000000000000004">
@@ -29247,12 +29037,12 @@
         <v>3.8506600000000013</v>
       </c>
       <c r="D3">
-        <f>GDP・POP!G3*Intensity!D3/10^6</f>
-        <v>3.2119450000000063</v>
+        <f>GDP・POP!G3*GDP・POP!C3*Intensity!D3/10^6</f>
+        <v>3.2119450000000023</v>
       </c>
       <c r="E3">
-        <f>GDP・POP!H3*Intensity!E3/10^6</f>
-        <v>3.2119450000000063</v>
+        <f>GDP・POP!H3*GDP・POP!D3*Intensity!E3/10^6</f>
+        <v>3.2119450000000023</v>
       </c>
       <c r="F3">
         <f>GDP・POP!C3*COMFLOOR!$B3*Intensity!F3/10^6</f>
@@ -29272,11 +29062,11 @@
       </c>
       <c r="J3">
         <f t="shared" ref="J3:J42" si="0">SUM(B3,D3,F3,H3)</f>
-        <v>11.260452000000017</v>
+        <v>11.260452000000013</v>
       </c>
       <c r="K3">
         <f t="shared" ref="K3:K42" si="1">SUM(C3,E3,G3,I3)</f>
-        <v>11.260452000000017</v>
+        <v>11.260452000000013</v>
       </c>
     </row>
     <row r="4" spans="1:11" x14ac:dyDescent="0.55000000000000004">
@@ -29292,12 +29082,12 @@
         <v>3.7769820000000056</v>
       </c>
       <c r="D4">
-        <f>GDP・POP!G4*Intensity!D4/10^6</f>
-        <v>3.1784780000000028</v>
+        <f>GDP・POP!G4*GDP・POP!C4*Intensity!D4/10^6</f>
+        <v>3.1784780000000019</v>
       </c>
       <c r="E4">
-        <f>GDP・POP!H4*Intensity!E4/10^6</f>
-        <v>3.1784780000000028</v>
+        <f>GDP・POP!H4*GDP・POP!D4*Intensity!E4/10^6</f>
+        <v>3.1784780000000019</v>
       </c>
       <c r="F4">
         <f>GDP・POP!C4*COMFLOOR!$B4*Intensity!F4/10^6</f>
@@ -29337,12 +29127,12 @@
         <v>3.7794760000000003</v>
       </c>
       <c r="D5">
-        <f>GDP・POP!G5*Intensity!D5/10^6</f>
-        <v>3.1417440000000023</v>
+        <f>GDP・POP!G5*GDP・POP!C5*Intensity!D5/10^6</f>
+        <v>3.1417440000000085</v>
       </c>
       <c r="E5">
-        <f>GDP・POP!H5*Intensity!E5/10^6</f>
-        <v>3.1417440000000023</v>
+        <f>GDP・POP!H5*GDP・POP!D5*Intensity!E5/10^6</f>
+        <v>3.1417440000000085</v>
       </c>
       <c r="F5">
         <f>GDP・POP!C5*COMFLOOR!$B5*Intensity!F5/10^6</f>
@@ -29362,11 +29152,11 @@
       </c>
       <c r="J5">
         <f t="shared" si="0"/>
-        <v>11.112475000000002</v>
+        <v>11.112475000000007</v>
       </c>
       <c r="K5">
         <f t="shared" si="1"/>
-        <v>11.112475000000002</v>
+        <v>11.112475000000007</v>
       </c>
     </row>
     <row r="6" spans="1:11" x14ac:dyDescent="0.55000000000000004">
@@ -29382,12 +29172,12 @@
         <v>3.6701079999999977</v>
       </c>
       <c r="D6">
-        <f>GDP・POP!G6*Intensity!D6/10^6</f>
-        <v>3.0556950000000112</v>
+        <f>GDP・POP!G6*GDP・POP!C6*Intensity!D6/10^6</f>
+        <v>3.0556950000000067</v>
       </c>
       <c r="E6">
-        <f>GDP・POP!H6*Intensity!E6/10^6</f>
-        <v>3.0556950000000112</v>
+        <f>GDP・POP!H6*GDP・POP!D6*Intensity!E6/10^6</f>
+        <v>3.0556950000000067</v>
       </c>
       <c r="F6">
         <f>GDP・POP!C6*COMFLOOR!$B6*Intensity!F6/10^6</f>
@@ -29407,11 +29197,11 @@
       </c>
       <c r="J6">
         <f t="shared" si="0"/>
-        <v>10.807040000000024</v>
+        <v>10.80704000000002</v>
       </c>
       <c r="K6">
         <f t="shared" si="1"/>
-        <v>10.807040000000024</v>
+        <v>10.80704000000002</v>
       </c>
     </row>
     <row r="7" spans="1:11" x14ac:dyDescent="0.55000000000000004">
@@ -29427,12 +29217,12 @@
         <v>3.5400980000000031</v>
       </c>
       <c r="D7">
-        <f>GDP・POP!G7*Intensity!D7/10^6</f>
-        <v>3.0490900000000005</v>
+        <f>GDP・POP!G7*GDP・POP!C7*Intensity!D7/10^6</f>
+        <v>3.0490900000000019</v>
       </c>
       <c r="E7">
-        <f>GDP・POP!H7*Intensity!E7/10^6</f>
-        <v>3.0490900000000005</v>
+        <f>GDP・POP!H7*GDP・POP!D7*Intensity!E7/10^6</f>
+        <v>3.0490900000000019</v>
       </c>
       <c r="F7">
         <f>GDP・POP!C7*COMFLOOR!$B7*Intensity!F7/10^6</f>
@@ -29452,11 +29242,11 @@
       </c>
       <c r="J7">
         <f t="shared" si="0"/>
-        <v>10.552321000000006</v>
+        <v>10.552321000000008</v>
       </c>
       <c r="K7">
         <f t="shared" si="1"/>
-        <v>10.552321000000006</v>
+        <v>10.552321000000008</v>
       </c>
     </row>
     <row r="8" spans="1:11" x14ac:dyDescent="0.55000000000000004">
@@ -29472,12 +29262,12 @@
         <v>3.464630000000001</v>
       </c>
       <c r="D8">
-        <f>GDP・POP!G8*Intensity!D8/10^6</f>
-        <v>3.0160219999999978</v>
+        <f>GDP・POP!G8*GDP・POP!C8*Intensity!D8/10^6</f>
+        <v>3.0160220000000031</v>
       </c>
       <c r="E8">
-        <f>GDP・POP!H8*Intensity!E8/10^6</f>
-        <v>3.0160219999999978</v>
+        <f>GDP・POP!H8*GDP・POP!D8*Intensity!E8/10^6</f>
+        <v>3.0160220000000031</v>
       </c>
       <c r="F8">
         <f>GDP・POP!C8*COMFLOOR!$B8*Intensity!F8/10^6</f>
@@ -29497,11 +29287,11 @@
       </c>
       <c r="J8">
         <f t="shared" si="0"/>
-        <v>10.399278000000001</v>
+        <v>10.399278000000006</v>
       </c>
       <c r="K8">
         <f t="shared" si="1"/>
-        <v>10.399278000000001</v>
+        <v>10.399278000000006</v>
       </c>
     </row>
     <row r="9" spans="1:11" x14ac:dyDescent="0.55000000000000004">
@@ -29517,12 +29307,12 @@
         <v>3.4728230000000004</v>
       </c>
       <c r="D9">
-        <f>GDP・POP!G9*Intensity!D9/10^6</f>
-        <v>2.9910649999999914</v>
+        <f>GDP・POP!G9*GDP・POP!C9*Intensity!D9/10^6</f>
+        <v>2.9910649999999932</v>
       </c>
       <c r="E9">
-        <f>GDP・POP!H9*Intensity!E9/10^6</f>
-        <v>2.9910649999999914</v>
+        <f>GDP・POP!H9*GDP・POP!D9*Intensity!E9/10^6</f>
+        <v>2.9910649999999932</v>
       </c>
       <c r="F9">
         <f>GDP・POP!C9*COMFLOOR!$B9*Intensity!F9/10^6</f>
@@ -29542,11 +29332,11 @@
       </c>
       <c r="J9">
         <f t="shared" si="0"/>
-        <v>10.494455999999985</v>
+        <v>10.494455999999987</v>
       </c>
       <c r="K9">
         <f t="shared" si="1"/>
-        <v>10.494455999999985</v>
+        <v>10.494455999999987</v>
       </c>
     </row>
     <row r="10" spans="1:11" x14ac:dyDescent="0.55000000000000004">
@@ -29562,12 +29352,12 @@
         <v>3.4914290000000019</v>
       </c>
       <c r="D10">
-        <f>GDP・POP!G10*Intensity!D10/10^6</f>
-        <v>2.9540929999999888</v>
+        <f>GDP・POP!G10*GDP・POP!C10*Intensity!D10/10^6</f>
+        <v>2.9540929999999976</v>
       </c>
       <c r="E10">
-        <f>GDP・POP!H10*Intensity!E10/10^6</f>
-        <v>2.9540929999999888</v>
+        <f>GDP・POP!H10*GDP・POP!D10*Intensity!E10/10^6</f>
+        <v>2.9540929999999976</v>
       </c>
       <c r="F10">
         <f>GDP・POP!C10*COMFLOOR!$B10*Intensity!F10/10^6</f>
@@ -29587,11 +29377,11 @@
       </c>
       <c r="J10">
         <f t="shared" si="0"/>
-        <v>10.330226999999992</v>
+        <v>10.330227000000001</v>
       </c>
       <c r="K10">
         <f t="shared" si="1"/>
-        <v>10.330226999999992</v>
+        <v>10.330227000000001</v>
       </c>
     </row>
     <row r="11" spans="1:11" x14ac:dyDescent="0.55000000000000004">
@@ -29607,12 +29397,12 @@
         <v>3.3643169999999993</v>
       </c>
       <c r="D11">
-        <f>GDP・POP!G11*Intensity!D11/10^6</f>
-        <v>2.893835000000009</v>
+        <f>GDP・POP!G11*GDP・POP!C11*Intensity!D11/10^6</f>
+        <v>2.8938350000000068</v>
       </c>
       <c r="E11">
-        <f>GDP・POP!H11*Intensity!E11/10^6</f>
-        <v>2.893835000000009</v>
+        <f>GDP・POP!H11*GDP・POP!D11*Intensity!E11/10^6</f>
+        <v>2.8938350000000068</v>
       </c>
       <c r="F11">
         <f>GDP・POP!C11*COMFLOOR!$B11*Intensity!F11/10^6</f>
@@ -29632,11 +29422,11 @@
       </c>
       <c r="J11">
         <f t="shared" si="0"/>
-        <v>10.083009000000013</v>
+        <v>10.083009000000009</v>
       </c>
       <c r="K11">
         <f t="shared" si="1"/>
-        <v>10.083009000000013</v>
+        <v>10.083009000000009</v>
       </c>
     </row>
     <row r="12" spans="1:11" x14ac:dyDescent="0.55000000000000004">
@@ -29652,12 +29442,12 @@
         <v>3.1464160000000025</v>
       </c>
       <c r="D12">
-        <f>GDP・POP!G12*Intensity!D12/10^6</f>
-        <v>2.6152400000000067</v>
+        <f>GDP・POP!G12*GDP・POP!C12*Intensity!D12/10^6</f>
+        <v>2.6152399999999996</v>
       </c>
       <c r="E12">
-        <f>GDP・POP!H12*Intensity!E12/10^6</f>
-        <v>2.6152400000000067</v>
+        <f>GDP・POP!H12*GDP・POP!D12*Intensity!E12/10^6</f>
+        <v>2.6152399999999996</v>
       </c>
       <c r="F12">
         <f>GDP・POP!C12*COMFLOOR!$B12*Intensity!F12/10^6</f>
@@ -29677,11 +29467,11 @@
       </c>
       <c r="J12">
         <f t="shared" si="0"/>
-        <v>9.5523820000000033</v>
+        <v>9.5523819999999962</v>
       </c>
       <c r="K12">
         <f t="shared" si="1"/>
-        <v>9.5523820000000033</v>
+        <v>9.5523819999999962</v>
       </c>
     </row>
     <row r="13" spans="1:11" x14ac:dyDescent="0.55000000000000004">
@@ -29697,12 +29487,12 @@
         <v>3.1706145895369882</v>
       </c>
       <c r="D13">
-        <f>GDP・POP!G13*Intensity!D13/10^6</f>
-        <v>2.6040644368347485</v>
+        <f>GDP・POP!G13*GDP・POP!C13*Intensity!D13/10^6</f>
+        <v>2.6240918859815885</v>
       </c>
       <c r="E13">
-        <f>GDP・POP!H13*Intensity!E13/10^6</f>
-        <v>2.6040644368347485</v>
+        <f>GDP・POP!H13*GDP・POP!D13*Intensity!E13/10^6</f>
+        <v>2.6240918859815885</v>
       </c>
       <c r="F13">
         <f>GDP・POP!C13*COMFLOOR!$B13*Intensity!F13/10^6</f>
@@ -29722,11 +29512,11 @@
       </c>
       <c r="J13">
         <f t="shared" si="0"/>
-        <v>9.5786687125426901</v>
+        <v>9.5986961616895297</v>
       </c>
       <c r="K13">
         <f t="shared" si="1"/>
-        <v>9.5786687125426901</v>
+        <v>9.5986961616895297</v>
       </c>
     </row>
     <row r="14" spans="1:11" x14ac:dyDescent="0.55000000000000004">
@@ -29742,12 +29532,12 @@
         <v>3.1948131790739671</v>
       </c>
       <c r="D14">
-        <f>GDP・POP!G14*Intensity!D14/10^6</f>
-        <v>2.5928888736694859</v>
+        <f>GDP・POP!G14*GDP・POP!C14*Intensity!D14/10^6</f>
+        <v>2.6327718729734091</v>
       </c>
       <c r="E14">
-        <f>GDP・POP!H14*Intensity!E14/10^6</f>
-        <v>2.5928888736694859</v>
+        <f>GDP・POP!H14*GDP・POP!D14*Intensity!E14/10^6</f>
+        <v>2.6327718729734091</v>
       </c>
       <c r="F14">
         <f>GDP・POP!C14*COMFLOOR!$B14*Intensity!F14/10^6</f>
@@ -29767,11 +29557,11 @@
       </c>
       <c r="J14">
         <f t="shared" si="0"/>
-        <v>9.6051536331883547</v>
+        <v>9.6450366324922765</v>
       </c>
       <c r="K14">
         <f t="shared" si="1"/>
-        <v>9.6051536331883547</v>
+        <v>9.6450366324922765</v>
       </c>
     </row>
     <row r="15" spans="1:11" x14ac:dyDescent="0.55000000000000004">
@@ -29787,12 +29577,12 @@
         <v>3.2190117686109536</v>
       </c>
       <c r="D15">
-        <f>GDP・POP!G15*Intensity!D15/10^6</f>
-        <v>2.5817133105042234</v>
+        <f>GDP・POP!G15*GDP・POP!C15*Intensity!D15/10^6</f>
+        <v>2.641279960975476</v>
       </c>
       <c r="E15">
-        <f>GDP・POP!H15*Intensity!E15/10^6</f>
-        <v>2.5817133105042234</v>
+        <f>GDP・POP!H15*GDP・POP!D15*Intensity!E15/10^6</f>
+        <v>2.641279960975476</v>
       </c>
       <c r="F15">
         <f>GDP・POP!C15*COMFLOOR!$B15*Intensity!F15/10^6</f>
@@ -29812,11 +29602,11 @@
       </c>
       <c r="J15">
         <f t="shared" si="0"/>
-        <v>9.6318419488122924</v>
+        <v>9.6914085992835464</v>
       </c>
       <c r="K15">
         <f t="shared" si="1"/>
-        <v>9.6318419488122924</v>
+        <v>9.6914085992835464</v>
       </c>
     </row>
     <row r="16" spans="1:11" x14ac:dyDescent="0.55000000000000004">
@@ -29832,12 +29622,12 @@
         <v>3.243210358147933</v>
       </c>
       <c r="D16">
-        <f>GDP・POP!G16*Intensity!D16/10^6</f>
-        <v>2.5705377473389608</v>
+        <f>GDP・POP!G16*GDP・POP!C16*Intensity!D16/10^6</f>
+        <v>2.6496161499877777</v>
       </c>
       <c r="E16">
-        <f>GDP・POP!H16*Intensity!E16/10^6</f>
-        <v>2.5705377473389608</v>
+        <f>GDP・POP!H16*GDP・POP!D16*Intensity!E16/10^6</f>
+        <v>2.6496161499877777</v>
       </c>
       <c r="F16">
         <f>GDP・POP!C16*COMFLOOR!$B16*Intensity!F16/10^6</f>
@@ -29857,11 +29647,11 @@
       </c>
       <c r="J16">
         <f t="shared" si="0"/>
-        <v>9.6587389373952046</v>
+        <v>9.7378173400440211</v>
       </c>
       <c r="K16">
         <f t="shared" si="1"/>
-        <v>9.6587389373952046</v>
+        <v>9.7378173400440211</v>
       </c>
     </row>
     <row r="17" spans="1:11" x14ac:dyDescent="0.55000000000000004">
@@ -29877,12 +29667,12 @@
         <v>3.2674089476849195</v>
       </c>
       <c r="D17">
-        <f>GDP・POP!G17*Intensity!D17/10^6</f>
-        <v>2.5593621841736987</v>
+        <f>GDP・POP!G17*GDP・POP!C17*Intensity!D17/10^6</f>
+        <v>2.6577804400103271</v>
       </c>
       <c r="E17">
-        <f>GDP・POP!H17*Intensity!E17/10^6</f>
-        <v>2.5593621841736987</v>
+        <f>GDP・POP!H17*GDP・POP!D17*Intensity!E17/10^6</f>
+        <v>2.6577804400103271</v>
       </c>
       <c r="F17">
         <f>GDP・POP!C17*COMFLOOR!$B17*Intensity!F17/10^6</f>
@@ -29902,11 +29692,11 @@
       </c>
       <c r="J17">
         <f t="shared" si="0"/>
-        <v>9.685849986083003</v>
+        <v>9.7842682419196301</v>
       </c>
       <c r="K17">
         <f t="shared" si="1"/>
-        <v>9.685849986083003</v>
+        <v>9.7842682419196301</v>
       </c>
     </row>
     <row r="18" spans="1:11" x14ac:dyDescent="0.55000000000000004">
@@ -29922,12 +29712,12 @@
         <v>3.2916075372218989</v>
       </c>
       <c r="D18">
-        <f>GDP・POP!G18*Intensity!D18/10^6</f>
-        <v>2.548186621008441</v>
+        <f>GDP・POP!G18*GDP・POP!C18*Intensity!D18/10^6</f>
+        <v>2.6657728310431161</v>
       </c>
       <c r="E18">
-        <f>GDP・POP!H18*Intensity!E18/10^6</f>
-        <v>2.548186621008441</v>
+        <f>GDP・POP!H18*GDP・POP!D18*Intensity!E18/10^6</f>
+        <v>2.6657728310431161</v>
       </c>
       <c r="F18">
         <f>GDP・POP!C18*COMFLOOR!$B18*Intensity!F18/10^6</f>
@@ -29947,11 +29737,11 @@
       </c>
       <c r="J18">
         <f t="shared" si="0"/>
-        <v>9.7093357221139236</v>
+        <v>9.8269219321485988</v>
       </c>
       <c r="K18">
         <f t="shared" si="1"/>
-        <v>9.7093357221139236</v>
+        <v>9.8269219321485988</v>
       </c>
     </row>
     <row r="19" spans="1:11" x14ac:dyDescent="0.55000000000000004">
@@ -29967,12 +29757,12 @@
         <v>3.315806126758885</v>
       </c>
       <c r="D19">
-        <f>GDP・POP!G19*Intensity!D19/10^6</f>
-        <v>2.5370110578431779</v>
+        <f>GDP・POP!G19*GDP・POP!C19*Intensity!D19/10^6</f>
+        <v>2.6735933230861471</v>
       </c>
       <c r="E19">
-        <f>GDP・POP!H19*Intensity!E19/10^6</f>
-        <v>2.5370110578431779</v>
+        <f>GDP・POP!H19*GDP・POP!D19*Intensity!E19/10^6</f>
+        <v>2.6735933230861471</v>
       </c>
       <c r="F19">
         <f>GDP・POP!C19*COMFLOOR!$B19*Intensity!F19/10^6</f>
@@ -29992,11 +29782,11 @@
       </c>
       <c r="J19">
         <f t="shared" si="0"/>
-        <v>9.732987313481404</v>
+        <v>9.8695695787243718</v>
       </c>
       <c r="K19">
         <f t="shared" si="1"/>
-        <v>9.732987313481404</v>
+        <v>9.8695695787243718</v>
       </c>
     </row>
     <row r="20" spans="1:11" x14ac:dyDescent="0.55000000000000004">
@@ -30012,12 +29802,12 @@
         <v>3.3400047162958644</v>
       </c>
       <c r="D20">
-        <f>GDP・POP!G20*Intensity!D20/10^6</f>
-        <v>2.5258354946779158</v>
+        <f>GDP・POP!G20*GDP・POP!C20*Intensity!D20/10^6</f>
+        <v>2.6812419161394132</v>
       </c>
       <c r="E20">
-        <f>GDP・POP!H20*Intensity!E20/10^6</f>
-        <v>2.5258354946779158</v>
+        <f>GDP・POP!H20*GDP・POP!D20*Intensity!E20/10^6</f>
+        <v>2.6812419161394132</v>
       </c>
       <c r="F20">
         <f>GDP・POP!C20*COMFLOOR!$B20*Intensity!F20/10^6</f>
@@ -30037,11 +29827,11 @@
       </c>
       <c r="J20">
         <f t="shared" si="0"/>
-        <v>9.7568096536634989</v>
+        <v>9.9122160751249968</v>
       </c>
       <c r="K20">
         <f t="shared" si="1"/>
-        <v>9.7568096536634989</v>
+        <v>9.9122160751249968</v>
       </c>
     </row>
     <row r="21" spans="1:11" x14ac:dyDescent="0.55000000000000004">
@@ -30057,12 +29847,12 @@
         <v>3.3642033058328438</v>
       </c>
       <c r="D21">
-        <f>GDP・POP!G21*Intensity!D21/10^6</f>
-        <v>2.5146599315126532</v>
+        <f>GDP・POP!G21*GDP・POP!C21*Intensity!D21/10^6</f>
+        <v>2.6887186102029208</v>
       </c>
       <c r="E21">
-        <f>GDP・POP!H21*Intensity!E21/10^6</f>
-        <v>2.5146599315126532</v>
+        <f>GDP・POP!H21*GDP・POP!D21*Intensity!E21/10^6</f>
+        <v>2.6887186102029208</v>
       </c>
       <c r="F21">
         <f>GDP・POP!C21*COMFLOOR!$B21*Intensity!F21/10^6</f>
@@ -30082,11 +29872,11 @@
       </c>
       <c r="J21">
         <f t="shared" si="0"/>
-        <v>9.7808076769184176</v>
+        <v>9.9548663556086865</v>
       </c>
       <c r="K21">
         <f t="shared" si="1"/>
-        <v>9.7808076769184176</v>
+        <v>9.9548663556086865</v>
       </c>
     </row>
     <row r="22" spans="1:11" x14ac:dyDescent="0.55000000000000004">
@@ -30102,12 +29892,12 @@
         <v>3.3884018953698303</v>
       </c>
       <c r="D22">
-        <f>GDP・POP!G22*Intensity!D22/10^6</f>
-        <v>2.5034843683473906</v>
+        <f>GDP・POP!G22*GDP・POP!C22*Intensity!D22/10^6</f>
+        <v>2.6960234052766743</v>
       </c>
       <c r="E22">
-        <f>GDP・POP!H22*Intensity!E22/10^6</f>
-        <v>2.5034843683473906</v>
+        <f>GDP・POP!H22*GDP・POP!D22*Intensity!E22/10^6</f>
+        <v>2.6960234052766743</v>
       </c>
       <c r="F22">
         <f>GDP・POP!C22*COMFLOOR!$B22*Intensity!F22/10^6</f>
@@ -30127,11 +29917,11 @@
       </c>
       <c r="J22">
         <f t="shared" si="0"/>
-        <v>9.8049864274300482</v>
+        <v>9.997525464359331</v>
       </c>
       <c r="K22">
         <f t="shared" si="1"/>
-        <v>9.8049864274300482</v>
+        <v>9.997525464359331</v>
       </c>
     </row>
     <row r="23" spans="1:11" x14ac:dyDescent="0.55000000000000004">
@@ -30147,12 +29937,12 @@
         <v>3.4126004849068092</v>
       </c>
       <c r="D23">
-        <f>GDP・POP!G23*Intensity!D23/10^6</f>
-        <v>2.4923088051821329</v>
+        <f>GDP・POP!G23*GDP・POP!C23*Intensity!D23/10^6</f>
+        <v>2.7031563013606688</v>
       </c>
       <c r="E23">
-        <f>GDP・POP!H23*Intensity!E23/10^6</f>
-        <v>2.4923088051821329</v>
+        <f>GDP・POP!H23*GDP・POP!D23*Intensity!E23/10^6</f>
+        <v>2.7031563013606688</v>
       </c>
       <c r="F23">
         <f>GDP・POP!C23*COMFLOOR!$B23*Intensity!F23/10^6</f>
@@ -30172,11 +29962,11 @@
       </c>
       <c r="J23">
         <f t="shared" si="0"/>
-        <v>9.8231419265775735</v>
+        <v>10.033989422756109</v>
       </c>
       <c r="K23">
         <f t="shared" si="1"/>
-        <v>9.8231419265775735</v>
+        <v>10.033989422756109</v>
       </c>
     </row>
     <row r="24" spans="1:11" x14ac:dyDescent="0.55000000000000004">
@@ -30192,12 +29982,12 @@
         <v>3.4367990744437957</v>
       </c>
       <c r="D24">
-        <f>GDP・POP!G24*Intensity!D24/10^6</f>
-        <v>2.4811332420168704</v>
+        <f>GDP・POP!G24*GDP・POP!C24*Intensity!D24/10^6</f>
+        <v>2.7101172984549047</v>
       </c>
       <c r="E24">
-        <f>GDP・POP!H24*Intensity!E24/10^6</f>
-        <v>2.4811332420168704</v>
+        <f>GDP・POP!H24*GDP・POP!D24*Intensity!E24/10^6</f>
+        <v>2.7101172984549047</v>
       </c>
       <c r="F24">
         <f>GDP・POP!C24*COMFLOOR!$B24*Intensity!F24/10^6</f>
@@ -30217,11 +30007,11 @@
       </c>
       <c r="J24">
         <f t="shared" si="0"/>
-        <v>9.8413936447467609</v>
+        <v>10.070377701184796</v>
       </c>
       <c r="K24">
         <f t="shared" si="1"/>
-        <v>9.8413936447467609</v>
+        <v>10.070377701184796</v>
       </c>
     </row>
     <row r="25" spans="1:11" x14ac:dyDescent="0.55000000000000004">
@@ -30237,12 +30027,12 @@
         <v>3.4609976639807751</v>
       </c>
       <c r="D25">
-        <f>GDP・POP!G25*Intensity!D25/10^6</f>
-        <v>2.4699576788516082</v>
+        <f>GDP・POP!G25*GDP・POP!C25*Intensity!D25/10^6</f>
+        <v>2.7169063965593754</v>
       </c>
       <c r="E25">
-        <f>GDP・POP!H25*Intensity!E25/10^6</f>
-        <v>2.4699576788516082</v>
+        <f>GDP・POP!H25*GDP・POP!D25*Intensity!E25/10^6</f>
+        <v>2.7169063965593754</v>
       </c>
       <c r="F25">
         <f>GDP・POP!C25*COMFLOOR!$B25*Intensity!F25/10^6</f>
@@ -30262,11 +30052,11 @@
       </c>
       <c r="J25">
         <f t="shared" si="0"/>
-        <v>9.8597453322130413</v>
+        <v>10.106694049920808</v>
       </c>
       <c r="K25">
         <f t="shared" si="1"/>
-        <v>9.8597453322130413</v>
+        <v>10.106694049920808</v>
       </c>
     </row>
     <row r="26" spans="1:11" x14ac:dyDescent="0.55000000000000004">
@@ -30282,12 +30072,12 @@
         <v>3.4851962535177616</v>
       </c>
       <c r="D26">
-        <f>GDP・POP!G26*Intensity!D26/10^6</f>
-        <v>2.4587821156863452</v>
+        <f>GDP・POP!G26*GDP・POP!C26*Intensity!D26/10^6</f>
+        <v>2.7235235956740937</v>
       </c>
       <c r="E26">
-        <f>GDP・POP!H26*Intensity!E26/10^6</f>
-        <v>2.4587821156863452</v>
+        <f>GDP・POP!H26*GDP・POP!D26*Intensity!E26/10^6</f>
+        <v>2.7235235956740937</v>
       </c>
       <c r="F26">
         <f>GDP・POP!C26*COMFLOOR!$B26*Intensity!F26/10^6</f>
@@ -30307,11 +30097,11 @@
       </c>
       <c r="J26">
         <f t="shared" si="0"/>
-        <v>9.8782007908611291</v>
+        <v>10.142942270848877</v>
       </c>
       <c r="K26">
         <f t="shared" si="1"/>
-        <v>9.8782007908611291</v>
+        <v>10.142942270848877</v>
       </c>
     </row>
     <row r="27" spans="1:11" x14ac:dyDescent="0.55000000000000004">
@@ -30327,12 +30117,12 @@
         <v>3.5093948430547406</v>
       </c>
       <c r="D27">
-        <f>GDP・POP!G27*Intensity!D27/10^6</f>
-        <v>2.4476065525210831</v>
+        <f>GDP・POP!G27*GDP・POP!C27*Intensity!D27/10^6</f>
+        <v>2.7299688957990464</v>
       </c>
       <c r="E27">
-        <f>GDP・POP!H27*Intensity!E27/10^6</f>
-        <v>2.4476065525210831</v>
+        <f>GDP・POP!H27*GDP・POP!D27*Intensity!E27/10^6</f>
+        <v>2.7299688957990464</v>
       </c>
       <c r="F27">
         <f>GDP・POP!C27*COMFLOOR!$B27*Intensity!F27/10^6</f>
@@ -30352,11 +30142,11 @@
       </c>
       <c r="J27">
         <f t="shared" si="0"/>
-        <v>9.8967638386227623</v>
+        <v>10.179126181900726</v>
       </c>
       <c r="K27">
         <f t="shared" si="1"/>
-        <v>9.8967638386227623</v>
+        <v>10.179126181900726</v>
       </c>
     </row>
     <row r="28" spans="1:11" x14ac:dyDescent="0.55000000000000004">
@@ -30372,12 +30162,12 @@
         <v>3.5335934325917275</v>
       </c>
       <c r="D28">
-        <f>GDP・POP!G28*Intensity!D28/10^6</f>
-        <v>2.4364309893558254</v>
+        <f>GDP・POP!G28*GDP・POP!C28*Intensity!D28/10^6</f>
+        <v>2.7362422969342517</v>
       </c>
       <c r="E28">
-        <f>GDP・POP!H28*Intensity!E28/10^6</f>
-        <v>2.4364309893558254</v>
+        <f>GDP・POP!H28*GDP・POP!D28*Intensity!E28/10^6</f>
+        <v>2.7362422969342517</v>
       </c>
       <c r="F28">
         <f>GDP・POP!C28*COMFLOOR!$B28*Intensity!F28/10^6</f>
@@ -30397,11 +30187,11 @@
       </c>
       <c r="J28">
         <f t="shared" si="0"/>
-        <v>9.9101481783929728</v>
+        <v>10.2099594859714</v>
       </c>
       <c r="K28">
         <f t="shared" si="1"/>
-        <v>9.9101481783929728</v>
+        <v>10.2099594859714</v>
       </c>
     </row>
     <row r="29" spans="1:11" x14ac:dyDescent="0.55000000000000004">
@@ -30417,12 +30207,12 @@
         <v>3.5577920221287065</v>
       </c>
       <c r="D29">
-        <f>GDP・POP!G29*Intensity!D29/10^6</f>
-        <v>2.4252554261905632</v>
+        <f>GDP・POP!G29*GDP・POP!C29*Intensity!D29/10^6</f>
+        <v>2.7423437990796868</v>
       </c>
       <c r="E29">
-        <f>GDP・POP!H29*Intensity!E29/10^6</f>
-        <v>2.4252554261905632</v>
+        <f>GDP・POP!H29*GDP・POP!D29*Intensity!E29/10^6</f>
+        <v>2.7423437990796868</v>
       </c>
       <c r="F29">
         <f>GDP・POP!C29*COMFLOOR!$B29*Intensity!F29/10^6</f>
@@ -30442,11 +30232,11 @@
       </c>
       <c r="J29">
         <f t="shared" si="0"/>
-        <v>9.923621898032124</v>
+        <v>10.240710270921246</v>
       </c>
       <c r="K29">
         <f t="shared" si="1"/>
-        <v>9.923621898032124</v>
+        <v>10.240710270921246</v>
       </c>
     </row>
     <row r="30" spans="1:11" x14ac:dyDescent="0.55000000000000004">
@@ -30462,12 +30252,12 @@
         <v>3.5819906116656854</v>
       </c>
       <c r="D30">
-        <f>GDP・POP!G30*Intensity!D30/10^6</f>
-        <v>2.4140798630253002</v>
+        <f>GDP・POP!G30*GDP・POP!C30*Intensity!D30/10^6</f>
+        <v>2.7482734022353625</v>
       </c>
       <c r="E30">
-        <f>GDP・POP!H30*Intensity!E30/10^6</f>
-        <v>2.4140798630253002</v>
+        <f>GDP・POP!H30*GDP・POP!D30*Intensity!E30/10^6</f>
+        <v>2.7482734022353625</v>
       </c>
       <c r="F30">
         <f>GDP・POP!C30*COMFLOOR!$B30*Intensity!F30/10^6</f>
@@ -30487,11 +30277,11 @@
       </c>
       <c r="J30">
         <f t="shared" si="0"/>
-        <v>9.9371886199850348</v>
+        <v>10.271382159195097</v>
       </c>
       <c r="K30">
         <f t="shared" si="1"/>
-        <v>9.9371886199850348</v>
+        <v>10.271382159195097</v>
       </c>
     </row>
     <row r="31" spans="1:11" x14ac:dyDescent="0.55000000000000004">
@@ -30507,12 +30297,12 @@
         <v>3.6061892012026724</v>
       </c>
       <c r="D31">
-        <f>GDP・POP!G31*Intensity!D31/10^6</f>
-        <v>2.4029042998600381</v>
+        <f>GDP・POP!G31*GDP・POP!C31*Intensity!D31/10^6</f>
+        <v>2.7540311064012855</v>
       </c>
       <c r="E31">
-        <f>GDP・POP!H31*Intensity!E31/10^6</f>
-        <v>2.4029042998600381</v>
+        <f>GDP・POP!H31*GDP・POP!D31*Intensity!E31/10^6</f>
+        <v>2.7540311064012855</v>
       </c>
       <c r="F31">
         <f>GDP・POP!C31*COMFLOOR!$B31*Intensity!F31/10^6</f>
@@ -30532,11 +30322,11 @@
       </c>
       <c r="J31">
         <f t="shared" si="0"/>
-        <v>9.9508520428502685</v>
+        <v>10.301978849391517</v>
       </c>
       <c r="K31">
         <f t="shared" si="1"/>
-        <v>9.9508520428502685</v>
+        <v>10.301978849391517</v>
       </c>
     </row>
     <row r="32" spans="1:11" x14ac:dyDescent="0.55000000000000004">
@@ -30552,12 +30342,12 @@
         <v>3.6303877907396513</v>
       </c>
       <c r="D32">
-        <f>GDP・POP!G32*Intensity!D32/10^6</f>
-        <v>2.3917287366947755</v>
+        <f>GDP・POP!G32*GDP・POP!C32*Intensity!D32/10^6</f>
+        <v>2.7596169115774436</v>
       </c>
       <c r="E32">
-        <f>GDP・POP!H32*Intensity!E32/10^6</f>
-        <v>2.3917287366947755</v>
+        <f>GDP・POP!H32*GDP・POP!D32*Intensity!E32/10^6</f>
+        <v>2.7596169115774436</v>
       </c>
       <c r="F32">
         <f>GDP・POP!C32*COMFLOOR!$B32*Intensity!F32/10^6</f>
@@ -30577,11 +30367,11 @@
       </c>
       <c r="J32">
         <f t="shared" si="0"/>
-        <v>9.9646158101596818</v>
+        <v>10.332503985042349</v>
       </c>
       <c r="K32">
         <f t="shared" si="1"/>
-        <v>9.9646158101596818</v>
+        <v>10.332503985042349</v>
       </c>
     </row>
     <row r="33" spans="1:11" x14ac:dyDescent="0.55000000000000004">
@@ -30597,12 +30387,12 @@
         <v>3.6545863802766383</v>
       </c>
       <c r="D33">
-        <f>GDP・POP!G33*Intensity!D33/10^6</f>
-        <v>2.3805531735295178</v>
+        <f>GDP・POP!G33*GDP・POP!C33*Intensity!D33/10^6</f>
+        <v>2.7650308177638538</v>
       </c>
       <c r="E33">
-        <f>GDP・POP!H33*Intensity!E33/10^6</f>
-        <v>2.3805531735295178</v>
+        <f>GDP・POP!H33*GDP・POP!D33*Intensity!E33/10^6</f>
+        <v>2.7650308177638538</v>
       </c>
       <c r="F33">
         <f>GDP・POP!C33*COMFLOOR!$B33*Intensity!F33/10^6</f>
@@ -30622,11 +30412,11 @@
       </c>
       <c r="J33">
         <f t="shared" si="0"/>
-        <v>9.9841056408124711</v>
+        <v>10.368583285046807</v>
       </c>
       <c r="K33">
         <f t="shared" si="1"/>
-        <v>9.9841056408124711</v>
+        <v>10.368583285046807</v>
       </c>
     </row>
     <row r="34" spans="1:11" x14ac:dyDescent="0.55000000000000004">
@@ -30642,12 +30432,12 @@
         <v>3.6787849698136168</v>
       </c>
       <c r="D34">
-        <f>GDP・POP!G34*Intensity!D34/10^6</f>
-        <v>2.3693776103642552</v>
+        <f>GDP・POP!G34*GDP・POP!C34*Intensity!D34/10^6</f>
+        <v>2.770272824960494</v>
       </c>
       <c r="E34">
-        <f>GDP・POP!H34*Intensity!E34/10^6</f>
-        <v>2.3693776103642552</v>
+        <f>GDP・POP!H34*GDP・POP!D34*Intensity!E34/10^6</f>
+        <v>2.770272824960494</v>
       </c>
       <c r="F34">
         <f>GDP・POP!C34*COMFLOOR!$B34*Intensity!F34/10^6</f>
@@ -30667,11 +30457,11 @@
       </c>
       <c r="J34">
         <f t="shared" si="0"/>
-        <v>10.003682969985816</v>
+        <v>10.404578184582055</v>
       </c>
       <c r="K34">
         <f t="shared" si="1"/>
-        <v>10.003682969985816</v>
+        <v>10.404578184582055</v>
       </c>
     </row>
     <row r="35" spans="1:11" x14ac:dyDescent="0.55000000000000004">
@@ -30687,12 +30477,12 @@
         <v>3.7029835593506037</v>
       </c>
       <c r="D35">
-        <f>GDP・POP!G35*Intensity!D35/10^6</f>
-        <v>2.3582020471989926</v>
+        <f>GDP・POP!G35*GDP・POP!C35*Intensity!D35/10^6</f>
+        <v>2.7753429331673809</v>
       </c>
       <c r="E35">
-        <f>GDP・POP!H35*Intensity!E35/10^6</f>
-        <v>2.3582020471989926</v>
+        <f>GDP・POP!H35*GDP・POP!D35*Intensity!E35/10^6</f>
+        <v>2.7753429331673809</v>
       </c>
       <c r="F35">
         <f>GDP・POP!C35*COMFLOOR!$B35*Intensity!F35/10^6</f>
@@ -30712,11 +30502,11 @@
       </c>
       <c r="J35">
         <f t="shared" si="0"/>
-        <v>10.023350599284811</v>
+        <v>10.440491485253199</v>
       </c>
       <c r="K35">
         <f t="shared" si="1"/>
-        <v>10.023350599284811</v>
+        <v>10.440491485253199</v>
       </c>
     </row>
     <row r="36" spans="1:11" x14ac:dyDescent="0.55000000000000004">
@@ -30732,12 +30522,12 @@
         <v>3.7271821488875831</v>
       </c>
       <c r="D36">
-        <f>GDP・POP!G36*Intensity!D36/10^6</f>
-        <v>2.3470264840337305</v>
+        <f>GDP・POP!G36*GDP・POP!C36*Intensity!D36/10^6</f>
+        <v>2.7802411423845026</v>
       </c>
       <c r="E36">
-        <f>GDP・POP!H36*Intensity!E36/10^6</f>
-        <v>2.3470264840337305</v>
+        <f>GDP・POP!H36*GDP・POP!D36*Intensity!E36/10^6</f>
+        <v>2.7802411423845026</v>
       </c>
       <c r="F36">
         <f>GDP・POP!C36*COMFLOOR!$B36*Intensity!F36/10^6</f>
@@ -30757,11 +30547,11 @@
       </c>
       <c r="J36">
         <f t="shared" si="0"/>
-        <v>10.043111361001344</v>
+        <v>10.476326019352115</v>
       </c>
       <c r="K36">
         <f t="shared" si="1"/>
-        <v>10.043111361001344</v>
+        <v>10.476326019352115</v>
       </c>
     </row>
     <row r="37" spans="1:11" x14ac:dyDescent="0.55000000000000004">
@@ -30777,12 +30567,12 @@
         <v>3.7513807384245692</v>
       </c>
       <c r="D37">
-        <f>GDP・POP!G37*Intensity!D37/10^6</f>
-        <v>2.3358509208684675</v>
+        <f>GDP・POP!G37*GDP・POP!C37*Intensity!D37/10^6</f>
+        <v>2.7849674526118711</v>
       </c>
       <c r="E37">
-        <f>GDP・POP!H37*Intensity!E37/10^6</f>
-        <v>2.3358509208684675</v>
+        <f>GDP・POP!H37*GDP・POP!D37*Intensity!E37/10^6</f>
+        <v>2.7849674526118711</v>
       </c>
       <c r="F37">
         <f>GDP・POP!C37*COMFLOOR!$B37*Intensity!F37/10^6</f>
@@ -30802,11 +30592,11 @@
       </c>
       <c r="J37">
         <f t="shared" si="0"/>
-        <v>10.062968109098614</v>
+        <v>10.512084640842017</v>
       </c>
       <c r="K37">
         <f t="shared" si="1"/>
-        <v>10.062968109098614</v>
+        <v>10.512084640842017</v>
       </c>
     </row>
     <row r="38" spans="1:11" x14ac:dyDescent="0.55000000000000004">
@@ -30822,12 +30612,12 @@
         <v>3.7755793279615486</v>
       </c>
       <c r="D38">
-        <f>GDP・POP!G38*Intensity!D38/10^6</f>
-        <v>2.3246753577032098</v>
+        <f>GDP・POP!G38*GDP・POP!C38*Intensity!D38/10^6</f>
+        <v>2.789521863849481</v>
       </c>
       <c r="E38">
-        <f>GDP・POP!H38*Intensity!E38/10^6</f>
-        <v>2.3246753577032098</v>
+        <f>GDP・POP!H38*GDP・POP!D38*Intensity!E38/10^6</f>
+        <v>2.789521863849481</v>
       </c>
       <c r="F38">
         <f>GDP・POP!C38*COMFLOOR!$B38*Intensity!F38/10^6</f>
@@ -30847,11 +30637,11 @@
       </c>
       <c r="J38">
         <f t="shared" si="0"/>
-        <v>10.081463924390553</v>
+        <v>10.546310430536824</v>
       </c>
       <c r="K38">
         <f t="shared" si="1"/>
-        <v>10.081463924390553</v>
+        <v>10.546310430536824</v>
       </c>
     </row>
     <row r="39" spans="1:11" x14ac:dyDescent="0.55000000000000004">
@@ -30867,12 +30657,12 @@
         <v>3.7997779174985351</v>
       </c>
       <c r="D39">
-        <f>GDP・POP!G39*Intensity!D39/10^6</f>
-        <v>2.3134997945379476</v>
+        <f>GDP・POP!G39*GDP・POP!C39*Intensity!D39/10^6</f>
+        <v>2.7939043760973319</v>
       </c>
       <c r="E39">
-        <f>GDP・POP!H39*Intensity!E39/10^6</f>
-        <v>2.3134997945379476</v>
+        <f>GDP・POP!H39*GDP・POP!D39*Intensity!E39/10^6</f>
+        <v>2.7939043760973319</v>
       </c>
       <c r="F39">
         <f>GDP・POP!C39*COMFLOOR!$B39*Intensity!F39/10^6</f>
@@ -30892,11 +30682,11 @@
       </c>
       <c r="J39">
         <f t="shared" si="0"/>
-        <v>10.100051001256887</v>
+        <v>10.580455582816271</v>
       </c>
       <c r="K39">
         <f t="shared" si="1"/>
-        <v>10.100051001256887</v>
+        <v>10.580455582816271</v>
       </c>
     </row>
     <row r="40" spans="1:11" x14ac:dyDescent="0.55000000000000004">
@@ -30912,12 +30702,12 @@
         <v>3.8239765070355145</v>
       </c>
       <c r="D40">
-        <f>GDP・POP!G40*Intensity!D40/10^6</f>
-        <v>2.302324231372685</v>
+        <f>GDP・POP!G40*GDP・POP!C40*Intensity!D40/10^6</f>
+        <v>2.798114989355418</v>
       </c>
       <c r="E40">
-        <f>GDP・POP!H40*Intensity!E40/10^6</f>
-        <v>2.302324231372685</v>
+        <f>GDP・POP!H40*GDP・POP!D40*Intensity!E40/10^6</f>
+        <v>2.798114989355418</v>
       </c>
       <c r="F40">
         <f>GDP・POP!C40*COMFLOOR!$B40*Intensity!F40/10^6</f>
@@ -30937,11 +30727,11 @@
       </c>
       <c r="J40">
         <f t="shared" si="0"/>
-        <v>10.118732068435836</v>
+        <v>10.61452282641857</v>
       </c>
       <c r="K40">
         <f t="shared" si="1"/>
-        <v>10.118732068435836</v>
+        <v>10.61452282641857</v>
       </c>
     </row>
     <row r="41" spans="1:11" x14ac:dyDescent="0.55000000000000004">
@@ -30957,12 +30747,12 @@
         <v>3.8481750965724935</v>
       </c>
       <c r="D41">
-        <f>GDP・POP!G41*Intensity!D41/10^6</f>
-        <v>2.2911486682074225</v>
+        <f>GDP・POP!G41*GDP・POP!C41*Intensity!D41/10^6</f>
+        <v>2.8021537036237447</v>
       </c>
       <c r="E41">
-        <f>GDP・POP!H41*Intensity!E41/10^6</f>
-        <v>2.2911486682074225</v>
+        <f>GDP・POP!H41*GDP・POP!D41*Intensity!E41/10^6</f>
+        <v>2.8021537036237447</v>
       </c>
       <c r="F41">
         <f>GDP・POP!C41*COMFLOOR!$B41*Intensity!F41/10^6</f>
@@ -30982,11 +30772,11 @@
       </c>
       <c r="J41">
         <f t="shared" si="0"/>
-        <v>10.137509863892976</v>
+        <v>10.648514899309301</v>
       </c>
       <c r="K41">
         <f t="shared" si="1"/>
-        <v>10.137509863892976</v>
+        <v>10.648514899309301</v>
       </c>
     </row>
     <row r="42" spans="1:11" x14ac:dyDescent="0.55000000000000004">
@@ -31002,12 +30792,12 @@
         <v>3.87237368610948</v>
       </c>
       <c r="D42">
-        <f>GDP・POP!G42*Intensity!D42/10^6</f>
-        <v>2.2799731050421599</v>
+        <f>GDP・POP!G42*GDP・POP!C42*Intensity!D42/10^6</f>
+        <v>2.8060205189023182</v>
       </c>
       <c r="E42">
-        <f>GDP・POP!H42*Intensity!E42/10^6</f>
-        <v>2.2799731050421599</v>
+        <f>GDP・POP!H42*GDP・POP!D42*Intensity!E42/10^6</f>
+        <v>2.8060205189023182</v>
       </c>
       <c r="F42">
         <f>GDP・POP!C42*COMFLOOR!$B42*Intensity!F42/10^6</f>
@@ -31027,11 +30817,11 @@
       </c>
       <c r="J42">
         <f t="shared" si="0"/>
-        <v>10.156387151209849</v>
+        <v>10.682434565070007</v>
       </c>
       <c r="K42">
         <f t="shared" si="1"/>
-        <v>10.156387151209849</v>
+        <v>10.682434565070007</v>
       </c>
     </row>
   </sheetData>
@@ -43307,7 +43097,7 @@
   <dimension ref="A1:L27"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="R16" sqref="R16"/>
+      <selection activeCell="C3" sqref="C3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.55000000000000004"/>
@@ -43611,43 +43401,43 @@
       </c>
       <c r="C8" s="9">
         <f>'Consumption(EJyr)'!$D$2*sTRA!B3</f>
-        <v>4.1999987243639068E-5</v>
+        <v>4.1999987243639028E-5</v>
       </c>
       <c r="D8">
         <f>'Consumption(EJyr)'!$D$2*sTRA!C3</f>
-        <v>3.2142520237578216</v>
+        <v>3.2142520237578185</v>
       </c>
       <c r="E8">
         <f>'Consumption(EJyr)'!$D$2*sTRA!D3</f>
-        <v>4.2009987240601791E-3</v>
+        <v>4.2009987240601756E-3</v>
       </c>
       <c r="F8">
         <f>'Consumption(EJyr)'!$D$2*sTRA!E3</f>
-        <v>8.299997479100079E-3</v>
+        <v>8.299997479100072E-3</v>
       </c>
       <c r="G8" s="3">
         <f>'Consumption(EJyr)'!$D$2*sTRA!F3</f>
-        <v>6.5678980051785088E-2</v>
+        <v>6.5678980051785033E-2</v>
       </c>
       <c r="H8">
         <f>'Consumption(EJyr)'!$E$2*sTRA!G3</f>
-        <v>4.1999987243639068E-5</v>
+        <v>4.1999987243639028E-5</v>
       </c>
       <c r="I8">
         <f>'Consumption(EJyr)'!$E$2*sTRA!H3</f>
-        <v>3.2142520237578216</v>
+        <v>3.2142520237578185</v>
       </c>
       <c r="J8">
         <f>'Consumption(EJyr)'!$E$2*sTRA!I3</f>
-        <v>4.2009987240601791E-3</v>
+        <v>4.2009987240601756E-3</v>
       </c>
       <c r="K8">
         <f>'Consumption(EJyr)'!$E$2*sTRA!J3</f>
-        <v>8.299997479100079E-3</v>
+        <v>8.299997479100072E-3</v>
       </c>
       <c r="L8" s="3">
         <f>'Consumption(EJyr)'!$E$2*sTRA!K3</f>
-        <v>6.5678980051785088E-2</v>
+        <v>6.5678980051785033E-2</v>
       </c>
     </row>
     <row r="9" spans="1:12" x14ac:dyDescent="0.55000000000000004">
@@ -43657,43 +43447,43 @@
       </c>
       <c r="C9" s="9">
         <f>'Consumption(EJyr)'!$D$12*sTRA!B13</f>
-        <v>3.6000013765472331E-5</v>
+        <v>3.6000013765472229E-5</v>
       </c>
       <c r="D9">
         <f>'Consumption(EJyr)'!$D$12*sTRA!C13</f>
-        <v>2.5335019687455023</v>
+        <v>2.5335019687454952</v>
       </c>
       <c r="E9">
         <f>'Consumption(EJyr)'!$D$12*sTRA!D13</f>
-        <v>1.0630004064638109E-3</v>
+        <v>1.0630004064638078E-3</v>
       </c>
       <c r="F9">
         <f>'Consumption(EJyr)'!$D$12*sTRA!E13</f>
-        <v>1.8345007014655294E-2</v>
+        <v>1.8345007014655246E-2</v>
       </c>
       <c r="G9" s="3">
         <f>'Consumption(EJyr)'!$D$12*sTRA!F13</f>
-        <v>6.2294023819620542E-2</v>
+        <v>6.2294023819620369E-2</v>
       </c>
       <c r="H9">
         <f>'Consumption(EJyr)'!$E$12*sTRA!G13</f>
-        <v>3.6000013765472331E-5</v>
+        <v>3.6000013765472229E-5</v>
       </c>
       <c r="I9">
         <f>'Consumption(EJyr)'!$E$12*sTRA!H13</f>
-        <v>2.5335019687455023</v>
+        <v>2.5335019687454952</v>
       </c>
       <c r="J9">
         <f>'Consumption(EJyr)'!$E$12*sTRA!I13</f>
-        <v>1.0630004064638109E-3</v>
+        <v>1.0630004064638078E-3</v>
       </c>
       <c r="K9">
         <f>'Consumption(EJyr)'!$E$12*sTRA!J13</f>
-        <v>1.8345007014655294E-2</v>
+        <v>1.8345007014655246E-2</v>
       </c>
       <c r="L9" s="3">
         <f>'Consumption(EJyr)'!$E$12*sTRA!K13</f>
-        <v>6.2294023819620542E-2</v>
+        <v>6.2294023819620369E-2</v>
       </c>
     </row>
     <row r="10" spans="1:12" x14ac:dyDescent="0.55000000000000004">
@@ -43703,43 +43493,43 @@
       </c>
       <c r="C10" s="9">
         <f>'Consumption(EJyr)'!$D$22*sTRA!B23</f>
-        <v>2.2974429809412115E-5</v>
+        <v>2.4741356995150315E-5</v>
       </c>
       <c r="D10">
         <f>'Consumption(EJyr)'!$D$22*sTRA!C23</f>
-        <v>2.4262860817816465</v>
+        <v>2.6128879201664188</v>
       </c>
       <c r="E10">
         <f>'Consumption(EJyr)'!$D$22*sTRA!D23</f>
-        <v>6.7838385798348337E-4</v>
+        <v>7.3055729127347599E-4</v>
       </c>
       <c r="F10">
         <f>'Consumption(EJyr)'!$D$22*sTRA!E23</f>
-        <v>2.0052334418204306E-2</v>
+        <v>2.159452785303435E-2</v>
       </c>
       <c r="G10" s="3">
         <f>'Consumption(EJyr)'!$D$22*sTRA!F23</f>
-        <v>5.6444593859747184E-2</v>
+        <v>6.0785658608952853E-2</v>
       </c>
       <c r="H10">
         <f>'Consumption(EJyr)'!$E$22*sTRA!G23</f>
-        <v>2.2974429809412115E-5</v>
+        <v>2.4741356995150315E-5</v>
       </c>
       <c r="I10">
         <f>'Consumption(EJyr)'!$E$22*sTRA!H23</f>
-        <v>2.4262860817816465</v>
+        <v>2.6128879201664188</v>
       </c>
       <c r="J10">
         <f>'Consumption(EJyr)'!$E$22*sTRA!I23</f>
-        <v>6.7838385798348337E-4</v>
+        <v>7.3055729127347599E-4</v>
       </c>
       <c r="K10">
         <f>'Consumption(EJyr)'!$E$22*sTRA!J23</f>
-        <v>2.0052334418204306E-2</v>
+        <v>2.159452785303435E-2</v>
       </c>
       <c r="L10" s="3">
         <f>'Consumption(EJyr)'!$E$22*sTRA!K23</f>
-        <v>5.6444593859747184E-2</v>
+        <v>6.0785658608952853E-2</v>
       </c>
     </row>
     <row r="11" spans="1:12" x14ac:dyDescent="0.55000000000000004">
@@ -43749,43 +43539,43 @@
       </c>
       <c r="C11" s="9">
         <f>'Consumption(EJyr)'!$D$32*sTRA!B33</f>
-        <v>1.0974425220921373E-5</v>
+        <v>1.2662476713955852E-5</v>
       </c>
       <c r="D11">
         <f>'Consumption(EJyr)'!$D$32*sTRA!C33</f>
-        <v>2.3189767294967782</v>
+        <v>2.6756744199668581</v>
       </c>
       <c r="E11">
         <f>'Consumption(EJyr)'!$D$32*sTRA!D33</f>
-        <v>3.2405038916221037E-4</v>
+        <v>3.7389479852597917E-4</v>
       </c>
       <c r="F11">
         <f>'Consumption(EJyr)'!$D$32*sTRA!E33</f>
-        <v>2.153724243012637E-2</v>
+        <v>2.4850033169336313E-2</v>
       </c>
       <c r="G11" s="3">
         <f>'Consumption(EJyr)'!$D$32*sTRA!F33</f>
-        <v>5.0879739953488178E-2</v>
+        <v>5.8705901166009614E-2</v>
       </c>
       <c r="H11">
         <f>'Consumption(EJyr)'!$E$32*sTRA!G33</f>
-        <v>1.0974425220921373E-5</v>
+        <v>1.2662476713955852E-5</v>
       </c>
       <c r="I11">
         <f>'Consumption(EJyr)'!$E$32*sTRA!H33</f>
-        <v>2.3189767294967782</v>
+        <v>2.6756744199668581</v>
       </c>
       <c r="J11">
         <f>'Consumption(EJyr)'!$E$32*sTRA!I33</f>
-        <v>3.2405038916221037E-4</v>
+        <v>3.7389479852597917E-4</v>
       </c>
       <c r="K11">
         <f>'Consumption(EJyr)'!$E$32*sTRA!J33</f>
-        <v>2.153724243012637E-2</v>
+        <v>2.4850033169336313E-2</v>
       </c>
       <c r="L11" s="3">
         <f>'Consumption(EJyr)'!$E$32*sTRA!K33</f>
-        <v>5.0879739953488178E-2</v>
+        <v>5.8705901166009614E-2</v>
       </c>
     </row>
     <row r="12" spans="1:12" x14ac:dyDescent="0.55000000000000004">
@@ -43799,7 +43589,7 @@
       </c>
       <c r="D12">
         <f>'Consumption(EJyr)'!$D$42*sTRA!C43</f>
-        <v>2.2115739118908952</v>
+        <v>2.7218399033352489</v>
       </c>
       <c r="E12">
         <f>'Consumption(EJyr)'!$D$42*sTRA!D43</f>
@@ -43807,11 +43597,11 @@
       </c>
       <c r="F12">
         <f>'Consumption(EJyr)'!$D$42*sTRA!E43</f>
-        <v>2.2799731050421618E-2</v>
+        <v>2.8060205189023208E-2</v>
       </c>
       <c r="G12" s="3">
         <f>'Consumption(EJyr)'!$D$42*sTRA!F43</f>
-        <v>4.5599462100843237E-2</v>
+        <v>5.6120410378046416E-2</v>
       </c>
       <c r="H12">
         <f>'Consumption(EJyr)'!$E$42*sTRA!G43</f>
@@ -43819,7 +43609,7 @@
       </c>
       <c r="I12">
         <f>'Consumption(EJyr)'!$E$42*sTRA!H43</f>
-        <v>2.2115739118908952</v>
+        <v>2.7218399033352489</v>
       </c>
       <c r="J12">
         <f>'Consumption(EJyr)'!$E$42*sTRA!I43</f>
@@ -43827,11 +43617,11 @@
       </c>
       <c r="K12">
         <f>'Consumption(EJyr)'!$E$42*sTRA!J43</f>
-        <v>2.2799731050421618E-2</v>
+        <v>2.8060205189023208E-2</v>
       </c>
       <c r="L12" s="3">
         <f>'Consumption(EJyr)'!$E$42*sTRA!K43</f>
-        <v>4.5599462100843237E-2</v>
+        <v>5.6120410378046416E-2</v>
       </c>
     </row>
     <row r="13" spans="1:12" x14ac:dyDescent="0.55000000000000004">
@@ -44311,7 +44101,7 @@
       </c>
       <c r="D23" s="4">
         <f t="shared" ref="D23:L23" si="0">SUM(D3,D8,D13,D18)</f>
-        <v>5.3540691272396712</v>
+        <v>5.3540691272396677</v>
       </c>
       <c r="E23" s="4">
         <f t="shared" si="0"/>
@@ -44331,7 +44121,7 @@
       </c>
       <c r="I23" s="4">
         <f t="shared" si="0"/>
-        <v>5.3540691272396712</v>
+        <v>5.3540691272396677</v>
       </c>
       <c r="J23" s="4">
         <f t="shared" si="0"/>
@@ -44357,7 +44147,7 @@
       </c>
       <c r="D24">
         <f t="shared" ref="D24:G24" si="1">SUM(D4,D9,D14,D19)</f>
-        <v>4.1740209458227868</v>
+        <v>4.1740209458227797</v>
       </c>
       <c r="E24">
         <f t="shared" si="1"/>
@@ -44365,7 +44155,7 @@
       </c>
       <c r="F24">
         <f t="shared" si="1"/>
-        <v>0.2320119889698635</v>
+        <v>0.23201198896986344</v>
       </c>
       <c r="G24" s="3">
         <f t="shared" si="1"/>
@@ -44377,7 +44167,7 @@
       </c>
       <c r="I24">
         <f t="shared" ref="I24:L24" si="2">SUM(I4,I9,I14,I19)</f>
-        <v>4.1740209458227868</v>
+        <v>4.1740209458227797</v>
       </c>
       <c r="J24">
         <f t="shared" si="2"/>
@@ -44385,7 +44175,7 @@
       </c>
       <c r="K24">
         <f t="shared" si="2"/>
-        <v>0.2320119889698635</v>
+        <v>0.23201198896986344</v>
       </c>
       <c r="L24" s="3">
         <f t="shared" si="2"/>
@@ -44399,43 +44189,43 @@
       </c>
       <c r="C25" s="9">
         <f>SUM(C5,C10,C15,C20)</f>
-        <v>1.5128391385010458</v>
+        <v>1.5128409054282315</v>
       </c>
       <c r="D25">
         <f t="shared" ref="D25:G25" si="3">SUM(D5,D10,D15,D20)</f>
-        <v>4.1519292280323938</v>
+        <v>4.3385310664171666</v>
       </c>
       <c r="E25">
         <f t="shared" si="3"/>
-        <v>1.1735297340242452</v>
+        <v>1.1735819074575351</v>
       </c>
       <c r="F25">
         <f t="shared" si="3"/>
-        <v>0.24137316782809687</v>
+        <v>0.2429153612629269</v>
       </c>
       <c r="G25" s="3">
         <f t="shared" si="3"/>
-        <v>3.4259356259816278</v>
+        <v>3.430276690730834</v>
       </c>
       <c r="H25">
         <f>SUM(H5,H10,H15,H20)</f>
-        <v>1.5128391385010458</v>
+        <v>1.5128409054282315</v>
       </c>
       <c r="I25">
         <f t="shared" ref="I25:L25" si="4">SUM(I5,I10,I15,I20)</f>
-        <v>4.1519292280323938</v>
+        <v>4.3385310664171666</v>
       </c>
       <c r="J25">
         <f t="shared" si="4"/>
-        <v>1.1735297340242452</v>
+        <v>1.1735819074575351</v>
       </c>
       <c r="K25">
         <f t="shared" si="4"/>
-        <v>0.24137316782809687</v>
+        <v>0.2429153612629269</v>
       </c>
       <c r="L25" s="3">
         <f t="shared" si="4"/>
-        <v>3.4259356259816278</v>
+        <v>3.430276690730834</v>
       </c>
     </row>
     <row r="26" spans="1:12" x14ac:dyDescent="0.55000000000000004">
@@ -44445,43 +44235,43 @@
       </c>
       <c r="C26" s="9">
         <f>SUM(C6,C11,C16,C21)</f>
-        <v>1.6213724875090396</v>
+        <v>1.6213741755605326</v>
       </c>
       <c r="D26">
         <f t="shared" ref="D26:H26" si="5">SUM(D6,D11,D16,D21)</f>
-        <v>4.1082939077396672</v>
+        <v>4.4649915982097461</v>
       </c>
       <c r="E26">
         <f t="shared" si="5"/>
-        <v>1.2150787109988033</v>
+        <v>1.2151285554081672</v>
       </c>
       <c r="F26">
         <f t="shared" si="5"/>
-        <v>0.2457478994499106</v>
+        <v>0.24906069018912053</v>
       </c>
       <c r="G26" s="3">
         <f t="shared" si="5"/>
-        <v>3.5247787383369822</v>
+        <v>3.5326048995495043</v>
       </c>
       <c r="H26">
         <f t="shared" si="5"/>
-        <v>1.6213724875090396</v>
+        <v>1.6213741755605326</v>
       </c>
       <c r="I26">
         <f t="shared" ref="I26:L26" si="6">SUM(I6,I11,I16,I21)</f>
-        <v>4.1082939077396672</v>
+        <v>4.4649915982097461</v>
       </c>
       <c r="J26">
         <f t="shared" si="6"/>
-        <v>1.2150787109988033</v>
+        <v>1.2151285554081672</v>
       </c>
       <c r="K26">
         <f t="shared" si="6"/>
-        <v>0.2457478994499106</v>
+        <v>0.24906069018912053</v>
       </c>
       <c r="L26" s="3">
         <f t="shared" si="6"/>
-        <v>3.5247787383369822</v>
+        <v>3.5326048995495043</v>
       </c>
     </row>
     <row r="27" spans="1:12" x14ac:dyDescent="0.55000000000000004">
@@ -44495,7 +44285,7 @@
       </c>
       <c r="D27" s="5">
         <f t="shared" ref="D27:H27" si="7">SUM(D7,D12,D17,D22)</f>
-        <v>4.0726875490387231</v>
+        <v>4.5829535404830768</v>
       </c>
       <c r="E27" s="5">
         <f t="shared" si="7"/>
@@ -44503,11 +44293,11 @@
       </c>
       <c r="F27" s="5">
         <f t="shared" si="7"/>
-        <v>0.24959414950677511</v>
+        <v>0.2548546236453767</v>
       </c>
       <c r="G27" s="6">
         <f t="shared" si="7"/>
-        <v>3.6415874280171483</v>
+        <v>3.6521083762943514</v>
       </c>
       <c r="H27" s="5">
         <f t="shared" si="7"/>
@@ -44515,7 +44305,7 @@
       </c>
       <c r="I27" s="5">
         <f t="shared" ref="I27:L27" si="8">SUM(I7,I12,I17,I22)</f>
-        <v>4.0726875490387231</v>
+        <v>4.5829535404830768</v>
       </c>
       <c r="J27" s="5">
         <f t="shared" si="8"/>
@@ -44523,11 +44313,11 @@
       </c>
       <c r="K27" s="5">
         <f t="shared" si="8"/>
-        <v>0.24959414950677511</v>
+        <v>0.2548546236453767</v>
       </c>
       <c r="L27" s="6">
         <f t="shared" si="8"/>
-        <v>3.6415874280171483</v>
+        <v>3.6521083762943514</v>
       </c>
     </row>
   </sheetData>
@@ -46517,7 +46307,7 @@
   <dimension ref="A1:F3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="L40" sqref="L40"/>
+      <selection activeCell="E5" sqref="E5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.55000000000000004"/>
@@ -46547,7 +46337,7 @@
         <v>2010</v>
       </c>
       <c r="B2" s="1">
-        <v>2082.78711805897</v>
+        <v>519.04759999999999</v>
       </c>
       <c r="C2" s="1">
         <v>2082.78711805897</v>
@@ -46556,7 +46346,7 @@
         <v>3464.7222222222199</v>
       </c>
       <c r="E2" s="1">
-        <v>5942.4722222222199</v>
+        <v>1630.4829999999999</v>
       </c>
       <c r="F2" s="1">
         <v>5942.4722222222199</v>
@@ -46567,7 +46357,7 @@
         <v>2020</v>
       </c>
       <c r="B3" s="1">
-        <v>2255.7497350855901</v>
+        <v>519.04759999999999</v>
       </c>
       <c r="C3" s="1">
         <v>2255.7497350855901</v>
@@ -46576,7 +46366,7 @@
         <v>3255.5555555555602</v>
       </c>
       <c r="E3" s="1">
-        <v>7568.6583333333301</v>
+        <v>1630.4829999999999</v>
       </c>
       <c r="F3" s="1">
         <v>7568.6583333333301</v>
@@ -49451,7 +49241,7 @@
       </c>
       <c r="D3" s="4">
         <f>発電電力量!D3/eELE!D$12+最終エネルギー消費!D23</f>
-        <v>6.3598072392570097</v>
+        <v>6.3598072392570062</v>
       </c>
       <c r="E3" s="4">
         <f>発電電力量!E3/eELE!E$12</f>
@@ -49495,7 +49285,7 @@
       </c>
       <c r="O3" s="105">
         <f>SUM(B3:N3)</f>
-        <v>18.520508905164586</v>
+        <v>18.520508905164583</v>
       </c>
       <c r="P3" s="10">
         <f>発電電力量!O3/eELE!B$12+最終エネルギー消費!H23</f>
@@ -49507,7 +49297,7 @@
       </c>
       <c r="R3" s="4">
         <f>発電電力量!Q3/eELE!D$12+最終エネルギー消費!I23</f>
-        <v>6.3598072392570097</v>
+        <v>6.3598072392570062</v>
       </c>
       <c r="S3" s="4">
         <f>発電電力量!R3/eELE!E$12</f>
@@ -49551,7 +49341,7 @@
       </c>
       <c r="AC3" s="105">
         <f>SUM(P3:AB3)</f>
-        <v>18.520508905164586</v>
+        <v>18.520508905164583</v>
       </c>
     </row>
     <row r="4" spans="1:29" x14ac:dyDescent="0.55000000000000004">
@@ -49568,7 +49358,7 @@
       </c>
       <c r="D4">
         <f>発電電力量!D4/eELE!D$12+最終エネルギー消費!D24</f>
-        <v>4.5301466613559409</v>
+        <v>4.5301466613559338</v>
       </c>
       <c r="E4">
         <f>発電電力量!E4/eELE!E$12</f>
@@ -49612,7 +49402,7 @@
       </c>
       <c r="O4" s="3">
         <f>SUM(B4:N4)</f>
-        <v>14.421519005374396</v>
+        <v>14.421519005374389</v>
       </c>
       <c r="P4" s="9">
         <f>発電電力量!O4/eELE!B$12+最終エネルギー消費!H24</f>
@@ -49624,7 +49414,7 @@
       </c>
       <c r="R4">
         <f>発電電力量!Q4/eELE!D$12+最終エネルギー消費!I24</f>
-        <v>4.5301466613559409</v>
+        <v>4.5301466613559338</v>
       </c>
       <c r="S4">
         <f>発電電力量!R4/eELE!E$12</f>
@@ -49668,7 +49458,7 @@
       </c>
       <c r="AC4" s="3">
         <f>SUM(P4:AB4)</f>
-        <v>14.421519005374396</v>
+        <v>14.421519005374389</v>
       </c>
     </row>
     <row r="5" spans="1:29" x14ac:dyDescent="0.55000000000000004">
@@ -49677,7 +49467,7 @@
       </c>
       <c r="B5">
         <f>発電電力量!B5/eELE!B$12+最終エネルギー消費!C25</f>
-        <v>4.427531902299668</v>
+        <v>4.4312269289354527</v>
       </c>
       <c r="C5">
         <f>発電電力量!C5/eELE!C$12</f>
@@ -49685,7 +49475,7 @@
       </c>
       <c r="D5">
         <f>発電電力量!D5/eELE!D$12+最終エネルギー消費!D25</f>
-        <v>4.5163402958265069</v>
+        <v>4.7034038860400722</v>
       </c>
       <c r="E5">
         <f>発電電力量!E5/eELE!E$12</f>
@@ -49693,7 +49483,7 @@
       </c>
       <c r="F5">
         <f>発電電力量!F5/eELE!F$12+最終エネルギー消費!E25</f>
-        <v>4.1070552244246308</v>
+        <v>4.1108245208536642</v>
       </c>
       <c r="G5">
         <f>発電電力量!G5/eELE!G$12</f>
@@ -49701,11 +49491,11 @@
       </c>
       <c r="H5">
         <f>発電電力量!H5/eELE!H$12</f>
-        <v>0.45657286424153237</v>
+        <v>0.45715139594287896</v>
       </c>
       <c r="I5">
         <f>発電電力量!I5/eELE!I$12+最終エネルギー消費!F25</f>
-        <v>0.65437348771489623</v>
+        <v>0.65643900129517063</v>
       </c>
       <c r="J5">
         <f>発電電力量!J5/eELE!J$12</f>
@@ -49713,27 +49503,27 @@
       </c>
       <c r="K5">
         <f>発電電力量!K5/eELE!K$12</f>
-        <v>0.30468860107625589</v>
+        <v>0.30507467749158201</v>
       </c>
       <c r="L5">
         <f>発電電力量!L5/eELE!L$12</f>
-        <v>7.6935747852023437E-2</v>
+        <v>7.7033234524108388E-2</v>
       </c>
       <c r="M5">
         <f>発電電力量!M5/eELE!M$12</f>
-        <v>3.5821009062033608E-2</v>
+        <v>3.5866398507924217E-2</v>
       </c>
       <c r="N5">
         <f>発電電力量!N5/eELE!N$12</f>
-        <v>0.3054085880213952</v>
+        <v>0.30579557674514996</v>
       </c>
       <c r="O5" s="3">
         <f t="shared" ref="O5:O7" si="0">SUM(B5:N5)</f>
-        <v>14.884727720518942</v>
+        <v>15.082815620336001</v>
       </c>
       <c r="P5" s="9">
         <f>発電電力量!O5/eELE!B$12+最終エネルギー消費!H25</f>
-        <v>4.427531902299668</v>
+        <v>4.4312269289354527</v>
       </c>
       <c r="Q5">
         <f>発電電力量!P5/eELE!C$12</f>
@@ -49741,7 +49531,7 @@
       </c>
       <c r="R5">
         <f>発電電力量!Q5/eELE!D$12+最終エネルギー消費!I25</f>
-        <v>4.5163402958265069</v>
+        <v>4.7034038860400722</v>
       </c>
       <c r="S5">
         <f>発電電力量!R5/eELE!E$12</f>
@@ -49749,7 +49539,7 @@
       </c>
       <c r="T5">
         <f>発電電力量!S5/eELE!F$12+最終エネルギー消費!J25</f>
-        <v>4.1070552244246308</v>
+        <v>4.1108245208536642</v>
       </c>
       <c r="U5">
         <f>発電電力量!T5/eELE!G$12</f>
@@ -49757,11 +49547,11 @@
       </c>
       <c r="V5">
         <f>発電電力量!U5/eELE!H$12</f>
-        <v>0.45657286424153237</v>
+        <v>0.45715139594287896</v>
       </c>
       <c r="W5">
         <f>発電電力量!V5/eELE!I$12+最終エネルギー消費!K25</f>
-        <v>0.65437348771489623</v>
+        <v>0.65643900129517063</v>
       </c>
       <c r="X5">
         <f>発電電力量!W5/eELE!J$12</f>
@@ -49769,23 +49559,23 @@
       </c>
       <c r="Y5">
         <f>発電電力量!X5/eELE!K$12</f>
-        <v>0.30468860107625589</v>
+        <v>0.30507467749158201</v>
       </c>
       <c r="Z5">
         <f>発電電力量!Y5/eELE!L$12</f>
-        <v>7.6935747852023437E-2</v>
+        <v>7.7033234524108388E-2</v>
       </c>
       <c r="AA5">
         <f>発電電力量!Z5/eELE!M$12</f>
-        <v>3.5821009062033608E-2</v>
+        <v>3.5866398507924217E-2</v>
       </c>
       <c r="AB5">
         <f>発電電力量!AA5/eELE!N$12</f>
-        <v>0.3054085880213952</v>
+        <v>0.30579557674514996</v>
       </c>
       <c r="AC5" s="3">
         <f t="shared" ref="AC5:AC7" si="1">SUM(P5:AB5)</f>
-        <v>14.884727720518942</v>
+        <v>15.082815620336001</v>
       </c>
     </row>
     <row r="6" spans="1:29" x14ac:dyDescent="0.55000000000000004">
@@ -49794,7 +49584,7 @@
       </c>
       <c r="B6">
         <f>発電電力量!B6/eELE!B$12+最終エネルギー消費!C26</f>
-        <v>4.6091888116920785</v>
+        <v>4.6158244288387893</v>
       </c>
       <c r="C6">
         <f>発電電力量!C6/eELE!C$12</f>
@@ -49802,7 +49592,7 @@
       </c>
       <c r="D6">
         <f>発電電力量!D6/eELE!D$12+最終エネルギー消費!D26</f>
-        <v>4.4747163318466594</v>
+        <v>4.8322275998987161</v>
       </c>
       <c r="E6">
         <f>発電電力量!E6/eELE!E$12</f>
@@ -49810,7 +49600,7 @@
       </c>
       <c r="F6">
         <f>発電電力量!F6/eELE!F$12+最終エネルギー消費!E26</f>
-        <v>4.238436582618359</v>
+        <v>4.2451992699784284</v>
       </c>
       <c r="G6">
         <f>発電電力量!G6/eELE!G$12</f>
@@ -49818,11 +49608,11 @@
       </c>
       <c r="H6">
         <f>発電電力量!H6/eELE!H$12</f>
-        <v>0.4734861556008691</v>
+        <v>0.47453744967085604</v>
       </c>
       <c r="I6">
         <f>発電電力量!I6/eELE!I$12+最終エネルギー消費!F26</f>
-        <v>0.68190588449006961</v>
+        <v>0.68618708855631394</v>
       </c>
       <c r="J6">
         <f>発電電力量!J6/eELE!J$12</f>
@@ -49830,27 +49620,27 @@
       </c>
       <c r="K6">
         <f>発電電力量!K6/eELE!K$12</f>
-        <v>0.31422445153267853</v>
+        <v>0.31492213254960705</v>
       </c>
       <c r="L6">
         <f>発電電力量!L6/eELE!L$12</f>
-        <v>3.9577726766124283E-2</v>
+        <v>3.9665602259336935E-2</v>
       </c>
       <c r="M6">
         <f>発電電力量!M6/eELE!M$12</f>
-        <v>3.8112848217483557E-2</v>
+        <v>3.8197471201381589E-2</v>
       </c>
       <c r="N6">
         <f>発電電力量!N6/eELE!N$12</f>
-        <v>0.31459483132861826</v>
+        <v>0.31529333470978815</v>
       </c>
       <c r="O6" s="3">
         <f t="shared" si="0"/>
-        <v>15.184243624092939</v>
+        <v>15.56205437766322</v>
       </c>
       <c r="P6" s="9">
         <f>発電電力量!O6/eELE!B$12+最終エネルギー消費!H26</f>
-        <v>4.6091888116920785</v>
+        <v>4.6158244288387893</v>
       </c>
       <c r="Q6">
         <f>発電電力量!P6/eELE!C$12</f>
@@ -49858,7 +49648,7 @@
       </c>
       <c r="R6">
         <f>発電電力量!Q6/eELE!D$12+最終エネルギー消費!I26</f>
-        <v>4.4747163318466594</v>
+        <v>4.8322275998987161</v>
       </c>
       <c r="S6">
         <f>発電電力量!R6/eELE!E$12</f>
@@ -49866,7 +49656,7 @@
       </c>
       <c r="T6">
         <f>発電電力量!S6/eELE!F$12+最終エネルギー消費!J26</f>
-        <v>4.238436582618359</v>
+        <v>4.2451992699784284</v>
       </c>
       <c r="U6">
         <f>発電電力量!T6/eELE!G$12</f>
@@ -49874,11 +49664,11 @@
       </c>
       <c r="V6">
         <f>発電電力量!U6/eELE!H$12</f>
-        <v>0.4734861556008691</v>
+        <v>0.47453744967085604</v>
       </c>
       <c r="W6">
         <f>発電電力量!V6/eELE!I$12+最終エネルギー消費!K26</f>
-        <v>0.68190588449006961</v>
+        <v>0.68618708855631394</v>
       </c>
       <c r="X6">
         <f>発電電力量!W6/eELE!J$12</f>
@@ -49886,23 +49676,23 @@
       </c>
       <c r="Y6">
         <f>発電電力量!X6/eELE!K$12</f>
-        <v>0.31422445153267853</v>
+        <v>0.31492213254960705</v>
       </c>
       <c r="Z6">
         <f>発電電力量!Y6/eELE!L$12</f>
-        <v>3.9577726766124283E-2</v>
+        <v>3.9665602259336935E-2</v>
       </c>
       <c r="AA6">
         <f>発電電力量!Z6/eELE!M$12</f>
-        <v>3.8112848217483557E-2</v>
+        <v>3.8197471201381589E-2</v>
       </c>
       <c r="AB6">
         <f>発電電力量!AA6/eELE!N$12</f>
-        <v>0.31459483132861826</v>
+        <v>0.31529333470978815</v>
       </c>
       <c r="AC6" s="3">
         <f t="shared" si="1"/>
-        <v>15.184243624092939</v>
+        <v>15.56205437766322</v>
       </c>
     </row>
     <row r="7" spans="1:29" x14ac:dyDescent="0.55000000000000004">
@@ -49911,7 +49701,7 @@
       </c>
       <c r="B7" s="5">
         <f>発電電力量!B7/eELE!B$12+最終エネルギー消費!C27</f>
-        <v>4.805558553177983</v>
+        <v>4.8144440050376272</v>
       </c>
       <c r="C7" s="5">
         <f>発電電力量!C7/eELE!C$12</f>
@@ -49919,7 +49709,7 @@
       </c>
       <c r="D7" s="5">
         <f>発電電力量!D7/eELE!D$12+最終エネルギー消費!D27</f>
-        <v>4.4424687694952762</v>
+        <v>4.9538030997262732</v>
       </c>
       <c r="E7" s="5">
         <f>発電電力量!E7/eELE!E$12</f>
@@ -49927,7 +49717,7 @@
       </c>
       <c r="F7" s="5">
         <f>発電電力量!F7/eELE!F$12+最終エネルギー消費!E27</f>
-        <v>4.3920663592286848</v>
+        <v>4.4011061489618228</v>
       </c>
       <c r="G7" s="5">
         <f>発電電力量!G7/eELE!G$12</f>
@@ -49935,11 +49725,11 @@
       </c>
       <c r="H7" s="5">
         <f>発電電力量!H7/eELE!H$12</f>
-        <v>0.49304162727540435</v>
+        <v>0.49446607899092915</v>
       </c>
       <c r="I7" s="5">
         <f>発電電力量!I7/eELE!I$12+最終エネルギー消費!F27</f>
-        <v>0.71182067507746649</v>
+        <v>0.71841657269937254</v>
       </c>
       <c r="J7" s="5">
         <f>発電電力量!J7/eELE!J$12</f>
@@ -49947,7 +49737,7 @@
       </c>
       <c r="K7" s="5">
         <f>発電電力量!K7/eELE!K$12</f>
-        <v>0.32540747400176678</v>
+        <v>0.32634761213401314</v>
       </c>
       <c r="L7" s="5">
         <f>発電電力量!L7/eELE!L$12</f>
@@ -49955,19 +49745,19 @@
       </c>
       <c r="M7" s="5">
         <f>発電電力量!M7/eELE!M$12</f>
-        <v>4.0675934250220827E-2</v>
+        <v>4.0793451516751629E-2</v>
       </c>
       <c r="N7" s="5">
         <f>発電電力量!N7/eELE!N$12</f>
-        <v>0.32540747400176678</v>
+        <v>0.32634761213401314</v>
       </c>
       <c r="O7" s="6">
         <f t="shared" si="0"/>
-        <v>15.53644686650857</v>
+        <v>16.075724581200802</v>
       </c>
       <c r="P7" s="8">
         <f>発電電力量!O7/eELE!B$12+最終エネルギー消費!H27</f>
-        <v>4.805558553177983</v>
+        <v>4.8144440050376272</v>
       </c>
       <c r="Q7" s="5">
         <f>発電電力量!P7/eELE!C$12</f>
@@ -49975,7 +49765,7 @@
       </c>
       <c r="R7" s="5">
         <f>発電電力量!Q7/eELE!D$12+最終エネルギー消費!I27</f>
-        <v>4.4424687694952762</v>
+        <v>4.9538030997262732</v>
       </c>
       <c r="S7" s="5">
         <f>発電電力量!R7/eELE!E$12</f>
@@ -49983,7 +49773,7 @@
       </c>
       <c r="T7" s="5">
         <f>発電電力量!S7/eELE!F$12+最終エネルギー消費!J27</f>
-        <v>4.3920663592286848</v>
+        <v>4.4011061489618228</v>
       </c>
       <c r="U7" s="5">
         <f>発電電力量!T7/eELE!G$12</f>
@@ -49991,11 +49781,11 @@
       </c>
       <c r="V7" s="5">
         <f>発電電力量!U7/eELE!H$12</f>
-        <v>0.49304162727540435</v>
+        <v>0.49446607899092915</v>
       </c>
       <c r="W7" s="5">
         <f>発電電力量!V7/eELE!I$12+最終エネルギー消費!K27</f>
-        <v>0.71182067507746649</v>
+        <v>0.71841657269937254</v>
       </c>
       <c r="X7" s="5">
         <f>発電電力量!W7/eELE!J$12</f>
@@ -50003,7 +49793,7 @@
       </c>
       <c r="Y7" s="5">
         <f>発電電力量!X7/eELE!K$12</f>
-        <v>0.32540747400176678</v>
+        <v>0.32634761213401314</v>
       </c>
       <c r="Z7" s="5">
         <f>発電電力量!Y7/eELE!L$12</f>
@@ -50011,15 +49801,15 @@
       </c>
       <c r="AA7" s="5">
         <f>発電電力量!Z7/eELE!M$12</f>
-        <v>4.0675934250220827E-2</v>
+        <v>4.0793451516751629E-2</v>
       </c>
       <c r="AB7" s="5">
         <f>発電電力量!AA7/eELE!N$12</f>
-        <v>0.32540747400176678</v>
+        <v>0.32634761213401314</v>
       </c>
       <c r="AC7" s="6">
         <f t="shared" si="1"/>
-        <v>15.53644686650857</v>
+        <v>16.075724581200802</v>
       </c>
     </row>
   </sheetData>
@@ -50387,7 +50177,7 @@
       </c>
       <c r="B5">
         <f>sELE!B23*最終エネルギー消費!$G25/LOSS!$B$12</f>
-        <v>1.1950240331574349</v>
+        <v>1.1965382696379605</v>
       </c>
       <c r="C5">
         <f>sELE!C23*最終エネルギー消費!$G25/LOSS!$B$12</f>
@@ -50395,7 +50185,7 @@
       </c>
       <c r="D5">
         <f>sELE!D23*最終エネルギー消費!$G25/LOSS!$B$12</f>
-        <v>0.1202556523720574</v>
+        <v>0.12040803047555884</v>
       </c>
       <c r="E5">
         <f>sELE!E23*最終エネルギー消費!$G25/LOSS!$B$12</f>
@@ -50403,7 +50193,7 @@
       </c>
       <c r="F5">
         <f>sELE!F23*最終エネルギー消費!$G25/LOSS!$B$12</f>
-        <v>1.5254332550082004</v>
+        <v>1.5273661589659873</v>
       </c>
       <c r="G5">
         <f>sELE!G23*最終エネルギー消費!$G25/LOSS!$B$12</f>
@@ -50411,11 +50201,11 @@
       </c>
       <c r="H5">
         <f>sELE!H23*最終エネルギー消費!$G25/LOSS!$B$12</f>
-        <v>0.1506690451997057</v>
+        <v>0.15085996066115007</v>
       </c>
       <c r="I5">
         <f>sELE!I23*最終エネルギー消費!$G25/LOSS!$B$12</f>
-        <v>0.18172014075019172</v>
+        <v>0.18195040161418721</v>
       </c>
       <c r="J5">
         <f>sELE!J23*最終エネルギー消費!$G25/LOSS!$B$12</f>
@@ -50423,23 +50213,23 @@
       </c>
       <c r="K5">
         <f>sELE!K23*最終エネルギー消費!$G25/LOSS!$B$12</f>
-        <v>0.30468860107625589</v>
+        <v>0.30507467749158201</v>
       </c>
       <c r="L5">
         <f>sELE!L23*最終エネルギー消費!$G25/LOSS!$B$12</f>
-        <v>7.693574785202344E-3</v>
+        <v>7.7033234524108395E-3</v>
       </c>
       <c r="M5">
         <f>sELE!M23*最終エネルギー消費!$G25/LOSS!$B$12</f>
-        <v>3.5821009062033608E-2</v>
+        <v>3.5866398507924217E-2</v>
       </c>
       <c r="N5" s="3">
         <f>sELE!N23*最終エネルギー消費!$G25/LOSS!$B$12</f>
-        <v>0.3054085880213952</v>
+        <v>0.30579557674514996</v>
       </c>
       <c r="O5">
         <f>sELE!O23*最終エネルギー消費!$L25/LOSS!$B$12</f>
-        <v>1.1950240331574349</v>
+        <v>1.1965382696379605</v>
       </c>
       <c r="P5">
         <f>sELE!P23*最終エネルギー消費!$L25/LOSS!$B$12</f>
@@ -50447,7 +50237,7 @@
       </c>
       <c r="Q5">
         <f>sELE!Q23*最終エネルギー消費!$L25/LOSS!$B$12</f>
-        <v>0.1202556523720574</v>
+        <v>0.12040803047555884</v>
       </c>
       <c r="R5">
         <f>sELE!R23*最終エネルギー消費!$L25/LOSS!$B$12</f>
@@ -50455,7 +50245,7 @@
       </c>
       <c r="S5">
         <f>sELE!S23*最終エネルギー消費!$L25/LOSS!$B$12</f>
-        <v>1.5254332550082004</v>
+        <v>1.5273661589659873</v>
       </c>
       <c r="T5">
         <f>sELE!T23*最終エネルギー消費!$L25/LOSS!$B$12</f>
@@ -50463,11 +50253,11 @@
       </c>
       <c r="U5">
         <f>sELE!U23*最終エネルギー消費!$L25/LOSS!$B$12</f>
-        <v>0.1506690451997057</v>
+        <v>0.15085996066115007</v>
       </c>
       <c r="V5">
         <f>sELE!V23*最終エネルギー消費!$L25/LOSS!$B$12</f>
-        <v>0.18172014075019172</v>
+        <v>0.18195040161418721</v>
       </c>
       <c r="W5">
         <f>sELE!W23*最終エネルギー消費!$L25/LOSS!$B$12</f>
@@ -50475,19 +50265,19 @@
       </c>
       <c r="X5">
         <f>sELE!X23*最終エネルギー消費!$L25/LOSS!$B$12</f>
-        <v>0.30468860107625589</v>
+        <v>0.30507467749158201</v>
       </c>
       <c r="Y5">
         <f>sELE!Y23*最終エネルギー消費!$L25/LOSS!$B$12</f>
-        <v>7.693574785202344E-3</v>
+        <v>7.7033234524108395E-3</v>
       </c>
       <c r="Z5">
         <f>sELE!Z23*最終エネルギー消費!$L25/LOSS!$B$12</f>
-        <v>3.5821009062033608E-2</v>
+        <v>3.5866398507924217E-2</v>
       </c>
       <c r="AA5" s="3">
         <f>sELE!AA23*最終エネルギー消費!$L25/LOSS!$B$12</f>
-        <v>0.3054085880213952</v>
+        <v>0.30579557674514996</v>
       </c>
     </row>
     <row r="6" spans="1:27" x14ac:dyDescent="0.55000000000000004">
@@ -50496,7 +50286,7 @@
       </c>
       <c r="B6">
         <f>sELE!B33*最終エネルギー消費!$G26/LOSS!$B$12</f>
-        <v>1.2250046929150458</v>
+        <v>1.2277246038440852</v>
       </c>
       <c r="C6">
         <f>sELE!C33*最終エネルギー消費!$G26/LOSS!$B$12</f>
@@ -50504,7 +50294,7 @@
       </c>
       <c r="D6">
         <f>sELE!D33*最終エネルギー消費!$G26/LOSS!$B$12</f>
-        <v>0.1209193999553074</v>
+        <v>0.1211878805573602</v>
       </c>
       <c r="E6">
         <f>sELE!E33*最終エネルギー消費!$G26/LOSS!$B$12</f>
@@ -50512,7 +50302,7 @@
       </c>
       <c r="F6">
         <f>sELE!F33*最終エネルギー消費!$G26/LOSS!$B$12</f>
-        <v>1.5721460932421689</v>
+        <v>1.575636771576536</v>
       </c>
       <c r="G6">
         <f>sELE!G33*最終エネルギー消費!$G26/LOSS!$B$12</f>
@@ -50520,11 +50310,11 @@
       </c>
       <c r="H6">
         <f>sELE!H33*最終エネルギー消費!$G26/LOSS!$B$12</f>
-        <v>0.15625043134828681</v>
+        <v>0.1565973583913825</v>
       </c>
       <c r="I6">
         <f>sELE!I33*最終エネルギー消費!$G26/LOSS!$B$12</f>
-        <v>0.19190951341766999</v>
+        <v>0.19233561528156512</v>
       </c>
       <c r="J6">
         <f>sELE!J33*最終エネルギー消費!$G26/LOSS!$B$12</f>
@@ -50532,23 +50322,23 @@
       </c>
       <c r="K6">
         <f>sELE!K33*最終エネルギー消費!$G26/LOSS!$B$12</f>
-        <v>0.31422445153267853</v>
+        <v>0.31492213254960705</v>
       </c>
       <c r="L6">
         <f>sELE!L33*最終エネルギー消費!$G26/LOSS!$B$12</f>
-        <v>3.9577726766124284E-3</v>
+        <v>3.9665602259336937E-3</v>
       </c>
       <c r="M6">
         <f>sELE!M33*最終エネルギー消費!$G26/LOSS!$B$12</f>
-        <v>3.8112848217483557E-2</v>
+        <v>3.8197471201381589E-2</v>
       </c>
       <c r="N6" s="3">
         <f>sELE!N33*最終エネルギー消費!$G26/LOSS!$B$12</f>
-        <v>0.31459483132861826</v>
+        <v>0.31529333470978815</v>
       </c>
       <c r="O6">
         <f>sELE!O33*最終エネルギー消費!$L26/LOSS!$B$12</f>
-        <v>1.2250046929150458</v>
+        <v>1.2277246038440852</v>
       </c>
       <c r="P6">
         <f>sELE!P33*最終エネルギー消費!$L26/LOSS!$B$12</f>
@@ -50556,7 +50346,7 @@
       </c>
       <c r="Q6">
         <f>sELE!Q33*最終エネルギー消費!$L26/LOSS!$B$12</f>
-        <v>0.1209193999553074</v>
+        <v>0.1211878805573602</v>
       </c>
       <c r="R6">
         <f>sELE!R33*最終エネルギー消費!$L26/LOSS!$B$12</f>
@@ -50564,7 +50354,7 @@
       </c>
       <c r="S6">
         <f>sELE!S33*最終エネルギー消費!$L26/LOSS!$B$12</f>
-        <v>1.5721460932421689</v>
+        <v>1.575636771576536</v>
       </c>
       <c r="T6">
         <f>sELE!T33*最終エネルギー消費!$L26/LOSS!$B$12</f>
@@ -50572,11 +50362,11 @@
       </c>
       <c r="U6">
         <f>sELE!U33*最終エネルギー消費!$L26/LOSS!$B$12</f>
-        <v>0.15625043134828681</v>
+        <v>0.1565973583913825</v>
       </c>
       <c r="V6">
         <f>sELE!V33*最終エネルギー消費!$L26/LOSS!$B$12</f>
-        <v>0.19190951341766999</v>
+        <v>0.19233561528156512</v>
       </c>
       <c r="W6">
         <f>sELE!W33*最終エネルギー消費!$L26/LOSS!$B$12</f>
@@ -50584,19 +50374,19 @@
       </c>
       <c r="X6">
         <f>sELE!X33*最終エネルギー消費!$L26/LOSS!$B$12</f>
-        <v>0.31422445153267853</v>
+        <v>0.31492213254960705</v>
       </c>
       <c r="Y6">
         <f>sELE!Y33*最終エネルギー消費!$L26/LOSS!$B$12</f>
-        <v>3.9577726766124284E-3</v>
+        <v>3.9665602259336937E-3</v>
       </c>
       <c r="Z6">
         <f>sELE!Z33*最終エネルギー消費!$L26/LOSS!$B$12</f>
-        <v>3.8112848217483557E-2</v>
+        <v>3.8197471201381589E-2</v>
       </c>
       <c r="AA6" s="3">
         <f>sELE!AA33*最終エネルギー消費!$L26/LOSS!$B$12</f>
-        <v>0.31459483132861826</v>
+        <v>0.31529333470978815</v>
       </c>
     </row>
     <row r="7" spans="1:27" x14ac:dyDescent="0.55000000000000004">
@@ -50605,7 +50395,7 @@
       </c>
       <c r="B7" s="5">
         <f>sELE!B43*最終エネルギー消費!$G27/LOSS!$B$12</f>
-        <v>1.2609539617568468</v>
+        <v>1.2645969970193012</v>
       </c>
       <c r="C7" s="5">
         <f>sELE!C43*最終エネルギー消費!$G27/LOSS!$B$12</f>
@@ -50613,7 +50403,7 @@
       </c>
       <c r="D7" s="5">
         <f>sELE!D43*最終エネルギー消費!$G27/LOSS!$B$12</f>
-        <v>0.12202780275066254</v>
+        <v>0.12238035455025495</v>
       </c>
       <c r="E7" s="5">
         <f>sELE!E43*最終エネルギー消費!$G27/LOSS!$B$12</f>
@@ -50621,7 +50411,7 @@
       </c>
       <c r="F7" s="5">
         <f>sELE!F43*最終エネルギー消費!$G27/LOSS!$B$12</f>
-        <v>1.6270373700088341</v>
+        <v>1.631738060670066</v>
       </c>
       <c r="G7" s="5">
         <f>sELE!G43*最終エネルギー消費!$G27/LOSS!$B$12</f>
@@ -50629,11 +50419,11 @@
       </c>
       <c r="H7" s="5">
         <f>sELE!H43*最終エネルギー消費!$G27/LOSS!$B$12</f>
-        <v>0.16270373700088345</v>
+        <v>0.16317380606700663</v>
       </c>
       <c r="I7" s="5">
         <f>sELE!I43*最終エネルギー消費!$G27/LOSS!$B$12</f>
-        <v>0.2033796712511042</v>
+        <v>0.20396725758375819</v>
       </c>
       <c r="J7" s="5">
         <f>sELE!J43*最終エネルギー消費!$G27/LOSS!$B$12</f>
@@ -50641,7 +50431,7 @@
       </c>
       <c r="K7" s="5">
         <f>sELE!K43*最終エネルギー消費!$G27/LOSS!$B$12</f>
-        <v>0.32540747400176678</v>
+        <v>0.32634761213401314</v>
       </c>
       <c r="L7" s="5">
         <f>sELE!L43*最終エネルギー消費!$G27/LOSS!$B$12</f>
@@ -50649,15 +50439,15 @@
       </c>
       <c r="M7" s="5">
         <f>sELE!M43*最終エネルギー消費!$G27/LOSS!$B$12</f>
-        <v>4.0675934250220827E-2</v>
+        <v>4.0793451516751629E-2</v>
       </c>
       <c r="N7" s="6">
         <f>sELE!N43*最終エネルギー消費!$G27/LOSS!$B$12</f>
-        <v>0.32540747400176678</v>
+        <v>0.32634761213401314</v>
       </c>
       <c r="O7" s="5">
         <f>sELE!O43*最終エネルギー消費!$L27/LOSS!$B$12</f>
-        <v>1.2609539617568468</v>
+        <v>1.2645969970193012</v>
       </c>
       <c r="P7" s="5">
         <f>sELE!P43*最終エネルギー消費!$L27/LOSS!$B$12</f>
@@ -50665,7 +50455,7 @@
       </c>
       <c r="Q7" s="5">
         <f>sELE!Q43*最終エネルギー消費!$L27/LOSS!$B$12</f>
-        <v>0.12202780275066254</v>
+        <v>0.12238035455025495</v>
       </c>
       <c r="R7" s="5">
         <f>sELE!R43*最終エネルギー消費!$L27/LOSS!$B$12</f>
@@ -50673,7 +50463,7 @@
       </c>
       <c r="S7" s="5">
         <f>sELE!S43*最終エネルギー消費!$L27/LOSS!$B$12</f>
-        <v>1.6270373700088341</v>
+        <v>1.631738060670066</v>
       </c>
       <c r="T7" s="5">
         <f>sELE!T43*最終エネルギー消費!$L27/LOSS!$B$12</f>
@@ -50681,11 +50471,11 @@
       </c>
       <c r="U7" s="5">
         <f>sELE!U43*最終エネルギー消費!$L27/LOSS!$B$12</f>
-        <v>0.16270373700088345</v>
+        <v>0.16317380606700663</v>
       </c>
       <c r="V7" s="5">
         <f>sELE!V43*最終エネルギー消費!$L27/LOSS!$B$12</f>
-        <v>0.2033796712511042</v>
+        <v>0.20396725758375819</v>
       </c>
       <c r="W7" s="5">
         <f>sELE!W43*最終エネルギー消費!$L27/LOSS!$B$12</f>
@@ -50693,7 +50483,7 @@
       </c>
       <c r="X7" s="5">
         <f>sELE!X43*最終エネルギー消費!$L27/LOSS!$B$12</f>
-        <v>0.32540747400176678</v>
+        <v>0.32634761213401314</v>
       </c>
       <c r="Y7" s="5">
         <f>sELE!Y43*最終エネルギー消費!$L27/LOSS!$B$12</f>
@@ -50701,11 +50491,11 @@
       </c>
       <c r="Z7" s="5">
         <f>sELE!Z43*最終エネルギー消費!$L27/LOSS!$B$12</f>
-        <v>4.0675934250220827E-2</v>
+        <v>4.0793451516751629E-2</v>
       </c>
       <c r="AA7" s="6">
         <f>sELE!AA43*最終エネルギー消費!$L27/LOSS!$B$12</f>
-        <v>0.32540747400176678</v>
+        <v>0.32634761213401314</v>
       </c>
     </row>
   </sheetData>
@@ -50797,11 +50587,11 @@
       </c>
       <c r="E3" s="33">
         <f>部門別CO2排出量!P12</f>
-        <v>171.17582078035531</v>
+        <v>210.67040851814829</v>
       </c>
       <c r="F3" s="33">
         <f>部門別CO2排出量!AD12</f>
-        <v>171.17582078035531</v>
+        <v>210.67040851814829</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.55000000000000004">
@@ -50869,11 +50659,11 @@
       </c>
       <c r="E6" s="29">
         <f>部門別CO2排出量!P27</f>
-        <v>495.09542778752109</v>
+        <v>496.52581315955877</v>
       </c>
       <c r="F6" s="29">
         <f>部門別CO2排出量!AD27</f>
-        <v>495.09542778752109</v>
+        <v>496.52581315955877</v>
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.55000000000000004">
@@ -50964,11 +50754,11 @@
       </c>
       <c r="E10" s="29">
         <f>SUM(E2:E9)</f>
-        <v>1048.6084006423907</v>
+        <v>1089.5333737522215</v>
       </c>
       <c r="F10" s="29">
         <f>SUM(F2:F9)</f>
-        <v>1048.6084006423907</v>
+        <v>1089.5333737522215</v>
       </c>
     </row>
   </sheetData>
@@ -50985,8 +50775,8 @@
   </sheetPr>
   <dimension ref="A1:AZ61"/>
   <sheetViews>
-    <sheetView zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="A7" sqref="A7"/>
+    <sheetView topLeftCell="E1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="J27" sqref="J27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.55000000000000004"/>
@@ -51231,7 +51021,7 @@
       </c>
       <c r="D3">
         <f>一次エネルギー供給!D3</f>
-        <v>6.3598072392570097</v>
+        <v>6.3598072392570062</v>
       </c>
       <c r="E3">
         <f>一次エネルギー供給!E3</f>
@@ -51331,7 +51121,7 @@
       </c>
       <c r="AC3">
         <f>最終エネルギー消費!D23</f>
-        <v>5.3540691272396712</v>
+        <v>5.3540691272396677</v>
       </c>
       <c r="AD3">
         <f>最終エネルギー消費!E23</f>
@@ -51367,23 +51157,23 @@
       </c>
       <c r="AL3">
         <f>最終エネルギー消費!C8</f>
-        <v>4.1999987243639068E-5</v>
+        <v>4.1999987243639028E-5</v>
       </c>
       <c r="AM3">
         <f>最終エネルギー消費!D8</f>
-        <v>3.2142520237578216</v>
+        <v>3.2142520237578185</v>
       </c>
       <c r="AN3">
         <f>最終エネルギー消費!E8</f>
-        <v>4.2009987240601791E-3</v>
+        <v>4.2009987240601756E-3</v>
       </c>
       <c r="AO3">
         <f>最終エネルギー消費!F8</f>
-        <v>8.299997479100079E-3</v>
+        <v>8.299997479100072E-3</v>
       </c>
       <c r="AP3">
         <f>最終エネルギー消費!G8</f>
-        <v>6.5678980051785088E-2</v>
+        <v>6.5678980051785033E-2</v>
       </c>
       <c r="AQ3">
         <f>最終エネルギー消費!C13</f>
@@ -51440,7 +51230,7 @@
       </c>
       <c r="D4">
         <f>一次エネルギー供給!D4</f>
-        <v>4.5301466613559409</v>
+        <v>4.5301466613559338</v>
       </c>
       <c r="E4">
         <f>一次エネルギー供給!E4</f>
@@ -51540,7 +51330,7 @@
       </c>
       <c r="AC4">
         <f>最終エネルギー消費!D24</f>
-        <v>4.1740209458227868</v>
+        <v>4.1740209458227797</v>
       </c>
       <c r="AD4">
         <f>最終エネルギー消費!E24</f>
@@ -51548,7 +51338,7 @@
       </c>
       <c r="AE4">
         <f>最終エネルギー消費!F24</f>
-        <v>0.2320119889698635</v>
+        <v>0.23201198896986344</v>
       </c>
       <c r="AF4">
         <f>最終エネルギー消費!G24</f>
@@ -51576,23 +51366,23 @@
       </c>
       <c r="AL4">
         <f>最終エネルギー消費!C9</f>
-        <v>3.6000013765472331E-5</v>
+        <v>3.6000013765472229E-5</v>
       </c>
       <c r="AM4">
         <f>最終エネルギー消費!D9</f>
-        <v>2.5335019687455023</v>
+        <v>2.5335019687454952</v>
       </c>
       <c r="AN4">
         <f>最終エネルギー消費!E9</f>
-        <v>1.0630004064638109E-3</v>
+        <v>1.0630004064638078E-3</v>
       </c>
       <c r="AO4">
         <f>最終エネルギー消費!F9</f>
-        <v>1.8345007014655294E-2</v>
+        <v>1.8345007014655246E-2</v>
       </c>
       <c r="AP4">
         <f>最終エネルギー消費!G9</f>
-        <v>6.2294023819620542E-2</v>
+        <v>6.2294023819620369E-2</v>
       </c>
       <c r="AQ4">
         <f>最終エネルギー消費!C14</f>
@@ -51642,97 +51432,97 @@
 （2050年）</v>
       </c>
       <c r="B5">
-        <v>4.805558553177983</v>
+        <v>4.8144440050376272</v>
       </c>
       <c r="C5">
         <v>0</v>
       </c>
       <c r="D5">
-        <v>4.4424687694952762</v>
+        <v>4.9538030997262732</v>
       </c>
       <c r="E5">
         <v>0</v>
       </c>
       <c r="F5">
-        <v>4.3920663592286848</v>
+        <v>4.4011061489618228</v>
       </c>
       <c r="G5">
         <v>0</v>
       </c>
       <c r="H5">
-        <v>0.49304162727540435</v>
+        <v>0.49446607899092915</v>
       </c>
       <c r="I5">
-        <v>0.71182067507746649</v>
+        <v>0.71841657269937254</v>
       </c>
       <c r="J5">
         <v>0</v>
       </c>
       <c r="K5">
-        <v>0.32540747400176678</v>
+        <v>0.32634761213401314</v>
       </c>
       <c r="L5">
         <v>0</v>
       </c>
       <c r="M5">
-        <v>4.0675934250220827E-2</v>
+        <v>4.0793451516751629E-2</v>
       </c>
       <c r="N5">
-        <v>0.32540747400176678</v>
+        <v>0.32634761213401314</v>
       </c>
       <c r="O5">
-        <v>1.2609539617568468</v>
+        <v>1.2645969970193012</v>
       </c>
       <c r="P5">
         <v>0</v>
       </c>
       <c r="Q5">
-        <v>0.12202780275066254</v>
+        <v>0.12238035455025495</v>
       </c>
       <c r="R5">
         <v>0</v>
       </c>
       <c r="S5">
-        <v>1.6270373700088341</v>
+        <v>1.631738060670066</v>
       </c>
       <c r="T5">
         <v>0</v>
       </c>
       <c r="U5">
-        <v>0.16270373700088345</v>
+        <v>0.16317380606700663</v>
       </c>
       <c r="V5">
-        <v>0.2033796712511042</v>
+        <v>0.20396725758375819</v>
       </c>
       <c r="W5">
         <v>0</v>
       </c>
       <c r="X5">
-        <v>0.32540747400176678</v>
+        <v>0.32634761213401314</v>
       </c>
       <c r="Y5">
         <v>0</v>
       </c>
       <c r="Z5">
-        <v>4.0675934250220827E-2</v>
+        <v>4.0793451516751629E-2</v>
       </c>
       <c r="AA5">
-        <v>0.32540747400176678</v>
+        <v>0.32634761213401314</v>
       </c>
       <c r="AB5">
         <v>1.7300610854783565</v>
       </c>
       <c r="AC5">
-        <v>4.0726875490387231</v>
+        <v>4.5829535404830768</v>
       </c>
       <c r="AD5">
         <v>1.2631483399809271</v>
       </c>
       <c r="AE5">
-        <v>0.24959414950677511</v>
+        <v>0.2548546236453767</v>
       </c>
       <c r="AF5">
-        <v>3.6415874280171483</v>
+        <v>3.6521083762943514</v>
       </c>
       <c r="AG5">
         <v>1.7300610854783565</v>
@@ -51753,16 +51543,16 @@
         <v>0</v>
       </c>
       <c r="AM5">
-        <v>2.2115739118908952</v>
+        <v>2.7218399033352489</v>
       </c>
       <c r="AN5">
         <v>0</v>
       </c>
       <c r="AO5">
-        <v>2.2799731050421618E-2</v>
+        <v>2.8060205189023208E-2</v>
       </c>
       <c r="AP5">
-        <v>4.5599462100843237E-2</v>
+        <v>5.6120410378046416E-2</v>
       </c>
       <c r="AQ5">
         <v>0</v>
@@ -51803,7 +51593,7 @@
       </c>
       <c r="B6">
         <f>一次エネルギー供給!B7</f>
-        <v>4.805558553177983</v>
+        <v>4.8144440050376272</v>
       </c>
       <c r="C6">
         <f>一次エネルギー供給!C7</f>
@@ -51811,7 +51601,7 @@
       </c>
       <c r="D6">
         <f>一次エネルギー供給!D7</f>
-        <v>4.4424687694952762</v>
+        <v>4.9538030997262732</v>
       </c>
       <c r="E6">
         <f>一次エネルギー供給!E7</f>
@@ -51819,7 +51609,7 @@
       </c>
       <c r="F6">
         <f>一次エネルギー供給!F7</f>
-        <v>4.3920663592286848</v>
+        <v>4.4011061489618228</v>
       </c>
       <c r="G6">
         <f>一次エネルギー供給!G7</f>
@@ -51827,11 +51617,11 @@
       </c>
       <c r="H6">
         <f>一次エネルギー供給!H7</f>
-        <v>0.49304162727540435</v>
+        <v>0.49446607899092915</v>
       </c>
       <c r="I6">
         <f>一次エネルギー供給!I7</f>
-        <v>0.71182067507746649</v>
+        <v>0.71841657269937254</v>
       </c>
       <c r="J6">
         <f>一次エネルギー供給!J7</f>
@@ -51839,7 +51629,7 @@
       </c>
       <c r="K6">
         <f>一次エネルギー供給!K7</f>
-        <v>0.32540747400176678</v>
+        <v>0.32634761213401314</v>
       </c>
       <c r="L6">
         <f>一次エネルギー供給!L7</f>
@@ -51847,15 +51637,15 @@
       </c>
       <c r="M6">
         <f>一次エネルギー供給!M7</f>
-        <v>4.0675934250220827E-2</v>
+        <v>4.0793451516751629E-2</v>
       </c>
       <c r="N6">
         <f>一次エネルギー供給!N7</f>
-        <v>0.32540747400176678</v>
+        <v>0.32634761213401314</v>
       </c>
       <c r="O6">
         <f>発電電力量!B7</f>
-        <v>1.2609539617568468</v>
+        <v>1.2645969970193012</v>
       </c>
       <c r="P6">
         <f>発電電力量!C7</f>
@@ -51863,7 +51653,7 @@
       </c>
       <c r="Q6">
         <f>発電電力量!D7</f>
-        <v>0.12202780275066254</v>
+        <v>0.12238035455025495</v>
       </c>
       <c r="R6">
         <f>発電電力量!E7</f>
@@ -51871,7 +51661,7 @@
       </c>
       <c r="S6">
         <f>発電電力量!F7</f>
-        <v>1.6270373700088341</v>
+        <v>1.631738060670066</v>
       </c>
       <c r="T6">
         <f>発電電力量!G7</f>
@@ -51879,11 +51669,11 @@
       </c>
       <c r="U6">
         <f>発電電力量!H7</f>
-        <v>0.16270373700088345</v>
+        <v>0.16317380606700663</v>
       </c>
       <c r="V6">
         <f>発電電力量!I7</f>
-        <v>0.2033796712511042</v>
+        <v>0.20396725758375819</v>
       </c>
       <c r="W6">
         <f>発電電力量!J7</f>
@@ -51891,7 +51681,7 @@
       </c>
       <c r="X6">
         <f>発電電力量!K7</f>
-        <v>0.32540747400176678</v>
+        <v>0.32634761213401314</v>
       </c>
       <c r="Y6">
         <f>発電電力量!L7</f>
@@ -51899,11 +51689,11 @@
       </c>
       <c r="Z6">
         <f>発電電力量!M7</f>
-        <v>4.0675934250220827E-2</v>
+        <v>4.0793451516751629E-2</v>
       </c>
       <c r="AA6">
         <f>発電電力量!N7</f>
-        <v>0.32540747400176678</v>
+        <v>0.32634761213401314</v>
       </c>
       <c r="AB6">
         <f>最終エネルギー消費!C27</f>
@@ -51911,7 +51701,7 @@
       </c>
       <c r="AC6">
         <f>最終エネルギー消費!D27</f>
-        <v>4.0726875490387231</v>
+        <v>4.5829535404830768</v>
       </c>
       <c r="AD6">
         <f>最終エネルギー消費!E27</f>
@@ -51919,11 +51709,11 @@
       </c>
       <c r="AE6">
         <f>最終エネルギー消費!F27</f>
-        <v>0.24959414950677511</v>
+        <v>0.2548546236453767</v>
       </c>
       <c r="AF6">
         <f>最終エネルギー消費!G27</f>
-        <v>3.6415874280171483</v>
+        <v>3.6521083762943514</v>
       </c>
       <c r="AG6">
         <f>最終エネルギー消費!C7</f>
@@ -51951,7 +51741,7 @@
       </c>
       <c r="AM6">
         <f>最終エネルギー消費!D12</f>
-        <v>2.2115739118908952</v>
+        <v>2.7218399033352489</v>
       </c>
       <c r="AN6">
         <f>最終エネルギー消費!E12</f>
@@ -51959,11 +51749,11 @@
       </c>
       <c r="AO6">
         <f>最終エネルギー消費!F12</f>
-        <v>2.2799731050421618E-2</v>
+        <v>2.8060205189023208E-2</v>
       </c>
       <c r="AP6">
         <f>最終エネルギー消費!G12</f>
-        <v>4.5599462100843237E-2</v>
+        <v>5.6120410378046416E-2</v>
       </c>
       <c r="AQ6">
         <f>最終エネルギー消費!C17</f>
@@ -52014,7 +51804,7 @@
       </c>
       <c r="B7">
         <f>一次エネルギー供給!P7</f>
-        <v>4.805558553177983</v>
+        <v>4.8144440050376272</v>
       </c>
       <c r="C7">
         <f>一次エネルギー供給!Q7</f>
@@ -52022,7 +51812,7 @@
       </c>
       <c r="D7">
         <f>一次エネルギー供給!R7</f>
-        <v>4.4424687694952762</v>
+        <v>4.9538030997262732</v>
       </c>
       <c r="E7">
         <f>一次エネルギー供給!S7</f>
@@ -52030,7 +51820,7 @@
       </c>
       <c r="F7">
         <f>一次エネルギー供給!T7</f>
-        <v>4.3920663592286848</v>
+        <v>4.4011061489618228</v>
       </c>
       <c r="G7">
         <f>一次エネルギー供給!U7</f>
@@ -52038,11 +51828,11 @@
       </c>
       <c r="H7">
         <f>一次エネルギー供給!V7</f>
-        <v>0.49304162727540435</v>
+        <v>0.49446607899092915</v>
       </c>
       <c r="I7">
         <f>一次エネルギー供給!W7</f>
-        <v>0.71182067507746649</v>
+        <v>0.71841657269937254</v>
       </c>
       <c r="J7">
         <f>一次エネルギー供給!X7</f>
@@ -52050,7 +51840,7 @@
       </c>
       <c r="K7">
         <f>一次エネルギー供給!Y7</f>
-        <v>0.32540747400176678</v>
+        <v>0.32634761213401314</v>
       </c>
       <c r="L7">
         <f>一次エネルギー供給!Z7</f>
@@ -52058,15 +51848,15 @@
       </c>
       <c r="M7">
         <f>一次エネルギー供給!AA7</f>
-        <v>4.0675934250220827E-2</v>
+        <v>4.0793451516751629E-2</v>
       </c>
       <c r="N7">
         <f>一次エネルギー供給!AB7</f>
-        <v>0.32540747400176678</v>
+        <v>0.32634761213401314</v>
       </c>
       <c r="O7">
         <f>発電電力量!O7</f>
-        <v>1.2609539617568468</v>
+        <v>1.2645969970193012</v>
       </c>
       <c r="P7">
         <f>発電電力量!P7</f>
@@ -52074,7 +51864,7 @@
       </c>
       <c r="Q7">
         <f>発電電力量!Q7</f>
-        <v>0.12202780275066254</v>
+        <v>0.12238035455025495</v>
       </c>
       <c r="R7">
         <f>発電電力量!R7</f>
@@ -52082,7 +51872,7 @@
       </c>
       <c r="S7">
         <f>発電電力量!S7</f>
-        <v>1.6270373700088341</v>
+        <v>1.631738060670066</v>
       </c>
       <c r="T7">
         <f>発電電力量!T7</f>
@@ -52090,11 +51880,11 @@
       </c>
       <c r="U7">
         <f>発電電力量!U7</f>
-        <v>0.16270373700088345</v>
+        <v>0.16317380606700663</v>
       </c>
       <c r="V7">
         <f>発電電力量!V7</f>
-        <v>0.2033796712511042</v>
+        <v>0.20396725758375819</v>
       </c>
       <c r="W7">
         <f>発電電力量!W7</f>
@@ -52102,7 +51892,7 @@
       </c>
       <c r="X7">
         <f>発電電力量!X7</f>
-        <v>0.32540747400176678</v>
+        <v>0.32634761213401314</v>
       </c>
       <c r="Y7">
         <f>発電電力量!Y7</f>
@@ -52110,11 +51900,11 @@
       </c>
       <c r="Z7">
         <f>発電電力量!Z7</f>
-        <v>4.0675934250220827E-2</v>
+        <v>4.0793451516751629E-2</v>
       </c>
       <c r="AA7">
         <f>発電電力量!AA7</f>
-        <v>0.32540747400176678</v>
+        <v>0.32634761213401314</v>
       </c>
       <c r="AB7">
         <f>最終エネルギー消費!H27</f>
@@ -52122,7 +51912,7 @@
       </c>
       <c r="AC7">
         <f>最終エネルギー消費!I27</f>
-        <v>4.0726875490387231</v>
+        <v>4.5829535404830768</v>
       </c>
       <c r="AD7">
         <f>最終エネルギー消費!J27</f>
@@ -52130,11 +51920,11 @@
       </c>
       <c r="AE7">
         <f>最終エネルギー消費!K27</f>
-        <v>0.24959414950677511</v>
+        <v>0.2548546236453767</v>
       </c>
       <c r="AF7">
         <f>最終エネルギー消費!L27</f>
-        <v>3.6415874280171483</v>
+        <v>3.6521083762943514</v>
       </c>
       <c r="AG7">
         <f>最終エネルギー消費!H7</f>
@@ -52162,7 +51952,7 @@
       </c>
       <c r="AM7">
         <f>最終エネルギー消費!I12</f>
-        <v>2.2115739118908952</v>
+        <v>2.7218399033352489</v>
       </c>
       <c r="AN7">
         <f>最終エネルギー消費!J12</f>
@@ -52170,11 +51960,11 @@
       </c>
       <c r="AO7">
         <f>最終エネルギー消費!K12</f>
-        <v>2.2799731050421618E-2</v>
+        <v>2.8060205189023208E-2</v>
       </c>
       <c r="AP7">
         <f>最終エネルギー消費!L12</f>
-        <v>4.5599462100843237E-2</v>
+        <v>5.6120410378046416E-2</v>
       </c>
       <c r="AQ7">
         <f>最終エネルギー消費!H17</f>
@@ -52266,15 +52056,15 @@
         <v>2010</v>
       </c>
       <c r="B11" s="2">
-        <v>1070.7741439646547</v>
+        <v>1070.7741439646545</v>
       </c>
       <c r="C11" s="2">
         <f>部門別CO2排出量!P43</f>
-        <v>1070.7741439646547</v>
+        <v>1070.7741439646545</v>
       </c>
       <c r="D11" s="2">
         <f>部門別CO2排出量!AD43</f>
-        <v>1070.7741439646547</v>
+        <v>1070.7741439646545</v>
       </c>
       <c r="F11" s="2" t="s">
         <v>2</v>
@@ -52304,15 +52094,15 @@
         <v>2020</v>
       </c>
       <c r="B12" s="2">
-        <v>978.76242648442167</v>
+        <v>978.76242648442098</v>
       </c>
       <c r="C12" s="2">
         <f>部門別CO2排出量!P44</f>
-        <v>978.76242648442167</v>
+        <v>978.76242648442098</v>
       </c>
       <c r="D12" s="2">
         <f>部門別CO2排出量!AD44</f>
-        <v>978.76242648442167</v>
+        <v>978.76242648442098</v>
       </c>
       <c r="F12" s="2" t="s">
         <v>3</v>
@@ -52326,15 +52116,15 @@
         <v>196.15609230500672</v>
       </c>
       <c r="I12">
-        <v>171.17582078035531</v>
+        <v>210.67040851814829</v>
       </c>
       <c r="J12">
         <f>CO2排出量!E3</f>
-        <v>171.17582078035531</v>
+        <v>210.67040851814829</v>
       </c>
       <c r="K12">
         <f>CO2排出量!F3</f>
-        <v>171.17582078035531</v>
+        <v>210.67040851814829</v>
       </c>
     </row>
     <row r="13" spans="1:52" x14ac:dyDescent="0.55000000000000004">
@@ -52342,15 +52132,15 @@
         <v>2030</v>
       </c>
       <c r="B13" s="2">
-        <v>1007.4537582833925</v>
+        <v>1022.4934872153367</v>
       </c>
       <c r="C13" s="2">
         <f>部門別CO2排出量!P45</f>
-        <v>1007.4537582833925</v>
+        <v>1022.4934872153367</v>
       </c>
       <c r="D13" s="2">
         <f>部門別CO2排出量!AD45</f>
-        <v>1007.4537582833925</v>
+        <v>1022.4934872153367</v>
       </c>
       <c r="F13" s="2" t="s">
         <v>4</v>
@@ -52380,15 +52170,15 @@
         <v>2040</v>
       </c>
       <c r="B14" s="2">
-        <v>1026.3482276252621</v>
+        <v>1055.0267159154703</v>
       </c>
       <c r="C14" s="2">
         <f>部門別CO2排出量!P46</f>
-        <v>1026.3482276252621</v>
+        <v>1055.0267159154703</v>
       </c>
       <c r="D14" s="2">
         <f>部門別CO2排出量!AD46</f>
-        <v>1026.3482276252621</v>
+        <v>1055.0267159154703</v>
       </c>
       <c r="F14" s="2" t="s">
         <v>5</v>
@@ -52418,15 +52208,15 @@
         <v>2050</v>
       </c>
       <c r="B15" s="2">
-        <v>1048.6084006423907</v>
+        <v>1089.5333737522215</v>
       </c>
       <c r="C15" s="2">
         <f>部門別CO2排出量!P47</f>
-        <v>1048.6084006423907</v>
+        <v>1089.5333737522215</v>
       </c>
       <c r="D15" s="2">
         <f>部門別CO2排出量!AD47</f>
-        <v>1048.6084006423907</v>
+        <v>1089.5333737522215</v>
       </c>
       <c r="F15" s="2" t="s">
         <v>30</v>
@@ -52440,15 +52230,15 @@
         <v>449.00553720294573</v>
       </c>
       <c r="I15">
-        <v>495.09542778752109</v>
+        <v>496.52581315955877</v>
       </c>
       <c r="J15">
         <f>CO2排出量!E6</f>
-        <v>495.09542778752109</v>
+        <v>496.52581315955877</v>
       </c>
       <c r="K15">
         <f>CO2排出量!F6</f>
-        <v>495.09542778752109</v>
+        <v>496.52581315955877</v>
       </c>
     </row>
     <row r="16" spans="1:52" x14ac:dyDescent="0.55000000000000004">
@@ -52576,15 +52366,15 @@
         <v>2030</v>
       </c>
       <c r="B20" s="2">
-        <v>10.10879224798782</v>
+        <v>10.108792247987818</v>
       </c>
       <c r="C20" s="2">
         <f>SUMPRODUCT(LCOE!$A$2:$M$2,発電電力量!B5:N5)/SUM(発電電力量!B5:N5)</f>
-        <v>10.10879224798782</v>
+        <v>10.108792247987818</v>
       </c>
       <c r="D20" s="2">
         <f>SUMPRODUCT(LCOE!$A$2:$M$2,発電電力量!O5:AA5)/SUM(発電電力量!O5:AA5)</f>
-        <v>10.10879224798782</v>
+        <v>10.108792247987818</v>
       </c>
       <c r="F20" s="2" t="s">
         <v>109</v>
@@ -52606,15 +52396,15 @@
         <v>2040</v>
       </c>
       <c r="B21" s="2">
-        <v>10.123591036918906</v>
+        <v>10.123591036918908</v>
       </c>
       <c r="C21" s="2">
         <f>SUMPRODUCT(LCOE!$A$2:$M$2,発電電力量!B6:N6)/SUM(発電電力量!B6:N6)</f>
-        <v>10.123591036918906</v>
+        <v>10.123591036918908</v>
       </c>
       <c r="D21" s="2">
         <f>SUMPRODUCT(LCOE!$A$2:$M$2,発電電力量!O6:AA6)/SUM(発電電力量!O6:AA6)</f>
-        <v>10.123591036918906</v>
+        <v>10.123591036918908</v>
       </c>
       <c r="F21" s="2">
         <v>2010</v>
@@ -52636,15 +52426,15 @@
         <v>2050</v>
       </c>
       <c r="B22" s="2">
-        <v>10.138389825849996</v>
+        <v>10.138389825849998</v>
       </c>
       <c r="C22" s="2">
         <f>SUMPRODUCT(LCOE!$A$2:$M$2,発電電力量!B7:N7)/SUM(発電電力量!B7:N7)</f>
-        <v>10.138389825849996</v>
+        <v>10.138389825849998</v>
       </c>
       <c r="D22" s="2">
         <f>SUMPRODUCT(LCOE!$A$2:$M$2,発電電力量!O7:AA7)/SUM(発電電力量!O7:AA7)</f>
-        <v>10.138389825849996</v>
+        <v>10.138389825849998</v>
       </c>
       <c r="F22" s="2">
         <v>2020</v>
@@ -52716,15 +52506,15 @@
         <v>2010</v>
       </c>
       <c r="B25" s="2">
-        <v>78.415161398242645</v>
+        <v>78.415161398242631</v>
       </c>
       <c r="C25" s="2">
         <f>SUM(一次エネルギー供給!B3:G3)/一次エネルギー供給!O3*100</f>
-        <v>78.415161398242645</v>
+        <v>78.415161398242631</v>
       </c>
       <c r="D25" s="2">
         <f>SUM(一次エネルギー供給!P3:U3)/一次エネルギー供給!AC3*100</f>
-        <v>78.415161398242645</v>
+        <v>78.415161398242631</v>
       </c>
       <c r="F25" s="2">
         <v>2050</v>
@@ -52762,15 +52552,15 @@
         <v>2030</v>
       </c>
       <c r="B27" s="2">
-        <v>87.679987619523601</v>
+        <v>87.818187725973928</v>
       </c>
       <c r="C27" s="2">
         <f>SUM(一次エネルギー供給!B5:G5)/一次エネルギー供給!O5*100</f>
-        <v>87.679987619523601</v>
+        <v>87.818187725973928</v>
       </c>
       <c r="D27" s="2">
         <f>SUM(一次エネルギー供給!P5:U5)/一次エネルギー供給!AC5*100</f>
-        <v>87.679987619523601</v>
+        <v>87.818187725973928</v>
       </c>
       <c r="F27" s="2" t="s">
         <v>108</v>
@@ -52792,15 +52582,15 @@
         <v>2040</v>
       </c>
       <c r="B28" s="2">
-        <v>87.737934506124816</v>
+        <v>87.991282939933384</v>
       </c>
       <c r="C28" s="2">
         <f>SUM(一次エネルギー供給!B6:G6)/一次エネルギー供給!O6*100</f>
-        <v>87.737934506124816</v>
+        <v>87.991282939933384</v>
       </c>
       <c r="D28" s="2">
         <f>SUM(一次エネルギー供給!P6:U6)/一次エネルギー供給!AC6*100</f>
-        <v>87.737934506124816</v>
+        <v>87.991282939933384</v>
       </c>
       <c r="F28" s="2">
         <v>2010</v>
@@ -52822,15 +52612,15 @@
         <v>2050</v>
       </c>
       <c r="B29" s="2">
-        <v>87.79416425840239</v>
+        <v>88.141303878119331</v>
       </c>
       <c r="C29" s="2">
         <f>SUM(一次エネルギー供給!B7:G7)/一次エネルギー供給!O7*100</f>
-        <v>87.79416425840239</v>
+        <v>88.141303878119331</v>
       </c>
       <c r="D29" s="2">
         <f>SUM(一次エネルギー供給!P7:U7)/一次エネルギー供給!AC7*100</f>
-        <v>87.79416425840239</v>
+        <v>88.141303878119331</v>
       </c>
       <c r="F29" s="2">
         <v>2020</v>
@@ -52899,15 +52689,15 @@
         <v>2010</v>
       </c>
       <c r="B32" s="2">
-        <v>70.943107201375042</v>
+        <v>70.929391695956568</v>
       </c>
       <c r="C32" s="2">
         <f>(SUMPRODUCT(最終エネルギー消費!C18:F18,EPT!B2:E2)+最終エネルギー消費!G18*EPT!F2)/GDP・POP!G2*10^9/10^6</f>
-        <v>70.943107201375042</v>
+        <v>70.929391695956568</v>
       </c>
       <c r="D32" s="2">
         <f>(SUMPRODUCT(最終エネルギー消費!H18:K18,EPT!B2:E2)+最終エネルギー消費!L18*EPT!F2)/GDP・POP!H2*10^9/10^6</f>
-        <v>70.943107201375042</v>
+        <v>70.929391695956568</v>
       </c>
       <c r="F32" s="2">
         <v>2050</v>
@@ -52929,15 +52719,15 @@
         <v>2020</v>
       </c>
       <c r="B33" s="2">
-        <v>76.403160940504492</v>
+        <v>76.3870734590121</v>
       </c>
       <c r="C33" s="2">
         <f>(SUMPRODUCT(最終エネルギー消費!C19:F19,EPT!$B$3:$E$3)+最終エネルギー消費!G19*EPT!$F$3)/GDP・POP!G12*10^9/10^6</f>
-        <v>76.403160940504492</v>
+        <v>76.3870734590121</v>
       </c>
       <c r="D33" s="2">
         <f>(SUMPRODUCT(最終エネルギー消費!H19:K19,EPT!$B$3:$E$3)+最終エネルギー消費!L19*EPT!$F$3)/GDP・POP!H12*10^9/10^6</f>
-        <v>76.403160940504492</v>
+        <v>76.3870734590121</v>
       </c>
     </row>
     <row r="34" spans="1:4" x14ac:dyDescent="0.55000000000000004">
@@ -52945,15 +52735,15 @@
         <v>2030</v>
       </c>
       <c r="B34" s="2">
-        <v>76.486715147663233</v>
+        <v>76.475990160001643</v>
       </c>
       <c r="C34" s="2">
         <f>(SUMPRODUCT(最終エネルギー消費!C20:F20,EPT!$B$3:$E$3)+最終エネルギー消費!G20*EPT!$F$3*C20/$C$19)/GDP・POP!G22*10^9/10^6</f>
-        <v>76.486715147663233</v>
+        <v>76.475990160001643</v>
       </c>
       <c r="D34" s="2">
         <f>(SUMPRODUCT(最終エネルギー消費!H20:K20,EPT!$B$3:$E$3)+最終エネルギー消費!L20*EPT!$F$3*D20/$D$19)/GDP・POP!H22*10^9/10^6</f>
-        <v>76.486715147663233</v>
+        <v>76.475990160001643</v>
       </c>
     </row>
     <row r="35" spans="1:4" x14ac:dyDescent="0.55000000000000004">
@@ -52961,15 +52751,15 @@
         <v>2040</v>
       </c>
       <c r="B35" s="2">
-        <v>76.570339720997595</v>
+        <v>76.564977227166807</v>
       </c>
       <c r="C35" s="2">
         <f>(SUMPRODUCT(最終エネルギー消費!C21:F21,EPT!$B$3:$E$3)+最終エネルギー消費!G21*EPT!$F$3*C21/$C$19)/GDP・POP!G32*10^9/10^6</f>
-        <v>76.570339720997595</v>
+        <v>76.564977227166807</v>
       </c>
       <c r="D35" s="2">
         <f>(SUMPRODUCT(最終エネルギー消費!H21:K21,EPT!$B$3:$E$3)+最終エネルギー消費!L21*EPT!$F$3*D21/$D$19)/GDP・POP!H32*10^9/10^6</f>
-        <v>76.570339720997595</v>
+        <v>76.564977227166807</v>
       </c>
     </row>
     <row r="36" spans="1:4" x14ac:dyDescent="0.55000000000000004">
@@ -53310,7 +53100,7 @@
       </c>
       <c r="D3">
         <f>一次エネルギー供給!D3</f>
-        <v>6.3598072392570097</v>
+        <v>6.3598072392570062</v>
       </c>
       <c r="E3">
         <f>一次エネルギー供給!E3</f>
@@ -53410,7 +53200,7 @@
       </c>
       <c r="AC3">
         <f>最終エネルギー消費!D23</f>
-        <v>5.3540691272396712</v>
+        <v>5.3540691272396677</v>
       </c>
       <c r="AD3">
         <f>最終エネルギー消費!E23</f>
@@ -53446,23 +53236,23 @@
       </c>
       <c r="AL3">
         <f>最終エネルギー消費!C8</f>
-        <v>4.1999987243639068E-5</v>
+        <v>4.1999987243639028E-5</v>
       </c>
       <c r="AM3">
         <f>最終エネルギー消費!D8</f>
-        <v>3.2142520237578216</v>
+        <v>3.2142520237578185</v>
       </c>
       <c r="AN3">
         <f>最終エネルギー消費!E8</f>
-        <v>4.2009987240601791E-3</v>
+        <v>4.2009987240601756E-3</v>
       </c>
       <c r="AO3">
         <f>最終エネルギー消費!F8</f>
-        <v>8.299997479100079E-3</v>
+        <v>8.299997479100072E-3</v>
       </c>
       <c r="AP3">
         <f>最終エネルギー消費!G8</f>
-        <v>6.5678980051785088E-2</v>
+        <v>6.5678980051785033E-2</v>
       </c>
       <c r="AQ3">
         <f>最終エネルギー消費!C13</f>
@@ -53519,7 +53309,7 @@
       </c>
       <c r="D4">
         <f>一次エネルギー供給!D4</f>
-        <v>4.5301466613559409</v>
+        <v>4.5301466613559338</v>
       </c>
       <c r="E4">
         <f>一次エネルギー供給!E4</f>
@@ -53619,7 +53409,7 @@
       </c>
       <c r="AC4">
         <f>最終エネルギー消費!D24</f>
-        <v>4.1740209458227868</v>
+        <v>4.1740209458227797</v>
       </c>
       <c r="AD4">
         <f>最終エネルギー消費!E24</f>
@@ -53627,7 +53417,7 @@
       </c>
       <c r="AE4">
         <f>最終エネルギー消費!F24</f>
-        <v>0.2320119889698635</v>
+        <v>0.23201198896986344</v>
       </c>
       <c r="AF4">
         <f>最終エネルギー消費!G24</f>
@@ -53655,23 +53445,23 @@
       </c>
       <c r="AL4">
         <f>最終エネルギー消費!C9</f>
-        <v>3.6000013765472331E-5</v>
+        <v>3.6000013765472229E-5</v>
       </c>
       <c r="AM4">
         <f>最終エネルギー消費!D9</f>
-        <v>2.5335019687455023</v>
+        <v>2.5335019687454952</v>
       </c>
       <c r="AN4">
         <f>最終エネルギー消費!E9</f>
-        <v>1.0630004064638109E-3</v>
+        <v>1.0630004064638078E-3</v>
       </c>
       <c r="AO4">
         <f>最終エネルギー消費!F9</f>
-        <v>1.8345007014655294E-2</v>
+        <v>1.8345007014655246E-2</v>
       </c>
       <c r="AP4">
         <f>最終エネルギー消費!G9</f>
-        <v>6.2294023819620542E-2</v>
+        <v>6.2294023819620369E-2</v>
       </c>
       <c r="AQ4">
         <f>最終エネルギー消費!C14</f>
@@ -53880,7 +53670,7 @@
       </c>
       <c r="B6">
         <f>一次エネルギー供給!B7</f>
-        <v>4.805558553177983</v>
+        <v>4.8144440050376272</v>
       </c>
       <c r="C6">
         <f>一次エネルギー供給!C7</f>
@@ -53888,7 +53678,7 @@
       </c>
       <c r="D6">
         <f>一次エネルギー供給!D7</f>
-        <v>4.4424687694952762</v>
+        <v>4.9538030997262732</v>
       </c>
       <c r="E6">
         <f>一次エネルギー供給!E7</f>
@@ -53896,7 +53686,7 @@
       </c>
       <c r="F6">
         <f>一次エネルギー供給!F7</f>
-        <v>4.3920663592286848</v>
+        <v>4.4011061489618228</v>
       </c>
       <c r="G6">
         <f>一次エネルギー供給!G7</f>
@@ -53904,11 +53694,11 @@
       </c>
       <c r="H6">
         <f>一次エネルギー供給!H7</f>
-        <v>0.49304162727540435</v>
+        <v>0.49446607899092915</v>
       </c>
       <c r="I6">
         <f>一次エネルギー供給!I7</f>
-        <v>0.71182067507746649</v>
+        <v>0.71841657269937254</v>
       </c>
       <c r="J6">
         <f>一次エネルギー供給!J7</f>
@@ -53916,7 +53706,7 @@
       </c>
       <c r="K6">
         <f>一次エネルギー供給!K7</f>
-        <v>0.32540747400176678</v>
+        <v>0.32634761213401314</v>
       </c>
       <c r="L6">
         <f>一次エネルギー供給!L7</f>
@@ -53924,15 +53714,15 @@
       </c>
       <c r="M6">
         <f>一次エネルギー供給!M7</f>
-        <v>4.0675934250220827E-2</v>
+        <v>4.0793451516751629E-2</v>
       </c>
       <c r="N6">
         <f>一次エネルギー供給!N7</f>
-        <v>0.32540747400176678</v>
+        <v>0.32634761213401314</v>
       </c>
       <c r="O6">
         <f>発電電力量!B7</f>
-        <v>1.2609539617568468</v>
+        <v>1.2645969970193012</v>
       </c>
       <c r="P6">
         <f>発電電力量!C7</f>
@@ -53940,7 +53730,7 @@
       </c>
       <c r="Q6">
         <f>発電電力量!D7</f>
-        <v>0.12202780275066254</v>
+        <v>0.12238035455025495</v>
       </c>
       <c r="R6">
         <f>発電電力量!E7</f>
@@ -53948,7 +53738,7 @@
       </c>
       <c r="S6">
         <f>発電電力量!F7</f>
-        <v>1.6270373700088341</v>
+        <v>1.631738060670066</v>
       </c>
       <c r="T6">
         <f>発電電力量!G7</f>
@@ -53956,11 +53746,11 @@
       </c>
       <c r="U6">
         <f>発電電力量!H7</f>
-        <v>0.16270373700088345</v>
+        <v>0.16317380606700663</v>
       </c>
       <c r="V6">
         <f>発電電力量!I7</f>
-        <v>0.2033796712511042</v>
+        <v>0.20396725758375819</v>
       </c>
       <c r="W6">
         <f>発電電力量!J7</f>
@@ -53968,7 +53758,7 @@
       </c>
       <c r="X6">
         <f>発電電力量!K7</f>
-        <v>0.32540747400176678</v>
+        <v>0.32634761213401314</v>
       </c>
       <c r="Y6">
         <f>発電電力量!L7</f>
@@ -53976,11 +53766,11 @@
       </c>
       <c r="Z6">
         <f>発電電力量!M7</f>
-        <v>4.0675934250220827E-2</v>
+        <v>4.0793451516751629E-2</v>
       </c>
       <c r="AA6">
         <f>発電電力量!N7</f>
-        <v>0.32540747400176678</v>
+        <v>0.32634761213401314</v>
       </c>
       <c r="AB6">
         <f>最終エネルギー消費!C27</f>
@@ -53988,7 +53778,7 @@
       </c>
       <c r="AC6">
         <f>最終エネルギー消費!D27</f>
-        <v>4.0726875490387231</v>
+        <v>4.5829535404830768</v>
       </c>
       <c r="AD6">
         <f>最終エネルギー消費!E27</f>
@@ -53996,11 +53786,11 @@
       </c>
       <c r="AE6">
         <f>最終エネルギー消費!F27</f>
-        <v>0.24959414950677511</v>
+        <v>0.2548546236453767</v>
       </c>
       <c r="AF6">
         <f>最終エネルギー消費!G27</f>
-        <v>3.6415874280171483</v>
+        <v>3.6521083762943514</v>
       </c>
       <c r="AG6">
         <f>最終エネルギー消費!C7</f>
@@ -54028,7 +53818,7 @@
       </c>
       <c r="AM6">
         <f>最終エネルギー消費!D12</f>
-        <v>2.2115739118908952</v>
+        <v>2.7218399033352489</v>
       </c>
       <c r="AN6">
         <f>最終エネルギー消費!E12</f>
@@ -54036,11 +53826,11 @@
       </c>
       <c r="AO6">
         <f>最終エネルギー消費!F12</f>
-        <v>2.2799731050421618E-2</v>
+        <v>2.8060205189023208E-2</v>
       </c>
       <c r="AP6">
         <f>最終エネルギー消費!G12</f>
-        <v>4.5599462100843237E-2</v>
+        <v>5.6120410378046416E-2</v>
       </c>
       <c r="AQ6">
         <f>最終エネルギー消費!C17</f>
@@ -54091,7 +53881,7 @@
       </c>
       <c r="B7">
         <f>一次エネルギー供給!P7</f>
-        <v>4.805558553177983</v>
+        <v>4.8144440050376272</v>
       </c>
       <c r="C7">
         <f>一次エネルギー供給!Q7</f>
@@ -54099,7 +53889,7 @@
       </c>
       <c r="D7">
         <f>一次エネルギー供給!R7</f>
-        <v>4.4424687694952762</v>
+        <v>4.9538030997262732</v>
       </c>
       <c r="E7">
         <f>一次エネルギー供給!S7</f>
@@ -54107,7 +53897,7 @@
       </c>
       <c r="F7">
         <f>一次エネルギー供給!T7</f>
-        <v>4.3920663592286848</v>
+        <v>4.4011061489618228</v>
       </c>
       <c r="G7">
         <f>一次エネルギー供給!U7</f>
@@ -54115,11 +53905,11 @@
       </c>
       <c r="H7">
         <f>一次エネルギー供給!V7</f>
-        <v>0.49304162727540435</v>
+        <v>0.49446607899092915</v>
       </c>
       <c r="I7">
         <f>一次エネルギー供給!W7</f>
-        <v>0.71182067507746649</v>
+        <v>0.71841657269937254</v>
       </c>
       <c r="J7">
         <f>一次エネルギー供給!X7</f>
@@ -54127,7 +53917,7 @@
       </c>
       <c r="K7">
         <f>一次エネルギー供給!Y7</f>
-        <v>0.32540747400176678</v>
+        <v>0.32634761213401314</v>
       </c>
       <c r="L7">
         <f>一次エネルギー供給!Z7</f>
@@ -54135,15 +53925,15 @@
       </c>
       <c r="M7">
         <f>一次エネルギー供給!AA7</f>
-        <v>4.0675934250220827E-2</v>
+        <v>4.0793451516751629E-2</v>
       </c>
       <c r="N7">
         <f>一次エネルギー供給!AB7</f>
-        <v>0.32540747400176678</v>
+        <v>0.32634761213401314</v>
       </c>
       <c r="O7">
         <f>発電電力量!O7</f>
-        <v>1.2609539617568468</v>
+        <v>1.2645969970193012</v>
       </c>
       <c r="P7">
         <f>発電電力量!P7</f>
@@ -54151,7 +53941,7 @@
       </c>
       <c r="Q7">
         <f>発電電力量!Q7</f>
-        <v>0.12202780275066254</v>
+        <v>0.12238035455025495</v>
       </c>
       <c r="R7">
         <f>発電電力量!R7</f>
@@ -54159,7 +53949,7 @@
       </c>
       <c r="S7">
         <f>発電電力量!S7</f>
-        <v>1.6270373700088341</v>
+        <v>1.631738060670066</v>
       </c>
       <c r="T7">
         <f>発電電力量!T7</f>
@@ -54167,11 +53957,11 @@
       </c>
       <c r="U7">
         <f>発電電力量!U7</f>
-        <v>0.16270373700088345</v>
+        <v>0.16317380606700663</v>
       </c>
       <c r="V7">
         <f>発電電力量!V7</f>
-        <v>0.2033796712511042</v>
+        <v>0.20396725758375819</v>
       </c>
       <c r="W7">
         <f>発電電力量!W7</f>
@@ -54179,7 +53969,7 @@
       </c>
       <c r="X7">
         <f>発電電力量!X7</f>
-        <v>0.32540747400176678</v>
+        <v>0.32634761213401314</v>
       </c>
       <c r="Y7">
         <f>発電電力量!Y7</f>
@@ -54187,11 +53977,11 @@
       </c>
       <c r="Z7">
         <f>発電電力量!Z7</f>
-        <v>4.0675934250220827E-2</v>
+        <v>4.0793451516751629E-2</v>
       </c>
       <c r="AA7">
         <f>発電電力量!AA7</f>
-        <v>0.32540747400176678</v>
+        <v>0.32634761213401314</v>
       </c>
       <c r="AB7">
         <f>最終エネルギー消費!H27</f>
@@ -54199,7 +53989,7 @@
       </c>
       <c r="AC7">
         <f>最終エネルギー消費!I27</f>
-        <v>4.0726875490387231</v>
+        <v>4.5829535404830768</v>
       </c>
       <c r="AD7">
         <f>最終エネルギー消費!J27</f>
@@ -54207,11 +53997,11 @@
       </c>
       <c r="AE7">
         <f>最終エネルギー消費!K27</f>
-        <v>0.24959414950677511</v>
+        <v>0.2548546236453767</v>
       </c>
       <c r="AF7">
         <f>最終エネルギー消費!L27</f>
-        <v>3.6415874280171483</v>
+        <v>3.6521083762943514</v>
       </c>
       <c r="AG7">
         <f>最終エネルギー消費!H7</f>
@@ -54239,7 +54029,7 @@
       </c>
       <c r="AM7">
         <f>最終エネルギー消費!I12</f>
-        <v>2.2115739118908952</v>
+        <v>2.7218399033352489</v>
       </c>
       <c r="AN7">
         <f>最終エネルギー消費!J12</f>
@@ -54247,11 +54037,11 @@
       </c>
       <c r="AO7">
         <f>最終エネルギー消費!K12</f>
-        <v>2.2799731050421618E-2</v>
+        <v>2.8060205189023208E-2</v>
       </c>
       <c r="AP7">
         <f>最終エネルギー消費!L12</f>
-        <v>4.5599462100843237E-2</v>
+        <v>5.6120410378046416E-2</v>
       </c>
       <c r="AQ7">
         <f>最終エネルギー消費!H17</f>
@@ -54345,11 +54135,11 @@
       </c>
       <c r="C11" s="2">
         <f>部門別CO2排出量!P43</f>
-        <v>1070.7741439646547</v>
+        <v>1070.7741439646545</v>
       </c>
       <c r="D11" s="2">
         <f>部門別CO2排出量!AD43</f>
-        <v>1070.7741439646547</v>
+        <v>1070.7741439646545</v>
       </c>
       <c r="F11" s="2" t="s">
         <v>2</v>
@@ -54383,11 +54173,11 @@
       </c>
       <c r="C12" s="2">
         <f>部門別CO2排出量!P44</f>
-        <v>978.76242648442167</v>
+        <v>978.76242648442098</v>
       </c>
       <c r="D12" s="2">
         <f>部門別CO2排出量!AD44</f>
-        <v>978.76242648442167</v>
+        <v>978.76242648442098</v>
       </c>
       <c r="F12" s="2" t="s">
         <v>3</v>
@@ -54405,11 +54195,11 @@
       </c>
       <c r="J12">
         <f>CO2排出量!E3</f>
-        <v>171.17582078035531</v>
+        <v>210.67040851814829</v>
       </c>
       <c r="K12">
         <f>CO2排出量!F3</f>
-        <v>171.17582078035531</v>
+        <v>210.67040851814829</v>
       </c>
     </row>
     <row r="13" spans="1:52" x14ac:dyDescent="0.55000000000000004">
@@ -54421,11 +54211,11 @@
       </c>
       <c r="C13" s="2">
         <f>部門別CO2排出量!P45</f>
-        <v>1007.4537582833925</v>
+        <v>1022.4934872153367</v>
       </c>
       <c r="D13" s="2">
         <f>部門別CO2排出量!AD45</f>
-        <v>1007.4537582833925</v>
+        <v>1022.4934872153367</v>
       </c>
       <c r="F13" s="2" t="s">
         <v>4</v>
@@ -54459,11 +54249,11 @@
       </c>
       <c r="C14" s="2">
         <f>部門別CO2排出量!P46</f>
-        <v>1026.3482276252621</v>
+        <v>1055.0267159154703</v>
       </c>
       <c r="D14" s="2">
         <f>部門別CO2排出量!AD46</f>
-        <v>1026.3482276252621</v>
+        <v>1055.0267159154703</v>
       </c>
       <c r="F14" s="2" t="s">
         <v>5</v>
@@ -54497,11 +54287,11 @@
       </c>
       <c r="C15" s="2">
         <f>部門別CO2排出量!P47</f>
-        <v>1048.6084006423907</v>
+        <v>1089.5333737522215</v>
       </c>
       <c r="D15" s="2">
         <f>部門別CO2排出量!AD47</f>
-        <v>1048.6084006423907</v>
+        <v>1089.5333737522215</v>
       </c>
       <c r="F15" s="2" t="s">
         <v>30</v>
@@ -54519,11 +54309,11 @@
       </c>
       <c r="J15">
         <f>CO2排出量!E6</f>
-        <v>495.09542778752109</v>
+        <v>496.52581315955877</v>
       </c>
       <c r="K15">
         <f>CO2排出量!F6</f>
-        <v>495.09542778752109</v>
+        <v>496.52581315955877</v>
       </c>
     </row>
     <row r="16" spans="1:52" x14ac:dyDescent="0.55000000000000004">
@@ -54655,11 +54445,11 @@
       </c>
       <c r="C20" s="2">
         <f>SUMPRODUCT(LCOE!$A$2:$M$2,発電電力量!B5:N5)/SUM(発電電力量!B5:N5)</f>
-        <v>10.10879224798782</v>
+        <v>10.108792247987818</v>
       </c>
       <c r="D20" s="2">
         <f>SUMPRODUCT(LCOE!$A$2:$M$2,発電電力量!O5:AA5)/SUM(発電電力量!O5:AA5)</f>
-        <v>10.10879224798782</v>
+        <v>10.108792247987818</v>
       </c>
       <c r="F20" s="2" t="s">
         <v>109</v>
@@ -54685,11 +54475,11 @@
       </c>
       <c r="C21" s="2">
         <f>SUMPRODUCT(LCOE!$A$2:$M$2,発電電力量!B6:N6)/SUM(発電電力量!B6:N6)</f>
-        <v>10.123591036918906</v>
+        <v>10.123591036918908</v>
       </c>
       <c r="D21" s="2">
         <f>SUMPRODUCT(LCOE!$A$2:$M$2,発電電力量!O6:AA6)/SUM(発電電力量!O6:AA6)</f>
-        <v>10.123591036918906</v>
+        <v>10.123591036918908</v>
       </c>
       <c r="F21" s="2">
         <v>2010</v>
@@ -54715,11 +54505,11 @@
       </c>
       <c r="C22" s="2">
         <f>SUMPRODUCT(LCOE!$A$2:$M$2,発電電力量!B7:N7)/SUM(発電電力量!B7:N7)</f>
-        <v>10.138389825849996</v>
+        <v>10.138389825849998</v>
       </c>
       <c r="D22" s="2">
         <f>SUMPRODUCT(LCOE!$A$2:$M$2,発電電力量!O7:AA7)/SUM(発電電力量!O7:AA7)</f>
-        <v>10.138389825849996</v>
+        <v>10.138389825849998</v>
       </c>
       <c r="F22" s="2">
         <v>2020</v>
@@ -54795,11 +54585,11 @@
       </c>
       <c r="C25" s="2">
         <f>SUM(一次エネルギー供給!B3:G3)/一次エネルギー供給!O3*100</f>
-        <v>78.415161398242645</v>
+        <v>78.415161398242631</v>
       </c>
       <c r="D25" s="2">
         <f>SUM(一次エネルギー供給!P3:U3)/一次エネルギー供給!AC3*100</f>
-        <v>78.415161398242645</v>
+        <v>78.415161398242631</v>
       </c>
       <c r="F25" s="2">
         <v>2050</v>
@@ -54841,11 +54631,11 @@
       </c>
       <c r="C27" s="2">
         <f>SUM(一次エネルギー供給!B5:G5)/一次エネルギー供給!O5*100</f>
-        <v>87.679987619523601</v>
+        <v>87.818187725973928</v>
       </c>
       <c r="D27" s="2">
         <f>SUM(一次エネルギー供給!P5:U5)/一次エネルギー供給!AC5*100</f>
-        <v>87.679987619523601</v>
+        <v>87.818187725973928</v>
       </c>
       <c r="F27" s="2" t="s">
         <v>108</v>
@@ -54871,11 +54661,11 @@
       </c>
       <c r="C28" s="2">
         <f>SUM(一次エネルギー供給!B6:G6)/一次エネルギー供給!O6*100</f>
-        <v>87.737934506124816</v>
+        <v>87.991282939933384</v>
       </c>
       <c r="D28" s="2">
         <f>SUM(一次エネルギー供給!P6:U6)/一次エネルギー供給!AC6*100</f>
-        <v>87.737934506124816</v>
+        <v>87.991282939933384</v>
       </c>
       <c r="F28" s="2">
         <v>2010</v>
@@ -54901,11 +54691,11 @@
       </c>
       <c r="C29" s="2">
         <f>SUM(一次エネルギー供給!B7:G7)/一次エネルギー供給!O7*100</f>
-        <v>87.79416425840239</v>
+        <v>88.141303878119331</v>
       </c>
       <c r="D29" s="2">
         <f>SUM(一次エネルギー供給!P7:U7)/一次エネルギー供給!AC7*100</f>
-        <v>87.79416425840239</v>
+        <v>88.141303878119331</v>
       </c>
       <c r="F29" s="2">
         <v>2020</v>
@@ -54978,11 +54768,11 @@
       </c>
       <c r="C32" s="2">
         <f>(SUMPRODUCT(最終エネルギー消費!C18:F18,EPT!B2:E2)+最終エネルギー消費!G18*EPT!F2)/GDP・POP!G2*10^9/10^6</f>
-        <v>70.943107201375042</v>
+        <v>70.929391695956568</v>
       </c>
       <c r="D32" s="2">
         <f>(SUMPRODUCT(最終エネルギー消費!H18:K18,EPT!B2:E2)+最終エネルギー消費!L18*EPT!F2)/GDP・POP!H2*10^9/10^6</f>
-        <v>70.943107201375042</v>
+        <v>70.929391695956568</v>
       </c>
       <c r="F32" s="2">
         <v>2050</v>
@@ -55008,11 +54798,11 @@
       </c>
       <c r="C33" s="2">
         <f>(SUMPRODUCT(最終エネルギー消費!C19:F19,EPT!$B$3:$E$3)+最終エネルギー消費!G19*EPT!$F$3)/GDP・POP!G12*10^9/10^6</f>
-        <v>76.403160940504492</v>
+        <v>76.3870734590121</v>
       </c>
       <c r="D33" s="2">
         <f>(SUMPRODUCT(最終エネルギー消費!H19:K19,EPT!$B$3:$E$3)+最終エネルギー消費!L19*EPT!$F$3)/GDP・POP!H12*10^9/10^6</f>
-        <v>76.403160940504492</v>
+        <v>76.3870734590121</v>
       </c>
     </row>
     <row r="34" spans="1:4" x14ac:dyDescent="0.55000000000000004">
@@ -55024,11 +54814,11 @@
       </c>
       <c r="C34" s="2">
         <f>(SUMPRODUCT(最終エネルギー消費!C20:F20,EPT!$B$3:$E$3)+最終エネルギー消費!G20*EPT!$F$3*C20/$C$19)/GDP・POP!G22*10^9/10^6</f>
-        <v>76.486715147663233</v>
+        <v>76.475990160001643</v>
       </c>
       <c r="D34" s="2">
         <f>(SUMPRODUCT(最終エネルギー消費!H20:K20,EPT!$B$3:$E$3)+最終エネルギー消費!L20*EPT!$F$3*D20/$D$19)/GDP・POP!H22*10^9/10^6</f>
-        <v>76.486715147663233</v>
+        <v>76.475990160001643</v>
       </c>
     </row>
     <row r="35" spans="1:4" x14ac:dyDescent="0.55000000000000004">
@@ -55040,11 +54830,11 @@
       </c>
       <c r="C35" s="2">
         <f>(SUMPRODUCT(最終エネルギー消費!C21:F21,EPT!$B$3:$E$3)+最終エネルギー消費!G21*EPT!$F$3*C21/$C$19)/GDP・POP!G32*10^9/10^6</f>
-        <v>76.570339720997595</v>
+        <v>76.564977227166807</v>
       </c>
       <c r="D35" s="2">
         <f>(SUMPRODUCT(最終エネルギー消費!H21:K21,EPT!$B$3:$E$3)+最終エネルギー消費!L21*EPT!$F$3*D21/$D$19)/GDP・POP!H32*10^9/10^6</f>
-        <v>76.570339720997595</v>
+        <v>76.564977227166807</v>
       </c>
     </row>
     <row r="36" spans="1:4" x14ac:dyDescent="0.55000000000000004">
@@ -55482,35 +55272,35 @@
       </c>
       <c r="C8" s="9">
         <f>最終エネルギー消費!C8*EMF!$A$2</f>
-        <v>3.973198793248256E-3</v>
+        <v>3.9731987932482516E-3</v>
       </c>
       <c r="E8">
         <f>最終エネルギー消費!D8*EMF!$C$2</f>
-        <v>248.7831066388554</v>
+        <v>248.78310663885517</v>
       </c>
       <c r="G8">
         <f>最終エネルギー消費!E8*EMF!$E$2</f>
-        <v>0.23567602841977606</v>
+        <v>0.23567602841977586</v>
       </c>
       <c r="P8" s="3">
         <f t="shared" ref="P8" si="4">SUM(C8:O8)</f>
-        <v>249.02275586606845</v>
+        <v>249.02275586606822</v>
       </c>
       <c r="Q8" s="9">
         <f>最終エネルギー消費!H8*EMF!$A$2</f>
-        <v>3.973198793248256E-3</v>
+        <v>3.9731987932482516E-3</v>
       </c>
       <c r="S8">
         <f>最終エネルギー消費!I8*EMF!$C$2</f>
-        <v>248.7831066388554</v>
+        <v>248.78310663885517</v>
       </c>
       <c r="U8">
         <f>最終エネルギー消費!J8*EMF!$E$2</f>
-        <v>0.23567602841977606</v>
+        <v>0.23567602841977586</v>
       </c>
       <c r="AD8" s="3">
         <f t="shared" ref="AD8" si="5">SUM(Q8:AC8)</f>
-        <v>249.02275586606845</v>
+        <v>249.02275586606822</v>
       </c>
     </row>
     <row r="9" spans="1:30" x14ac:dyDescent="0.55000000000000004">
@@ -55520,35 +55310,35 @@
       </c>
       <c r="C9" s="9">
         <f>最終エネルギー消費!C9*EMF!$A$2</f>
-        <v>3.4056013022136823E-3</v>
+        <v>3.4056013022136728E-3</v>
       </c>
       <c r="E9">
         <f>最終エネルギー消費!D9*EMF!$C$2</f>
-        <v>196.0930523809019</v>
+        <v>196.09305238090133</v>
       </c>
       <c r="G9">
         <f>最終エネルギー消費!E9*EMF!$E$2</f>
-        <v>5.9634322802619794E-2</v>
+        <v>5.963432280261962E-2</v>
       </c>
       <c r="P9" s="3">
         <f t="shared" si="2"/>
-        <v>196.15609230500672</v>
+        <v>196.15609230500615</v>
       </c>
       <c r="Q9" s="9">
         <f>最終エネルギー消費!H9*EMF!$A$2</f>
-        <v>3.4056013022136823E-3</v>
+        <v>3.4056013022136728E-3</v>
       </c>
       <c r="S9">
         <f>最終エネルギー消費!I9*EMF!$C$2</f>
-        <v>196.0930523809019</v>
+        <v>196.09305238090133</v>
       </c>
       <c r="U9">
         <f>最終エネルギー消費!J9*EMF!$E$2</f>
-        <v>5.9634322802619794E-2</v>
+        <v>5.963432280261962E-2</v>
       </c>
       <c r="AD9" s="3">
         <f t="shared" si="3"/>
-        <v>196.15609230500672</v>
+        <v>196.15609230500615</v>
       </c>
     </row>
     <row r="10" spans="1:30" x14ac:dyDescent="0.55000000000000004">
@@ -55558,35 +55348,35 @@
       </c>
       <c r="C10" s="9">
         <f>最終エネルギー消費!C10*EMF!$A$2</f>
-        <v>2.1733810599703861E-3</v>
+        <v>2.3405323717412196E-3</v>
       </c>
       <c r="E10">
         <f>最終エネルギー消費!D10*EMF!$C$2</f>
-        <v>187.79454272989946</v>
+        <v>202.23752502088084</v>
       </c>
       <c r="G10">
         <f>最終エネルギー消費!E10*EMF!$E$2</f>
-        <v>3.8057334432873416E-2</v>
+        <v>4.0984264040442003E-2</v>
       </c>
       <c r="P10" s="3">
         <f t="shared" si="2"/>
-        <v>187.8347734453923</v>
+        <v>202.28084981729302</v>
       </c>
       <c r="Q10" s="9">
         <f>最終エネルギー消費!H10*EMF!$A$2</f>
-        <v>2.1733810599703861E-3</v>
+        <v>2.3405323717412196E-3</v>
       </c>
       <c r="S10">
         <f>最終エネルギー消費!I10*EMF!$C$2</f>
-        <v>187.79454272989946</v>
+        <v>202.23752502088084</v>
       </c>
       <c r="U10">
         <f>最終エネルギー消費!J10*EMF!$E$2</f>
-        <v>3.8057334432873416E-2</v>
+        <v>4.0984264040442003E-2</v>
       </c>
       <c r="AD10" s="3">
         <f t="shared" si="3"/>
-        <v>187.8347734453923</v>
+        <v>202.28084981729302</v>
       </c>
     </row>
     <row r="11" spans="1:30" x14ac:dyDescent="0.55000000000000004">
@@ -55596,35 +55386,35 @@
       </c>
       <c r="C11" s="9">
         <f>最終エネルギー消費!C11*EMF!$A$2</f>
-        <v>1.0381806258991618E-3</v>
+        <v>1.1978702971402236E-3</v>
       </c>
       <c r="E11">
         <f>最終エネルギー消費!D11*EMF!$C$2</f>
-        <v>179.48879886305065</v>
+        <v>207.09720010543484</v>
       </c>
       <c r="G11">
         <f>最終エネルギー消費!E11*EMF!$E$2</f>
-        <v>1.8179226832000003E-2</v>
+        <v>2.0975498197307433E-2</v>
       </c>
       <c r="P11" s="3">
         <f t="shared" si="2"/>
-        <v>179.50801627050853</v>
+        <v>207.1193734739293</v>
       </c>
       <c r="Q11" s="9">
         <f>最終エネルギー消費!H11*EMF!$A$2</f>
-        <v>1.0381806258991618E-3</v>
+        <v>1.1978702971402236E-3</v>
       </c>
       <c r="S11">
         <f>最終エネルギー消費!I11*EMF!$C$2</f>
-        <v>179.48879886305065</v>
+        <v>207.09720010543484</v>
       </c>
       <c r="U11">
         <f>最終エネルギー消費!J11*EMF!$E$2</f>
-        <v>1.8179226832000003E-2</v>
+        <v>2.0975498197307433E-2</v>
       </c>
       <c r="AD11" s="3">
         <f t="shared" si="3"/>
-        <v>179.50801627050853</v>
+        <v>207.1193734739293</v>
       </c>
     </row>
     <row r="12" spans="1:30" x14ac:dyDescent="0.55000000000000004">
@@ -55638,7 +55428,7 @@
       </c>
       <c r="E12">
         <f>最終エネルギー消費!D12*EMF!$C$2</f>
-        <v>171.17582078035531</v>
+        <v>210.67040851814829</v>
       </c>
       <c r="G12">
         <f>最終エネルギー消費!E12*EMF!$E$2</f>
@@ -55646,7 +55436,7 @@
       </c>
       <c r="P12" s="3">
         <f t="shared" si="2"/>
-        <v>171.17582078035531</v>
+        <v>210.67040851814829</v>
       </c>
       <c r="Q12" s="9">
         <f>最終エネルギー消費!H12*EMF!$A$2</f>
@@ -55654,7 +55444,7 @@
       </c>
       <c r="S12">
         <f>最終エネルギー消費!I12*EMF!$C$2</f>
-        <v>171.17582078035531</v>
+        <v>210.67040851814829</v>
       </c>
       <c r="U12">
         <f>最終エネルギー消費!J12*EMF!$E$2</f>
@@ -55662,7 +55452,7 @@
       </c>
       <c r="AD12" s="3">
         <f t="shared" si="3"/>
-        <v>171.17582078035531</v>
+        <v>210.67040851814829</v>
       </c>
     </row>
     <row r="13" spans="1:30" x14ac:dyDescent="0.55000000000000004">
@@ -56266,7 +56056,7 @@
       </c>
       <c r="C25" s="9">
         <f>発電電力量!B5/eELE!B$12*EMF!A$2</f>
-        <v>275.72993545534962</v>
+        <v>276.07931782378307</v>
       </c>
       <c r="D25">
         <f>発電電力量!C5/eELE!C$12*EMF!B$2</f>
@@ -56274,7 +56064,7 @@
       </c>
       <c r="E25">
         <f>発電電力量!D5/eELE!D$12*EMF!C$2</f>
-        <v>28.205416647264371</v>
+        <v>28.241156238812895</v>
       </c>
       <c r="F25">
         <f>発電電力量!E5/eELE!E$12*EMF!D$2</f>
@@ -56282,7 +56072,7 @@
       </c>
       <c r="G25">
         <f>発電電力量!F5/eELE!F$12*EMF!E$2</f>
-        <v>164.57078001146161</v>
+        <v>164.77931061152287</v>
       </c>
       <c r="H25">
         <f>発電電力量!G5/eELE!G$12*EMF!F$2</f>
@@ -56318,11 +56108,11 @@
       </c>
       <c r="P25" s="3">
         <f t="shared" si="2"/>
-        <v>468.50613211407563</v>
+        <v>469.09978467411884</v>
       </c>
       <c r="Q25" s="9">
         <f>発電電力量!O5/eELE!B$12*EMF!A$2</f>
-        <v>275.72993545534962</v>
+        <v>276.07931782378307</v>
       </c>
       <c r="R25">
         <f>発電電力量!P5/eELE!C$12*EMF!B$2</f>
@@ -56330,7 +56120,7 @@
       </c>
       <c r="S25">
         <f>発電電力量!Q5/eELE!D$12*EMF!C$2</f>
-        <v>28.205416647264371</v>
+        <v>28.241156238812895</v>
       </c>
       <c r="T25">
         <f>発電電力量!R5/eELE!E$12*EMF!D$2</f>
@@ -56338,7 +56128,7 @@
       </c>
       <c r="U25">
         <f>発電電力量!S5/eELE!F$12*EMF!E$2</f>
-        <v>164.57078001146161</v>
+        <v>164.77931061152287</v>
       </c>
       <c r="V25">
         <f>発電電力量!T5/eELE!G$12*EMF!F$2</f>
@@ -56374,7 +56164,7 @@
       </c>
       <c r="AD25" s="3">
         <f t="shared" si="3"/>
-        <v>468.50613211407563</v>
+        <v>469.09978467411884</v>
       </c>
     </row>
     <row r="26" spans="1:30" x14ac:dyDescent="0.55000000000000004">
@@ -56384,7 +56174,7 @@
       </c>
       <c r="C26" s="9">
         <f>発電電力量!B6/eELE!B$12*EMF!A$2</f>
-        <v>282.64742426771545</v>
+        <v>283.27499396012308</v>
       </c>
       <c r="D26">
         <f>発電電力量!C6/eELE!C$12*EMF!B$2</f>
@@ -56392,7 +56182,7 @@
       </c>
       <c r="E26">
         <f>発電電力量!D6/eELE!D$12*EMF!C$2</f>
-        <v>28.361095625881191</v>
+        <v>28.424066530726304</v>
       </c>
       <c r="F26">
         <f>発電電力量!E6/eELE!E$12*EMF!D$2</f>
@@ -56400,7 +56190,7 @@
       </c>
       <c r="G26">
         <f>発電電力量!F6/eELE!F$12*EMF!E$2</f>
-        <v>169.61037659785706</v>
+        <v>169.98696708739166</v>
       </c>
       <c r="H26">
         <f>発電電力量!G6/eELE!G$12*EMF!F$2</f>
@@ -56436,11 +56226,11 @@
       </c>
       <c r="P26" s="3">
         <f t="shared" si="2"/>
-        <v>480.61889649145371</v>
+        <v>481.68602757824101</v>
       </c>
       <c r="Q26" s="9">
         <f>発電電力量!O6/eELE!B$12*EMF!A$2</f>
-        <v>282.64742426771545</v>
+        <v>283.27499396012308</v>
       </c>
       <c r="R26">
         <f>発電電力量!P6/eELE!C$12*EMF!B$2</f>
@@ -56448,7 +56238,7 @@
       </c>
       <c r="S26">
         <f>発電電力量!Q6/eELE!D$12*EMF!C$2</f>
-        <v>28.361095625881191</v>
+        <v>28.424066530726304</v>
       </c>
       <c r="T26">
         <f>発電電力量!R6/eELE!E$12*EMF!D$2</f>
@@ -56456,7 +56246,7 @@
       </c>
       <c r="U26">
         <f>発電電力量!S6/eELE!F$12*EMF!E$2</f>
-        <v>169.61037659785706</v>
+        <v>169.98696708739166</v>
       </c>
       <c r="V26">
         <f>発電電力量!T6/eELE!G$12*EMF!F$2</f>
@@ -56492,7 +56282,7 @@
       </c>
       <c r="AD26" s="3">
         <f t="shared" si="3"/>
-        <v>480.61889649145371</v>
+        <v>481.68602757824101</v>
       </c>
     </row>
     <row r="27" spans="1:30" x14ac:dyDescent="0.55000000000000004">
@@ -56502,7 +56292,7 @@
       </c>
       <c r="C27" s="9">
         <f>発電電力量!B7/eELE!B$12*EMF!A$2</f>
-        <v>290.94206044438465</v>
+        <v>291.78262419030705</v>
       </c>
       <c r="D27">
         <f>発電電力量!C7/eELE!C$12*EMF!B$2</f>
@@ -56510,7 +56300,7 @@
       </c>
       <c r="E27">
         <f>発電電力量!D7/eELE!D$12*EMF!C$2</f>
-        <v>28.621066463337215</v>
+        <v>28.703755885423433</v>
       </c>
       <c r="F27">
         <f>発電電力量!E7/eELE!E$12*EMF!D$2</f>
@@ -56518,7 +56308,7 @@
       </c>
       <c r="G27">
         <f>発電電力量!F7/eELE!F$12*EMF!E$2</f>
-        <v>175.53230087979921</v>
+        <v>176.03943308382827</v>
       </c>
       <c r="H27">
         <f>発電電力量!G7/eELE!G$12*EMF!F$2</f>
@@ -56554,11 +56344,11 @@
       </c>
       <c r="P27" s="3">
         <f t="shared" si="2"/>
-        <v>495.09542778752109</v>
+        <v>496.52581315955877</v>
       </c>
       <c r="Q27" s="9">
         <f>発電電力量!O7/eELE!B$12*EMF!A$2</f>
-        <v>290.94206044438465</v>
+        <v>291.78262419030705</v>
       </c>
       <c r="R27">
         <f>発電電力量!P7/eELE!C$12*EMF!B$2</f>
@@ -56566,7 +56356,7 @@
       </c>
       <c r="S27">
         <f>発電電力量!Q7/eELE!D$12*EMF!C$2</f>
-        <v>28.621066463337215</v>
+        <v>28.703755885423433</v>
       </c>
       <c r="T27">
         <f>発電電力量!R7/eELE!E$12*EMF!D$2</f>
@@ -56574,7 +56364,7 @@
       </c>
       <c r="U27">
         <f>発電電力量!S7/eELE!F$12*EMF!E$2</f>
-        <v>175.53230087979921</v>
+        <v>176.03943308382827</v>
       </c>
       <c r="V27">
         <f>発電電力量!T7/eELE!G$12*EMF!F$2</f>
@@ -56610,7 +56400,7 @@
       </c>
       <c r="AD27" s="3">
         <f t="shared" si="3"/>
-        <v>495.09542778752109</v>
+        <v>496.52581315955877</v>
       </c>
     </row>
     <row r="28" spans="1:30" x14ac:dyDescent="0.55000000000000004">
@@ -56876,7 +56666,7 @@
       </c>
       <c r="E43">
         <f t="shared" si="10"/>
-        <v>444.43031598097127</v>
+        <v>444.43031598097105</v>
       </c>
       <c r="F43">
         <f t="shared" si="10"/>
@@ -56920,7 +56710,7 @@
       </c>
       <c r="P43" s="3">
         <f t="shared" si="10"/>
-        <v>1070.7741439646547</v>
+        <v>1070.7741439646545</v>
       </c>
       <c r="Q43" s="9">
         <f t="shared" si="10"/>
@@ -56932,7 +56722,7 @@
       </c>
       <c r="S43">
         <f t="shared" si="10"/>
-        <v>444.43031598097127</v>
+        <v>444.43031598097105</v>
       </c>
       <c r="T43">
         <f t="shared" si="10"/>
@@ -56976,7 +56766,7 @@
       </c>
       <c r="AD43" s="3">
         <f>SUM(AD3,AD8,AD13,AD18,AD23,AD28,AD33,AD38)</f>
-        <v>1070.7741439646547</v>
+        <v>1070.7741439646545</v>
       </c>
     </row>
     <row r="44" spans="1:30" x14ac:dyDescent="0.55000000000000004">
@@ -56994,7 +56784,7 @@
       </c>
       <c r="E44">
         <f t="shared" si="11"/>
-        <v>350.63335158894984</v>
+        <v>350.63335158894927</v>
       </c>
       <c r="F44">
         <f t="shared" si="11"/>
@@ -57038,7 +56828,7 @@
       </c>
       <c r="P44" s="3">
         <f t="shared" si="11"/>
-        <v>978.76242648442167</v>
+        <v>978.76242648442098</v>
       </c>
       <c r="Q44" s="9">
         <f t="shared" si="11"/>
@@ -57050,7 +56840,7 @@
       </c>
       <c r="S44">
         <f t="shared" si="11"/>
-        <v>350.63335158894984</v>
+        <v>350.63335158894927</v>
       </c>
       <c r="T44">
         <f t="shared" si="11"/>
@@ -57094,7 +56884,7 @@
       </c>
       <c r="AD44" s="3">
         <f t="shared" si="11"/>
-        <v>978.76242648442167</v>
+        <v>978.76242648442098</v>
       </c>
     </row>
     <row r="45" spans="1:30" x14ac:dyDescent="0.55000000000000004">
@@ -57104,7 +56894,7 @@
       </c>
       <c r="C45" s="9">
         <f t="shared" ref="C45:AD45" si="12">SUM(C5,C10,C15,C20,C25,C30,C35,C40)</f>
-        <v>418.84451795754853</v>
+        <v>419.19406747729374</v>
       </c>
       <c r="D45">
         <f t="shared" si="12"/>
@@ -57112,7 +56902,7 @@
       </c>
       <c r="E45">
         <f t="shared" si="12"/>
-        <v>349.56473889697168</v>
+        <v>364.04346077950157</v>
       </c>
       <c r="F45">
         <f t="shared" si="12"/>
@@ -57120,7 +56910,7 @@
       </c>
       <c r="G45">
         <f t="shared" si="12"/>
-        <v>230.40579809022177</v>
+        <v>230.61725561989061</v>
       </c>
       <c r="H45">
         <f t="shared" si="12"/>
@@ -57156,11 +56946,11 @@
       </c>
       <c r="P45" s="3">
         <f t="shared" si="12"/>
-        <v>1007.4537582833925</v>
+        <v>1022.4934872153367</v>
       </c>
       <c r="Q45" s="9">
         <f t="shared" si="12"/>
-        <v>418.84451795754853</v>
+        <v>419.19406747729374</v>
       </c>
       <c r="R45">
         <f t="shared" si="12"/>
@@ -57168,7 +56958,7 @@
       </c>
       <c r="S45">
         <f t="shared" si="12"/>
-        <v>349.56473889697168</v>
+        <v>364.04346077950157</v>
       </c>
       <c r="T45">
         <f t="shared" si="12"/>
@@ -57176,7 +56966,7 @@
       </c>
       <c r="U45">
         <f t="shared" si="12"/>
-        <v>230.40579809022177</v>
+        <v>230.61725561989061</v>
       </c>
       <c r="V45">
         <f t="shared" si="12"/>
@@ -57212,7 +57002,7 @@
       </c>
       <c r="AD45" s="3">
         <f t="shared" si="12"/>
-        <v>1007.4537582833925</v>
+        <v>1022.4934872153367</v>
       </c>
     </row>
     <row r="46" spans="1:30" x14ac:dyDescent="0.55000000000000004">
@@ -57222,7 +57012,7 @@
       </c>
       <c r="C46" s="9">
         <f t="shared" ref="C46:AD46" si="13">SUM(C6,C11,C16,C21,C26,C31,C36,C41)</f>
-        <v>436.02926158607056</v>
+        <v>436.65699096814944</v>
       </c>
       <c r="D46">
         <f t="shared" si="13"/>
@@ -57230,7 +57020,7 @@
       </c>
       <c r="E46">
         <f t="shared" si="13"/>
-        <v>346.34304408493142</v>
+        <v>374.01441623216073</v>
       </c>
       <c r="F46">
         <f t="shared" si="13"/>
@@ -57238,7 +57028,7 @@
       </c>
       <c r="G46">
         <f t="shared" si="13"/>
-        <v>237.77629228488993</v>
+        <v>238.15567904578984</v>
       </c>
       <c r="H46">
         <f t="shared" si="13"/>
@@ -57274,11 +57064,11 @@
       </c>
       <c r="P46" s="3">
         <f t="shared" si="13"/>
-        <v>1026.3482276252621</v>
+        <v>1055.0267159154703</v>
       </c>
       <c r="Q46" s="9">
         <f t="shared" si="13"/>
-        <v>436.02926158607056</v>
+        <v>436.65699096814944</v>
       </c>
       <c r="R46">
         <f t="shared" si="13"/>
@@ -57286,7 +57076,7 @@
       </c>
       <c r="S46">
         <f t="shared" si="13"/>
-        <v>346.34304408493142</v>
+        <v>374.01441623216073</v>
       </c>
       <c r="T46">
         <f t="shared" si="13"/>
@@ -57294,7 +57084,7 @@
       </c>
       <c r="U46">
         <f t="shared" si="13"/>
-        <v>237.77629228488993</v>
+        <v>238.15567904578984</v>
       </c>
       <c r="V46">
         <f t="shared" si="13"/>
@@ -57330,7 +57120,7 @@
       </c>
       <c r="AD46" s="3">
         <f t="shared" si="13"/>
-        <v>1026.3482276252621</v>
+        <v>1055.0267159154703</v>
       </c>
     </row>
     <row r="47" spans="1:30" x14ac:dyDescent="0.55000000000000004">
@@ -57340,7 +57130,7 @@
       </c>
       <c r="C47" s="8">
         <f t="shared" ref="C47:AD47" si="14">SUM(C7,C12,C17,C22,C27,C32,C37,C42)</f>
-        <v>454.60583913063715</v>
+        <v>455.44640287655955</v>
       </c>
       <c r="D47" s="5">
         <f t="shared" si="14"/>
@@ -57348,7 +57138,7 @@
       </c>
       <c r="E47" s="5">
         <f t="shared" si="14"/>
-        <v>343.84708275893445</v>
+        <v>383.42435991881359</v>
       </c>
       <c r="F47" s="5">
         <f t="shared" si="14"/>
@@ -57356,7 +57146,7 @@
       </c>
       <c r="G47" s="5">
         <f t="shared" si="14"/>
-        <v>246.39492275272923</v>
+        <v>246.90205495675829</v>
       </c>
       <c r="H47" s="5">
         <f t="shared" si="14"/>
@@ -57392,11 +57182,11 @@
       </c>
       <c r="P47" s="6">
         <f t="shared" si="14"/>
-        <v>1048.6084006423907</v>
+        <v>1089.5333737522215</v>
       </c>
       <c r="Q47" s="8">
         <f t="shared" si="14"/>
-        <v>454.60583913063715</v>
+        <v>455.44640287655955</v>
       </c>
       <c r="R47" s="5">
         <f t="shared" si="14"/>
@@ -57404,7 +57194,7 @@
       </c>
       <c r="S47" s="5">
         <f t="shared" si="14"/>
-        <v>343.84708275893445</v>
+        <v>383.42435991881359</v>
       </c>
       <c r="T47" s="5">
         <f t="shared" si="14"/>
@@ -57412,7 +57202,7 @@
       </c>
       <c r="U47" s="5">
         <f t="shared" si="14"/>
-        <v>246.39492275272923</v>
+        <v>246.90205495675829</v>
       </c>
       <c r="V47" s="5">
         <f t="shared" si="14"/>
@@ -57448,7 +57238,7 @@
       </c>
       <c r="AD47" s="6">
         <f t="shared" si="14"/>
-        <v>1048.6084006423907</v>
+        <v>1089.5333737522215</v>
       </c>
     </row>
   </sheetData>

--- a/xlsx/model2.xlsx
+++ b/xlsx/model2.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\R\TA_model\xlsx\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{80943849-0DB1-4F03-BD08-C61350349089}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{49B21015-0D72-4049-BFDB-68D475793328}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="16950" yWindow="-16320" windowWidth="29040" windowHeight="15720" tabRatio="878" xr2:uid="{BCC5EA96-140E-4D1F-AEAE-F8AA11DA45EB}"/>
+    <workbookView xWindow="-21540" yWindow="-21720" windowWidth="38640" windowHeight="21120" tabRatio="878" xr2:uid="{BCC5EA96-140E-4D1F-AEAE-F8AA11DA45EB}"/>
   </bookViews>
   <sheets>
     <sheet name="シナリオ" sheetId="1" r:id="rId1"/>
@@ -1410,13 +1410,67 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="179" fontId="0" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="179" fontId="0" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="179" fontId="0" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="180" fontId="0" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
@@ -1443,13 +1497,13 @@
     <xf numFmtId="180" fontId="0" fillId="2" borderId="9" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="1" fontId="0" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="1" fontId="0" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="1" fontId="0" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="7" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1512,68 +1566,14 @@
     <xf numFmtId="0" fontId="4" fillId="6" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="179" fontId="0" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="179" fontId="0" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="179" fontId="0" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1616,7 +1616,1539 @@
     <cellStyle name="標準" xfId="0" builtinId="0"/>
     <cellStyle name="標準 2" xfId="1" xr:uid="{70DD43AA-AD5B-4D12-80B7-1D771529C2C7}"/>
   </cellStyles>
-  <dxfs count="10">
+  <dxfs count="186">
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="8" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="8" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="7" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="8" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="8" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="7" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color auto="1"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color auto="1"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color auto="1"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color auto="1"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color auto="1"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color auto="1"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color auto="1"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color auto="1"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color auto="1"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color auto="1"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="8" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="8" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="8" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="7" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="8" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="8" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="7" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color auto="1"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color auto="1"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color auto="1"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color auto="1"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color auto="1"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color auto="1"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color auto="1"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color auto="1"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color auto="1"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color auto="1"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="8" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="7" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="8" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="8" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="7" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color auto="1"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color auto="1"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color auto="1"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color auto="1"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color auto="1"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color auto="1"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color auto="1"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color auto="1"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color auto="1"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color auto="1"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="7" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="8" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="8" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="7" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color auto="1"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color auto="1"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color auto="1"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color auto="1"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color auto="1"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color auto="1"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color auto="1"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color auto="1"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color auto="1"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color auto="1"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="7" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="8" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="8" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="7" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color auto="1"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color auto="1"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color auto="1"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color auto="1"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color auto="1"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color auto="1"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color auto="1"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color auto="1"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color auto="1"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color auto="1"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="8" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="8" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="7" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color auto="1"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color auto="1"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color auto="1"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color auto="1"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color auto="1"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color auto="1"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color auto="1"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color auto="1"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color auto="1"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color auto="1"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="8" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="8" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="7" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color auto="1"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color auto="1"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color auto="1"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color auto="1"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color auto="1"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color auto="1"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color auto="1"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color auto="1"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color auto="1"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color auto="1"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="8" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="8" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="7" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color auto="1"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color auto="1"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color auto="1"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color auto="1"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color auto="1"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color auto="1"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color auto="1"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color auto="1"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color auto="1"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color auto="1"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="4" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="8" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="7" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color auto="1"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color auto="1"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color auto="1"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color auto="1"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color auto="1"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color auto="1"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color auto="1"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color auto="1"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color auto="1"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color auto="1"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color auto="1"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color auto="1"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color auto="1"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color auto="1"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color auto="1"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color auto="1"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color auto="1"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color auto="1"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color auto="1"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color auto="1"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <font>
         <color auto="1"/>
@@ -24509,7 +26041,7 @@
     <sheetView tabSelected="1" zoomScale="67" zoomScaleNormal="70" workbookViewId="0">
       <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="B1" sqref="B1"/>
-      <selection pane="bottomLeft" activeCell="O1" sqref="O1"/>
+      <selection pane="bottomLeft" activeCell="AH16" sqref="AH16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.55000000000000004"/>
@@ -24531,110 +26063,110 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:31" ht="18" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A1" s="133"/>
-      <c r="B1" s="134"/>
-      <c r="C1" s="135"/>
+      <c r="A1" s="151"/>
+      <c r="B1" s="152"/>
+      <c r="C1" s="153"/>
       <c r="D1" s="100" t="s">
         <v>111</v>
       </c>
       <c r="E1" s="101" t="s">
         <v>97</v>
       </c>
-      <c r="F1" s="129" t="s">
-        <v>0</v>
-      </c>
-      <c r="G1" s="130"/>
-      <c r="H1" s="129" t="s">
+      <c r="F1" s="147" t="s">
+        <v>0</v>
+      </c>
+      <c r="G1" s="148"/>
+      <c r="H1" s="147" t="s">
         <v>99</v>
       </c>
-      <c r="I1" s="130"/>
+      <c r="I1" s="148"/>
     </row>
     <row r="2" spans="1:31" ht="17.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A2" s="136"/>
-      <c r="B2" s="137"/>
-      <c r="C2" s="138"/>
+      <c r="A2" s="154"/>
+      <c r="B2" s="155"/>
+      <c r="C2" s="156"/>
       <c r="D2" s="102" t="s">
         <v>100</v>
       </c>
       <c r="E2" s="103" t="s">
         <v>101</v>
       </c>
-      <c r="F2" s="131" t="s">
+      <c r="F2" s="149" t="s">
         <v>101</v>
       </c>
-      <c r="G2" s="132"/>
-      <c r="H2" s="131" t="s">
+      <c r="G2" s="150"/>
+      <c r="H2" s="149" t="s">
         <v>101</v>
       </c>
-      <c r="I2" s="132"/>
+      <c r="I2" s="150"/>
     </row>
     <row r="3" spans="1:31" x14ac:dyDescent="0.55000000000000004">
-      <c r="A3" s="144" t="s">
+      <c r="A3" s="162" t="s">
         <v>110</v>
       </c>
-      <c r="B3" s="146" t="s">
+      <c r="B3" s="164" t="s">
         <v>104</v>
       </c>
-      <c r="C3" s="147"/>
+      <c r="C3" s="165"/>
       <c r="D3" s="96">
         <v>867</v>
       </c>
       <c r="E3" s="97">
         <v>1067</v>
       </c>
-      <c r="F3" s="139">
+      <c r="F3" s="157">
         <f>1067</f>
         <v>1067</v>
       </c>
-      <c r="G3" s="139"/>
-      <c r="H3" s="142">
+      <c r="G3" s="157"/>
+      <c r="H3" s="160">
         <v>1067</v>
       </c>
-      <c r="I3" s="139"/>
+      <c r="I3" s="157"/>
       <c r="J3" s="12"/>
     </row>
     <row r="4" spans="1:31" x14ac:dyDescent="0.55000000000000004">
-      <c r="A4" s="145"/>
-      <c r="B4" s="145" t="s">
+      <c r="A4" s="163"/>
+      <c r="B4" s="163" t="s">
         <v>103</v>
       </c>
-      <c r="C4" s="148"/>
+      <c r="C4" s="166"/>
       <c r="D4" s="98">
         <v>126</v>
       </c>
       <c r="E4" s="46">
         <v>110</v>
       </c>
-      <c r="F4" s="140">
+      <c r="F4" s="158">
         <v>110</v>
       </c>
-      <c r="G4" s="141"/>
-      <c r="H4" s="143">
+      <c r="G4" s="159"/>
+      <c r="H4" s="161">
         <v>110</v>
       </c>
-      <c r="I4" s="141"/>
+      <c r="I4" s="159"/>
       <c r="J4" s="12"/>
-      <c r="Z4" s="162" t="s">
+      <c r="Z4" s="117" t="s">
         <v>107</v>
       </c>
-      <c r="AA4" s="164">
+      <c r="AA4" s="119">
         <v>2010</v>
       </c>
-      <c r="AB4" s="166">
+      <c r="AB4" s="121">
         <v>2020</v>
       </c>
-      <c r="AC4" s="168" t="s">
+      <c r="AC4" s="123" t="s">
         <v>106</v>
       </c>
-      <c r="AD4" s="162" t="s">
+      <c r="AD4" s="117" t="s">
         <v>92</v>
       </c>
-      <c r="AE4" s="160" t="s">
+      <c r="AE4" s="115" t="s">
         <v>93</v>
       </c>
     </row>
     <row r="5" spans="1:31" ht="18" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A5" s="149" t="s">
+      <c r="A5" s="125" t="s">
         <v>1</v>
       </c>
       <c r="B5" s="60" t="s">
@@ -24647,23 +26179,23 @@
       <c r="E5" s="92">
         <v>1</v>
       </c>
-      <c r="F5" s="118">
+      <c r="F5" s="136">
         <v>1</v>
       </c>
-      <c r="G5" s="119"/>
-      <c r="H5" s="118">
+      <c r="G5" s="137"/>
+      <c r="H5" s="136">
         <v>1</v>
       </c>
-      <c r="I5" s="119"/>
-      <c r="Z5" s="163"/>
-      <c r="AA5" s="165"/>
-      <c r="AB5" s="167"/>
-      <c r="AC5" s="169"/>
-      <c r="AD5" s="163"/>
-      <c r="AE5" s="161"/>
+      <c r="I5" s="137"/>
+      <c r="Z5" s="118"/>
+      <c r="AA5" s="120"/>
+      <c r="AB5" s="122"/>
+      <c r="AC5" s="124"/>
+      <c r="AD5" s="118"/>
+      <c r="AE5" s="116"/>
     </row>
     <row r="6" spans="1:31" x14ac:dyDescent="0.55000000000000004">
-      <c r="A6" s="150"/>
+      <c r="A6" s="126"/>
       <c r="B6" s="61" t="s">
         <v>3</v>
       </c>
@@ -24674,14 +26206,14 @@
       <c r="E6" s="93">
         <v>1</v>
       </c>
-      <c r="F6" s="120">
+      <c r="F6" s="138">
         <v>1</v>
       </c>
-      <c r="G6" s="121"/>
-      <c r="H6" s="120">
+      <c r="G6" s="139"/>
+      <c r="H6" s="138">
         <v>1</v>
       </c>
-      <c r="I6" s="121"/>
+      <c r="I6" s="139"/>
       <c r="Z6" s="64" t="s">
         <v>2</v>
       </c>
@@ -24694,7 +26226,7 @@
         <v>209.4235083709562</v>
       </c>
       <c r="AC6" s="50">
-        <v>260.0874978982107</v>
+        <v>260.01618074402859</v>
       </c>
       <c r="AD6" s="56">
         <f>CO2排出量!E2</f>
@@ -24706,7 +26238,7 @@
       </c>
     </row>
     <row r="7" spans="1:31" x14ac:dyDescent="0.55000000000000004">
-      <c r="A7" s="150"/>
+      <c r="A7" s="126"/>
       <c r="B7" s="62" t="s">
         <v>4</v>
       </c>
@@ -24717,14 +26249,14 @@
       <c r="E7" s="92">
         <v>1</v>
       </c>
-      <c r="F7" s="122">
+      <c r="F7" s="140">
         <v>1</v>
       </c>
-      <c r="G7" s="123"/>
-      <c r="H7" s="122">
+      <c r="G7" s="141"/>
+      <c r="H7" s="140">
         <v>1</v>
       </c>
-      <c r="I7" s="123"/>
+      <c r="I7" s="141"/>
       <c r="Z7" s="99" t="s">
         <v>3</v>
       </c>
@@ -24737,7 +26269,7 @@
         <v>196.15609230500672</v>
       </c>
       <c r="AC7" s="49">
-        <v>170.85614782291859</v>
+        <v>210.67040851814829</v>
       </c>
       <c r="AD7" s="57">
         <f>CO2排出量!E3</f>
@@ -24749,7 +26281,7 @@
       </c>
     </row>
     <row r="8" spans="1:31" x14ac:dyDescent="0.55000000000000004">
-      <c r="A8" s="151"/>
+      <c r="A8" s="127"/>
       <c r="B8" s="63" t="s">
         <v>5</v>
       </c>
@@ -24760,14 +26292,14 @@
       <c r="E8" s="94">
         <v>1</v>
       </c>
-      <c r="F8" s="124">
+      <c r="F8" s="142">
         <v>1</v>
       </c>
-      <c r="G8" s="125"/>
-      <c r="H8" s="124">
+      <c r="G8" s="143"/>
+      <c r="H8" s="142">
         <v>1</v>
       </c>
-      <c r="I8" s="125"/>
+      <c r="I8" s="143"/>
       <c r="Z8" s="65" t="s">
         <v>4</v>
       </c>
@@ -24780,7 +26312,7 @@
         <v>52.883709709806709</v>
       </c>
       <c r="AC8" s="48">
-        <v>66.050585543114778</v>
+        <v>66.032474177397248</v>
       </c>
       <c r="AD8" s="58">
         <f>CO2排出量!E4</f>
@@ -24792,10 +26324,10 @@
       </c>
     </row>
     <row r="9" spans="1:31" x14ac:dyDescent="0.55000000000000004">
-      <c r="A9" s="152" t="s">
+      <c r="A9" s="128" t="s">
         <v>25</v>
       </c>
-      <c r="B9" s="115" t="s">
+      <c r="B9" s="144" t="s">
         <v>2</v>
       </c>
       <c r="C9" s="39" t="s">
@@ -24810,14 +26342,14 @@
       <c r="F9" s="68">
         <v>24</v>
       </c>
-      <c r="G9" s="157">
+      <c r="G9" s="133">
         <f>SUM(F9:F13)</f>
         <v>100</v>
       </c>
       <c r="H9" s="85">
         <v>24</v>
       </c>
-      <c r="I9" s="126">
+      <c r="I9" s="167">
         <f>SUM(H9:H13)</f>
         <v>100</v>
       </c>
@@ -24834,7 +26366,7 @@
         <v>52.883709709806709</v>
       </c>
       <c r="AC9" s="49">
-        <v>52.429844574755819</v>
+        <v>52.527941152998537</v>
       </c>
       <c r="AD9" s="57">
         <f>CO2排出量!E5</f>
@@ -24846,8 +26378,8 @@
       </c>
     </row>
     <row r="10" spans="1:31" x14ac:dyDescent="0.55000000000000004">
-      <c r="A10" s="153"/>
-      <c r="B10" s="116"/>
+      <c r="A10" s="129"/>
+      <c r="B10" s="145"/>
       <c r="C10" s="40" t="s">
         <v>8</v>
       </c>
@@ -24860,11 +26392,11 @@
       <c r="F10" s="69">
         <v>22</v>
       </c>
-      <c r="G10" s="157"/>
+      <c r="G10" s="133"/>
       <c r="H10" s="86">
         <v>22</v>
       </c>
-      <c r="I10" s="127"/>
+      <c r="I10" s="168"/>
       <c r="J10" s="2"/>
       <c r="Z10" s="65" t="s">
         <v>30</v>
@@ -24878,7 +26410,7 @@
         <v>449.00553720294573</v>
       </c>
       <c r="AC10" s="48">
-        <v>494.97455561161689</v>
+        <v>496.52581315955877</v>
       </c>
       <c r="AD10" s="58">
         <f>CO2排出量!E6</f>
@@ -24890,8 +26422,8 @@
       </c>
     </row>
     <row r="11" spans="1:31" ht="20" x14ac:dyDescent="0.55000000000000004">
-      <c r="A11" s="153"/>
-      <c r="B11" s="116"/>
+      <c r="A11" s="129"/>
+      <c r="B11" s="145"/>
       <c r="C11" s="41" t="s">
         <v>9</v>
       </c>
@@ -24904,11 +26436,11 @@
       <c r="F11" s="68">
         <v>14.000000000000002</v>
       </c>
-      <c r="G11" s="157"/>
+      <c r="G11" s="133"/>
       <c r="H11" s="85">
         <v>14.000000000000002</v>
       </c>
-      <c r="I11" s="127"/>
+      <c r="I11" s="168"/>
       <c r="J11" s="2"/>
       <c r="Z11" s="99" t="s">
         <v>112</v>
@@ -24922,7 +26454,7 @@
         <v>25.99212785621209</v>
       </c>
       <c r="AC11" s="49">
-        <v>22.617687534623279</v>
+        <v>22.660005374260319</v>
       </c>
       <c r="AD11" s="57">
         <f>CO2排出量!E7</f>
@@ -24934,8 +26466,8 @@
       </c>
     </row>
     <row r="12" spans="1:31" ht="20" x14ac:dyDescent="0.55000000000000004">
-      <c r="A12" s="153"/>
-      <c r="B12" s="116"/>
+      <c r="A12" s="129"/>
+      <c r="B12" s="145"/>
       <c r="C12" s="40" t="s">
         <v>10</v>
       </c>
@@ -24948,11 +26480,11 @@
       <c r="F12" s="69">
         <v>4</v>
       </c>
-      <c r="G12" s="157"/>
+      <c r="G12" s="133"/>
       <c r="H12" s="86">
         <v>4</v>
       </c>
-      <c r="I12" s="127"/>
+      <c r="I12" s="168"/>
       <c r="J12" s="2"/>
       <c r="Z12" s="65" t="s">
         <v>113</v>
@@ -24966,7 +26498,7 @@
         <v>31.085649151718691</v>
       </c>
       <c r="AC12" s="48">
-        <v>27.049940013143782</v>
+        <v>27.100550625829783</v>
       </c>
       <c r="AD12" s="58">
         <f>CO2排出量!E8</f>
@@ -24978,8 +26510,8 @@
       </c>
     </row>
     <row r="13" spans="1:31" ht="20" x14ac:dyDescent="0.55000000000000004">
-      <c r="A13" s="153"/>
-      <c r="B13" s="117"/>
+      <c r="A13" s="129"/>
+      <c r="B13" s="146"/>
       <c r="C13" s="42" t="s">
         <v>11</v>
       </c>
@@ -24992,11 +26524,11 @@
       <c r="F13" s="70">
         <v>36</v>
       </c>
-      <c r="G13" s="158"/>
+      <c r="G13" s="134"/>
       <c r="H13" s="87">
         <v>36</v>
       </c>
-      <c r="I13" s="128"/>
+      <c r="I13" s="169"/>
       <c r="J13" s="2"/>
       <c r="Z13" s="99" t="s">
         <v>114</v>
@@ -25022,8 +26554,8 @@
       </c>
     </row>
     <row r="14" spans="1:31" x14ac:dyDescent="0.55000000000000004">
-      <c r="A14" s="153"/>
-      <c r="B14" s="115" t="s">
+      <c r="A14" s="129"/>
+      <c r="B14" s="144" t="s">
         <v>3</v>
       </c>
       <c r="C14" s="43" t="s">
@@ -25038,14 +26570,14 @@
       <c r="F14" s="71">
         <v>0</v>
       </c>
-      <c r="G14" s="159">
+      <c r="G14" s="135">
         <f t="shared" ref="G14" si="0">SUM(F14:F18)</f>
         <v>100</v>
       </c>
       <c r="H14" s="88">
         <v>0</v>
       </c>
-      <c r="I14" s="126">
+      <c r="I14" s="167">
         <f>SUM(H14:H18)</f>
         <v>100</v>
       </c>
@@ -25062,7 +26594,7 @@
         <v>971.43033430645278</v>
       </c>
       <c r="AC14" s="54">
-        <v>1039.766258998384</v>
+        <v>1089.5333737522215</v>
       </c>
       <c r="AD14" s="59">
         <f>CO2排出量!E10</f>
@@ -25074,8 +26606,8 @@
       </c>
     </row>
     <row r="15" spans="1:31" x14ac:dyDescent="0.55000000000000004">
-      <c r="A15" s="153"/>
-      <c r="B15" s="116"/>
+      <c r="A15" s="129"/>
+      <c r="B15" s="145"/>
       <c r="C15" s="41" t="s">
         <v>8</v>
       </c>
@@ -25088,16 +26620,16 @@
       <c r="F15" s="72">
         <v>97</v>
       </c>
-      <c r="G15" s="157"/>
+      <c r="G15" s="133"/>
       <c r="H15" s="85">
         <v>97</v>
       </c>
-      <c r="I15" s="127"/>
+      <c r="I15" s="168"/>
       <c r="J15" s="2"/>
     </row>
     <row r="16" spans="1:31" x14ac:dyDescent="0.55000000000000004">
-      <c r="A16" s="153"/>
-      <c r="B16" s="116"/>
+      <c r="A16" s="129"/>
+      <c r="B16" s="145"/>
       <c r="C16" s="40" t="s">
         <v>9</v>
       </c>
@@ -25110,16 +26642,16 @@
       <c r="F16" s="73">
         <v>0</v>
       </c>
-      <c r="G16" s="157"/>
+      <c r="G16" s="133"/>
       <c r="H16" s="86">
         <v>0</v>
       </c>
-      <c r="I16" s="127"/>
+      <c r="I16" s="168"/>
       <c r="J16" s="2"/>
     </row>
     <row r="17" spans="1:31" x14ac:dyDescent="0.55000000000000004">
-      <c r="A17" s="153"/>
-      <c r="B17" s="116"/>
+      <c r="A17" s="129"/>
+      <c r="B17" s="145"/>
       <c r="C17" s="41" t="s">
         <v>10</v>
       </c>
@@ -25132,16 +26664,16 @@
       <c r="F17" s="72">
         <v>1</v>
       </c>
-      <c r="G17" s="157"/>
+      <c r="G17" s="133"/>
       <c r="H17" s="85">
         <v>1</v>
       </c>
-      <c r="I17" s="127"/>
+      <c r="I17" s="168"/>
       <c r="J17" s="2"/>
     </row>
     <row r="18" spans="1:31" x14ac:dyDescent="0.55000000000000004">
-      <c r="A18" s="153"/>
-      <c r="B18" s="117"/>
+      <c r="A18" s="129"/>
+      <c r="B18" s="146"/>
       <c r="C18" s="44" t="s">
         <v>11</v>
       </c>
@@ -25154,17 +26686,17 @@
       <c r="F18" s="74">
         <v>2</v>
       </c>
-      <c r="G18" s="158"/>
+      <c r="G18" s="134"/>
       <c r="H18" s="89">
         <v>2</v>
       </c>
-      <c r="I18" s="128"/>
+      <c r="I18" s="169"/>
       <c r="J18" s="2"/>
       <c r="AE18" s="104"/>
     </row>
     <row r="19" spans="1:31" x14ac:dyDescent="0.55000000000000004">
-      <c r="A19" s="153"/>
-      <c r="B19" s="115" t="s">
+      <c r="A19" s="129"/>
+      <c r="B19" s="144" t="s">
         <v>4</v>
       </c>
       <c r="C19" s="39" t="s">
@@ -25179,22 +26711,22 @@
       <c r="F19" s="75">
         <v>0</v>
       </c>
-      <c r="G19" s="159">
+      <c r="G19" s="135">
         <f t="shared" ref="G19" si="1">SUM(F19:F23)</f>
         <v>100</v>
       </c>
       <c r="H19" s="90">
         <v>0</v>
       </c>
-      <c r="I19" s="126">
+      <c r="I19" s="167">
         <f>SUM(H19:H23)</f>
         <v>100</v>
       </c>
       <c r="J19" s="2"/>
     </row>
     <row r="20" spans="1:31" x14ac:dyDescent="0.55000000000000004">
-      <c r="A20" s="153"/>
-      <c r="B20" s="116"/>
+      <c r="A20" s="129"/>
+      <c r="B20" s="145"/>
       <c r="C20" s="40" t="s">
         <v>8</v>
       </c>
@@ -25207,16 +26739,16 @@
       <c r="F20" s="73">
         <v>24</v>
       </c>
-      <c r="G20" s="157"/>
+      <c r="G20" s="133"/>
       <c r="H20" s="86">
         <v>24</v>
       </c>
-      <c r="I20" s="127"/>
+      <c r="I20" s="168"/>
       <c r="J20" s="2"/>
     </row>
     <row r="21" spans="1:31" x14ac:dyDescent="0.55000000000000004">
-      <c r="A21" s="153"/>
-      <c r="B21" s="116"/>
+      <c r="A21" s="129"/>
+      <c r="B21" s="145"/>
       <c r="C21" s="41" t="s">
         <v>9</v>
       </c>
@@ -25229,16 +26761,16 @@
       <c r="F21" s="72">
         <v>16</v>
       </c>
-      <c r="G21" s="157"/>
+      <c r="G21" s="133"/>
       <c r="H21" s="85">
         <v>16</v>
       </c>
-      <c r="I21" s="127"/>
+      <c r="I21" s="168"/>
       <c r="J21" s="2"/>
     </row>
     <row r="22" spans="1:31" x14ac:dyDescent="0.55000000000000004">
-      <c r="A22" s="153"/>
-      <c r="B22" s="116"/>
+      <c r="A22" s="129"/>
+      <c r="B22" s="145"/>
       <c r="C22" s="40" t="s">
         <v>10</v>
       </c>
@@ -25251,16 +26783,16 @@
       <c r="F22" s="73">
         <v>3</v>
       </c>
-      <c r="G22" s="157"/>
+      <c r="G22" s="133"/>
       <c r="H22" s="86">
         <v>3</v>
       </c>
-      <c r="I22" s="127"/>
+      <c r="I22" s="168"/>
       <c r="J22" s="2"/>
     </row>
     <row r="23" spans="1:31" x14ac:dyDescent="0.55000000000000004">
-      <c r="A23" s="153"/>
-      <c r="B23" s="117"/>
+      <c r="A23" s="129"/>
+      <c r="B23" s="146"/>
       <c r="C23" s="42" t="s">
         <v>11</v>
       </c>
@@ -25273,16 +26805,16 @@
       <c r="F23" s="76">
         <v>56.999999999999993</v>
       </c>
-      <c r="G23" s="158"/>
+      <c r="G23" s="134"/>
       <c r="H23" s="87">
         <v>56.999999999999993</v>
       </c>
-      <c r="I23" s="128"/>
+      <c r="I23" s="169"/>
       <c r="J23" s="2"/>
     </row>
     <row r="24" spans="1:31" x14ac:dyDescent="0.55000000000000004">
-      <c r="A24" s="153"/>
-      <c r="B24" s="115" t="s">
+      <c r="A24" s="129"/>
+      <c r="B24" s="144" t="s">
         <v>5</v>
       </c>
       <c r="C24" s="43" t="s">
@@ -25297,22 +26829,22 @@
       <c r="F24" s="71">
         <v>0</v>
       </c>
-      <c r="G24" s="159">
+      <c r="G24" s="135">
         <f t="shared" ref="G24" si="2">SUM(F24:F28)</f>
         <v>100</v>
       </c>
       <c r="H24" s="88">
         <v>0</v>
       </c>
-      <c r="I24" s="126">
+      <c r="I24" s="167">
         <f>SUM(H24:H28)</f>
         <v>100</v>
       </c>
       <c r="J24" s="2"/>
     </row>
     <row r="25" spans="1:31" x14ac:dyDescent="0.55000000000000004">
-      <c r="A25" s="153"/>
-      <c r="B25" s="116"/>
+      <c r="A25" s="129"/>
+      <c r="B25" s="145"/>
       <c r="C25" s="41" t="s">
         <v>8</v>
       </c>
@@ -25325,16 +26857,16 @@
       <c r="F25" s="72">
         <v>27</v>
       </c>
-      <c r="G25" s="157"/>
+      <c r="G25" s="133"/>
       <c r="H25" s="85">
         <v>27</v>
       </c>
-      <c r="I25" s="127"/>
+      <c r="I25" s="168"/>
       <c r="J25" s="2"/>
     </row>
     <row r="26" spans="1:31" x14ac:dyDescent="0.55000000000000004">
-      <c r="A26" s="153"/>
-      <c r="B26" s="116"/>
+      <c r="A26" s="129"/>
+      <c r="B26" s="145"/>
       <c r="C26" s="40" t="s">
         <v>9</v>
       </c>
@@ -25347,16 +26879,16 @@
       <c r="F26" s="73">
         <v>21</v>
       </c>
-      <c r="G26" s="157"/>
+      <c r="G26" s="133"/>
       <c r="H26" s="86">
         <v>21</v>
       </c>
-      <c r="I26" s="127"/>
+      <c r="I26" s="168"/>
       <c r="J26" s="2"/>
     </row>
     <row r="27" spans="1:31" x14ac:dyDescent="0.55000000000000004">
-      <c r="A27" s="153"/>
-      <c r="B27" s="116"/>
+      <c r="A27" s="129"/>
+      <c r="B27" s="145"/>
       <c r="C27" s="41" t="s">
         <v>10</v>
       </c>
@@ -25369,16 +26901,16 @@
       <c r="F27" s="72">
         <v>0</v>
       </c>
-      <c r="G27" s="157"/>
+      <c r="G27" s="133"/>
       <c r="H27" s="85">
         <v>0</v>
       </c>
-      <c r="I27" s="127"/>
+      <c r="I27" s="168"/>
       <c r="J27" s="2"/>
     </row>
     <row r="28" spans="1:31" x14ac:dyDescent="0.55000000000000004">
-      <c r="A28" s="153"/>
-      <c r="B28" s="117"/>
+      <c r="A28" s="129"/>
+      <c r="B28" s="146"/>
       <c r="C28" s="44" t="s">
         <v>11</v>
       </c>
@@ -25391,18 +26923,18 @@
       <c r="F28" s="74">
         <v>52</v>
       </c>
-      <c r="G28" s="158"/>
+      <c r="G28" s="134"/>
       <c r="H28" s="89">
         <v>52</v>
       </c>
-      <c r="I28" s="128"/>
+      <c r="I28" s="169"/>
       <c r="J28" s="2"/>
     </row>
     <row r="29" spans="1:31" x14ac:dyDescent="0.55000000000000004">
-      <c r="A29" s="154" t="s">
+      <c r="A29" s="130" t="s">
         <v>26</v>
       </c>
-      <c r="B29" s="115" t="s">
+      <c r="B29" s="144" t="s">
         <v>30</v>
       </c>
       <c r="C29" s="39" t="s">
@@ -25417,22 +26949,22 @@
       <c r="F29" s="75">
         <v>31</v>
       </c>
-      <c r="G29" s="159">
+      <c r="G29" s="135">
         <f>SUM(F29:F41)</f>
         <v>100</v>
       </c>
       <c r="H29" s="90">
         <v>31</v>
       </c>
-      <c r="I29" s="126">
+      <c r="I29" s="167">
         <f>SUM(H29:H41)</f>
         <v>100</v>
       </c>
       <c r="J29" s="2"/>
     </row>
     <row r="30" spans="1:31" x14ac:dyDescent="0.55000000000000004">
-      <c r="A30" s="155"/>
-      <c r="B30" s="116"/>
+      <c r="A30" s="131"/>
+      <c r="B30" s="145"/>
       <c r="C30" s="45" t="s">
         <v>76</v>
       </c>
@@ -25445,16 +26977,16 @@
       <c r="F30" s="77">
         <v>0</v>
       </c>
-      <c r="G30" s="157"/>
+      <c r="G30" s="133"/>
       <c r="H30" s="91">
         <v>0</v>
       </c>
-      <c r="I30" s="127"/>
+      <c r="I30" s="168"/>
       <c r="J30" s="2"/>
     </row>
     <row r="31" spans="1:31" x14ac:dyDescent="0.55000000000000004">
-      <c r="A31" s="155"/>
-      <c r="B31" s="116"/>
+      <c r="A31" s="131"/>
+      <c r="B31" s="145"/>
       <c r="C31" s="41" t="s">
         <v>8</v>
       </c>
@@ -25467,16 +26999,16 @@
       <c r="F31" s="72">
         <v>3</v>
       </c>
-      <c r="G31" s="157"/>
+      <c r="G31" s="133"/>
       <c r="H31" s="85">
         <v>3</v>
       </c>
-      <c r="I31" s="127"/>
+      <c r="I31" s="168"/>
       <c r="J31" s="2"/>
     </row>
     <row r="32" spans="1:31" x14ac:dyDescent="0.55000000000000004">
-      <c r="A32" s="155"/>
-      <c r="B32" s="116"/>
+      <c r="A32" s="131"/>
+      <c r="B32" s="145"/>
       <c r="C32" s="45" t="s">
         <v>77</v>
       </c>
@@ -25489,16 +27021,16 @@
       <c r="F32" s="77">
         <v>0</v>
       </c>
-      <c r="G32" s="157"/>
+      <c r="G32" s="133"/>
       <c r="H32" s="91">
         <v>0</v>
       </c>
-      <c r="I32" s="127"/>
+      <c r="I32" s="168"/>
       <c r="J32" s="2"/>
     </row>
     <row r="33" spans="1:10" x14ac:dyDescent="0.55000000000000004">
-      <c r="A33" s="155"/>
-      <c r="B33" s="116"/>
+      <c r="A33" s="131"/>
+      <c r="B33" s="145"/>
       <c r="C33" s="41" t="s">
         <v>9</v>
       </c>
@@ -25511,16 +27043,16 @@
       <c r="F33" s="72">
         <v>40</v>
       </c>
-      <c r="G33" s="157"/>
+      <c r="G33" s="133"/>
       <c r="H33" s="85">
         <v>40</v>
       </c>
-      <c r="I33" s="127"/>
+      <c r="I33" s="168"/>
       <c r="J33" s="2"/>
     </row>
     <row r="34" spans="1:10" x14ac:dyDescent="0.55000000000000004">
-      <c r="A34" s="155"/>
-      <c r="B34" s="116"/>
+      <c r="A34" s="131"/>
+      <c r="B34" s="145"/>
       <c r="C34" s="45" t="s">
         <v>78</v>
       </c>
@@ -25533,16 +27065,16 @@
       <c r="F34" s="77">
         <v>0</v>
       </c>
-      <c r="G34" s="157"/>
+      <c r="G34" s="133"/>
       <c r="H34" s="91">
         <v>0</v>
       </c>
-      <c r="I34" s="127"/>
+      <c r="I34" s="168"/>
       <c r="J34" s="2"/>
     </row>
     <row r="35" spans="1:10" x14ac:dyDescent="0.55000000000000004">
-      <c r="A35" s="155"/>
-      <c r="B35" s="116"/>
+      <c r="A35" s="131"/>
+      <c r="B35" s="145"/>
       <c r="C35" s="41" t="s">
         <v>79</v>
       </c>
@@ -25555,16 +27087,16 @@
       <c r="F35" s="72">
         <v>4</v>
       </c>
-      <c r="G35" s="157"/>
+      <c r="G35" s="133"/>
       <c r="H35" s="85">
         <v>4</v>
       </c>
-      <c r="I35" s="127"/>
+      <c r="I35" s="168"/>
       <c r="J35" s="2"/>
     </row>
     <row r="36" spans="1:10" x14ac:dyDescent="0.55000000000000004">
-      <c r="A36" s="155"/>
-      <c r="B36" s="116"/>
+      <c r="A36" s="131"/>
+      <c r="B36" s="145"/>
       <c r="C36" s="45" t="s">
         <v>10</v>
       </c>
@@ -25577,16 +27109,16 @@
       <c r="F36" s="77">
         <v>5</v>
       </c>
-      <c r="G36" s="157"/>
+      <c r="G36" s="133"/>
       <c r="H36" s="91">
         <v>5</v>
       </c>
-      <c r="I36" s="127"/>
+      <c r="I36" s="168"/>
       <c r="J36" s="2"/>
     </row>
     <row r="37" spans="1:10" x14ac:dyDescent="0.55000000000000004">
-      <c r="A37" s="155"/>
-      <c r="B37" s="116"/>
+      <c r="A37" s="131"/>
+      <c r="B37" s="145"/>
       <c r="C37" s="41" t="s">
         <v>80</v>
       </c>
@@ -25599,16 +27131,16 @@
       <c r="F37" s="72">
         <v>0</v>
       </c>
-      <c r="G37" s="157"/>
+      <c r="G37" s="133"/>
       <c r="H37" s="85">
         <v>0</v>
       </c>
-      <c r="I37" s="127"/>
+      <c r="I37" s="168"/>
       <c r="J37" s="2"/>
     </row>
     <row r="38" spans="1:10" x14ac:dyDescent="0.55000000000000004">
-      <c r="A38" s="155"/>
-      <c r="B38" s="116"/>
+      <c r="A38" s="131"/>
+      <c r="B38" s="145"/>
       <c r="C38" s="45" t="s">
         <v>81</v>
       </c>
@@ -25621,16 +27153,16 @@
       <c r="F38" s="77">
         <v>8</v>
       </c>
-      <c r="G38" s="157"/>
+      <c r="G38" s="133"/>
       <c r="H38" s="91">
         <v>8</v>
       </c>
-      <c r="I38" s="127"/>
+      <c r="I38" s="168"/>
       <c r="J38" s="2"/>
     </row>
     <row r="39" spans="1:10" x14ac:dyDescent="0.55000000000000004">
-      <c r="A39" s="155"/>
-      <c r="B39" s="116"/>
+      <c r="A39" s="131"/>
+      <c r="B39" s="145"/>
       <c r="C39" s="41" t="s">
         <v>82</v>
       </c>
@@ -25643,16 +27175,16 @@
       <c r="F39" s="72">
         <v>0</v>
       </c>
-      <c r="G39" s="157"/>
+      <c r="G39" s="133"/>
       <c r="H39" s="85">
         <v>0</v>
       </c>
-      <c r="I39" s="127"/>
+      <c r="I39" s="168"/>
       <c r="J39" s="2"/>
     </row>
     <row r="40" spans="1:10" x14ac:dyDescent="0.55000000000000004">
-      <c r="A40" s="155"/>
-      <c r="B40" s="116"/>
+      <c r="A40" s="131"/>
+      <c r="B40" s="145"/>
       <c r="C40" s="45" t="s">
         <v>83</v>
       </c>
@@ -25665,16 +27197,16 @@
       <c r="F40" s="77">
         <v>1</v>
       </c>
-      <c r="G40" s="157"/>
+      <c r="G40" s="133"/>
       <c r="H40" s="91">
         <v>1</v>
       </c>
-      <c r="I40" s="127"/>
+      <c r="I40" s="168"/>
       <c r="J40" s="2"/>
     </row>
     <row r="41" spans="1:10" x14ac:dyDescent="0.55000000000000004">
-      <c r="A41" s="156"/>
-      <c r="B41" s="117"/>
+      <c r="A41" s="132"/>
+      <c r="B41" s="146"/>
       <c r="C41" s="42" t="s">
         <v>84</v>
       </c>
@@ -25687,11 +27219,11 @@
       <c r="F41" s="76">
         <v>8</v>
       </c>
-      <c r="G41" s="158"/>
+      <c r="G41" s="134"/>
       <c r="H41" s="87">
         <v>8</v>
       </c>
-      <c r="I41" s="128"/>
+      <c r="I41" s="169"/>
       <c r="J41" s="2"/>
     </row>
     <row r="43" spans="1:10" x14ac:dyDescent="0.55000000000000004">
@@ -25754,12 +27286,28 @@
     </row>
   </sheetData>
   <mergeCells count="44">
-    <mergeCell ref="AE4:AE5"/>
-    <mergeCell ref="Z4:Z5"/>
-    <mergeCell ref="AA4:AA5"/>
-    <mergeCell ref="AB4:AB5"/>
-    <mergeCell ref="AC4:AC5"/>
-    <mergeCell ref="AD4:AD5"/>
+    <mergeCell ref="B29:B41"/>
+    <mergeCell ref="H5:I5"/>
+    <mergeCell ref="H6:I6"/>
+    <mergeCell ref="H7:I7"/>
+    <mergeCell ref="H8:I8"/>
+    <mergeCell ref="I9:I13"/>
+    <mergeCell ref="I14:I18"/>
+    <mergeCell ref="I19:I23"/>
+    <mergeCell ref="I24:I28"/>
+    <mergeCell ref="I29:I41"/>
+    <mergeCell ref="H1:I1"/>
+    <mergeCell ref="H2:I2"/>
+    <mergeCell ref="A1:C2"/>
+    <mergeCell ref="F3:G3"/>
+    <mergeCell ref="F4:G4"/>
+    <mergeCell ref="H3:I3"/>
+    <mergeCell ref="H4:I4"/>
+    <mergeCell ref="A3:A4"/>
+    <mergeCell ref="B3:C3"/>
+    <mergeCell ref="B4:C4"/>
+    <mergeCell ref="F1:G1"/>
+    <mergeCell ref="F2:G2"/>
     <mergeCell ref="A5:A8"/>
     <mergeCell ref="A9:A28"/>
     <mergeCell ref="A29:A41"/>
@@ -25776,78 +27324,122 @@
     <mergeCell ref="B14:B18"/>
     <mergeCell ref="B19:B23"/>
     <mergeCell ref="B24:B28"/>
-    <mergeCell ref="H1:I1"/>
-    <mergeCell ref="H2:I2"/>
-    <mergeCell ref="A1:C2"/>
-    <mergeCell ref="F3:G3"/>
-    <mergeCell ref="F4:G4"/>
-    <mergeCell ref="H3:I3"/>
-    <mergeCell ref="H4:I4"/>
-    <mergeCell ref="A3:A4"/>
-    <mergeCell ref="B3:C3"/>
-    <mergeCell ref="B4:C4"/>
-    <mergeCell ref="F1:G1"/>
-    <mergeCell ref="F2:G2"/>
-    <mergeCell ref="B29:B41"/>
-    <mergeCell ref="H5:I5"/>
-    <mergeCell ref="H6:I6"/>
-    <mergeCell ref="H7:I7"/>
-    <mergeCell ref="H8:I8"/>
-    <mergeCell ref="I9:I13"/>
-    <mergeCell ref="I14:I18"/>
-    <mergeCell ref="I19:I23"/>
-    <mergeCell ref="I24:I28"/>
-    <mergeCell ref="I29:I41"/>
+    <mergeCell ref="AE4:AE5"/>
+    <mergeCell ref="Z4:Z5"/>
+    <mergeCell ref="AA4:AA5"/>
+    <mergeCell ref="AB4:AB5"/>
+    <mergeCell ref="AC4:AC5"/>
+    <mergeCell ref="AD4:AD5"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <conditionalFormatting sqref="G14">
-    <cfRule type="expression" dxfId="9" priority="11">
+    <cfRule type="expression" dxfId="42" priority="23">
       <formula>$G$14&lt;&gt;100</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G9">
-    <cfRule type="expression" dxfId="8" priority="7">
+    <cfRule type="expression" dxfId="41" priority="19">
       <formula>$G$9&lt;&gt;100</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I19">
-    <cfRule type="expression" dxfId="7" priority="8">
+    <cfRule type="expression" dxfId="40" priority="20">
       <formula>$I$19&lt;&gt;100</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G29">
-    <cfRule type="expression" dxfId="6" priority="9">
+    <cfRule type="expression" dxfId="39" priority="21">
       <formula>$G$29&lt;&gt;100</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G24">
-    <cfRule type="expression" dxfId="5" priority="10">
+    <cfRule type="expression" dxfId="38" priority="22">
       <formula>$G$24&lt;&gt;100</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I9">
-    <cfRule type="expression" dxfId="4" priority="6">
+    <cfRule type="expression" dxfId="37" priority="18">
       <formula>$I$9&lt;&gt;100</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I14">
-    <cfRule type="expression" dxfId="3" priority="4">
+    <cfRule type="expression" dxfId="36" priority="16">
       <formula>$I$14&lt;&gt;100</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G19">
-    <cfRule type="expression" dxfId="2" priority="3">
+    <cfRule type="expression" dxfId="35" priority="15">
       <formula>$G$19&lt;&gt;100</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I24">
-    <cfRule type="expression" dxfId="1" priority="2">
+    <cfRule type="expression" dxfId="34" priority="14">
       <formula>$I$24&lt;&gt;100</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I29">
-    <cfRule type="expression" dxfId="0" priority="1">
+    <cfRule type="expression" dxfId="33" priority="13">
       <formula>$I$29&lt;&gt;100</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C9:F28">
+    <cfRule type="expression" dxfId="32" priority="12">
+      <formula>MOD(ROW(),2)=0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H9:H28">
+    <cfRule type="expression" dxfId="31" priority="11">
+      <formula>MOD(ROW(),2)=0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B5:I8">
+    <cfRule type="expression" dxfId="30" priority="10">
+      <formula>MOD(ROW(),2)=0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C29:F41">
+    <cfRule type="expression" dxfId="29" priority="9">
+      <formula>MOD(ROW(),2)=0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H29:H41">
+    <cfRule type="expression" dxfId="28" priority="8">
+      <formula>MOD(ROW(),2)=0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B3:I4">
+    <cfRule type="expression" dxfId="27" priority="7">
+      <formula>MOD(ROW(),2)=0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A3">
+    <cfRule type="expression" dxfId="26" priority="6">
+      <formula>MOD(ROW(),2)=0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A5">
+    <cfRule type="expression" dxfId="25" priority="5">
+      <formula>MOD(ROW(),2)=0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A9">
+    <cfRule type="expression" dxfId="24" priority="4">
+      <formula>MOD(ROW(),2)=0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A29">
+    <cfRule type="expression" dxfId="23" priority="3">
+      <formula>MOD(ROW(),2)=0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="Z6:AE14">
+    <cfRule type="expression" dxfId="22" priority="2">
+      <formula>MOD(ROW(),2)=1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="Z4:AE5">
+    <cfRule type="expression" dxfId="21" priority="1">
+      <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -50775,8 +52367,8 @@
   </sheetPr>
   <dimension ref="A1:AZ61"/>
   <sheetViews>
-    <sheetView topLeftCell="E1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="J27" sqref="J27"/>
+    <sheetView zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="I28" sqref="I28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.55000000000000004"/>

--- a/xlsx/model2.xlsx
+++ b/xlsx/model2.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\R\TA_model\xlsx\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{49B21015-0D72-4049-BFDB-68D475793328}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{993C34F8-4BB2-44BA-938B-07AF73D96229}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-21540" yWindow="-21720" windowWidth="38640" windowHeight="21120" tabRatio="878" xr2:uid="{BCC5EA96-140E-4D1F-AEAE-F8AA11DA45EB}"/>
   </bookViews>
@@ -1616,184 +1616,7 @@
     <cellStyle name="標準" xfId="0" builtinId="0"/>
     <cellStyle name="標準 2" xfId="1" xr:uid="{70DD43AA-AD5B-4D12-80B7-1D771529C2C7}"/>
   </cellStyles>
-  <dxfs count="186">
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="8" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="8" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="9" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="7" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="8" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="8" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="7" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="9" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="9" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color auto="1"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color auto="1"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color auto="1"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color auto="1"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color auto="1"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color auto="1"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color auto="1"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color auto="1"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color auto="1"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color auto="1"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
+  <dxfs count="22">
     <dxf>
       <fill>
         <patternFill>
@@ -1868,1277 +1691,6 @@
       <fill>
         <patternFill>
           <bgColor theme="9" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="9" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color auto="1"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color auto="1"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color auto="1"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color auto="1"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color auto="1"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color auto="1"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color auto="1"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color auto="1"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color auto="1"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color auto="1"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="8" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="9" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="7" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="8" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="8" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="7" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="9" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="9" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color auto="1"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color auto="1"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color auto="1"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color auto="1"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color auto="1"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color auto="1"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color auto="1"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color auto="1"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color auto="1"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color auto="1"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="9" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="7" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="8" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="8" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="7" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="9" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="9" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color auto="1"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color auto="1"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color auto="1"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color auto="1"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color auto="1"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color auto="1"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color auto="1"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color auto="1"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color auto="1"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color auto="1"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="7" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="8" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="8" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="7" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="9" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="9" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color auto="1"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color auto="1"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color auto="1"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color auto="1"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color auto="1"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color auto="1"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color auto="1"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color auto="1"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color auto="1"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color auto="1"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="8" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="8" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="7" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="9" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="9" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color auto="1"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color auto="1"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color auto="1"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color auto="1"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color auto="1"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color auto="1"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color auto="1"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color auto="1"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color auto="1"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color auto="1"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="8" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="8" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="7" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="9" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="9" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color auto="1"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color auto="1"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color auto="1"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color auto="1"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color auto="1"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color auto="1"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color auto="1"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color auto="1"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color auto="1"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color auto="1"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="8" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="8" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="7" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="9" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="9" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color auto="1"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color auto="1"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color auto="1"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color auto="1"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color auto="1"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color auto="1"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color auto="1"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color auto="1"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color auto="1"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color auto="1"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="4" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="8" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="7" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="9" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="9" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color auto="1"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color auto="1"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color auto="1"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color auto="1"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color auto="1"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color auto="1"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color auto="1"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color auto="1"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color auto="1"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color auto="1"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="9" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="9" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color auto="1"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color auto="1"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color auto="1"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color auto="1"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color auto="1"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color auto="1"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color auto="1"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color auto="1"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color auto="1"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color auto="1"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFF00"/>
         </patternFill>
       </fill>
     </dxf>
@@ -27333,112 +25885,112 @@
   </mergeCells>
   <phoneticPr fontId="1"/>
   <conditionalFormatting sqref="G14">
-    <cfRule type="expression" dxfId="42" priority="23">
+    <cfRule type="expression" dxfId="21" priority="23">
       <formula>$G$14&lt;&gt;100</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G9">
-    <cfRule type="expression" dxfId="41" priority="19">
+    <cfRule type="expression" dxfId="20" priority="19">
       <formula>$G$9&lt;&gt;100</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I19">
-    <cfRule type="expression" dxfId="40" priority="20">
+    <cfRule type="expression" dxfId="19" priority="20">
       <formula>$I$19&lt;&gt;100</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G29">
-    <cfRule type="expression" dxfId="39" priority="21">
+    <cfRule type="expression" dxfId="18" priority="21">
       <formula>$G$29&lt;&gt;100</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G24">
-    <cfRule type="expression" dxfId="38" priority="22">
+    <cfRule type="expression" dxfId="17" priority="22">
       <formula>$G$24&lt;&gt;100</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I9">
-    <cfRule type="expression" dxfId="37" priority="18">
+    <cfRule type="expression" dxfId="16" priority="18">
       <formula>$I$9&lt;&gt;100</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I14">
-    <cfRule type="expression" dxfId="36" priority="16">
+    <cfRule type="expression" dxfId="15" priority="16">
       <formula>$I$14&lt;&gt;100</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G19">
-    <cfRule type="expression" dxfId="35" priority="15">
+    <cfRule type="expression" dxfId="14" priority="15">
       <formula>$G$19&lt;&gt;100</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I24">
-    <cfRule type="expression" dxfId="34" priority="14">
+    <cfRule type="expression" dxfId="13" priority="14">
       <formula>$I$24&lt;&gt;100</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I29">
-    <cfRule type="expression" dxfId="33" priority="13">
+    <cfRule type="expression" dxfId="12" priority="13">
       <formula>$I$29&lt;&gt;100</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C9:F28">
-    <cfRule type="expression" dxfId="32" priority="12">
+    <cfRule type="expression" dxfId="11" priority="12">
       <formula>MOD(ROW(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H9:H28">
-    <cfRule type="expression" dxfId="31" priority="11">
+    <cfRule type="expression" dxfId="10" priority="11">
       <formula>MOD(ROW(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B5:I8">
-    <cfRule type="expression" dxfId="30" priority="10">
+    <cfRule type="expression" dxfId="9" priority="10">
       <formula>MOD(ROW(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C29:F41">
-    <cfRule type="expression" dxfId="29" priority="9">
+    <cfRule type="expression" dxfId="8" priority="9">
       <formula>MOD(ROW(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H29:H41">
-    <cfRule type="expression" dxfId="28" priority="8">
+    <cfRule type="expression" dxfId="7" priority="8">
       <formula>MOD(ROW(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B3:I4">
-    <cfRule type="expression" dxfId="27" priority="7">
+    <cfRule type="expression" dxfId="6" priority="7">
       <formula>MOD(ROW(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A3">
-    <cfRule type="expression" dxfId="26" priority="6">
+    <cfRule type="expression" dxfId="5" priority="6">
       <formula>MOD(ROW(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A5">
-    <cfRule type="expression" dxfId="25" priority="5">
+    <cfRule type="expression" dxfId="4" priority="5">
       <formula>MOD(ROW(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A9">
-    <cfRule type="expression" dxfId="24" priority="4">
+    <cfRule type="expression" dxfId="3" priority="4">
       <formula>MOD(ROW(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A29">
-    <cfRule type="expression" dxfId="23" priority="3">
+    <cfRule type="expression" dxfId="2" priority="3">
       <formula>MOD(ROW(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="Z6:AE14">
-    <cfRule type="expression" dxfId="22" priority="2">
+    <cfRule type="expression" dxfId="1" priority="2">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="Z4:AE5">
-    <cfRule type="expression" dxfId="21" priority="1">
+    <cfRule type="expression" dxfId="0" priority="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>

--- a/xlsx/model2.xlsx
+++ b/xlsx/model2.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\R\TA_model\xlsx\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{993C34F8-4BB2-44BA-938B-07AF73D96229}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A53231FB-8365-42FA-A863-CA4EF45305CE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-21540" yWindow="-21720" windowWidth="38640" windowHeight="21120" tabRatio="878" xr2:uid="{BCC5EA96-140E-4D1F-AEAE-F8AA11DA45EB}"/>
   </bookViews>
@@ -43,7 +43,7 @@
   <externalReferences>
     <externalReference r:id="rId27"/>
   </externalReferences>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="191029" calcMode="manual"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -1181,9 +1181,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="177" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1198,45 +1195,6 @@
     </xf>
     <xf numFmtId="177" fontId="0" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="0" fillId="2" borderId="10" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="0" fillId="2" borderId="11" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="178" fontId="2" fillId="6" borderId="8" xfId="1" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -1278,18 +1236,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1301,83 +1247,9 @@
     <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="1" fontId="0" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="1" fontId="0" fillId="5" borderId="12" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="1" fontId="0" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="1" fontId="0" fillId="5" borderId="15" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="1" fontId="0" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="1" fontId="0" fillId="5" borderId="12" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="1" fontId="0" fillId="5" borderId="13" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="1" fontId="0" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="1" fontId="0" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="1" fontId="0" fillId="3" borderId="12" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="1" fontId="0" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="1" fontId="0" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1"/>
-    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1"/>
-    <xf numFmtId="1" fontId="0" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="1" fontId="0" fillId="5" borderId="7" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="1" fontId="0" fillId="5" borderId="8" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="1" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1"/>
-    <xf numFmtId="1" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="1" fontId="0" fillId="5" borderId="6" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="1" fontId="0" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="1" fontId="0" fillId="5" borderId="4" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="1" fontId="0" fillId="5" borderId="9" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="1" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="1" fontId="0" fillId="3" borderId="6" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="180" fontId="0" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="180" fontId="0" fillId="2" borderId="10" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="180" fontId="0" fillId="2" borderId="11" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="1" fontId="2" fillId="0" borderId="0" xfId="1" applyNumberFormat="1"/>
-    <xf numFmtId="178" fontId="0" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="178" fontId="2" fillId="0" borderId="7" xfId="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="178" fontId="0" fillId="6" borderId="13" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="3" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="7" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="7" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="7" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="7" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="181" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
       <alignment vertical="center"/>
@@ -1440,141 +1312,6 @@
     <xf numFmtId="0" fontId="4" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="179" fontId="0" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="179" fontId="0" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="179" fontId="0" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="180" fontId="0" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="180" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="180" fontId="0" fillId="2" borderId="10" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="180" fontId="0" fillId="2" borderId="6" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="180" fontId="0" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="180" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="180" fontId="0" fillId="2" borderId="11" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="180" fontId="0" fillId="2" borderId="9" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="7" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="7" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="7" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="7" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="7" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="7" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="7" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="7" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="7" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="7" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="178" fontId="2" fillId="0" borderId="15" xfId="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="178" fontId="2" fillId="6" borderId="11" xfId="1" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="178" fontId="2" fillId="6" borderId="9" xfId="1" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="178" fontId="2" fillId="0" borderId="4" xfId="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="178" fontId="2" fillId="6" borderId="8" xfId="1" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="1" fontId="0" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="1" fontId="0" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="1" fontId="0" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1611,16 +1348,335 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="178" fontId="0" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="178" fontId="2" fillId="0" borderId="7" xfId="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="178" fontId="2" fillId="0" borderId="15" xfId="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="178" fontId="2" fillId="0" borderId="4" xfId="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="178" fontId="0" fillId="6" borderId="13" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="178" fontId="2" fillId="6" borderId="8" xfId="1" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="178" fontId="2" fillId="6" borderId="11" xfId="1" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="178" fontId="2" fillId="6" borderId="9" xfId="1" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="178" fontId="2" fillId="6" borderId="8" xfId="1" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="180" fontId="0" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="180" fontId="0" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="180" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="2" borderId="10" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="180" fontId="0" fillId="2" borderId="10" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="180" fontId="0" fillId="2" borderId="10" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="180" fontId="0" fillId="2" borderId="6" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="180" fontId="0" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="180" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="2" borderId="11" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="180" fontId="0" fillId="2" borderId="11" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="180" fontId="0" fillId="2" borderId="11" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="180" fontId="0" fillId="2" borderId="9" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyProtection="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="179" fontId="0" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyBorder="1" applyProtection="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="0" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1" applyProtection="1"/>
+    <xf numFmtId="1" fontId="0" fillId="5" borderId="12" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
+    <xf numFmtId="1" fontId="0" fillId="5" borderId="12" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="1" fontId="0" fillId="5" borderId="6" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyProtection="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyProtection="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1" applyProtection="1"/>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyProtection="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="179" fontId="0" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyBorder="1" applyProtection="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="0" fillId="5" borderId="7" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
+    <xf numFmtId="1" fontId="0" fillId="5" borderId="15" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
+    <xf numFmtId="179" fontId="0" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="0" fillId="5" borderId="4" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyProtection="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="0" fillId="5" borderId="8" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
+    <xf numFmtId="1" fontId="0" fillId="5" borderId="13" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
+    <xf numFmtId="1" fontId="0" fillId="5" borderId="9" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyProtection="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyBorder="1" applyProtection="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1" applyProtection="1"/>
+    <xf numFmtId="1" fontId="0" fillId="3" borderId="12" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
+    <xf numFmtId="1" fontId="0" fillId="3" borderId="6" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyProtection="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="標準" xfId="0" builtinId="0"/>
     <cellStyle name="標準 2" xfId="1" xr:uid="{70DD43AA-AD5B-4D12-80B7-1D771529C2C7}"/>
   </cellStyles>
-  <dxfs count="22">
+  <dxfs count="29">
     <dxf>
       <fill>
         <patternFill>
-          <bgColor theme="8" tint="0.39994506668294322"/>
+          <bgColor theme="0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="7" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0"/>
         </patternFill>
       </fill>
     </dxf>
@@ -1628,6 +1684,27 @@
       <fill>
         <patternFill>
           <bgColor theme="8" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="8" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="8" tint="0.39994506668294322"/>
         </patternFill>
       </fill>
     </dxf>
@@ -1662,7 +1739,7 @@
     <dxf>
       <fill>
         <patternFill>
-          <bgColor theme="5" tint="0.79998168889431442"/>
+          <bgColor theme="0"/>
         </patternFill>
       </fill>
     </dxf>
@@ -1670,34 +1747,6 @@
       <fill>
         <patternFill>
           <bgColor theme="8" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="8" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="7" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="9" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="9" tint="0.79998168889431442"/>
         </patternFill>
       </fill>
     </dxf>
@@ -24593,7 +24642,7 @@
     <sheetView tabSelected="1" zoomScale="67" zoomScaleNormal="70" workbookViewId="0">
       <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="B1" sqref="B1"/>
-      <selection pane="bottomLeft" activeCell="AH16" sqref="AH16"/>
+      <selection pane="bottomLeft" activeCell="AI20" sqref="AI20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.55000000000000004"/>
@@ -24615,1184 +24664,1184 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:31" ht="18" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A1" s="151"/>
-      <c r="B1" s="152"/>
-      <c r="C1" s="153"/>
-      <c r="D1" s="100" t="s">
+      <c r="A1" s="85"/>
+      <c r="B1" s="86"/>
+      <c r="C1" s="87"/>
+      <c r="D1" s="88" t="s">
         <v>111</v>
       </c>
-      <c r="E1" s="101" t="s">
+      <c r="E1" s="89" t="s">
         <v>97</v>
       </c>
-      <c r="F1" s="147" t="s">
-        <v>0</v>
-      </c>
-      <c r="G1" s="148"/>
-      <c r="H1" s="147" t="s">
+      <c r="F1" s="90" t="s">
+        <v>0</v>
+      </c>
+      <c r="G1" s="91"/>
+      <c r="H1" s="90" t="s">
         <v>99</v>
       </c>
-      <c r="I1" s="148"/>
+      <c r="I1" s="91"/>
     </row>
     <row r="2" spans="1:31" ht="17.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A2" s="154"/>
-      <c r="B2" s="155"/>
-      <c r="C2" s="156"/>
-      <c r="D2" s="102" t="s">
+      <c r="A2" s="92"/>
+      <c r="B2" s="93"/>
+      <c r="C2" s="94"/>
+      <c r="D2" s="95" t="s">
         <v>100</v>
       </c>
-      <c r="E2" s="103" t="s">
+      <c r="E2" s="96" t="s">
         <v>101</v>
       </c>
-      <c r="F2" s="149" t="s">
+      <c r="F2" s="97" t="s">
         <v>101</v>
       </c>
-      <c r="G2" s="150"/>
-      <c r="H2" s="149" t="s">
+      <c r="G2" s="98"/>
+      <c r="H2" s="97" t="s">
         <v>101</v>
       </c>
-      <c r="I2" s="150"/>
+      <c r="I2" s="98"/>
     </row>
     <row r="3" spans="1:31" x14ac:dyDescent="0.55000000000000004">
-      <c r="A3" s="162" t="s">
+      <c r="A3" s="99" t="s">
         <v>110</v>
       </c>
-      <c r="B3" s="164" t="s">
+      <c r="B3" s="100" t="s">
         <v>104</v>
       </c>
-      <c r="C3" s="165"/>
-      <c r="D3" s="96">
+      <c r="C3" s="101"/>
+      <c r="D3" s="102">
         <v>867</v>
       </c>
-      <c r="E3" s="97">
+      <c r="E3" s="103">
         <v>1067</v>
       </c>
-      <c r="F3" s="157">
+      <c r="F3" s="104">
         <f>1067</f>
         <v>1067</v>
       </c>
-      <c r="G3" s="157"/>
-      <c r="H3" s="160">
+      <c r="G3" s="104"/>
+      <c r="H3" s="105">
         <v>1067</v>
       </c>
-      <c r="I3" s="157"/>
+      <c r="I3" s="104"/>
       <c r="J3" s="12"/>
     </row>
     <row r="4" spans="1:31" x14ac:dyDescent="0.55000000000000004">
-      <c r="A4" s="163"/>
-      <c r="B4" s="163" t="s">
+      <c r="A4" s="106"/>
+      <c r="B4" s="106" t="s">
         <v>103</v>
       </c>
-      <c r="C4" s="166"/>
-      <c r="D4" s="98">
+      <c r="C4" s="107"/>
+      <c r="D4" s="108">
         <v>126</v>
       </c>
-      <c r="E4" s="46">
+      <c r="E4" s="109">
         <v>110</v>
       </c>
-      <c r="F4" s="158">
+      <c r="F4" s="110">
         <v>110</v>
       </c>
-      <c r="G4" s="159"/>
-      <c r="H4" s="161">
+      <c r="G4" s="111"/>
+      <c r="H4" s="112">
         <v>110</v>
       </c>
-      <c r="I4" s="159"/>
+      <c r="I4" s="111"/>
       <c r="J4" s="12"/>
-      <c r="Z4" s="117" t="s">
+      <c r="Z4" s="65" t="s">
         <v>107</v>
       </c>
-      <c r="AA4" s="119">
+      <c r="AA4" s="67">
         <v>2010</v>
       </c>
-      <c r="AB4" s="121">
+      <c r="AB4" s="69">
         <v>2020</v>
       </c>
-      <c r="AC4" s="123" t="s">
+      <c r="AC4" s="71" t="s">
         <v>106</v>
       </c>
-      <c r="AD4" s="117" t="s">
+      <c r="AD4" s="65" t="s">
         <v>92</v>
       </c>
-      <c r="AE4" s="115" t="s">
+      <c r="AE4" s="63" t="s">
         <v>93</v>
       </c>
     </row>
     <row r="5" spans="1:31" ht="18" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A5" s="125" t="s">
+      <c r="A5" s="113" t="s">
         <v>1</v>
       </c>
-      <c r="B5" s="60" t="s">
+      <c r="B5" s="114" t="s">
         <v>2</v>
       </c>
-      <c r="C5" s="36"/>
-      <c r="D5" s="28" t="s">
+      <c r="C5" s="115"/>
+      <c r="D5" s="116" t="s">
         <v>35</v>
       </c>
-      <c r="E5" s="92">
+      <c r="E5" s="117">
         <v>1</v>
       </c>
-      <c r="F5" s="136">
+      <c r="F5" s="118">
         <v>1</v>
       </c>
-      <c r="G5" s="137"/>
-      <c r="H5" s="136">
+      <c r="G5" s="119"/>
+      <c r="H5" s="118">
         <v>1</v>
       </c>
-      <c r="I5" s="137"/>
-      <c r="Z5" s="118"/>
-      <c r="AA5" s="120"/>
-      <c r="AB5" s="122"/>
-      <c r="AC5" s="124"/>
-      <c r="AD5" s="118"/>
-      <c r="AE5" s="116"/>
+      <c r="I5" s="119"/>
+      <c r="Z5" s="66"/>
+      <c r="AA5" s="68"/>
+      <c r="AB5" s="70"/>
+      <c r="AC5" s="72"/>
+      <c r="AD5" s="66"/>
+      <c r="AE5" s="64"/>
     </row>
     <row r="6" spans="1:31" x14ac:dyDescent="0.55000000000000004">
-      <c r="A6" s="126"/>
-      <c r="B6" s="61" t="s">
+      <c r="A6" s="120"/>
+      <c r="B6" s="121" t="s">
         <v>3</v>
       </c>
-      <c r="C6" s="37"/>
-      <c r="D6" s="34" t="s">
+      <c r="C6" s="122"/>
+      <c r="D6" s="123" t="s">
         <v>35</v>
       </c>
-      <c r="E6" s="93">
+      <c r="E6" s="124">
         <v>1</v>
       </c>
-      <c r="F6" s="138">
+      <c r="F6" s="125">
         <v>1</v>
       </c>
-      <c r="G6" s="139"/>
-      <c r="H6" s="138">
+      <c r="G6" s="126"/>
+      <c r="H6" s="125">
         <v>1</v>
       </c>
-      <c r="I6" s="139"/>
-      <c r="Z6" s="64" t="s">
+      <c r="I6" s="126"/>
+      <c r="Z6" s="46" t="s">
         <v>2</v>
       </c>
-      <c r="AA6" s="50">
+      <c r="AA6" s="36">
         <f>CO2排出量!B2</f>
         <v>269.51474216725944</v>
       </c>
-      <c r="AB6" s="56">
+      <c r="AB6" s="42">
         <f>CO2排出量!C2</f>
         <v>209.4235083709562</v>
       </c>
-      <c r="AC6" s="50">
+      <c r="AC6" s="36">
         <v>260.01618074402859</v>
       </c>
-      <c r="AD6" s="56">
+      <c r="AD6" s="42">
         <f>CO2排出量!E2</f>
         <v>260.01618074402859</v>
       </c>
-      <c r="AE6" s="51">
+      <c r="AE6" s="37">
         <f>CO2排出量!F2</f>
         <v>260.01618074402859</v>
       </c>
     </row>
     <row r="7" spans="1:31" x14ac:dyDescent="0.55000000000000004">
-      <c r="A7" s="126"/>
-      <c r="B7" s="62" t="s">
+      <c r="A7" s="120"/>
+      <c r="B7" s="127" t="s">
         <v>4</v>
       </c>
-      <c r="C7" s="36"/>
-      <c r="D7" s="28" t="s">
+      <c r="C7" s="115"/>
+      <c r="D7" s="116" t="s">
         <v>35</v>
       </c>
-      <c r="E7" s="92">
+      <c r="E7" s="117">
         <v>1</v>
       </c>
-      <c r="F7" s="140">
+      <c r="F7" s="128">
         <v>1</v>
       </c>
-      <c r="G7" s="141"/>
-      <c r="H7" s="140">
+      <c r="G7" s="129"/>
+      <c r="H7" s="128">
         <v>1</v>
       </c>
-      <c r="I7" s="141"/>
-      <c r="Z7" s="99" t="s">
+      <c r="I7" s="129"/>
+      <c r="Z7" s="51" t="s">
         <v>3</v>
       </c>
-      <c r="AA7" s="49">
+      <c r="AA7" s="35">
         <f>CO2排出量!B3</f>
         <v>249.02275586606845</v>
       </c>
-      <c r="AB7" s="57">
+      <c r="AB7" s="43">
         <f>CO2排出量!C3</f>
         <v>196.15609230500672</v>
       </c>
-      <c r="AC7" s="49">
+      <c r="AC7" s="35">
         <v>210.67040851814829</v>
       </c>
-      <c r="AD7" s="57">
+      <c r="AD7" s="43">
         <f>CO2排出量!E3</f>
         <v>210.67040851814829</v>
       </c>
-      <c r="AE7" s="52">
+      <c r="AE7" s="38">
         <f>CO2排出量!F3</f>
         <v>210.67040851814829</v>
       </c>
     </row>
     <row r="8" spans="1:31" x14ac:dyDescent="0.55000000000000004">
-      <c r="A8" s="127"/>
-      <c r="B8" s="63" t="s">
+      <c r="A8" s="130"/>
+      <c r="B8" s="131" t="s">
         <v>5</v>
       </c>
-      <c r="C8" s="38"/>
-      <c r="D8" s="35" t="s">
+      <c r="C8" s="132"/>
+      <c r="D8" s="133" t="s">
         <v>35</v>
       </c>
-      <c r="E8" s="94">
+      <c r="E8" s="134">
         <v>1</v>
       </c>
-      <c r="F8" s="142">
+      <c r="F8" s="135">
         <v>1</v>
       </c>
-      <c r="G8" s="143"/>
-      <c r="H8" s="142">
+      <c r="G8" s="136"/>
+      <c r="H8" s="135">
         <v>1</v>
       </c>
-      <c r="I8" s="143"/>
-      <c r="Z8" s="65" t="s">
+      <c r="I8" s="136"/>
+      <c r="Z8" s="47" t="s">
         <v>4</v>
       </c>
-      <c r="AA8" s="48">
+      <c r="AA8" s="34">
         <f>CO2排出量!B4</f>
         <v>63.618347666356769</v>
       </c>
-      <c r="AB8" s="58">
+      <c r="AB8" s="44">
         <f>CO2排出量!C4</f>
         <v>52.883709709806709</v>
       </c>
-      <c r="AC8" s="48">
+      <c r="AC8" s="34">
         <v>66.032474177397248</v>
       </c>
-      <c r="AD8" s="58">
+      <c r="AD8" s="44">
         <f>CO2排出量!E4</f>
         <v>66.032474177397248</v>
       </c>
-      <c r="AE8" s="53">
+      <c r="AE8" s="39">
         <f>CO2排出量!F4</f>
         <v>66.032474177397248</v>
       </c>
     </row>
     <row r="9" spans="1:31" x14ac:dyDescent="0.55000000000000004">
-      <c r="A9" s="128" t="s">
+      <c r="A9" s="137" t="s">
         <v>25</v>
       </c>
-      <c r="B9" s="144" t="s">
+      <c r="B9" s="138" t="s">
         <v>2</v>
       </c>
-      <c r="C9" s="39" t="s">
+      <c r="C9" s="139" t="s">
         <v>7</v>
       </c>
-      <c r="D9" s="78">
+      <c r="D9" s="140">
         <v>24</v>
       </c>
-      <c r="E9" s="75">
+      <c r="E9" s="141">
         <v>24</v>
       </c>
-      <c r="F9" s="68">
+      <c r="F9" s="142">
         <v>24</v>
       </c>
-      <c r="G9" s="133">
+      <c r="G9" s="143">
         <f>SUM(F9:F13)</f>
         <v>100</v>
       </c>
-      <c r="H9" s="85">
+      <c r="H9" s="144">
         <v>24</v>
       </c>
-      <c r="I9" s="167">
+      <c r="I9" s="145">
         <f>SUM(H9:H13)</f>
         <v>100</v>
       </c>
       <c r="J9" s="2"/>
-      <c r="Z9" s="99" t="s">
+      <c r="Z9" s="51" t="s">
         <v>5</v>
       </c>
-      <c r="AA9" s="49">
+      <c r="AA9" s="35">
         <f>CO2排出量!B5</f>
         <v>69.588005432578569</v>
       </c>
-      <c r="AB9" s="57">
+      <c r="AB9" s="43">
         <f>CO2排出量!C5</f>
         <v>52.883709709806709</v>
       </c>
-      <c r="AC9" s="49">
+      <c r="AC9" s="35">
         <v>52.527941152998537</v>
       </c>
-      <c r="AD9" s="57">
+      <c r="AD9" s="43">
         <f>CO2排出量!E5</f>
         <v>52.527941152998537</v>
       </c>
-      <c r="AE9" s="52">
+      <c r="AE9" s="38">
         <f>CO2排出量!F5</f>
         <v>52.527941152998537</v>
       </c>
     </row>
     <row r="10" spans="1:31" x14ac:dyDescent="0.55000000000000004">
-      <c r="A10" s="129"/>
-      <c r="B10" s="145"/>
-      <c r="C10" s="40" t="s">
+      <c r="A10" s="146"/>
+      <c r="B10" s="147"/>
+      <c r="C10" s="148" t="s">
         <v>8</v>
       </c>
-      <c r="D10" s="79">
+      <c r="D10" s="149">
         <v>22</v>
       </c>
-      <c r="E10" s="73">
+      <c r="E10" s="150">
         <v>22</v>
       </c>
-      <c r="F10" s="69">
+      <c r="F10" s="151">
         <v>22</v>
       </c>
-      <c r="G10" s="133"/>
-      <c r="H10" s="86">
+      <c r="G10" s="143"/>
+      <c r="H10" s="152">
         <v>22</v>
       </c>
-      <c r="I10" s="168"/>
+      <c r="I10" s="153"/>
       <c r="J10" s="2"/>
-      <c r="Z10" s="65" t="s">
+      <c r="Z10" s="47" t="s">
         <v>30</v>
       </c>
-      <c r="AA10" s="48">
+      <c r="AA10" s="34">
         <f>CO2排出量!B6</f>
         <v>476.37955455993358</v>
       </c>
-      <c r="AB10" s="58">
+      <c r="AB10" s="44">
         <f>CO2排出量!C6</f>
         <v>449.00553720294573</v>
       </c>
-      <c r="AC10" s="48">
+      <c r="AC10" s="34">
         <v>496.52581315955877</v>
       </c>
-      <c r="AD10" s="58">
+      <c r="AD10" s="44">
         <f>CO2排出量!E6</f>
         <v>496.52581315955877</v>
       </c>
-      <c r="AE10" s="53">
+      <c r="AE10" s="39">
         <f>CO2排出量!F6</f>
         <v>496.52581315955877</v>
       </c>
     </row>
     <row r="11" spans="1:31" ht="20" x14ac:dyDescent="0.55000000000000004">
-      <c r="A11" s="129"/>
-      <c r="B11" s="145"/>
-      <c r="C11" s="41" t="s">
+      <c r="A11" s="146"/>
+      <c r="B11" s="147"/>
+      <c r="C11" s="154" t="s">
         <v>9</v>
       </c>
-      <c r="D11" s="80">
+      <c r="D11" s="155">
         <v>14.000000000000002</v>
       </c>
-      <c r="E11" s="72">
+      <c r="E11" s="156">
         <v>14.000000000000002</v>
       </c>
-      <c r="F11" s="68">
+      <c r="F11" s="142">
         <v>14.000000000000002</v>
       </c>
-      <c r="G11" s="133"/>
-      <c r="H11" s="85">
+      <c r="G11" s="143"/>
+      <c r="H11" s="144">
         <v>14.000000000000002</v>
       </c>
-      <c r="I11" s="168"/>
+      <c r="I11" s="153"/>
       <c r="J11" s="2"/>
-      <c r="Z11" s="99" t="s">
+      <c r="Z11" s="51" t="s">
         <v>112</v>
       </c>
-      <c r="AA11" s="49">
+      <c r="AA11" s="35">
         <f>CO2排出量!B7</f>
         <v>28.775119328906975</v>
       </c>
-      <c r="AB11" s="57">
+      <c r="AB11" s="43">
         <f>CO2排出量!C7</f>
         <v>25.99212785621209</v>
       </c>
-      <c r="AC11" s="49">
+      <c r="AC11" s="35">
         <v>22.660005374260319</v>
       </c>
-      <c r="AD11" s="57">
+      <c r="AD11" s="43">
         <f>CO2排出量!E7</f>
         <v>22.660005374260319</v>
       </c>
-      <c r="AE11" s="52">
+      <c r="AE11" s="38">
         <f>CO2排出量!F7</f>
         <v>22.660005374260319</v>
       </c>
     </row>
     <row r="12" spans="1:31" ht="20" x14ac:dyDescent="0.55000000000000004">
-      <c r="A12" s="129"/>
-      <c r="B12" s="145"/>
-      <c r="C12" s="40" t="s">
+      <c r="A12" s="146"/>
+      <c r="B12" s="147"/>
+      <c r="C12" s="148" t="s">
         <v>10</v>
       </c>
-      <c r="D12" s="79">
+      <c r="D12" s="149">
         <v>4</v>
       </c>
-      <c r="E12" s="73">
+      <c r="E12" s="150">
         <v>4</v>
       </c>
-      <c r="F12" s="69">
+      <c r="F12" s="151">
         <v>4</v>
       </c>
-      <c r="G12" s="133"/>
-      <c r="H12" s="86">
+      <c r="G12" s="143"/>
+      <c r="H12" s="152">
         <v>4</v>
       </c>
-      <c r="I12" s="168"/>
+      <c r="I12" s="153"/>
       <c r="J12" s="2"/>
-      <c r="Z12" s="65" t="s">
+      <c r="Z12" s="47" t="s">
         <v>113</v>
       </c>
-      <c r="AA12" s="48">
+      <c r="AA12" s="34">
         <f>CO2排出量!B8</f>
         <v>29.46362437612942</v>
       </c>
-      <c r="AB12" s="58">
+      <c r="AB12" s="44">
         <f>CO2排出量!C8</f>
         <v>31.085649151718691</v>
       </c>
-      <c r="AC12" s="48">
+      <c r="AC12" s="34">
         <v>27.100550625829783</v>
       </c>
-      <c r="AD12" s="58">
+      <c r="AD12" s="44">
         <f>CO2排出量!E8</f>
         <v>27.100550625829783</v>
       </c>
-      <c r="AE12" s="53">
+      <c r="AE12" s="39">
         <f>CO2排出量!F8</f>
         <v>27.100550625829783</v>
       </c>
     </row>
     <row r="13" spans="1:31" ht="20" x14ac:dyDescent="0.55000000000000004">
-      <c r="A13" s="129"/>
-      <c r="B13" s="146"/>
-      <c r="C13" s="42" t="s">
+      <c r="A13" s="146"/>
+      <c r="B13" s="157"/>
+      <c r="C13" s="158" t="s">
         <v>11</v>
       </c>
-      <c r="D13" s="81">
+      <c r="D13" s="159">
         <v>36</v>
       </c>
-      <c r="E13" s="76">
+      <c r="E13" s="160">
         <v>36</v>
       </c>
-      <c r="F13" s="70">
+      <c r="F13" s="161">
         <v>36</v>
       </c>
-      <c r="G13" s="134"/>
-      <c r="H13" s="87">
+      <c r="G13" s="162"/>
+      <c r="H13" s="163">
         <v>36</v>
       </c>
-      <c r="I13" s="169"/>
+      <c r="I13" s="164"/>
       <c r="J13" s="2"/>
-      <c r="Z13" s="99" t="s">
+      <c r="Z13" s="51" t="s">
         <v>114</v>
       </c>
-      <c r="AA13" s="49">
+      <c r="AA13" s="35">
         <f>CO2排出量!B9</f>
         <v>-46</v>
       </c>
-      <c r="AB13" s="57">
+      <c r="AB13" s="43">
         <f>CO2排出量!C9</f>
         <v>-46</v>
       </c>
-      <c r="AC13" s="49">
+      <c r="AC13" s="35">
         <v>-46</v>
       </c>
-      <c r="AD13" s="57">
+      <c r="AD13" s="43">
         <f>CO2排出量!E9</f>
         <v>-46</v>
       </c>
-      <c r="AE13" s="52">
+      <c r="AE13" s="38">
         <f>CO2排出量!F9</f>
         <v>-46</v>
       </c>
     </row>
     <row r="14" spans="1:31" x14ac:dyDescent="0.55000000000000004">
-      <c r="A14" s="129"/>
-      <c r="B14" s="144" t="s">
+      <c r="A14" s="146"/>
+      <c r="B14" s="138" t="s">
         <v>3</v>
       </c>
-      <c r="C14" s="43" t="s">
+      <c r="C14" s="165" t="s">
         <v>7</v>
       </c>
-      <c r="D14" s="82">
-        <v>0</v>
-      </c>
-      <c r="E14" s="71">
-        <v>0</v>
-      </c>
-      <c r="F14" s="71">
-        <v>0</v>
-      </c>
-      <c r="G14" s="135">
+      <c r="D14" s="166">
+        <v>0</v>
+      </c>
+      <c r="E14" s="167">
+        <v>0</v>
+      </c>
+      <c r="F14" s="167">
+        <v>0</v>
+      </c>
+      <c r="G14" s="168">
         <f t="shared" ref="G14" si="0">SUM(F14:F18)</f>
         <v>100</v>
       </c>
-      <c r="H14" s="88">
-        <v>0</v>
-      </c>
-      <c r="I14" s="167">
+      <c r="H14" s="169">
+        <v>0</v>
+      </c>
+      <c r="I14" s="145">
         <f>SUM(H14:H18)</f>
         <v>100</v>
       </c>
       <c r="J14" s="2"/>
-      <c r="Z14" s="66" t="s">
+      <c r="Z14" s="48" t="s">
         <v>27</v>
       </c>
-      <c r="AA14" s="54">
+      <c r="AA14" s="40">
         <f>CO2排出量!B10</f>
         <v>1140.3621493972332</v>
       </c>
-      <c r="AB14" s="59">
+      <c r="AB14" s="45">
         <f>CO2排出量!C10</f>
         <v>971.43033430645278</v>
       </c>
-      <c r="AC14" s="54">
+      <c r="AC14" s="40">
         <v>1089.5333737522215</v>
       </c>
-      <c r="AD14" s="59">
+      <c r="AD14" s="45">
         <f>CO2排出量!E10</f>
         <v>1089.5333737522215</v>
       </c>
-      <c r="AE14" s="55">
+      <c r="AE14" s="41">
         <f>CO2排出量!F10</f>
         <v>1089.5333737522215</v>
       </c>
     </row>
     <row r="15" spans="1:31" x14ac:dyDescent="0.55000000000000004">
-      <c r="A15" s="129"/>
-      <c r="B15" s="145"/>
-      <c r="C15" s="41" t="s">
+      <c r="A15" s="146"/>
+      <c r="B15" s="147"/>
+      <c r="C15" s="154" t="s">
         <v>8</v>
       </c>
-      <c r="D15" s="80">
+      <c r="D15" s="155">
         <v>97</v>
       </c>
-      <c r="E15" s="72">
+      <c r="E15" s="156">
         <v>97</v>
       </c>
-      <c r="F15" s="72">
+      <c r="F15" s="156">
         <v>97</v>
       </c>
-      <c r="G15" s="133"/>
-      <c r="H15" s="85">
+      <c r="G15" s="143"/>
+      <c r="H15" s="144">
         <v>97</v>
       </c>
-      <c r="I15" s="168"/>
+      <c r="I15" s="153"/>
       <c r="J15" s="2"/>
     </row>
     <row r="16" spans="1:31" x14ac:dyDescent="0.55000000000000004">
-      <c r="A16" s="129"/>
-      <c r="B16" s="145"/>
-      <c r="C16" s="40" t="s">
+      <c r="A16" s="146"/>
+      <c r="B16" s="147"/>
+      <c r="C16" s="148" t="s">
         <v>9</v>
       </c>
-      <c r="D16" s="79">
-        <v>0</v>
-      </c>
-      <c r="E16" s="73">
-        <v>0</v>
-      </c>
-      <c r="F16" s="73">
-        <v>0</v>
-      </c>
-      <c r="G16" s="133"/>
-      <c r="H16" s="86">
-        <v>0</v>
-      </c>
-      <c r="I16" s="168"/>
+      <c r="D16" s="149">
+        <v>0</v>
+      </c>
+      <c r="E16" s="150">
+        <v>0</v>
+      </c>
+      <c r="F16" s="150">
+        <v>0</v>
+      </c>
+      <c r="G16" s="143"/>
+      <c r="H16" s="152">
+        <v>0</v>
+      </c>
+      <c r="I16" s="153"/>
       <c r="J16" s="2"/>
     </row>
     <row r="17" spans="1:31" x14ac:dyDescent="0.55000000000000004">
-      <c r="A17" s="129"/>
-      <c r="B17" s="145"/>
-      <c r="C17" s="41" t="s">
+      <c r="A17" s="146"/>
+      <c r="B17" s="147"/>
+      <c r="C17" s="154" t="s">
         <v>10</v>
       </c>
-      <c r="D17" s="80">
+      <c r="D17" s="155">
         <v>1</v>
       </c>
-      <c r="E17" s="72">
+      <c r="E17" s="156">
         <v>1</v>
       </c>
-      <c r="F17" s="72">
+      <c r="F17" s="156">
         <v>1</v>
       </c>
-      <c r="G17" s="133"/>
-      <c r="H17" s="85">
+      <c r="G17" s="143"/>
+      <c r="H17" s="144">
         <v>1</v>
       </c>
-      <c r="I17" s="168"/>
+      <c r="I17" s="153"/>
       <c r="J17" s="2"/>
     </row>
     <row r="18" spans="1:31" x14ac:dyDescent="0.55000000000000004">
-      <c r="A18" s="129"/>
-      <c r="B18" s="146"/>
-      <c r="C18" s="44" t="s">
+      <c r="A18" s="146"/>
+      <c r="B18" s="157"/>
+      <c r="C18" s="170" t="s">
         <v>11</v>
       </c>
-      <c r="D18" s="83">
+      <c r="D18" s="171">
         <v>2</v>
       </c>
-      <c r="E18" s="74">
+      <c r="E18" s="172">
         <v>2</v>
       </c>
-      <c r="F18" s="74">
+      <c r="F18" s="172">
         <v>2</v>
       </c>
-      <c r="G18" s="134"/>
-      <c r="H18" s="89">
+      <c r="G18" s="162"/>
+      <c r="H18" s="173">
         <v>2</v>
       </c>
-      <c r="I18" s="169"/>
+      <c r="I18" s="164"/>
       <c r="J18" s="2"/>
-      <c r="AE18" s="104"/>
+      <c r="AE18" s="52"/>
     </row>
     <row r="19" spans="1:31" x14ac:dyDescent="0.55000000000000004">
-      <c r="A19" s="129"/>
-      <c r="B19" s="144" t="s">
+      <c r="A19" s="146"/>
+      <c r="B19" s="138" t="s">
         <v>4</v>
       </c>
-      <c r="C19" s="39" t="s">
+      <c r="C19" s="139" t="s">
         <v>7</v>
       </c>
-      <c r="D19" s="78">
-        <v>0</v>
-      </c>
-      <c r="E19" s="75">
-        <v>0</v>
-      </c>
-      <c r="F19" s="75">
-        <v>0</v>
-      </c>
-      <c r="G19" s="135">
+      <c r="D19" s="140">
+        <v>0</v>
+      </c>
+      <c r="E19" s="141">
+        <v>0</v>
+      </c>
+      <c r="F19" s="141">
+        <v>0</v>
+      </c>
+      <c r="G19" s="168">
         <f t="shared" ref="G19" si="1">SUM(F19:F23)</f>
         <v>100</v>
       </c>
-      <c r="H19" s="90">
-        <v>0</v>
-      </c>
-      <c r="I19" s="167">
+      <c r="H19" s="174">
+        <v>0</v>
+      </c>
+      <c r="I19" s="145">
         <f>SUM(H19:H23)</f>
         <v>100</v>
       </c>
       <c r="J19" s="2"/>
     </row>
     <row r="20" spans="1:31" x14ac:dyDescent="0.55000000000000004">
-      <c r="A20" s="129"/>
-      <c r="B20" s="145"/>
-      <c r="C20" s="40" t="s">
+      <c r="A20" s="146"/>
+      <c r="B20" s="147"/>
+      <c r="C20" s="148" t="s">
         <v>8</v>
       </c>
-      <c r="D20" s="79">
+      <c r="D20" s="149">
         <v>24</v>
       </c>
-      <c r="E20" s="73">
+      <c r="E20" s="150">
         <v>24</v>
       </c>
-      <c r="F20" s="73">
+      <c r="F20" s="150">
         <v>24</v>
       </c>
-      <c r="G20" s="133"/>
-      <c r="H20" s="86">
+      <c r="G20" s="143"/>
+      <c r="H20" s="152">
         <v>24</v>
       </c>
-      <c r="I20" s="168"/>
+      <c r="I20" s="153"/>
       <c r="J20" s="2"/>
     </row>
     <row r="21" spans="1:31" x14ac:dyDescent="0.55000000000000004">
-      <c r="A21" s="129"/>
-      <c r="B21" s="145"/>
-      <c r="C21" s="41" t="s">
+      <c r="A21" s="146"/>
+      <c r="B21" s="147"/>
+      <c r="C21" s="154" t="s">
         <v>9</v>
       </c>
-      <c r="D21" s="80">
+      <c r="D21" s="155">
         <v>16</v>
       </c>
-      <c r="E21" s="72">
+      <c r="E21" s="156">
         <v>16</v>
       </c>
-      <c r="F21" s="72">
+      <c r="F21" s="156">
         <v>16</v>
       </c>
-      <c r="G21" s="133"/>
-      <c r="H21" s="85">
+      <c r="G21" s="143"/>
+      <c r="H21" s="144">
         <v>16</v>
       </c>
-      <c r="I21" s="168"/>
+      <c r="I21" s="153"/>
       <c r="J21" s="2"/>
     </row>
     <row r="22" spans="1:31" x14ac:dyDescent="0.55000000000000004">
-      <c r="A22" s="129"/>
-      <c r="B22" s="145"/>
-      <c r="C22" s="40" t="s">
+      <c r="A22" s="146"/>
+      <c r="B22" s="147"/>
+      <c r="C22" s="148" t="s">
         <v>10</v>
       </c>
-      <c r="D22" s="79">
+      <c r="D22" s="149">
         <v>3</v>
       </c>
-      <c r="E22" s="73">
+      <c r="E22" s="150">
         <v>3</v>
       </c>
-      <c r="F22" s="73">
+      <c r="F22" s="150">
         <v>3</v>
       </c>
-      <c r="G22" s="133"/>
-      <c r="H22" s="86">
+      <c r="G22" s="143"/>
+      <c r="H22" s="152">
         <v>3</v>
       </c>
-      <c r="I22" s="168"/>
+      <c r="I22" s="153"/>
       <c r="J22" s="2"/>
     </row>
     <row r="23" spans="1:31" x14ac:dyDescent="0.55000000000000004">
-      <c r="A23" s="129"/>
-      <c r="B23" s="146"/>
-      <c r="C23" s="42" t="s">
+      <c r="A23" s="146"/>
+      <c r="B23" s="157"/>
+      <c r="C23" s="158" t="s">
         <v>11</v>
       </c>
-      <c r="D23" s="81">
+      <c r="D23" s="159">
         <v>56.999999999999993</v>
       </c>
-      <c r="E23" s="76">
+      <c r="E23" s="160">
         <v>56.999999999999993</v>
       </c>
-      <c r="F23" s="76">
+      <c r="F23" s="160">
         <v>56.999999999999993</v>
       </c>
-      <c r="G23" s="134"/>
-      <c r="H23" s="87">
+      <c r="G23" s="162"/>
+      <c r="H23" s="163">
         <v>56.999999999999993</v>
       </c>
-      <c r="I23" s="169"/>
+      <c r="I23" s="164"/>
       <c r="J23" s="2"/>
     </row>
     <row r="24" spans="1:31" x14ac:dyDescent="0.55000000000000004">
-      <c r="A24" s="129"/>
-      <c r="B24" s="144" t="s">
+      <c r="A24" s="146"/>
+      <c r="B24" s="138" t="s">
         <v>5</v>
       </c>
-      <c r="C24" s="43" t="s">
+      <c r="C24" s="165" t="s">
         <v>7</v>
       </c>
-      <c r="D24" s="82">
-        <v>0</v>
-      </c>
-      <c r="E24" s="71">
-        <v>0</v>
-      </c>
-      <c r="F24" s="71">
-        <v>0</v>
-      </c>
-      <c r="G24" s="135">
+      <c r="D24" s="166">
+        <v>0</v>
+      </c>
+      <c r="E24" s="167">
+        <v>0</v>
+      </c>
+      <c r="F24" s="167">
+        <v>0</v>
+      </c>
+      <c r="G24" s="168">
         <f t="shared" ref="G24" si="2">SUM(F24:F28)</f>
         <v>100</v>
       </c>
-      <c r="H24" s="88">
-        <v>0</v>
-      </c>
-      <c r="I24" s="167">
+      <c r="H24" s="169">
+        <v>0</v>
+      </c>
+      <c r="I24" s="145">
         <f>SUM(H24:H28)</f>
         <v>100</v>
       </c>
       <c r="J24" s="2"/>
     </row>
     <row r="25" spans="1:31" x14ac:dyDescent="0.55000000000000004">
-      <c r="A25" s="129"/>
-      <c r="B25" s="145"/>
-      <c r="C25" s="41" t="s">
+      <c r="A25" s="146"/>
+      <c r="B25" s="147"/>
+      <c r="C25" s="154" t="s">
         <v>8</v>
       </c>
-      <c r="D25" s="80">
+      <c r="D25" s="155">
         <v>27</v>
       </c>
-      <c r="E25" s="72">
+      <c r="E25" s="156">
         <v>27</v>
       </c>
-      <c r="F25" s="72">
+      <c r="F25" s="156">
         <v>27</v>
       </c>
-      <c r="G25" s="133"/>
-      <c r="H25" s="85">
+      <c r="G25" s="143"/>
+      <c r="H25" s="144">
         <v>27</v>
       </c>
-      <c r="I25" s="168"/>
+      <c r="I25" s="153"/>
       <c r="J25" s="2"/>
     </row>
     <row r="26" spans="1:31" x14ac:dyDescent="0.55000000000000004">
-      <c r="A26" s="129"/>
-      <c r="B26" s="145"/>
-      <c r="C26" s="40" t="s">
+      <c r="A26" s="146"/>
+      <c r="B26" s="147"/>
+      <c r="C26" s="148" t="s">
         <v>9</v>
       </c>
-      <c r="D26" s="79">
+      <c r="D26" s="149">
         <v>21</v>
       </c>
-      <c r="E26" s="73">
+      <c r="E26" s="150">
         <v>21</v>
       </c>
-      <c r="F26" s="73">
+      <c r="F26" s="150">
         <v>21</v>
       </c>
-      <c r="G26" s="133"/>
-      <c r="H26" s="86">
+      <c r="G26" s="143"/>
+      <c r="H26" s="152">
         <v>21</v>
       </c>
-      <c r="I26" s="168"/>
+      <c r="I26" s="153"/>
       <c r="J26" s="2"/>
     </row>
     <row r="27" spans="1:31" x14ac:dyDescent="0.55000000000000004">
-      <c r="A27" s="129"/>
-      <c r="B27" s="145"/>
-      <c r="C27" s="41" t="s">
+      <c r="A27" s="146"/>
+      <c r="B27" s="147"/>
+      <c r="C27" s="154" t="s">
         <v>10</v>
       </c>
-      <c r="D27" s="80">
-        <v>0</v>
-      </c>
-      <c r="E27" s="72">
-        <v>0</v>
-      </c>
-      <c r="F27" s="72">
-        <v>0</v>
-      </c>
-      <c r="G27" s="133"/>
-      <c r="H27" s="85">
-        <v>0</v>
-      </c>
-      <c r="I27" s="168"/>
+      <c r="D27" s="155">
+        <v>0</v>
+      </c>
+      <c r="E27" s="156">
+        <v>0</v>
+      </c>
+      <c r="F27" s="156">
+        <v>0</v>
+      </c>
+      <c r="G27" s="143"/>
+      <c r="H27" s="144">
+        <v>0</v>
+      </c>
+      <c r="I27" s="153"/>
       <c r="J27" s="2"/>
     </row>
     <row r="28" spans="1:31" x14ac:dyDescent="0.55000000000000004">
-      <c r="A28" s="129"/>
-      <c r="B28" s="146"/>
-      <c r="C28" s="44" t="s">
+      <c r="A28" s="146"/>
+      <c r="B28" s="157"/>
+      <c r="C28" s="170" t="s">
         <v>11</v>
       </c>
-      <c r="D28" s="83">
+      <c r="D28" s="171">
         <v>52</v>
       </c>
-      <c r="E28" s="74">
+      <c r="E28" s="172">
         <v>52</v>
       </c>
-      <c r="F28" s="74">
+      <c r="F28" s="172">
         <v>52</v>
       </c>
-      <c r="G28" s="134"/>
-      <c r="H28" s="89">
+      <c r="G28" s="162"/>
+      <c r="H28" s="173">
         <v>52</v>
       </c>
-      <c r="I28" s="169"/>
+      <c r="I28" s="164"/>
       <c r="J28" s="2"/>
     </row>
     <row r="29" spans="1:31" x14ac:dyDescent="0.55000000000000004">
-      <c r="A29" s="130" t="s">
+      <c r="A29" s="175" t="s">
         <v>26</v>
       </c>
-      <c r="B29" s="144" t="s">
+      <c r="B29" s="138" t="s">
         <v>30</v>
       </c>
-      <c r="C29" s="39" t="s">
+      <c r="C29" s="139" t="s">
         <v>7</v>
       </c>
-      <c r="D29" s="78">
+      <c r="D29" s="140">
         <v>31</v>
       </c>
-      <c r="E29" s="75">
+      <c r="E29" s="141">
         <v>31</v>
       </c>
-      <c r="F29" s="75">
+      <c r="F29" s="141">
         <v>31</v>
       </c>
-      <c r="G29" s="135">
+      <c r="G29" s="168">
         <f>SUM(F29:F41)</f>
         <v>100</v>
       </c>
-      <c r="H29" s="90">
+      <c r="H29" s="174">
         <v>31</v>
       </c>
-      <c r="I29" s="167">
+      <c r="I29" s="145">
         <f>SUM(H29:H41)</f>
         <v>100</v>
       </c>
       <c r="J29" s="2"/>
     </row>
     <row r="30" spans="1:31" x14ac:dyDescent="0.55000000000000004">
-      <c r="A30" s="131"/>
-      <c r="B30" s="145"/>
-      <c r="C30" s="45" t="s">
+      <c r="A30" s="176"/>
+      <c r="B30" s="147"/>
+      <c r="C30" s="177" t="s">
         <v>76</v>
       </c>
-      <c r="D30" s="84">
-        <v>0</v>
-      </c>
-      <c r="E30" s="77">
-        <v>0</v>
-      </c>
-      <c r="F30" s="77">
-        <v>0</v>
-      </c>
-      <c r="G30" s="133"/>
-      <c r="H30" s="91">
-        <v>0</v>
-      </c>
-      <c r="I30" s="168"/>
+      <c r="D30" s="178">
+        <v>0</v>
+      </c>
+      <c r="E30" s="179">
+        <v>0</v>
+      </c>
+      <c r="F30" s="179">
+        <v>0</v>
+      </c>
+      <c r="G30" s="143"/>
+      <c r="H30" s="180">
+        <v>0</v>
+      </c>
+      <c r="I30" s="153"/>
       <c r="J30" s="2"/>
     </row>
     <row r="31" spans="1:31" x14ac:dyDescent="0.55000000000000004">
-      <c r="A31" s="131"/>
-      <c r="B31" s="145"/>
-      <c r="C31" s="41" t="s">
+      <c r="A31" s="176"/>
+      <c r="B31" s="147"/>
+      <c r="C31" s="154" t="s">
         <v>8</v>
       </c>
-      <c r="D31" s="80">
+      <c r="D31" s="155">
         <v>3</v>
       </c>
-      <c r="E31" s="72">
+      <c r="E31" s="156">
         <v>3</v>
       </c>
-      <c r="F31" s="72">
+      <c r="F31" s="156">
         <v>3</v>
       </c>
-      <c r="G31" s="133"/>
-      <c r="H31" s="85">
+      <c r="G31" s="143"/>
+      <c r="H31" s="144">
         <v>3</v>
       </c>
-      <c r="I31" s="168"/>
+      <c r="I31" s="153"/>
       <c r="J31" s="2"/>
     </row>
     <row r="32" spans="1:31" x14ac:dyDescent="0.55000000000000004">
-      <c r="A32" s="131"/>
-      <c r="B32" s="145"/>
-      <c r="C32" s="45" t="s">
+      <c r="A32" s="176"/>
+      <c r="B32" s="147"/>
+      <c r="C32" s="177" t="s">
         <v>77</v>
       </c>
-      <c r="D32" s="84">
-        <v>0</v>
-      </c>
-      <c r="E32" s="77">
-        <v>0</v>
-      </c>
-      <c r="F32" s="77">
-        <v>0</v>
-      </c>
-      <c r="G32" s="133"/>
-      <c r="H32" s="91">
-        <v>0</v>
-      </c>
-      <c r="I32" s="168"/>
+      <c r="D32" s="178">
+        <v>0</v>
+      </c>
+      <c r="E32" s="179">
+        <v>0</v>
+      </c>
+      <c r="F32" s="179">
+        <v>0</v>
+      </c>
+      <c r="G32" s="143"/>
+      <c r="H32" s="180">
+        <v>0</v>
+      </c>
+      <c r="I32" s="153"/>
       <c r="J32" s="2"/>
     </row>
     <row r="33" spans="1:10" x14ac:dyDescent="0.55000000000000004">
-      <c r="A33" s="131"/>
-      <c r="B33" s="145"/>
-      <c r="C33" s="41" t="s">
+      <c r="A33" s="176"/>
+      <c r="B33" s="147"/>
+      <c r="C33" s="154" t="s">
         <v>9</v>
       </c>
-      <c r="D33" s="80">
+      <c r="D33" s="155">
         <v>40</v>
       </c>
-      <c r="E33" s="72">
+      <c r="E33" s="156">
         <v>40</v>
       </c>
-      <c r="F33" s="72">
+      <c r="F33" s="156">
         <v>40</v>
       </c>
-      <c r="G33" s="133"/>
-      <c r="H33" s="85">
+      <c r="G33" s="143"/>
+      <c r="H33" s="144">
         <v>40</v>
       </c>
-      <c r="I33" s="168"/>
+      <c r="I33" s="153"/>
       <c r="J33" s="2"/>
     </row>
     <row r="34" spans="1:10" x14ac:dyDescent="0.55000000000000004">
-      <c r="A34" s="131"/>
-      <c r="B34" s="145"/>
-      <c r="C34" s="45" t="s">
+      <c r="A34" s="176"/>
+      <c r="B34" s="147"/>
+      <c r="C34" s="177" t="s">
         <v>78</v>
       </c>
-      <c r="D34" s="84">
-        <v>0</v>
-      </c>
-      <c r="E34" s="77">
-        <v>0</v>
-      </c>
-      <c r="F34" s="77">
-        <v>0</v>
-      </c>
-      <c r="G34" s="133"/>
-      <c r="H34" s="91">
-        <v>0</v>
-      </c>
-      <c r="I34" s="168"/>
+      <c r="D34" s="178">
+        <v>0</v>
+      </c>
+      <c r="E34" s="179">
+        <v>0</v>
+      </c>
+      <c r="F34" s="179">
+        <v>0</v>
+      </c>
+      <c r="G34" s="143"/>
+      <c r="H34" s="180">
+        <v>0</v>
+      </c>
+      <c r="I34" s="153"/>
       <c r="J34" s="2"/>
     </row>
     <row r="35" spans="1:10" x14ac:dyDescent="0.55000000000000004">
-      <c r="A35" s="131"/>
-      <c r="B35" s="145"/>
-      <c r="C35" s="41" t="s">
+      <c r="A35" s="176"/>
+      <c r="B35" s="147"/>
+      <c r="C35" s="154" t="s">
         <v>79</v>
       </c>
-      <c r="D35" s="80">
+      <c r="D35" s="155">
         <v>4</v>
       </c>
-      <c r="E35" s="72">
+      <c r="E35" s="156">
         <v>4</v>
       </c>
-      <c r="F35" s="72">
+      <c r="F35" s="156">
         <v>4</v>
       </c>
-      <c r="G35" s="133"/>
-      <c r="H35" s="85">
+      <c r="G35" s="143"/>
+      <c r="H35" s="144">
         <v>4</v>
       </c>
-      <c r="I35" s="168"/>
+      <c r="I35" s="153"/>
       <c r="J35" s="2"/>
     </row>
     <row r="36" spans="1:10" x14ac:dyDescent="0.55000000000000004">
-      <c r="A36" s="131"/>
-      <c r="B36" s="145"/>
-      <c r="C36" s="45" t="s">
+      <c r="A36" s="176"/>
+      <c r="B36" s="147"/>
+      <c r="C36" s="177" t="s">
         <v>10</v>
       </c>
-      <c r="D36" s="84">
+      <c r="D36" s="178">
         <v>5</v>
       </c>
-      <c r="E36" s="77">
+      <c r="E36" s="179">
         <v>5</v>
       </c>
-      <c r="F36" s="77">
+      <c r="F36" s="179">
         <v>5</v>
       </c>
-      <c r="G36" s="133"/>
-      <c r="H36" s="91">
+      <c r="G36" s="143"/>
+      <c r="H36" s="180">
         <v>5</v>
       </c>
-      <c r="I36" s="168"/>
+      <c r="I36" s="153"/>
       <c r="J36" s="2"/>
     </row>
     <row r="37" spans="1:10" x14ac:dyDescent="0.55000000000000004">
-      <c r="A37" s="131"/>
-      <c r="B37" s="145"/>
-      <c r="C37" s="41" t="s">
+      <c r="A37" s="176"/>
+      <c r="B37" s="147"/>
+      <c r="C37" s="154" t="s">
         <v>80</v>
       </c>
-      <c r="D37" s="80">
-        <v>0</v>
-      </c>
-      <c r="E37" s="72">
-        <v>0</v>
-      </c>
-      <c r="F37" s="72">
-        <v>0</v>
-      </c>
-      <c r="G37" s="133"/>
-      <c r="H37" s="85">
-        <v>0</v>
-      </c>
-      <c r="I37" s="168"/>
+      <c r="D37" s="155">
+        <v>0</v>
+      </c>
+      <c r="E37" s="156">
+        <v>0</v>
+      </c>
+      <c r="F37" s="156">
+        <v>0</v>
+      </c>
+      <c r="G37" s="143"/>
+      <c r="H37" s="144">
+        <v>0</v>
+      </c>
+      <c r="I37" s="153"/>
       <c r="J37" s="2"/>
     </row>
     <row r="38" spans="1:10" x14ac:dyDescent="0.55000000000000004">
-      <c r="A38" s="131"/>
-      <c r="B38" s="145"/>
-      <c r="C38" s="45" t="s">
+      <c r="A38" s="176"/>
+      <c r="B38" s="147"/>
+      <c r="C38" s="177" t="s">
         <v>81</v>
       </c>
-      <c r="D38" s="84">
+      <c r="D38" s="178">
         <v>8</v>
       </c>
-      <c r="E38" s="77">
+      <c r="E38" s="179">
         <v>8</v>
       </c>
-      <c r="F38" s="77">
+      <c r="F38" s="179">
         <v>8</v>
       </c>
-      <c r="G38" s="133"/>
-      <c r="H38" s="91">
+      <c r="G38" s="143"/>
+      <c r="H38" s="180">
         <v>8</v>
       </c>
-      <c r="I38" s="168"/>
+      <c r="I38" s="153"/>
       <c r="J38" s="2"/>
     </row>
     <row r="39" spans="1:10" x14ac:dyDescent="0.55000000000000004">
-      <c r="A39" s="131"/>
-      <c r="B39" s="145"/>
-      <c r="C39" s="41" t="s">
+      <c r="A39" s="176"/>
+      <c r="B39" s="147"/>
+      <c r="C39" s="154" t="s">
         <v>82</v>
       </c>
-      <c r="D39" s="80">
-        <v>0</v>
-      </c>
-      <c r="E39" s="72">
-        <v>0</v>
-      </c>
-      <c r="F39" s="72">
-        <v>0</v>
-      </c>
-      <c r="G39" s="133"/>
-      <c r="H39" s="85">
-        <v>0</v>
-      </c>
-      <c r="I39" s="168"/>
+      <c r="D39" s="155">
+        <v>0</v>
+      </c>
+      <c r="E39" s="156">
+        <v>0</v>
+      </c>
+      <c r="F39" s="156">
+        <v>0</v>
+      </c>
+      <c r="G39" s="143"/>
+      <c r="H39" s="144">
+        <v>0</v>
+      </c>
+      <c r="I39" s="153"/>
       <c r="J39" s="2"/>
     </row>
     <row r="40" spans="1:10" x14ac:dyDescent="0.55000000000000004">
-      <c r="A40" s="131"/>
-      <c r="B40" s="145"/>
-      <c r="C40" s="45" t="s">
+      <c r="A40" s="176"/>
+      <c r="B40" s="147"/>
+      <c r="C40" s="177" t="s">
         <v>83</v>
       </c>
-      <c r="D40" s="84">
+      <c r="D40" s="178">
         <v>1</v>
       </c>
-      <c r="E40" s="77">
+      <c r="E40" s="179">
         <v>1</v>
       </c>
-      <c r="F40" s="77">
+      <c r="F40" s="179">
         <v>1</v>
       </c>
-      <c r="G40" s="133"/>
-      <c r="H40" s="91">
+      <c r="G40" s="143"/>
+      <c r="H40" s="180">
         <v>1</v>
       </c>
-      <c r="I40" s="168"/>
+      <c r="I40" s="153"/>
       <c r="J40" s="2"/>
     </row>
     <row r="41" spans="1:10" x14ac:dyDescent="0.55000000000000004">
-      <c r="A41" s="132"/>
-      <c r="B41" s="146"/>
-      <c r="C41" s="42" t="s">
+      <c r="A41" s="181"/>
+      <c r="B41" s="157"/>
+      <c r="C41" s="158" t="s">
         <v>84</v>
       </c>
-      <c r="D41" s="81">
+      <c r="D41" s="159">
         <v>8</v>
       </c>
-      <c r="E41" s="76">
+      <c r="E41" s="160">
         <v>8</v>
       </c>
-      <c r="F41" s="76">
+      <c r="F41" s="160">
         <v>8</v>
       </c>
-      <c r="G41" s="134"/>
-      <c r="H41" s="87">
+      <c r="G41" s="162"/>
+      <c r="H41" s="163">
         <v>8</v>
       </c>
-      <c r="I41" s="169"/>
+      <c r="I41" s="164"/>
       <c r="J41" s="2"/>
     </row>
     <row r="43" spans="1:10" x14ac:dyDescent="0.55000000000000004">
-      <c r="A43" s="113"/>
-      <c r="D43" s="67"/>
-      <c r="E43" s="67"/>
+      <c r="A43" s="61"/>
+      <c r="D43" s="49"/>
+      <c r="E43" s="49"/>
     </row>
     <row r="44" spans="1:10" x14ac:dyDescent="0.55000000000000004">
-      <c r="A44" s="114"/>
-      <c r="D44" s="67"/>
-      <c r="E44" s="67"/>
+      <c r="A44" s="62"/>
+      <c r="D44" s="49"/>
+      <c r="E44" s="49"/>
     </row>
     <row r="45" spans="1:10" x14ac:dyDescent="0.55000000000000004">
-      <c r="D45" s="67"/>
+      <c r="D45" s="49"/>
     </row>
     <row r="46" spans="1:10" x14ac:dyDescent="0.55000000000000004">
-      <c r="D46" s="67"/>
+      <c r="D46" s="49"/>
     </row>
     <row r="47" spans="1:10" x14ac:dyDescent="0.55000000000000004">
       <c r="B47" s="17"/>
@@ -25838,28 +25887,12 @@
     </row>
   </sheetData>
   <mergeCells count="44">
-    <mergeCell ref="B29:B41"/>
-    <mergeCell ref="H5:I5"/>
-    <mergeCell ref="H6:I6"/>
-    <mergeCell ref="H7:I7"/>
-    <mergeCell ref="H8:I8"/>
-    <mergeCell ref="I9:I13"/>
-    <mergeCell ref="I14:I18"/>
-    <mergeCell ref="I19:I23"/>
-    <mergeCell ref="I24:I28"/>
-    <mergeCell ref="I29:I41"/>
-    <mergeCell ref="H1:I1"/>
-    <mergeCell ref="H2:I2"/>
-    <mergeCell ref="A1:C2"/>
-    <mergeCell ref="F3:G3"/>
-    <mergeCell ref="F4:G4"/>
-    <mergeCell ref="H3:I3"/>
-    <mergeCell ref="H4:I4"/>
-    <mergeCell ref="A3:A4"/>
-    <mergeCell ref="B3:C3"/>
-    <mergeCell ref="B4:C4"/>
-    <mergeCell ref="F1:G1"/>
-    <mergeCell ref="F2:G2"/>
+    <mergeCell ref="AE4:AE5"/>
+    <mergeCell ref="Z4:Z5"/>
+    <mergeCell ref="AA4:AA5"/>
+    <mergeCell ref="AB4:AB5"/>
+    <mergeCell ref="AC4:AC5"/>
+    <mergeCell ref="AD4:AD5"/>
     <mergeCell ref="A5:A8"/>
     <mergeCell ref="A9:A28"/>
     <mergeCell ref="A29:A41"/>
@@ -25876,121 +25909,158 @@
     <mergeCell ref="B14:B18"/>
     <mergeCell ref="B19:B23"/>
     <mergeCell ref="B24:B28"/>
-    <mergeCell ref="AE4:AE5"/>
-    <mergeCell ref="Z4:Z5"/>
-    <mergeCell ref="AA4:AA5"/>
-    <mergeCell ref="AB4:AB5"/>
-    <mergeCell ref="AC4:AC5"/>
-    <mergeCell ref="AD4:AD5"/>
+    <mergeCell ref="H1:I1"/>
+    <mergeCell ref="H2:I2"/>
+    <mergeCell ref="A1:C2"/>
+    <mergeCell ref="F3:G3"/>
+    <mergeCell ref="F4:G4"/>
+    <mergeCell ref="H3:I3"/>
+    <mergeCell ref="H4:I4"/>
+    <mergeCell ref="A3:A4"/>
+    <mergeCell ref="B3:C3"/>
+    <mergeCell ref="B4:C4"/>
+    <mergeCell ref="F1:G1"/>
+    <mergeCell ref="F2:G2"/>
+    <mergeCell ref="B29:B41"/>
+    <mergeCell ref="H5:I5"/>
+    <mergeCell ref="H6:I6"/>
+    <mergeCell ref="H7:I7"/>
+    <mergeCell ref="H8:I8"/>
+    <mergeCell ref="I9:I13"/>
+    <mergeCell ref="I14:I18"/>
+    <mergeCell ref="I19:I23"/>
+    <mergeCell ref="I24:I28"/>
+    <mergeCell ref="I29:I41"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <conditionalFormatting sqref="G14">
-    <cfRule type="expression" dxfId="21" priority="23">
+    <cfRule type="expression" dxfId="28" priority="31">
       <formula>$G$14&lt;&gt;100</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G9">
-    <cfRule type="expression" dxfId="20" priority="19">
+    <cfRule type="expression" dxfId="27" priority="27">
       <formula>$G$9&lt;&gt;100</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I19">
-    <cfRule type="expression" dxfId="19" priority="20">
+    <cfRule type="expression" dxfId="26" priority="28">
       <formula>$I$19&lt;&gt;100</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G29">
-    <cfRule type="expression" dxfId="18" priority="21">
+    <cfRule type="expression" dxfId="25" priority="29">
       <formula>$G$29&lt;&gt;100</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G24">
-    <cfRule type="expression" dxfId="17" priority="22">
+    <cfRule type="expression" dxfId="24" priority="30">
       <formula>$G$24&lt;&gt;100</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I9">
-    <cfRule type="expression" dxfId="16" priority="18">
+    <cfRule type="expression" dxfId="23" priority="26">
       <formula>$I$9&lt;&gt;100</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I14">
-    <cfRule type="expression" dxfId="15" priority="16">
+    <cfRule type="expression" dxfId="22" priority="24">
       <formula>$I$14&lt;&gt;100</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G19">
-    <cfRule type="expression" dxfId="14" priority="15">
+    <cfRule type="expression" dxfId="21" priority="23">
       <formula>$G$19&lt;&gt;100</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I24">
-    <cfRule type="expression" dxfId="13" priority="14">
+    <cfRule type="expression" dxfId="20" priority="22">
       <formula>$I$24&lt;&gt;100</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I29">
-    <cfRule type="expression" dxfId="12" priority="13">
+    <cfRule type="expression" dxfId="19" priority="21">
       <formula>$I$29&lt;&gt;100</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C9:F28">
-    <cfRule type="expression" dxfId="11" priority="12">
+    <cfRule type="expression" dxfId="5" priority="20">
       <formula>MOD(ROW(),2)=0</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="4" priority="8">
+      <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H9:H28">
-    <cfRule type="expression" dxfId="10" priority="11">
+    <cfRule type="expression" dxfId="7" priority="19">
       <formula>MOD(ROW(),2)=0</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="6" priority="5">
+      <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B5:I8">
-    <cfRule type="expression" dxfId="9" priority="10">
+    <cfRule type="expression" dxfId="3" priority="18">
       <formula>MOD(ROW(),2)=0</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="2" priority="7">
+      <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C29:F41">
-    <cfRule type="expression" dxfId="8" priority="9">
+    <cfRule type="expression" dxfId="9" priority="17">
       <formula>MOD(ROW(),2)=0</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="8" priority="4">
+      <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H29:H41">
-    <cfRule type="expression" dxfId="7" priority="8">
+    <cfRule type="expression" dxfId="18" priority="16">
       <formula>MOD(ROW(),2)=0</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="17" priority="3">
+      <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B3:I4">
-    <cfRule type="expression" dxfId="6" priority="7">
+    <cfRule type="expression" dxfId="1" priority="15">
       <formula>MOD(ROW(),2)=0</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="0" priority="6">
+      <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A3">
-    <cfRule type="expression" dxfId="5" priority="6">
+    <cfRule type="expression" dxfId="16" priority="14">
       <formula>MOD(ROW(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A5">
-    <cfRule type="expression" dxfId="4" priority="5">
+    <cfRule type="expression" dxfId="15" priority="13">
       <formula>MOD(ROW(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A9">
-    <cfRule type="expression" dxfId="3" priority="4">
+    <cfRule type="expression" dxfId="14" priority="12">
       <formula>MOD(ROW(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A29">
-    <cfRule type="expression" dxfId="2" priority="3">
+    <cfRule type="expression" dxfId="13" priority="11">
       <formula>MOD(ROW(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="Z6:AE14">
-    <cfRule type="expression" dxfId="1" priority="2">
+    <cfRule type="expression" dxfId="11" priority="10">
       <formula>MOD(ROW(),2)=1</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="10" priority="1">
+      <formula>MOD(ROW(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="Z4:AE5">
-    <cfRule type="expression" dxfId="0" priority="1">
+    <cfRule type="expression" dxfId="12" priority="9">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
@@ -31105,20 +31175,20 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:11" x14ac:dyDescent="0.55000000000000004">
-      <c r="B1" s="178" t="s">
+      <c r="B1" s="81" t="s">
         <v>43</v>
       </c>
-      <c r="C1" s="178"/>
-      <c r="D1" s="178"/>
-      <c r="E1" s="178"/>
-      <c r="F1" s="178"/>
-      <c r="G1" s="179" t="s">
+      <c r="C1" s="81"/>
+      <c r="D1" s="81"/>
+      <c r="E1" s="81"/>
+      <c r="F1" s="81"/>
+      <c r="G1" s="82" t="s">
         <v>44</v>
       </c>
-      <c r="H1" s="178"/>
-      <c r="I1" s="178"/>
-      <c r="J1" s="178"/>
-      <c r="K1" s="178"/>
+      <c r="H1" s="81"/>
+      <c r="I1" s="81"/>
+      <c r="J1" s="81"/>
+      <c r="K1" s="81"/>
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.55000000000000004">
       <c r="A2" s="12" t="s">
@@ -32951,27 +33021,27 @@
         <f>シナリオ!F11/100</f>
         <v>0.14000000000000001</v>
       </c>
-      <c r="E46" s="95">
+      <c r="E46" s="50">
         <f>シナリオ!F12/100</f>
         <v>0.04</v>
       </c>
-      <c r="F46" s="95">
+      <c r="F46" s="50">
         <f>シナリオ!F13/100</f>
         <v>0.36</v>
       </c>
-      <c r="G46" s="95">
+      <c r="G46" s="50">
         <f>シナリオ!H9/100</f>
         <v>0.24</v>
       </c>
-      <c r="H46" s="95">
+      <c r="H46" s="50">
         <f>シナリオ!H10/100</f>
         <v>0.22</v>
       </c>
-      <c r="I46" s="95">
+      <c r="I46" s="50">
         <f>シナリオ!H11/100</f>
         <v>0.14000000000000001</v>
       </c>
-      <c r="J46" s="95">
+      <c r="J46" s="50">
         <f>シナリオ!H12/100</f>
         <v>0.04</v>
       </c>
@@ -33007,20 +33077,20 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:11" x14ac:dyDescent="0.55000000000000004">
-      <c r="B1" s="178" t="s">
+      <c r="B1" s="81" t="s">
         <v>45</v>
       </c>
-      <c r="C1" s="178"/>
-      <c r="D1" s="178"/>
-      <c r="E1" s="178"/>
-      <c r="F1" s="178"/>
-      <c r="G1" s="179" t="s">
+      <c r="C1" s="81"/>
+      <c r="D1" s="81"/>
+      <c r="E1" s="81"/>
+      <c r="F1" s="81"/>
+      <c r="G1" s="82" t="s">
         <v>48</v>
       </c>
-      <c r="H1" s="178"/>
-      <c r="I1" s="178"/>
-      <c r="J1" s="178"/>
-      <c r="K1" s="178"/>
+      <c r="H1" s="81"/>
+      <c r="I1" s="81"/>
+      <c r="J1" s="81"/>
+      <c r="K1" s="81"/>
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.55000000000000004">
       <c r="A2" s="12" t="s">
@@ -34907,20 +34977,20 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:11" x14ac:dyDescent="0.55000000000000004">
-      <c r="B1" s="178" t="s">
+      <c r="B1" s="81" t="s">
         <v>46</v>
       </c>
-      <c r="C1" s="178"/>
-      <c r="D1" s="178"/>
-      <c r="E1" s="178"/>
-      <c r="F1" s="178"/>
-      <c r="G1" s="179" t="s">
+      <c r="C1" s="81"/>
+      <c r="D1" s="81"/>
+      <c r="E1" s="81"/>
+      <c r="F1" s="81"/>
+      <c r="G1" s="82" t="s">
         <v>50</v>
       </c>
-      <c r="H1" s="178"/>
-      <c r="I1" s="178"/>
-      <c r="J1" s="178"/>
-      <c r="K1" s="178"/>
+      <c r="H1" s="81"/>
+      <c r="I1" s="81"/>
+      <c r="J1" s="81"/>
+      <c r="K1" s="81"/>
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.55000000000000004">
       <c r="A2" s="12" t="s">
@@ -36807,20 +36877,20 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:11" x14ac:dyDescent="0.55000000000000004">
-      <c r="B1" s="178" t="s">
+      <c r="B1" s="81" t="s">
         <v>47</v>
       </c>
-      <c r="C1" s="178"/>
-      <c r="D1" s="178"/>
-      <c r="E1" s="178"/>
-      <c r="F1" s="178"/>
-      <c r="G1" s="179" t="s">
+      <c r="C1" s="81"/>
+      <c r="D1" s="81"/>
+      <c r="E1" s="81"/>
+      <c r="F1" s="81"/>
+      <c r="G1" s="82" t="s">
         <v>49</v>
       </c>
-      <c r="H1" s="178"/>
-      <c r="I1" s="178"/>
-      <c r="J1" s="178"/>
-      <c r="K1" s="178"/>
+      <c r="H1" s="81"/>
+      <c r="I1" s="81"/>
+      <c r="J1" s="81"/>
+      <c r="K1" s="81"/>
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.55000000000000004">
       <c r="A2" s="12" t="s">
@@ -38707,36 +38777,36 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:27" x14ac:dyDescent="0.55000000000000004">
-      <c r="B1" s="180" t="s">
-        <v>0</v>
-      </c>
-      <c r="C1" s="180"/>
-      <c r="D1" s="180"/>
-      <c r="E1" s="180"/>
-      <c r="F1" s="180"/>
-      <c r="G1" s="180"/>
-      <c r="H1" s="180"/>
-      <c r="I1" s="180"/>
-      <c r="J1" s="180"/>
-      <c r="K1" s="180"/>
-      <c r="L1" s="180"/>
-      <c r="M1" s="180"/>
-      <c r="N1" s="181"/>
-      <c r="O1" s="180" t="s">
+      <c r="B1" s="83" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="83"/>
+      <c r="D1" s="83"/>
+      <c r="E1" s="83"/>
+      <c r="F1" s="83"/>
+      <c r="G1" s="83"/>
+      <c r="H1" s="83"/>
+      <c r="I1" s="83"/>
+      <c r="J1" s="83"/>
+      <c r="K1" s="83"/>
+      <c r="L1" s="83"/>
+      <c r="M1" s="83"/>
+      <c r="N1" s="84"/>
+      <c r="O1" s="83" t="s">
         <v>6</v>
       </c>
-      <c r="P1" s="180"/>
-      <c r="Q1" s="180"/>
-      <c r="R1" s="180"/>
-      <c r="S1" s="180"/>
-      <c r="T1" s="180"/>
-      <c r="U1" s="180"/>
-      <c r="V1" s="180"/>
-      <c r="W1" s="180"/>
-      <c r="X1" s="180"/>
-      <c r="Y1" s="180"/>
-      <c r="Z1" s="180"/>
-      <c r="AA1" s="180"/>
+      <c r="P1" s="83"/>
+      <c r="Q1" s="83"/>
+      <c r="R1" s="83"/>
+      <c r="S1" s="83"/>
+      <c r="T1" s="83"/>
+      <c r="U1" s="83"/>
+      <c r="V1" s="83"/>
+      <c r="W1" s="83"/>
+      <c r="X1" s="83"/>
+      <c r="Y1" s="83"/>
+      <c r="Z1" s="83"/>
+      <c r="AA1" s="83"/>
     </row>
     <row r="2" spans="1:27" x14ac:dyDescent="0.55000000000000004">
       <c r="A2" s="12" t="s">
@@ -43137,7 +43207,7 @@
         <f>シナリオ!F33/100</f>
         <v>0.4</v>
       </c>
-      <c r="G46" s="95">
+      <c r="G46" s="50">
         <f>シナリオ!F34/100</f>
         <v>0</v>
       </c>
@@ -43149,7 +43219,7 @@
         <f>シナリオ!F36/100</f>
         <v>0.05</v>
       </c>
-      <c r="J46" s="95">
+      <c r="J46" s="50">
         <f>シナリオ!F37/100</f>
         <v>0</v>
       </c>
@@ -43254,61 +43324,61 @@
   <sheetData>
     <row r="1" spans="1:12" x14ac:dyDescent="0.55000000000000004">
       <c r="A1" s="10"/>
-      <c r="B1" s="105"/>
-      <c r="C1" s="170" t="s">
-        <v>0</v>
-      </c>
-      <c r="D1" s="171"/>
-      <c r="E1" s="171"/>
-      <c r="F1" s="171"/>
-      <c r="G1" s="172"/>
-      <c r="H1" s="173" t="s">
+      <c r="B1" s="53"/>
+      <c r="C1" s="73" t="s">
+        <v>0</v>
+      </c>
+      <c r="D1" s="74"/>
+      <c r="E1" s="74"/>
+      <c r="F1" s="74"/>
+      <c r="G1" s="75"/>
+      <c r="H1" s="76" t="s">
         <v>6</v>
       </c>
-      <c r="I1" s="173"/>
-      <c r="J1" s="173"/>
-      <c r="K1" s="173"/>
-      <c r="L1" s="174"/>
+      <c r="I1" s="76"/>
+      <c r="J1" s="76"/>
+      <c r="K1" s="76"/>
+      <c r="L1" s="77"/>
     </row>
     <row r="2" spans="1:12" x14ac:dyDescent="0.55000000000000004">
       <c r="A2" s="8"/>
       <c r="B2" s="6"/>
-      <c r="C2" s="110" t="s">
+      <c r="C2" s="58" t="s">
         <v>7</v>
       </c>
-      <c r="D2" s="111" t="s">
+      <c r="D2" s="59" t="s">
         <v>8</v>
       </c>
-      <c r="E2" s="111" t="s">
+      <c r="E2" s="59" t="s">
         <v>9</v>
       </c>
-      <c r="F2" s="111" t="s">
+      <c r="F2" s="59" t="s">
         <v>10</v>
       </c>
-      <c r="G2" s="112" t="s">
+      <c r="G2" s="60" t="s">
         <v>11</v>
       </c>
-      <c r="H2" s="111" t="s">
+      <c r="H2" s="59" t="s">
         <v>7</v>
       </c>
-      <c r="I2" s="111" t="s">
+      <c r="I2" s="59" t="s">
         <v>8</v>
       </c>
-      <c r="J2" s="111" t="s">
+      <c r="J2" s="59" t="s">
         <v>9</v>
       </c>
-      <c r="K2" s="111" t="s">
+      <c r="K2" s="59" t="s">
         <v>10</v>
       </c>
-      <c r="L2" s="112" t="s">
+      <c r="L2" s="60" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="3" spans="1:12" x14ac:dyDescent="0.55000000000000004">
-      <c r="A3" s="109" t="s">
+      <c r="A3" s="57" t="s">
         <v>2</v>
       </c>
-      <c r="B3" s="109">
+      <c r="B3" s="57">
         <v>2010</v>
       </c>
       <c r="C3" s="10">
@@ -43327,7 +43397,7 @@
         <f>'Consumption(EJyr)'!$B$2*sIND!E3</f>
         <v>0.13971205722135449</v>
       </c>
-      <c r="G3" s="105">
+      <c r="G3" s="53">
         <f>'Consumption(EJyr)'!$B$2*sIND!F3</f>
         <v>1.3636103186366102</v>
       </c>
@@ -43347,14 +43417,14 @@
         <f>'Consumption(EJyr)'!$C$2*sIND!J3</f>
         <v>0.13971205722135449</v>
       </c>
-      <c r="L3" s="105">
+      <c r="L3" s="53">
         <f>'Consumption(EJyr)'!$C$2*sIND!K3</f>
         <v>1.3636103186366102</v>
       </c>
     </row>
     <row r="4" spans="1:12" x14ac:dyDescent="0.55000000000000004">
-      <c r="A4" s="107"/>
-      <c r="B4" s="107">
+      <c r="A4" s="55"/>
+      <c r="B4" s="55">
         <v>2020</v>
       </c>
       <c r="C4" s="9">
@@ -43399,8 +43469,8 @@
       </c>
     </row>
     <row r="5" spans="1:12" x14ac:dyDescent="0.55000000000000004">
-      <c r="A5" s="107"/>
-      <c r="B5" s="107">
+      <c r="A5" s="55"/>
+      <c r="B5" s="55">
         <v>2030</v>
       </c>
       <c r="C5" s="9">
@@ -43445,8 +43515,8 @@
       </c>
     </row>
     <row r="6" spans="1:12" x14ac:dyDescent="0.55000000000000004">
-      <c r="A6" s="107"/>
-      <c r="B6" s="107">
+      <c r="A6" s="55"/>
+      <c r="B6" s="55">
         <v>2040</v>
       </c>
       <c r="C6" s="9">
@@ -43491,8 +43561,8 @@
       </c>
     </row>
     <row r="7" spans="1:12" x14ac:dyDescent="0.55000000000000004">
-      <c r="A7" s="108"/>
-      <c r="B7" s="108">
+      <c r="A7" s="56"/>
+      <c r="B7" s="56">
         <v>2050</v>
       </c>
       <c r="C7" s="8">
@@ -43537,10 +43607,10 @@
       </c>
     </row>
     <row r="8" spans="1:12" x14ac:dyDescent="0.55000000000000004">
-      <c r="A8" s="107" t="s">
+      <c r="A8" s="55" t="s">
         <v>3</v>
       </c>
-      <c r="B8" s="107">
+      <c r="B8" s="55">
         <v>2010</v>
       </c>
       <c r="C8" s="9">
@@ -43585,8 +43655,8 @@
       </c>
     </row>
     <row r="9" spans="1:12" x14ac:dyDescent="0.55000000000000004">
-      <c r="A9" s="107"/>
-      <c r="B9" s="107">
+      <c r="A9" s="55"/>
+      <c r="B9" s="55">
         <v>2020</v>
       </c>
       <c r="C9" s="9">
@@ -43631,8 +43701,8 @@
       </c>
     </row>
     <row r="10" spans="1:12" x14ac:dyDescent="0.55000000000000004">
-      <c r="A10" s="107"/>
-      <c r="B10" s="107">
+      <c r="A10" s="55"/>
+      <c r="B10" s="55">
         <v>2030</v>
       </c>
       <c r="C10" s="9">
@@ -43677,8 +43747,8 @@
       </c>
     </row>
     <row r="11" spans="1:12" x14ac:dyDescent="0.55000000000000004">
-      <c r="A11" s="107"/>
-      <c r="B11" s="107">
+      <c r="A11" s="55"/>
+      <c r="B11" s="55">
         <v>2040</v>
       </c>
       <c r="C11" s="9">
@@ -43723,8 +43793,8 @@
       </c>
     </row>
     <row r="12" spans="1:12" x14ac:dyDescent="0.55000000000000004">
-      <c r="A12" s="107"/>
-      <c r="B12" s="107">
+      <c r="A12" s="55"/>
+      <c r="B12" s="55">
         <v>2050</v>
       </c>
       <c r="C12" s="9">
@@ -43769,10 +43839,10 @@
       </c>
     </row>
     <row r="13" spans="1:12" x14ac:dyDescent="0.55000000000000004">
-      <c r="A13" s="109" t="s">
+      <c r="A13" s="57" t="s">
         <v>4</v>
       </c>
-      <c r="B13" s="109">
+      <c r="B13" s="57">
         <v>2010</v>
       </c>
       <c r="C13" s="10">
@@ -43791,7 +43861,7 @@
         <f>'Consumption(EJyr)'!$F$2*sCOM!E3</f>
         <v>5.5761227810565077E-2</v>
       </c>
-      <c r="G13" s="105">
+      <c r="G13" s="53">
         <f>'Consumption(EJyr)'!$F$2*sCOM!F3</f>
         <v>1.2272144966755287</v>
       </c>
@@ -43811,14 +43881,14 @@
         <f>'Consumption(EJyr)'!$G$2*sCOM!J3</f>
         <v>5.5761227810565077E-2</v>
       </c>
-      <c r="L13" s="105">
+      <c r="L13" s="53">
         <f>'Consumption(EJyr)'!$G$2*sCOM!K3</f>
         <v>1.2272144966755287</v>
       </c>
     </row>
     <row r="14" spans="1:12" x14ac:dyDescent="0.55000000000000004">
-      <c r="A14" s="107"/>
-      <c r="B14" s="107">
+      <c r="A14" s="55"/>
+      <c r="B14" s="55">
         <v>2020</v>
       </c>
       <c r="C14" s="9">
@@ -43863,8 +43933,8 @@
       </c>
     </row>
     <row r="15" spans="1:12" x14ac:dyDescent="0.55000000000000004">
-      <c r="A15" s="107"/>
-      <c r="B15" s="107">
+      <c r="A15" s="55"/>
+      <c r="B15" s="55">
         <v>2030</v>
       </c>
       <c r="C15" s="9">
@@ -43909,8 +43979,8 @@
       </c>
     </row>
     <row r="16" spans="1:12" x14ac:dyDescent="0.55000000000000004">
-      <c r="A16" s="107"/>
-      <c r="B16" s="107">
+      <c r="A16" s="55"/>
+      <c r="B16" s="55">
         <v>2040</v>
       </c>
       <c r="C16" s="9">
@@ -43955,8 +44025,8 @@
       </c>
     </row>
     <row r="17" spans="1:12" x14ac:dyDescent="0.55000000000000004">
-      <c r="A17" s="108"/>
-      <c r="B17" s="108">
+      <c r="A17" s="56"/>
+      <c r="B17" s="56">
         <v>2050</v>
       </c>
       <c r="C17" s="8">
@@ -44001,10 +44071,10 @@
       </c>
     </row>
     <row r="18" spans="1:12" x14ac:dyDescent="0.55000000000000004">
-      <c r="A18" s="107" t="s">
+      <c r="A18" s="55" t="s">
         <v>5</v>
       </c>
-      <c r="B18" s="107">
+      <c r="B18" s="55">
         <v>2010</v>
       </c>
       <c r="C18" s="9">
@@ -44049,8 +44119,8 @@
       </c>
     </row>
     <row r="19" spans="1:12" x14ac:dyDescent="0.55000000000000004">
-      <c r="A19" s="107"/>
-      <c r="B19" s="107">
+      <c r="A19" s="55"/>
+      <c r="B19" s="55">
         <v>2020</v>
       </c>
       <c r="C19" s="9">
@@ -44095,8 +44165,8 @@
       </c>
     </row>
     <row r="20" spans="1:12" x14ac:dyDescent="0.55000000000000004">
-      <c r="A20" s="107"/>
-      <c r="B20" s="107">
+      <c r="A20" s="55"/>
+      <c r="B20" s="55">
         <v>2030</v>
       </c>
       <c r="C20" s="9">
@@ -44141,8 +44211,8 @@
       </c>
     </row>
     <row r="21" spans="1:12" x14ac:dyDescent="0.55000000000000004">
-      <c r="A21" s="107"/>
-      <c r="B21" s="107">
+      <c r="A21" s="55"/>
+      <c r="B21" s="55">
         <v>2040</v>
       </c>
       <c r="C21" s="9">
@@ -44187,8 +44257,8 @@
       </c>
     </row>
     <row r="22" spans="1:12" x14ac:dyDescent="0.55000000000000004">
-      <c r="A22" s="107"/>
-      <c r="B22" s="107">
+      <c r="A22" s="55"/>
+      <c r="B22" s="55">
         <v>2050</v>
       </c>
       <c r="C22" s="9">
@@ -44233,10 +44303,10 @@
       </c>
     </row>
     <row r="23" spans="1:12" x14ac:dyDescent="0.55000000000000004">
-      <c r="A23" s="109" t="s">
+      <c r="A23" s="57" t="s">
         <v>27</v>
       </c>
-      <c r="B23" s="109">
+      <c r="B23" s="57">
         <v>2010</v>
       </c>
       <c r="C23" s="10">
@@ -44255,7 +44325,7 @@
         <f t="shared" si="0"/>
         <v>0.20418016053948937</v>
       </c>
-      <c r="G23" s="105">
+      <c r="G23" s="53">
         <f t="shared" si="0"/>
         <v>3.7404319113217492</v>
       </c>
@@ -44275,14 +44345,14 @@
         <f t="shared" si="0"/>
         <v>0.20418016053948937</v>
       </c>
-      <c r="L23" s="105">
+      <c r="L23" s="53">
         <f t="shared" si="0"/>
         <v>3.7404319113217492</v>
       </c>
     </row>
     <row r="24" spans="1:12" x14ac:dyDescent="0.55000000000000004">
-      <c r="A24" s="107"/>
-      <c r="B24" s="107">
+      <c r="A24" s="55"/>
+      <c r="B24" s="55">
         <v>2020</v>
       </c>
       <c r="C24" s="9">
@@ -44327,8 +44397,8 @@
       </c>
     </row>
     <row r="25" spans="1:12" x14ac:dyDescent="0.55000000000000004">
-      <c r="A25" s="107"/>
-      <c r="B25" s="107">
+      <c r="A25" s="55"/>
+      <c r="B25" s="55">
         <v>2030</v>
       </c>
       <c r="C25" s="9">
@@ -44373,8 +44443,8 @@
       </c>
     </row>
     <row r="26" spans="1:12" x14ac:dyDescent="0.55000000000000004">
-      <c r="A26" s="107"/>
-      <c r="B26" s="107">
+      <c r="A26" s="55"/>
+      <c r="B26" s="55">
         <v>2040</v>
       </c>
       <c r="C26" s="9">
@@ -44419,8 +44489,8 @@
       </c>
     </row>
     <row r="27" spans="1:12" x14ac:dyDescent="0.55000000000000004">
-      <c r="A27" s="108"/>
-      <c r="B27" s="108">
+      <c r="A27" s="56"/>
+      <c r="B27" s="56">
         <v>2050</v>
       </c>
       <c r="C27" s="8">
@@ -46536,14 +46606,14 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.55000000000000004">
-      <c r="B1" s="180" t="s">
+      <c r="B1" s="83" t="s">
         <v>69</v>
       </c>
-      <c r="C1" s="180"/>
-      <c r="D1" s="180" t="s">
+      <c r="C1" s="83"/>
+      <c r="D1" s="83" t="s">
         <v>70</v>
       </c>
-      <c r="E1" s="180"/>
+      <c r="E1" s="83"/>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A2" s="12" t="s">
@@ -47284,14 +47354,14 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.55000000000000004">
-      <c r="B1" s="180" t="s">
+      <c r="B1" s="83" t="s">
         <v>69</v>
       </c>
-      <c r="C1" s="180"/>
-      <c r="D1" s="180" t="s">
+      <c r="C1" s="83"/>
+      <c r="D1" s="83" t="s">
         <v>70</v>
       </c>
-      <c r="E1" s="180"/>
+      <c r="E1" s="83"/>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A2" s="12" t="s">
@@ -48325,10 +48395,10 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.55000000000000004">
-      <c r="D1" s="180" t="s">
+      <c r="D1" s="83" t="s">
         <v>72</v>
       </c>
-      <c r="E1" s="180"/>
+      <c r="E1" s="83"/>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A2" s="12" t="s">
@@ -49249,41 +49319,41 @@
   <sheetData>
     <row r="1" spans="1:29" x14ac:dyDescent="0.55000000000000004">
       <c r="A1" s="10"/>
-      <c r="B1" s="173" t="s">
-        <v>0</v>
-      </c>
-      <c r="C1" s="173"/>
-      <c r="D1" s="173"/>
-      <c r="E1" s="173"/>
-      <c r="F1" s="173"/>
-      <c r="G1" s="173"/>
-      <c r="H1" s="173"/>
-      <c r="I1" s="173"/>
-      <c r="J1" s="173"/>
-      <c r="K1" s="173"/>
-      <c r="L1" s="173"/>
-      <c r="M1" s="173"/>
-      <c r="N1" s="173"/>
-      <c r="O1" s="174"/>
-      <c r="P1" s="173" t="s">
+      <c r="B1" s="76" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="76"/>
+      <c r="D1" s="76"/>
+      <c r="E1" s="76"/>
+      <c r="F1" s="76"/>
+      <c r="G1" s="76"/>
+      <c r="H1" s="76"/>
+      <c r="I1" s="76"/>
+      <c r="J1" s="76"/>
+      <c r="K1" s="76"/>
+      <c r="L1" s="76"/>
+      <c r="M1" s="76"/>
+      <c r="N1" s="76"/>
+      <c r="O1" s="77"/>
+      <c r="P1" s="76" t="s">
         <v>6</v>
       </c>
-      <c r="Q1" s="173"/>
-      <c r="R1" s="173"/>
-      <c r="S1" s="173"/>
-      <c r="T1" s="173"/>
-      <c r="U1" s="173"/>
-      <c r="V1" s="173"/>
-      <c r="W1" s="173"/>
-      <c r="X1" s="173"/>
-      <c r="Y1" s="173"/>
-      <c r="Z1" s="173"/>
-      <c r="AA1" s="173"/>
-      <c r="AB1" s="173"/>
-      <c r="AC1" s="174"/>
+      <c r="Q1" s="76"/>
+      <c r="R1" s="76"/>
+      <c r="S1" s="76"/>
+      <c r="T1" s="76"/>
+      <c r="U1" s="76"/>
+      <c r="V1" s="76"/>
+      <c r="W1" s="76"/>
+      <c r="X1" s="76"/>
+      <c r="Y1" s="76"/>
+      <c r="Z1" s="76"/>
+      <c r="AA1" s="76"/>
+      <c r="AB1" s="76"/>
+      <c r="AC1" s="77"/>
     </row>
     <row r="2" spans="1:29" x14ac:dyDescent="0.55000000000000004">
-      <c r="A2" s="106" t="s">
+      <c r="A2" s="54" t="s">
         <v>29</v>
       </c>
       <c r="B2" s="4" t="s">
@@ -49325,7 +49395,7 @@
       <c r="N2" s="4" t="s">
         <v>84</v>
       </c>
-      <c r="O2" s="105" t="s">
+      <c r="O2" s="53" t="s">
         <v>27</v>
       </c>
       <c r="P2" s="10" t="s">
@@ -49367,12 +49437,12 @@
       <c r="AB2" s="4" t="s">
         <v>84</v>
       </c>
-      <c r="AC2" s="105" t="s">
+      <c r="AC2" s="53" t="s">
         <v>27</v>
       </c>
     </row>
     <row r="3" spans="1:29" x14ac:dyDescent="0.55000000000000004">
-      <c r="A3" s="106">
+      <c r="A3" s="54">
         <v>2010</v>
       </c>
       <c r="B3" s="4">
@@ -49427,7 +49497,7 @@
         <f>発電電力量!N3/eELE!N$12</f>
         <v>1.2948860195235742E-2</v>
       </c>
-      <c r="O3" s="105">
+      <c r="O3" s="53">
         <f>SUM(B3:N3)</f>
         <v>18.520508905164583</v>
       </c>
@@ -49483,13 +49553,13 @@
         <f>発電電力量!AA3/eELE!N$12</f>
         <v>1.2948860195235742E-2</v>
       </c>
-      <c r="AC3" s="105">
+      <c r="AC3" s="53">
         <f>SUM(P3:AB3)</f>
         <v>18.520508905164583</v>
       </c>
     </row>
     <row r="4" spans="1:29" x14ac:dyDescent="0.55000000000000004">
-      <c r="A4" s="107">
+      <c r="A4" s="55">
         <v>2020</v>
       </c>
       <c r="B4">
@@ -49606,7 +49676,7 @@
       </c>
     </row>
     <row r="5" spans="1:29" x14ac:dyDescent="0.55000000000000004">
-      <c r="A5" s="107">
+      <c r="A5" s="55">
         <v>2030</v>
       </c>
       <c r="B5">
@@ -49723,7 +49793,7 @@
       </c>
     </row>
     <row r="6" spans="1:29" x14ac:dyDescent="0.55000000000000004">
-      <c r="A6" s="107">
+      <c r="A6" s="55">
         <v>2040</v>
       </c>
       <c r="B6">
@@ -49840,7 +49910,7 @@
       </c>
     </row>
     <row r="7" spans="1:29" x14ac:dyDescent="0.55000000000000004">
-      <c r="A7" s="108">
+      <c r="A7" s="56">
         <v>2050</v>
       </c>
       <c r="B7" s="5">
@@ -49984,40 +50054,40 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:27" x14ac:dyDescent="0.55000000000000004">
-      <c r="A1" s="109"/>
-      <c r="B1" s="173" t="s">
-        <v>0</v>
-      </c>
-      <c r="C1" s="173"/>
-      <c r="D1" s="173"/>
-      <c r="E1" s="173"/>
-      <c r="F1" s="173"/>
-      <c r="G1" s="173"/>
-      <c r="H1" s="173"/>
-      <c r="I1" s="173"/>
-      <c r="J1" s="173"/>
-      <c r="K1" s="173"/>
-      <c r="L1" s="173"/>
-      <c r="M1" s="173"/>
-      <c r="N1" s="174"/>
-      <c r="O1" s="173" t="s">
+      <c r="A1" s="57"/>
+      <c r="B1" s="76" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="76"/>
+      <c r="D1" s="76"/>
+      <c r="E1" s="76"/>
+      <c r="F1" s="76"/>
+      <c r="G1" s="76"/>
+      <c r="H1" s="76"/>
+      <c r="I1" s="76"/>
+      <c r="J1" s="76"/>
+      <c r="K1" s="76"/>
+      <c r="L1" s="76"/>
+      <c r="M1" s="76"/>
+      <c r="N1" s="77"/>
+      <c r="O1" s="76" t="s">
         <v>6</v>
       </c>
-      <c r="P1" s="173"/>
-      <c r="Q1" s="173"/>
-      <c r="R1" s="173"/>
-      <c r="S1" s="173"/>
-      <c r="T1" s="173"/>
-      <c r="U1" s="173"/>
-      <c r="V1" s="173"/>
-      <c r="W1" s="173"/>
-      <c r="X1" s="173"/>
-      <c r="Y1" s="173"/>
-      <c r="Z1" s="173"/>
-      <c r="AA1" s="174"/>
+      <c r="P1" s="76"/>
+      <c r="Q1" s="76"/>
+      <c r="R1" s="76"/>
+      <c r="S1" s="76"/>
+      <c r="T1" s="76"/>
+      <c r="U1" s="76"/>
+      <c r="V1" s="76"/>
+      <c r="W1" s="76"/>
+      <c r="X1" s="76"/>
+      <c r="Y1" s="76"/>
+      <c r="Z1" s="76"/>
+      <c r="AA1" s="77"/>
     </row>
     <row r="2" spans="1:27" x14ac:dyDescent="0.55000000000000004">
-      <c r="A2" s="108"/>
+      <c r="A2" s="56"/>
       <c r="B2" s="4" t="s">
         <v>7</v>
       </c>
@@ -50054,7 +50124,7 @@
       <c r="M2" s="4" t="s">
         <v>83</v>
       </c>
-      <c r="N2" s="105" t="s">
+      <c r="N2" s="53" t="s">
         <v>84</v>
       </c>
       <c r="O2" s="4" t="s">
@@ -50093,12 +50163,12 @@
       <c r="Z2" s="4" t="s">
         <v>83</v>
       </c>
-      <c r="AA2" s="105" t="s">
+      <c r="AA2" s="53" t="s">
         <v>84</v>
       </c>
     </row>
     <row r="3" spans="1:27" x14ac:dyDescent="0.55000000000000004">
-      <c r="A3" s="107">
+      <c r="A3" s="55">
         <v>2010</v>
       </c>
       <c r="B3" s="4">
@@ -50149,7 +50219,7 @@
         <f>sELE!M3*最終エネルギー消費!$G23/LOSS!$B$12</f>
         <v>1.4677567751641748E-2</v>
       </c>
-      <c r="N3" s="105">
+      <c r="N3" s="53">
         <f>sELE!N3*最終エネルギー消費!$G23/LOSS!$B$12</f>
         <v>1.2948860195235742E-2</v>
       </c>
@@ -50201,13 +50271,13 @@
         <f>sELE!Z3*最終エネルギー消費!$L23/LOSS!$B$12</f>
         <v>1.4677567751641748E-2</v>
       </c>
-      <c r="AA3" s="105">
+      <c r="AA3" s="53">
         <f>sELE!AA3*最終エネルギー消費!$L23/LOSS!$B$12</f>
         <v>1.2948860195235742E-2</v>
       </c>
     </row>
     <row r="4" spans="1:27" x14ac:dyDescent="0.55000000000000004">
-      <c r="A4" s="107">
+      <c r="A4" s="55">
         <v>2020</v>
       </c>
       <c r="B4">
@@ -50316,7 +50386,7 @@
       </c>
     </row>
     <row r="5" spans="1:27" x14ac:dyDescent="0.55000000000000004">
-      <c r="A5" s="107">
+      <c r="A5" s="55">
         <v>2030</v>
       </c>
       <c r="B5">
@@ -50425,7 +50495,7 @@
       </c>
     </row>
     <row r="6" spans="1:27" x14ac:dyDescent="0.55000000000000004">
-      <c r="A6" s="107">
+      <c r="A6" s="55">
         <v>2040</v>
       </c>
       <c r="B6">
@@ -50534,7 +50604,7 @@
       </c>
     </row>
     <row r="7" spans="1:27" x14ac:dyDescent="0.55000000000000004">
-      <c r="A7" s="108">
+      <c r="A7" s="56">
         <v>2050</v>
       </c>
       <c r="B7" s="5">
@@ -50671,22 +50741,22 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:6" ht="36" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A1" s="47" t="s">
+      <c r="A1" s="33" t="s">
         <v>107</v>
       </c>
-      <c r="B1" s="31">
+      <c r="B1" s="30">
         <v>2010</v>
       </c>
-      <c r="C1" s="31">
+      <c r="C1" s="30">
         <v>2020</v>
       </c>
-      <c r="D1" s="32" t="s">
+      <c r="D1" s="31" t="s">
         <v>106</v>
       </c>
-      <c r="E1" s="32" t="s">
+      <c r="E1" s="31" t="s">
         <v>92</v>
       </c>
-      <c r="F1" s="32" t="s">
+      <c r="F1" s="31" t="s">
         <v>93</v>
       </c>
     </row>
@@ -50694,46 +50764,46 @@
       <c r="A2" s="27" t="s">
         <v>2</v>
       </c>
-      <c r="B2" s="29">
+      <c r="B2" s="28">
         <f>[1]部門別CO2排出量!P3</f>
         <v>269.51474216725944</v>
       </c>
-      <c r="C2" s="29">
+      <c r="C2" s="28">
         <f>[1]部門別CO2排出量!P4</f>
         <v>209.4235083709562</v>
       </c>
-      <c r="D2" s="29">
+      <c r="D2" s="28">
         <v>257.81349782866999</v>
       </c>
-      <c r="E2" s="29">
+      <c r="E2" s="28">
         <f>部門別CO2排出量!P7</f>
         <v>260.01618074402859</v>
       </c>
-      <c r="F2" s="29">
+      <c r="F2" s="28">
         <f>部門別CO2排出量!AD7</f>
         <v>260.01618074402859</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.55000000000000004">
-      <c r="A3" s="30" t="s">
+      <c r="A3" s="29" t="s">
         <v>3</v>
       </c>
-      <c r="B3" s="33">
+      <c r="B3" s="32">
         <f>[1]部門別CO2排出量!P8</f>
         <v>249.02275586606845</v>
       </c>
-      <c r="C3" s="33">
+      <c r="C3" s="32">
         <f>[1]部門別CO2排出量!P9</f>
         <v>196.15609230500672</v>
       </c>
-      <c r="D3" s="33">
+      <c r="D3" s="32">
         <v>170.69003462550376</v>
       </c>
-      <c r="E3" s="33">
+      <c r="E3" s="32">
         <f>部門別CO2排出量!P12</f>
         <v>210.67040851814829</v>
       </c>
-      <c r="F3" s="33">
+      <c r="F3" s="32">
         <f>部門別CO2排出量!AD12</f>
         <v>210.67040851814829</v>
       </c>
@@ -50742,46 +50812,46 @@
       <c r="A4" s="27" t="s">
         <v>4</v>
       </c>
-      <c r="B4" s="29">
+      <c r="B4" s="28">
         <f>[1]部門別CO2排出量!P13</f>
         <v>63.618347666356769</v>
       </c>
-      <c r="C4" s="29">
+      <c r="C4" s="28">
         <f>[1]部門別CO2排出量!P14</f>
         <v>52.883709709806709</v>
       </c>
-      <c r="D4" s="29">
+      <c r="D4" s="28">
         <v>65.1157721973603</v>
       </c>
-      <c r="E4" s="29">
+      <c r="E4" s="28">
         <f>部門別CO2排出量!P17</f>
         <v>66.032474177397248</v>
       </c>
-      <c r="F4" s="29">
+      <c r="F4" s="28">
         <f>部門別CO2排出量!AD17</f>
         <v>66.032474177397248</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.55000000000000004">
-      <c r="A5" s="30" t="s">
+      <c r="A5" s="29" t="s">
         <v>5</v>
       </c>
-      <c r="B5" s="33">
+      <c r="B5" s="32">
         <f>[1]部門別CO2排出量!P18</f>
         <v>69.588005432578569</v>
       </c>
-      <c r="C5" s="33">
+      <c r="C5" s="32">
         <f>[1]部門別CO2排出量!P14</f>
         <v>52.883709709806709</v>
       </c>
-      <c r="D5" s="33">
+      <c r="D5" s="32">
         <v>52.398256859873904</v>
       </c>
-      <c r="E5" s="33">
+      <c r="E5" s="32">
         <f>部門別CO2排出量!P22</f>
         <v>52.527941152998537</v>
       </c>
-      <c r="F5" s="33">
+      <c r="F5" s="32">
         <f>部門別CO2排出量!AD22</f>
         <v>52.527941152998537</v>
       </c>
@@ -50790,46 +50860,46 @@
       <c r="A6" s="27" t="s">
         <v>30</v>
       </c>
-      <c r="B6" s="29">
+      <c r="B6" s="28">
         <f>部門別CO2排出量!P23</f>
         <v>476.37955455993358</v>
       </c>
-      <c r="C6" s="29">
+      <c r="C6" s="28">
         <f>部門別CO2排出量!P24</f>
         <v>449.00553720294573</v>
       </c>
-      <c r="D6" s="29">
+      <c r="D6" s="28">
         <v>502.31165964392062</v>
       </c>
-      <c r="E6" s="29">
+      <c r="E6" s="28">
         <f>部門別CO2排出量!P27</f>
         <v>496.52581315955877</v>
       </c>
-      <c r="F6" s="29">
+      <c r="F6" s="28">
         <f>部門別CO2排出量!AD27</f>
         <v>496.52581315955877</v>
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.55000000000000004">
-      <c r="A7" s="30" t="s">
+      <c r="A7" s="29" t="s">
         <v>73</v>
       </c>
-      <c r="B7" s="33">
+      <c r="B7" s="32">
         <f>[1]部門別CO2排出量!P28</f>
         <v>28.775119328906975</v>
       </c>
-      <c r="C7" s="33">
+      <c r="C7" s="32">
         <f>[1]部門別CO2排出量!P29</f>
         <v>25.99212785621209</v>
       </c>
-      <c r="D7" s="33">
+      <c r="D7" s="32">
         <v>22.617687534623279</v>
       </c>
-      <c r="E7" s="33">
+      <c r="E7" s="32">
         <f>部門別CO2排出量!P32</f>
         <v>22.660005374260319</v>
       </c>
-      <c r="F7" s="33">
+      <c r="F7" s="32">
         <f>部門別CO2排出量!AD32</f>
         <v>22.660005374260319</v>
       </c>
@@ -50838,44 +50908,44 @@
       <c r="A8" s="27" t="s">
         <v>74</v>
       </c>
-      <c r="B8" s="29">
+      <c r="B8" s="28">
         <f>[1]部門別CO2排出量!P33</f>
         <v>29.46362437612942</v>
       </c>
-      <c r="C8" s="29">
+      <c r="C8" s="28">
         <f>[1]部門別CO2排出量!P34</f>
         <v>31.085649151718691</v>
       </c>
-      <c r="D8" s="29">
+      <c r="D8" s="28">
         <v>27.049940013143782</v>
       </c>
-      <c r="E8" s="29">
+      <c r="E8" s="28">
         <f>部門別CO2排出量!P37</f>
         <v>27.100550625829783</v>
       </c>
-      <c r="F8" s="29">
+      <c r="F8" s="28">
         <f>部門別CO2排出量!AD37</f>
         <v>27.100550625829783</v>
       </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.55000000000000004">
-      <c r="A9" s="30" t="s">
+      <c r="A9" s="29" t="s">
         <v>75</v>
       </c>
-      <c r="B9" s="33">
+      <c r="B9" s="32">
         <v>-46</v>
       </c>
-      <c r="C9" s="33">
+      <c r="C9" s="32">
         <v>-46</v>
       </c>
-      <c r="D9" s="33">
+      <c r="D9" s="32">
         <v>-46</v>
       </c>
-      <c r="E9" s="33">
+      <c r="E9" s="32">
         <f>部門別CO2排出量!P42</f>
         <v>-46</v>
       </c>
-      <c r="F9" s="33">
+      <c r="F9" s="32">
         <f>部門別CO2排出量!AD42</f>
         <v>-46</v>
       </c>
@@ -50884,23 +50954,23 @@
       <c r="A10" s="27" t="s">
         <v>27</v>
       </c>
-      <c r="B10" s="29">
+      <c r="B10" s="28">
         <f>SUM(B2:B9)</f>
         <v>1140.3621493972332</v>
       </c>
-      <c r="C10" s="29">
+      <c r="C10" s="28">
         <f>SUM(C2:C9)</f>
         <v>971.43033430645278</v>
       </c>
-      <c r="D10" s="29">
+      <c r="D10" s="28">
         <f>SUM(D2:D9)</f>
         <v>1051.9968487030956</v>
       </c>
-      <c r="E10" s="29">
+      <c r="E10" s="28">
         <f>SUM(E2:E9)</f>
         <v>1089.5333737522215</v>
       </c>
-      <c r="F10" s="29">
+      <c r="F10" s="28">
         <f>SUM(F2:F9)</f>
         <v>1089.5333737522215</v>
       </c>
@@ -50930,71 +51000,71 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:52" ht="37.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="B1" s="176" t="s">
+      <c r="B1" s="79" t="s">
         <v>85</v>
       </c>
-      <c r="C1" s="176"/>
-      <c r="D1" s="176"/>
-      <c r="E1" s="176"/>
-      <c r="F1" s="176"/>
-      <c r="G1" s="176"/>
-      <c r="H1" s="176"/>
-      <c r="I1" s="176"/>
-      <c r="J1" s="176"/>
-      <c r="K1" s="176"/>
-      <c r="L1" s="176"/>
-      <c r="M1" s="176"/>
-      <c r="N1" s="176"/>
-      <c r="O1" s="176" t="s">
+      <c r="C1" s="79"/>
+      <c r="D1" s="79"/>
+      <c r="E1" s="79"/>
+      <c r="F1" s="79"/>
+      <c r="G1" s="79"/>
+      <c r="H1" s="79"/>
+      <c r="I1" s="79"/>
+      <c r="J1" s="79"/>
+      <c r="K1" s="79"/>
+      <c r="L1" s="79"/>
+      <c r="M1" s="79"/>
+      <c r="N1" s="79"/>
+      <c r="O1" s="79" t="s">
         <v>86</v>
       </c>
-      <c r="P1" s="176"/>
-      <c r="Q1" s="176"/>
-      <c r="R1" s="176"/>
-      <c r="S1" s="176"/>
-      <c r="T1" s="176"/>
-      <c r="U1" s="176"/>
-      <c r="V1" s="176"/>
-      <c r="W1" s="176"/>
-      <c r="X1" s="176"/>
-      <c r="Y1" s="176"/>
-      <c r="Z1" s="176"/>
-      <c r="AA1" s="176"/>
-      <c r="AB1" s="175" t="s">
+      <c r="P1" s="79"/>
+      <c r="Q1" s="79"/>
+      <c r="R1" s="79"/>
+      <c r="S1" s="79"/>
+      <c r="T1" s="79"/>
+      <c r="U1" s="79"/>
+      <c r="V1" s="79"/>
+      <c r="W1" s="79"/>
+      <c r="X1" s="79"/>
+      <c r="Y1" s="79"/>
+      <c r="Z1" s="79"/>
+      <c r="AA1" s="79"/>
+      <c r="AB1" s="78" t="s">
         <v>87</v>
       </c>
-      <c r="AC1" s="175"/>
-      <c r="AD1" s="175"/>
-      <c r="AE1" s="175"/>
-      <c r="AF1" s="175"/>
-      <c r="AG1" s="175" t="s">
+      <c r="AC1" s="78"/>
+      <c r="AD1" s="78"/>
+      <c r="AE1" s="78"/>
+      <c r="AF1" s="78"/>
+      <c r="AG1" s="78" t="s">
         <v>88</v>
       </c>
-      <c r="AH1" s="175"/>
-      <c r="AI1" s="175"/>
-      <c r="AJ1" s="175"/>
-      <c r="AK1" s="175"/>
-      <c r="AL1" s="175" t="s">
+      <c r="AH1" s="78"/>
+      <c r="AI1" s="78"/>
+      <c r="AJ1" s="78"/>
+      <c r="AK1" s="78"/>
+      <c r="AL1" s="78" t="s">
         <v>89</v>
       </c>
-      <c r="AM1" s="175"/>
-      <c r="AN1" s="175"/>
-      <c r="AO1" s="175"/>
-      <c r="AP1" s="175"/>
-      <c r="AQ1" s="175" t="s">
+      <c r="AM1" s="78"/>
+      <c r="AN1" s="78"/>
+      <c r="AO1" s="78"/>
+      <c r="AP1" s="78"/>
+      <c r="AQ1" s="78" t="s">
         <v>90</v>
       </c>
-      <c r="AR1" s="175"/>
-      <c r="AS1" s="175"/>
-      <c r="AT1" s="175"/>
-      <c r="AU1" s="175"/>
-      <c r="AV1" s="175" t="s">
+      <c r="AR1" s="78"/>
+      <c r="AS1" s="78"/>
+      <c r="AT1" s="78"/>
+      <c r="AU1" s="78"/>
+      <c r="AV1" s="78" t="s">
         <v>91</v>
       </c>
-      <c r="AW1" s="175"/>
-      <c r="AX1" s="175"/>
-      <c r="AY1" s="175"/>
-      <c r="AZ1" s="175"/>
+      <c r="AW1" s="78"/>
+      <c r="AX1" s="78"/>
+      <c r="AY1" s="78"/>
+      <c r="AZ1" s="78"/>
     </row>
     <row r="2" spans="1:52" x14ac:dyDescent="0.55000000000000004">
       <c r="B2" t="s">
@@ -53009,71 +53079,71 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:52" ht="37.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="B1" s="176" t="s">
+      <c r="B1" s="79" t="s">
         <v>85</v>
       </c>
-      <c r="C1" s="176"/>
-      <c r="D1" s="176"/>
-      <c r="E1" s="176"/>
-      <c r="F1" s="176"/>
-      <c r="G1" s="176"/>
-      <c r="H1" s="176"/>
-      <c r="I1" s="176"/>
-      <c r="J1" s="176"/>
-      <c r="K1" s="176"/>
-      <c r="L1" s="176"/>
-      <c r="M1" s="176"/>
-      <c r="N1" s="176"/>
-      <c r="O1" s="176" t="s">
+      <c r="C1" s="79"/>
+      <c r="D1" s="79"/>
+      <c r="E1" s="79"/>
+      <c r="F1" s="79"/>
+      <c r="G1" s="79"/>
+      <c r="H1" s="79"/>
+      <c r="I1" s="79"/>
+      <c r="J1" s="79"/>
+      <c r="K1" s="79"/>
+      <c r="L1" s="79"/>
+      <c r="M1" s="79"/>
+      <c r="N1" s="79"/>
+      <c r="O1" s="79" t="s">
         <v>86</v>
       </c>
-      <c r="P1" s="176"/>
-      <c r="Q1" s="176"/>
-      <c r="R1" s="176"/>
-      <c r="S1" s="176"/>
-      <c r="T1" s="176"/>
-      <c r="U1" s="176"/>
-      <c r="V1" s="176"/>
-      <c r="W1" s="176"/>
-      <c r="X1" s="176"/>
-      <c r="Y1" s="176"/>
-      <c r="Z1" s="176"/>
-      <c r="AA1" s="176"/>
-      <c r="AB1" s="175" t="s">
+      <c r="P1" s="79"/>
+      <c r="Q1" s="79"/>
+      <c r="R1" s="79"/>
+      <c r="S1" s="79"/>
+      <c r="T1" s="79"/>
+      <c r="U1" s="79"/>
+      <c r="V1" s="79"/>
+      <c r="W1" s="79"/>
+      <c r="X1" s="79"/>
+      <c r="Y1" s="79"/>
+      <c r="Z1" s="79"/>
+      <c r="AA1" s="79"/>
+      <c r="AB1" s="78" t="s">
         <v>87</v>
       </c>
-      <c r="AC1" s="175"/>
-      <c r="AD1" s="175"/>
-      <c r="AE1" s="175"/>
-      <c r="AF1" s="175"/>
-      <c r="AG1" s="175" t="s">
+      <c r="AC1" s="78"/>
+      <c r="AD1" s="78"/>
+      <c r="AE1" s="78"/>
+      <c r="AF1" s="78"/>
+      <c r="AG1" s="78" t="s">
         <v>88</v>
       </c>
-      <c r="AH1" s="175"/>
-      <c r="AI1" s="175"/>
-      <c r="AJ1" s="175"/>
-      <c r="AK1" s="175"/>
-      <c r="AL1" s="175" t="s">
+      <c r="AH1" s="78"/>
+      <c r="AI1" s="78"/>
+      <c r="AJ1" s="78"/>
+      <c r="AK1" s="78"/>
+      <c r="AL1" s="78" t="s">
         <v>89</v>
       </c>
-      <c r="AM1" s="175"/>
-      <c r="AN1" s="175"/>
-      <c r="AO1" s="175"/>
-      <c r="AP1" s="175"/>
-      <c r="AQ1" s="175" t="s">
+      <c r="AM1" s="78"/>
+      <c r="AN1" s="78"/>
+      <c r="AO1" s="78"/>
+      <c r="AP1" s="78"/>
+      <c r="AQ1" s="78" t="s">
         <v>90</v>
       </c>
-      <c r="AR1" s="175"/>
-      <c r="AS1" s="175"/>
-      <c r="AT1" s="175"/>
-      <c r="AU1" s="175"/>
-      <c r="AV1" s="175" t="s">
+      <c r="AR1" s="78"/>
+      <c r="AS1" s="78"/>
+      <c r="AT1" s="78"/>
+      <c r="AU1" s="78"/>
+      <c r="AV1" s="78" t="s">
         <v>91</v>
       </c>
-      <c r="AW1" s="175"/>
-      <c r="AX1" s="175"/>
-      <c r="AY1" s="175"/>
-      <c r="AZ1" s="175"/>
+      <c r="AW1" s="78"/>
+      <c r="AX1" s="78"/>
+      <c r="AY1" s="78"/>
+      <c r="AZ1" s="78"/>
     </row>
     <row r="2" spans="1:52" x14ac:dyDescent="0.55000000000000004">
       <c r="B2" t="s">
@@ -55094,38 +55164,38 @@
     <row r="1" spans="1:30" x14ac:dyDescent="0.55000000000000004">
       <c r="A1" s="10"/>
       <c r="B1" s="4"/>
-      <c r="C1" s="177" t="s">
-        <v>0</v>
-      </c>
-      <c r="D1" s="173"/>
-      <c r="E1" s="173"/>
-      <c r="F1" s="173"/>
-      <c r="G1" s="173"/>
-      <c r="H1" s="173"/>
-      <c r="I1" s="173"/>
-      <c r="J1" s="173"/>
-      <c r="K1" s="173"/>
-      <c r="L1" s="173"/>
-      <c r="M1" s="173"/>
-      <c r="N1" s="173"/>
-      <c r="O1" s="173"/>
-      <c r="P1" s="174"/>
-      <c r="Q1" s="177" t="s">
+      <c r="C1" s="80" t="s">
+        <v>0</v>
+      </c>
+      <c r="D1" s="76"/>
+      <c r="E1" s="76"/>
+      <c r="F1" s="76"/>
+      <c r="G1" s="76"/>
+      <c r="H1" s="76"/>
+      <c r="I1" s="76"/>
+      <c r="J1" s="76"/>
+      <c r="K1" s="76"/>
+      <c r="L1" s="76"/>
+      <c r="M1" s="76"/>
+      <c r="N1" s="76"/>
+      <c r="O1" s="76"/>
+      <c r="P1" s="77"/>
+      <c r="Q1" s="80" t="s">
         <v>6</v>
       </c>
-      <c r="R1" s="173"/>
-      <c r="S1" s="173"/>
-      <c r="T1" s="173"/>
-      <c r="U1" s="173"/>
-      <c r="V1" s="173"/>
-      <c r="W1" s="173"/>
-      <c r="X1" s="173"/>
-      <c r="Y1" s="173"/>
-      <c r="Z1" s="173"/>
-      <c r="AA1" s="173"/>
-      <c r="AB1" s="173"/>
-      <c r="AC1" s="173"/>
-      <c r="AD1" s="174"/>
+      <c r="R1" s="76"/>
+      <c r="S1" s="76"/>
+      <c r="T1" s="76"/>
+      <c r="U1" s="76"/>
+      <c r="V1" s="76"/>
+      <c r="W1" s="76"/>
+      <c r="X1" s="76"/>
+      <c r="Y1" s="76"/>
+      <c r="Z1" s="76"/>
+      <c r="AA1" s="76"/>
+      <c r="AB1" s="76"/>
+      <c r="AC1" s="76"/>
+      <c r="AD1" s="77"/>
     </row>
     <row r="2" spans="1:30" x14ac:dyDescent="0.55000000000000004">
       <c r="A2" s="8"/>

--- a/xlsx/model2.xlsx
+++ b/xlsx/model2.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\R\TA_model\xlsx\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A53231FB-8365-42FA-A863-CA4EF45305CE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{94E678D5-E5B8-4112-9316-C54509B65E5B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-21540" yWindow="-21720" windowWidth="38640" windowHeight="21120" tabRatio="878" xr2:uid="{BCC5EA96-140E-4D1F-AEAE-F8AA11DA45EB}"/>
   </bookViews>
@@ -43,7 +43,7 @@
   <externalReferences>
     <externalReference r:id="rId27"/>
   </externalReferences>
-  <calcPr calcId="191029" calcMode="manual"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -1282,6 +1282,134 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="178" fontId="0" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="178" fontId="2" fillId="0" borderId="7" xfId="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="178" fontId="0" fillId="6" borderId="13" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="178" fontId="2" fillId="6" borderId="8" xfId="1" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="180" fontId="0" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="2" borderId="10" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="180" fontId="0" fillId="2" borderId="10" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="2" borderId="11" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="180" fontId="0" fillId="2" borderId="11" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="0" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="1" fontId="0" fillId="5" borderId="12" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="1" fontId="0" fillId="5" borderId="12" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="1" fontId="0" fillId="5" borderId="6" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1"/>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="0" fillId="5" borderId="7" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="1" fontId="0" fillId="5" borderId="15" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="1" fontId="0" fillId="5" borderId="4" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="0" fillId="5" borderId="8" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="1" fontId="0" fillId="5" borderId="13" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="1" fontId="0" fillId="5" borderId="9" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="1" fontId="0" fillId="3" borderId="12" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="1" fontId="0" fillId="3" borderId="6" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -1311,6 +1439,141 @@
     </xf>
     <xf numFmtId="0" fontId="4" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="179" fontId="0" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="179" fontId="0" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="179" fontId="0" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="180" fontId="0" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="180" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="180" fontId="0" fillId="2" borderId="10" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="180" fontId="0" fillId="2" borderId="6" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="180" fontId="0" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="180" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="180" fontId="0" fillId="2" borderId="11" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="180" fontId="0" fillId="2" borderId="9" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="178" fontId="2" fillId="0" borderId="15" xfId="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="178" fontId="2" fillId="6" borderId="11" xfId="1" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="178" fontId="2" fillId="6" borderId="9" xfId="1" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="178" fontId="2" fillId="0" borderId="4" xfId="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="178" fontId="2" fillId="6" borderId="8" xfId="1" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1348,303 +1611,12 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="7" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="7" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="7" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="7" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="7" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="7" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="7" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="7" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="7" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="7" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="7" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="7" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="7" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="7" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="178" fontId="0" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="178" fontId="2" fillId="0" borderId="7" xfId="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="178" fontId="2" fillId="0" borderId="15" xfId="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="178" fontId="2" fillId="0" borderId="4" xfId="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="178" fontId="0" fillId="6" borderId="13" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="178" fontId="2" fillId="6" borderId="8" xfId="1" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="178" fontId="2" fillId="6" borderId="11" xfId="1" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="178" fontId="2" fillId="6" borderId="9" xfId="1" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="178" fontId="2" fillId="6" borderId="8" xfId="1" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="180" fontId="0" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="180" fontId="0" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="180" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="0" fillId="2" borderId="10" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="180" fontId="0" fillId="2" borderId="10" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="180" fontId="0" fillId="2" borderId="10" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="180" fontId="0" fillId="2" borderId="6" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="180" fontId="0" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="180" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="0" fillId="2" borderId="11" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="180" fontId="0" fillId="2" borderId="11" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="180" fontId="0" fillId="2" borderId="11" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="180" fontId="0" fillId="2" borderId="9" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyProtection="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="1" fontId="0" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
-    <xf numFmtId="1" fontId="0" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
-    <xf numFmtId="1" fontId="0" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="179" fontId="0" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="1" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyBorder="1" applyProtection="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="1" fontId="0" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="1" fontId="0" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1" applyProtection="1"/>
-    <xf numFmtId="1" fontId="0" fillId="5" borderId="12" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
-    <xf numFmtId="1" fontId="0" fillId="5" borderId="12" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="1" fontId="0" fillId="5" borderId="6" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyProtection="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="1" fontId="0" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyProtection="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1" applyProtection="1"/>
-    <xf numFmtId="1" fontId="0" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyProtection="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="1" fontId="0" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
-    <xf numFmtId="1" fontId="0" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
-    <xf numFmtId="1" fontId="0" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="179" fontId="0" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="1" fontId="0" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyBorder="1" applyProtection="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="1" fontId="0" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="1" fontId="0" fillId="5" borderId="7" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
-    <xf numFmtId="1" fontId="0" fillId="5" borderId="15" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
-    <xf numFmtId="179" fontId="0" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="1" fontId="0" fillId="5" borderId="4" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyProtection="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="1" fontId="0" fillId="5" borderId="8" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
-    <xf numFmtId="1" fontId="0" fillId="5" borderId="13" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
-    <xf numFmtId="1" fontId="0" fillId="5" borderId="9" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyProtection="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="1" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyBorder="1" applyProtection="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="1" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1" applyProtection="1"/>
-    <xf numFmtId="1" fontId="0" fillId="3" borderId="12" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
-    <xf numFmtId="1" fontId="0" fillId="3" borderId="6" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyProtection="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="標準" xfId="0" builtinId="0"/>
     <cellStyle name="標準 2" xfId="1" xr:uid="{70DD43AA-AD5B-4D12-80B7-1D771529C2C7}"/>
   </cellStyles>
   <dxfs count="29">
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="7" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
     <dxf>
       <fill>
         <patternFill>
@@ -1662,14 +1634,7 @@
     <dxf>
       <fill>
         <patternFill>
-          <bgColor theme="0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="9" tint="0.79998168889431442"/>
+          <bgColor theme="8" tint="0.39994506668294322"/>
         </patternFill>
       </fill>
     </dxf>
@@ -1684,27 +1649,6 @@
       <fill>
         <patternFill>
           <bgColor theme="8" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="8" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="8" tint="0.39994506668294322"/>
         </patternFill>
       </fill>
     </dxf>
@@ -1746,7 +1690,63 @@
     <dxf>
       <fill>
         <patternFill>
+          <bgColor theme="5" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
           <bgColor theme="8" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="8" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="7" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="0.79998168889431442"/>
         </patternFill>
       </fill>
     </dxf>
@@ -23338,15 +23338,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>0</xdr:col>
-      <xdr:colOff>1061357</xdr:colOff>
+      <xdr:colOff>1058182</xdr:colOff>
       <xdr:row>45</xdr:row>
-      <xdr:rowOff>9527</xdr:rowOff>
+      <xdr:rowOff>6351</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>9</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>60</xdr:row>
-      <xdr:rowOff>40822</xdr:rowOff>
+      <xdr:row>64</xdr:row>
+      <xdr:rowOff>142163</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -23361,8 +23361,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="1061357" y="10405384"/>
-          <a:ext cx="5973536" cy="3501117"/>
+          <a:off x="1058182" y="10313254"/>
+          <a:ext cx="5950512" cy="4457603"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -23791,6 +23791,231 @@
             </a:rPr>
             <a:t>, OECD/IEA, 2022b. </a:t>
           </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr marL="228600" indent="-228600" rtl="0" fontAlgn="base">
+            <a:buFont typeface="+mj-lt"/>
+            <a:buAutoNum type="arabicPeriod"/>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="ja-JP" altLang="en-US" sz="1200" b="0" i="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>一般社団法人日本エネルギー経済研究所計量分析ユニット</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ja-JP" sz="1200" b="0" i="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>, EDMC/</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="ja-JP" altLang="en-US" sz="1200" b="0" i="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>エネルギー・経済統計要覧 </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ja-JP" sz="1200" b="0" i="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>(2021</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="ja-JP" altLang="en-US" sz="1200" b="0" i="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>年版</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ja-JP" sz="1200" b="0" i="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>), </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="ja-JP" altLang="en-US" sz="1200" b="0" i="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>理工図書株式会社</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ja-JP" sz="1200" b="0" i="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>, 2021.</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr marL="228600" indent="-228600" rtl="0" fontAlgn="base">
+            <a:buFont typeface="+mj-lt"/>
+            <a:buAutoNum type="arabicPeriod"/>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="ja-JP" altLang="en-US" sz="1200" b="0" i="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>財務省貿易統計 </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ja-JP" sz="1200" b="0" i="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>Trade Statistics of Japan, </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="ja-JP" altLang="en-US" sz="1200" b="0" i="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>アクセス日</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ja-JP" sz="1200" b="0" i="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>2023/05/26</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr marL="228600" indent="-228600" rtl="0" fontAlgn="base">
+            <a:buFont typeface="+mj-lt"/>
+            <a:buAutoNum type="arabicPeriod"/>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="ja-JP" altLang="en-US" sz="1200" b="0" i="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>木質バイオマスエネルギーに係る基礎知識</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ja-JP" sz="1200" b="0" i="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>: NEDO, </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="ja-JP" altLang="en-US" sz="1200" b="0" i="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>アクセス日</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ja-JP" sz="1200" b="0" i="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>2023/05/26</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr marL="228600" indent="-228600" rtl="0" fontAlgn="base">
+            <a:buFont typeface="+mj-lt"/>
+            <a:buAutoNum type="arabicPeriod"/>
+          </a:pPr>
+          <a:endParaRPr lang="en-US" altLang="ja-JP" sz="1200" b="0" i="0">
+            <a:solidFill>
+              <a:schemeClr val="dk1"/>
+            </a:solidFill>
+            <a:effectLst/>
+            <a:latin typeface="+mn-lt"/>
+            <a:ea typeface="+mn-ea"/>
+            <a:cs typeface="+mn-cs"/>
+          </a:endParaRPr>
         </a:p>
         <a:p>
           <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
@@ -24642,7 +24867,7 @@
     <sheetView tabSelected="1" zoomScale="67" zoomScaleNormal="70" workbookViewId="0">
       <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="B1" sqref="B1"/>
-      <selection pane="bottomLeft" activeCell="AI20" sqref="AI20"/>
+      <selection pane="bottomLeft" activeCell="H70" sqref="H70"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.55000000000000004"/>
@@ -24664,157 +24889,157 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:31" ht="18" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A1" s="85"/>
-      <c r="B1" s="86"/>
-      <c r="C1" s="87"/>
-      <c r="D1" s="88" t="s">
+      <c r="A1" s="151"/>
+      <c r="B1" s="152"/>
+      <c r="C1" s="153"/>
+      <c r="D1" s="63" t="s">
         <v>111</v>
       </c>
-      <c r="E1" s="89" t="s">
+      <c r="E1" s="64" t="s">
         <v>97</v>
       </c>
-      <c r="F1" s="90" t="s">
-        <v>0</v>
-      </c>
-      <c r="G1" s="91"/>
-      <c r="H1" s="90" t="s">
+      <c r="F1" s="147" t="s">
+        <v>0</v>
+      </c>
+      <c r="G1" s="148"/>
+      <c r="H1" s="147" t="s">
         <v>99</v>
       </c>
-      <c r="I1" s="91"/>
+      <c r="I1" s="148"/>
     </row>
     <row r="2" spans="1:31" ht="17.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A2" s="92"/>
-      <c r="B2" s="93"/>
-      <c r="C2" s="94"/>
-      <c r="D2" s="95" t="s">
+      <c r="A2" s="154"/>
+      <c r="B2" s="155"/>
+      <c r="C2" s="156"/>
+      <c r="D2" s="65" t="s">
         <v>100</v>
       </c>
-      <c r="E2" s="96" t="s">
+      <c r="E2" s="66" t="s">
         <v>101</v>
       </c>
-      <c r="F2" s="97" t="s">
+      <c r="F2" s="149" t="s">
         <v>101</v>
       </c>
-      <c r="G2" s="98"/>
-      <c r="H2" s="97" t="s">
+      <c r="G2" s="150"/>
+      <c r="H2" s="149" t="s">
         <v>101</v>
       </c>
-      <c r="I2" s="98"/>
+      <c r="I2" s="150"/>
     </row>
     <row r="3" spans="1:31" x14ac:dyDescent="0.55000000000000004">
-      <c r="A3" s="99" t="s">
+      <c r="A3" s="162" t="s">
         <v>110</v>
       </c>
-      <c r="B3" s="100" t="s">
+      <c r="B3" s="164" t="s">
         <v>104</v>
       </c>
-      <c r="C3" s="101"/>
-      <c r="D3" s="102">
+      <c r="C3" s="165"/>
+      <c r="D3" s="67">
         <v>867</v>
       </c>
-      <c r="E3" s="103">
+      <c r="E3" s="68">
         <v>1067</v>
       </c>
-      <c r="F3" s="104">
+      <c r="F3" s="157">
         <f>1067</f>
         <v>1067</v>
       </c>
-      <c r="G3" s="104"/>
-      <c r="H3" s="105">
+      <c r="G3" s="157"/>
+      <c r="H3" s="160">
         <v>1067</v>
       </c>
-      <c r="I3" s="104"/>
+      <c r="I3" s="157"/>
       <c r="J3" s="12"/>
     </row>
     <row r="4" spans="1:31" x14ac:dyDescent="0.55000000000000004">
-      <c r="A4" s="106"/>
-      <c r="B4" s="106" t="s">
+      <c r="A4" s="163"/>
+      <c r="B4" s="163" t="s">
         <v>103</v>
       </c>
-      <c r="C4" s="107"/>
-      <c r="D4" s="108">
+      <c r="C4" s="166"/>
+      <c r="D4" s="69">
         <v>126</v>
       </c>
-      <c r="E4" s="109">
+      <c r="E4" s="70">
         <v>110</v>
       </c>
-      <c r="F4" s="110">
+      <c r="F4" s="158">
         <v>110</v>
       </c>
-      <c r="G4" s="111"/>
-      <c r="H4" s="112">
+      <c r="G4" s="159"/>
+      <c r="H4" s="161">
         <v>110</v>
       </c>
-      <c r="I4" s="111"/>
+      <c r="I4" s="159"/>
       <c r="J4" s="12"/>
-      <c r="Z4" s="65" t="s">
+      <c r="Z4" s="117" t="s">
         <v>107</v>
       </c>
-      <c r="AA4" s="67">
+      <c r="AA4" s="119">
         <v>2010</v>
       </c>
-      <c r="AB4" s="69">
+      <c r="AB4" s="121">
         <v>2020</v>
       </c>
-      <c r="AC4" s="71" t="s">
+      <c r="AC4" s="123" t="s">
         <v>106</v>
       </c>
-      <c r="AD4" s="65" t="s">
+      <c r="AD4" s="117" t="s">
         <v>92</v>
       </c>
-      <c r="AE4" s="63" t="s">
+      <c r="AE4" s="115" t="s">
         <v>93</v>
       </c>
     </row>
     <row r="5" spans="1:31" ht="18" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A5" s="113" t="s">
+      <c r="A5" s="125" t="s">
         <v>1</v>
       </c>
-      <c r="B5" s="114" t="s">
+      <c r="B5" s="71" t="s">
         <v>2</v>
       </c>
-      <c r="C5" s="115"/>
-      <c r="D5" s="116" t="s">
+      <c r="C5" s="72"/>
+      <c r="D5" s="73" t="s">
         <v>35</v>
       </c>
-      <c r="E5" s="117">
+      <c r="E5" s="74">
         <v>1</v>
       </c>
-      <c r="F5" s="118">
+      <c r="F5" s="136">
         <v>1</v>
       </c>
-      <c r="G5" s="119"/>
-      <c r="H5" s="118">
+      <c r="G5" s="137"/>
+      <c r="H5" s="136">
         <v>1</v>
       </c>
-      <c r="I5" s="119"/>
-      <c r="Z5" s="66"/>
-      <c r="AA5" s="68"/>
-      <c r="AB5" s="70"/>
-      <c r="AC5" s="72"/>
-      <c r="AD5" s="66"/>
-      <c r="AE5" s="64"/>
+      <c r="I5" s="137"/>
+      <c r="Z5" s="118"/>
+      <c r="AA5" s="120"/>
+      <c r="AB5" s="122"/>
+      <c r="AC5" s="124"/>
+      <c r="AD5" s="118"/>
+      <c r="AE5" s="116"/>
     </row>
     <row r="6" spans="1:31" x14ac:dyDescent="0.55000000000000004">
-      <c r="A6" s="120"/>
-      <c r="B6" s="121" t="s">
+      <c r="A6" s="126"/>
+      <c r="B6" s="75" t="s">
         <v>3</v>
       </c>
-      <c r="C6" s="122"/>
-      <c r="D6" s="123" t="s">
+      <c r="C6" s="76"/>
+      <c r="D6" s="77" t="s">
         <v>35</v>
       </c>
-      <c r="E6" s="124">
+      <c r="E6" s="78">
         <v>1</v>
       </c>
-      <c r="F6" s="125">
+      <c r="F6" s="138">
         <v>1</v>
       </c>
-      <c r="G6" s="126"/>
-      <c r="H6" s="125">
+      <c r="G6" s="139"/>
+      <c r="H6" s="138">
         <v>1</v>
       </c>
-      <c r="I6" s="126"/>
+      <c r="I6" s="139"/>
       <c r="Z6" s="46" t="s">
         <v>2</v>
       </c>
@@ -24839,25 +25064,25 @@
       </c>
     </row>
     <row r="7" spans="1:31" x14ac:dyDescent="0.55000000000000004">
-      <c r="A7" s="120"/>
-      <c r="B7" s="127" t="s">
+      <c r="A7" s="126"/>
+      <c r="B7" s="79" t="s">
         <v>4</v>
       </c>
-      <c r="C7" s="115"/>
-      <c r="D7" s="116" t="s">
+      <c r="C7" s="72"/>
+      <c r="D7" s="73" t="s">
         <v>35</v>
       </c>
-      <c r="E7" s="117">
+      <c r="E7" s="74">
         <v>1</v>
       </c>
-      <c r="F7" s="128">
+      <c r="F7" s="140">
         <v>1</v>
       </c>
-      <c r="G7" s="129"/>
-      <c r="H7" s="128">
+      <c r="G7" s="141"/>
+      <c r="H7" s="140">
         <v>1</v>
       </c>
-      <c r="I7" s="129"/>
+      <c r="I7" s="141"/>
       <c r="Z7" s="51" t="s">
         <v>3</v>
       </c>
@@ -24882,25 +25107,25 @@
       </c>
     </row>
     <row r="8" spans="1:31" x14ac:dyDescent="0.55000000000000004">
-      <c r="A8" s="130"/>
-      <c r="B8" s="131" t="s">
+      <c r="A8" s="127"/>
+      <c r="B8" s="80" t="s">
         <v>5</v>
       </c>
-      <c r="C8" s="132"/>
-      <c r="D8" s="133" t="s">
+      <c r="C8" s="81"/>
+      <c r="D8" s="82" t="s">
         <v>35</v>
       </c>
-      <c r="E8" s="134">
+      <c r="E8" s="83">
         <v>1</v>
       </c>
-      <c r="F8" s="135">
+      <c r="F8" s="142">
         <v>1</v>
       </c>
-      <c r="G8" s="136"/>
-      <c r="H8" s="135">
+      <c r="G8" s="143"/>
+      <c r="H8" s="142">
         <v>1</v>
       </c>
-      <c r="I8" s="136"/>
+      <c r="I8" s="143"/>
       <c r="Z8" s="47" t="s">
         <v>4</v>
       </c>
@@ -24925,32 +25150,32 @@
       </c>
     </row>
     <row r="9" spans="1:31" x14ac:dyDescent="0.55000000000000004">
-      <c r="A9" s="137" t="s">
+      <c r="A9" s="128" t="s">
         <v>25</v>
       </c>
-      <c r="B9" s="138" t="s">
+      <c r="B9" s="144" t="s">
         <v>2</v>
       </c>
-      <c r="C9" s="139" t="s">
+      <c r="C9" s="84" t="s">
         <v>7</v>
       </c>
-      <c r="D9" s="140">
+      <c r="D9" s="85">
         <v>24</v>
       </c>
-      <c r="E9" s="141">
+      <c r="E9" s="86">
         <v>24</v>
       </c>
-      <c r="F9" s="142">
+      <c r="F9" s="87">
         <v>24</v>
       </c>
-      <c r="G9" s="143">
+      <c r="G9" s="133">
         <f>SUM(F9:F13)</f>
         <v>100</v>
       </c>
-      <c r="H9" s="144">
+      <c r="H9" s="88">
         <v>24</v>
       </c>
-      <c r="I9" s="145">
+      <c r="I9" s="167">
         <f>SUM(H9:H13)</f>
         <v>100</v>
       </c>
@@ -24979,25 +25204,25 @@
       </c>
     </row>
     <row r="10" spans="1:31" x14ac:dyDescent="0.55000000000000004">
-      <c r="A10" s="146"/>
-      <c r="B10" s="147"/>
-      <c r="C10" s="148" t="s">
+      <c r="A10" s="129"/>
+      <c r="B10" s="145"/>
+      <c r="C10" s="89" t="s">
         <v>8</v>
       </c>
-      <c r="D10" s="149">
+      <c r="D10" s="90">
         <v>22</v>
       </c>
-      <c r="E10" s="150">
+      <c r="E10" s="91">
         <v>22</v>
       </c>
-      <c r="F10" s="151">
+      <c r="F10" s="92">
         <v>22</v>
       </c>
-      <c r="G10" s="143"/>
-      <c r="H10" s="152">
+      <c r="G10" s="133"/>
+      <c r="H10" s="93">
         <v>22</v>
       </c>
-      <c r="I10" s="153"/>
+      <c r="I10" s="168"/>
       <c r="J10" s="2"/>
       <c r="Z10" s="47" t="s">
         <v>30</v>
@@ -25023,25 +25248,25 @@
       </c>
     </row>
     <row r="11" spans="1:31" ht="20" x14ac:dyDescent="0.55000000000000004">
-      <c r="A11" s="146"/>
-      <c r="B11" s="147"/>
-      <c r="C11" s="154" t="s">
+      <c r="A11" s="129"/>
+      <c r="B11" s="145"/>
+      <c r="C11" s="94" t="s">
         <v>9</v>
       </c>
-      <c r="D11" s="155">
+      <c r="D11" s="95">
         <v>14.000000000000002</v>
       </c>
-      <c r="E11" s="156">
+      <c r="E11" s="96">
         <v>14.000000000000002</v>
       </c>
-      <c r="F11" s="142">
+      <c r="F11" s="87">
         <v>14.000000000000002</v>
       </c>
-      <c r="G11" s="143"/>
-      <c r="H11" s="144">
+      <c r="G11" s="133"/>
+      <c r="H11" s="88">
         <v>14.000000000000002</v>
       </c>
-      <c r="I11" s="153"/>
+      <c r="I11" s="168"/>
       <c r="J11" s="2"/>
       <c r="Z11" s="51" t="s">
         <v>112</v>
@@ -25067,25 +25292,25 @@
       </c>
     </row>
     <row r="12" spans="1:31" ht="20" x14ac:dyDescent="0.55000000000000004">
-      <c r="A12" s="146"/>
-      <c r="B12" s="147"/>
-      <c r="C12" s="148" t="s">
+      <c r="A12" s="129"/>
+      <c r="B12" s="145"/>
+      <c r="C12" s="89" t="s">
         <v>10</v>
       </c>
-      <c r="D12" s="149">
+      <c r="D12" s="90">
         <v>4</v>
       </c>
-      <c r="E12" s="150">
+      <c r="E12" s="91">
         <v>4</v>
       </c>
-      <c r="F12" s="151">
+      <c r="F12" s="92">
         <v>4</v>
       </c>
-      <c r="G12" s="143"/>
-      <c r="H12" s="152">
+      <c r="G12" s="133"/>
+      <c r="H12" s="93">
         <v>4</v>
       </c>
-      <c r="I12" s="153"/>
+      <c r="I12" s="168"/>
       <c r="J12" s="2"/>
       <c r="Z12" s="47" t="s">
         <v>113</v>
@@ -25111,25 +25336,25 @@
       </c>
     </row>
     <row r="13" spans="1:31" ht="20" x14ac:dyDescent="0.55000000000000004">
-      <c r="A13" s="146"/>
-      <c r="B13" s="157"/>
-      <c r="C13" s="158" t="s">
+      <c r="A13" s="129"/>
+      <c r="B13" s="146"/>
+      <c r="C13" s="97" t="s">
         <v>11</v>
       </c>
-      <c r="D13" s="159">
+      <c r="D13" s="98">
         <v>36</v>
       </c>
-      <c r="E13" s="160">
+      <c r="E13" s="99">
         <v>36</v>
       </c>
-      <c r="F13" s="161">
+      <c r="F13" s="100">
         <v>36</v>
       </c>
-      <c r="G13" s="162"/>
-      <c r="H13" s="163">
+      <c r="G13" s="134"/>
+      <c r="H13" s="101">
         <v>36</v>
       </c>
-      <c r="I13" s="164"/>
+      <c r="I13" s="169"/>
       <c r="J13" s="2"/>
       <c r="Z13" s="51" t="s">
         <v>114</v>
@@ -25155,30 +25380,30 @@
       </c>
     </row>
     <row r="14" spans="1:31" x14ac:dyDescent="0.55000000000000004">
-      <c r="A14" s="146"/>
-      <c r="B14" s="138" t="s">
+      <c r="A14" s="129"/>
+      <c r="B14" s="144" t="s">
         <v>3</v>
       </c>
-      <c r="C14" s="165" t="s">
+      <c r="C14" s="102" t="s">
         <v>7</v>
       </c>
-      <c r="D14" s="166">
-        <v>0</v>
-      </c>
-      <c r="E14" s="167">
-        <v>0</v>
-      </c>
-      <c r="F14" s="167">
-        <v>0</v>
-      </c>
-      <c r="G14" s="168">
+      <c r="D14" s="103">
+        <v>0</v>
+      </c>
+      <c r="E14" s="104">
+        <v>0</v>
+      </c>
+      <c r="F14" s="104">
+        <v>0</v>
+      </c>
+      <c r="G14" s="135">
         <f t="shared" ref="G14" si="0">SUM(F14:F18)</f>
         <v>100</v>
       </c>
-      <c r="H14" s="169">
-        <v>0</v>
-      </c>
-      <c r="I14" s="145">
+      <c r="H14" s="105">
+        <v>0</v>
+      </c>
+      <c r="I14" s="167">
         <f>SUM(H14:H18)</f>
         <v>100</v>
       </c>
@@ -25207,624 +25432,624 @@
       </c>
     </row>
     <row r="15" spans="1:31" x14ac:dyDescent="0.55000000000000004">
-      <c r="A15" s="146"/>
-      <c r="B15" s="147"/>
-      <c r="C15" s="154" t="s">
+      <c r="A15" s="129"/>
+      <c r="B15" s="145"/>
+      <c r="C15" s="94" t="s">
         <v>8</v>
       </c>
-      <c r="D15" s="155">
+      <c r="D15" s="95">
         <v>97</v>
       </c>
-      <c r="E15" s="156">
+      <c r="E15" s="96">
         <v>97</v>
       </c>
-      <c r="F15" s="156">
+      <c r="F15" s="96">
         <v>97</v>
       </c>
-      <c r="G15" s="143"/>
-      <c r="H15" s="144">
+      <c r="G15" s="133"/>
+      <c r="H15" s="88">
         <v>97</v>
       </c>
-      <c r="I15" s="153"/>
+      <c r="I15" s="168"/>
       <c r="J15" s="2"/>
     </row>
     <row r="16" spans="1:31" x14ac:dyDescent="0.55000000000000004">
-      <c r="A16" s="146"/>
-      <c r="B16" s="147"/>
-      <c r="C16" s="148" t="s">
+      <c r="A16" s="129"/>
+      <c r="B16" s="145"/>
+      <c r="C16" s="89" t="s">
         <v>9</v>
       </c>
-      <c r="D16" s="149">
-        <v>0</v>
-      </c>
-      <c r="E16" s="150">
-        <v>0</v>
-      </c>
-      <c r="F16" s="150">
-        <v>0</v>
-      </c>
-      <c r="G16" s="143"/>
-      <c r="H16" s="152">
-        <v>0</v>
-      </c>
-      <c r="I16" s="153"/>
+      <c r="D16" s="90">
+        <v>0</v>
+      </c>
+      <c r="E16" s="91">
+        <v>0</v>
+      </c>
+      <c r="F16" s="91">
+        <v>0</v>
+      </c>
+      <c r="G16" s="133"/>
+      <c r="H16" s="93">
+        <v>0</v>
+      </c>
+      <c r="I16" s="168"/>
       <c r="J16" s="2"/>
     </row>
     <row r="17" spans="1:31" x14ac:dyDescent="0.55000000000000004">
-      <c r="A17" s="146"/>
-      <c r="B17" s="147"/>
-      <c r="C17" s="154" t="s">
+      <c r="A17" s="129"/>
+      <c r="B17" s="145"/>
+      <c r="C17" s="94" t="s">
         <v>10</v>
       </c>
-      <c r="D17" s="155">
+      <c r="D17" s="95">
         <v>1</v>
       </c>
-      <c r="E17" s="156">
+      <c r="E17" s="96">
         <v>1</v>
       </c>
-      <c r="F17" s="156">
+      <c r="F17" s="96">
         <v>1</v>
       </c>
-      <c r="G17" s="143"/>
-      <c r="H17" s="144">
+      <c r="G17" s="133"/>
+      <c r="H17" s="88">
         <v>1</v>
       </c>
-      <c r="I17" s="153"/>
+      <c r="I17" s="168"/>
       <c r="J17" s="2"/>
     </row>
     <row r="18" spans="1:31" x14ac:dyDescent="0.55000000000000004">
-      <c r="A18" s="146"/>
-      <c r="B18" s="157"/>
-      <c r="C18" s="170" t="s">
+      <c r="A18" s="129"/>
+      <c r="B18" s="146"/>
+      <c r="C18" s="106" t="s">
         <v>11</v>
       </c>
-      <c r="D18" s="171">
+      <c r="D18" s="107">
         <v>2</v>
       </c>
-      <c r="E18" s="172">
+      <c r="E18" s="108">
         <v>2</v>
       </c>
-      <c r="F18" s="172">
+      <c r="F18" s="108">
         <v>2</v>
       </c>
-      <c r="G18" s="162"/>
-      <c r="H18" s="173">
+      <c r="G18" s="134"/>
+      <c r="H18" s="109">
         <v>2</v>
       </c>
-      <c r="I18" s="164"/>
+      <c r="I18" s="169"/>
       <c r="J18" s="2"/>
       <c r="AE18" s="52"/>
     </row>
     <row r="19" spans="1:31" x14ac:dyDescent="0.55000000000000004">
-      <c r="A19" s="146"/>
-      <c r="B19" s="138" t="s">
+      <c r="A19" s="129"/>
+      <c r="B19" s="144" t="s">
         <v>4</v>
       </c>
-      <c r="C19" s="139" t="s">
+      <c r="C19" s="84" t="s">
         <v>7</v>
       </c>
-      <c r="D19" s="140">
-        <v>0</v>
-      </c>
-      <c r="E19" s="141">
-        <v>0</v>
-      </c>
-      <c r="F19" s="141">
-        <v>0</v>
-      </c>
-      <c r="G19" s="168">
+      <c r="D19" s="85">
+        <v>0</v>
+      </c>
+      <c r="E19" s="86">
+        <v>0</v>
+      </c>
+      <c r="F19" s="86">
+        <v>0</v>
+      </c>
+      <c r="G19" s="135">
         <f t="shared" ref="G19" si="1">SUM(F19:F23)</f>
         <v>100</v>
       </c>
-      <c r="H19" s="174">
-        <v>0</v>
-      </c>
-      <c r="I19" s="145">
+      <c r="H19" s="110">
+        <v>0</v>
+      </c>
+      <c r="I19" s="167">
         <f>SUM(H19:H23)</f>
         <v>100</v>
       </c>
       <c r="J19" s="2"/>
     </row>
     <row r="20" spans="1:31" x14ac:dyDescent="0.55000000000000004">
-      <c r="A20" s="146"/>
-      <c r="B20" s="147"/>
-      <c r="C20" s="148" t="s">
+      <c r="A20" s="129"/>
+      <c r="B20" s="145"/>
+      <c r="C20" s="89" t="s">
         <v>8</v>
       </c>
-      <c r="D20" s="149">
+      <c r="D20" s="90">
         <v>24</v>
       </c>
-      <c r="E20" s="150">
+      <c r="E20" s="91">
         <v>24</v>
       </c>
-      <c r="F20" s="150">
+      <c r="F20" s="91">
         <v>24</v>
       </c>
-      <c r="G20" s="143"/>
-      <c r="H20" s="152">
+      <c r="G20" s="133"/>
+      <c r="H20" s="93">
         <v>24</v>
       </c>
-      <c r="I20" s="153"/>
+      <c r="I20" s="168"/>
       <c r="J20" s="2"/>
     </row>
     <row r="21" spans="1:31" x14ac:dyDescent="0.55000000000000004">
-      <c r="A21" s="146"/>
-      <c r="B21" s="147"/>
-      <c r="C21" s="154" t="s">
+      <c r="A21" s="129"/>
+      <c r="B21" s="145"/>
+      <c r="C21" s="94" t="s">
         <v>9</v>
       </c>
-      <c r="D21" s="155">
+      <c r="D21" s="95">
         <v>16</v>
       </c>
-      <c r="E21" s="156">
+      <c r="E21" s="96">
         <v>16</v>
       </c>
-      <c r="F21" s="156">
+      <c r="F21" s="96">
         <v>16</v>
       </c>
-      <c r="G21" s="143"/>
-      <c r="H21" s="144">
+      <c r="G21" s="133"/>
+      <c r="H21" s="88">
         <v>16</v>
       </c>
-      <c r="I21" s="153"/>
+      <c r="I21" s="168"/>
       <c r="J21" s="2"/>
     </row>
     <row r="22" spans="1:31" x14ac:dyDescent="0.55000000000000004">
-      <c r="A22" s="146"/>
-      <c r="B22" s="147"/>
-      <c r="C22" s="148" t="s">
+      <c r="A22" s="129"/>
+      <c r="B22" s="145"/>
+      <c r="C22" s="89" t="s">
         <v>10</v>
       </c>
-      <c r="D22" s="149">
+      <c r="D22" s="90">
         <v>3</v>
       </c>
-      <c r="E22" s="150">
+      <c r="E22" s="91">
         <v>3</v>
       </c>
-      <c r="F22" s="150">
+      <c r="F22" s="91">
         <v>3</v>
       </c>
-      <c r="G22" s="143"/>
-      <c r="H22" s="152">
+      <c r="G22" s="133"/>
+      <c r="H22" s="93">
         <v>3</v>
       </c>
-      <c r="I22" s="153"/>
+      <c r="I22" s="168"/>
       <c r="J22" s="2"/>
     </row>
     <row r="23" spans="1:31" x14ac:dyDescent="0.55000000000000004">
-      <c r="A23" s="146"/>
-      <c r="B23" s="157"/>
-      <c r="C23" s="158" t="s">
+      <c r="A23" s="129"/>
+      <c r="B23" s="146"/>
+      <c r="C23" s="97" t="s">
         <v>11</v>
       </c>
-      <c r="D23" s="159">
+      <c r="D23" s="98">
         <v>56.999999999999993</v>
       </c>
-      <c r="E23" s="160">
+      <c r="E23" s="99">
         <v>56.999999999999993</v>
       </c>
-      <c r="F23" s="160">
+      <c r="F23" s="99">
         <v>56.999999999999993</v>
       </c>
-      <c r="G23" s="162"/>
-      <c r="H23" s="163">
+      <c r="G23" s="134"/>
+      <c r="H23" s="101">
         <v>56.999999999999993</v>
       </c>
-      <c r="I23" s="164"/>
+      <c r="I23" s="169"/>
       <c r="J23" s="2"/>
     </row>
     <row r="24" spans="1:31" x14ac:dyDescent="0.55000000000000004">
-      <c r="A24" s="146"/>
-      <c r="B24" s="138" t="s">
+      <c r="A24" s="129"/>
+      <c r="B24" s="144" t="s">
         <v>5</v>
       </c>
-      <c r="C24" s="165" t="s">
+      <c r="C24" s="102" t="s">
         <v>7</v>
       </c>
-      <c r="D24" s="166">
-        <v>0</v>
-      </c>
-      <c r="E24" s="167">
-        <v>0</v>
-      </c>
-      <c r="F24" s="167">
-        <v>0</v>
-      </c>
-      <c r="G24" s="168">
+      <c r="D24" s="103">
+        <v>0</v>
+      </c>
+      <c r="E24" s="104">
+        <v>0</v>
+      </c>
+      <c r="F24" s="104">
+        <v>0</v>
+      </c>
+      <c r="G24" s="135">
         <f t="shared" ref="G24" si="2">SUM(F24:F28)</f>
         <v>100</v>
       </c>
-      <c r="H24" s="169">
-        <v>0</v>
-      </c>
-      <c r="I24" s="145">
+      <c r="H24" s="105">
+        <v>0</v>
+      </c>
+      <c r="I24" s="167">
         <f>SUM(H24:H28)</f>
         <v>100</v>
       </c>
       <c r="J24" s="2"/>
     </row>
     <row r="25" spans="1:31" x14ac:dyDescent="0.55000000000000004">
-      <c r="A25" s="146"/>
-      <c r="B25" s="147"/>
-      <c r="C25" s="154" t="s">
+      <c r="A25" s="129"/>
+      <c r="B25" s="145"/>
+      <c r="C25" s="94" t="s">
         <v>8</v>
       </c>
-      <c r="D25" s="155">
+      <c r="D25" s="95">
         <v>27</v>
       </c>
-      <c r="E25" s="156">
+      <c r="E25" s="96">
         <v>27</v>
       </c>
-      <c r="F25" s="156">
+      <c r="F25" s="96">
         <v>27</v>
       </c>
-      <c r="G25" s="143"/>
-      <c r="H25" s="144">
+      <c r="G25" s="133"/>
+      <c r="H25" s="88">
         <v>27</v>
       </c>
-      <c r="I25" s="153"/>
+      <c r="I25" s="168"/>
       <c r="J25" s="2"/>
     </row>
     <row r="26" spans="1:31" x14ac:dyDescent="0.55000000000000004">
-      <c r="A26" s="146"/>
-      <c r="B26" s="147"/>
-      <c r="C26" s="148" t="s">
+      <c r="A26" s="129"/>
+      <c r="B26" s="145"/>
+      <c r="C26" s="89" t="s">
         <v>9</v>
       </c>
-      <c r="D26" s="149">
+      <c r="D26" s="90">
         <v>21</v>
       </c>
-      <c r="E26" s="150">
+      <c r="E26" s="91">
         <v>21</v>
       </c>
-      <c r="F26" s="150">
+      <c r="F26" s="91">
         <v>21</v>
       </c>
-      <c r="G26" s="143"/>
-      <c r="H26" s="152">
+      <c r="G26" s="133"/>
+      <c r="H26" s="93">
         <v>21</v>
       </c>
-      <c r="I26" s="153"/>
+      <c r="I26" s="168"/>
       <c r="J26" s="2"/>
     </row>
     <row r="27" spans="1:31" x14ac:dyDescent="0.55000000000000004">
-      <c r="A27" s="146"/>
-      <c r="B27" s="147"/>
-      <c r="C27" s="154" t="s">
+      <c r="A27" s="129"/>
+      <c r="B27" s="145"/>
+      <c r="C27" s="94" t="s">
         <v>10</v>
       </c>
-      <c r="D27" s="155">
-        <v>0</v>
-      </c>
-      <c r="E27" s="156">
-        <v>0</v>
-      </c>
-      <c r="F27" s="156">
-        <v>0</v>
-      </c>
-      <c r="G27" s="143"/>
-      <c r="H27" s="144">
-        <v>0</v>
-      </c>
-      <c r="I27" s="153"/>
+      <c r="D27" s="95">
+        <v>0</v>
+      </c>
+      <c r="E27" s="96">
+        <v>0</v>
+      </c>
+      <c r="F27" s="96">
+        <v>0</v>
+      </c>
+      <c r="G27" s="133"/>
+      <c r="H27" s="88">
+        <v>0</v>
+      </c>
+      <c r="I27" s="168"/>
       <c r="J27" s="2"/>
     </row>
     <row r="28" spans="1:31" x14ac:dyDescent="0.55000000000000004">
-      <c r="A28" s="146"/>
-      <c r="B28" s="157"/>
-      <c r="C28" s="170" t="s">
+      <c r="A28" s="129"/>
+      <c r="B28" s="146"/>
+      <c r="C28" s="106" t="s">
         <v>11</v>
       </c>
-      <c r="D28" s="171">
+      <c r="D28" s="107">
         <v>52</v>
       </c>
-      <c r="E28" s="172">
+      <c r="E28" s="108">
         <v>52</v>
       </c>
-      <c r="F28" s="172">
+      <c r="F28" s="108">
         <v>52</v>
       </c>
-      <c r="G28" s="162"/>
-      <c r="H28" s="173">
+      <c r="G28" s="134"/>
+      <c r="H28" s="109">
         <v>52</v>
       </c>
-      <c r="I28" s="164"/>
+      <c r="I28" s="169"/>
       <c r="J28" s="2"/>
     </row>
     <row r="29" spans="1:31" x14ac:dyDescent="0.55000000000000004">
-      <c r="A29" s="175" t="s">
+      <c r="A29" s="130" t="s">
         <v>26</v>
       </c>
-      <c r="B29" s="138" t="s">
+      <c r="B29" s="144" t="s">
         <v>30</v>
       </c>
-      <c r="C29" s="139" t="s">
+      <c r="C29" s="84" t="s">
         <v>7</v>
       </c>
-      <c r="D29" s="140">
+      <c r="D29" s="85">
         <v>31</v>
       </c>
-      <c r="E29" s="141">
+      <c r="E29" s="86">
         <v>31</v>
       </c>
-      <c r="F29" s="141">
+      <c r="F29" s="86">
         <v>31</v>
       </c>
-      <c r="G29" s="168">
+      <c r="G29" s="135">
         <f>SUM(F29:F41)</f>
         <v>100</v>
       </c>
-      <c r="H29" s="174">
+      <c r="H29" s="110">
         <v>31</v>
       </c>
-      <c r="I29" s="145">
+      <c r="I29" s="167">
         <f>SUM(H29:H41)</f>
         <v>100</v>
       </c>
       <c r="J29" s="2"/>
     </row>
     <row r="30" spans="1:31" x14ac:dyDescent="0.55000000000000004">
-      <c r="A30" s="176"/>
-      <c r="B30" s="147"/>
-      <c r="C30" s="177" t="s">
+      <c r="A30" s="131"/>
+      <c r="B30" s="145"/>
+      <c r="C30" s="111" t="s">
         <v>76</v>
       </c>
-      <c r="D30" s="178">
-        <v>0</v>
-      </c>
-      <c r="E30" s="179">
-        <v>0</v>
-      </c>
-      <c r="F30" s="179">
-        <v>0</v>
-      </c>
-      <c r="G30" s="143"/>
-      <c r="H30" s="180">
-        <v>0</v>
-      </c>
-      <c r="I30" s="153"/>
+      <c r="D30" s="112">
+        <v>0</v>
+      </c>
+      <c r="E30" s="113">
+        <v>0</v>
+      </c>
+      <c r="F30" s="113">
+        <v>0</v>
+      </c>
+      <c r="G30" s="133"/>
+      <c r="H30" s="114">
+        <v>0</v>
+      </c>
+      <c r="I30" s="168"/>
       <c r="J30" s="2"/>
     </row>
     <row r="31" spans="1:31" x14ac:dyDescent="0.55000000000000004">
-      <c r="A31" s="176"/>
-      <c r="B31" s="147"/>
-      <c r="C31" s="154" t="s">
+      <c r="A31" s="131"/>
+      <c r="B31" s="145"/>
+      <c r="C31" s="94" t="s">
         <v>8</v>
       </c>
-      <c r="D31" s="155">
+      <c r="D31" s="95">
         <v>3</v>
       </c>
-      <c r="E31" s="156">
+      <c r="E31" s="96">
         <v>3</v>
       </c>
-      <c r="F31" s="156">
+      <c r="F31" s="96">
         <v>3</v>
       </c>
-      <c r="G31" s="143"/>
-      <c r="H31" s="144">
+      <c r="G31" s="133"/>
+      <c r="H31" s="88">
         <v>3</v>
       </c>
-      <c r="I31" s="153"/>
+      <c r="I31" s="168"/>
       <c r="J31" s="2"/>
     </row>
     <row r="32" spans="1:31" x14ac:dyDescent="0.55000000000000004">
-      <c r="A32" s="176"/>
-      <c r="B32" s="147"/>
-      <c r="C32" s="177" t="s">
+      <c r="A32" s="131"/>
+      <c r="B32" s="145"/>
+      <c r="C32" s="111" t="s">
         <v>77</v>
       </c>
-      <c r="D32" s="178">
-        <v>0</v>
-      </c>
-      <c r="E32" s="179">
-        <v>0</v>
-      </c>
-      <c r="F32" s="179">
-        <v>0</v>
-      </c>
-      <c r="G32" s="143"/>
-      <c r="H32" s="180">
-        <v>0</v>
-      </c>
-      <c r="I32" s="153"/>
+      <c r="D32" s="112">
+        <v>0</v>
+      </c>
+      <c r="E32" s="113">
+        <v>0</v>
+      </c>
+      <c r="F32" s="113">
+        <v>0</v>
+      </c>
+      <c r="G32" s="133"/>
+      <c r="H32" s="114">
+        <v>0</v>
+      </c>
+      <c r="I32" s="168"/>
       <c r="J32" s="2"/>
     </row>
     <row r="33" spans="1:10" x14ac:dyDescent="0.55000000000000004">
-      <c r="A33" s="176"/>
-      <c r="B33" s="147"/>
-      <c r="C33" s="154" t="s">
+      <c r="A33" s="131"/>
+      <c r="B33" s="145"/>
+      <c r="C33" s="94" t="s">
         <v>9</v>
       </c>
-      <c r="D33" s="155">
+      <c r="D33" s="95">
         <v>40</v>
       </c>
-      <c r="E33" s="156">
+      <c r="E33" s="96">
         <v>40</v>
       </c>
-      <c r="F33" s="156">
+      <c r="F33" s="96">
         <v>40</v>
       </c>
-      <c r="G33" s="143"/>
-      <c r="H33" s="144">
+      <c r="G33" s="133"/>
+      <c r="H33" s="88">
         <v>40</v>
       </c>
-      <c r="I33" s="153"/>
+      <c r="I33" s="168"/>
       <c r="J33" s="2"/>
     </row>
     <row r="34" spans="1:10" x14ac:dyDescent="0.55000000000000004">
-      <c r="A34" s="176"/>
-      <c r="B34" s="147"/>
-      <c r="C34" s="177" t="s">
+      <c r="A34" s="131"/>
+      <c r="B34" s="145"/>
+      <c r="C34" s="111" t="s">
         <v>78</v>
       </c>
-      <c r="D34" s="178">
-        <v>0</v>
-      </c>
-      <c r="E34" s="179">
-        <v>0</v>
-      </c>
-      <c r="F34" s="179">
-        <v>0</v>
-      </c>
-      <c r="G34" s="143"/>
-      <c r="H34" s="180">
-        <v>0</v>
-      </c>
-      <c r="I34" s="153"/>
+      <c r="D34" s="112">
+        <v>0</v>
+      </c>
+      <c r="E34" s="113">
+        <v>0</v>
+      </c>
+      <c r="F34" s="113">
+        <v>0</v>
+      </c>
+      <c r="G34" s="133"/>
+      <c r="H34" s="114">
+        <v>0</v>
+      </c>
+      <c r="I34" s="168"/>
       <c r="J34" s="2"/>
     </row>
     <row r="35" spans="1:10" x14ac:dyDescent="0.55000000000000004">
-      <c r="A35" s="176"/>
-      <c r="B35" s="147"/>
-      <c r="C35" s="154" t="s">
+      <c r="A35" s="131"/>
+      <c r="B35" s="145"/>
+      <c r="C35" s="94" t="s">
         <v>79</v>
       </c>
-      <c r="D35" s="155">
+      <c r="D35" s="95">
         <v>4</v>
       </c>
-      <c r="E35" s="156">
+      <c r="E35" s="96">
         <v>4</v>
       </c>
-      <c r="F35" s="156">
+      <c r="F35" s="96">
         <v>4</v>
       </c>
-      <c r="G35" s="143"/>
-      <c r="H35" s="144">
+      <c r="G35" s="133"/>
+      <c r="H35" s="88">
         <v>4</v>
       </c>
-      <c r="I35" s="153"/>
+      <c r="I35" s="168"/>
       <c r="J35" s="2"/>
     </row>
     <row r="36" spans="1:10" x14ac:dyDescent="0.55000000000000004">
-      <c r="A36" s="176"/>
-      <c r="B36" s="147"/>
-      <c r="C36" s="177" t="s">
+      <c r="A36" s="131"/>
+      <c r="B36" s="145"/>
+      <c r="C36" s="111" t="s">
         <v>10</v>
       </c>
-      <c r="D36" s="178">
+      <c r="D36" s="112">
         <v>5</v>
       </c>
-      <c r="E36" s="179">
+      <c r="E36" s="113">
         <v>5</v>
       </c>
-      <c r="F36" s="179">
+      <c r="F36" s="113">
         <v>5</v>
       </c>
-      <c r="G36" s="143"/>
-      <c r="H36" s="180">
+      <c r="G36" s="133"/>
+      <c r="H36" s="114">
         <v>5</v>
       </c>
-      <c r="I36" s="153"/>
+      <c r="I36" s="168"/>
       <c r="J36" s="2"/>
     </row>
     <row r="37" spans="1:10" x14ac:dyDescent="0.55000000000000004">
-      <c r="A37" s="176"/>
-      <c r="B37" s="147"/>
-      <c r="C37" s="154" t="s">
+      <c r="A37" s="131"/>
+      <c r="B37" s="145"/>
+      <c r="C37" s="94" t="s">
         <v>80</v>
       </c>
-      <c r="D37" s="155">
-        <v>0</v>
-      </c>
-      <c r="E37" s="156">
-        <v>0</v>
-      </c>
-      <c r="F37" s="156">
-        <v>0</v>
-      </c>
-      <c r="G37" s="143"/>
-      <c r="H37" s="144">
-        <v>0</v>
-      </c>
-      <c r="I37" s="153"/>
+      <c r="D37" s="95">
+        <v>0</v>
+      </c>
+      <c r="E37" s="96">
+        <v>0</v>
+      </c>
+      <c r="F37" s="96">
+        <v>0</v>
+      </c>
+      <c r="G37" s="133"/>
+      <c r="H37" s="88">
+        <v>0</v>
+      </c>
+      <c r="I37" s="168"/>
       <c r="J37" s="2"/>
     </row>
     <row r="38" spans="1:10" x14ac:dyDescent="0.55000000000000004">
-      <c r="A38" s="176"/>
-      <c r="B38" s="147"/>
-      <c r="C38" s="177" t="s">
+      <c r="A38" s="131"/>
+      <c r="B38" s="145"/>
+      <c r="C38" s="111" t="s">
         <v>81</v>
       </c>
-      <c r="D38" s="178">
+      <c r="D38" s="112">
         <v>8</v>
       </c>
-      <c r="E38" s="179">
+      <c r="E38" s="113">
         <v>8</v>
       </c>
-      <c r="F38" s="179">
+      <c r="F38" s="113">
         <v>8</v>
       </c>
-      <c r="G38" s="143"/>
-      <c r="H38" s="180">
+      <c r="G38" s="133"/>
+      <c r="H38" s="114">
         <v>8</v>
       </c>
-      <c r="I38" s="153"/>
+      <c r="I38" s="168"/>
       <c r="J38" s="2"/>
     </row>
     <row r="39" spans="1:10" x14ac:dyDescent="0.55000000000000004">
-      <c r="A39" s="176"/>
-      <c r="B39" s="147"/>
-      <c r="C39" s="154" t="s">
+      <c r="A39" s="131"/>
+      <c r="B39" s="145"/>
+      <c r="C39" s="94" t="s">
         <v>82</v>
       </c>
-      <c r="D39" s="155">
-        <v>0</v>
-      </c>
-      <c r="E39" s="156">
-        <v>0</v>
-      </c>
-      <c r="F39" s="156">
-        <v>0</v>
-      </c>
-      <c r="G39" s="143"/>
-      <c r="H39" s="144">
-        <v>0</v>
-      </c>
-      <c r="I39" s="153"/>
+      <c r="D39" s="95">
+        <v>0</v>
+      </c>
+      <c r="E39" s="96">
+        <v>0</v>
+      </c>
+      <c r="F39" s="96">
+        <v>0</v>
+      </c>
+      <c r="G39" s="133"/>
+      <c r="H39" s="88">
+        <v>0</v>
+      </c>
+      <c r="I39" s="168"/>
       <c r="J39" s="2"/>
     </row>
     <row r="40" spans="1:10" x14ac:dyDescent="0.55000000000000004">
-      <c r="A40" s="176"/>
-      <c r="B40" s="147"/>
-      <c r="C40" s="177" t="s">
+      <c r="A40" s="131"/>
+      <c r="B40" s="145"/>
+      <c r="C40" s="111" t="s">
         <v>83</v>
       </c>
-      <c r="D40" s="178">
+      <c r="D40" s="112">
         <v>1</v>
       </c>
-      <c r="E40" s="179">
+      <c r="E40" s="113">
         <v>1</v>
       </c>
-      <c r="F40" s="179">
+      <c r="F40" s="113">
         <v>1</v>
       </c>
-      <c r="G40" s="143"/>
-      <c r="H40" s="180">
+      <c r="G40" s="133"/>
+      <c r="H40" s="114">
         <v>1</v>
       </c>
-      <c r="I40" s="153"/>
+      <c r="I40" s="168"/>
       <c r="J40" s="2"/>
     </row>
     <row r="41" spans="1:10" x14ac:dyDescent="0.55000000000000004">
-      <c r="A41" s="181"/>
-      <c r="B41" s="157"/>
-      <c r="C41" s="158" t="s">
+      <c r="A41" s="132"/>
+      <c r="B41" s="146"/>
+      <c r="C41" s="97" t="s">
         <v>84</v>
       </c>
-      <c r="D41" s="159">
+      <c r="D41" s="98">
         <v>8</v>
       </c>
-      <c r="E41" s="160">
+      <c r="E41" s="99">
         <v>8</v>
       </c>
-      <c r="F41" s="160">
+      <c r="F41" s="99">
         <v>8</v>
       </c>
-      <c r="G41" s="162"/>
-      <c r="H41" s="163">
+      <c r="G41" s="134"/>
+      <c r="H41" s="101">
         <v>8</v>
       </c>
-      <c r="I41" s="164"/>
+      <c r="I41" s="169"/>
       <c r="J41" s="2"/>
     </row>
     <row r="43" spans="1:10" x14ac:dyDescent="0.55000000000000004">
@@ -25887,12 +26112,28 @@
     </row>
   </sheetData>
   <mergeCells count="44">
-    <mergeCell ref="AE4:AE5"/>
-    <mergeCell ref="Z4:Z5"/>
-    <mergeCell ref="AA4:AA5"/>
-    <mergeCell ref="AB4:AB5"/>
-    <mergeCell ref="AC4:AC5"/>
-    <mergeCell ref="AD4:AD5"/>
+    <mergeCell ref="B29:B41"/>
+    <mergeCell ref="H5:I5"/>
+    <mergeCell ref="H6:I6"/>
+    <mergeCell ref="H7:I7"/>
+    <mergeCell ref="H8:I8"/>
+    <mergeCell ref="I9:I13"/>
+    <mergeCell ref="I14:I18"/>
+    <mergeCell ref="I19:I23"/>
+    <mergeCell ref="I24:I28"/>
+    <mergeCell ref="I29:I41"/>
+    <mergeCell ref="H1:I1"/>
+    <mergeCell ref="H2:I2"/>
+    <mergeCell ref="A1:C2"/>
+    <mergeCell ref="F3:G3"/>
+    <mergeCell ref="F4:G4"/>
+    <mergeCell ref="H3:I3"/>
+    <mergeCell ref="H4:I4"/>
+    <mergeCell ref="A3:A4"/>
+    <mergeCell ref="B3:C3"/>
+    <mergeCell ref="B4:C4"/>
+    <mergeCell ref="F1:G1"/>
+    <mergeCell ref="F2:G2"/>
     <mergeCell ref="A5:A8"/>
     <mergeCell ref="A9:A28"/>
     <mergeCell ref="A29:A41"/>
@@ -25909,28 +26150,12 @@
     <mergeCell ref="B14:B18"/>
     <mergeCell ref="B19:B23"/>
     <mergeCell ref="B24:B28"/>
-    <mergeCell ref="H1:I1"/>
-    <mergeCell ref="H2:I2"/>
-    <mergeCell ref="A1:C2"/>
-    <mergeCell ref="F3:G3"/>
-    <mergeCell ref="F4:G4"/>
-    <mergeCell ref="H3:I3"/>
-    <mergeCell ref="H4:I4"/>
-    <mergeCell ref="A3:A4"/>
-    <mergeCell ref="B3:C3"/>
-    <mergeCell ref="B4:C4"/>
-    <mergeCell ref="F1:G1"/>
-    <mergeCell ref="F2:G2"/>
-    <mergeCell ref="B29:B41"/>
-    <mergeCell ref="H5:I5"/>
-    <mergeCell ref="H6:I6"/>
-    <mergeCell ref="H7:I7"/>
-    <mergeCell ref="H8:I8"/>
-    <mergeCell ref="I9:I13"/>
-    <mergeCell ref="I14:I18"/>
-    <mergeCell ref="I19:I23"/>
-    <mergeCell ref="I24:I28"/>
-    <mergeCell ref="I29:I41"/>
+    <mergeCell ref="AE4:AE5"/>
+    <mergeCell ref="Z4:Z5"/>
+    <mergeCell ref="AA4:AA5"/>
+    <mergeCell ref="AB4:AB5"/>
+    <mergeCell ref="AC4:AC5"/>
+    <mergeCell ref="AD4:AD5"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <conditionalFormatting sqref="G14">
@@ -25984,83 +26209,83 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C9:F28">
-    <cfRule type="expression" dxfId="5" priority="20">
+    <cfRule type="expression" dxfId="1" priority="20">
       <formula>MOD(ROW(),2)=0</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="4" priority="8">
+    <cfRule type="expression" dxfId="0" priority="8">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H9:H28">
-    <cfRule type="expression" dxfId="7" priority="19">
+    <cfRule type="expression" dxfId="18" priority="19">
       <formula>MOD(ROW(),2)=0</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="6" priority="5">
+    <cfRule type="expression" dxfId="17" priority="5">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B5:I8">
-    <cfRule type="expression" dxfId="3" priority="18">
+    <cfRule type="expression" dxfId="16" priority="18">
       <formula>MOD(ROW(),2)=0</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="2" priority="7">
+    <cfRule type="expression" dxfId="15" priority="7">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C29:F41">
-    <cfRule type="expression" dxfId="9" priority="17">
+    <cfRule type="expression" dxfId="14" priority="17">
       <formula>MOD(ROW(),2)=0</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="8" priority="4">
+    <cfRule type="expression" dxfId="13" priority="4">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H29:H41">
-    <cfRule type="expression" dxfId="18" priority="16">
+    <cfRule type="expression" dxfId="12" priority="16">
       <formula>MOD(ROW(),2)=0</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="17" priority="3">
+    <cfRule type="expression" dxfId="11" priority="3">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B3:I4">
-    <cfRule type="expression" dxfId="1" priority="15">
+    <cfRule type="expression" dxfId="10" priority="15">
       <formula>MOD(ROW(),2)=0</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="0" priority="6">
+    <cfRule type="expression" dxfId="9" priority="6">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A3">
-    <cfRule type="expression" dxfId="16" priority="14">
+    <cfRule type="expression" dxfId="8" priority="14">
       <formula>MOD(ROW(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A5">
-    <cfRule type="expression" dxfId="15" priority="13">
+    <cfRule type="expression" dxfId="7" priority="13">
       <formula>MOD(ROW(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A9">
-    <cfRule type="expression" dxfId="14" priority="12">
+    <cfRule type="expression" dxfId="6" priority="12">
       <formula>MOD(ROW(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A29">
-    <cfRule type="expression" dxfId="13" priority="11">
+    <cfRule type="expression" dxfId="5" priority="11">
       <formula>MOD(ROW(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="Z6:AE14">
-    <cfRule type="expression" dxfId="11" priority="10">
+    <cfRule type="expression" dxfId="4" priority="10">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="10" priority="1">
+    <cfRule type="expression" dxfId="3" priority="1">
       <formula>MOD(ROW(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="Z4:AE5">
-    <cfRule type="expression" dxfId="12" priority="9">
+    <cfRule type="expression" dxfId="2" priority="9">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
@@ -31175,20 +31400,20 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:11" x14ac:dyDescent="0.55000000000000004">
-      <c r="B1" s="81" t="s">
+      <c r="B1" s="178" t="s">
         <v>43</v>
       </c>
-      <c r="C1" s="81"/>
-      <c r="D1" s="81"/>
-      <c r="E1" s="81"/>
-      <c r="F1" s="81"/>
-      <c r="G1" s="82" t="s">
+      <c r="C1" s="178"/>
+      <c r="D1" s="178"/>
+      <c r="E1" s="178"/>
+      <c r="F1" s="178"/>
+      <c r="G1" s="179" t="s">
         <v>44</v>
       </c>
-      <c r="H1" s="81"/>
-      <c r="I1" s="81"/>
-      <c r="J1" s="81"/>
-      <c r="K1" s="81"/>
+      <c r="H1" s="178"/>
+      <c r="I1" s="178"/>
+      <c r="J1" s="178"/>
+      <c r="K1" s="178"/>
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.55000000000000004">
       <c r="A2" s="12" t="s">
@@ -33077,20 +33302,20 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:11" x14ac:dyDescent="0.55000000000000004">
-      <c r="B1" s="81" t="s">
+      <c r="B1" s="178" t="s">
         <v>45</v>
       </c>
-      <c r="C1" s="81"/>
-      <c r="D1" s="81"/>
-      <c r="E1" s="81"/>
-      <c r="F1" s="81"/>
-      <c r="G1" s="82" t="s">
+      <c r="C1" s="178"/>
+      <c r="D1" s="178"/>
+      <c r="E1" s="178"/>
+      <c r="F1" s="178"/>
+      <c r="G1" s="179" t="s">
         <v>48</v>
       </c>
-      <c r="H1" s="81"/>
-      <c r="I1" s="81"/>
-      <c r="J1" s="81"/>
-      <c r="K1" s="81"/>
+      <c r="H1" s="178"/>
+      <c r="I1" s="178"/>
+      <c r="J1" s="178"/>
+      <c r="K1" s="178"/>
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.55000000000000004">
       <c r="A2" s="12" t="s">
@@ -34977,20 +35202,20 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:11" x14ac:dyDescent="0.55000000000000004">
-      <c r="B1" s="81" t="s">
+      <c r="B1" s="178" t="s">
         <v>46</v>
       </c>
-      <c r="C1" s="81"/>
-      <c r="D1" s="81"/>
-      <c r="E1" s="81"/>
-      <c r="F1" s="81"/>
-      <c r="G1" s="82" t="s">
+      <c r="C1" s="178"/>
+      <c r="D1" s="178"/>
+      <c r="E1" s="178"/>
+      <c r="F1" s="178"/>
+      <c r="G1" s="179" t="s">
         <v>50</v>
       </c>
-      <c r="H1" s="81"/>
-      <c r="I1" s="81"/>
-      <c r="J1" s="81"/>
-      <c r="K1" s="81"/>
+      <c r="H1" s="178"/>
+      <c r="I1" s="178"/>
+      <c r="J1" s="178"/>
+      <c r="K1" s="178"/>
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.55000000000000004">
       <c r="A2" s="12" t="s">
@@ -36877,20 +37102,20 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:11" x14ac:dyDescent="0.55000000000000004">
-      <c r="B1" s="81" t="s">
+      <c r="B1" s="178" t="s">
         <v>47</v>
       </c>
-      <c r="C1" s="81"/>
-      <c r="D1" s="81"/>
-      <c r="E1" s="81"/>
-      <c r="F1" s="81"/>
-      <c r="G1" s="82" t="s">
+      <c r="C1" s="178"/>
+      <c r="D1" s="178"/>
+      <c r="E1" s="178"/>
+      <c r="F1" s="178"/>
+      <c r="G1" s="179" t="s">
         <v>49</v>
       </c>
-      <c r="H1" s="81"/>
-      <c r="I1" s="81"/>
-      <c r="J1" s="81"/>
-      <c r="K1" s="81"/>
+      <c r="H1" s="178"/>
+      <c r="I1" s="178"/>
+      <c r="J1" s="178"/>
+      <c r="K1" s="178"/>
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.55000000000000004">
       <c r="A2" s="12" t="s">
@@ -38777,36 +39002,36 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:27" x14ac:dyDescent="0.55000000000000004">
-      <c r="B1" s="83" t="s">
-        <v>0</v>
-      </c>
-      <c r="C1" s="83"/>
-      <c r="D1" s="83"/>
-      <c r="E1" s="83"/>
-      <c r="F1" s="83"/>
-      <c r="G1" s="83"/>
-      <c r="H1" s="83"/>
-      <c r="I1" s="83"/>
-      <c r="J1" s="83"/>
-      <c r="K1" s="83"/>
-      <c r="L1" s="83"/>
-      <c r="M1" s="83"/>
-      <c r="N1" s="84"/>
-      <c r="O1" s="83" t="s">
+      <c r="B1" s="180" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="180"/>
+      <c r="D1" s="180"/>
+      <c r="E1" s="180"/>
+      <c r="F1" s="180"/>
+      <c r="G1" s="180"/>
+      <c r="H1" s="180"/>
+      <c r="I1" s="180"/>
+      <c r="J1" s="180"/>
+      <c r="K1" s="180"/>
+      <c r="L1" s="180"/>
+      <c r="M1" s="180"/>
+      <c r="N1" s="181"/>
+      <c r="O1" s="180" t="s">
         <v>6</v>
       </c>
-      <c r="P1" s="83"/>
-      <c r="Q1" s="83"/>
-      <c r="R1" s="83"/>
-      <c r="S1" s="83"/>
-      <c r="T1" s="83"/>
-      <c r="U1" s="83"/>
-      <c r="V1" s="83"/>
-      <c r="W1" s="83"/>
-      <c r="X1" s="83"/>
-      <c r="Y1" s="83"/>
-      <c r="Z1" s="83"/>
-      <c r="AA1" s="83"/>
+      <c r="P1" s="180"/>
+      <c r="Q1" s="180"/>
+      <c r="R1" s="180"/>
+      <c r="S1" s="180"/>
+      <c r="T1" s="180"/>
+      <c r="U1" s="180"/>
+      <c r="V1" s="180"/>
+      <c r="W1" s="180"/>
+      <c r="X1" s="180"/>
+      <c r="Y1" s="180"/>
+      <c r="Z1" s="180"/>
+      <c r="AA1" s="180"/>
     </row>
     <row r="2" spans="1:27" x14ac:dyDescent="0.55000000000000004">
       <c r="A2" s="12" t="s">
@@ -43325,20 +43550,20 @@
     <row r="1" spans="1:12" x14ac:dyDescent="0.55000000000000004">
       <c r="A1" s="10"/>
       <c r="B1" s="53"/>
-      <c r="C1" s="73" t="s">
-        <v>0</v>
-      </c>
-      <c r="D1" s="74"/>
-      <c r="E1" s="74"/>
-      <c r="F1" s="74"/>
-      <c r="G1" s="75"/>
-      <c r="H1" s="76" t="s">
+      <c r="C1" s="170" t="s">
+        <v>0</v>
+      </c>
+      <c r="D1" s="171"/>
+      <c r="E1" s="171"/>
+      <c r="F1" s="171"/>
+      <c r="G1" s="172"/>
+      <c r="H1" s="173" t="s">
         <v>6</v>
       </c>
-      <c r="I1" s="76"/>
-      <c r="J1" s="76"/>
-      <c r="K1" s="76"/>
-      <c r="L1" s="77"/>
+      <c r="I1" s="173"/>
+      <c r="J1" s="173"/>
+      <c r="K1" s="173"/>
+      <c r="L1" s="174"/>
     </row>
     <row r="2" spans="1:12" x14ac:dyDescent="0.55000000000000004">
       <c r="A2" s="8"/>
@@ -46606,14 +46831,14 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.55000000000000004">
-      <c r="B1" s="83" t="s">
+      <c r="B1" s="180" t="s">
         <v>69</v>
       </c>
-      <c r="C1" s="83"/>
-      <c r="D1" s="83" t="s">
+      <c r="C1" s="180"/>
+      <c r="D1" s="180" t="s">
         <v>70</v>
       </c>
-      <c r="E1" s="83"/>
+      <c r="E1" s="180"/>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A2" s="12" t="s">
@@ -47354,14 +47579,14 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.55000000000000004">
-      <c r="B1" s="83" t="s">
+      <c r="B1" s="180" t="s">
         <v>69</v>
       </c>
-      <c r="C1" s="83"/>
-      <c r="D1" s="83" t="s">
+      <c r="C1" s="180"/>
+      <c r="D1" s="180" t="s">
         <v>70</v>
       </c>
-      <c r="E1" s="83"/>
+      <c r="E1" s="180"/>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A2" s="12" t="s">
@@ -48395,10 +48620,10 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.55000000000000004">
-      <c r="D1" s="83" t="s">
+      <c r="D1" s="180" t="s">
         <v>72</v>
       </c>
-      <c r="E1" s="83"/>
+      <c r="E1" s="180"/>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A2" s="12" t="s">
@@ -49319,38 +49544,38 @@
   <sheetData>
     <row r="1" spans="1:29" x14ac:dyDescent="0.55000000000000004">
       <c r="A1" s="10"/>
-      <c r="B1" s="76" t="s">
-        <v>0</v>
-      </c>
-      <c r="C1" s="76"/>
-      <c r="D1" s="76"/>
-      <c r="E1" s="76"/>
-      <c r="F1" s="76"/>
-      <c r="G1" s="76"/>
-      <c r="H1" s="76"/>
-      <c r="I1" s="76"/>
-      <c r="J1" s="76"/>
-      <c r="K1" s="76"/>
-      <c r="L1" s="76"/>
-      <c r="M1" s="76"/>
-      <c r="N1" s="76"/>
-      <c r="O1" s="77"/>
-      <c r="P1" s="76" t="s">
+      <c r="B1" s="173" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="173"/>
+      <c r="D1" s="173"/>
+      <c r="E1" s="173"/>
+      <c r="F1" s="173"/>
+      <c r="G1" s="173"/>
+      <c r="H1" s="173"/>
+      <c r="I1" s="173"/>
+      <c r="J1" s="173"/>
+      <c r="K1" s="173"/>
+      <c r="L1" s="173"/>
+      <c r="M1" s="173"/>
+      <c r="N1" s="173"/>
+      <c r="O1" s="174"/>
+      <c r="P1" s="173" t="s">
         <v>6</v>
       </c>
-      <c r="Q1" s="76"/>
-      <c r="R1" s="76"/>
-      <c r="S1" s="76"/>
-      <c r="T1" s="76"/>
-      <c r="U1" s="76"/>
-      <c r="V1" s="76"/>
-      <c r="W1" s="76"/>
-      <c r="X1" s="76"/>
-      <c r="Y1" s="76"/>
-      <c r="Z1" s="76"/>
-      <c r="AA1" s="76"/>
-      <c r="AB1" s="76"/>
-      <c r="AC1" s="77"/>
+      <c r="Q1" s="173"/>
+      <c r="R1" s="173"/>
+      <c r="S1" s="173"/>
+      <c r="T1" s="173"/>
+      <c r="U1" s="173"/>
+      <c r="V1" s="173"/>
+      <c r="W1" s="173"/>
+      <c r="X1" s="173"/>
+      <c r="Y1" s="173"/>
+      <c r="Z1" s="173"/>
+      <c r="AA1" s="173"/>
+      <c r="AB1" s="173"/>
+      <c r="AC1" s="174"/>
     </row>
     <row r="2" spans="1:29" x14ac:dyDescent="0.55000000000000004">
       <c r="A2" s="54" t="s">
@@ -50055,36 +50280,36 @@
   <sheetData>
     <row r="1" spans="1:27" x14ac:dyDescent="0.55000000000000004">
       <c r="A1" s="57"/>
-      <c r="B1" s="76" t="s">
-        <v>0</v>
-      </c>
-      <c r="C1" s="76"/>
-      <c r="D1" s="76"/>
-      <c r="E1" s="76"/>
-      <c r="F1" s="76"/>
-      <c r="G1" s="76"/>
-      <c r="H1" s="76"/>
-      <c r="I1" s="76"/>
-      <c r="J1" s="76"/>
-      <c r="K1" s="76"/>
-      <c r="L1" s="76"/>
-      <c r="M1" s="76"/>
-      <c r="N1" s="77"/>
-      <c r="O1" s="76" t="s">
+      <c r="B1" s="173" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="173"/>
+      <c r="D1" s="173"/>
+      <c r="E1" s="173"/>
+      <c r="F1" s="173"/>
+      <c r="G1" s="173"/>
+      <c r="H1" s="173"/>
+      <c r="I1" s="173"/>
+      <c r="J1" s="173"/>
+      <c r="K1" s="173"/>
+      <c r="L1" s="173"/>
+      <c r="M1" s="173"/>
+      <c r="N1" s="174"/>
+      <c r="O1" s="173" t="s">
         <v>6</v>
       </c>
-      <c r="P1" s="76"/>
-      <c r="Q1" s="76"/>
-      <c r="R1" s="76"/>
-      <c r="S1" s="76"/>
-      <c r="T1" s="76"/>
-      <c r="U1" s="76"/>
-      <c r="V1" s="76"/>
-      <c r="W1" s="76"/>
-      <c r="X1" s="76"/>
-      <c r="Y1" s="76"/>
-      <c r="Z1" s="76"/>
-      <c r="AA1" s="77"/>
+      <c r="P1" s="173"/>
+      <c r="Q1" s="173"/>
+      <c r="R1" s="173"/>
+      <c r="S1" s="173"/>
+      <c r="T1" s="173"/>
+      <c r="U1" s="173"/>
+      <c r="V1" s="173"/>
+      <c r="W1" s="173"/>
+      <c r="X1" s="173"/>
+      <c r="Y1" s="173"/>
+      <c r="Z1" s="173"/>
+      <c r="AA1" s="174"/>
     </row>
     <row r="2" spans="1:27" x14ac:dyDescent="0.55000000000000004">
       <c r="A2" s="56"/>
@@ -51000,71 +51225,71 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:52" ht="37.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="B1" s="79" t="s">
+      <c r="B1" s="176" t="s">
         <v>85</v>
       </c>
-      <c r="C1" s="79"/>
-      <c r="D1" s="79"/>
-      <c r="E1" s="79"/>
-      <c r="F1" s="79"/>
-      <c r="G1" s="79"/>
-      <c r="H1" s="79"/>
-      <c r="I1" s="79"/>
-      <c r="J1" s="79"/>
-      <c r="K1" s="79"/>
-      <c r="L1" s="79"/>
-      <c r="M1" s="79"/>
-      <c r="N1" s="79"/>
-      <c r="O1" s="79" t="s">
+      <c r="C1" s="176"/>
+      <c r="D1" s="176"/>
+      <c r="E1" s="176"/>
+      <c r="F1" s="176"/>
+      <c r="G1" s="176"/>
+      <c r="H1" s="176"/>
+      <c r="I1" s="176"/>
+      <c r="J1" s="176"/>
+      <c r="K1" s="176"/>
+      <c r="L1" s="176"/>
+      <c r="M1" s="176"/>
+      <c r="N1" s="176"/>
+      <c r="O1" s="176" t="s">
         <v>86</v>
       </c>
-      <c r="P1" s="79"/>
-      <c r="Q1" s="79"/>
-      <c r="R1" s="79"/>
-      <c r="S1" s="79"/>
-      <c r="T1" s="79"/>
-      <c r="U1" s="79"/>
-      <c r="V1" s="79"/>
-      <c r="W1" s="79"/>
-      <c r="X1" s="79"/>
-      <c r="Y1" s="79"/>
-      <c r="Z1" s="79"/>
-      <c r="AA1" s="79"/>
-      <c r="AB1" s="78" t="s">
+      <c r="P1" s="176"/>
+      <c r="Q1" s="176"/>
+      <c r="R1" s="176"/>
+      <c r="S1" s="176"/>
+      <c r="T1" s="176"/>
+      <c r="U1" s="176"/>
+      <c r="V1" s="176"/>
+      <c r="W1" s="176"/>
+      <c r="X1" s="176"/>
+      <c r="Y1" s="176"/>
+      <c r="Z1" s="176"/>
+      <c r="AA1" s="176"/>
+      <c r="AB1" s="175" t="s">
         <v>87</v>
       </c>
-      <c r="AC1" s="78"/>
-      <c r="AD1" s="78"/>
-      <c r="AE1" s="78"/>
-      <c r="AF1" s="78"/>
-      <c r="AG1" s="78" t="s">
+      <c r="AC1" s="175"/>
+      <c r="AD1" s="175"/>
+      <c r="AE1" s="175"/>
+      <c r="AF1" s="175"/>
+      <c r="AG1" s="175" t="s">
         <v>88</v>
       </c>
-      <c r="AH1" s="78"/>
-      <c r="AI1" s="78"/>
-      <c r="AJ1" s="78"/>
-      <c r="AK1" s="78"/>
-      <c r="AL1" s="78" t="s">
+      <c r="AH1" s="175"/>
+      <c r="AI1" s="175"/>
+      <c r="AJ1" s="175"/>
+      <c r="AK1" s="175"/>
+      <c r="AL1" s="175" t="s">
         <v>89</v>
       </c>
-      <c r="AM1" s="78"/>
-      <c r="AN1" s="78"/>
-      <c r="AO1" s="78"/>
-      <c r="AP1" s="78"/>
-      <c r="AQ1" s="78" t="s">
+      <c r="AM1" s="175"/>
+      <c r="AN1" s="175"/>
+      <c r="AO1" s="175"/>
+      <c r="AP1" s="175"/>
+      <c r="AQ1" s="175" t="s">
         <v>90</v>
       </c>
-      <c r="AR1" s="78"/>
-      <c r="AS1" s="78"/>
-      <c r="AT1" s="78"/>
-      <c r="AU1" s="78"/>
-      <c r="AV1" s="78" t="s">
+      <c r="AR1" s="175"/>
+      <c r="AS1" s="175"/>
+      <c r="AT1" s="175"/>
+      <c r="AU1" s="175"/>
+      <c r="AV1" s="175" t="s">
         <v>91</v>
       </c>
-      <c r="AW1" s="78"/>
-      <c r="AX1" s="78"/>
-      <c r="AY1" s="78"/>
-      <c r="AZ1" s="78"/>
+      <c r="AW1" s="175"/>
+      <c r="AX1" s="175"/>
+      <c r="AY1" s="175"/>
+      <c r="AZ1" s="175"/>
     </row>
     <row r="2" spans="1:52" x14ac:dyDescent="0.55000000000000004">
       <c r="B2" t="s">
@@ -53079,71 +53304,71 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:52" ht="37.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="B1" s="79" t="s">
+      <c r="B1" s="176" t="s">
         <v>85</v>
       </c>
-      <c r="C1" s="79"/>
-      <c r="D1" s="79"/>
-      <c r="E1" s="79"/>
-      <c r="F1" s="79"/>
-      <c r="G1" s="79"/>
-      <c r="H1" s="79"/>
-      <c r="I1" s="79"/>
-      <c r="J1" s="79"/>
-      <c r="K1" s="79"/>
-      <c r="L1" s="79"/>
-      <c r="M1" s="79"/>
-      <c r="N1" s="79"/>
-      <c r="O1" s="79" t="s">
+      <c r="C1" s="176"/>
+      <c r="D1" s="176"/>
+      <c r="E1" s="176"/>
+      <c r="F1" s="176"/>
+      <c r="G1" s="176"/>
+      <c r="H1" s="176"/>
+      <c r="I1" s="176"/>
+      <c r="J1" s="176"/>
+      <c r="K1" s="176"/>
+      <c r="L1" s="176"/>
+      <c r="M1" s="176"/>
+      <c r="N1" s="176"/>
+      <c r="O1" s="176" t="s">
         <v>86</v>
       </c>
-      <c r="P1" s="79"/>
-      <c r="Q1" s="79"/>
-      <c r="R1" s="79"/>
-      <c r="S1" s="79"/>
-      <c r="T1" s="79"/>
-      <c r="U1" s="79"/>
-      <c r="V1" s="79"/>
-      <c r="W1" s="79"/>
-      <c r="X1" s="79"/>
-      <c r="Y1" s="79"/>
-      <c r="Z1" s="79"/>
-      <c r="AA1" s="79"/>
-      <c r="AB1" s="78" t="s">
+      <c r="P1" s="176"/>
+      <c r="Q1" s="176"/>
+      <c r="R1" s="176"/>
+      <c r="S1" s="176"/>
+      <c r="T1" s="176"/>
+      <c r="U1" s="176"/>
+      <c r="V1" s="176"/>
+      <c r="W1" s="176"/>
+      <c r="X1" s="176"/>
+      <c r="Y1" s="176"/>
+      <c r="Z1" s="176"/>
+      <c r="AA1" s="176"/>
+      <c r="AB1" s="175" t="s">
         <v>87</v>
       </c>
-      <c r="AC1" s="78"/>
-      <c r="AD1" s="78"/>
-      <c r="AE1" s="78"/>
-      <c r="AF1" s="78"/>
-      <c r="AG1" s="78" t="s">
+      <c r="AC1" s="175"/>
+      <c r="AD1" s="175"/>
+      <c r="AE1" s="175"/>
+      <c r="AF1" s="175"/>
+      <c r="AG1" s="175" t="s">
         <v>88</v>
       </c>
-      <c r="AH1" s="78"/>
-      <c r="AI1" s="78"/>
-      <c r="AJ1" s="78"/>
-      <c r="AK1" s="78"/>
-      <c r="AL1" s="78" t="s">
+      <c r="AH1" s="175"/>
+      <c r="AI1" s="175"/>
+      <c r="AJ1" s="175"/>
+      <c r="AK1" s="175"/>
+      <c r="AL1" s="175" t="s">
         <v>89</v>
       </c>
-      <c r="AM1" s="78"/>
-      <c r="AN1" s="78"/>
-      <c r="AO1" s="78"/>
-      <c r="AP1" s="78"/>
-      <c r="AQ1" s="78" t="s">
+      <c r="AM1" s="175"/>
+      <c r="AN1" s="175"/>
+      <c r="AO1" s="175"/>
+      <c r="AP1" s="175"/>
+      <c r="AQ1" s="175" t="s">
         <v>90</v>
       </c>
-      <c r="AR1" s="78"/>
-      <c r="AS1" s="78"/>
-      <c r="AT1" s="78"/>
-      <c r="AU1" s="78"/>
-      <c r="AV1" s="78" t="s">
+      <c r="AR1" s="175"/>
+      <c r="AS1" s="175"/>
+      <c r="AT1" s="175"/>
+      <c r="AU1" s="175"/>
+      <c r="AV1" s="175" t="s">
         <v>91</v>
       </c>
-      <c r="AW1" s="78"/>
-      <c r="AX1" s="78"/>
-      <c r="AY1" s="78"/>
-      <c r="AZ1" s="78"/>
+      <c r="AW1" s="175"/>
+      <c r="AX1" s="175"/>
+      <c r="AY1" s="175"/>
+      <c r="AZ1" s="175"/>
     </row>
     <row r="2" spans="1:52" x14ac:dyDescent="0.55000000000000004">
       <c r="B2" t="s">
@@ -55164,38 +55389,38 @@
     <row r="1" spans="1:30" x14ac:dyDescent="0.55000000000000004">
       <c r="A1" s="10"/>
       <c r="B1" s="4"/>
-      <c r="C1" s="80" t="s">
-        <v>0</v>
-      </c>
-      <c r="D1" s="76"/>
-      <c r="E1" s="76"/>
-      <c r="F1" s="76"/>
-      <c r="G1" s="76"/>
-      <c r="H1" s="76"/>
-      <c r="I1" s="76"/>
-      <c r="J1" s="76"/>
-      <c r="K1" s="76"/>
-      <c r="L1" s="76"/>
-      <c r="M1" s="76"/>
-      <c r="N1" s="76"/>
-      <c r="O1" s="76"/>
-      <c r="P1" s="77"/>
-      <c r="Q1" s="80" t="s">
+      <c r="C1" s="177" t="s">
+        <v>0</v>
+      </c>
+      <c r="D1" s="173"/>
+      <c r="E1" s="173"/>
+      <c r="F1" s="173"/>
+      <c r="G1" s="173"/>
+      <c r="H1" s="173"/>
+      <c r="I1" s="173"/>
+      <c r="J1" s="173"/>
+      <c r="K1" s="173"/>
+      <c r="L1" s="173"/>
+      <c r="M1" s="173"/>
+      <c r="N1" s="173"/>
+      <c r="O1" s="173"/>
+      <c r="P1" s="174"/>
+      <c r="Q1" s="177" t="s">
         <v>6</v>
       </c>
-      <c r="R1" s="76"/>
-      <c r="S1" s="76"/>
-      <c r="T1" s="76"/>
-      <c r="U1" s="76"/>
-      <c r="V1" s="76"/>
-      <c r="W1" s="76"/>
-      <c r="X1" s="76"/>
-      <c r="Y1" s="76"/>
-      <c r="Z1" s="76"/>
-      <c r="AA1" s="76"/>
-      <c r="AB1" s="76"/>
-      <c r="AC1" s="76"/>
-      <c r="AD1" s="77"/>
+      <c r="R1" s="173"/>
+      <c r="S1" s="173"/>
+      <c r="T1" s="173"/>
+      <c r="U1" s="173"/>
+      <c r="V1" s="173"/>
+      <c r="W1" s="173"/>
+      <c r="X1" s="173"/>
+      <c r="Y1" s="173"/>
+      <c r="Z1" s="173"/>
+      <c r="AA1" s="173"/>
+      <c r="AB1" s="173"/>
+      <c r="AC1" s="173"/>
+      <c r="AD1" s="174"/>
     </row>
     <row r="2" spans="1:30" x14ac:dyDescent="0.55000000000000004">
       <c r="A2" s="8"/>

--- a/xlsx/model2.xlsx
+++ b/xlsx/model2.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\R\TA_model\xlsx\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\R\TA\xlsx\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{94E678D5-E5B8-4112-9316-C54509B65E5B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E411AB7B-AA04-47E1-959C-09BA4A04F75C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-21540" yWindow="-21720" windowWidth="38640" windowHeight="21120" tabRatio="878" xr2:uid="{BCC5EA96-140E-4D1F-AEAE-F8AA11DA45EB}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21120" tabRatio="878" xr2:uid="{BCC5EA96-140E-4D1F-AEAE-F8AA11DA45EB}"/>
   </bookViews>
   <sheets>
     <sheet name="シナリオ" sheetId="1" r:id="rId1"/>
@@ -1410,67 +1410,13 @@
     <xf numFmtId="1" fontId="0" fillId="3" borderId="6" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="179" fontId="0" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="179" fontId="0" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="179" fontId="0" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="180" fontId="0" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
@@ -1497,13 +1443,13 @@
     <xf numFmtId="180" fontId="0" fillId="2" borderId="9" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="7" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1566,14 +1512,68 @@
     <xf numFmtId="0" fontId="4" fillId="6" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="1" fontId="0" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="1" fontId="0" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="1" fontId="0" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="179" fontId="0" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="179" fontId="0" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="179" fontId="0" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1620,20 +1620,6 @@
     <dxf>
       <fill>
         <patternFill>
-          <bgColor theme="0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="9" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
           <bgColor theme="8" tint="0.39994506668294322"/>
         </patternFill>
       </fill>
@@ -1641,14 +1627,14 @@
     <dxf>
       <fill>
         <patternFill>
-          <bgColor theme="0"/>
+          <bgColor theme="8" tint="0.79998168889431442"/>
         </patternFill>
       </fill>
     </dxf>
     <dxf>
       <fill>
         <patternFill>
-          <bgColor theme="8" tint="0.79998168889431442"/>
+          <bgColor theme="0"/>
         </patternFill>
       </fill>
     </dxf>
@@ -1677,13 +1663,6 @@
       <fill>
         <patternFill>
           <bgColor theme="5" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0"/>
         </patternFill>
       </fill>
     </dxf>
@@ -1747,6 +1726,27 @@
       <fill>
         <patternFill>
           <bgColor theme="9" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0"/>
         </patternFill>
       </fill>
     </dxf>
@@ -4288,7 +4288,7 @@
             </a:r>
             <a:r>
               <a:rPr lang="en-US" altLang="ja-JP" b="1" baseline="30000"/>
-              <a:t>6</a:t>
+              <a:t>6-9</a:t>
             </a:r>
             <a:endParaRPr lang="ja-JP" altLang="en-US" b="1" baseline="30000"/>
           </a:p>
@@ -24864,10 +24864,10 @@
   </sheetPr>
   <dimension ref="A1:AE80"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="67" zoomScaleNormal="70" workbookViewId="0">
-      <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
+    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <pane ySplit="2" topLeftCell="A17" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="B1" sqref="B1"/>
-      <selection pane="bottomLeft" activeCell="H70" sqref="H70"/>
+      <selection pane="bottomLeft" activeCell="AR50" sqref="AR50"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.55000000000000004"/>
@@ -24889,110 +24889,110 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:31" ht="18" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A1" s="151"/>
-      <c r="B1" s="152"/>
-      <c r="C1" s="153"/>
+      <c r="A1" s="133"/>
+      <c r="B1" s="134"/>
+      <c r="C1" s="135"/>
       <c r="D1" s="63" t="s">
         <v>111</v>
       </c>
       <c r="E1" s="64" t="s">
         <v>97</v>
       </c>
-      <c r="F1" s="147" t="s">
-        <v>0</v>
-      </c>
-      <c r="G1" s="148"/>
-      <c r="H1" s="147" t="s">
+      <c r="F1" s="129" t="s">
+        <v>0</v>
+      </c>
+      <c r="G1" s="130"/>
+      <c r="H1" s="129" t="s">
         <v>99</v>
       </c>
-      <c r="I1" s="148"/>
+      <c r="I1" s="130"/>
     </row>
     <row r="2" spans="1:31" ht="17.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A2" s="154"/>
-      <c r="B2" s="155"/>
-      <c r="C2" s="156"/>
+      <c r="A2" s="136"/>
+      <c r="B2" s="137"/>
+      <c r="C2" s="138"/>
       <c r="D2" s="65" t="s">
         <v>100</v>
       </c>
       <c r="E2" s="66" t="s">
         <v>101</v>
       </c>
-      <c r="F2" s="149" t="s">
+      <c r="F2" s="131" t="s">
         <v>101</v>
       </c>
-      <c r="G2" s="150"/>
-      <c r="H2" s="149" t="s">
+      <c r="G2" s="132"/>
+      <c r="H2" s="131" t="s">
         <v>101</v>
       </c>
-      <c r="I2" s="150"/>
+      <c r="I2" s="132"/>
     </row>
     <row r="3" spans="1:31" x14ac:dyDescent="0.55000000000000004">
-      <c r="A3" s="162" t="s">
+      <c r="A3" s="144" t="s">
         <v>110</v>
       </c>
-      <c r="B3" s="164" t="s">
+      <c r="B3" s="146" t="s">
         <v>104</v>
       </c>
-      <c r="C3" s="165"/>
+      <c r="C3" s="147"/>
       <c r="D3" s="67">
         <v>867</v>
       </c>
       <c r="E3" s="68">
         <v>1067</v>
       </c>
-      <c r="F3" s="157">
+      <c r="F3" s="139">
         <f>1067</f>
         <v>1067</v>
       </c>
-      <c r="G3" s="157"/>
-      <c r="H3" s="160">
+      <c r="G3" s="139"/>
+      <c r="H3" s="142">
         <v>1067</v>
       </c>
-      <c r="I3" s="157"/>
+      <c r="I3" s="139"/>
       <c r="J3" s="12"/>
     </row>
     <row r="4" spans="1:31" x14ac:dyDescent="0.55000000000000004">
-      <c r="A4" s="163"/>
-      <c r="B4" s="163" t="s">
+      <c r="A4" s="145"/>
+      <c r="B4" s="145" t="s">
         <v>103</v>
       </c>
-      <c r="C4" s="166"/>
+      <c r="C4" s="148"/>
       <c r="D4" s="69">
         <v>126</v>
       </c>
       <c r="E4" s="70">
         <v>110</v>
       </c>
-      <c r="F4" s="158">
+      <c r="F4" s="140">
         <v>110</v>
       </c>
-      <c r="G4" s="159"/>
-      <c r="H4" s="161">
+      <c r="G4" s="141"/>
+      <c r="H4" s="143">
         <v>110</v>
       </c>
-      <c r="I4" s="159"/>
+      <c r="I4" s="141"/>
       <c r="J4" s="12"/>
-      <c r="Z4" s="117" t="s">
+      <c r="Z4" s="162" t="s">
         <v>107</v>
       </c>
-      <c r="AA4" s="119">
+      <c r="AA4" s="164">
         <v>2010</v>
       </c>
-      <c r="AB4" s="121">
+      <c r="AB4" s="166">
         <v>2020</v>
       </c>
-      <c r="AC4" s="123" t="s">
+      <c r="AC4" s="168" t="s">
         <v>106</v>
       </c>
-      <c r="AD4" s="117" t="s">
+      <c r="AD4" s="162" t="s">
         <v>92</v>
       </c>
-      <c r="AE4" s="115" t="s">
+      <c r="AE4" s="160" t="s">
         <v>93</v>
       </c>
     </row>
     <row r="5" spans="1:31" ht="18" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A5" s="125" t="s">
+      <c r="A5" s="149" t="s">
         <v>1</v>
       </c>
       <c r="B5" s="71" t="s">
@@ -25005,23 +25005,23 @@
       <c r="E5" s="74">
         <v>1</v>
       </c>
-      <c r="F5" s="136">
+      <c r="F5" s="118">
         <v>1</v>
       </c>
-      <c r="G5" s="137"/>
-      <c r="H5" s="136">
+      <c r="G5" s="119"/>
+      <c r="H5" s="118">
         <v>1</v>
       </c>
-      <c r="I5" s="137"/>
-      <c r="Z5" s="118"/>
-      <c r="AA5" s="120"/>
-      <c r="AB5" s="122"/>
-      <c r="AC5" s="124"/>
-      <c r="AD5" s="118"/>
-      <c r="AE5" s="116"/>
+      <c r="I5" s="119"/>
+      <c r="Z5" s="163"/>
+      <c r="AA5" s="165"/>
+      <c r="AB5" s="167"/>
+      <c r="AC5" s="169"/>
+      <c r="AD5" s="163"/>
+      <c r="AE5" s="161"/>
     </row>
     <row r="6" spans="1:31" x14ac:dyDescent="0.55000000000000004">
-      <c r="A6" s="126"/>
+      <c r="A6" s="150"/>
       <c r="B6" s="75" t="s">
         <v>3</v>
       </c>
@@ -25032,14 +25032,14 @@
       <c r="E6" s="78">
         <v>1</v>
       </c>
-      <c r="F6" s="138">
+      <c r="F6" s="120">
         <v>1</v>
       </c>
-      <c r="G6" s="139"/>
-      <c r="H6" s="138">
+      <c r="G6" s="121"/>
+      <c r="H6" s="120">
         <v>1</v>
       </c>
-      <c r="I6" s="139"/>
+      <c r="I6" s="121"/>
       <c r="Z6" s="46" t="s">
         <v>2</v>
       </c>
@@ -25064,7 +25064,7 @@
       </c>
     </row>
     <row r="7" spans="1:31" x14ac:dyDescent="0.55000000000000004">
-      <c r="A7" s="126"/>
+      <c r="A7" s="150"/>
       <c r="B7" s="79" t="s">
         <v>4</v>
       </c>
@@ -25075,14 +25075,14 @@
       <c r="E7" s="74">
         <v>1</v>
       </c>
-      <c r="F7" s="140">
+      <c r="F7" s="122">
         <v>1</v>
       </c>
-      <c r="G7" s="141"/>
-      <c r="H7" s="140">
+      <c r="G7" s="123"/>
+      <c r="H7" s="122">
         <v>1</v>
       </c>
-      <c r="I7" s="141"/>
+      <c r="I7" s="123"/>
       <c r="Z7" s="51" t="s">
         <v>3</v>
       </c>
@@ -25107,7 +25107,7 @@
       </c>
     </row>
     <row r="8" spans="1:31" x14ac:dyDescent="0.55000000000000004">
-      <c r="A8" s="127"/>
+      <c r="A8" s="151"/>
       <c r="B8" s="80" t="s">
         <v>5</v>
       </c>
@@ -25118,14 +25118,14 @@
       <c r="E8" s="83">
         <v>1</v>
       </c>
-      <c r="F8" s="142">
+      <c r="F8" s="124">
         <v>1</v>
       </c>
-      <c r="G8" s="143"/>
-      <c r="H8" s="142">
+      <c r="G8" s="125"/>
+      <c r="H8" s="124">
         <v>1</v>
       </c>
-      <c r="I8" s="143"/>
+      <c r="I8" s="125"/>
       <c r="Z8" s="47" t="s">
         <v>4</v>
       </c>
@@ -25150,10 +25150,10 @@
       </c>
     </row>
     <row r="9" spans="1:31" x14ac:dyDescent="0.55000000000000004">
-      <c r="A9" s="128" t="s">
+      <c r="A9" s="152" t="s">
         <v>25</v>
       </c>
-      <c r="B9" s="144" t="s">
+      <c r="B9" s="115" t="s">
         <v>2</v>
       </c>
       <c r="C9" s="84" t="s">
@@ -25168,14 +25168,14 @@
       <c r="F9" s="87">
         <v>24</v>
       </c>
-      <c r="G9" s="133">
+      <c r="G9" s="157">
         <f>SUM(F9:F13)</f>
         <v>100</v>
       </c>
       <c r="H9" s="88">
         <v>24</v>
       </c>
-      <c r="I9" s="167">
+      <c r="I9" s="126">
         <f>SUM(H9:H13)</f>
         <v>100</v>
       </c>
@@ -25204,8 +25204,8 @@
       </c>
     </row>
     <row r="10" spans="1:31" x14ac:dyDescent="0.55000000000000004">
-      <c r="A10" s="129"/>
-      <c r="B10" s="145"/>
+      <c r="A10" s="153"/>
+      <c r="B10" s="116"/>
       <c r="C10" s="89" t="s">
         <v>8</v>
       </c>
@@ -25218,11 +25218,11 @@
       <c r="F10" s="92">
         <v>22</v>
       </c>
-      <c r="G10" s="133"/>
+      <c r="G10" s="157"/>
       <c r="H10" s="93">
         <v>22</v>
       </c>
-      <c r="I10" s="168"/>
+      <c r="I10" s="127"/>
       <c r="J10" s="2"/>
       <c r="Z10" s="47" t="s">
         <v>30</v>
@@ -25248,8 +25248,8 @@
       </c>
     </row>
     <row r="11" spans="1:31" ht="20" x14ac:dyDescent="0.55000000000000004">
-      <c r="A11" s="129"/>
-      <c r="B11" s="145"/>
+      <c r="A11" s="153"/>
+      <c r="B11" s="116"/>
       <c r="C11" s="94" t="s">
         <v>9</v>
       </c>
@@ -25262,11 +25262,11 @@
       <c r="F11" s="87">
         <v>14.000000000000002</v>
       </c>
-      <c r="G11" s="133"/>
+      <c r="G11" s="157"/>
       <c r="H11" s="88">
         <v>14.000000000000002</v>
       </c>
-      <c r="I11" s="168"/>
+      <c r="I11" s="127"/>
       <c r="J11" s="2"/>
       <c r="Z11" s="51" t="s">
         <v>112</v>
@@ -25292,8 +25292,8 @@
       </c>
     </row>
     <row r="12" spans="1:31" ht="20" x14ac:dyDescent="0.55000000000000004">
-      <c r="A12" s="129"/>
-      <c r="B12" s="145"/>
+      <c r="A12" s="153"/>
+      <c r="B12" s="116"/>
       <c r="C12" s="89" t="s">
         <v>10</v>
       </c>
@@ -25306,11 +25306,11 @@
       <c r="F12" s="92">
         <v>4</v>
       </c>
-      <c r="G12" s="133"/>
+      <c r="G12" s="157"/>
       <c r="H12" s="93">
         <v>4</v>
       </c>
-      <c r="I12" s="168"/>
+      <c r="I12" s="127"/>
       <c r="J12" s="2"/>
       <c r="Z12" s="47" t="s">
         <v>113</v>
@@ -25336,8 +25336,8 @@
       </c>
     </row>
     <row r="13" spans="1:31" ht="20" x14ac:dyDescent="0.55000000000000004">
-      <c r="A13" s="129"/>
-      <c r="B13" s="146"/>
+      <c r="A13" s="153"/>
+      <c r="B13" s="117"/>
       <c r="C13" s="97" t="s">
         <v>11</v>
       </c>
@@ -25350,11 +25350,11 @@
       <c r="F13" s="100">
         <v>36</v>
       </c>
-      <c r="G13" s="134"/>
+      <c r="G13" s="158"/>
       <c r="H13" s="101">
         <v>36</v>
       </c>
-      <c r="I13" s="169"/>
+      <c r="I13" s="128"/>
       <c r="J13" s="2"/>
       <c r="Z13" s="51" t="s">
         <v>114</v>
@@ -25380,8 +25380,8 @@
       </c>
     </row>
     <row r="14" spans="1:31" x14ac:dyDescent="0.55000000000000004">
-      <c r="A14" s="129"/>
-      <c r="B14" s="144" t="s">
+      <c r="A14" s="153"/>
+      <c r="B14" s="115" t="s">
         <v>3</v>
       </c>
       <c r="C14" s="102" t="s">
@@ -25396,14 +25396,14 @@
       <c r="F14" s="104">
         <v>0</v>
       </c>
-      <c r="G14" s="135">
+      <c r="G14" s="159">
         <f t="shared" ref="G14" si="0">SUM(F14:F18)</f>
         <v>100</v>
       </c>
       <c r="H14" s="105">
         <v>0</v>
       </c>
-      <c r="I14" s="167">
+      <c r="I14" s="126">
         <f>SUM(H14:H18)</f>
         <v>100</v>
       </c>
@@ -25432,8 +25432,8 @@
       </c>
     </row>
     <row r="15" spans="1:31" x14ac:dyDescent="0.55000000000000004">
-      <c r="A15" s="129"/>
-      <c r="B15" s="145"/>
+      <c r="A15" s="153"/>
+      <c r="B15" s="116"/>
       <c r="C15" s="94" t="s">
         <v>8</v>
       </c>
@@ -25446,16 +25446,16 @@
       <c r="F15" s="96">
         <v>97</v>
       </c>
-      <c r="G15" s="133"/>
+      <c r="G15" s="157"/>
       <c r="H15" s="88">
         <v>97</v>
       </c>
-      <c r="I15" s="168"/>
+      <c r="I15" s="127"/>
       <c r="J15" s="2"/>
     </row>
     <row r="16" spans="1:31" x14ac:dyDescent="0.55000000000000004">
-      <c r="A16" s="129"/>
-      <c r="B16" s="145"/>
+      <c r="A16" s="153"/>
+      <c r="B16" s="116"/>
       <c r="C16" s="89" t="s">
         <v>9</v>
       </c>
@@ -25468,16 +25468,16 @@
       <c r="F16" s="91">
         <v>0</v>
       </c>
-      <c r="G16" s="133"/>
+      <c r="G16" s="157"/>
       <c r="H16" s="93">
         <v>0</v>
       </c>
-      <c r="I16" s="168"/>
+      <c r="I16" s="127"/>
       <c r="J16" s="2"/>
     </row>
     <row r="17" spans="1:31" x14ac:dyDescent="0.55000000000000004">
-      <c r="A17" s="129"/>
-      <c r="B17" s="145"/>
+      <c r="A17" s="153"/>
+      <c r="B17" s="116"/>
       <c r="C17" s="94" t="s">
         <v>10</v>
       </c>
@@ -25490,16 +25490,16 @@
       <c r="F17" s="96">
         <v>1</v>
       </c>
-      <c r="G17" s="133"/>
+      <c r="G17" s="157"/>
       <c r="H17" s="88">
         <v>1</v>
       </c>
-      <c r="I17" s="168"/>
+      <c r="I17" s="127"/>
       <c r="J17" s="2"/>
     </row>
     <row r="18" spans="1:31" x14ac:dyDescent="0.55000000000000004">
-      <c r="A18" s="129"/>
-      <c r="B18" s="146"/>
+      <c r="A18" s="153"/>
+      <c r="B18" s="117"/>
       <c r="C18" s="106" t="s">
         <v>11</v>
       </c>
@@ -25512,17 +25512,17 @@
       <c r="F18" s="108">
         <v>2</v>
       </c>
-      <c r="G18" s="134"/>
+      <c r="G18" s="158"/>
       <c r="H18" s="109">
         <v>2</v>
       </c>
-      <c r="I18" s="169"/>
+      <c r="I18" s="128"/>
       <c r="J18" s="2"/>
       <c r="AE18" s="52"/>
     </row>
     <row r="19" spans="1:31" x14ac:dyDescent="0.55000000000000004">
-      <c r="A19" s="129"/>
-      <c r="B19" s="144" t="s">
+      <c r="A19" s="153"/>
+      <c r="B19" s="115" t="s">
         <v>4</v>
       </c>
       <c r="C19" s="84" t="s">
@@ -25537,22 +25537,22 @@
       <c r="F19" s="86">
         <v>0</v>
       </c>
-      <c r="G19" s="135">
+      <c r="G19" s="159">
         <f t="shared" ref="G19" si="1">SUM(F19:F23)</f>
         <v>100</v>
       </c>
       <c r="H19" s="110">
         <v>0</v>
       </c>
-      <c r="I19" s="167">
+      <c r="I19" s="126">
         <f>SUM(H19:H23)</f>
         <v>100</v>
       </c>
       <c r="J19" s="2"/>
     </row>
     <row r="20" spans="1:31" x14ac:dyDescent="0.55000000000000004">
-      <c r="A20" s="129"/>
-      <c r="B20" s="145"/>
+      <c r="A20" s="153"/>
+      <c r="B20" s="116"/>
       <c r="C20" s="89" t="s">
         <v>8</v>
       </c>
@@ -25565,16 +25565,16 @@
       <c r="F20" s="91">
         <v>24</v>
       </c>
-      <c r="G20" s="133"/>
+      <c r="G20" s="157"/>
       <c r="H20" s="93">
         <v>24</v>
       </c>
-      <c r="I20" s="168"/>
+      <c r="I20" s="127"/>
       <c r="J20" s="2"/>
     </row>
     <row r="21" spans="1:31" x14ac:dyDescent="0.55000000000000004">
-      <c r="A21" s="129"/>
-      <c r="B21" s="145"/>
+      <c r="A21" s="153"/>
+      <c r="B21" s="116"/>
       <c r="C21" s="94" t="s">
         <v>9</v>
       </c>
@@ -25587,16 +25587,16 @@
       <c r="F21" s="96">
         <v>16</v>
       </c>
-      <c r="G21" s="133"/>
+      <c r="G21" s="157"/>
       <c r="H21" s="88">
         <v>16</v>
       </c>
-      <c r="I21" s="168"/>
+      <c r="I21" s="127"/>
       <c r="J21" s="2"/>
     </row>
     <row r="22" spans="1:31" x14ac:dyDescent="0.55000000000000004">
-      <c r="A22" s="129"/>
-      <c r="B22" s="145"/>
+      <c r="A22" s="153"/>
+      <c r="B22" s="116"/>
       <c r="C22" s="89" t="s">
         <v>10</v>
       </c>
@@ -25609,16 +25609,16 @@
       <c r="F22" s="91">
         <v>3</v>
       </c>
-      <c r="G22" s="133"/>
+      <c r="G22" s="157"/>
       <c r="H22" s="93">
         <v>3</v>
       </c>
-      <c r="I22" s="168"/>
+      <c r="I22" s="127"/>
       <c r="J22" s="2"/>
     </row>
     <row r="23" spans="1:31" x14ac:dyDescent="0.55000000000000004">
-      <c r="A23" s="129"/>
-      <c r="B23" s="146"/>
+      <c r="A23" s="153"/>
+      <c r="B23" s="117"/>
       <c r="C23" s="97" t="s">
         <v>11</v>
       </c>
@@ -25631,16 +25631,16 @@
       <c r="F23" s="99">
         <v>56.999999999999993</v>
       </c>
-      <c r="G23" s="134"/>
+      <c r="G23" s="158"/>
       <c r="H23" s="101">
         <v>56.999999999999993</v>
       </c>
-      <c r="I23" s="169"/>
+      <c r="I23" s="128"/>
       <c r="J23" s="2"/>
     </row>
     <row r="24" spans="1:31" x14ac:dyDescent="0.55000000000000004">
-      <c r="A24" s="129"/>
-      <c r="B24" s="144" t="s">
+      <c r="A24" s="153"/>
+      <c r="B24" s="115" t="s">
         <v>5</v>
       </c>
       <c r="C24" s="102" t="s">
@@ -25655,22 +25655,22 @@
       <c r="F24" s="104">
         <v>0</v>
       </c>
-      <c r="G24" s="135">
+      <c r="G24" s="159">
         <f t="shared" ref="G24" si="2">SUM(F24:F28)</f>
         <v>100</v>
       </c>
       <c r="H24" s="105">
         <v>0</v>
       </c>
-      <c r="I24" s="167">
+      <c r="I24" s="126">
         <f>SUM(H24:H28)</f>
         <v>100</v>
       </c>
       <c r="J24" s="2"/>
     </row>
     <row r="25" spans="1:31" x14ac:dyDescent="0.55000000000000004">
-      <c r="A25" s="129"/>
-      <c r="B25" s="145"/>
+      <c r="A25" s="153"/>
+      <c r="B25" s="116"/>
       <c r="C25" s="94" t="s">
         <v>8</v>
       </c>
@@ -25683,16 +25683,16 @@
       <c r="F25" s="96">
         <v>27</v>
       </c>
-      <c r="G25" s="133"/>
+      <c r="G25" s="157"/>
       <c r="H25" s="88">
         <v>27</v>
       </c>
-      <c r="I25" s="168"/>
+      <c r="I25" s="127"/>
       <c r="J25" s="2"/>
     </row>
     <row r="26" spans="1:31" x14ac:dyDescent="0.55000000000000004">
-      <c r="A26" s="129"/>
-      <c r="B26" s="145"/>
+      <c r="A26" s="153"/>
+      <c r="B26" s="116"/>
       <c r="C26" s="89" t="s">
         <v>9</v>
       </c>
@@ -25705,16 +25705,16 @@
       <c r="F26" s="91">
         <v>21</v>
       </c>
-      <c r="G26" s="133"/>
+      <c r="G26" s="157"/>
       <c r="H26" s="93">
         <v>21</v>
       </c>
-      <c r="I26" s="168"/>
+      <c r="I26" s="127"/>
       <c r="J26" s="2"/>
     </row>
     <row r="27" spans="1:31" x14ac:dyDescent="0.55000000000000004">
-      <c r="A27" s="129"/>
-      <c r="B27" s="145"/>
+      <c r="A27" s="153"/>
+      <c r="B27" s="116"/>
       <c r="C27" s="94" t="s">
         <v>10</v>
       </c>
@@ -25727,16 +25727,16 @@
       <c r="F27" s="96">
         <v>0</v>
       </c>
-      <c r="G27" s="133"/>
+      <c r="G27" s="157"/>
       <c r="H27" s="88">
         <v>0</v>
       </c>
-      <c r="I27" s="168"/>
+      <c r="I27" s="127"/>
       <c r="J27" s="2"/>
     </row>
     <row r="28" spans="1:31" x14ac:dyDescent="0.55000000000000004">
-      <c r="A28" s="129"/>
-      <c r="B28" s="146"/>
+      <c r="A28" s="153"/>
+      <c r="B28" s="117"/>
       <c r="C28" s="106" t="s">
         <v>11</v>
       </c>
@@ -25749,18 +25749,18 @@
       <c r="F28" s="108">
         <v>52</v>
       </c>
-      <c r="G28" s="134"/>
+      <c r="G28" s="158"/>
       <c r="H28" s="109">
         <v>52</v>
       </c>
-      <c r="I28" s="169"/>
+      <c r="I28" s="128"/>
       <c r="J28" s="2"/>
     </row>
     <row r="29" spans="1:31" x14ac:dyDescent="0.55000000000000004">
-      <c r="A29" s="130" t="s">
+      <c r="A29" s="154" t="s">
         <v>26</v>
       </c>
-      <c r="B29" s="144" t="s">
+      <c r="B29" s="115" t="s">
         <v>30</v>
       </c>
       <c r="C29" s="84" t="s">
@@ -25775,22 +25775,22 @@
       <c r="F29" s="86">
         <v>31</v>
       </c>
-      <c r="G29" s="135">
+      <c r="G29" s="159">
         <f>SUM(F29:F41)</f>
         <v>100</v>
       </c>
       <c r="H29" s="110">
         <v>31</v>
       </c>
-      <c r="I29" s="167">
+      <c r="I29" s="126">
         <f>SUM(H29:H41)</f>
         <v>100</v>
       </c>
       <c r="J29" s="2"/>
     </row>
     <row r="30" spans="1:31" x14ac:dyDescent="0.55000000000000004">
-      <c r="A30" s="131"/>
-      <c r="B30" s="145"/>
+      <c r="A30" s="155"/>
+      <c r="B30" s="116"/>
       <c r="C30" s="111" t="s">
         <v>76</v>
       </c>
@@ -25803,16 +25803,16 @@
       <c r="F30" s="113">
         <v>0</v>
       </c>
-      <c r="G30" s="133"/>
+      <c r="G30" s="157"/>
       <c r="H30" s="114">
         <v>0</v>
       </c>
-      <c r="I30" s="168"/>
+      <c r="I30" s="127"/>
       <c r="J30" s="2"/>
     </row>
     <row r="31" spans="1:31" x14ac:dyDescent="0.55000000000000004">
-      <c r="A31" s="131"/>
-      <c r="B31" s="145"/>
+      <c r="A31" s="155"/>
+      <c r="B31" s="116"/>
       <c r="C31" s="94" t="s">
         <v>8</v>
       </c>
@@ -25825,16 +25825,16 @@
       <c r="F31" s="96">
         <v>3</v>
       </c>
-      <c r="G31" s="133"/>
+      <c r="G31" s="157"/>
       <c r="H31" s="88">
         <v>3</v>
       </c>
-      <c r="I31" s="168"/>
+      <c r="I31" s="127"/>
       <c r="J31" s="2"/>
     </row>
     <row r="32" spans="1:31" x14ac:dyDescent="0.55000000000000004">
-      <c r="A32" s="131"/>
-      <c r="B32" s="145"/>
+      <c r="A32" s="155"/>
+      <c r="B32" s="116"/>
       <c r="C32" s="111" t="s">
         <v>77</v>
       </c>
@@ -25847,16 +25847,16 @@
       <c r="F32" s="113">
         <v>0</v>
       </c>
-      <c r="G32" s="133"/>
+      <c r="G32" s="157"/>
       <c r="H32" s="114">
         <v>0</v>
       </c>
-      <c r="I32" s="168"/>
+      <c r="I32" s="127"/>
       <c r="J32" s="2"/>
     </row>
     <row r="33" spans="1:10" x14ac:dyDescent="0.55000000000000004">
-      <c r="A33" s="131"/>
-      <c r="B33" s="145"/>
+      <c r="A33" s="155"/>
+      <c r="B33" s="116"/>
       <c r="C33" s="94" t="s">
         <v>9</v>
       </c>
@@ -25869,16 +25869,16 @@
       <c r="F33" s="96">
         <v>40</v>
       </c>
-      <c r="G33" s="133"/>
+      <c r="G33" s="157"/>
       <c r="H33" s="88">
         <v>40</v>
       </c>
-      <c r="I33" s="168"/>
+      <c r="I33" s="127"/>
       <c r="J33" s="2"/>
     </row>
     <row r="34" spans="1:10" x14ac:dyDescent="0.55000000000000004">
-      <c r="A34" s="131"/>
-      <c r="B34" s="145"/>
+      <c r="A34" s="155"/>
+      <c r="B34" s="116"/>
       <c r="C34" s="111" t="s">
         <v>78</v>
       </c>
@@ -25891,16 +25891,16 @@
       <c r="F34" s="113">
         <v>0</v>
       </c>
-      <c r="G34" s="133"/>
+      <c r="G34" s="157"/>
       <c r="H34" s="114">
         <v>0</v>
       </c>
-      <c r="I34" s="168"/>
+      <c r="I34" s="127"/>
       <c r="J34" s="2"/>
     </row>
     <row r="35" spans="1:10" x14ac:dyDescent="0.55000000000000004">
-      <c r="A35" s="131"/>
-      <c r="B35" s="145"/>
+      <c r="A35" s="155"/>
+      <c r="B35" s="116"/>
       <c r="C35" s="94" t="s">
         <v>79</v>
       </c>
@@ -25913,16 +25913,16 @@
       <c r="F35" s="96">
         <v>4</v>
       </c>
-      <c r="G35" s="133"/>
+      <c r="G35" s="157"/>
       <c r="H35" s="88">
         <v>4</v>
       </c>
-      <c r="I35" s="168"/>
+      <c r="I35" s="127"/>
       <c r="J35" s="2"/>
     </row>
     <row r="36" spans="1:10" x14ac:dyDescent="0.55000000000000004">
-      <c r="A36" s="131"/>
-      <c r="B36" s="145"/>
+      <c r="A36" s="155"/>
+      <c r="B36" s="116"/>
       <c r="C36" s="111" t="s">
         <v>10</v>
       </c>
@@ -25935,16 +25935,16 @@
       <c r="F36" s="113">
         <v>5</v>
       </c>
-      <c r="G36" s="133"/>
+      <c r="G36" s="157"/>
       <c r="H36" s="114">
         <v>5</v>
       </c>
-      <c r="I36" s="168"/>
+      <c r="I36" s="127"/>
       <c r="J36" s="2"/>
     </row>
     <row r="37" spans="1:10" x14ac:dyDescent="0.55000000000000004">
-      <c r="A37" s="131"/>
-      <c r="B37" s="145"/>
+      <c r="A37" s="155"/>
+      <c r="B37" s="116"/>
       <c r="C37" s="94" t="s">
         <v>80</v>
       </c>
@@ -25957,16 +25957,16 @@
       <c r="F37" s="96">
         <v>0</v>
       </c>
-      <c r="G37" s="133"/>
+      <c r="G37" s="157"/>
       <c r="H37" s="88">
         <v>0</v>
       </c>
-      <c r="I37" s="168"/>
+      <c r="I37" s="127"/>
       <c r="J37" s="2"/>
     </row>
     <row r="38" spans="1:10" x14ac:dyDescent="0.55000000000000004">
-      <c r="A38" s="131"/>
-      <c r="B38" s="145"/>
+      <c r="A38" s="155"/>
+      <c r="B38" s="116"/>
       <c r="C38" s="111" t="s">
         <v>81</v>
       </c>
@@ -25979,16 +25979,16 @@
       <c r="F38" s="113">
         <v>8</v>
       </c>
-      <c r="G38" s="133"/>
+      <c r="G38" s="157"/>
       <c r="H38" s="114">
         <v>8</v>
       </c>
-      <c r="I38" s="168"/>
+      <c r="I38" s="127"/>
       <c r="J38" s="2"/>
     </row>
     <row r="39" spans="1:10" x14ac:dyDescent="0.55000000000000004">
-      <c r="A39" s="131"/>
-      <c r="B39" s="145"/>
+      <c r="A39" s="155"/>
+      <c r="B39" s="116"/>
       <c r="C39" s="94" t="s">
         <v>82</v>
       </c>
@@ -26001,16 +26001,16 @@
       <c r="F39" s="96">
         <v>0</v>
       </c>
-      <c r="G39" s="133"/>
+      <c r="G39" s="157"/>
       <c r="H39" s="88">
         <v>0</v>
       </c>
-      <c r="I39" s="168"/>
+      <c r="I39" s="127"/>
       <c r="J39" s="2"/>
     </row>
     <row r="40" spans="1:10" x14ac:dyDescent="0.55000000000000004">
-      <c r="A40" s="131"/>
-      <c r="B40" s="145"/>
+      <c r="A40" s="155"/>
+      <c r="B40" s="116"/>
       <c r="C40" s="111" t="s">
         <v>83</v>
       </c>
@@ -26023,16 +26023,16 @@
       <c r="F40" s="113">
         <v>1</v>
       </c>
-      <c r="G40" s="133"/>
+      <c r="G40" s="157"/>
       <c r="H40" s="114">
         <v>1</v>
       </c>
-      <c r="I40" s="168"/>
+      <c r="I40" s="127"/>
       <c r="J40" s="2"/>
     </row>
     <row r="41" spans="1:10" x14ac:dyDescent="0.55000000000000004">
-      <c r="A41" s="132"/>
-      <c r="B41" s="146"/>
+      <c r="A41" s="156"/>
+      <c r="B41" s="117"/>
       <c r="C41" s="97" t="s">
         <v>84</v>
       </c>
@@ -26045,11 +26045,11 @@
       <c r="F41" s="99">
         <v>8</v>
       </c>
-      <c r="G41" s="134"/>
+      <c r="G41" s="158"/>
       <c r="H41" s="101">
         <v>8</v>
       </c>
-      <c r="I41" s="169"/>
+      <c r="I41" s="128"/>
       <c r="J41" s="2"/>
     </row>
     <row r="43" spans="1:10" x14ac:dyDescent="0.55000000000000004">
@@ -26112,28 +26112,12 @@
     </row>
   </sheetData>
   <mergeCells count="44">
-    <mergeCell ref="B29:B41"/>
-    <mergeCell ref="H5:I5"/>
-    <mergeCell ref="H6:I6"/>
-    <mergeCell ref="H7:I7"/>
-    <mergeCell ref="H8:I8"/>
-    <mergeCell ref="I9:I13"/>
-    <mergeCell ref="I14:I18"/>
-    <mergeCell ref="I19:I23"/>
-    <mergeCell ref="I24:I28"/>
-    <mergeCell ref="I29:I41"/>
-    <mergeCell ref="H1:I1"/>
-    <mergeCell ref="H2:I2"/>
-    <mergeCell ref="A1:C2"/>
-    <mergeCell ref="F3:G3"/>
-    <mergeCell ref="F4:G4"/>
-    <mergeCell ref="H3:I3"/>
-    <mergeCell ref="H4:I4"/>
-    <mergeCell ref="A3:A4"/>
-    <mergeCell ref="B3:C3"/>
-    <mergeCell ref="B4:C4"/>
-    <mergeCell ref="F1:G1"/>
-    <mergeCell ref="F2:G2"/>
+    <mergeCell ref="AE4:AE5"/>
+    <mergeCell ref="Z4:Z5"/>
+    <mergeCell ref="AA4:AA5"/>
+    <mergeCell ref="AB4:AB5"/>
+    <mergeCell ref="AC4:AC5"/>
+    <mergeCell ref="AD4:AD5"/>
     <mergeCell ref="A5:A8"/>
     <mergeCell ref="A9:A28"/>
     <mergeCell ref="A29:A41"/>
@@ -26150,12 +26134,28 @@
     <mergeCell ref="B14:B18"/>
     <mergeCell ref="B19:B23"/>
     <mergeCell ref="B24:B28"/>
-    <mergeCell ref="AE4:AE5"/>
-    <mergeCell ref="Z4:Z5"/>
-    <mergeCell ref="AA4:AA5"/>
-    <mergeCell ref="AB4:AB5"/>
-    <mergeCell ref="AC4:AC5"/>
-    <mergeCell ref="AD4:AD5"/>
+    <mergeCell ref="H1:I1"/>
+    <mergeCell ref="H2:I2"/>
+    <mergeCell ref="A1:C2"/>
+    <mergeCell ref="F3:G3"/>
+    <mergeCell ref="F4:G4"/>
+    <mergeCell ref="H3:I3"/>
+    <mergeCell ref="H4:I4"/>
+    <mergeCell ref="A3:A4"/>
+    <mergeCell ref="B3:C3"/>
+    <mergeCell ref="B4:C4"/>
+    <mergeCell ref="F1:G1"/>
+    <mergeCell ref="F2:G2"/>
+    <mergeCell ref="B29:B41"/>
+    <mergeCell ref="H5:I5"/>
+    <mergeCell ref="H6:I6"/>
+    <mergeCell ref="H7:I7"/>
+    <mergeCell ref="H8:I8"/>
+    <mergeCell ref="I9:I13"/>
+    <mergeCell ref="I14:I18"/>
+    <mergeCell ref="I19:I23"/>
+    <mergeCell ref="I24:I28"/>
+    <mergeCell ref="I29:I41"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <conditionalFormatting sqref="G14">
@@ -26209,83 +26209,83 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C9:F28">
-    <cfRule type="expression" dxfId="1" priority="20">
+    <cfRule type="expression" dxfId="18" priority="8">
+      <formula>MOD(ROW(),2)=1</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="17" priority="20">
       <formula>MOD(ROW(),2)=0</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="0" priority="8">
-      <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H9:H28">
-    <cfRule type="expression" dxfId="18" priority="19">
+    <cfRule type="expression" dxfId="16" priority="5">
+      <formula>MOD(ROW(),2)=1</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="15" priority="19">
       <formula>MOD(ROW(),2)=0</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="17" priority="5">
-      <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B5:I8">
-    <cfRule type="expression" dxfId="16" priority="18">
+    <cfRule type="expression" dxfId="14" priority="7">
+      <formula>MOD(ROW(),2)=1</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="13" priority="18">
       <formula>MOD(ROW(),2)=0</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="15" priority="7">
-      <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C29:F41">
-    <cfRule type="expression" dxfId="14" priority="17">
+    <cfRule type="expression" dxfId="12" priority="4">
+      <formula>MOD(ROW(),2)=1</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="11" priority="17">
       <formula>MOD(ROW(),2)=0</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="13" priority="4">
-      <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H29:H41">
-    <cfRule type="expression" dxfId="12" priority="16">
+    <cfRule type="expression" dxfId="10" priority="3">
+      <formula>MOD(ROW(),2)=1</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="9" priority="16">
       <formula>MOD(ROW(),2)=0</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="11" priority="3">
-      <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B3:I4">
-    <cfRule type="expression" dxfId="10" priority="15">
+    <cfRule type="expression" dxfId="8" priority="6">
+      <formula>MOD(ROW(),2)=1</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="7" priority="15">
       <formula>MOD(ROW(),2)=0</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="9" priority="6">
-      <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A3">
-    <cfRule type="expression" dxfId="8" priority="14">
+    <cfRule type="expression" dxfId="6" priority="14">
       <formula>MOD(ROW(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A5">
-    <cfRule type="expression" dxfId="7" priority="13">
+    <cfRule type="expression" dxfId="5" priority="13">
       <formula>MOD(ROW(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A9">
-    <cfRule type="expression" dxfId="6" priority="12">
+    <cfRule type="expression" dxfId="4" priority="12">
       <formula>MOD(ROW(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A29">
-    <cfRule type="expression" dxfId="5" priority="11">
+    <cfRule type="expression" dxfId="3" priority="11">
       <formula>MOD(ROW(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="Z6:AE14">
-    <cfRule type="expression" dxfId="4" priority="10">
+    <cfRule type="expression" dxfId="2" priority="1">
+      <formula>MOD(ROW(),2)=0</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="1" priority="10">
       <formula>MOD(ROW(),2)=1</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="3" priority="1">
-      <formula>MOD(ROW(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="Z4:AE5">
-    <cfRule type="expression" dxfId="2" priority="9">
+    <cfRule type="expression" dxfId="0" priority="9">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>

--- a/xlsx/model2.xlsx
+++ b/xlsx/model2.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\R\TA\xlsx\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E411AB7B-AA04-47E1-959C-09BA4A04F75C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{704C91D2-0E6E-4A81-A993-89F2A29E8559}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21120" tabRatio="878" xr2:uid="{BCC5EA96-140E-4D1F-AEAE-F8AA11DA45EB}"/>
   </bookViews>
@@ -64,7 +64,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="576" uniqueCount="115">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="576" uniqueCount="114">
   <si>
     <t>シナリオ1</t>
     <phoneticPr fontId="1"/>
@@ -610,9 +610,6 @@
   <si>
     <t>ベースライン</t>
     <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>シナリオ2</t>
   </si>
   <si>
     <t>(2020年)</t>
@@ -1410,13 +1407,67 @@
     <xf numFmtId="1" fontId="0" fillId="3" borderId="6" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="179" fontId="0" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="179" fontId="0" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="179" fontId="0" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="180" fontId="0" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
@@ -1443,13 +1494,13 @@
     <xf numFmtId="180" fontId="0" fillId="2" borderId="9" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="1" fontId="0" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="1" fontId="0" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="1" fontId="0" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="7" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1512,68 +1563,14 @@
     <xf numFmtId="0" fontId="4" fillId="6" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="179" fontId="0" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="179" fontId="0" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="179" fontId="0" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -22882,15 +22879,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>10</xdr:col>
-      <xdr:colOff>2433</xdr:colOff>
+      <xdr:colOff>247361</xdr:colOff>
       <xdr:row>18</xdr:row>
-      <xdr:rowOff>124980</xdr:rowOff>
+      <xdr:rowOff>124981</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>16</xdr:col>
-      <xdr:colOff>286822</xdr:colOff>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>612322</xdr:colOff>
       <xdr:row>35</xdr:row>
-      <xdr:rowOff>140196</xdr:rowOff>
+      <xdr:rowOff>140197</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -22919,16 +22916,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>16</xdr:col>
-      <xdr:colOff>437490</xdr:colOff>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>124525</xdr:colOff>
       <xdr:row>18</xdr:row>
-      <xdr:rowOff>132773</xdr:rowOff>
+      <xdr:rowOff>119166</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>23</xdr:col>
-      <xdr:colOff>201963</xdr:colOff>
+      <xdr:col>26</xdr:col>
+      <xdr:colOff>13607</xdr:colOff>
       <xdr:row>35</xdr:row>
-      <xdr:rowOff>157514</xdr:rowOff>
+      <xdr:rowOff>143907</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -22957,14 +22954,14 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>23</xdr:col>
-      <xdr:colOff>356697</xdr:colOff>
+      <xdr:col>26</xdr:col>
+      <xdr:colOff>152590</xdr:colOff>
       <xdr:row>18</xdr:row>
       <xdr:rowOff>106442</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>28</xdr:col>
-      <xdr:colOff>606034</xdr:colOff>
+      <xdr:col>32</xdr:col>
+      <xdr:colOff>136072</xdr:colOff>
       <xdr:row>35</xdr:row>
       <xdr:rowOff>136378</xdr:rowOff>
     </xdr:to>
@@ -22996,15 +22993,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>10</xdr:col>
-      <xdr:colOff>4165</xdr:colOff>
-      <xdr:row>36</xdr:row>
-      <xdr:rowOff>38388</xdr:rowOff>
+      <xdr:colOff>262700</xdr:colOff>
+      <xdr:row>35</xdr:row>
+      <xdr:rowOff>242495</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>16</xdr:col>
-      <xdr:colOff>288554</xdr:colOff>
-      <xdr:row>51</xdr:row>
-      <xdr:rowOff>52943</xdr:rowOff>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>598715</xdr:colOff>
+      <xdr:row>53</xdr:row>
+      <xdr:rowOff>13607</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -23033,16 +23030,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>16</xdr:col>
-      <xdr:colOff>437490</xdr:colOff>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>110918</xdr:colOff>
       <xdr:row>36</xdr:row>
-      <xdr:rowOff>46181</xdr:rowOff>
+      <xdr:rowOff>18966</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>23</xdr:col>
-      <xdr:colOff>201963</xdr:colOff>
-      <xdr:row>51</xdr:row>
-      <xdr:rowOff>60736</xdr:rowOff>
+      <xdr:col>26</xdr:col>
+      <xdr:colOff>1</xdr:colOff>
+      <xdr:row>53</xdr:row>
+      <xdr:rowOff>27214</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -23071,16 +23068,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>23</xdr:col>
-      <xdr:colOff>347976</xdr:colOff>
-      <xdr:row>36</xdr:row>
-      <xdr:rowOff>21070</xdr:rowOff>
+      <xdr:col>26</xdr:col>
+      <xdr:colOff>157475</xdr:colOff>
+      <xdr:row>35</xdr:row>
+      <xdr:rowOff>238786</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>28</xdr:col>
-      <xdr:colOff>663119</xdr:colOff>
-      <xdr:row>51</xdr:row>
-      <xdr:rowOff>41975</xdr:rowOff>
+      <xdr:col>32</xdr:col>
+      <xdr:colOff>163286</xdr:colOff>
+      <xdr:row>53</xdr:row>
+      <xdr:rowOff>27215</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -23109,16 +23106,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>28</xdr:col>
-      <xdr:colOff>817425</xdr:colOff>
+      <xdr:col>32</xdr:col>
+      <xdr:colOff>300353</xdr:colOff>
       <xdr:row>35</xdr:row>
-      <xdr:rowOff>239430</xdr:rowOff>
+      <xdr:rowOff>212215</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>34</xdr:col>
-      <xdr:colOff>551594</xdr:colOff>
-      <xdr:row>51</xdr:row>
-      <xdr:rowOff>26250</xdr:rowOff>
+      <xdr:col>39</xdr:col>
+      <xdr:colOff>625928</xdr:colOff>
+      <xdr:row>53</xdr:row>
+      <xdr:rowOff>13607</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -23148,13 +23145,13 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>10</xdr:col>
-      <xdr:colOff>1693</xdr:colOff>
+      <xdr:colOff>272142</xdr:colOff>
       <xdr:row>2</xdr:row>
       <xdr:rowOff>15834</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>16</xdr:col>
-      <xdr:colOff>287443</xdr:colOff>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>598715</xdr:colOff>
       <xdr:row>18</xdr:row>
       <xdr:rowOff>7105</xdr:rowOff>
     </xdr:to>
@@ -23185,16 +23182,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>16</xdr:col>
-      <xdr:colOff>420169</xdr:colOff>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>136071</xdr:colOff>
       <xdr:row>2</xdr:row>
-      <xdr:rowOff>13607</xdr:rowOff>
+      <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>23</xdr:col>
-      <xdr:colOff>195101</xdr:colOff>
-      <xdr:row>17</xdr:row>
-      <xdr:rowOff>244765</xdr:rowOff>
+      <xdr:col>25</xdr:col>
+      <xdr:colOff>671350</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -23224,15 +23221,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>10</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>51</xdr:row>
-      <xdr:rowOff>200396</xdr:rowOff>
+      <xdr:colOff>258535</xdr:colOff>
+      <xdr:row>53</xdr:row>
+      <xdr:rowOff>132361</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>16</xdr:col>
-      <xdr:colOff>282575</xdr:colOff>
-      <xdr:row>68</xdr:row>
-      <xdr:rowOff>198388</xdr:rowOff>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>598714</xdr:colOff>
+      <xdr:row>70</xdr:row>
+      <xdr:rowOff>130353</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -23261,16 +23258,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>16</xdr:col>
-      <xdr:colOff>429244</xdr:colOff>
-      <xdr:row>51</xdr:row>
-      <xdr:rowOff>220187</xdr:rowOff>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>89065</xdr:colOff>
+      <xdr:row>53</xdr:row>
+      <xdr:rowOff>165759</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>23</xdr:col>
-      <xdr:colOff>220024</xdr:colOff>
-      <xdr:row>68</xdr:row>
-      <xdr:rowOff>206180</xdr:rowOff>
+      <xdr:col>25</xdr:col>
+      <xdr:colOff>653143</xdr:colOff>
+      <xdr:row>70</xdr:row>
+      <xdr:rowOff>151752</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -23299,16 +23296,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>23</xdr:col>
-      <xdr:colOff>342079</xdr:colOff>
-      <xdr:row>51</xdr:row>
+      <xdr:col>26</xdr:col>
+      <xdr:colOff>165186</xdr:colOff>
+      <xdr:row>53</xdr:row>
       <xdr:rowOff>192007</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>28</xdr:col>
-      <xdr:colOff>680436</xdr:colOff>
-      <xdr:row>68</xdr:row>
-      <xdr:rowOff>193174</xdr:rowOff>
+      <xdr:col>32</xdr:col>
+      <xdr:colOff>163286</xdr:colOff>
+      <xdr:row>70</xdr:row>
+      <xdr:rowOff>163286</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -24862,137 +24859,137 @@
   <sheetPr>
     <tabColor rgb="FFFFC000"/>
   </sheetPr>
-  <dimension ref="A1:AE80"/>
+  <dimension ref="A1:AG80"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <pane ySplit="2" topLeftCell="A17" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="2" topLeftCell="A27" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="B1" sqref="B1"/>
-      <selection pane="bottomLeft" activeCell="AR50" sqref="AR50"/>
+      <selection pane="bottomLeft" activeCell="K11" sqref="K11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.55000000000000004"/>
+  <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
   <cols>
     <col min="1" max="1" width="14.5" style="2" customWidth="1"/>
     <col min="2" max="2" width="6" customWidth="1"/>
-    <col min="3" max="3" width="14.58203125" customWidth="1"/>
-    <col min="4" max="4" width="14.08203125" customWidth="1"/>
-    <col min="5" max="5" width="14.58203125" customWidth="1"/>
-    <col min="6" max="6" width="9.08203125" customWidth="1"/>
-    <col min="7" max="7" width="5.08203125" customWidth="1"/>
-    <col min="8" max="8" width="8.83203125" customWidth="1"/>
-    <col min="9" max="9" width="5.08203125" customWidth="1"/>
-    <col min="10" max="10" width="5.83203125" customWidth="1"/>
+    <col min="3" max="3" width="14.625" customWidth="1"/>
+    <col min="4" max="4" width="14.125" customWidth="1"/>
+    <col min="5" max="5" width="14.625" customWidth="1"/>
+    <col min="6" max="6" width="9.125" customWidth="1"/>
+    <col min="7" max="7" width="5.125" customWidth="1"/>
+    <col min="8" max="8" width="8.875" customWidth="1"/>
+    <col min="9" max="9" width="5.125" customWidth="1"/>
+    <col min="10" max="10" width="5.875" customWidth="1"/>
     <col min="11" max="11" width="11.25" bestFit="1" customWidth="1"/>
-    <col min="25" max="25" width="4.75" customWidth="1"/>
-    <col min="26" max="26" width="16.25" customWidth="1"/>
-    <col min="27" max="31" width="12.08203125" customWidth="1"/>
+    <col min="27" max="27" width="4.75" customWidth="1"/>
+    <col min="28" max="28" width="16.25" customWidth="1"/>
+    <col min="29" max="33" width="12.125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:31" ht="18" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A1" s="133"/>
-      <c r="B1" s="134"/>
-      <c r="C1" s="135"/>
+    <row r="1" spans="1:33" ht="18" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A1" s="151"/>
+      <c r="B1" s="152"/>
+      <c r="C1" s="153"/>
       <c r="D1" s="63" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="E1" s="64" t="s">
         <v>97</v>
       </c>
-      <c r="F1" s="129" t="s">
-        <v>0</v>
-      </c>
-      <c r="G1" s="130"/>
-      <c r="H1" s="129" t="s">
+      <c r="F1" s="147" t="s">
+        <v>0</v>
+      </c>
+      <c r="G1" s="148"/>
+      <c r="H1" s="147" t="s">
+        <v>6</v>
+      </c>
+      <c r="I1" s="148"/>
+    </row>
+    <row r="2" spans="1:33" ht="17.45" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A2" s="154"/>
+      <c r="B2" s="155"/>
+      <c r="C2" s="156"/>
+      <c r="D2" s="65" t="s">
         <v>99</v>
       </c>
-      <c r="I1" s="130"/>
-    </row>
-    <row r="2" spans="1:31" ht="17.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A2" s="136"/>
-      <c r="B2" s="137"/>
-      <c r="C2" s="138"/>
-      <c r="D2" s="65" t="s">
+      <c r="E2" s="66" t="s">
         <v>100</v>
       </c>
-      <c r="E2" s="66" t="s">
-        <v>101</v>
-      </c>
-      <c r="F2" s="131" t="s">
-        <v>101</v>
-      </c>
-      <c r="G2" s="132"/>
-      <c r="H2" s="131" t="s">
-        <v>101</v>
-      </c>
-      <c r="I2" s="132"/>
-    </row>
-    <row r="3" spans="1:31" x14ac:dyDescent="0.55000000000000004">
-      <c r="A3" s="144" t="s">
-        <v>110</v>
-      </c>
-      <c r="B3" s="146" t="s">
-        <v>104</v>
-      </c>
-      <c r="C3" s="147"/>
+      <c r="F2" s="149" t="s">
+        <v>100</v>
+      </c>
+      <c r="G2" s="150"/>
+      <c r="H2" s="149" t="s">
+        <v>100</v>
+      </c>
+      <c r="I2" s="150"/>
+    </row>
+    <row r="3" spans="1:33" x14ac:dyDescent="0.4">
+      <c r="A3" s="162" t="s">
+        <v>109</v>
+      </c>
+      <c r="B3" s="164" t="s">
+        <v>103</v>
+      </c>
+      <c r="C3" s="165"/>
       <c r="D3" s="67">
         <v>867</v>
       </c>
       <c r="E3" s="68">
         <v>1067</v>
       </c>
-      <c r="F3" s="139">
+      <c r="F3" s="157">
         <f>1067</f>
         <v>1067</v>
       </c>
-      <c r="G3" s="139"/>
-      <c r="H3" s="142">
+      <c r="G3" s="157"/>
+      <c r="H3" s="160">
         <v>1067</v>
       </c>
-      <c r="I3" s="139"/>
+      <c r="I3" s="157"/>
       <c r="J3" s="12"/>
     </row>
-    <row r="4" spans="1:31" x14ac:dyDescent="0.55000000000000004">
-      <c r="A4" s="145"/>
-      <c r="B4" s="145" t="s">
-        <v>103</v>
-      </c>
-      <c r="C4" s="148"/>
+    <row r="4" spans="1:33" x14ac:dyDescent="0.4">
+      <c r="A4" s="163"/>
+      <c r="B4" s="163" t="s">
+        <v>102</v>
+      </c>
+      <c r="C4" s="166"/>
       <c r="D4" s="69">
         <v>126</v>
       </c>
       <c r="E4" s="70">
         <v>110</v>
       </c>
-      <c r="F4" s="140">
+      <c r="F4" s="158">
         <v>110</v>
       </c>
-      <c r="G4" s="141"/>
-      <c r="H4" s="143">
+      <c r="G4" s="159"/>
+      <c r="H4" s="161">
         <v>110</v>
       </c>
-      <c r="I4" s="141"/>
+      <c r="I4" s="159"/>
       <c r="J4" s="12"/>
-      <c r="Z4" s="162" t="s">
-        <v>107</v>
-      </c>
-      <c r="AA4" s="164">
+      <c r="AB4" s="117" t="s">
+        <v>106</v>
+      </c>
+      <c r="AC4" s="119">
         <v>2010</v>
       </c>
-      <c r="AB4" s="166">
+      <c r="AD4" s="121">
         <v>2020</v>
       </c>
-      <c r="AC4" s="168" t="s">
-        <v>106</v>
-      </c>
-      <c r="AD4" s="162" t="s">
+      <c r="AE4" s="123" t="s">
+        <v>105</v>
+      </c>
+      <c r="AF4" s="117" t="s">
         <v>92</v>
       </c>
-      <c r="AE4" s="160" t="s">
+      <c r="AG4" s="115" t="s">
         <v>93</v>
       </c>
     </row>
-    <row r="5" spans="1:31" ht="18" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A5" s="149" t="s">
+    <row r="5" spans="1:33" ht="18" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A5" s="125" t="s">
         <v>1</v>
       </c>
       <c r="B5" s="71" t="s">
@@ -25005,23 +25002,23 @@
       <c r="E5" s="74">
         <v>1</v>
       </c>
-      <c r="F5" s="118">
+      <c r="F5" s="136">
         <v>1</v>
       </c>
-      <c r="G5" s="119"/>
-      <c r="H5" s="118">
+      <c r="G5" s="137"/>
+      <c r="H5" s="136">
         <v>1</v>
       </c>
-      <c r="I5" s="119"/>
-      <c r="Z5" s="163"/>
-      <c r="AA5" s="165"/>
-      <c r="AB5" s="167"/>
-      <c r="AC5" s="169"/>
-      <c r="AD5" s="163"/>
-      <c r="AE5" s="161"/>
-    </row>
-    <row r="6" spans="1:31" x14ac:dyDescent="0.55000000000000004">
-      <c r="A6" s="150"/>
+      <c r="I5" s="137"/>
+      <c r="AB5" s="118"/>
+      <c r="AC5" s="120"/>
+      <c r="AD5" s="122"/>
+      <c r="AE5" s="124"/>
+      <c r="AF5" s="118"/>
+      <c r="AG5" s="116"/>
+    </row>
+    <row r="6" spans="1:33" x14ac:dyDescent="0.4">
+      <c r="A6" s="126"/>
       <c r="B6" s="75" t="s">
         <v>3</v>
       </c>
@@ -25032,39 +25029,39 @@
       <c r="E6" s="78">
         <v>1</v>
       </c>
-      <c r="F6" s="120">
+      <c r="F6" s="138">
         <v>1</v>
       </c>
-      <c r="G6" s="121"/>
-      <c r="H6" s="120">
+      <c r="G6" s="139"/>
+      <c r="H6" s="138">
         <v>1</v>
       </c>
-      <c r="I6" s="121"/>
-      <c r="Z6" s="46" t="s">
+      <c r="I6" s="139"/>
+      <c r="AB6" s="46" t="s">
         <v>2</v>
       </c>
-      <c r="AA6" s="36">
+      <c r="AC6" s="36">
         <f>CO2排出量!B2</f>
         <v>269.51474216725944</v>
       </c>
-      <c r="AB6" s="42">
+      <c r="AD6" s="42">
         <f>CO2排出量!C2</f>
         <v>209.4235083709562</v>
       </c>
-      <c r="AC6" s="36">
+      <c r="AE6" s="36">
         <v>260.01618074402859</v>
       </c>
-      <c r="AD6" s="42">
+      <c r="AF6" s="42">
         <f>CO2排出量!E2</f>
         <v>260.01618074402859</v>
       </c>
-      <c r="AE6" s="37">
+      <c r="AG6" s="37">
         <f>CO2排出量!F2</f>
         <v>260.01618074402859</v>
       </c>
     </row>
-    <row r="7" spans="1:31" x14ac:dyDescent="0.55000000000000004">
-      <c r="A7" s="150"/>
+    <row r="7" spans="1:33" x14ac:dyDescent="0.4">
+      <c r="A7" s="126"/>
       <c r="B7" s="79" t="s">
         <v>4</v>
       </c>
@@ -25075,39 +25072,39 @@
       <c r="E7" s="74">
         <v>1</v>
       </c>
-      <c r="F7" s="122">
+      <c r="F7" s="140">
         <v>1</v>
       </c>
-      <c r="G7" s="123"/>
-      <c r="H7" s="122">
+      <c r="G7" s="141"/>
+      <c r="H7" s="140">
         <v>1</v>
       </c>
-      <c r="I7" s="123"/>
-      <c r="Z7" s="51" t="s">
+      <c r="I7" s="141"/>
+      <c r="AB7" s="51" t="s">
         <v>3</v>
       </c>
-      <c r="AA7" s="35">
+      <c r="AC7" s="35">
         <f>CO2排出量!B3</f>
         <v>249.02275586606845</v>
       </c>
-      <c r="AB7" s="43">
+      <c r="AD7" s="43">
         <f>CO2排出量!C3</f>
         <v>196.15609230500672</v>
       </c>
-      <c r="AC7" s="35">
+      <c r="AE7" s="35">
         <v>210.67040851814829</v>
       </c>
-      <c r="AD7" s="43">
+      <c r="AF7" s="43">
         <f>CO2排出量!E3</f>
         <v>210.67040851814829</v>
       </c>
-      <c r="AE7" s="38">
+      <c r="AG7" s="38">
         <f>CO2排出量!F3</f>
         <v>210.67040851814829</v>
       </c>
     </row>
-    <row r="8" spans="1:31" x14ac:dyDescent="0.55000000000000004">
-      <c r="A8" s="151"/>
+    <row r="8" spans="1:33" x14ac:dyDescent="0.4">
+      <c r="A8" s="127"/>
       <c r="B8" s="80" t="s">
         <v>5</v>
       </c>
@@ -25118,42 +25115,42 @@
       <c r="E8" s="83">
         <v>1</v>
       </c>
-      <c r="F8" s="124">
+      <c r="F8" s="142">
         <v>1</v>
       </c>
-      <c r="G8" s="125"/>
-      <c r="H8" s="124">
+      <c r="G8" s="143"/>
+      <c r="H8" s="142">
         <v>1</v>
       </c>
-      <c r="I8" s="125"/>
-      <c r="Z8" s="47" t="s">
+      <c r="I8" s="143"/>
+      <c r="AB8" s="47" t="s">
         <v>4</v>
       </c>
-      <c r="AA8" s="34">
+      <c r="AC8" s="34">
         <f>CO2排出量!B4</f>
         <v>63.618347666356769</v>
       </c>
-      <c r="AB8" s="44">
+      <c r="AD8" s="44">
         <f>CO2排出量!C4</f>
         <v>52.883709709806709</v>
       </c>
-      <c r="AC8" s="34">
+      <c r="AE8" s="34">
         <v>66.032474177397248</v>
       </c>
-      <c r="AD8" s="44">
+      <c r="AF8" s="44">
         <f>CO2排出量!E4</f>
         <v>66.032474177397248</v>
       </c>
-      <c r="AE8" s="39">
+      <c r="AG8" s="39">
         <f>CO2排出量!F4</f>
         <v>66.032474177397248</v>
       </c>
     </row>
-    <row r="9" spans="1:31" x14ac:dyDescent="0.55000000000000004">
-      <c r="A9" s="152" t="s">
+    <row r="9" spans="1:33" x14ac:dyDescent="0.4">
+      <c r="A9" s="128" t="s">
         <v>25</v>
       </c>
-      <c r="B9" s="115" t="s">
+      <c r="B9" s="144" t="s">
         <v>2</v>
       </c>
       <c r="C9" s="84" t="s">
@@ -25168,44 +25165,44 @@
       <c r="F9" s="87">
         <v>24</v>
       </c>
-      <c r="G9" s="157">
+      <c r="G9" s="133">
         <f>SUM(F9:F13)</f>
         <v>100</v>
       </c>
       <c r="H9" s="88">
         <v>24</v>
       </c>
-      <c r="I9" s="126">
+      <c r="I9" s="167">
         <f>SUM(H9:H13)</f>
         <v>100</v>
       </c>
       <c r="J9" s="2"/>
-      <c r="Z9" s="51" t="s">
+      <c r="AB9" s="51" t="s">
         <v>5</v>
       </c>
-      <c r="AA9" s="35">
+      <c r="AC9" s="35">
         <f>CO2排出量!B5</f>
         <v>69.588005432578569</v>
       </c>
-      <c r="AB9" s="43">
+      <c r="AD9" s="43">
         <f>CO2排出量!C5</f>
         <v>52.883709709806709</v>
       </c>
-      <c r="AC9" s="35">
+      <c r="AE9" s="35">
         <v>52.527941152998537</v>
       </c>
-      <c r="AD9" s="43">
+      <c r="AF9" s="43">
         <f>CO2排出量!E5</f>
         <v>52.527941152998537</v>
       </c>
-      <c r="AE9" s="38">
+      <c r="AG9" s="38">
         <f>CO2排出量!F5</f>
         <v>52.527941152998537</v>
       </c>
     </row>
-    <row r="10" spans="1:31" x14ac:dyDescent="0.55000000000000004">
-      <c r="A10" s="153"/>
-      <c r="B10" s="116"/>
+    <row r="10" spans="1:33" x14ac:dyDescent="0.4">
+      <c r="A10" s="129"/>
+      <c r="B10" s="145"/>
       <c r="C10" s="89" t="s">
         <v>8</v>
       </c>
@@ -25218,38 +25215,38 @@
       <c r="F10" s="92">
         <v>22</v>
       </c>
-      <c r="G10" s="157"/>
+      <c r="G10" s="133"/>
       <c r="H10" s="93">
         <v>22</v>
       </c>
-      <c r="I10" s="127"/>
+      <c r="I10" s="168"/>
       <c r="J10" s="2"/>
-      <c r="Z10" s="47" t="s">
+      <c r="AB10" s="47" t="s">
         <v>30</v>
       </c>
-      <c r="AA10" s="34">
+      <c r="AC10" s="34">
         <f>CO2排出量!B6</f>
         <v>476.37955455993358</v>
       </c>
-      <c r="AB10" s="44">
+      <c r="AD10" s="44">
         <f>CO2排出量!C6</f>
         <v>449.00553720294573</v>
       </c>
-      <c r="AC10" s="34">
+      <c r="AE10" s="34">
         <v>496.52581315955877</v>
       </c>
-      <c r="AD10" s="44">
+      <c r="AF10" s="44">
         <f>CO2排出量!E6</f>
         <v>496.52581315955877</v>
       </c>
-      <c r="AE10" s="39">
+      <c r="AG10" s="39">
         <f>CO2排出量!F6</f>
         <v>496.52581315955877</v>
       </c>
     </row>
-    <row r="11" spans="1:31" ht="20" x14ac:dyDescent="0.55000000000000004">
-      <c r="A11" s="153"/>
-      <c r="B11" s="116"/>
+    <row r="11" spans="1:33" ht="19.5" x14ac:dyDescent="0.4">
+      <c r="A11" s="129"/>
+      <c r="B11" s="145"/>
       <c r="C11" s="94" t="s">
         <v>9</v>
       </c>
@@ -25262,38 +25259,38 @@
       <c r="F11" s="87">
         <v>14.000000000000002</v>
       </c>
-      <c r="G11" s="157"/>
+      <c r="G11" s="133"/>
       <c r="H11" s="88">
         <v>14.000000000000002</v>
       </c>
-      <c r="I11" s="127"/>
+      <c r="I11" s="168"/>
       <c r="J11" s="2"/>
-      <c r="Z11" s="51" t="s">
-        <v>112</v>
-      </c>
-      <c r="AA11" s="35">
+      <c r="AB11" s="51" t="s">
+        <v>111</v>
+      </c>
+      <c r="AC11" s="35">
         <f>CO2排出量!B7</f>
         <v>28.775119328906975</v>
       </c>
-      <c r="AB11" s="43">
+      <c r="AD11" s="43">
         <f>CO2排出量!C7</f>
         <v>25.99212785621209</v>
       </c>
-      <c r="AC11" s="35">
+      <c r="AE11" s="35">
         <v>22.660005374260319</v>
       </c>
-      <c r="AD11" s="43">
+      <c r="AF11" s="43">
         <f>CO2排出量!E7</f>
         <v>22.660005374260319</v>
       </c>
-      <c r="AE11" s="38">
+      <c r="AG11" s="38">
         <f>CO2排出量!F7</f>
         <v>22.660005374260319</v>
       </c>
     </row>
-    <row r="12" spans="1:31" ht="20" x14ac:dyDescent="0.55000000000000004">
-      <c r="A12" s="153"/>
-      <c r="B12" s="116"/>
+    <row r="12" spans="1:33" ht="19.5" x14ac:dyDescent="0.4">
+      <c r="A12" s="129"/>
+      <c r="B12" s="145"/>
       <c r="C12" s="89" t="s">
         <v>10</v>
       </c>
@@ -25306,38 +25303,38 @@
       <c r="F12" s="92">
         <v>4</v>
       </c>
-      <c r="G12" s="157"/>
+      <c r="G12" s="133"/>
       <c r="H12" s="93">
         <v>4</v>
       </c>
-      <c r="I12" s="127"/>
+      <c r="I12" s="168"/>
       <c r="J12" s="2"/>
-      <c r="Z12" s="47" t="s">
-        <v>113</v>
-      </c>
-      <c r="AA12" s="34">
+      <c r="AB12" s="47" t="s">
+        <v>112</v>
+      </c>
+      <c r="AC12" s="34">
         <f>CO2排出量!B8</f>
         <v>29.46362437612942</v>
       </c>
-      <c r="AB12" s="44">
+      <c r="AD12" s="44">
         <f>CO2排出量!C8</f>
         <v>31.085649151718691</v>
       </c>
-      <c r="AC12" s="34">
+      <c r="AE12" s="34">
         <v>27.100550625829783</v>
       </c>
-      <c r="AD12" s="44">
+      <c r="AF12" s="44">
         <f>CO2排出量!E8</f>
         <v>27.100550625829783</v>
       </c>
-      <c r="AE12" s="39">
+      <c r="AG12" s="39">
         <f>CO2排出量!F8</f>
         <v>27.100550625829783</v>
       </c>
     </row>
-    <row r="13" spans="1:31" ht="20" x14ac:dyDescent="0.55000000000000004">
-      <c r="A13" s="153"/>
-      <c r="B13" s="117"/>
+    <row r="13" spans="1:33" ht="19.5" x14ac:dyDescent="0.4">
+      <c r="A13" s="129"/>
+      <c r="B13" s="146"/>
       <c r="C13" s="97" t="s">
         <v>11</v>
       </c>
@@ -25350,38 +25347,38 @@
       <c r="F13" s="100">
         <v>36</v>
       </c>
-      <c r="G13" s="158"/>
+      <c r="G13" s="134"/>
       <c r="H13" s="101">
         <v>36</v>
       </c>
-      <c r="I13" s="128"/>
+      <c r="I13" s="169"/>
       <c r="J13" s="2"/>
-      <c r="Z13" s="51" t="s">
-        <v>114</v>
-      </c>
-      <c r="AA13" s="35">
+      <c r="AB13" s="51" t="s">
+        <v>113</v>
+      </c>
+      <c r="AC13" s="35">
         <f>CO2排出量!B9</f>
         <v>-46</v>
       </c>
-      <c r="AB13" s="43">
+      <c r="AD13" s="43">
         <f>CO2排出量!C9</f>
         <v>-46</v>
       </c>
-      <c r="AC13" s="35">
+      <c r="AE13" s="35">
         <v>-46</v>
       </c>
-      <c r="AD13" s="43">
+      <c r="AF13" s="43">
         <f>CO2排出量!E9</f>
         <v>-46</v>
       </c>
-      <c r="AE13" s="38">
+      <c r="AG13" s="38">
         <f>CO2排出量!F9</f>
         <v>-46</v>
       </c>
     </row>
-    <row r="14" spans="1:31" x14ac:dyDescent="0.55000000000000004">
-      <c r="A14" s="153"/>
-      <c r="B14" s="115" t="s">
+    <row r="14" spans="1:33" x14ac:dyDescent="0.4">
+      <c r="A14" s="129"/>
+      <c r="B14" s="144" t="s">
         <v>3</v>
       </c>
       <c r="C14" s="102" t="s">
@@ -25396,44 +25393,44 @@
       <c r="F14" s="104">
         <v>0</v>
       </c>
-      <c r="G14" s="159">
+      <c r="G14" s="135">
         <f t="shared" ref="G14" si="0">SUM(F14:F18)</f>
         <v>100</v>
       </c>
       <c r="H14" s="105">
         <v>0</v>
       </c>
-      <c r="I14" s="126">
+      <c r="I14" s="167">
         <f>SUM(H14:H18)</f>
         <v>100</v>
       </c>
       <c r="J14" s="2"/>
-      <c r="Z14" s="48" t="s">
+      <c r="AB14" s="48" t="s">
         <v>27</v>
       </c>
-      <c r="AA14" s="40">
+      <c r="AC14" s="40">
         <f>CO2排出量!B10</f>
         <v>1140.3621493972332</v>
       </c>
-      <c r="AB14" s="45">
+      <c r="AD14" s="45">
         <f>CO2排出量!C10</f>
         <v>971.43033430645278</v>
       </c>
-      <c r="AC14" s="40">
+      <c r="AE14" s="40">
         <v>1089.5333737522215</v>
       </c>
-      <c r="AD14" s="45">
+      <c r="AF14" s="45">
         <f>CO2排出量!E10</f>
         <v>1089.5333737522215</v>
       </c>
-      <c r="AE14" s="41">
+      <c r="AG14" s="41">
         <f>CO2排出量!F10</f>
         <v>1089.5333737522215</v>
       </c>
     </row>
-    <row r="15" spans="1:31" x14ac:dyDescent="0.55000000000000004">
-      <c r="A15" s="153"/>
-      <c r="B15" s="116"/>
+    <row r="15" spans="1:33" x14ac:dyDescent="0.4">
+      <c r="A15" s="129"/>
+      <c r="B15" s="145"/>
       <c r="C15" s="94" t="s">
         <v>8</v>
       </c>
@@ -25446,16 +25443,16 @@
       <c r="F15" s="96">
         <v>97</v>
       </c>
-      <c r="G15" s="157"/>
+      <c r="G15" s="133"/>
       <c r="H15" s="88">
         <v>97</v>
       </c>
-      <c r="I15" s="127"/>
+      <c r="I15" s="168"/>
       <c r="J15" s="2"/>
     </row>
-    <row r="16" spans="1:31" x14ac:dyDescent="0.55000000000000004">
-      <c r="A16" s="153"/>
-      <c r="B16" s="116"/>
+    <row r="16" spans="1:33" x14ac:dyDescent="0.4">
+      <c r="A16" s="129"/>
+      <c r="B16" s="145"/>
       <c r="C16" s="89" t="s">
         <v>9</v>
       </c>
@@ -25468,16 +25465,16 @@
       <c r="F16" s="91">
         <v>0</v>
       </c>
-      <c r="G16" s="157"/>
+      <c r="G16" s="133"/>
       <c r="H16" s="93">
         <v>0</v>
       </c>
-      <c r="I16" s="127"/>
+      <c r="I16" s="168"/>
       <c r="J16" s="2"/>
     </row>
-    <row r="17" spans="1:31" x14ac:dyDescent="0.55000000000000004">
-      <c r="A17" s="153"/>
-      <c r="B17" s="116"/>
+    <row r="17" spans="1:33" x14ac:dyDescent="0.4">
+      <c r="A17" s="129"/>
+      <c r="B17" s="145"/>
       <c r="C17" s="94" t="s">
         <v>10</v>
       </c>
@@ -25490,16 +25487,16 @@
       <c r="F17" s="96">
         <v>1</v>
       </c>
-      <c r="G17" s="157"/>
+      <c r="G17" s="133"/>
       <c r="H17" s="88">
         <v>1</v>
       </c>
-      <c r="I17" s="127"/>
+      <c r="I17" s="168"/>
       <c r="J17" s="2"/>
     </row>
-    <row r="18" spans="1:31" x14ac:dyDescent="0.55000000000000004">
-      <c r="A18" s="153"/>
-      <c r="B18" s="117"/>
+    <row r="18" spans="1:33" x14ac:dyDescent="0.4">
+      <c r="A18" s="129"/>
+      <c r="B18" s="146"/>
       <c r="C18" s="106" t="s">
         <v>11</v>
       </c>
@@ -25512,17 +25509,17 @@
       <c r="F18" s="108">
         <v>2</v>
       </c>
-      <c r="G18" s="158"/>
+      <c r="G18" s="134"/>
       <c r="H18" s="109">
         <v>2</v>
       </c>
-      <c r="I18" s="128"/>
+      <c r="I18" s="169"/>
       <c r="J18" s="2"/>
-      <c r="AE18" s="52"/>
-    </row>
-    <row r="19" spans="1:31" x14ac:dyDescent="0.55000000000000004">
-      <c r="A19" s="153"/>
-      <c r="B19" s="115" t="s">
+      <c r="AG18" s="52"/>
+    </row>
+    <row r="19" spans="1:33" x14ac:dyDescent="0.4">
+      <c r="A19" s="129"/>
+      <c r="B19" s="144" t="s">
         <v>4</v>
       </c>
       <c r="C19" s="84" t="s">
@@ -25537,22 +25534,22 @@
       <c r="F19" s="86">
         <v>0</v>
       </c>
-      <c r="G19" s="159">
+      <c r="G19" s="135">
         <f t="shared" ref="G19" si="1">SUM(F19:F23)</f>
         <v>100</v>
       </c>
       <c r="H19" s="110">
         <v>0</v>
       </c>
-      <c r="I19" s="126">
+      <c r="I19" s="167">
         <f>SUM(H19:H23)</f>
         <v>100</v>
       </c>
       <c r="J19" s="2"/>
     </row>
-    <row r="20" spans="1:31" x14ac:dyDescent="0.55000000000000004">
-      <c r="A20" s="153"/>
-      <c r="B20" s="116"/>
+    <row r="20" spans="1:33" x14ac:dyDescent="0.4">
+      <c r="A20" s="129"/>
+      <c r="B20" s="145"/>
       <c r="C20" s="89" t="s">
         <v>8</v>
       </c>
@@ -25565,16 +25562,16 @@
       <c r="F20" s="91">
         <v>24</v>
       </c>
-      <c r="G20" s="157"/>
+      <c r="G20" s="133"/>
       <c r="H20" s="93">
         <v>24</v>
       </c>
-      <c r="I20" s="127"/>
+      <c r="I20" s="168"/>
       <c r="J20" s="2"/>
     </row>
-    <row r="21" spans="1:31" x14ac:dyDescent="0.55000000000000004">
-      <c r="A21" s="153"/>
-      <c r="B21" s="116"/>
+    <row r="21" spans="1:33" x14ac:dyDescent="0.4">
+      <c r="A21" s="129"/>
+      <c r="B21" s="145"/>
       <c r="C21" s="94" t="s">
         <v>9</v>
       </c>
@@ -25587,16 +25584,16 @@
       <c r="F21" s="96">
         <v>16</v>
       </c>
-      <c r="G21" s="157"/>
+      <c r="G21" s="133"/>
       <c r="H21" s="88">
         <v>16</v>
       </c>
-      <c r="I21" s="127"/>
+      <c r="I21" s="168"/>
       <c r="J21" s="2"/>
     </row>
-    <row r="22" spans="1:31" x14ac:dyDescent="0.55000000000000004">
-      <c r="A22" s="153"/>
-      <c r="B22" s="116"/>
+    <row r="22" spans="1:33" x14ac:dyDescent="0.4">
+      <c r="A22" s="129"/>
+      <c r="B22" s="145"/>
       <c r="C22" s="89" t="s">
         <v>10</v>
       </c>
@@ -25609,16 +25606,16 @@
       <c r="F22" s="91">
         <v>3</v>
       </c>
-      <c r="G22" s="157"/>
+      <c r="G22" s="133"/>
       <c r="H22" s="93">
         <v>3</v>
       </c>
-      <c r="I22" s="127"/>
+      <c r="I22" s="168"/>
       <c r="J22" s="2"/>
     </row>
-    <row r="23" spans="1:31" x14ac:dyDescent="0.55000000000000004">
-      <c r="A23" s="153"/>
-      <c r="B23" s="117"/>
+    <row r="23" spans="1:33" x14ac:dyDescent="0.4">
+      <c r="A23" s="129"/>
+      <c r="B23" s="146"/>
       <c r="C23" s="97" t="s">
         <v>11</v>
       </c>
@@ -25631,16 +25628,16 @@
       <c r="F23" s="99">
         <v>56.999999999999993</v>
       </c>
-      <c r="G23" s="158"/>
+      <c r="G23" s="134"/>
       <c r="H23" s="101">
         <v>56.999999999999993</v>
       </c>
-      <c r="I23" s="128"/>
+      <c r="I23" s="169"/>
       <c r="J23" s="2"/>
     </row>
-    <row r="24" spans="1:31" x14ac:dyDescent="0.55000000000000004">
-      <c r="A24" s="153"/>
-      <c r="B24" s="115" t="s">
+    <row r="24" spans="1:33" x14ac:dyDescent="0.4">
+      <c r="A24" s="129"/>
+      <c r="B24" s="144" t="s">
         <v>5</v>
       </c>
       <c r="C24" s="102" t="s">
@@ -25655,22 +25652,22 @@
       <c r="F24" s="104">
         <v>0</v>
       </c>
-      <c r="G24" s="159">
+      <c r="G24" s="135">
         <f t="shared" ref="G24" si="2">SUM(F24:F28)</f>
         <v>100</v>
       </c>
       <c r="H24" s="105">
         <v>0</v>
       </c>
-      <c r="I24" s="126">
+      <c r="I24" s="167">
         <f>SUM(H24:H28)</f>
         <v>100</v>
       </c>
       <c r="J24" s="2"/>
     </row>
-    <row r="25" spans="1:31" x14ac:dyDescent="0.55000000000000004">
-      <c r="A25" s="153"/>
-      <c r="B25" s="116"/>
+    <row r="25" spans="1:33" x14ac:dyDescent="0.4">
+      <c r="A25" s="129"/>
+      <c r="B25" s="145"/>
       <c r="C25" s="94" t="s">
         <v>8</v>
       </c>
@@ -25683,16 +25680,16 @@
       <c r="F25" s="96">
         <v>27</v>
       </c>
-      <c r="G25" s="157"/>
+      <c r="G25" s="133"/>
       <c r="H25" s="88">
         <v>27</v>
       </c>
-      <c r="I25" s="127"/>
+      <c r="I25" s="168"/>
       <c r="J25" s="2"/>
     </row>
-    <row r="26" spans="1:31" x14ac:dyDescent="0.55000000000000004">
-      <c r="A26" s="153"/>
-      <c r="B26" s="116"/>
+    <row r="26" spans="1:33" x14ac:dyDescent="0.4">
+      <c r="A26" s="129"/>
+      <c r="B26" s="145"/>
       <c r="C26" s="89" t="s">
         <v>9</v>
       </c>
@@ -25705,16 +25702,16 @@
       <c r="F26" s="91">
         <v>21</v>
       </c>
-      <c r="G26" s="157"/>
+      <c r="G26" s="133"/>
       <c r="H26" s="93">
         <v>21</v>
       </c>
-      <c r="I26" s="127"/>
+      <c r="I26" s="168"/>
       <c r="J26" s="2"/>
     </row>
-    <row r="27" spans="1:31" x14ac:dyDescent="0.55000000000000004">
-      <c r="A27" s="153"/>
-      <c r="B27" s="116"/>
+    <row r="27" spans="1:33" x14ac:dyDescent="0.4">
+      <c r="A27" s="129"/>
+      <c r="B27" s="145"/>
       <c r="C27" s="94" t="s">
         <v>10</v>
       </c>
@@ -25727,16 +25724,16 @@
       <c r="F27" s="96">
         <v>0</v>
       </c>
-      <c r="G27" s="157"/>
+      <c r="G27" s="133"/>
       <c r="H27" s="88">
         <v>0</v>
       </c>
-      <c r="I27" s="127"/>
+      <c r="I27" s="168"/>
       <c r="J27" s="2"/>
     </row>
-    <row r="28" spans="1:31" x14ac:dyDescent="0.55000000000000004">
-      <c r="A28" s="153"/>
-      <c r="B28" s="117"/>
+    <row r="28" spans="1:33" x14ac:dyDescent="0.4">
+      <c r="A28" s="129"/>
+      <c r="B28" s="146"/>
       <c r="C28" s="106" t="s">
         <v>11</v>
       </c>
@@ -25749,18 +25746,18 @@
       <c r="F28" s="108">
         <v>52</v>
       </c>
-      <c r="G28" s="158"/>
+      <c r="G28" s="134"/>
       <c r="H28" s="109">
         <v>52</v>
       </c>
-      <c r="I28" s="128"/>
+      <c r="I28" s="169"/>
       <c r="J28" s="2"/>
     </row>
-    <row r="29" spans="1:31" x14ac:dyDescent="0.55000000000000004">
-      <c r="A29" s="154" t="s">
+    <row r="29" spans="1:33" x14ac:dyDescent="0.4">
+      <c r="A29" s="130" t="s">
         <v>26</v>
       </c>
-      <c r="B29" s="115" t="s">
+      <c r="B29" s="144" t="s">
         <v>30</v>
       </c>
       <c r="C29" s="84" t="s">
@@ -25775,22 +25772,22 @@
       <c r="F29" s="86">
         <v>31</v>
       </c>
-      <c r="G29" s="159">
+      <c r="G29" s="135">
         <f>SUM(F29:F41)</f>
         <v>100</v>
       </c>
       <c r="H29" s="110">
         <v>31</v>
       </c>
-      <c r="I29" s="126">
+      <c r="I29" s="167">
         <f>SUM(H29:H41)</f>
         <v>100</v>
       </c>
       <c r="J29" s="2"/>
     </row>
-    <row r="30" spans="1:31" x14ac:dyDescent="0.55000000000000004">
-      <c r="A30" s="155"/>
-      <c r="B30" s="116"/>
+    <row r="30" spans="1:33" x14ac:dyDescent="0.4">
+      <c r="A30" s="131"/>
+      <c r="B30" s="145"/>
       <c r="C30" s="111" t="s">
         <v>76</v>
       </c>
@@ -25803,16 +25800,16 @@
       <c r="F30" s="113">
         <v>0</v>
       </c>
-      <c r="G30" s="157"/>
+      <c r="G30" s="133"/>
       <c r="H30" s="114">
         <v>0</v>
       </c>
-      <c r="I30" s="127"/>
+      <c r="I30" s="168"/>
       <c r="J30" s="2"/>
     </row>
-    <row r="31" spans="1:31" x14ac:dyDescent="0.55000000000000004">
-      <c r="A31" s="155"/>
-      <c r="B31" s="116"/>
+    <row r="31" spans="1:33" x14ac:dyDescent="0.4">
+      <c r="A31" s="131"/>
+      <c r="B31" s="145"/>
       <c r="C31" s="94" t="s">
         <v>8</v>
       </c>
@@ -25825,16 +25822,16 @@
       <c r="F31" s="96">
         <v>3</v>
       </c>
-      <c r="G31" s="157"/>
+      <c r="G31" s="133"/>
       <c r="H31" s="88">
         <v>3</v>
       </c>
-      <c r="I31" s="127"/>
+      <c r="I31" s="168"/>
       <c r="J31" s="2"/>
     </row>
-    <row r="32" spans="1:31" x14ac:dyDescent="0.55000000000000004">
-      <c r="A32" s="155"/>
-      <c r="B32" s="116"/>
+    <row r="32" spans="1:33" x14ac:dyDescent="0.4">
+      <c r="A32" s="131"/>
+      <c r="B32" s="145"/>
       <c r="C32" s="111" t="s">
         <v>77</v>
       </c>
@@ -25847,16 +25844,16 @@
       <c r="F32" s="113">
         <v>0</v>
       </c>
-      <c r="G32" s="157"/>
+      <c r="G32" s="133"/>
       <c r="H32" s="114">
         <v>0</v>
       </c>
-      <c r="I32" s="127"/>
+      <c r="I32" s="168"/>
       <c r="J32" s="2"/>
     </row>
-    <row r="33" spans="1:10" x14ac:dyDescent="0.55000000000000004">
-      <c r="A33" s="155"/>
-      <c r="B33" s="116"/>
+    <row r="33" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="A33" s="131"/>
+      <c r="B33" s="145"/>
       <c r="C33" s="94" t="s">
         <v>9</v>
       </c>
@@ -25869,16 +25866,16 @@
       <c r="F33" s="96">
         <v>40</v>
       </c>
-      <c r="G33" s="157"/>
+      <c r="G33" s="133"/>
       <c r="H33" s="88">
         <v>40</v>
       </c>
-      <c r="I33" s="127"/>
+      <c r="I33" s="168"/>
       <c r="J33" s="2"/>
     </row>
-    <row r="34" spans="1:10" x14ac:dyDescent="0.55000000000000004">
-      <c r="A34" s="155"/>
-      <c r="B34" s="116"/>
+    <row r="34" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="A34" s="131"/>
+      <c r="B34" s="145"/>
       <c r="C34" s="111" t="s">
         <v>78</v>
       </c>
@@ -25891,16 +25888,16 @@
       <c r="F34" s="113">
         <v>0</v>
       </c>
-      <c r="G34" s="157"/>
+      <c r="G34" s="133"/>
       <c r="H34" s="114">
         <v>0</v>
       </c>
-      <c r="I34" s="127"/>
+      <c r="I34" s="168"/>
       <c r="J34" s="2"/>
     </row>
-    <row r="35" spans="1:10" x14ac:dyDescent="0.55000000000000004">
-      <c r="A35" s="155"/>
-      <c r="B35" s="116"/>
+    <row r="35" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="A35" s="131"/>
+      <c r="B35" s="145"/>
       <c r="C35" s="94" t="s">
         <v>79</v>
       </c>
@@ -25913,16 +25910,16 @@
       <c r="F35" s="96">
         <v>4</v>
       </c>
-      <c r="G35" s="157"/>
+      <c r="G35" s="133"/>
       <c r="H35" s="88">
         <v>4</v>
       </c>
-      <c r="I35" s="127"/>
+      <c r="I35" s="168"/>
       <c r="J35" s="2"/>
     </row>
-    <row r="36" spans="1:10" x14ac:dyDescent="0.55000000000000004">
-      <c r="A36" s="155"/>
-      <c r="B36" s="116"/>
+    <row r="36" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="A36" s="131"/>
+      <c r="B36" s="145"/>
       <c r="C36" s="111" t="s">
         <v>10</v>
       </c>
@@ -25935,16 +25932,16 @@
       <c r="F36" s="113">
         <v>5</v>
       </c>
-      <c r="G36" s="157"/>
+      <c r="G36" s="133"/>
       <c r="H36" s="114">
         <v>5</v>
       </c>
-      <c r="I36" s="127"/>
+      <c r="I36" s="168"/>
       <c r="J36" s="2"/>
     </row>
-    <row r="37" spans="1:10" x14ac:dyDescent="0.55000000000000004">
-      <c r="A37" s="155"/>
-      <c r="B37" s="116"/>
+    <row r="37" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="A37" s="131"/>
+      <c r="B37" s="145"/>
       <c r="C37" s="94" t="s">
         <v>80</v>
       </c>
@@ -25957,16 +25954,16 @@
       <c r="F37" s="96">
         <v>0</v>
       </c>
-      <c r="G37" s="157"/>
+      <c r="G37" s="133"/>
       <c r="H37" s="88">
         <v>0</v>
       </c>
-      <c r="I37" s="127"/>
+      <c r="I37" s="168"/>
       <c r="J37" s="2"/>
     </row>
-    <row r="38" spans="1:10" x14ac:dyDescent="0.55000000000000004">
-      <c r="A38" s="155"/>
-      <c r="B38" s="116"/>
+    <row r="38" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="A38" s="131"/>
+      <c r="B38" s="145"/>
       <c r="C38" s="111" t="s">
         <v>81</v>
       </c>
@@ -25979,16 +25976,16 @@
       <c r="F38" s="113">
         <v>8</v>
       </c>
-      <c r="G38" s="157"/>
+      <c r="G38" s="133"/>
       <c r="H38" s="114">
         <v>8</v>
       </c>
-      <c r="I38" s="127"/>
+      <c r="I38" s="168"/>
       <c r="J38" s="2"/>
     </row>
-    <row r="39" spans="1:10" x14ac:dyDescent="0.55000000000000004">
-      <c r="A39" s="155"/>
-      <c r="B39" s="116"/>
+    <row r="39" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="A39" s="131"/>
+      <c r="B39" s="145"/>
       <c r="C39" s="94" t="s">
         <v>82</v>
       </c>
@@ -26001,16 +25998,16 @@
       <c r="F39" s="96">
         <v>0</v>
       </c>
-      <c r="G39" s="157"/>
+      <c r="G39" s="133"/>
       <c r="H39" s="88">
         <v>0</v>
       </c>
-      <c r="I39" s="127"/>
+      <c r="I39" s="168"/>
       <c r="J39" s="2"/>
     </row>
-    <row r="40" spans="1:10" x14ac:dyDescent="0.55000000000000004">
-      <c r="A40" s="155"/>
-      <c r="B40" s="116"/>
+    <row r="40" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="A40" s="131"/>
+      <c r="B40" s="145"/>
       <c r="C40" s="111" t="s">
         <v>83</v>
       </c>
@@ -26023,16 +26020,16 @@
       <c r="F40" s="113">
         <v>1</v>
       </c>
-      <c r="G40" s="157"/>
+      <c r="G40" s="133"/>
       <c r="H40" s="114">
         <v>1</v>
       </c>
-      <c r="I40" s="127"/>
+      <c r="I40" s="168"/>
       <c r="J40" s="2"/>
     </row>
-    <row r="41" spans="1:10" x14ac:dyDescent="0.55000000000000004">
-      <c r="A41" s="156"/>
-      <c r="B41" s="117"/>
+    <row r="41" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="A41" s="132"/>
+      <c r="B41" s="146"/>
       <c r="C41" s="97" t="s">
         <v>84</v>
       </c>
@@ -26045,79 +26042,95 @@
       <c r="F41" s="99">
         <v>8</v>
       </c>
-      <c r="G41" s="158"/>
+      <c r="G41" s="134"/>
       <c r="H41" s="101">
         <v>8</v>
       </c>
-      <c r="I41" s="128"/>
+      <c r="I41" s="169"/>
       <c r="J41" s="2"/>
     </row>
-    <row r="43" spans="1:10" x14ac:dyDescent="0.55000000000000004">
+    <row r="43" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A43" s="61"/>
       <c r="D43" s="49"/>
       <c r="E43" s="49"/>
     </row>
-    <row r="44" spans="1:10" x14ac:dyDescent="0.55000000000000004">
+    <row r="44" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A44" s="62"/>
       <c r="D44" s="49"/>
       <c r="E44" s="49"/>
     </row>
-    <row r="45" spans="1:10" x14ac:dyDescent="0.55000000000000004">
+    <row r="45" spans="1:10" x14ac:dyDescent="0.4">
       <c r="D45" s="49"/>
     </row>
-    <row r="46" spans="1:10" x14ac:dyDescent="0.55000000000000004">
+    <row r="46" spans="1:10" x14ac:dyDescent="0.4">
       <c r="D46" s="49"/>
     </row>
-    <row r="47" spans="1:10" x14ac:dyDescent="0.55000000000000004">
+    <row r="47" spans="1:10" x14ac:dyDescent="0.4">
       <c r="B47" s="17"/>
     </row>
-    <row r="68" spans="6:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="68" spans="6:6" x14ac:dyDescent="0.4">
       <c r="F68" s="1"/>
     </row>
-    <row r="69" spans="6:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="69" spans="6:6" x14ac:dyDescent="0.4">
       <c r="F69" s="1"/>
     </row>
-    <row r="70" spans="6:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="70" spans="6:6" x14ac:dyDescent="0.4">
       <c r="F70" s="1"/>
     </row>
-    <row r="71" spans="6:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="71" spans="6:6" x14ac:dyDescent="0.4">
       <c r="F71" s="1"/>
     </row>
-    <row r="72" spans="6:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="72" spans="6:6" x14ac:dyDescent="0.4">
       <c r="F72" s="1"/>
     </row>
-    <row r="73" spans="6:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="73" spans="6:6" x14ac:dyDescent="0.4">
       <c r="F73" s="1"/>
     </row>
-    <row r="74" spans="6:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="74" spans="6:6" x14ac:dyDescent="0.4">
       <c r="F74" s="1"/>
     </row>
-    <row r="75" spans="6:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="75" spans="6:6" x14ac:dyDescent="0.4">
       <c r="F75" s="1"/>
     </row>
-    <row r="76" spans="6:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="76" spans="6:6" x14ac:dyDescent="0.4">
       <c r="F76" s="1"/>
     </row>
-    <row r="77" spans="6:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="77" spans="6:6" x14ac:dyDescent="0.4">
       <c r="F77" s="1"/>
     </row>
-    <row r="78" spans="6:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="78" spans="6:6" x14ac:dyDescent="0.4">
       <c r="F78" s="1"/>
     </row>
-    <row r="79" spans="6:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="79" spans="6:6" x14ac:dyDescent="0.4">
       <c r="F79" s="1"/>
     </row>
-    <row r="80" spans="6:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="80" spans="6:6" x14ac:dyDescent="0.4">
       <c r="F80" s="1"/>
     </row>
   </sheetData>
   <mergeCells count="44">
-    <mergeCell ref="AE4:AE5"/>
-    <mergeCell ref="Z4:Z5"/>
-    <mergeCell ref="AA4:AA5"/>
-    <mergeCell ref="AB4:AB5"/>
-    <mergeCell ref="AC4:AC5"/>
-    <mergeCell ref="AD4:AD5"/>
+    <mergeCell ref="B29:B41"/>
+    <mergeCell ref="H5:I5"/>
+    <mergeCell ref="H6:I6"/>
+    <mergeCell ref="H7:I7"/>
+    <mergeCell ref="H8:I8"/>
+    <mergeCell ref="I9:I13"/>
+    <mergeCell ref="I14:I18"/>
+    <mergeCell ref="I19:I23"/>
+    <mergeCell ref="I24:I28"/>
+    <mergeCell ref="I29:I41"/>
+    <mergeCell ref="H1:I1"/>
+    <mergeCell ref="H2:I2"/>
+    <mergeCell ref="A1:C2"/>
+    <mergeCell ref="F3:G3"/>
+    <mergeCell ref="F4:G4"/>
+    <mergeCell ref="H3:I3"/>
+    <mergeCell ref="H4:I4"/>
+    <mergeCell ref="A3:A4"/>
+    <mergeCell ref="B3:C3"/>
+    <mergeCell ref="B4:C4"/>
+    <mergeCell ref="F1:G1"/>
+    <mergeCell ref="F2:G2"/>
     <mergeCell ref="A5:A8"/>
     <mergeCell ref="A9:A28"/>
     <mergeCell ref="A29:A41"/>
@@ -26134,28 +26147,12 @@
     <mergeCell ref="B14:B18"/>
     <mergeCell ref="B19:B23"/>
     <mergeCell ref="B24:B28"/>
-    <mergeCell ref="H1:I1"/>
-    <mergeCell ref="H2:I2"/>
-    <mergeCell ref="A1:C2"/>
-    <mergeCell ref="F3:G3"/>
-    <mergeCell ref="F4:G4"/>
-    <mergeCell ref="H3:I3"/>
-    <mergeCell ref="H4:I4"/>
-    <mergeCell ref="A3:A4"/>
-    <mergeCell ref="B3:C3"/>
-    <mergeCell ref="B4:C4"/>
-    <mergeCell ref="F1:G1"/>
-    <mergeCell ref="F2:G2"/>
-    <mergeCell ref="B29:B41"/>
-    <mergeCell ref="H5:I5"/>
-    <mergeCell ref="H6:I6"/>
-    <mergeCell ref="H7:I7"/>
-    <mergeCell ref="H8:I8"/>
-    <mergeCell ref="I9:I13"/>
-    <mergeCell ref="I14:I18"/>
-    <mergeCell ref="I19:I23"/>
-    <mergeCell ref="I24:I28"/>
-    <mergeCell ref="I29:I41"/>
+    <mergeCell ref="AG4:AG5"/>
+    <mergeCell ref="AB4:AB5"/>
+    <mergeCell ref="AC4:AC5"/>
+    <mergeCell ref="AD4:AD5"/>
+    <mergeCell ref="AE4:AE5"/>
+    <mergeCell ref="AF4:AF5"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <conditionalFormatting sqref="G14">
@@ -26276,7 +26273,7 @@
       <formula>MOD(ROW(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="Z6:AE14">
+  <conditionalFormatting sqref="AB6:AG14">
     <cfRule type="expression" dxfId="2" priority="1">
       <formula>MOD(ROW(),2)=0</formula>
     </cfRule>
@@ -26284,7 +26281,7 @@
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="Z4:AE5">
+  <conditionalFormatting sqref="AB4:AG5">
     <cfRule type="expression" dxfId="0" priority="9">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
@@ -26302,17 +26299,17 @@
       <selection activeCell="L40" sqref="L40"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10" defaultRowHeight="18" x14ac:dyDescent="0.55000000000000004"/>
+  <sheetFormatPr defaultColWidth="10" defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
   <cols>
     <col min="1" max="1" width="10" style="12"/>
-    <col min="2" max="5" width="14.58203125" style="12" customWidth="1"/>
+    <col min="2" max="5" width="14.625" style="12" customWidth="1"/>
     <col min="6" max="6" width="14.75" style="12" customWidth="1"/>
-    <col min="7" max="7" width="15.58203125" style="12" customWidth="1"/>
+    <col min="7" max="7" width="15.625" style="12" customWidth="1"/>
     <col min="8" max="8" width="15.75" style="12" customWidth="1"/>
     <col min="9" max="16384" width="10" style="12"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A1" s="12" t="s">
         <v>29</v>
       </c>
@@ -26335,7 +26332,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A2" s="12">
         <v>2010</v>
       </c>
@@ -26358,7 +26355,7 @@
         <v>127917.537122642</v>
       </c>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A3" s="12">
         <v>2011</v>
       </c>
@@ -26381,7 +26378,7 @@
         <v>127830.198160436</v>
       </c>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A4" s="12">
         <v>2012</v>
       </c>
@@ -26404,7 +26401,7 @@
         <v>127742.918831135</v>
       </c>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A5" s="12">
         <v>2013</v>
       </c>
@@ -26427,7 +26424,7 @@
         <v>127655.699094023</v>
       </c>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A6" s="12">
         <v>2014</v>
       </c>
@@ -26450,7 +26447,7 @@
         <v>127568.538908412</v>
       </c>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A7" s="12">
         <v>2015</v>
       </c>
@@ -26473,7 +26470,7 @@
         <v>127481.43823364101</v>
       </c>
     </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="8" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A8" s="12">
         <v>2016</v>
       </c>
@@ -26496,7 +26493,7 @@
         <v>127219.143055607</v>
       </c>
     </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="9" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A9" s="12">
         <v>2017</v>
       </c>
@@ -26519,7 +26516,7 @@
         <v>126957.387554261</v>
       </c>
     </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="10" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A10" s="12">
         <v>2018</v>
       </c>
@@ -26542,7 +26539,7 @@
         <v>126696.17061921</v>
       </c>
     </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="11" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A11" s="12">
         <v>2019</v>
       </c>
@@ -26565,7 +26562,7 @@
         <v>126435.491142345</v>
       </c>
     </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="12" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A12" s="12">
         <v>2020</v>
       </c>
@@ -26588,7 +26585,7 @@
         <v>126175.348017836</v>
       </c>
     </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="13" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A13" s="12">
         <v>2021</v>
       </c>
@@ -26615,7 +26612,7 @@
         <v>125636.16975057498</v>
       </c>
     </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="14" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A14" s="12">
         <v>2022</v>
       </c>
@@ -26642,7 +26639,7 @@
         <v>125096.99148331373</v>
       </c>
     </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="15" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A15" s="12">
         <v>2023</v>
       </c>
@@ -26669,7 +26666,7 @@
         <v>124557.81321605248</v>
       </c>
     </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="16" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A16" s="12">
         <v>2024</v>
       </c>
@@ -26696,7 +26693,7 @@
         <v>124018.63494879124</v>
       </c>
     </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="17" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A17" s="12">
         <v>2025</v>
       </c>
@@ -26723,7 +26720,7 @@
         <v>123479.45668152999</v>
       </c>
     </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="18" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A18" s="12">
         <v>2026</v>
       </c>
@@ -26750,7 +26747,7 @@
         <v>122940.27841426898</v>
       </c>
     </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="19" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A19" s="12">
         <v>2027</v>
       </c>
@@ -26777,7 +26774,7 @@
         <v>122401.10014700773</v>
       </c>
     </row>
-    <row r="20" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="20" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A20" s="12">
         <v>2028</v>
       </c>
@@ -26804,7 +26801,7 @@
         <v>121861.92187974649</v>
       </c>
     </row>
-    <row r="21" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="21" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A21" s="12">
         <v>2029</v>
       </c>
@@ -26831,7 +26828,7 @@
         <v>121322.74361248524</v>
       </c>
     </row>
-    <row r="22" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="22" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A22" s="12">
         <v>2030</v>
       </c>
@@ -26858,7 +26855,7 @@
         <v>120783.56534522399</v>
       </c>
     </row>
-    <row r="23" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="23" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A23" s="12">
         <v>2031</v>
       </c>
@@ -26885,7 +26882,7 @@
         <v>120244.38707796298</v>
       </c>
     </row>
-    <row r="24" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="24" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A24" s="12">
         <v>2032</v>
       </c>
@@ -26912,7 +26909,7 @@
         <v>119705.20881070173</v>
       </c>
     </row>
-    <row r="25" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="25" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A25" s="12">
         <v>2033</v>
       </c>
@@ -26939,7 +26936,7 @@
         <v>119166.03054344049</v>
       </c>
     </row>
-    <row r="26" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="26" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A26" s="12">
         <v>2034</v>
       </c>
@@ -26966,7 +26963,7 @@
         <v>118626.85227617924</v>
       </c>
     </row>
-    <row r="27" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="27" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A27" s="12">
         <v>2035</v>
       </c>
@@ -26993,7 +26990,7 @@
         <v>118087.67400891799</v>
       </c>
     </row>
-    <row r="28" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="28" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A28" s="12">
         <v>2036</v>
       </c>
@@ -27020,7 +27017,7 @@
         <v>117548.49574165698</v>
       </c>
     </row>
-    <row r="29" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="29" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A29" s="12">
         <v>2037</v>
       </c>
@@ -27047,7 +27044,7 @@
         <v>117009.31747439574</v>
       </c>
     </row>
-    <row r="30" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="30" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A30" s="12">
         <v>2038</v>
       </c>
@@ -27074,7 +27071,7 @@
         <v>116470.13920713449</v>
       </c>
     </row>
-    <row r="31" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="31" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A31" s="12">
         <v>2039</v>
       </c>
@@ -27101,7 +27098,7 @@
         <v>115930.96093987324</v>
       </c>
     </row>
-    <row r="32" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="32" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A32" s="12">
         <v>2040</v>
       </c>
@@ -27128,7 +27125,7 @@
         <v>115391.782672612</v>
       </c>
     </row>
-    <row r="33" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="33" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A33" s="12">
         <v>2041</v>
       </c>
@@ -27155,7 +27152,7 @@
         <v>114852.60440535098</v>
       </c>
     </row>
-    <row r="34" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="34" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A34" s="12">
         <v>2042</v>
       </c>
@@ -27182,7 +27179,7 @@
         <v>114313.42613808974</v>
       </c>
     </row>
-    <row r="35" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="35" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A35" s="12">
         <v>2043</v>
       </c>
@@ -27209,7 +27206,7 @@
         <v>113774.24787082849</v>
       </c>
     </row>
-    <row r="36" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="36" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A36" s="12">
         <v>2044</v>
       </c>
@@ -27236,7 +27233,7 @@
         <v>113235.06960356724</v>
       </c>
     </row>
-    <row r="37" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="37" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A37" s="12">
         <v>2045</v>
       </c>
@@ -27263,7 +27260,7 @@
         <v>112695.891336306</v>
       </c>
     </row>
-    <row r="38" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="38" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A38" s="12">
         <v>2046</v>
       </c>
@@ -27290,7 +27287,7 @@
         <v>112156.71306904498</v>
       </c>
     </row>
-    <row r="39" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="39" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A39" s="12">
         <v>2047</v>
       </c>
@@ -27317,7 +27314,7 @@
         <v>111617.53480178374</v>
       </c>
     </row>
-    <row r="40" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="40" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A40" s="12">
         <v>2048</v>
       </c>
@@ -27344,7 +27341,7 @@
         <v>111078.35653452249</v>
       </c>
     </row>
-    <row r="41" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="41" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A41" s="12">
         <v>2049</v>
       </c>
@@ -27371,7 +27368,7 @@
         <v>110539.17826726125</v>
       </c>
     </row>
-    <row r="42" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="42" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A42" s="12">
         <v>2050</v>
       </c>
@@ -27398,7 +27395,7 @@
         <v>110000</v>
       </c>
     </row>
-    <row r="44" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="44" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A44" s="12">
         <v>2020</v>
       </c>
@@ -27419,7 +27416,7 @@
         <v>126175.348017836</v>
       </c>
     </row>
-    <row r="45" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="45" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A45" s="12">
         <v>2050</v>
       </c>
@@ -27440,9 +27437,9 @@
         <v>110000</v>
       </c>
     </row>
-    <row r="46" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="46" spans="1:8" x14ac:dyDescent="0.4">
       <c r="C46" s="12" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
     </row>
   </sheetData>
@@ -27460,14 +27457,14 @@
       <selection activeCell="L40" sqref="L40"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10" defaultRowHeight="18" x14ac:dyDescent="0.55000000000000004"/>
+  <sheetFormatPr defaultColWidth="10" defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
   <cols>
     <col min="1" max="1" width="10" style="12"/>
-    <col min="2" max="2" width="12.83203125" style="12" customWidth="1"/>
+    <col min="2" max="2" width="12.875" style="12" customWidth="1"/>
     <col min="3" max="16384" width="10" style="12"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A1" s="12" t="s">
         <v>29</v>
       </c>
@@ -27475,7 +27472,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A2" s="12">
         <v>2010</v>
       </c>
@@ -27483,7 +27480,7 @@
         <v>1.8290999999999999</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A3" s="12">
         <v>2011</v>
       </c>
@@ -27491,7 +27488,7 @@
         <v>1.84255172981084</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A4" s="12">
         <v>2012</v>
       </c>
@@ -27499,7 +27496,7 @@
         <v>1.8560844157716301</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A5" s="12">
         <v>2013</v>
       </c>
@@ -27507,7 +27504,7 @@
         <v>1.86970067145606</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A6" s="12">
         <v>2014</v>
       </c>
@@ -27515,7 +27512,7 @@
         <v>1.88340306051096</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A7" s="12">
         <v>2015</v>
       </c>
@@ -27523,7 +27520,7 @@
         <v>1.8971942330291101</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="8" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A8" s="12">
         <v>2016</v>
       </c>
@@ -27531,7 +27528,7 @@
         <v>1.90451712657732</v>
       </c>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="9" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A9" s="12">
         <v>2017</v>
       </c>
@@ -27539,7 +27536,7 @@
         <v>1.9118925866193599</v>
       </c>
     </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="10" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A10" s="12">
         <v>2018</v>
       </c>
@@ -27547,7 +27544,7 @@
         <v>1.91932266425757</v>
       </c>
     </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="11" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A11" s="12">
         <v>2019</v>
       </c>
@@ -27555,7 +27552,7 @@
         <v>1.92680944811888</v>
       </c>
     </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="12" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A12" s="12">
         <v>2020</v>
       </c>
@@ -27563,7 +27560,7 @@
         <v>1.9343550010106301</v>
       </c>
     </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="13" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A13" s="12">
         <v>2021</v>
       </c>
@@ -27571,7 +27568,7 @@
         <v>1.9404369264602701</v>
       </c>
     </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="14" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A14" s="12">
         <v>2022</v>
       </c>
@@ -27579,7 +27576,7 @@
         <v>1.9466206595307201</v>
       </c>
     </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="15" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A15" s="12">
         <v>2023</v>
       </c>
@@ -27587,7 +27584,7 @@
         <v>1.95290894128753</v>
       </c>
     </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="16" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A16" s="12">
         <v>2024</v>
       </c>
@@ -27595,7 +27592,7 @@
         <v>1.95930451880223</v>
       </c>
     </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="17" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A17" s="12">
         <v>2025</v>
       </c>
@@ -27603,7 +27600,7 @@
         <v>1.9658101622082</v>
       </c>
     </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="18" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A18" s="12">
         <v>2026</v>
       </c>
@@ -27611,7 +27608,7 @@
         <v>1.9687772036618301</v>
       </c>
     </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="19" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A19" s="12">
         <v>2027</v>
       </c>
@@ -27619,7 +27616,7 @@
         <v>1.9718573012510701</v>
       </c>
     </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="20" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A20" s="12">
         <v>2028</v>
       </c>
@@ -27627,7 +27624,7 @@
         <v>1.97505257765538</v>
       </c>
     </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="21" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A21" s="12">
         <v>2029</v>
       </c>
@@ -27635,7 +27632,7 @@
         <v>1.97836513237384</v>
       </c>
     </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="22" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A22" s="12">
         <v>2030</v>
       </c>
@@ -27643,7 +27640,7 @@
         <v>1.9817971063443101</v>
       </c>
     </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="23" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A23" s="12">
         <v>2031</v>
       </c>
@@ -27651,7 +27648,7 @@
         <v>1.9796629558919501</v>
       </c>
     </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="24" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A24" s="12">
         <v>2032</v>
       </c>
@@ -27659,7 +27656,7 @@
         <v>1.9776463771528501</v>
       </c>
     </row>
-    <row r="25" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="25" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A25" s="12">
         <v>2033</v>
       </c>
@@ -27667,7 +27664,7 @@
         <v>1.9757482913245501</v>
       </c>
     </row>
-    <row r="26" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="26" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A26" s="12">
         <v>2034</v>
       </c>
@@ -27675,7 +27672,7 @@
         <v>1.97396964031083</v>
       </c>
     </row>
-    <row r="27" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="27" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A27" s="12">
         <v>2035</v>
       </c>
@@ -27683,7 +27680,7 @@
         <v>1.97231135433044</v>
       </c>
     </row>
-    <row r="28" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="28" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A28" s="12">
         <v>2036</v>
       </c>
@@ -27691,7 +27688,7 @@
         <v>1.9660943839543801</v>
       </c>
     </row>
-    <row r="29" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="29" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A29" s="12">
         <v>2037</v>
       </c>
@@ -27699,7 +27696,7 @@
         <v>1.96004051696549</v>
       </c>
     </row>
-    <row r="30" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="30" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A30" s="12">
         <v>2038</v>
       </c>
@@ -27707,7 +27704,7 @@
         <v>1.9541496091013399</v>
       </c>
     </row>
-    <row r="31" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="31" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A31" s="12">
         <v>2039</v>
       </c>
@@ -27715,7 +27712,7 @@
         <v>1.94842158598563</v>
       </c>
     </row>
-    <row r="32" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="32" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A32" s="12">
         <v>2040</v>
       </c>
@@ -27723,7 +27720,7 @@
         <v>1.9428563278086799</v>
       </c>
     </row>
-    <row r="33" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="33" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A33" s="12">
         <v>2041</v>
       </c>
@@ -27731,7 +27728,7 @@
         <v>1.94226268158768</v>
       </c>
     </row>
-    <row r="34" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="34" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A34" s="12">
         <v>2042</v>
       </c>
@@ -27739,7 +27736,7 @@
         <v>1.9417511966660199</v>
       </c>
     </row>
-    <row r="35" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="35" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A35" s="12">
         <v>2043</v>
       </c>
@@ -27747,7 +27744,7 @@
         <v>1.9413226273914199</v>
       </c>
     </row>
-    <row r="36" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="36" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A36" s="12">
         <v>2044</v>
       </c>
@@ -27755,7 +27752,7 @@
         <v>1.94097773425871</v>
       </c>
     </row>
-    <row r="37" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="37" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A37" s="12">
         <v>2045</v>
       </c>
@@ -27763,7 +27760,7 @@
         <v>1.94071727619887</v>
       </c>
     </row>
-    <row r="38" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="38" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A38" s="12">
         <v>2046</v>
       </c>
@@ -27771,7 +27768,7 @@
         <v>1.9393333586109001</v>
       </c>
     </row>
-    <row r="39" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="39" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A39" s="12">
         <v>2047</v>
       </c>
@@ -27779,7 +27776,7 @@
         <v>1.9380421475133101</v>
       </c>
     </row>
-    <row r="40" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="40" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A40" s="12">
         <v>2048</v>
       </c>
@@ -27787,7 +27784,7 @@
         <v>1.93684411362477</v>
       </c>
     </row>
-    <row r="41" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="41" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A41" s="12">
         <v>2049</v>
       </c>
@@ -27795,7 +27792,7 @@
         <v>1.9357397233195399</v>
       </c>
     </row>
-    <row r="42" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="42" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A42" s="12">
         <v>2050</v>
       </c>
@@ -27818,21 +27815,21 @@
       <selection activeCell="D13" sqref="D13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10" defaultRowHeight="18" x14ac:dyDescent="0.55000000000000004"/>
+  <sheetFormatPr defaultColWidth="10" defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
   <cols>
     <col min="1" max="1" width="10" style="12"/>
-    <col min="2" max="2" width="16.83203125" style="12" customWidth="1"/>
+    <col min="2" max="2" width="16.875" style="12" customWidth="1"/>
     <col min="3" max="3" width="17" style="12" customWidth="1"/>
-    <col min="4" max="4" width="16.08203125" style="12" customWidth="1"/>
-    <col min="5" max="5" width="15.33203125" style="12" customWidth="1"/>
-    <col min="6" max="6" width="18.58203125" style="12" customWidth="1"/>
-    <col min="7" max="7" width="18.83203125" style="12" customWidth="1"/>
-    <col min="8" max="8" width="13.33203125" style="14" customWidth="1"/>
+    <col min="4" max="4" width="16.125" style="12" customWidth="1"/>
+    <col min="5" max="5" width="15.375" style="12" customWidth="1"/>
+    <col min="6" max="6" width="18.625" style="12" customWidth="1"/>
+    <col min="7" max="7" width="18.875" style="12" customWidth="1"/>
+    <col min="8" max="8" width="13.375" style="14" customWidth="1"/>
     <col min="9" max="9" width="14" style="14" customWidth="1"/>
     <col min="10" max="16384" width="10" style="12"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" s="15" customFormat="1" ht="54" x14ac:dyDescent="0.55000000000000004">
+    <row r="1" spans="1:9" s="15" customFormat="1" ht="56.25" x14ac:dyDescent="0.4">
       <c r="A1" s="15" t="s">
         <v>29</v>
       </c>
@@ -27861,7 +27858,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A2" s="12">
         <v>2010</v>
       </c>
@@ -27890,7 +27887,7 @@
         <v>16.3401519996122</v>
       </c>
     </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="3" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A3" s="12">
         <v>2011</v>
       </c>
@@ -27919,7 +27916,7 @@
         <v>15.7177648858708</v>
       </c>
     </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="4" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A4" s="12">
         <v>2012</v>
       </c>
@@ -27948,7 +27945,7 @@
         <v>15.8924660448982</v>
       </c>
     </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="5" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A5" s="12">
         <v>2013</v>
       </c>
@@ -27977,7 +27974,7 @@
         <v>15.489876394344099</v>
       </c>
     </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="6" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A6" s="12">
         <v>2014</v>
       </c>
@@ -28006,7 +28003,7 @@
         <v>14.8733928932292</v>
       </c>
     </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="7" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A7" s="12">
         <v>2015</v>
       </c>
@@ -28035,7 +28032,7 @@
         <v>14.4876777795296</v>
       </c>
     </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="8" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A8" s="12">
         <v>2016</v>
       </c>
@@ -28064,7 +28061,7 @@
         <v>14.5307612958216</v>
       </c>
     </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="9" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A9" s="12">
         <v>2017</v>
       </c>
@@ -28093,7 +28090,7 @@
         <v>15.166789716565599</v>
       </c>
     </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="10" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A10" s="12">
         <v>2018</v>
       </c>
@@ -28122,7 +28119,7 @@
         <v>14.0185452434716</v>
       </c>
     </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="11" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A11" s="12">
         <v>2019</v>
       </c>
@@ -28151,7 +28148,7 @@
         <v>13.920608715937799</v>
       </c>
     </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="12" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A12" s="12">
         <v>2020</v>
       </c>
@@ -28180,7 +28177,7 @@
         <v>14.612648421143</v>
       </c>
     </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="13" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A13" s="12">
         <v>2021</v>
       </c>
@@ -28217,7 +28214,7 @@
         <v>14.612648421143</v>
       </c>
     </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="14" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A14" s="12">
         <v>2022</v>
       </c>
@@ -28254,7 +28251,7 @@
         <v>14.612648421143</v>
       </c>
     </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="15" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A15" s="12">
         <v>2023</v>
       </c>
@@ -28291,7 +28288,7 @@
         <v>14.612648421143</v>
       </c>
     </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="16" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A16" s="12">
         <v>2024</v>
       </c>
@@ -28328,7 +28325,7 @@
         <v>14.612648421143</v>
       </c>
     </row>
-    <row r="17" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="17" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A17" s="12">
         <v>2025</v>
       </c>
@@ -28365,7 +28362,7 @@
         <v>14.612648421143</v>
       </c>
     </row>
-    <row r="18" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="18" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A18" s="12">
         <v>2026</v>
       </c>
@@ -28402,7 +28399,7 @@
         <v>14.612648421143</v>
       </c>
     </row>
-    <row r="19" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="19" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A19" s="12">
         <v>2027</v>
       </c>
@@ -28439,7 +28436,7 @@
         <v>14.612648421143</v>
       </c>
     </row>
-    <row r="20" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="20" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A20" s="12">
         <v>2028</v>
       </c>
@@ -28476,7 +28473,7 @@
         <v>14.612648421143</v>
       </c>
     </row>
-    <row r="21" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="21" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A21" s="12">
         <v>2029</v>
       </c>
@@ -28513,7 +28510,7 @@
         <v>14.612648421143</v>
       </c>
     </row>
-    <row r="22" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="22" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A22" s="12">
         <v>2030</v>
       </c>
@@ -28550,7 +28547,7 @@
         <v>14.612648421143</v>
       </c>
     </row>
-    <row r="23" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="23" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A23" s="12">
         <v>2031</v>
       </c>
@@ -28587,7 +28584,7 @@
         <v>14.612648421143</v>
       </c>
     </row>
-    <row r="24" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="24" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A24" s="12">
         <v>2032</v>
       </c>
@@ -28624,7 +28621,7 @@
         <v>14.612648421143</v>
       </c>
     </row>
-    <row r="25" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="25" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A25" s="12">
         <v>2033</v>
       </c>
@@ -28661,7 +28658,7 @@
         <v>14.612648421143</v>
       </c>
     </row>
-    <row r="26" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="26" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A26" s="12">
         <v>2034</v>
       </c>
@@ -28698,7 +28695,7 @@
         <v>14.612648421143</v>
       </c>
     </row>
-    <row r="27" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="27" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A27" s="12">
         <v>2035</v>
       </c>
@@ -28735,7 +28732,7 @@
         <v>14.612648421143</v>
       </c>
     </row>
-    <row r="28" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="28" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A28" s="12">
         <v>2036</v>
       </c>
@@ -28772,7 +28769,7 @@
         <v>14.612648421143</v>
       </c>
     </row>
-    <row r="29" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="29" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A29" s="12">
         <v>2037</v>
       </c>
@@ -28809,7 +28806,7 @@
         <v>14.612648421143</v>
       </c>
     </row>
-    <row r="30" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="30" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A30" s="12">
         <v>2038</v>
       </c>
@@ -28846,7 +28843,7 @@
         <v>14.612648421143</v>
       </c>
     </row>
-    <row r="31" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="31" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A31" s="12">
         <v>2039</v>
       </c>
@@ -28883,7 +28880,7 @@
         <v>14.612648421143</v>
       </c>
     </row>
-    <row r="32" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="32" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A32" s="12">
         <v>2040</v>
       </c>
@@ -28920,7 +28917,7 @@
         <v>14.612648421143</v>
       </c>
     </row>
-    <row r="33" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="33" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A33" s="12">
         <v>2041</v>
       </c>
@@ -28957,7 +28954,7 @@
         <v>14.612648421143</v>
       </c>
     </row>
-    <row r="34" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="34" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A34" s="12">
         <v>2042</v>
       </c>
@@ -28994,7 +28991,7 @@
         <v>14.612648421143</v>
       </c>
     </row>
-    <row r="35" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="35" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A35" s="12">
         <v>2043</v>
       </c>
@@ -29031,7 +29028,7 @@
         <v>14.612648421143</v>
       </c>
     </row>
-    <row r="36" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="36" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A36" s="12">
         <v>2044</v>
       </c>
@@ -29068,7 +29065,7 @@
         <v>14.612648421143</v>
       </c>
     </row>
-    <row r="37" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="37" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A37" s="12">
         <v>2045</v>
       </c>
@@ -29105,7 +29102,7 @@
         <v>14.612648421143</v>
       </c>
     </row>
-    <row r="38" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="38" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A38" s="12">
         <v>2046</v>
       </c>
@@ -29142,7 +29139,7 @@
         <v>14.612648421143</v>
       </c>
     </row>
-    <row r="39" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="39" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A39" s="12">
         <v>2047</v>
       </c>
@@ -29179,7 +29176,7 @@
         <v>14.612648421143</v>
       </c>
     </row>
-    <row r="40" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="40" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A40" s="12">
         <v>2048</v>
       </c>
@@ -29216,7 +29213,7 @@
         <v>14.612648421143</v>
       </c>
     </row>
-    <row r="41" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="41" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A41" s="12">
         <v>2049</v>
       </c>
@@ -29253,7 +29250,7 @@
         <v>14.612648421143</v>
       </c>
     </row>
-    <row r="42" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="42" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A42" s="12">
         <v>2050</v>
       </c>
@@ -29290,7 +29287,7 @@
         <v>14.612648421143</v>
       </c>
     </row>
-    <row r="44" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="44" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A44" s="12">
         <v>2020</v>
       </c>
@@ -29319,7 +29316,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="45" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="45" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A45" s="12">
         <v>2050</v>
       </c>
@@ -29371,19 +29368,19 @@
       <selection activeCell="G34" sqref="G34"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.55000000000000004"/>
+  <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
   <cols>
     <col min="2" max="3" width="13" customWidth="1"/>
-    <col min="4" max="4" width="12.33203125" customWidth="1"/>
-    <col min="5" max="5" width="11.33203125" customWidth="1"/>
+    <col min="4" max="4" width="12.375" customWidth="1"/>
+    <col min="5" max="5" width="11.375" customWidth="1"/>
     <col min="6" max="6" width="11.5" customWidth="1"/>
-    <col min="7" max="7" width="10.58203125" customWidth="1"/>
-    <col min="8" max="8" width="11.58203125" customWidth="1"/>
-    <col min="9" max="9" width="10.58203125" customWidth="1"/>
-    <col min="10" max="11" width="12.33203125" customWidth="1"/>
+    <col min="7" max="7" width="10.625" customWidth="1"/>
+    <col min="8" max="8" width="11.625" customWidth="1"/>
+    <col min="9" max="9" width="10.625" customWidth="1"/>
+    <col min="10" max="11" width="12.375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" s="17" customFormat="1" ht="36" x14ac:dyDescent="0.55000000000000004">
+    <row r="1" spans="1:11" s="17" customFormat="1" ht="37.5" x14ac:dyDescent="0.4">
       <c r="A1" s="15" t="s">
         <v>29</v>
       </c>
@@ -29418,7 +29415,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.55000000000000004">
+    <row r="2" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A2" s="12">
         <v>2010</v>
       </c>
@@ -29463,7 +29460,7 @@
         <v>11.416995000000007</v>
       </c>
     </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.55000000000000004">
+    <row r="3" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A3" s="12">
         <v>2011</v>
       </c>
@@ -29508,7 +29505,7 @@
         <v>11.260452000000013</v>
       </c>
     </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.55000000000000004">
+    <row r="4" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A4" s="12">
         <v>2012</v>
       </c>
@@ -29553,7 +29550,7 @@
         <v>11.086868000000003</v>
       </c>
     </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.55000000000000004">
+    <row r="5" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A5" s="12">
         <v>2013</v>
       </c>
@@ -29598,7 +29595,7 @@
         <v>11.112475000000007</v>
       </c>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.55000000000000004">
+    <row r="6" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A6" s="12">
         <v>2014</v>
       </c>
@@ -29643,7 +29640,7 @@
         <v>10.80704000000002</v>
       </c>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.55000000000000004">
+    <row r="7" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A7" s="12">
         <v>2015</v>
       </c>
@@ -29688,7 +29685,7 @@
         <v>10.552321000000008</v>
       </c>
     </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.55000000000000004">
+    <row r="8" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A8" s="12">
         <v>2016</v>
       </c>
@@ -29733,7 +29730,7 @@
         <v>10.399278000000006</v>
       </c>
     </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.55000000000000004">
+    <row r="9" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A9" s="12">
         <v>2017</v>
       </c>
@@ -29778,7 +29775,7 @@
         <v>10.494455999999987</v>
       </c>
     </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.55000000000000004">
+    <row r="10" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A10" s="12">
         <v>2018</v>
       </c>
@@ -29823,7 +29820,7 @@
         <v>10.330227000000001</v>
       </c>
     </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.55000000000000004">
+    <row r="11" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A11" s="12">
         <v>2019</v>
       </c>
@@ -29868,7 +29865,7 @@
         <v>10.083009000000009</v>
       </c>
     </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.55000000000000004">
+    <row r="12" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A12" s="12">
         <v>2020</v>
       </c>
@@ -29913,7 +29910,7 @@
         <v>9.5523819999999962</v>
       </c>
     </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.55000000000000004">
+    <row r="13" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A13" s="12">
         <v>2021</v>
       </c>
@@ -29958,7 +29955,7 @@
         <v>9.5986961616895297</v>
       </c>
     </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.55000000000000004">
+    <row r="14" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A14" s="12">
         <v>2022</v>
       </c>
@@ -30003,7 +30000,7 @@
         <v>9.6450366324922765</v>
       </c>
     </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.55000000000000004">
+    <row r="15" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A15" s="12">
         <v>2023</v>
       </c>
@@ -30048,7 +30045,7 @@
         <v>9.6914085992835464</v>
       </c>
     </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.55000000000000004">
+    <row r="16" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A16" s="12">
         <v>2024</v>
       </c>
@@ -30093,7 +30090,7 @@
         <v>9.7378173400440211</v>
       </c>
     </row>
-    <row r="17" spans="1:11" x14ac:dyDescent="0.55000000000000004">
+    <row r="17" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A17" s="12">
         <v>2025</v>
       </c>
@@ -30138,7 +30135,7 @@
         <v>9.7842682419196301</v>
       </c>
     </row>
-    <row r="18" spans="1:11" x14ac:dyDescent="0.55000000000000004">
+    <row r="18" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A18" s="12">
         <v>2026</v>
       </c>
@@ -30183,7 +30180,7 @@
         <v>9.8269219321485988</v>
       </c>
     </row>
-    <row r="19" spans="1:11" x14ac:dyDescent="0.55000000000000004">
+    <row r="19" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A19" s="12">
         <v>2027</v>
       </c>
@@ -30228,7 +30225,7 @@
         <v>9.8695695787243718</v>
       </c>
     </row>
-    <row r="20" spans="1:11" x14ac:dyDescent="0.55000000000000004">
+    <row r="20" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A20" s="12">
         <v>2028</v>
       </c>
@@ -30273,7 +30270,7 @@
         <v>9.9122160751249968</v>
       </c>
     </row>
-    <row r="21" spans="1:11" x14ac:dyDescent="0.55000000000000004">
+    <row r="21" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A21" s="12">
         <v>2029</v>
       </c>
@@ -30318,7 +30315,7 @@
         <v>9.9548663556086865</v>
       </c>
     </row>
-    <row r="22" spans="1:11" x14ac:dyDescent="0.55000000000000004">
+    <row r="22" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A22" s="12">
         <v>2030</v>
       </c>
@@ -30363,7 +30360,7 @@
         <v>9.997525464359331</v>
       </c>
     </row>
-    <row r="23" spans="1:11" x14ac:dyDescent="0.55000000000000004">
+    <row r="23" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A23" s="12">
         <v>2031</v>
       </c>
@@ -30408,7 +30405,7 @@
         <v>10.033989422756109</v>
       </c>
     </row>
-    <row r="24" spans="1:11" x14ac:dyDescent="0.55000000000000004">
+    <row r="24" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A24" s="12">
         <v>2032</v>
       </c>
@@ -30453,7 +30450,7 @@
         <v>10.070377701184796</v>
       </c>
     </row>
-    <row r="25" spans="1:11" x14ac:dyDescent="0.55000000000000004">
+    <row r="25" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A25" s="12">
         <v>2033</v>
       </c>
@@ -30498,7 +30495,7 @@
         <v>10.106694049920808</v>
       </c>
     </row>
-    <row r="26" spans="1:11" x14ac:dyDescent="0.55000000000000004">
+    <row r="26" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A26" s="12">
         <v>2034</v>
       </c>
@@ -30543,7 +30540,7 @@
         <v>10.142942270848877</v>
       </c>
     </row>
-    <row r="27" spans="1:11" x14ac:dyDescent="0.55000000000000004">
+    <row r="27" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A27" s="12">
         <v>2035</v>
       </c>
@@ -30588,7 +30585,7 @@
         <v>10.179126181900726</v>
       </c>
     </row>
-    <row r="28" spans="1:11" x14ac:dyDescent="0.55000000000000004">
+    <row r="28" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A28" s="12">
         <v>2036</v>
       </c>
@@ -30633,7 +30630,7 @@
         <v>10.2099594859714</v>
       </c>
     </row>
-    <row r="29" spans="1:11" x14ac:dyDescent="0.55000000000000004">
+    <row r="29" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A29" s="12">
         <v>2037</v>
       </c>
@@ -30678,7 +30675,7 @@
         <v>10.240710270921246</v>
       </c>
     </row>
-    <row r="30" spans="1:11" x14ac:dyDescent="0.55000000000000004">
+    <row r="30" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A30" s="12">
         <v>2038</v>
       </c>
@@ -30723,7 +30720,7 @@
         <v>10.271382159195097</v>
       </c>
     </row>
-    <row r="31" spans="1:11" x14ac:dyDescent="0.55000000000000004">
+    <row r="31" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A31" s="12">
         <v>2039</v>
       </c>
@@ -30768,7 +30765,7 @@
         <v>10.301978849391517</v>
       </c>
     </row>
-    <row r="32" spans="1:11" x14ac:dyDescent="0.55000000000000004">
+    <row r="32" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A32" s="12">
         <v>2040</v>
       </c>
@@ -30813,7 +30810,7 @@
         <v>10.332503985042349</v>
       </c>
     </row>
-    <row r="33" spans="1:11" x14ac:dyDescent="0.55000000000000004">
+    <row r="33" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A33" s="12">
         <v>2041</v>
       </c>
@@ -30858,7 +30855,7 @@
         <v>10.368583285046807</v>
       </c>
     </row>
-    <row r="34" spans="1:11" x14ac:dyDescent="0.55000000000000004">
+    <row r="34" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A34" s="12">
         <v>2042</v>
       </c>
@@ -30903,7 +30900,7 @@
         <v>10.404578184582055</v>
       </c>
     </row>
-    <row r="35" spans="1:11" x14ac:dyDescent="0.55000000000000004">
+    <row r="35" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A35" s="12">
         <v>2043</v>
       </c>
@@ -30948,7 +30945,7 @@
         <v>10.440491485253199</v>
       </c>
     </row>
-    <row r="36" spans="1:11" x14ac:dyDescent="0.55000000000000004">
+    <row r="36" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A36" s="12">
         <v>2044</v>
       </c>
@@ -30993,7 +30990,7 @@
         <v>10.476326019352115</v>
       </c>
     </row>
-    <row r="37" spans="1:11" x14ac:dyDescent="0.55000000000000004">
+    <row r="37" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A37" s="12">
         <v>2045</v>
       </c>
@@ -31038,7 +31035,7 @@
         <v>10.512084640842017</v>
       </c>
     </row>
-    <row r="38" spans="1:11" x14ac:dyDescent="0.55000000000000004">
+    <row r="38" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A38" s="12">
         <v>2046</v>
       </c>
@@ -31083,7 +31080,7 @@
         <v>10.546310430536824</v>
       </c>
     </row>
-    <row r="39" spans="1:11" x14ac:dyDescent="0.55000000000000004">
+    <row r="39" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A39" s="12">
         <v>2047</v>
       </c>
@@ -31128,7 +31125,7 @@
         <v>10.580455582816271</v>
       </c>
     </row>
-    <row r="40" spans="1:11" x14ac:dyDescent="0.55000000000000004">
+    <row r="40" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A40" s="12">
         <v>2048</v>
       </c>
@@ -31173,7 +31170,7 @@
         <v>10.61452282641857</v>
       </c>
     </row>
-    <row r="41" spans="1:11" x14ac:dyDescent="0.55000000000000004">
+    <row r="41" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A41" s="12">
         <v>2049</v>
       </c>
@@ -31218,7 +31215,7 @@
         <v>10.648514899309301</v>
       </c>
     </row>
-    <row r="42" spans="1:11" x14ac:dyDescent="0.55000000000000004">
+    <row r="42" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A42" s="12">
         <v>2050</v>
       </c>
@@ -31277,12 +31274,12 @@
       <selection activeCell="B10" sqref="B10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10" defaultRowHeight="18" x14ac:dyDescent="0.55000000000000004"/>
+  <sheetFormatPr defaultColWidth="10" defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
   <cols>
     <col min="1" max="16384" width="10" style="12"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A1" s="12" t="s">
         <v>29</v>
       </c>
@@ -31290,7 +31287,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A2" s="12">
         <v>2010</v>
       </c>
@@ -31298,7 +31295,7 @@
         <v>0.90509542880924898</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A3" s="12">
         <v>2011</v>
       </c>
@@ -31306,7 +31303,7 @@
         <v>0.90634179687697403</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A4" s="12">
         <v>2012</v>
       </c>
@@ -31314,7 +31311,7 @@
         <v>0.90931390033078996</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A5" s="12">
         <v>2013</v>
       </c>
@@ -31322,7 +31319,7 @@
         <v>0.90579011844059698</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A6" s="12">
         <v>2014</v>
       </c>
@@ -31330,7 +31327,7 @@
         <v>0.91084416308302496</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A7" s="12">
         <v>2015</v>
       </c>
@@ -31338,7 +31335,7 @@
         <v>0.911547003404931</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="8" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A8" s="12">
         <v>2016</v>
       </c>
@@ -31346,7 +31343,7 @@
         <v>0.897322110943927</v>
       </c>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="9" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A9" s="12">
         <v>2017</v>
       </c>
@@ -31354,7 +31351,7 @@
         <v>0.89979408323514198</v>
       </c>
     </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="10" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A10" s="12">
         <v>2018</v>
       </c>
@@ -31362,7 +31359,7 @@
         <v>0.89832727188289996</v>
       </c>
     </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="11" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A11" s="12">
         <v>2019</v>
       </c>
@@ -31370,7 +31367,7 @@
         <v>0.898813117102369</v>
       </c>
     </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="12" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A12" s="12">
         <v>2020</v>
       </c>
@@ -31394,12 +31391,12 @@
       <selection activeCell="L40" sqref="L40"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10" defaultRowHeight="18" x14ac:dyDescent="0.55000000000000004"/>
+  <sheetFormatPr defaultColWidth="10" defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
   <cols>
     <col min="1" max="16384" width="10" style="12"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.55000000000000004">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.4">
       <c r="B1" s="178" t="s">
         <v>43</v>
       </c>
@@ -31415,7 +31412,7 @@
       <c r="J1" s="178"/>
       <c r="K1" s="178"/>
     </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.55000000000000004">
+    <row r="2" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A2" s="12" t="s">
         <v>29</v>
       </c>
@@ -31450,7 +31447,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.55000000000000004">
+    <row r="3" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A3" s="12">
         <v>2010</v>
       </c>
@@ -31485,7 +31482,7 @@
         <v>0.355815055496294</v>
       </c>
     </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.55000000000000004">
+    <row r="4" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A4" s="12">
         <v>2011</v>
       </c>
@@ -31520,7 +31517,7 @@
         <v>0.33721278408655597</v>
       </c>
     </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.55000000000000004">
+    <row r="5" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A5" s="12">
         <v>2012</v>
       </c>
@@ -31555,7 +31552,7 @@
         <v>0.342300080355736</v>
       </c>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.55000000000000004">
+    <row r="6" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A6" s="12">
         <v>2013</v>
       </c>
@@ -31590,7 +31587,7 @@
         <v>0.34401954994486</v>
       </c>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.55000000000000004">
+    <row r="7" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A7" s="12">
         <v>2014</v>
       </c>
@@ -31625,7 +31622,7 @@
         <v>0.34832237989362602</v>
       </c>
     </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.55000000000000004">
+    <row r="8" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A8" s="12">
         <v>2015</v>
       </c>
@@ -31660,7 +31657,7 @@
         <v>0.35055897168193201</v>
       </c>
     </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.55000000000000004">
+    <row r="9" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A9" s="12">
         <v>2016</v>
       </c>
@@ -31695,7 +31692,7 @@
         <v>0.356268710652069</v>
       </c>
     </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.55000000000000004">
+    <row r="10" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A10" s="12">
         <v>2017</v>
       </c>
@@ -31730,7 +31727,7 @@
         <v>0.35891569789875399</v>
       </c>
     </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.55000000000000004">
+    <row r="11" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A11" s="12">
         <v>2018</v>
       </c>
@@ -31765,7 +31762,7 @@
         <v>0.35805873972690599</v>
       </c>
     </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.55000000000000004">
+    <row r="12" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A12" s="12">
         <v>2019</v>
       </c>
@@ -31800,7 +31797,7 @@
         <v>0.36171762838518701</v>
       </c>
     </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.55000000000000004">
+    <row r="13" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A13" s="12">
         <v>2020</v>
       </c>
@@ -31835,7 +31832,7 @@
         <v>0.36403858518447701</v>
       </c>
     </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.55000000000000004">
+    <row r="14" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A14" s="12">
         <v>2021</v>
       </c>
@@ -31880,7 +31877,7 @@
         <v>0.36390396567832778</v>
       </c>
     </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.55000000000000004">
+    <row r="15" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A15" s="12">
         <v>2022</v>
       </c>
@@ -31925,7 +31922,7 @@
         <v>0.36376934617217854</v>
       </c>
     </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.55000000000000004">
+    <row r="16" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A16" s="12">
         <v>2023</v>
       </c>
@@ -31970,7 +31967,7 @@
         <v>0.36363472666602931</v>
       </c>
     </row>
-    <row r="17" spans="1:11" x14ac:dyDescent="0.55000000000000004">
+    <row r="17" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A17" s="12">
         <v>2024</v>
       </c>
@@ -32015,7 +32012,7 @@
         <v>0.36350010715988007</v>
       </c>
     </row>
-    <row r="18" spans="1:11" x14ac:dyDescent="0.55000000000000004">
+    <row r="18" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A18" s="12">
         <v>2025</v>
       </c>
@@ -32060,7 +32057,7 @@
         <v>0.36336548765373083</v>
       </c>
     </row>
-    <row r="19" spans="1:11" x14ac:dyDescent="0.55000000000000004">
+    <row r="19" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A19" s="12">
         <v>2026</v>
       </c>
@@ -32105,7 +32102,7 @@
         <v>0.3632308681475816</v>
       </c>
     </row>
-    <row r="20" spans="1:11" x14ac:dyDescent="0.55000000000000004">
+    <row r="20" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A20" s="12">
         <v>2027</v>
       </c>
@@ -32150,7 +32147,7 @@
         <v>0.36309624864143236</v>
       </c>
     </row>
-    <row r="21" spans="1:11" x14ac:dyDescent="0.55000000000000004">
+    <row r="21" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A21" s="12">
         <v>2028</v>
       </c>
@@ -32195,7 +32192,7 @@
         <v>0.36296162913528313</v>
       </c>
     </row>
-    <row r="22" spans="1:11" x14ac:dyDescent="0.55000000000000004">
+    <row r="22" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A22" s="12">
         <v>2029</v>
       </c>
@@ -32240,7 +32237,7 @@
         <v>0.36282700962913389</v>
       </c>
     </row>
-    <row r="23" spans="1:11" x14ac:dyDescent="0.55000000000000004">
+    <row r="23" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A23" s="12">
         <v>2030</v>
       </c>
@@ -32285,7 +32282,7 @@
         <v>0.36269239012298465</v>
       </c>
     </row>
-    <row r="24" spans="1:11" x14ac:dyDescent="0.55000000000000004">
+    <row r="24" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A24" s="12">
         <v>2031</v>
       </c>
@@ -32330,7 +32327,7 @@
         <v>0.36255777061683542</v>
       </c>
     </row>
-    <row r="25" spans="1:11" x14ac:dyDescent="0.55000000000000004">
+    <row r="25" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A25" s="12">
         <v>2032</v>
       </c>
@@ -32375,7 +32372,7 @@
         <v>0.36242315111068618</v>
       </c>
     </row>
-    <row r="26" spans="1:11" x14ac:dyDescent="0.55000000000000004">
+    <row r="26" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A26" s="12">
         <v>2033</v>
       </c>
@@ -32420,7 +32417,7 @@
         <v>0.362288531604537</v>
       </c>
     </row>
-    <row r="27" spans="1:11" x14ac:dyDescent="0.55000000000000004">
+    <row r="27" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A27" s="12">
         <v>2034</v>
       </c>
@@ -32465,7 +32462,7 @@
         <v>0.36215391209838776</v>
       </c>
     </row>
-    <row r="28" spans="1:11" x14ac:dyDescent="0.55000000000000004">
+    <row r="28" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A28" s="12">
         <v>2035</v>
       </c>
@@ -32510,7 +32507,7 @@
         <v>0.36201929259223853</v>
       </c>
     </row>
-    <row r="29" spans="1:11" x14ac:dyDescent="0.55000000000000004">
+    <row r="29" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A29" s="12">
         <v>2036</v>
       </c>
@@ -32555,7 +32552,7 @@
         <v>0.36188467308608929</v>
       </c>
     </row>
-    <row r="30" spans="1:11" x14ac:dyDescent="0.55000000000000004">
+    <row r="30" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A30" s="12">
         <v>2037</v>
       </c>
@@ -32600,7 +32597,7 @@
         <v>0.36175005357994006</v>
       </c>
     </row>
-    <row r="31" spans="1:11" x14ac:dyDescent="0.55000000000000004">
+    <row r="31" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A31" s="12">
         <v>2038</v>
       </c>
@@ -32645,7 +32642,7 @@
         <v>0.36161543407379082</v>
       </c>
     </row>
-    <row r="32" spans="1:11" x14ac:dyDescent="0.55000000000000004">
+    <row r="32" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A32" s="12">
         <v>2039</v>
       </c>
@@ -32690,7 +32687,7 @@
         <v>0.36148081456764158</v>
       </c>
     </row>
-    <row r="33" spans="1:11" x14ac:dyDescent="0.55000000000000004">
+    <row r="33" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A33" s="12">
         <v>2040</v>
       </c>
@@ -32735,7 +32732,7 @@
         <v>0.36134619506149235</v>
       </c>
     </row>
-    <row r="34" spans="1:11" x14ac:dyDescent="0.55000000000000004">
+    <row r="34" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A34" s="12">
         <v>2041</v>
       </c>
@@ -32780,7 +32777,7 @@
         <v>0.36121157555534311</v>
       </c>
     </row>
-    <row r="35" spans="1:11" x14ac:dyDescent="0.55000000000000004">
+    <row r="35" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A35" s="12">
         <v>2042</v>
       </c>
@@ -32825,7 +32822,7 @@
         <v>0.36107695604919388</v>
       </c>
     </row>
-    <row r="36" spans="1:11" x14ac:dyDescent="0.55000000000000004">
+    <row r="36" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A36" s="12">
         <v>2043</v>
       </c>
@@ -32870,7 +32867,7 @@
         <v>0.36094233654304464</v>
       </c>
     </row>
-    <row r="37" spans="1:11" x14ac:dyDescent="0.55000000000000004">
+    <row r="37" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A37" s="12">
         <v>2044</v>
       </c>
@@ -32915,7 +32912,7 @@
         <v>0.3608077170368954</v>
       </c>
     </row>
-    <row r="38" spans="1:11" x14ac:dyDescent="0.55000000000000004">
+    <row r="38" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A38" s="12">
         <v>2045</v>
       </c>
@@ -32960,7 +32957,7 @@
         <v>0.36067309753074617</v>
       </c>
     </row>
-    <row r="39" spans="1:11" x14ac:dyDescent="0.55000000000000004">
+    <row r="39" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A39" s="12">
         <v>2046</v>
       </c>
@@ -33005,7 +33002,7 @@
         <v>0.36053847802459693</v>
       </c>
     </row>
-    <row r="40" spans="1:11" x14ac:dyDescent="0.55000000000000004">
+    <row r="40" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A40" s="12">
         <v>2047</v>
       </c>
@@ -33050,7 +33047,7 @@
         <v>0.3604038585184477</v>
       </c>
     </row>
-    <row r="41" spans="1:11" x14ac:dyDescent="0.55000000000000004">
+    <row r="41" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A41" s="12">
         <v>2048</v>
       </c>
@@ -33095,7 +33092,7 @@
         <v>0.36026923901229846</v>
       </c>
     </row>
-    <row r="42" spans="1:11" x14ac:dyDescent="0.55000000000000004">
+    <row r="42" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A42" s="12">
         <v>2049</v>
       </c>
@@ -33140,7 +33137,7 @@
         <v>0.36013461950614922</v>
       </c>
     </row>
-    <row r="43" spans="1:11" x14ac:dyDescent="0.55000000000000004">
+    <row r="43" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A43" s="12">
         <v>2050</v>
       </c>
@@ -33185,7 +33182,7 @@
         <v>0.36</v>
       </c>
     </row>
-    <row r="45" spans="1:11" x14ac:dyDescent="0.55000000000000004">
+    <row r="45" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A45" s="12">
         <v>2020</v>
       </c>
@@ -33230,7 +33227,7 @@
         <v>0.36403858518447701</v>
       </c>
     </row>
-    <row r="46" spans="1:11" x14ac:dyDescent="0.55000000000000004">
+    <row r="46" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A46" s="12">
         <v>2050</v>
       </c>
@@ -33294,14 +33291,14 @@
       <selection activeCell="L40" sqref="L40"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10" defaultRowHeight="18" x14ac:dyDescent="0.55000000000000004"/>
+  <sheetFormatPr defaultColWidth="10" defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
   <cols>
     <col min="1" max="1" width="10" style="12"/>
-    <col min="2" max="2" width="13.33203125" style="12" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="13.375" style="12" bestFit="1" customWidth="1"/>
     <col min="3" max="16384" width="10" style="12"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.55000000000000004">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.4">
       <c r="B1" s="178" t="s">
         <v>45</v>
       </c>
@@ -33317,7 +33314,7 @@
       <c r="J1" s="178"/>
       <c r="K1" s="178"/>
     </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.55000000000000004">
+    <row r="2" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A2" s="12" t="s">
         <v>29</v>
       </c>
@@ -33352,7 +33349,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.55000000000000004">
+    <row r="3" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A3" s="12">
         <v>2010</v>
       </c>
@@ -33387,7 +33384,7 @@
         <v>1.9948215248407401E-2</v>
       </c>
     </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.55000000000000004">
+    <row r="4" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A4" s="12">
         <v>2011</v>
       </c>
@@ -33422,7 +33419,7 @@
         <v>1.99022710538319E-2</v>
       </c>
     </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.55000000000000004">
+    <row r="5" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A5" s="12">
         <v>2012</v>
       </c>
@@ -33457,7 +33454,7 @@
         <v>2.0018386158406599E-2</v>
       </c>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.55000000000000004">
+    <row r="6" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A6" s="12">
         <v>2013</v>
       </c>
@@ -33492,7 +33489,7 @@
         <v>2.0305912796869299E-2</v>
       </c>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.55000000000000004">
+    <row r="7" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A7" s="12">
         <v>2014</v>
       </c>
@@ -33527,7 +33524,7 @@
         <v>2.0739314865951899E-2</v>
       </c>
     </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.55000000000000004">
+    <row r="8" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A8" s="12">
         <v>2015</v>
       </c>
@@ -33562,7 +33559,7 @@
         <v>2.0721920310650101E-2</v>
       </c>
     </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.55000000000000004">
+    <row r="9" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A9" s="12">
         <v>2016</v>
       </c>
@@ -33597,7 +33594,7 @@
         <v>2.0939502430685202E-2</v>
       </c>
     </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.55000000000000004">
+    <row r="10" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A10" s="12">
         <v>2017</v>
       </c>
@@ -33632,7 +33629,7 @@
         <v>2.11142185141413E-2</v>
       </c>
     </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.55000000000000004">
+    <row r="11" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A11" s="12">
         <v>2018</v>
       </c>
@@ -33667,7 +33664,7 @@
         <v>2.1087352361621702E-2</v>
       </c>
     </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.55000000000000004">
+    <row r="12" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A12" s="12">
         <v>2019</v>
       </c>
@@ -33702,7 +33699,7 @@
         <v>2.15264593615252E-2</v>
       </c>
     </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.55000000000000004">
+    <row r="13" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A13" s="12">
         <v>2020</v>
       </c>
@@ -33737,7 +33734,7 @@
         <v>2.3819620310036701E-2</v>
       </c>
     </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.55000000000000004">
+    <row r="14" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A14" s="12">
         <v>2021</v>
       </c>
@@ -33782,7 +33779,7 @@
         <v>2.3692299633035485E-2</v>
       </c>
     </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.55000000000000004">
+    <row r="15" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A15" s="12">
         <v>2022</v>
       </c>
@@ -33827,7 +33824,7 @@
         <v>2.3564978956034266E-2</v>
       </c>
     </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.55000000000000004">
+    <row r="16" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A16" s="12">
         <v>2023</v>
       </c>
@@ -33872,7 +33869,7 @@
         <v>2.3437658279033047E-2</v>
       </c>
     </row>
-    <row r="17" spans="1:11" x14ac:dyDescent="0.55000000000000004">
+    <row r="17" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A17" s="12">
         <v>2024</v>
       </c>
@@ -33917,7 +33914,7 @@
         <v>2.3310337602031828E-2</v>
       </c>
     </row>
-    <row r="18" spans="1:11" x14ac:dyDescent="0.55000000000000004">
+    <row r="18" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A18" s="12">
         <v>2025</v>
       </c>
@@ -33962,7 +33959,7 @@
         <v>2.3183016925030608E-2</v>
       </c>
     </row>
-    <row r="19" spans="1:11" x14ac:dyDescent="0.55000000000000004">
+    <row r="19" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A19" s="12">
         <v>2026</v>
       </c>
@@ -34007,7 +34004,7 @@
         <v>2.3055696248029389E-2</v>
       </c>
     </row>
-    <row r="20" spans="1:11" x14ac:dyDescent="0.55000000000000004">
+    <row r="20" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A20" s="12">
         <v>2027</v>
       </c>
@@ -34052,7 +34049,7 @@
         <v>2.292837557102817E-2</v>
       </c>
     </row>
-    <row r="21" spans="1:11" x14ac:dyDescent="0.55000000000000004">
+    <row r="21" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A21" s="12">
         <v>2028</v>
       </c>
@@ -34097,7 +34094,7 @@
         <v>2.2801054894026951E-2</v>
       </c>
     </row>
-    <row r="22" spans="1:11" x14ac:dyDescent="0.55000000000000004">
+    <row r="22" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A22" s="12">
         <v>2029</v>
       </c>
@@ -34142,7 +34139,7 @@
         <v>2.2673734217025676E-2</v>
       </c>
     </row>
-    <row r="23" spans="1:11" x14ac:dyDescent="0.55000000000000004">
+    <row r="23" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A23" s="12">
         <v>2030</v>
       </c>
@@ -34187,7 +34184,7 @@
         <v>2.2546413540024457E-2</v>
       </c>
     </row>
-    <row r="24" spans="1:11" x14ac:dyDescent="0.55000000000000004">
+    <row r="24" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A24" s="12">
         <v>2031</v>
       </c>
@@ -34232,7 +34229,7 @@
         <v>2.2419092863023238E-2</v>
       </c>
     </row>
-    <row r="25" spans="1:11" x14ac:dyDescent="0.55000000000000004">
+    <row r="25" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A25" s="12">
         <v>2032</v>
       </c>
@@ -34277,7 +34274,7 @@
         <v>2.2291772186022019E-2</v>
       </c>
     </row>
-    <row r="26" spans="1:11" x14ac:dyDescent="0.55000000000000004">
+    <row r="26" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A26" s="12">
         <v>2033</v>
       </c>
@@ -34322,7 +34319,7 @@
         <v>2.2164451509020799E-2</v>
       </c>
     </row>
-    <row r="27" spans="1:11" x14ac:dyDescent="0.55000000000000004">
+    <row r="27" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A27" s="12">
         <v>2034</v>
       </c>
@@ -34367,7 +34364,7 @@
         <v>2.203713083201958E-2</v>
       </c>
     </row>
-    <row r="28" spans="1:11" x14ac:dyDescent="0.55000000000000004">
+    <row r="28" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A28" s="12">
         <v>2035</v>
       </c>
@@ -34412,7 +34409,7 @@
         <v>2.1909810155018361E-2</v>
       </c>
     </row>
-    <row r="29" spans="1:11" x14ac:dyDescent="0.55000000000000004">
+    <row r="29" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A29" s="12">
         <v>2036</v>
       </c>
@@ -34457,7 +34454,7 @@
         <v>2.1782489478017142E-2</v>
       </c>
     </row>
-    <row r="30" spans="1:11" x14ac:dyDescent="0.55000000000000004">
+    <row r="30" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A30" s="12">
         <v>2037</v>
       </c>
@@ -34502,7 +34499,7 @@
         <v>2.1655168801015923E-2</v>
       </c>
     </row>
-    <row r="31" spans="1:11" x14ac:dyDescent="0.55000000000000004">
+    <row r="31" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A31" s="12">
         <v>2038</v>
       </c>
@@ -34547,7 +34544,7 @@
         <v>2.1527848124014703E-2</v>
       </c>
     </row>
-    <row r="32" spans="1:11" x14ac:dyDescent="0.55000000000000004">
+    <row r="32" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A32" s="12">
         <v>2039</v>
       </c>
@@ -34592,7 +34589,7 @@
         <v>2.1400527447013484E-2</v>
       </c>
     </row>
-    <row r="33" spans="1:11" x14ac:dyDescent="0.55000000000000004">
+    <row r="33" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A33" s="12">
         <v>2040</v>
       </c>
@@ -34637,7 +34634,7 @@
         <v>2.1273206770012265E-2</v>
       </c>
     </row>
-    <row r="34" spans="1:11" x14ac:dyDescent="0.55000000000000004">
+    <row r="34" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A34" s="12">
         <v>2041</v>
       </c>
@@ -34682,7 +34679,7 @@
         <v>2.1145886093011046E-2</v>
       </c>
     </row>
-    <row r="35" spans="1:11" x14ac:dyDescent="0.55000000000000004">
+    <row r="35" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A35" s="12">
         <v>2042</v>
       </c>
@@ -34727,7 +34724,7 @@
         <v>2.1018565416009771E-2</v>
       </c>
     </row>
-    <row r="36" spans="1:11" x14ac:dyDescent="0.55000000000000004">
+    <row r="36" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A36" s="12">
         <v>2043</v>
       </c>
@@ -34772,7 +34769,7 @@
         <v>2.0891244739008552E-2</v>
       </c>
     </row>
-    <row r="37" spans="1:11" x14ac:dyDescent="0.55000000000000004">
+    <row r="37" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A37" s="12">
         <v>2044</v>
       </c>
@@ -34817,7 +34814,7 @@
         <v>2.0763924062007333E-2</v>
       </c>
     </row>
-    <row r="38" spans="1:11" x14ac:dyDescent="0.55000000000000004">
+    <row r="38" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A38" s="12">
         <v>2045</v>
       </c>
@@ -34862,7 +34859,7 @@
         <v>2.0636603385006114E-2</v>
       </c>
     </row>
-    <row r="39" spans="1:11" x14ac:dyDescent="0.55000000000000004">
+    <row r="39" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A39" s="12">
         <v>2046</v>
       </c>
@@ -34907,7 +34904,7 @@
         <v>2.0509282708004895E-2</v>
       </c>
     </row>
-    <row r="40" spans="1:11" x14ac:dyDescent="0.55000000000000004">
+    <row r="40" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A40" s="12">
         <v>2047</v>
       </c>
@@ -34952,7 +34949,7 @@
         <v>2.0381962031003675E-2</v>
       </c>
     </row>
-    <row r="41" spans="1:11" x14ac:dyDescent="0.55000000000000004">
+    <row r="41" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A41" s="12">
         <v>2048</v>
       </c>
@@ -34997,7 +34994,7 @@
         <v>2.0254641354002456E-2</v>
       </c>
     </row>
-    <row r="42" spans="1:11" x14ac:dyDescent="0.55000000000000004">
+    <row r="42" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A42" s="12">
         <v>2049</v>
       </c>
@@ -35042,7 +35039,7 @@
         <v>2.0127320677001237E-2</v>
       </c>
     </row>
-    <row r="43" spans="1:11" x14ac:dyDescent="0.55000000000000004">
+    <row r="43" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A43" s="12">
         <v>2050</v>
       </c>
@@ -35087,7 +35084,7 @@
         <v>2.0000000000000018E-2</v>
       </c>
     </row>
-    <row r="45" spans="1:11" x14ac:dyDescent="0.55000000000000004">
+    <row r="45" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A45" s="12">
         <v>2020</v>
       </c>
@@ -35132,7 +35129,7 @@
         <v>2.3819620310036701E-2</v>
       </c>
     </row>
-    <row r="46" spans="1:11" x14ac:dyDescent="0.55000000000000004">
+    <row r="46" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A46" s="12">
         <v>2050</v>
       </c>
@@ -35196,12 +35193,12 @@
       <selection activeCell="L40" sqref="L40"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10" defaultRowHeight="18" x14ac:dyDescent="0.55000000000000004"/>
+  <sheetFormatPr defaultColWidth="10" defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
   <cols>
     <col min="1" max="16384" width="10" style="12"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.55000000000000004">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.4">
       <c r="B1" s="178" t="s">
         <v>46</v>
       </c>
@@ -35217,7 +35214,7 @@
       <c r="J1" s="178"/>
       <c r="K1" s="178"/>
     </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.55000000000000004">
+    <row r="2" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A2" s="12" t="s">
         <v>29</v>
       </c>
@@ -35252,7 +35249,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.55000000000000004">
+    <row r="3" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A3" s="12">
         <v>2010</v>
       </c>
@@ -35287,7 +35284,7 @@
         <v>0.55732520516860795</v>
       </c>
     </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.55000000000000004">
+    <row r="4" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A4" s="12">
         <v>2011</v>
       </c>
@@ -35322,7 +35319,7 @@
         <v>0.55075772411194002</v>
       </c>
     </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.55000000000000004">
+    <row r="5" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A5" s="12">
         <v>2012</v>
       </c>
@@ -35357,7 +35354,7 @@
         <v>0.55859887852123102</v>
       </c>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.55000000000000004">
+    <row r="6" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A6" s="12">
         <v>2013</v>
       </c>
@@ -35392,7 +35389,7 @@
         <v>0.53255686585837703</v>
       </c>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.55000000000000004">
+    <row r="7" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A7" s="12">
         <v>2014</v>
       </c>
@@ -35427,7 +35424,7 @@
         <v>0.54431860366728002</v>
       </c>
     </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.55000000000000004">
+    <row r="8" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A8" s="12">
         <v>2015</v>
       </c>
@@ -35462,7 +35459,7 @@
         <v>0.54334958541660205</v>
       </c>
     </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.55000000000000004">
+    <row r="9" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A9" s="12">
         <v>2016</v>
       </c>
@@ -35497,7 +35494,7 @@
         <v>0.56257471947510895</v>
       </c>
     </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.55000000000000004">
+    <row r="10" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A10" s="12">
         <v>2017</v>
       </c>
@@ -35532,7 +35529,7 @@
         <v>0.55955856522163305</v>
       </c>
     </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.55000000000000004">
+    <row r="11" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A11" s="12">
         <v>2018</v>
       </c>
@@ -35567,7 +35564,7 @@
         <v>0.54606851341540696</v>
       </c>
     </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.55000000000000004">
+    <row r="12" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A12" s="12">
         <v>2019</v>
       </c>
@@ -35602,7 +35599,7 @@
         <v>0.55856731867259402</v>
       </c>
     </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.55000000000000004">
+    <row r="13" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A13" s="12">
         <v>2020</v>
       </c>
@@ -35637,7 +35634,7 @@
         <v>0.56936503676332895</v>
       </c>
     </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.55000000000000004">
+    <row r="14" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A14" s="12">
         <v>2021</v>
       </c>
@@ -35682,7 +35679,7 @@
         <v>0.56938620220455138</v>
       </c>
     </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.55000000000000004">
+    <row r="15" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A15" s="12">
         <v>2022</v>
       </c>
@@ -35727,7 +35724,7 @@
         <v>0.56940736764577371</v>
       </c>
     </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.55000000000000004">
+    <row r="16" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A16" s="12">
         <v>2023</v>
       </c>
@@ -35772,7 +35769,7 @@
         <v>0.56942853308699615</v>
       </c>
     </row>
-    <row r="17" spans="1:11" x14ac:dyDescent="0.55000000000000004">
+    <row r="17" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A17" s="12">
         <v>2024</v>
       </c>
@@ -35817,7 +35814,7 @@
         <v>0.56944969852821847</v>
       </c>
     </row>
-    <row r="18" spans="1:11" x14ac:dyDescent="0.55000000000000004">
+    <row r="18" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A18" s="12">
         <v>2025</v>
       </c>
@@ -35862,7 +35859,7 @@
         <v>0.5694708639694408</v>
       </c>
     </row>
-    <row r="19" spans="1:11" x14ac:dyDescent="0.55000000000000004">
+    <row r="19" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A19" s="12">
         <v>2026</v>
       </c>
@@ -35907,7 +35904,7 @@
         <v>0.56949202941066324</v>
       </c>
     </row>
-    <row r="20" spans="1:11" x14ac:dyDescent="0.55000000000000004">
+    <row r="20" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A20" s="12">
         <v>2027</v>
       </c>
@@ -35952,7 +35949,7 @@
         <v>0.56951319485188556</v>
       </c>
     </row>
-    <row r="21" spans="1:11" x14ac:dyDescent="0.55000000000000004">
+    <row r="21" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A21" s="12">
         <v>2028</v>
       </c>
@@ -35997,7 +35994,7 @@
         <v>0.569534360293108</v>
       </c>
     </row>
-    <row r="22" spans="1:11" x14ac:dyDescent="0.55000000000000004">
+    <row r="22" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A22" s="12">
         <v>2029</v>
       </c>
@@ -36042,7 +36039,7 @@
         <v>0.56955552573433033</v>
       </c>
     </row>
-    <row r="23" spans="1:11" x14ac:dyDescent="0.55000000000000004">
+    <row r="23" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A23" s="12">
         <v>2030</v>
       </c>
@@ -36087,7 +36084,7 @@
         <v>0.56957669117555265</v>
       </c>
     </row>
-    <row r="24" spans="1:11" x14ac:dyDescent="0.55000000000000004">
+    <row r="24" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A24" s="12">
         <v>2031</v>
       </c>
@@ -36132,7 +36129,7 @@
         <v>0.56959785661677509</v>
       </c>
     </row>
-    <row r="25" spans="1:11" x14ac:dyDescent="0.55000000000000004">
+    <row r="25" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A25" s="12">
         <v>2032</v>
       </c>
@@ -36177,7 +36174,7 @@
         <v>0.56961902205799742</v>
       </c>
     </row>
-    <row r="26" spans="1:11" x14ac:dyDescent="0.55000000000000004">
+    <row r="26" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A26" s="12">
         <v>2033</v>
       </c>
@@ -36222,7 +36219,7 @@
         <v>0.56964018749921974</v>
       </c>
     </row>
-    <row r="27" spans="1:11" x14ac:dyDescent="0.55000000000000004">
+    <row r="27" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A27" s="12">
         <v>2034</v>
       </c>
@@ -36267,7 +36264,7 @@
         <v>0.56966135294044218</v>
       </c>
     </row>
-    <row r="28" spans="1:11" x14ac:dyDescent="0.55000000000000004">
+    <row r="28" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A28" s="12">
         <v>2035</v>
       </c>
@@ -36312,7 +36309,7 @@
         <v>0.5696825183816645</v>
       </c>
     </row>
-    <row r="29" spans="1:11" x14ac:dyDescent="0.55000000000000004">
+    <row r="29" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A29" s="12">
         <v>2036</v>
       </c>
@@ -36357,7 +36354,7 @@
         <v>0.56970368382288694</v>
       </c>
     </row>
-    <row r="30" spans="1:11" x14ac:dyDescent="0.55000000000000004">
+    <row r="30" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A30" s="12">
         <v>2037</v>
       </c>
@@ -36402,7 +36399,7 @@
         <v>0.56972484926410927</v>
       </c>
     </row>
-    <row r="31" spans="1:11" x14ac:dyDescent="0.55000000000000004">
+    <row r="31" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A31" s="12">
         <v>2038</v>
       </c>
@@ -36447,7 +36444,7 @@
         <v>0.56974601470533159</v>
       </c>
     </row>
-    <row r="32" spans="1:11" x14ac:dyDescent="0.55000000000000004">
+    <row r="32" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A32" s="12">
         <v>2039</v>
       </c>
@@ -36492,7 +36489,7 @@
         <v>0.56976718014655403</v>
       </c>
     </row>
-    <row r="33" spans="1:11" x14ac:dyDescent="0.55000000000000004">
+    <row r="33" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A33" s="12">
         <v>2040</v>
       </c>
@@ -36537,7 +36534,7 @@
         <v>0.56978834558777636</v>
       </c>
     </row>
-    <row r="34" spans="1:11" x14ac:dyDescent="0.55000000000000004">
+    <row r="34" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A34" s="12">
         <v>2041</v>
       </c>
@@ -36582,7 +36579,7 @@
         <v>0.56980951102899868</v>
       </c>
     </row>
-    <row r="35" spans="1:11" x14ac:dyDescent="0.55000000000000004">
+    <row r="35" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A35" s="12">
         <v>2042</v>
       </c>
@@ -36627,7 +36624,7 @@
         <v>0.56983067647022112</v>
       </c>
     </row>
-    <row r="36" spans="1:11" x14ac:dyDescent="0.55000000000000004">
+    <row r="36" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A36" s="12">
         <v>2043</v>
       </c>
@@ -36672,7 +36669,7 @@
         <v>0.56985184191144345</v>
       </c>
     </row>
-    <row r="37" spans="1:11" x14ac:dyDescent="0.55000000000000004">
+    <row r="37" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A37" s="12">
         <v>2044</v>
       </c>
@@ -36717,7 +36714,7 @@
         <v>0.56987300735266588</v>
       </c>
     </row>
-    <row r="38" spans="1:11" x14ac:dyDescent="0.55000000000000004">
+    <row r="38" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A38" s="12">
         <v>2045</v>
       </c>
@@ -36762,7 +36759,7 @@
         <v>0.56989417279388821</v>
       </c>
     </row>
-    <row r="39" spans="1:11" x14ac:dyDescent="0.55000000000000004">
+    <row r="39" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A39" s="12">
         <v>2046</v>
       </c>
@@ -36807,7 +36804,7 @@
         <v>0.56991533823511054</v>
       </c>
     </row>
-    <row r="40" spans="1:11" x14ac:dyDescent="0.55000000000000004">
+    <row r="40" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A40" s="12">
         <v>2047</v>
       </c>
@@ -36852,7 +36849,7 @@
         <v>0.56993650367633297</v>
       </c>
     </row>
-    <row r="41" spans="1:11" x14ac:dyDescent="0.55000000000000004">
+    <row r="41" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A41" s="12">
         <v>2048</v>
       </c>
@@ -36897,7 +36894,7 @@
         <v>0.5699576691175553</v>
       </c>
     </row>
-    <row r="42" spans="1:11" x14ac:dyDescent="0.55000000000000004">
+    <row r="42" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A42" s="12">
         <v>2049</v>
       </c>
@@ -36942,7 +36939,7 @@
         <v>0.56997883455877763</v>
       </c>
     </row>
-    <row r="43" spans="1:11" x14ac:dyDescent="0.55000000000000004">
+    <row r="43" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A43" s="12">
         <v>2050</v>
       </c>
@@ -36987,7 +36984,7 @@
         <v>0.57000000000000006</v>
       </c>
     </row>
-    <row r="45" spans="1:11" x14ac:dyDescent="0.55000000000000004">
+    <row r="45" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A45" s="12">
         <v>2020</v>
       </c>
@@ -37032,7 +37029,7 @@
         <v>0.56936503676332895</v>
       </c>
     </row>
-    <row r="46" spans="1:11" x14ac:dyDescent="0.55000000000000004">
+    <row r="46" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A46" s="12">
         <v>2050</v>
       </c>
@@ -37096,12 +37093,12 @@
       <selection activeCell="L40" sqref="L40"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10" defaultRowHeight="18" x14ac:dyDescent="0.55000000000000004"/>
+  <sheetFormatPr defaultColWidth="10" defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
   <cols>
     <col min="1" max="16384" width="10" style="12"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.55000000000000004">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.4">
       <c r="B1" s="178" t="s">
         <v>47</v>
       </c>
@@ -37117,7 +37114,7 @@
       <c r="J1" s="178"/>
       <c r="K1" s="178"/>
     </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.55000000000000004">
+    <row r="2" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A2" s="12" t="s">
         <v>29</v>
       </c>
@@ -37152,7 +37149,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.55000000000000004">
+    <row r="3" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A3" s="12">
         <v>2010</v>
       </c>
@@ -37187,7 +37184,7 @@
         <v>0.51857825307810101</v>
       </c>
     </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.55000000000000004">
+    <row r="4" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A4" s="12">
         <v>2011</v>
       </c>
@@ -37222,7 +37219,7 @@
         <v>0.51214718071078702</v>
       </c>
     </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.55000000000000004">
+    <row r="5" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A5" s="12">
         <v>2012</v>
       </c>
@@ -37257,7 +37254,7 @@
         <v>0.51639781193598799</v>
       </c>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.55000000000000004">
+    <row r="6" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A6" s="12">
         <v>2013</v>
       </c>
@@ -37292,7 +37289,7 @@
         <v>0.52006519397348305</v>
       </c>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.55000000000000004">
+    <row r="7" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A7" s="12">
         <v>2014</v>
       </c>
@@ -37327,7 +37324,7 @@
         <v>0.51782712540092501</v>
       </c>
     </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.55000000000000004">
+    <row r="8" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A8" s="12">
         <v>2015</v>
       </c>
@@ -37362,7 +37359,7 @@
         <v>0.52641634986173302</v>
       </c>
     </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.55000000000000004">
+    <row r="9" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A9" s="12">
         <v>2016</v>
       </c>
@@ -37397,7 +37394,7 @@
         <v>0.52459722707906398</v>
       </c>
     </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.55000000000000004">
+    <row r="10" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A10" s="12">
         <v>2017</v>
       </c>
@@ -37432,7 +37429,7 @@
         <v>0.515437750449948</v>
       </c>
     </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.55000000000000004">
+    <row r="11" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A11" s="12">
         <v>2018</v>
       </c>
@@ -37467,7 +37464,7 @@
         <v>0.53404454960835501</v>
       </c>
     </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.55000000000000004">
+    <row r="12" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A12" s="12">
         <v>2019</v>
       </c>
@@ -37502,7 +37499,7 @@
         <v>0.51866285234160903</v>
       </c>
     </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.55000000000000004">
+    <row r="13" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A13" s="12">
         <v>2020</v>
       </c>
@@ -37537,7 +37534,7 @@
         <v>0.51934905512223195</v>
       </c>
     </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.55000000000000004">
+    <row r="14" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A14" s="12">
         <v>2021</v>
       </c>
@@ -37582,7 +37579,7 @@
         <v>0.51937075328482418</v>
       </c>
     </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.55000000000000004">
+    <row r="15" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A15" s="12">
         <v>2022</v>
       </c>
@@ -37627,7 +37624,7 @@
         <v>0.51939245144741641</v>
       </c>
     </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.55000000000000004">
+    <row r="16" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A16" s="12">
         <v>2023</v>
       </c>
@@ -37672,7 +37669,7 @@
         <v>0.51941414961000876</v>
       </c>
     </row>
-    <row r="17" spans="1:11" x14ac:dyDescent="0.55000000000000004">
+    <row r="17" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A17" s="12">
         <v>2024</v>
       </c>
@@ -37717,7 +37714,7 @@
         <v>0.51943584777260099</v>
       </c>
     </row>
-    <row r="18" spans="1:11" x14ac:dyDescent="0.55000000000000004">
+    <row r="18" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A18" s="12">
         <v>2025</v>
       </c>
@@ -37762,7 +37759,7 @@
         <v>0.51945754593519333</v>
       </c>
     </row>
-    <row r="19" spans="1:11" x14ac:dyDescent="0.55000000000000004">
+    <row r="19" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A19" s="12">
         <v>2026</v>
       </c>
@@ -37807,7 +37804,7 @@
         <v>0.51947924409778556</v>
       </c>
     </row>
-    <row r="20" spans="1:11" x14ac:dyDescent="0.55000000000000004">
+    <row r="20" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A20" s="12">
         <v>2027</v>
       </c>
@@ -37852,7 +37849,7 @@
         <v>0.5195009422603778</v>
       </c>
     </row>
-    <row r="21" spans="1:11" x14ac:dyDescent="0.55000000000000004">
+    <row r="21" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A21" s="12">
         <v>2028</v>
       </c>
@@ -37897,7 +37894,7 @@
         <v>0.51952264042297003</v>
       </c>
     </row>
-    <row r="22" spans="1:11" x14ac:dyDescent="0.55000000000000004">
+    <row r="22" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A22" s="12">
         <v>2029</v>
       </c>
@@ -37942,7 +37939,7 @@
         <v>0.51954433858556237</v>
       </c>
     </row>
-    <row r="23" spans="1:11" x14ac:dyDescent="0.55000000000000004">
+    <row r="23" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A23" s="12">
         <v>2030</v>
       </c>
@@ -37987,7 +37984,7 @@
         <v>0.5195660367481546</v>
       </c>
     </row>
-    <row r="24" spans="1:11" x14ac:dyDescent="0.55000000000000004">
+    <row r="24" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A24" s="12">
         <v>2031</v>
       </c>
@@ -38032,7 +38029,7 @@
         <v>0.51958773491074695</v>
       </c>
     </row>
-    <row r="25" spans="1:11" x14ac:dyDescent="0.55000000000000004">
+    <row r="25" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A25" s="12">
         <v>2032</v>
       </c>
@@ -38077,7 +38074,7 @@
         <v>0.51960943307333918</v>
       </c>
     </row>
-    <row r="26" spans="1:11" x14ac:dyDescent="0.55000000000000004">
+    <row r="26" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A26" s="12">
         <v>2033</v>
       </c>
@@ -38122,7 +38119,7 @@
         <v>0.51963113123593141</v>
       </c>
     </row>
-    <row r="27" spans="1:11" x14ac:dyDescent="0.55000000000000004">
+    <row r="27" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A27" s="12">
         <v>2034</v>
       </c>
@@ -38167,7 +38164,7 @@
         <v>0.51965282939852364</v>
       </c>
     </row>
-    <row r="28" spans="1:11" x14ac:dyDescent="0.55000000000000004">
+    <row r="28" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A28" s="12">
         <v>2035</v>
       </c>
@@ -38212,7 +38209,7 @@
         <v>0.51967452756111598</v>
       </c>
     </row>
-    <row r="29" spans="1:11" x14ac:dyDescent="0.55000000000000004">
+    <row r="29" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A29" s="12">
         <v>2036</v>
       </c>
@@ -38257,7 +38254,7 @@
         <v>0.51969622572370822</v>
       </c>
     </row>
-    <row r="30" spans="1:11" x14ac:dyDescent="0.55000000000000004">
+    <row r="30" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A30" s="12">
         <v>2037</v>
       </c>
@@ -38302,7 +38299,7 @@
         <v>0.51971792388630056</v>
       </c>
     </row>
-    <row r="31" spans="1:11" x14ac:dyDescent="0.55000000000000004">
+    <row r="31" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A31" s="12">
         <v>2038</v>
       </c>
@@ -38347,7 +38344,7 @@
         <v>0.51973962204889279</v>
       </c>
     </row>
-    <row r="32" spans="1:11" x14ac:dyDescent="0.55000000000000004">
+    <row r="32" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A32" s="12">
         <v>2039</v>
       </c>
@@ -38392,7 +38389,7 @@
         <v>0.51976132021148502</v>
       </c>
     </row>
-    <row r="33" spans="1:11" x14ac:dyDescent="0.55000000000000004">
+    <row r="33" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A33" s="12">
         <v>2040</v>
       </c>
@@ -38437,7 +38434,7 @@
         <v>0.51978301837407725</v>
       </c>
     </row>
-    <row r="34" spans="1:11" x14ac:dyDescent="0.55000000000000004">
+    <row r="34" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A34" s="12">
         <v>2041</v>
       </c>
@@ -38482,7 +38479,7 @@
         <v>0.5198047165366696</v>
       </c>
     </row>
-    <row r="35" spans="1:11" x14ac:dyDescent="0.55000000000000004">
+    <row r="35" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A35" s="12">
         <v>2042</v>
       </c>
@@ -38527,7 +38524,7 @@
         <v>0.51982641469926183</v>
       </c>
     </row>
-    <row r="36" spans="1:11" x14ac:dyDescent="0.55000000000000004">
+    <row r="36" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A36" s="12">
         <v>2043</v>
       </c>
@@ -38572,7 +38569,7 @@
         <v>0.51984811286185417</v>
       </c>
     </row>
-    <row r="37" spans="1:11" x14ac:dyDescent="0.55000000000000004">
+    <row r="37" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A37" s="12">
         <v>2044</v>
       </c>
@@ -38617,7 +38614,7 @@
         <v>0.5198698110244464</v>
       </c>
     </row>
-    <row r="38" spans="1:11" x14ac:dyDescent="0.55000000000000004">
+    <row r="38" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A38" s="12">
         <v>2045</v>
       </c>
@@ -38662,7 +38659,7 @@
         <v>0.51989150918703864</v>
       </c>
     </row>
-    <row r="39" spans="1:11" x14ac:dyDescent="0.55000000000000004">
+    <row r="39" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A39" s="12">
         <v>2046</v>
       </c>
@@ -38707,7 +38704,7 @@
         <v>0.51991320734963087</v>
       </c>
     </row>
-    <row r="40" spans="1:11" x14ac:dyDescent="0.55000000000000004">
+    <row r="40" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A40" s="12">
         <v>2047</v>
       </c>
@@ -38752,7 +38749,7 @@
         <v>0.51993490551222321</v>
       </c>
     </row>
-    <row r="41" spans="1:11" x14ac:dyDescent="0.55000000000000004">
+    <row r="41" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A41" s="12">
         <v>2048</v>
       </c>
@@ -38797,7 +38794,7 @@
         <v>0.51995660367481544</v>
       </c>
     </row>
-    <row r="42" spans="1:11" x14ac:dyDescent="0.55000000000000004">
+    <row r="42" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A42" s="12">
         <v>2049</v>
       </c>
@@ -38842,7 +38839,7 @@
         <v>0.51997830183740779</v>
       </c>
     </row>
-    <row r="43" spans="1:11" x14ac:dyDescent="0.55000000000000004">
+    <row r="43" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A43" s="12">
         <v>2050</v>
       </c>
@@ -38887,7 +38884,7 @@
         <v>0.52</v>
       </c>
     </row>
-    <row r="45" spans="1:11" x14ac:dyDescent="0.55000000000000004">
+    <row r="45" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A45" s="12">
         <v>2020</v>
       </c>
@@ -38932,7 +38929,7 @@
         <v>0.51934905512223195</v>
       </c>
     </row>
-    <row r="46" spans="1:11" x14ac:dyDescent="0.55000000000000004">
+    <row r="46" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A46" s="12">
         <v>2050</v>
       </c>
@@ -38996,12 +38993,12 @@
       <selection activeCell="L40" sqref="L40"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10" defaultRowHeight="18" x14ac:dyDescent="0.55000000000000004"/>
+  <sheetFormatPr defaultColWidth="10" defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
   <cols>
     <col min="1" max="16384" width="10" style="12"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:27" x14ac:dyDescent="0.55000000000000004">
+    <row r="1" spans="1:27" x14ac:dyDescent="0.4">
       <c r="B1" s="180" t="s">
         <v>0</v>
       </c>
@@ -39033,7 +39030,7 @@
       <c r="Z1" s="180"/>
       <c r="AA1" s="180"/>
     </row>
-    <row r="2" spans="1:27" x14ac:dyDescent="0.55000000000000004">
+    <row r="2" spans="1:27" x14ac:dyDescent="0.4">
       <c r="A2" s="12" t="s">
         <v>29</v>
       </c>
@@ -39116,7 +39113,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="3" spans="1:27" x14ac:dyDescent="0.55000000000000004">
+    <row r="3" spans="1:27" x14ac:dyDescent="0.4">
       <c r="A3" s="12">
         <v>2010</v>
       </c>
@@ -39199,7 +39196,7 @@
         <v>3.0992955510281599E-3</v>
       </c>
     </row>
-    <row r="4" spans="1:27" x14ac:dyDescent="0.55000000000000004">
+    <row r="4" spans="1:27" x14ac:dyDescent="0.4">
       <c r="A4" s="12">
         <v>2011</v>
       </c>
@@ -39282,7 +39279,7 @@
         <v>4.4683462132635698E-3</v>
       </c>
     </row>
-    <row r="5" spans="1:27" x14ac:dyDescent="0.55000000000000004">
+    <row r="5" spans="1:27" x14ac:dyDescent="0.4">
       <c r="A5" s="12">
         <v>2012</v>
       </c>
@@ -39365,7 +39362,7 @@
         <v>6.1751163261933098E-3</v>
       </c>
     </row>
-    <row r="6" spans="1:27" x14ac:dyDescent="0.55000000000000004">
+    <row r="6" spans="1:27" x14ac:dyDescent="0.4">
       <c r="A6" s="12">
         <v>2013</v>
       </c>
@@ -39448,7 +39445,7 @@
         <v>1.19610270564952E-2</v>
       </c>
     </row>
-    <row r="7" spans="1:27" x14ac:dyDescent="0.55000000000000004">
+    <row r="7" spans="1:27" x14ac:dyDescent="0.4">
       <c r="A7" s="12">
         <v>2014</v>
       </c>
@@ -39531,7 +39528,7 @@
         <v>2.1832204403918601E-2</v>
       </c>
     </row>
-    <row r="8" spans="1:27" x14ac:dyDescent="0.55000000000000004">
+    <row r="8" spans="1:27" x14ac:dyDescent="0.4">
       <c r="A8" s="12">
         <v>2015</v>
       </c>
@@ -39614,7 +39611,7 @@
         <v>3.3671893745307602E-2</v>
       </c>
     </row>
-    <row r="9" spans="1:27" x14ac:dyDescent="0.55000000000000004">
+    <row r="9" spans="1:27" x14ac:dyDescent="0.4">
       <c r="A9" s="12">
         <v>2016</v>
       </c>
@@ -39697,7 +39694,7 @@
         <v>4.3832795333288599E-2</v>
       </c>
     </row>
-    <row r="10" spans="1:27" x14ac:dyDescent="0.55000000000000004">
+    <row r="10" spans="1:27" x14ac:dyDescent="0.4">
       <c r="A10" s="12">
         <v>2017</v>
       </c>
@@ -39780,7 +39777,7 @@
         <v>5.2301517502854E-2</v>
       </c>
     </row>
-    <row r="11" spans="1:27" x14ac:dyDescent="0.55000000000000004">
+    <row r="11" spans="1:27" x14ac:dyDescent="0.4">
       <c r="A11" s="12">
         <v>2018</v>
       </c>
@@ -39863,7 +39860,7 @@
         <v>6.01445165203554E-2</v>
       </c>
     </row>
-    <row r="12" spans="1:27" x14ac:dyDescent="0.55000000000000004">
+    <row r="12" spans="1:27" x14ac:dyDescent="0.4">
       <c r="A12" s="12">
         <v>2019</v>
       </c>
@@ -39946,7 +39943,7 @@
         <v>6.8415899088964699E-2</v>
       </c>
     </row>
-    <row r="13" spans="1:27" x14ac:dyDescent="0.55000000000000004">
+    <row r="13" spans="1:27" x14ac:dyDescent="0.4">
       <c r="A13" s="12">
         <v>2020</v>
       </c>
@@ -40029,7 +40026,7 @@
         <v>7.9714432296606602E-2</v>
       </c>
     </row>
-    <row r="14" spans="1:27" x14ac:dyDescent="0.55000000000000004">
+    <row r="14" spans="1:27" x14ac:dyDescent="0.4">
       <c r="A14" s="12">
         <v>2021</v>
       </c>
@@ -40138,7 +40135,7 @@
         <v>7.9723951220053046E-2</v>
       </c>
     </row>
-    <row r="15" spans="1:27" x14ac:dyDescent="0.55000000000000004">
+    <row r="15" spans="1:27" x14ac:dyDescent="0.4">
       <c r="A15" s="12">
         <v>2022</v>
       </c>
@@ -40247,7 +40244,7 @@
         <v>7.9733470143499491E-2</v>
       </c>
     </row>
-    <row r="16" spans="1:27" x14ac:dyDescent="0.55000000000000004">
+    <row r="16" spans="1:27" x14ac:dyDescent="0.4">
       <c r="A16" s="12">
         <v>2023</v>
       </c>
@@ -40356,7 +40353,7 @@
         <v>7.9742989066945935E-2</v>
       </c>
     </row>
-    <row r="17" spans="1:27" x14ac:dyDescent="0.55000000000000004">
+    <row r="17" spans="1:27" x14ac:dyDescent="0.4">
       <c r="A17" s="12">
         <v>2024</v>
       </c>
@@ -40465,7 +40462,7 @@
         <v>7.9752507990392379E-2</v>
       </c>
     </row>
-    <row r="18" spans="1:27" x14ac:dyDescent="0.55000000000000004">
+    <row r="18" spans="1:27" x14ac:dyDescent="0.4">
       <c r="A18" s="12">
         <v>2025</v>
       </c>
@@ -40574,7 +40571,7 @@
         <v>7.9762026913838824E-2</v>
       </c>
     </row>
-    <row r="19" spans="1:27" x14ac:dyDescent="0.55000000000000004">
+    <row r="19" spans="1:27" x14ac:dyDescent="0.4">
       <c r="A19" s="12">
         <v>2026</v>
       </c>
@@ -40683,7 +40680,7 @@
         <v>7.9771545837285268E-2</v>
       </c>
     </row>
-    <row r="20" spans="1:27" x14ac:dyDescent="0.55000000000000004">
+    <row r="20" spans="1:27" x14ac:dyDescent="0.4">
       <c r="A20" s="12">
         <v>2027</v>
       </c>
@@ -40792,7 +40789,7 @@
         <v>7.9781064760731726E-2</v>
       </c>
     </row>
-    <row r="21" spans="1:27" x14ac:dyDescent="0.55000000000000004">
+    <row r="21" spans="1:27" x14ac:dyDescent="0.4">
       <c r="A21" s="12">
         <v>2028</v>
       </c>
@@ -40901,7 +40898,7 @@
         <v>7.9790583684178171E-2</v>
       </c>
     </row>
-    <row r="22" spans="1:27" x14ac:dyDescent="0.55000000000000004">
+    <row r="22" spans="1:27" x14ac:dyDescent="0.4">
       <c r="A22" s="12">
         <v>2029</v>
       </c>
@@ -41010,7 +41007,7 @@
         <v>7.9800102607624615E-2</v>
       </c>
     </row>
-    <row r="23" spans="1:27" x14ac:dyDescent="0.55000000000000004">
+    <row r="23" spans="1:27" x14ac:dyDescent="0.4">
       <c r="A23" s="12">
         <v>2030</v>
       </c>
@@ -41119,7 +41116,7 @@
         <v>7.9809621531071059E-2</v>
       </c>
     </row>
-    <row r="24" spans="1:27" x14ac:dyDescent="0.55000000000000004">
+    <row r="24" spans="1:27" x14ac:dyDescent="0.4">
       <c r="A24" s="12">
         <v>2031</v>
       </c>
@@ -41228,7 +41225,7 @@
         <v>7.9819140454517518E-2</v>
       </c>
     </row>
-    <row r="25" spans="1:27" x14ac:dyDescent="0.55000000000000004">
+    <row r="25" spans="1:27" x14ac:dyDescent="0.4">
       <c r="A25" s="12">
         <v>2032</v>
       </c>
@@ -41337,7 +41334,7 @@
         <v>7.9828659377963962E-2</v>
       </c>
     </row>
-    <row r="26" spans="1:27" x14ac:dyDescent="0.55000000000000004">
+    <row r="26" spans="1:27" x14ac:dyDescent="0.4">
       <c r="A26" s="12">
         <v>2033</v>
       </c>
@@ -41446,7 +41443,7 @@
         <v>7.9838178301410406E-2</v>
       </c>
     </row>
-    <row r="27" spans="1:27" x14ac:dyDescent="0.55000000000000004">
+    <row r="27" spans="1:27" x14ac:dyDescent="0.4">
       <c r="A27" s="12">
         <v>2034</v>
       </c>
@@ -41555,7 +41552,7 @@
         <v>7.9847697224856851E-2</v>
       </c>
     </row>
-    <row r="28" spans="1:27" x14ac:dyDescent="0.55000000000000004">
+    <row r="28" spans="1:27" x14ac:dyDescent="0.4">
       <c r="A28" s="12">
         <v>2035</v>
       </c>
@@ -41664,7 +41661,7 @@
         <v>7.9857216148303295E-2</v>
       </c>
     </row>
-    <row r="29" spans="1:27" x14ac:dyDescent="0.55000000000000004">
+    <row r="29" spans="1:27" x14ac:dyDescent="0.4">
       <c r="A29" s="12">
         <v>2036</v>
       </c>
@@ -41773,7 +41770,7 @@
         <v>7.9866735071749739E-2</v>
       </c>
     </row>
-    <row r="30" spans="1:27" x14ac:dyDescent="0.55000000000000004">
+    <row r="30" spans="1:27" x14ac:dyDescent="0.4">
       <c r="A30" s="12">
         <v>2037</v>
       </c>
@@ -41882,7 +41879,7 @@
         <v>7.9876253995196184E-2</v>
       </c>
     </row>
-    <row r="31" spans="1:27" x14ac:dyDescent="0.55000000000000004">
+    <row r="31" spans="1:27" x14ac:dyDescent="0.4">
       <c r="A31" s="12">
         <v>2038</v>
       </c>
@@ -41991,7 +41988,7 @@
         <v>7.9885772918642628E-2</v>
       </c>
     </row>
-    <row r="32" spans="1:27" x14ac:dyDescent="0.55000000000000004">
+    <row r="32" spans="1:27" x14ac:dyDescent="0.4">
       <c r="A32" s="12">
         <v>2039</v>
       </c>
@@ -42100,7 +42097,7 @@
         <v>7.9895291842089086E-2</v>
       </c>
     </row>
-    <row r="33" spans="1:27" x14ac:dyDescent="0.55000000000000004">
+    <row r="33" spans="1:27" x14ac:dyDescent="0.4">
       <c r="A33" s="12">
         <v>2040</v>
       </c>
@@ -42209,7 +42206,7 @@
         <v>7.9904810765535531E-2</v>
       </c>
     </row>
-    <row r="34" spans="1:27" x14ac:dyDescent="0.55000000000000004">
+    <row r="34" spans="1:27" x14ac:dyDescent="0.4">
       <c r="A34" s="12">
         <v>2041</v>
       </c>
@@ -42318,7 +42315,7 @@
         <v>7.9914329688981975E-2</v>
       </c>
     </row>
-    <row r="35" spans="1:27" x14ac:dyDescent="0.55000000000000004">
+    <row r="35" spans="1:27" x14ac:dyDescent="0.4">
       <c r="A35" s="12">
         <v>2042</v>
       </c>
@@ -42427,7 +42424,7 @@
         <v>7.9923848612428419E-2</v>
       </c>
     </row>
-    <row r="36" spans="1:27" x14ac:dyDescent="0.55000000000000004">
+    <row r="36" spans="1:27" x14ac:dyDescent="0.4">
       <c r="A36" s="12">
         <v>2043</v>
       </c>
@@ -42536,7 +42533,7 @@
         <v>7.9933367535874877E-2</v>
       </c>
     </row>
-    <row r="37" spans="1:27" x14ac:dyDescent="0.55000000000000004">
+    <row r="37" spans="1:27" x14ac:dyDescent="0.4">
       <c r="A37" s="12">
         <v>2044</v>
       </c>
@@ -42645,7 +42642,7 @@
         <v>7.9942886459321322E-2</v>
       </c>
     </row>
-    <row r="38" spans="1:27" x14ac:dyDescent="0.55000000000000004">
+    <row r="38" spans="1:27" x14ac:dyDescent="0.4">
       <c r="A38" s="12">
         <v>2045</v>
       </c>
@@ -42754,7 +42751,7 @@
         <v>7.9952405382767766E-2</v>
       </c>
     </row>
-    <row r="39" spans="1:27" x14ac:dyDescent="0.55000000000000004">
+    <row r="39" spans="1:27" x14ac:dyDescent="0.4">
       <c r="A39" s="12">
         <v>2046</v>
       </c>
@@ -42863,7 +42860,7 @@
         <v>7.996192430621421E-2</v>
       </c>
     </row>
-    <row r="40" spans="1:27" x14ac:dyDescent="0.55000000000000004">
+    <row r="40" spans="1:27" x14ac:dyDescent="0.4">
       <c r="A40" s="12">
         <v>2047</v>
       </c>
@@ -42972,7 +42969,7 @@
         <v>7.9971443229660655E-2</v>
       </c>
     </row>
-    <row r="41" spans="1:27" x14ac:dyDescent="0.55000000000000004">
+    <row r="41" spans="1:27" x14ac:dyDescent="0.4">
       <c r="A41" s="12">
         <v>2048</v>
       </c>
@@ -43081,7 +43078,7 @@
         <v>7.9980962153107099E-2</v>
       </c>
     </row>
-    <row r="42" spans="1:27" x14ac:dyDescent="0.55000000000000004">
+    <row r="42" spans="1:27" x14ac:dyDescent="0.4">
       <c r="A42" s="12">
         <v>2049</v>
       </c>
@@ -43190,7 +43187,7 @@
         <v>7.9990481076553543E-2</v>
       </c>
     </row>
-    <row r="43" spans="1:27" x14ac:dyDescent="0.55000000000000004">
+    <row r="43" spans="1:27" x14ac:dyDescent="0.4">
       <c r="A43" s="12">
         <v>2050</v>
       </c>
@@ -43299,7 +43296,7 @@
         <v>7.9999999999999988E-2</v>
       </c>
     </row>
-    <row r="45" spans="1:27" x14ac:dyDescent="0.55000000000000004">
+    <row r="45" spans="1:27" x14ac:dyDescent="0.4">
       <c r="A45" s="12">
         <v>2020</v>
       </c>
@@ -43408,7 +43405,7 @@
         <v>7.9714432296606602E-2</v>
       </c>
     </row>
-    <row r="46" spans="1:27" x14ac:dyDescent="0.55000000000000004">
+    <row r="46" spans="1:27" x14ac:dyDescent="0.4">
       <c r="A46" s="12">
         <v>2050</v>
       </c>
@@ -43539,15 +43536,15 @@
       <selection activeCell="C3" sqref="C3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.55000000000000004"/>
+  <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
   <cols>
-    <col min="3" max="3" width="13.33203125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="10.83203125" customWidth="1"/>
-    <col min="8" max="8" width="13.33203125" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="11.58203125" customWidth="1"/>
+    <col min="3" max="3" width="13.375" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="10.875" customWidth="1"/>
+    <col min="8" max="8" width="13.375" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="11.625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" x14ac:dyDescent="0.55000000000000004">
+    <row r="1" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A1" s="10"/>
       <c r="B1" s="53"/>
       <c r="C1" s="170" t="s">
@@ -43565,7 +43562,7 @@
       <c r="K1" s="173"/>
       <c r="L1" s="174"/>
     </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.55000000000000004">
+    <row r="2" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A2" s="8"/>
       <c r="B2" s="6"/>
       <c r="C2" s="58" t="s">
@@ -43599,7 +43596,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.55000000000000004">
+    <row r="3" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A3" s="57" t="s">
         <v>2</v>
       </c>
@@ -43647,7 +43644,7 @@
         <v>1.3636103186366102</v>
       </c>
     </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.55000000000000004">
+    <row r="4" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A4" s="55"/>
       <c r="B4" s="55">
         <v>2020</v>
@@ -43693,7 +43690,7 @@
         <v>1.1454168290418023</v>
       </c>
     </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.55000000000000004">
+    <row r="5" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A5" s="55"/>
       <c r="B5" s="55">
         <v>2030</v>
@@ -43739,7 +43736,7 @@
         <v>1.2289475821289351</v>
       </c>
     </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.55000000000000004">
+    <row r="6" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A6" s="55"/>
       <c r="B6" s="55">
         <v>2040</v>
@@ -43785,7 +43782,7 @@
         <v>1.3118268147814702</v>
       </c>
     </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.55000000000000004">
+    <row r="7" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A7" s="56"/>
       <c r="B7" s="56">
         <v>2050</v>
@@ -43831,7 +43828,7 @@
         <v>1.3940545269994127</v>
       </c>
     </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.55000000000000004">
+    <row r="8" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A8" s="55" t="s">
         <v>3</v>
       </c>
@@ -43879,7 +43876,7 @@
         <v>6.5678980051785033E-2</v>
       </c>
     </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.55000000000000004">
+    <row r="9" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A9" s="55"/>
       <c r="B9" s="55">
         <v>2020</v>
@@ -43925,7 +43922,7 @@
         <v>6.2294023819620369E-2</v>
       </c>
     </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.55000000000000004">
+    <row r="10" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A10" s="55"/>
       <c r="B10" s="55">
         <v>2030</v>
@@ -43971,7 +43968,7 @@
         <v>6.0785658608952853E-2</v>
       </c>
     </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.55000000000000004">
+    <row r="11" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A11" s="55"/>
       <c r="B11" s="55">
         <v>2040</v>
@@ -44017,7 +44014,7 @@
         <v>5.8705901166009614E-2</v>
       </c>
     </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.55000000000000004">
+    <row r="12" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A12" s="55"/>
       <c r="B12" s="55">
         <v>2050</v>
@@ -44063,7 +44060,7 @@
         <v>5.6120410378046416E-2</v>
       </c>
     </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.55000000000000004">
+    <row r="13" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A13" s="57" t="s">
         <v>4</v>
       </c>
@@ -44111,7 +44108,7 @@
         <v>1.2272144966755287</v>
       </c>
     </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.55000000000000004">
+    <row r="14" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A14" s="55"/>
       <c r="B14" s="55">
         <v>2020</v>
@@ -44157,7 +44154,7 @@
         <v>1.108536645627096</v>
       </c>
     </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.55000000000000004">
+    <row r="15" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A15" s="55"/>
       <c r="B15" s="55">
         <v>2030</v>
@@ -44203,7 +44200,7 @@
         <v>1.2235261379183859</v>
       </c>
     </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.55000000000000004">
+    <row r="16" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A16" s="55"/>
       <c r="B16" s="55">
         <v>2040</v>
@@ -44249,7 +44246,7 @@
         <v>1.2856246871229862</v>
       </c>
     </row>
-    <row r="17" spans="1:12" x14ac:dyDescent="0.55000000000000004">
+    <row r="17" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A17" s="56"/>
       <c r="B17" s="56">
         <v>2050</v>
@@ -44295,7 +44292,7 @@
         <v>1.3660899492275129</v>
       </c>
     </row>
-    <row r="18" spans="1:12" x14ac:dyDescent="0.55000000000000004">
+    <row r="18" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A18" s="55" t="s">
         <v>5</v>
       </c>
@@ -44343,7 +44340,7 @@
         <v>1.0839281159578253</v>
       </c>
     </row>
-    <row r="19" spans="1:12" x14ac:dyDescent="0.55000000000000004">
+    <row r="19" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A19" s="55"/>
       <c r="B19" s="55">
         <v>2020</v>
@@ -44389,7 +44386,7 @@
         <v>0.95755293647594575</v>
       </c>
     </row>
-    <row r="20" spans="1:12" x14ac:dyDescent="0.55000000000000004">
+    <row r="20" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A20" s="55"/>
       <c r="B20" s="55">
         <v>2030</v>
@@ -44435,7 +44432,7 @@
         <v>0.91701731207455994</v>
       </c>
     </row>
-    <row r="21" spans="1:12" x14ac:dyDescent="0.55000000000000004">
+    <row r="21" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A21" s="55"/>
       <c r="B21" s="55">
         <v>2040</v>
@@ -44481,7 +44478,7 @@
         <v>0.87644749647903786</v>
       </c>
     </row>
-    <row r="22" spans="1:12" x14ac:dyDescent="0.55000000000000004">
+    <row r="22" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A22" s="55"/>
       <c r="B22" s="55">
         <v>2050</v>
@@ -44527,7 +44524,7 @@
         <v>0.8358434896893796</v>
       </c>
     </row>
-    <row r="23" spans="1:12" x14ac:dyDescent="0.55000000000000004">
+    <row r="23" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A23" s="57" t="s">
         <v>27</v>
       </c>
@@ -44575,7 +44572,7 @@
         <v>3.7404319113217492</v>
       </c>
     </row>
-    <row r="24" spans="1:12" x14ac:dyDescent="0.55000000000000004">
+    <row r="24" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A24" s="55"/>
       <c r="B24" s="55">
         <v>2020</v>
@@ -44621,7 +44618,7 @@
         <v>3.2738004349644645</v>
       </c>
     </row>
-    <row r="25" spans="1:12" x14ac:dyDescent="0.55000000000000004">
+    <row r="25" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A25" s="55"/>
       <c r="B25" s="55">
         <v>2030</v>
@@ -44667,7 +44664,7 @@
         <v>3.430276690730834</v>
       </c>
     </row>
-    <row r="26" spans="1:12" x14ac:dyDescent="0.55000000000000004">
+    <row r="26" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A26" s="55"/>
       <c r="B26" s="55">
         <v>2040</v>
@@ -44713,7 +44710,7 @@
         <v>3.5326048995495043</v>
       </c>
     </row>
-    <row r="27" spans="1:12" x14ac:dyDescent="0.55000000000000004">
+    <row r="27" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A27" s="56"/>
       <c r="B27" s="56">
         <v>2050</v>
@@ -44778,12 +44775,12 @@
       <selection activeCell="L40" sqref="L40"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10" defaultRowHeight="18" x14ac:dyDescent="0.55000000000000004"/>
+  <sheetFormatPr defaultColWidth="10" defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
   <cols>
     <col min="1" max="16384" width="10" style="12"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" x14ac:dyDescent="0.55000000000000004">
+    <row r="1" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A1" s="12" t="s">
         <v>29</v>
       </c>
@@ -44827,7 +44824,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="2" spans="1:14" x14ac:dyDescent="0.55000000000000004">
+    <row r="2" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A2" s="12">
         <v>2010</v>
       </c>
@@ -44871,7 +44868,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:14" x14ac:dyDescent="0.55000000000000004">
+    <row r="3" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A3" s="12">
         <v>2011</v>
       </c>
@@ -44915,7 +44912,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:14" x14ac:dyDescent="0.55000000000000004">
+    <row r="4" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A4" s="12">
         <v>2012</v>
       </c>
@@ -44959,7 +44956,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:14" x14ac:dyDescent="0.55000000000000004">
+    <row r="5" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A5" s="12">
         <v>2013</v>
       </c>
@@ -45003,7 +45000,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:14" x14ac:dyDescent="0.55000000000000004">
+    <row r="6" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A6" s="12">
         <v>2014</v>
       </c>
@@ -45047,7 +45044,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:14" x14ac:dyDescent="0.55000000000000004">
+    <row r="7" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A7" s="12">
         <v>2015</v>
       </c>
@@ -45091,7 +45088,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="8" spans="1:14" x14ac:dyDescent="0.55000000000000004">
+    <row r="8" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A8" s="12">
         <v>2016</v>
       </c>
@@ -45135,7 +45132,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="9" spans="1:14" x14ac:dyDescent="0.55000000000000004">
+    <row r="9" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A9" s="12">
         <v>2017</v>
       </c>
@@ -45179,7 +45176,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="10" spans="1:14" x14ac:dyDescent="0.55000000000000004">
+    <row r="10" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A10" s="12">
         <v>2018</v>
       </c>
@@ -45223,7 +45220,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="11" spans="1:14" x14ac:dyDescent="0.55000000000000004">
+    <row r="11" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A11" s="12">
         <v>2019</v>
       </c>
@@ -45267,7 +45264,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="12" spans="1:14" x14ac:dyDescent="0.55000000000000004">
+    <row r="12" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A12" s="12">
         <v>2020</v>
       </c>
@@ -45311,7 +45308,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="13" spans="1:14" x14ac:dyDescent="0.55000000000000004">
+    <row r="13" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A13" s="12">
         <v>2021</v>
       </c>
@@ -45355,7 +45352,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="14" spans="1:14" x14ac:dyDescent="0.55000000000000004">
+    <row r="14" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A14" s="12">
         <v>2022</v>
       </c>
@@ -45399,7 +45396,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="15" spans="1:14" x14ac:dyDescent="0.55000000000000004">
+    <row r="15" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A15" s="12">
         <v>2023</v>
       </c>
@@ -45443,7 +45440,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="16" spans="1:14" x14ac:dyDescent="0.55000000000000004">
+    <row r="16" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A16" s="12">
         <v>2024</v>
       </c>
@@ -45487,7 +45484,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="17" spans="1:14" x14ac:dyDescent="0.55000000000000004">
+    <row r="17" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A17" s="12">
         <v>2025</v>
       </c>
@@ -45531,7 +45528,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="18" spans="1:14" x14ac:dyDescent="0.55000000000000004">
+    <row r="18" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A18" s="12">
         <v>2026</v>
       </c>
@@ -45575,7 +45572,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="19" spans="1:14" x14ac:dyDescent="0.55000000000000004">
+    <row r="19" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A19" s="12">
         <v>2027</v>
       </c>
@@ -45619,7 +45616,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="20" spans="1:14" x14ac:dyDescent="0.55000000000000004">
+    <row r="20" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A20" s="12">
         <v>2028</v>
       </c>
@@ -45663,7 +45660,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="21" spans="1:14" x14ac:dyDescent="0.55000000000000004">
+    <row r="21" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A21" s="12">
         <v>2029</v>
       </c>
@@ -45707,7 +45704,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="22" spans="1:14" x14ac:dyDescent="0.55000000000000004">
+    <row r="22" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A22" s="12">
         <v>2030</v>
       </c>
@@ -45751,7 +45748,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="23" spans="1:14" x14ac:dyDescent="0.55000000000000004">
+    <row r="23" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A23" s="12">
         <v>2031</v>
       </c>
@@ -45795,7 +45792,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="24" spans="1:14" x14ac:dyDescent="0.55000000000000004">
+    <row r="24" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A24" s="12">
         <v>2032</v>
       </c>
@@ -45839,7 +45836,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="25" spans="1:14" x14ac:dyDescent="0.55000000000000004">
+    <row r="25" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A25" s="12">
         <v>2033</v>
       </c>
@@ -45883,7 +45880,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="26" spans="1:14" x14ac:dyDescent="0.55000000000000004">
+    <row r="26" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A26" s="12">
         <v>2034</v>
       </c>
@@ -45927,7 +45924,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="27" spans="1:14" x14ac:dyDescent="0.55000000000000004">
+    <row r="27" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A27" s="12">
         <v>2035</v>
       </c>
@@ -45971,7 +45968,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="28" spans="1:14" x14ac:dyDescent="0.55000000000000004">
+    <row r="28" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A28" s="12">
         <v>2036</v>
       </c>
@@ -46015,7 +46012,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="29" spans="1:14" x14ac:dyDescent="0.55000000000000004">
+    <row r="29" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A29" s="12">
         <v>2037</v>
       </c>
@@ -46059,7 +46056,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="30" spans="1:14" x14ac:dyDescent="0.55000000000000004">
+    <row r="30" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A30" s="12">
         <v>2038</v>
       </c>
@@ -46103,7 +46100,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="31" spans="1:14" x14ac:dyDescent="0.55000000000000004">
+    <row r="31" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A31" s="12">
         <v>2039</v>
       </c>
@@ -46147,7 +46144,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="32" spans="1:14" x14ac:dyDescent="0.55000000000000004">
+    <row r="32" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A32" s="12">
         <v>2040</v>
       </c>
@@ -46191,7 +46188,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="33" spans="1:14" x14ac:dyDescent="0.55000000000000004">
+    <row r="33" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A33" s="12">
         <v>2041</v>
       </c>
@@ -46235,7 +46232,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="34" spans="1:14" x14ac:dyDescent="0.55000000000000004">
+    <row r="34" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A34" s="12">
         <v>2042</v>
       </c>
@@ -46279,7 +46276,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="35" spans="1:14" x14ac:dyDescent="0.55000000000000004">
+    <row r="35" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A35" s="12">
         <v>2043</v>
       </c>
@@ -46323,7 +46320,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="36" spans="1:14" x14ac:dyDescent="0.55000000000000004">
+    <row r="36" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A36" s="12">
         <v>2044</v>
       </c>
@@ -46367,7 +46364,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="37" spans="1:14" x14ac:dyDescent="0.55000000000000004">
+    <row r="37" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A37" s="12">
         <v>2045</v>
       </c>
@@ -46411,7 +46408,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="38" spans="1:14" x14ac:dyDescent="0.55000000000000004">
+    <row r="38" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A38" s="12">
         <v>2046</v>
       </c>
@@ -46455,7 +46452,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="39" spans="1:14" x14ac:dyDescent="0.55000000000000004">
+    <row r="39" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A39" s="12">
         <v>2047</v>
       </c>
@@ -46499,7 +46496,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="40" spans="1:14" x14ac:dyDescent="0.55000000000000004">
+    <row r="40" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A40" s="12">
         <v>2048</v>
       </c>
@@ -46543,7 +46540,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="41" spans="1:14" x14ac:dyDescent="0.55000000000000004">
+    <row r="41" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A41" s="12">
         <v>2049</v>
       </c>
@@ -46587,7 +46584,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="42" spans="1:14" x14ac:dyDescent="0.55000000000000004">
+    <row r="42" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A42" s="12">
         <v>2050</v>
       </c>
@@ -46646,12 +46643,12 @@
       <selection activeCell="L40" sqref="L40"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10" defaultRowHeight="18" x14ac:dyDescent="0.55000000000000004"/>
+  <sheetFormatPr defaultColWidth="10" defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
   <cols>
     <col min="1" max="16384" width="10" style="12"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" x14ac:dyDescent="0.55000000000000004">
+    <row r="1" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A1" s="12" t="s">
         <v>12</v>
       </c>
@@ -46692,7 +46689,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="2" spans="1:13" x14ac:dyDescent="0.55000000000000004">
+    <row r="2" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A2" s="12">
         <v>94.6</v>
       </c>
@@ -46749,9 +46746,9 @@
       <selection activeCell="E5" sqref="E5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.55000000000000004"/>
+  <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A1" s="1" t="s">
         <v>29</v>
       </c>
@@ -46771,7 +46768,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A2" s="1">
         <v>2010</v>
       </c>
@@ -46791,7 +46788,7 @@
         <v>5942.4722222222199</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A3" s="1">
         <v>2020</v>
       </c>
@@ -46825,12 +46822,12 @@
       <selection activeCell="L40" sqref="L40"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10" defaultRowHeight="18" x14ac:dyDescent="0.55000000000000004"/>
+  <sheetFormatPr defaultColWidth="10" defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
   <cols>
     <col min="1" max="16384" width="10" style="12"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.4">
       <c r="B1" s="180" t="s">
         <v>69</v>
       </c>
@@ -46840,7 +46837,7 @@
       </c>
       <c r="E1" s="180"/>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A2" s="12" t="s">
         <v>29</v>
       </c>
@@ -46857,7 +46854,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A3" s="12">
         <v>2010</v>
       </c>
@@ -46874,7 +46871,7 @@
         <v>0.230332955424876</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A4" s="12">
         <v>2011</v>
       </c>
@@ -46891,7 +46888,7 @@
         <v>0.22455793605441199</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A5" s="12">
         <v>2012</v>
       </c>
@@ -46908,7 +46905,7 @@
         <v>0.23783218565866601</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A6" s="12">
         <v>2013</v>
       </c>
@@ -46925,7 +46922,7 @@
         <v>0.23424266271646299</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A7" s="12">
         <v>2014</v>
       </c>
@@ -46942,7 +46939,7 @@
         <v>0.22860367681669699</v>
       </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A8" s="12">
         <v>2015</v>
       </c>
@@ -46959,7 +46956,7 @@
         <v>0.23216273461540901</v>
       </c>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A9" s="12">
         <v>2016</v>
       </c>
@@ -46976,7 +46973,7 @@
         <v>0.23402053483115001</v>
       </c>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A10" s="12">
         <v>2017</v>
       </c>
@@ -46993,7 +46990,7 @@
         <v>0.23714107803461101</v>
       </c>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A11" s="12">
         <v>2018</v>
       </c>
@@ -47010,7 +47007,7 @@
         <v>0.243046304205839</v>
       </c>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A12" s="12">
         <v>2019</v>
       </c>
@@ -47027,7 +47024,7 @@
         <v>0.247694641217198</v>
       </c>
     </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="13" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A13" s="12">
         <v>2020</v>
       </c>
@@ -47044,7 +47041,7 @@
         <v>0.24636864205299799</v>
       </c>
     </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="14" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A14" s="12">
         <v>2021</v>
       </c>
@@ -47061,7 +47058,7 @@
         <v>0.24636864205299799</v>
       </c>
     </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="15" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A15" s="12">
         <v>2022</v>
       </c>
@@ -47078,7 +47075,7 @@
         <v>0.24636864205299799</v>
       </c>
     </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="16" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A16" s="12">
         <v>2023</v>
       </c>
@@ -47095,7 +47092,7 @@
         <v>0.24636864205299799</v>
       </c>
     </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="17" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A17" s="12">
         <v>2024</v>
       </c>
@@ -47112,7 +47109,7 @@
         <v>0.24636864205299799</v>
       </c>
     </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="18" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A18" s="12">
         <v>2025</v>
       </c>
@@ -47129,7 +47126,7 @@
         <v>0.24636864205299799</v>
       </c>
     </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="19" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A19" s="12">
         <v>2026</v>
       </c>
@@ -47146,7 +47143,7 @@
         <v>0.24636864205299799</v>
       </c>
     </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="20" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A20" s="12">
         <v>2027</v>
       </c>
@@ -47163,7 +47160,7 @@
         <v>0.24636864205299799</v>
       </c>
     </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="21" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A21" s="12">
         <v>2028</v>
       </c>
@@ -47180,7 +47177,7 @@
         <v>0.24636864205299799</v>
       </c>
     </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="22" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A22" s="12">
         <v>2029</v>
       </c>
@@ -47197,7 +47194,7 @@
         <v>0.24636864205299799</v>
       </c>
     </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="23" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A23" s="12">
         <v>2030</v>
       </c>
@@ -47214,7 +47211,7 @@
         <v>0.24636864205299799</v>
       </c>
     </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="24" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A24" s="12">
         <v>2031</v>
       </c>
@@ -47231,7 +47228,7 @@
         <v>0.24636864205299799</v>
       </c>
     </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="25" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A25" s="12">
         <v>2032</v>
       </c>
@@ -47248,7 +47245,7 @@
         <v>0.24636864205299799</v>
       </c>
     </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="26" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A26" s="12">
         <v>2033</v>
       </c>
@@ -47265,7 +47262,7 @@
         <v>0.24636864205299799</v>
       </c>
     </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="27" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A27" s="12">
         <v>2034</v>
       </c>
@@ -47282,7 +47279,7 @@
         <v>0.24636864205299799</v>
       </c>
     </row>
-    <row r="28" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="28" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A28" s="12">
         <v>2035</v>
       </c>
@@ -47299,7 +47296,7 @@
         <v>0.24636864205299799</v>
       </c>
     </row>
-    <row r="29" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="29" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A29" s="12">
         <v>2036</v>
       </c>
@@ -47316,7 +47313,7 @@
         <v>0.24636864205299799</v>
       </c>
     </row>
-    <row r="30" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="30" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A30" s="12">
         <v>2037</v>
       </c>
@@ -47333,7 +47330,7 @@
         <v>0.24636864205299799</v>
       </c>
     </row>
-    <row r="31" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="31" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A31" s="12">
         <v>2038</v>
       </c>
@@ -47350,7 +47347,7 @@
         <v>0.24636864205299799</v>
       </c>
     </row>
-    <row r="32" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="32" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A32" s="12">
         <v>2039</v>
       </c>
@@ -47367,7 +47364,7 @@
         <v>0.24636864205299799</v>
       </c>
     </row>
-    <row r="33" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="33" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A33" s="12">
         <v>2040</v>
       </c>
@@ -47384,7 +47381,7 @@
         <v>0.24636864205299799</v>
       </c>
     </row>
-    <row r="34" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="34" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A34" s="12">
         <v>2041</v>
       </c>
@@ -47401,7 +47398,7 @@
         <v>0.24636864205299799</v>
       </c>
     </row>
-    <row r="35" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="35" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A35" s="12">
         <v>2042</v>
       </c>
@@ -47418,7 +47415,7 @@
         <v>0.24636864205299799</v>
       </c>
     </row>
-    <row r="36" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="36" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A36" s="12">
         <v>2043</v>
       </c>
@@ -47435,7 +47432,7 @@
         <v>0.24636864205299799</v>
       </c>
     </row>
-    <row r="37" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="37" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A37" s="12">
         <v>2044</v>
       </c>
@@ -47452,7 +47449,7 @@
         <v>0.24636864205299799</v>
       </c>
     </row>
-    <row r="38" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="38" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A38" s="12">
         <v>2045</v>
       </c>
@@ -47469,7 +47466,7 @@
         <v>0.24636864205299799</v>
       </c>
     </row>
-    <row r="39" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="39" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A39" s="12">
         <v>2046</v>
       </c>
@@ -47486,7 +47483,7 @@
         <v>0.24636864205299799</v>
       </c>
     </row>
-    <row r="40" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="40" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A40" s="12">
         <v>2047</v>
       </c>
@@ -47503,7 +47500,7 @@
         <v>0.24636864205299799</v>
       </c>
     </row>
-    <row r="41" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="41" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A41" s="12">
         <v>2048</v>
       </c>
@@ -47520,7 +47517,7 @@
         <v>0.24636864205299799</v>
       </c>
     </row>
-    <row r="42" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="42" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A42" s="12">
         <v>2049</v>
       </c>
@@ -47537,7 +47534,7 @@
         <v>0.24636864205299799</v>
       </c>
     </row>
-    <row r="43" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="43" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A43" s="12">
         <v>2050</v>
       </c>
@@ -47573,12 +47570,12 @@
       <selection activeCell="L40" sqref="L40"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10" defaultRowHeight="18" x14ac:dyDescent="0.55000000000000004"/>
+  <sheetFormatPr defaultColWidth="10" defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
   <cols>
     <col min="1" max="16384" width="10" style="12"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.4">
       <c r="B1" s="180" t="s">
         <v>69</v>
       </c>
@@ -47588,7 +47585,7 @@
       </c>
       <c r="E1" s="180"/>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A2" s="12" t="s">
         <v>29</v>
       </c>
@@ -47608,7 +47605,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A3" s="12">
         <v>2010</v>
       </c>
@@ -47632,7 +47629,7 @@
         <v>-46</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A4" s="12">
         <v>2011</v>
       </c>
@@ -47656,7 +47653,7 @@
         <v>-46</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A5" s="12">
         <v>2012</v>
       </c>
@@ -47680,7 +47677,7 @@
         <v>-46</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A6" s="12">
         <v>2013</v>
       </c>
@@ -47704,7 +47701,7 @@
         <v>-46</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A7" s="12">
         <v>2014</v>
       </c>
@@ -47728,7 +47725,7 @@
         <v>-46</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A8" s="12">
         <v>2015</v>
       </c>
@@ -47752,7 +47749,7 @@
         <v>-46</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A9" s="12">
         <v>2016</v>
       </c>
@@ -47776,7 +47773,7 @@
         <v>-46</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A10" s="12">
         <v>2017</v>
       </c>
@@ -47800,7 +47797,7 @@
         <v>-46</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A11" s="12">
         <v>2018</v>
       </c>
@@ -47824,7 +47821,7 @@
         <v>-46</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A12" s="12">
         <v>2019</v>
       </c>
@@ -47848,7 +47845,7 @@
         <v>-46</v>
       </c>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A13" s="12">
         <v>2020</v>
       </c>
@@ -47872,7 +47869,7 @@
         <v>-46</v>
       </c>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A14" s="12">
         <v>2021</v>
       </c>
@@ -47896,7 +47893,7 @@
         <v>-46</v>
       </c>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A15" s="12">
         <v>2022</v>
       </c>
@@ -47920,7 +47917,7 @@
         <v>-46</v>
       </c>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A16" s="12">
         <v>2023</v>
       </c>
@@ -47944,7 +47941,7 @@
         <v>-46</v>
       </c>
     </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A17" s="12">
         <v>2024</v>
       </c>
@@ -47968,7 +47965,7 @@
         <v>-46</v>
       </c>
     </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A18" s="12">
         <v>2025</v>
       </c>
@@ -47992,7 +47989,7 @@
         <v>-46</v>
       </c>
     </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="19" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A19" s="12">
         <v>2026</v>
       </c>
@@ -48016,7 +48013,7 @@
         <v>-46</v>
       </c>
     </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="20" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A20" s="12">
         <v>2027</v>
       </c>
@@ -48040,7 +48037,7 @@
         <v>-46</v>
       </c>
     </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="21" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A21" s="12">
         <v>2028</v>
       </c>
@@ -48064,7 +48061,7 @@
         <v>-46</v>
       </c>
     </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="22" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A22" s="12">
         <v>2029</v>
       </c>
@@ -48088,7 +48085,7 @@
         <v>-46</v>
       </c>
     </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="23" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A23" s="12">
         <v>2030</v>
       </c>
@@ -48112,7 +48109,7 @@
         <v>-46</v>
       </c>
     </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="24" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A24" s="12">
         <v>2031</v>
       </c>
@@ -48136,7 +48133,7 @@
         <v>-46</v>
       </c>
     </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="25" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A25" s="12">
         <v>2032</v>
       </c>
@@ -48160,7 +48157,7 @@
         <v>-46</v>
       </c>
     </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="26" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A26" s="12">
         <v>2033</v>
       </c>
@@ -48184,7 +48181,7 @@
         <v>-46</v>
       </c>
     </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="27" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A27" s="12">
         <v>2034</v>
       </c>
@@ -48208,7 +48205,7 @@
         <v>-46</v>
       </c>
     </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="28" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A28" s="12">
         <v>2035</v>
       </c>
@@ -48232,7 +48229,7 @@
         <v>-46</v>
       </c>
     </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="29" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A29" s="12">
         <v>2036</v>
       </c>
@@ -48256,7 +48253,7 @@
         <v>-46</v>
       </c>
     </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="30" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A30" s="12">
         <v>2037</v>
       </c>
@@ -48280,7 +48277,7 @@
         <v>-46</v>
       </c>
     </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="31" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A31" s="12">
         <v>2038</v>
       </c>
@@ -48304,7 +48301,7 @@
         <v>-46</v>
       </c>
     </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="32" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A32" s="12">
         <v>2039</v>
       </c>
@@ -48328,7 +48325,7 @@
         <v>-46</v>
       </c>
     </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="33" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A33" s="12">
         <v>2040</v>
       </c>
@@ -48352,7 +48349,7 @@
         <v>-46</v>
       </c>
     </row>
-    <row r="34" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="34" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A34" s="12">
         <v>2041</v>
       </c>
@@ -48376,7 +48373,7 @@
         <v>-46</v>
       </c>
     </row>
-    <row r="35" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="35" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A35" s="12">
         <v>2042</v>
       </c>
@@ -48400,7 +48397,7 @@
         <v>-46</v>
       </c>
     </row>
-    <row r="36" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="36" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A36" s="12">
         <v>2043</v>
       </c>
@@ -48424,7 +48421,7 @@
         <v>-46</v>
       </c>
     </row>
-    <row r="37" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="37" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A37" s="12">
         <v>2044</v>
       </c>
@@ -48448,7 +48445,7 @@
         <v>-46</v>
       </c>
     </row>
-    <row r="38" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="38" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A38" s="12">
         <v>2045</v>
       </c>
@@ -48472,7 +48469,7 @@
         <v>-46</v>
       </c>
     </row>
-    <row r="39" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="39" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A39" s="12">
         <v>2046</v>
       </c>
@@ -48496,7 +48493,7 @@
         <v>-46</v>
       </c>
     </row>
-    <row r="40" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="40" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A40" s="12">
         <v>2047</v>
       </c>
@@ -48520,7 +48517,7 @@
         <v>-46</v>
       </c>
     </row>
-    <row r="41" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="41" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A41" s="12">
         <v>2048</v>
       </c>
@@ -48544,7 +48541,7 @@
         <v>-46</v>
       </c>
     </row>
-    <row r="42" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="42" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A42" s="12">
         <v>2049</v>
       </c>
@@ -48568,7 +48565,7 @@
         <v>-46</v>
       </c>
     </row>
-    <row r="43" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="43" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A43" s="12">
         <v>2050</v>
       </c>
@@ -48611,21 +48608,21 @@
       <selection activeCell="L40" sqref="L40"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10" defaultRowHeight="18" x14ac:dyDescent="0.55000000000000004"/>
+  <sheetFormatPr defaultColWidth="10" defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
   <cols>
     <col min="1" max="3" width="10" style="12"/>
     <col min="4" max="4" width="14" style="12" customWidth="1"/>
-    <col min="5" max="5" width="12.83203125" style="12" customWidth="1"/>
+    <col min="5" max="5" width="12.875" style="12" customWidth="1"/>
     <col min="6" max="16384" width="10" style="12"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.4">
       <c r="D1" s="180" t="s">
         <v>72</v>
       </c>
       <c r="E1" s="180"/>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A2" s="12" t="s">
         <v>32</v>
       </c>
@@ -48642,7 +48639,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A3" s="12" t="s">
         <v>36</v>
       </c>
@@ -48661,7 +48658,7 @@
         <v>0.88145299999999904</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A4" s="12" t="s">
         <v>36</v>
       </c>
@@ -48680,7 +48677,7 @@
         <v>0.83225699999999769</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A5" s="12" t="s">
         <v>36</v>
       </c>
@@ -48699,7 +48696,7 @@
         <v>0.85032400000000197</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A6" s="12" t="s">
         <v>36</v>
       </c>
@@ -48718,7 +48715,7 @@
         <v>0.89504799999999984</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A7" s="12" t="s">
         <v>36</v>
       </c>
@@ -48737,7 +48734,7 @@
         <v>0.89164799999999844</v>
       </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A8" s="12" t="s">
         <v>36</v>
       </c>
@@ -48756,7 +48753,7 @@
         <v>0.84963399999999989</v>
       </c>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A9" s="12" t="s">
         <v>36</v>
       </c>
@@ -48775,7 +48772,7 @@
         <v>0.84928099999999918</v>
       </c>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A10" s="12" t="s">
         <v>36</v>
       </c>
@@ -48794,7 +48791,7 @@
         <v>0.82729200000000336</v>
       </c>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A11" s="12" t="s">
         <v>36</v>
       </c>
@@ -48813,7 +48810,7 @@
         <v>0.82366900000000076</v>
       </c>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A12" s="12" t="s">
         <v>36</v>
       </c>
@@ -48832,7 +48829,7 @@
         <v>0.79807899999999898</v>
       </c>
     </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="13" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A13" s="12" t="s">
         <v>36</v>
       </c>
@@ -48851,7 +48848,7 @@
         <v>0.65058500000000286</v>
       </c>
     </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="14" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A14" s="12" t="s">
         <v>36</v>
       </c>
@@ -48870,7 +48867,7 @@
         <v>0.65558854669373945</v>
       </c>
     </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="15" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A15" s="12" t="s">
         <v>36</v>
       </c>
@@ -48889,7 +48886,7 @@
         <v>0.66059209338747482</v>
       </c>
     </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="16" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A16" s="12" t="s">
         <v>36</v>
       </c>
@@ -48908,7 +48905,7 @@
         <v>0.66559564008121153</v>
       </c>
     </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="17" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A17" s="12" t="s">
         <v>36</v>
       </c>
@@ -48927,7 +48924,7 @@
         <v>0.67059918677494679</v>
       </c>
     </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="18" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A18" s="12" t="s">
         <v>36</v>
       </c>
@@ -48946,7 +48943,7 @@
         <v>0.6756027334686836</v>
       </c>
     </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="19" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A19" s="12" t="s">
         <v>36</v>
       </c>
@@ -48965,7 +48962,7 @@
         <v>0.68060628016241875</v>
       </c>
     </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="20" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A20" s="12" t="s">
         <v>36</v>
       </c>
@@ -48984,7 +48981,7 @@
         <v>0.68560982685615557</v>
       </c>
     </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="21" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A21" s="12" t="s">
         <v>36</v>
       </c>
@@ -49003,7 +49000,7 @@
         <v>0.69061337354989083</v>
       </c>
     </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="22" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A22" s="12" t="s">
         <v>36</v>
       </c>
@@ -49022,7 +49019,7 @@
         <v>0.69561692024362598</v>
       </c>
     </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="23" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A23" s="12" t="s">
         <v>36</v>
       </c>
@@ -49041,7 +49038,7 @@
         <v>0.7006204669373628</v>
       </c>
     </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="24" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A24" s="12" t="s">
         <v>36</v>
       </c>
@@ -49060,7 +49057,7 @@
         <v>0.70562401363109795</v>
       </c>
     </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="25" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A25" s="12" t="s">
         <v>36</v>
       </c>
@@ -49079,7 +49076,7 @@
         <v>0.71062756032483476</v>
       </c>
     </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="26" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A26" s="12" t="s">
         <v>36</v>
       </c>
@@ -49098,7 +49095,7 @@
         <v>0.71563110701857002</v>
       </c>
     </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="27" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A27" s="12" t="s">
         <v>36</v>
       </c>
@@ -49117,7 +49114,7 @@
         <v>0.72063465371230673</v>
       </c>
     </row>
-    <row r="28" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="28" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A28" s="12" t="s">
         <v>36</v>
       </c>
@@ -49136,7 +49133,7 @@
         <v>0.72563820040604199</v>
       </c>
     </row>
-    <row r="29" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="29" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A29" s="12" t="s">
         <v>36</v>
       </c>
@@ -49155,7 +49152,7 @@
         <v>0.73064174709977869</v>
       </c>
     </row>
-    <row r="30" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="30" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A30" s="12" t="s">
         <v>36</v>
       </c>
@@ -49174,7 +49171,7 @@
         <v>0.73564529379351407</v>
       </c>
     </row>
-    <row r="31" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="31" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A31" s="12" t="s">
         <v>36</v>
       </c>
@@ -49193,7 +49190,7 @@
         <v>0.74064884048724933</v>
       </c>
     </row>
-    <row r="32" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="32" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A32" s="12" t="s">
         <v>36</v>
       </c>
@@ -49212,7 +49209,7 @@
         <v>0.74565238718098603</v>
       </c>
     </row>
-    <row r="33" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="33" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A33" s="12" t="s">
         <v>36</v>
       </c>
@@ -49231,7 +49228,7 @@
         <v>0.75065593387472129</v>
       </c>
     </row>
-    <row r="34" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="34" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A34" s="12" t="s">
         <v>36</v>
       </c>
@@ -49250,7 +49247,7 @@
         <v>0.755659480568458</v>
       </c>
     </row>
-    <row r="35" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="35" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A35" s="12" t="s">
         <v>36</v>
       </c>
@@ -49269,7 +49266,7 @@
         <v>0.76066302726219326</v>
       </c>
     </row>
-    <row r="36" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="36" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A36" s="12" t="s">
         <v>36</v>
       </c>
@@ -49288,7 +49285,7 @@
         <v>0.76566657395593007</v>
       </c>
     </row>
-    <row r="37" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="37" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A37" s="12" t="s">
         <v>36</v>
       </c>
@@ -49307,7 +49304,7 @@
         <v>0.77067012064966522</v>
       </c>
     </row>
-    <row r="38" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="38" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A38" s="12" t="s">
         <v>36</v>
       </c>
@@ -49326,7 +49323,7 @@
         <v>0.77567366734340204</v>
       </c>
     </row>
-    <row r="39" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="39" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A39" s="12" t="s">
         <v>36</v>
       </c>
@@ -49345,7 +49342,7 @@
         <v>0.78067721403713719</v>
       </c>
     </row>
-    <row r="40" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="40" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A40" s="12" t="s">
         <v>36</v>
       </c>
@@ -49364,7 +49361,7 @@
         <v>0.78568076073087401</v>
       </c>
     </row>
-    <row r="41" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="41" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A41" s="12" t="s">
         <v>36</v>
       </c>
@@ -49383,7 +49380,7 @@
         <v>0.79068430742460927</v>
       </c>
     </row>
-    <row r="42" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="42" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A42" s="12" t="s">
         <v>36</v>
       </c>
@@ -49402,7 +49399,7 @@
         <v>0.79568785411834453</v>
       </c>
     </row>
-    <row r="43" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="43" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A43" s="12" t="s">
         <v>36</v>
       </c>
@@ -49439,9 +49436,9 @@
       <selection activeCell="L40" sqref="L40"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.55000000000000004"/>
+  <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
   <sheetData>
-    <row r="1" spans="1:13" x14ac:dyDescent="0.55000000000000004">
+    <row r="1" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A1" s="1" t="s">
         <v>12</v>
       </c>
@@ -49482,7 +49479,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="2" spans="1:13" x14ac:dyDescent="0.55000000000000004">
+    <row r="2" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A2" s="1">
         <v>8.5853463518325892</v>
       </c>
@@ -49540,9 +49537,9 @@
       <selection activeCell="D6" sqref="D6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.55000000000000004"/>
+  <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
   <sheetData>
-    <row r="1" spans="1:29" x14ac:dyDescent="0.55000000000000004">
+    <row r="1" spans="1:29" x14ac:dyDescent="0.4">
       <c r="A1" s="10"/>
       <c r="B1" s="173" t="s">
         <v>0</v>
@@ -49577,7 +49574,7 @@
       <c r="AB1" s="173"/>
       <c r="AC1" s="174"/>
     </row>
-    <row r="2" spans="1:29" x14ac:dyDescent="0.55000000000000004">
+    <row r="2" spans="1:29" x14ac:dyDescent="0.4">
       <c r="A2" s="54" t="s">
         <v>29</v>
       </c>
@@ -49666,7 +49663,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="3" spans="1:29" x14ac:dyDescent="0.55000000000000004">
+    <row r="3" spans="1:29" x14ac:dyDescent="0.4">
       <c r="A3" s="54">
         <v>2010</v>
       </c>
@@ -49783,7 +49780,7 @@
         <v>18.520508905164583</v>
       </c>
     </row>
-    <row r="4" spans="1:29" x14ac:dyDescent="0.55000000000000004">
+    <row r="4" spans="1:29" x14ac:dyDescent="0.4">
       <c r="A4" s="55">
         <v>2020</v>
       </c>
@@ -49900,7 +49897,7 @@
         <v>14.421519005374389</v>
       </c>
     </row>
-    <row r="5" spans="1:29" x14ac:dyDescent="0.55000000000000004">
+    <row r="5" spans="1:29" x14ac:dyDescent="0.4">
       <c r="A5" s="55">
         <v>2030</v>
       </c>
@@ -50017,7 +50014,7 @@
         <v>15.082815620336001</v>
       </c>
     </row>
-    <row r="6" spans="1:29" x14ac:dyDescent="0.55000000000000004">
+    <row r="6" spans="1:29" x14ac:dyDescent="0.4">
       <c r="A6" s="55">
         <v>2040</v>
       </c>
@@ -50134,7 +50131,7 @@
         <v>15.56205437766322</v>
       </c>
     </row>
-    <row r="7" spans="1:29" x14ac:dyDescent="0.55000000000000004">
+    <row r="7" spans="1:29" x14ac:dyDescent="0.4">
       <c r="A7" s="56">
         <v>2050</v>
       </c>
@@ -50273,12 +50270,12 @@
       <selection activeCell="I43" sqref="I43"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.55000000000000004"/>
+  <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
   <cols>
-    <col min="2" max="2" width="13.33203125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="13.375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:27" x14ac:dyDescent="0.55000000000000004">
+    <row r="1" spans="1:27" x14ac:dyDescent="0.4">
       <c r="A1" s="57"/>
       <c r="B1" s="173" t="s">
         <v>0</v>
@@ -50311,7 +50308,7 @@
       <c r="Z1" s="173"/>
       <c r="AA1" s="174"/>
     </row>
-    <row r="2" spans="1:27" x14ac:dyDescent="0.55000000000000004">
+    <row r="2" spans="1:27" x14ac:dyDescent="0.4">
       <c r="A2" s="56"/>
       <c r="B2" s="4" t="s">
         <v>7</v>
@@ -50392,7 +50389,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="3" spans="1:27" x14ac:dyDescent="0.55000000000000004">
+    <row r="3" spans="1:27" x14ac:dyDescent="0.4">
       <c r="A3" s="55">
         <v>2010</v>
       </c>
@@ -50501,7 +50498,7 @@
         <v>1.2948860195235742E-2</v>
       </c>
     </row>
-    <row r="4" spans="1:27" x14ac:dyDescent="0.55000000000000004">
+    <row r="4" spans="1:27" x14ac:dyDescent="0.4">
       <c r="A4" s="55">
         <v>2020</v>
       </c>
@@ -50610,7 +50607,7 @@
         <v>0.29149825225787274</v>
       </c>
     </row>
-    <row r="5" spans="1:27" x14ac:dyDescent="0.55000000000000004">
+    <row r="5" spans="1:27" x14ac:dyDescent="0.4">
       <c r="A5" s="55">
         <v>2030</v>
       </c>
@@ -50719,7 +50716,7 @@
         <v>0.30579557674514996</v>
       </c>
     </row>
-    <row r="6" spans="1:27" x14ac:dyDescent="0.55000000000000004">
+    <row r="6" spans="1:27" x14ac:dyDescent="0.4">
       <c r="A6" s="55">
         <v>2040</v>
       </c>
@@ -50828,7 +50825,7 @@
         <v>0.31529333470978815</v>
       </c>
     </row>
-    <row r="7" spans="1:27" x14ac:dyDescent="0.55000000000000004">
+    <row r="7" spans="1:27" x14ac:dyDescent="0.4">
       <c r="A7" s="56">
         <v>2050</v>
       </c>
@@ -50959,15 +50956,15 @@
       <selection activeCell="L34" sqref="L34"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.55000000000000004"/>
+  <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
   <cols>
-    <col min="1" max="1" width="16.33203125" customWidth="1"/>
-    <col min="2" max="6" width="12.58203125" customWidth="1"/>
+    <col min="1" max="1" width="16.375" customWidth="1"/>
+    <col min="2" max="6" width="12.625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" ht="36" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="1" spans="1:6" ht="36" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A1" s="33" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="B1" s="30">
         <v>2010</v>
@@ -50976,7 +50973,7 @@
         <v>2020</v>
       </c>
       <c r="D1" s="31" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="E1" s="31" t="s">
         <v>92</v>
@@ -50985,7 +50982,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A2" s="27" t="s">
         <v>2</v>
       </c>
@@ -51009,7 +51006,7 @@
         <v>260.01618074402859</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A3" s="29" t="s">
         <v>3</v>
       </c>
@@ -51033,7 +51030,7 @@
         <v>210.67040851814829</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A4" s="27" t="s">
         <v>4</v>
       </c>
@@ -51057,7 +51054,7 @@
         <v>66.032474177397248</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A5" s="29" t="s">
         <v>5</v>
       </c>
@@ -51081,7 +51078,7 @@
         <v>52.527941152998537</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A6" s="27" t="s">
         <v>30</v>
       </c>
@@ -51105,7 +51102,7 @@
         <v>496.52581315955877</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A7" s="29" t="s">
         <v>73</v>
       </c>
@@ -51129,7 +51126,7 @@
         <v>22.660005374260319</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A8" s="27" t="s">
         <v>74</v>
       </c>
@@ -51153,7 +51150,7 @@
         <v>27.100550625829783</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A9" s="29" t="s">
         <v>75</v>
       </c>
@@ -51175,7 +51172,7 @@
         <v>-46</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A10" s="27" t="s">
         <v>27</v>
       </c>
@@ -51218,13 +51215,13 @@
       <selection activeCell="I28" sqref="I28"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.55000000000000004"/>
+  <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
   <cols>
-    <col min="1" max="52" width="28.83203125" customWidth="1"/>
-    <col min="53" max="60" width="14.33203125" customWidth="1"/>
+    <col min="1" max="52" width="28.875" customWidth="1"/>
+    <col min="53" max="60" width="14.375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:52" ht="37.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="1" spans="1:52" ht="37.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B1" s="176" t="s">
         <v>85</v>
       </c>
@@ -51291,7 +51288,7 @@
       <c r="AY1" s="175"/>
       <c r="AZ1" s="175"/>
     </row>
-    <row r="2" spans="1:52" x14ac:dyDescent="0.55000000000000004">
+    <row r="2" spans="1:52" x14ac:dyDescent="0.4">
       <c r="B2" t="s">
         <v>7</v>
       </c>
@@ -51446,7 +51443,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="3" spans="1:52" x14ac:dyDescent="0.55000000000000004">
+    <row r="3" spans="1:52" x14ac:dyDescent="0.4">
       <c r="A3" s="2">
         <v>2010</v>
       </c>
@@ -51655,7 +51652,7 @@
         <v>1.0839281159578253</v>
       </c>
     </row>
-    <row r="4" spans="1:52" x14ac:dyDescent="0.55000000000000004">
+    <row r="4" spans="1:52" x14ac:dyDescent="0.4">
       <c r="A4" s="2">
         <v>2020</v>
       </c>
@@ -51864,7 +51861,7 @@
         <v>0.95755293647594575</v>
       </c>
     </row>
-    <row r="5" spans="1:52" x14ac:dyDescent="0.55000000000000004">
+    <row r="5" spans="1:52" x14ac:dyDescent="0.4">
       <c r="A5" s="2" t="str">
         <f>シナリオ!E1&amp;CHAR(10) &amp;"（2050年）"</f>
         <v>ベースライン
@@ -52024,7 +52021,7 @@
         <v>0.8358434896893796</v>
       </c>
     </row>
-    <row r="6" spans="1:52" x14ac:dyDescent="0.55000000000000004">
+    <row r="6" spans="1:52" x14ac:dyDescent="0.4">
       <c r="A6" s="2" t="str">
         <f>シナリオ!F1&amp;CHAR(10) &amp;"（2050年）"</f>
         <v>シナリオ1
@@ -52235,7 +52232,7 @@
         <v>0.8358434896893796</v>
       </c>
     </row>
-    <row r="7" spans="1:52" x14ac:dyDescent="0.55000000000000004">
+    <row r="7" spans="1:52" x14ac:dyDescent="0.4">
       <c r="A7" s="2" t="str">
         <f>シナリオ!H1&amp;CHAR(10) &amp;"（2050年）"</f>
         <v>シナリオ2
@@ -52446,13 +52443,13 @@
         <v>0.8358434896893796</v>
       </c>
     </row>
-    <row r="8" spans="1:52" x14ac:dyDescent="0.55000000000000004">
+    <row r="8" spans="1:52" x14ac:dyDescent="0.4">
       <c r="A8" s="2"/>
     </row>
-    <row r="9" spans="1:52" x14ac:dyDescent="0.55000000000000004">
+    <row r="9" spans="1:52" x14ac:dyDescent="0.4">
       <c r="A9" s="2"/>
     </row>
-    <row r="10" spans="1:52" ht="36" x14ac:dyDescent="0.55000000000000004">
+    <row r="10" spans="1:52" ht="37.5" x14ac:dyDescent="0.4">
       <c r="A10" s="2" t="s">
         <v>94</v>
       </c>
@@ -52490,7 +52487,7 @@
 （2050年）</v>
       </c>
     </row>
-    <row r="11" spans="1:52" x14ac:dyDescent="0.55000000000000004">
+    <row r="11" spans="1:52" x14ac:dyDescent="0.4">
       <c r="A11" s="2">
         <v>2010</v>
       </c>
@@ -52528,7 +52525,7 @@
         <v>260.01618074402859</v>
       </c>
     </row>
-    <row r="12" spans="1:52" x14ac:dyDescent="0.55000000000000004">
+    <row r="12" spans="1:52" x14ac:dyDescent="0.4">
       <c r="A12" s="2">
         <v>2020</v>
       </c>
@@ -52566,7 +52563,7 @@
         <v>210.67040851814829</v>
       </c>
     </row>
-    <row r="13" spans="1:52" x14ac:dyDescent="0.55000000000000004">
+    <row r="13" spans="1:52" x14ac:dyDescent="0.4">
       <c r="A13" s="2">
         <v>2030</v>
       </c>
@@ -52604,7 +52601,7 @@
         <v>66.032474177397248</v>
       </c>
     </row>
-    <row r="14" spans="1:52" x14ac:dyDescent="0.55000000000000004">
+    <row r="14" spans="1:52" x14ac:dyDescent="0.4">
       <c r="A14" s="2">
         <v>2040</v>
       </c>
@@ -52642,7 +52639,7 @@
         <v>52.527941152998537</v>
       </c>
     </row>
-    <row r="15" spans="1:52" x14ac:dyDescent="0.55000000000000004">
+    <row r="15" spans="1:52" x14ac:dyDescent="0.4">
       <c r="A15" s="2">
         <v>2050</v>
       </c>
@@ -52680,7 +52677,7 @@
         <v>496.52581315955877</v>
       </c>
     </row>
-    <row r="16" spans="1:52" x14ac:dyDescent="0.55000000000000004">
+    <row r="16" spans="1:52" x14ac:dyDescent="0.4">
       <c r="A16" s="2"/>
       <c r="B16" s="2"/>
       <c r="C16" s="2"/>
@@ -52708,7 +52705,7 @@
         <v>22.660005374260319</v>
       </c>
     </row>
-    <row r="17" spans="1:11" x14ac:dyDescent="0.55000000000000004">
+    <row r="17" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A17" s="2" t="s">
         <v>95</v>
       </c>
@@ -52746,7 +52743,7 @@
         <v>27.100550625829783</v>
       </c>
     </row>
-    <row r="18" spans="1:11" x14ac:dyDescent="0.55000000000000004">
+    <row r="18" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A18" s="2">
         <v>2010</v>
       </c>
@@ -52784,7 +52781,7 @@
         <v>-46</v>
       </c>
     </row>
-    <row r="19" spans="1:11" x14ac:dyDescent="0.55000000000000004">
+    <row r="19" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A19" s="2">
         <v>2020</v>
       </c>
@@ -52800,7 +52797,7 @@
         <v>10.093993459056732</v>
       </c>
     </row>
-    <row r="20" spans="1:11" x14ac:dyDescent="0.55000000000000004">
+    <row r="20" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A20" s="2">
         <v>2030</v>
       </c>
@@ -52816,7 +52813,7 @@
         <v>10.108792247987818</v>
       </c>
       <c r="F20" s="2" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="G20" s="26" t="s">
         <v>98</v>
@@ -52830,7 +52827,7 @@
         <v>シナリオ2</v>
       </c>
     </row>
-    <row r="21" spans="1:11" x14ac:dyDescent="0.55000000000000004">
+    <row r="21" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A21" s="2">
         <v>2040</v>
       </c>
@@ -52860,7 +52857,7 @@
         <v>782.38668992371868</v>
       </c>
     </row>
-    <row r="22" spans="1:11" x14ac:dyDescent="0.55000000000000004">
+    <row r="22" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A22" s="2">
         <v>2050</v>
       </c>
@@ -52890,7 +52887,7 @@
         <v>866.96846537374427</v>
       </c>
     </row>
-    <row r="23" spans="1:11" x14ac:dyDescent="0.55000000000000004">
+    <row r="23" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A23" s="2"/>
       <c r="B23" s="2"/>
       <c r="C23" s="2"/>
@@ -52910,7 +52907,7 @@
         <v>933.64564358249686</v>
       </c>
     </row>
-    <row r="24" spans="1:11" x14ac:dyDescent="0.55000000000000004">
+    <row r="24" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A24" s="2" t="s">
         <v>96</v>
       </c>
@@ -52940,7 +52937,7 @@
         <v>1000.3228217912479</v>
       </c>
     </row>
-    <row r="25" spans="1:11" x14ac:dyDescent="0.55000000000000004">
+    <row r="25" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A25" s="2">
         <v>2010</v>
       </c>
@@ -52970,7 +52967,7 @@
         <v>1067.0000000000007</v>
       </c>
     </row>
-    <row r="26" spans="1:11" x14ac:dyDescent="0.55000000000000004">
+    <row r="26" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A26" s="2">
         <v>2020</v>
       </c>
@@ -52986,7 +52983,7 @@
         <v>87.696446220417343</v>
       </c>
     </row>
-    <row r="27" spans="1:11" x14ac:dyDescent="0.55000000000000004">
+    <row r="27" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A27" s="2">
         <v>2030</v>
       </c>
@@ -53002,7 +52999,7 @@
         <v>87.818187725973928</v>
       </c>
       <c r="F27" s="2" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="G27" s="26" t="s">
         <v>98</v>
@@ -53016,7 +53013,7 @@
         <v>(2050年)</v>
       </c>
     </row>
-    <row r="28" spans="1:11" x14ac:dyDescent="0.55000000000000004">
+    <row r="28" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A28" s="2">
         <v>2040</v>
       </c>
@@ -53046,7 +53043,7 @@
         <v>127.917537122642</v>
       </c>
     </row>
-    <row r="29" spans="1:11" ht="19" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="29" spans="1:11" ht="18.95" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A29" s="2">
         <v>2050</v>
       </c>
@@ -53076,7 +53073,7 @@
         <v>126.175348017836</v>
       </c>
     </row>
-    <row r="30" spans="1:11" x14ac:dyDescent="0.55000000000000004">
+    <row r="30" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A30" s="17"/>
       <c r="F30" s="2">
         <v>2030</v>
@@ -53093,9 +53090,9 @@
         <v>120.78356534522399</v>
       </c>
     </row>
-    <row r="31" spans="1:11" x14ac:dyDescent="0.55000000000000004">
+    <row r="31" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A31" s="26" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="B31" s="26" t="s">
         <v>98</v>
@@ -53123,7 +53120,7 @@
         <v>115.391782672612</v>
       </c>
     </row>
-    <row r="32" spans="1:11" x14ac:dyDescent="0.55000000000000004">
+    <row r="32" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A32" s="2">
         <v>2010</v>
       </c>
@@ -53153,7 +53150,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="33" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="33" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A33" s="2">
         <v>2020</v>
       </c>
@@ -53169,7 +53166,7 @@
         <v>76.3870734590121</v>
       </c>
     </row>
-    <row r="34" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="34" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A34" s="2">
         <v>2030</v>
       </c>
@@ -53185,7 +53182,7 @@
         <v>76.475990160001643</v>
       </c>
     </row>
-    <row r="35" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="35" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A35" s="2">
         <v>2040</v>
       </c>
@@ -53201,7 +53198,7 @@
         <v>76.564977227166807</v>
       </c>
     </row>
-    <row r="36" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="36" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A36" s="2">
         <v>2050</v>
       </c>
@@ -53217,59 +53214,59 @@
         <v>76.654034660507619</v>
       </c>
     </row>
-    <row r="37" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="37" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A37" s="17"/>
     </row>
-    <row r="38" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="38" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A38" s="17"/>
     </row>
-    <row r="39" spans="1:4" ht="37.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="39" spans="1:4" ht="37.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A39" s="17"/>
     </row>
-    <row r="40" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="40" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A40" s="17"/>
     </row>
-    <row r="41" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="41" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A41" s="17"/>
     </row>
-    <row r="42" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="42" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A42" s="17"/>
     </row>
-    <row r="43" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="43" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A43" s="17"/>
     </row>
-    <row r="44" spans="1:4" ht="37.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="44" spans="1:4" ht="37.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A44" s="17"/>
     </row>
-    <row r="45" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="45" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A45" s="17"/>
     </row>
-    <row r="46" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="46" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A46" s="17"/>
     </row>
-    <row r="47" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="47" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A47" s="17"/>
     </row>
-    <row r="48" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="48" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A48" s="17"/>
     </row>
-    <row r="49" spans="1:1" ht="37.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="49" spans="1:1" ht="37.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A49" s="17"/>
     </row>
-    <row r="50" spans="1:1" x14ac:dyDescent="0.55000000000000004">
+    <row r="50" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A50" s="17"/>
     </row>
-    <row r="51" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="51" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A51" s="17"/>
     </row>
-    <row r="52" spans="1:1" x14ac:dyDescent="0.55000000000000004">
+    <row r="52" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A52" s="17"/>
     </row>
-    <row r="53" spans="1:1" x14ac:dyDescent="0.55000000000000004">
+    <row r="53" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A53" s="17"/>
     </row>
-    <row r="56" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.55000000000000004"/>
-    <row r="61" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.55000000000000004"/>
+    <row r="56" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="61" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.4"/>
   </sheetData>
   <sheetProtection sheet="1" objects="1" scenarios="1"/>
   <mergeCells count="7">
@@ -53297,13 +53294,13 @@
       <selection activeCell="K27" sqref="K27"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.55000000000000004"/>
+  <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
   <cols>
-    <col min="1" max="52" width="28.83203125" customWidth="1"/>
-    <col min="53" max="60" width="14.33203125" customWidth="1"/>
+    <col min="1" max="52" width="28.875" customWidth="1"/>
+    <col min="53" max="60" width="14.375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:52" ht="37.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="1" spans="1:52" ht="37.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B1" s="176" t="s">
         <v>85</v>
       </c>
@@ -53370,7 +53367,7 @@
       <c r="AY1" s="175"/>
       <c r="AZ1" s="175"/>
     </row>
-    <row r="2" spans="1:52" x14ac:dyDescent="0.55000000000000004">
+    <row r="2" spans="1:52" x14ac:dyDescent="0.4">
       <c r="B2" t="s">
         <v>7</v>
       </c>
@@ -53525,7 +53522,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="3" spans="1:52" x14ac:dyDescent="0.55000000000000004">
+    <row r="3" spans="1:52" x14ac:dyDescent="0.4">
       <c r="A3" s="2">
         <v>2010</v>
       </c>
@@ -53734,7 +53731,7 @@
         <v>1.0839281159578253</v>
       </c>
     </row>
-    <row r="4" spans="1:52" x14ac:dyDescent="0.55000000000000004">
+    <row r="4" spans="1:52" x14ac:dyDescent="0.4">
       <c r="A4" s="2">
         <v>2020</v>
       </c>
@@ -53943,7 +53940,7 @@
         <v>0.95755293647594575</v>
       </c>
     </row>
-    <row r="5" spans="1:52" x14ac:dyDescent="0.55000000000000004">
+    <row r="5" spans="1:52" x14ac:dyDescent="0.4">
       <c r="A5" s="2">
         <v>2050</v>
       </c>
@@ -54101,7 +54098,7 @@
         <v>0.8358434896893796</v>
       </c>
     </row>
-    <row r="6" spans="1:52" x14ac:dyDescent="0.55000000000000004">
+    <row r="6" spans="1:52" x14ac:dyDescent="0.4">
       <c r="A6" s="2" t="str">
         <f>シナリオ!F1&amp;CHAR(10) &amp;"（2050年）"</f>
         <v>シナリオ1
@@ -54312,7 +54309,7 @@
         <v>0.8358434896893796</v>
       </c>
     </row>
-    <row r="7" spans="1:52" x14ac:dyDescent="0.55000000000000004">
+    <row r="7" spans="1:52" x14ac:dyDescent="0.4">
       <c r="A7" s="2" t="str">
         <f>シナリオ!H1&amp;CHAR(10) &amp;"（2050年）"</f>
         <v>シナリオ2
@@ -54523,13 +54520,13 @@
         <v>0.8358434896893796</v>
       </c>
     </row>
-    <row r="8" spans="1:52" x14ac:dyDescent="0.55000000000000004">
+    <row r="8" spans="1:52" x14ac:dyDescent="0.4">
       <c r="A8" s="2"/>
     </row>
-    <row r="9" spans="1:52" x14ac:dyDescent="0.55000000000000004">
+    <row r="9" spans="1:52" x14ac:dyDescent="0.4">
       <c r="A9" s="2"/>
     </row>
-    <row r="10" spans="1:52" ht="36" x14ac:dyDescent="0.55000000000000004">
+    <row r="10" spans="1:52" ht="37.5" x14ac:dyDescent="0.4">
       <c r="A10" s="2" t="s">
         <v>94</v>
       </c>
@@ -54565,7 +54562,7 @@
 （2050年）</v>
       </c>
     </row>
-    <row r="11" spans="1:52" x14ac:dyDescent="0.55000000000000004">
+    <row r="11" spans="1:52" x14ac:dyDescent="0.4">
       <c r="A11" s="2">
         <v>2010</v>
       </c>
@@ -54603,7 +54600,7 @@
         <v>260.01618074402859</v>
       </c>
     </row>
-    <row r="12" spans="1:52" x14ac:dyDescent="0.55000000000000004">
+    <row r="12" spans="1:52" x14ac:dyDescent="0.4">
       <c r="A12" s="2">
         <v>2020</v>
       </c>
@@ -54641,7 +54638,7 @@
         <v>210.67040851814829</v>
       </c>
     </row>
-    <row r="13" spans="1:52" x14ac:dyDescent="0.55000000000000004">
+    <row r="13" spans="1:52" x14ac:dyDescent="0.4">
       <c r="A13" s="2">
         <v>2030</v>
       </c>
@@ -54679,7 +54676,7 @@
         <v>66.032474177397248</v>
       </c>
     </row>
-    <row r="14" spans="1:52" x14ac:dyDescent="0.55000000000000004">
+    <row r="14" spans="1:52" x14ac:dyDescent="0.4">
       <c r="A14" s="2">
         <v>2040</v>
       </c>
@@ -54717,7 +54714,7 @@
         <v>52.527941152998537</v>
       </c>
     </row>
-    <row r="15" spans="1:52" x14ac:dyDescent="0.55000000000000004">
+    <row r="15" spans="1:52" x14ac:dyDescent="0.4">
       <c r="A15" s="2">
         <v>2050</v>
       </c>
@@ -54755,7 +54752,7 @@
         <v>496.52581315955877</v>
       </c>
     </row>
-    <row r="16" spans="1:52" x14ac:dyDescent="0.55000000000000004">
+    <row r="16" spans="1:52" x14ac:dyDescent="0.4">
       <c r="A16" s="2"/>
       <c r="B16" s="2"/>
       <c r="C16" s="2"/>
@@ -54783,7 +54780,7 @@
         <v>22.660005374260319</v>
       </c>
     </row>
-    <row r="17" spans="1:11" x14ac:dyDescent="0.55000000000000004">
+    <row r="17" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A17" s="2" t="s">
         <v>95</v>
       </c>
@@ -54821,7 +54818,7 @@
         <v>27.100550625829783</v>
       </c>
     </row>
-    <row r="18" spans="1:11" x14ac:dyDescent="0.55000000000000004">
+    <row r="18" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A18" s="2">
         <v>2010</v>
       </c>
@@ -54859,7 +54856,7 @@
         <v>-46</v>
       </c>
     </row>
-    <row r="19" spans="1:11" x14ac:dyDescent="0.55000000000000004">
+    <row r="19" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A19" s="2">
         <v>2020</v>
       </c>
@@ -54875,7 +54872,7 @@
         <v>10.093993459056732</v>
       </c>
     </row>
-    <row r="20" spans="1:11" x14ac:dyDescent="0.55000000000000004">
+    <row r="20" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A20" s="2">
         <v>2030</v>
       </c>
@@ -54891,7 +54888,7 @@
         <v>10.108792247987818</v>
       </c>
       <c r="F20" s="2" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="G20" s="26" t="s">
         <v>98</v>
@@ -54905,7 +54902,7 @@
         <v>シナリオ2</v>
       </c>
     </row>
-    <row r="21" spans="1:11" x14ac:dyDescent="0.55000000000000004">
+    <row r="21" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A21" s="2">
         <v>2040</v>
       </c>
@@ -54935,7 +54932,7 @@
         <v>782.38668992371868</v>
       </c>
     </row>
-    <row r="22" spans="1:11" x14ac:dyDescent="0.55000000000000004">
+    <row r="22" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A22" s="2">
         <v>2050</v>
       </c>
@@ -54965,7 +54962,7 @@
         <v>866.96846537374427</v>
       </c>
     </row>
-    <row r="23" spans="1:11" x14ac:dyDescent="0.55000000000000004">
+    <row r="23" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A23" s="2"/>
       <c r="B23" s="2"/>
       <c r="C23" s="2"/>
@@ -54985,7 +54982,7 @@
         <v>933.64564358249686</v>
       </c>
     </row>
-    <row r="24" spans="1:11" x14ac:dyDescent="0.55000000000000004">
+    <row r="24" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A24" s="2" t="s">
         <v>96</v>
       </c>
@@ -55015,7 +55012,7 @@
         <v>1000.3228217912479</v>
       </c>
     </row>
-    <row r="25" spans="1:11" x14ac:dyDescent="0.55000000000000004">
+    <row r="25" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A25" s="2">
         <v>2010</v>
       </c>
@@ -55045,7 +55042,7 @@
         <v>1067.0000000000007</v>
       </c>
     </row>
-    <row r="26" spans="1:11" x14ac:dyDescent="0.55000000000000004">
+    <row r="26" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A26" s="2">
         <v>2020</v>
       </c>
@@ -55061,7 +55058,7 @@
         <v>87.696446220417343</v>
       </c>
     </row>
-    <row r="27" spans="1:11" x14ac:dyDescent="0.55000000000000004">
+    <row r="27" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A27" s="2">
         <v>2030</v>
       </c>
@@ -55077,7 +55074,7 @@
         <v>87.818187725973928</v>
       </c>
       <c r="F27" s="2" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="G27" s="26" t="s">
         <v>98</v>
@@ -55091,7 +55088,7 @@
         <v>(2050年)</v>
       </c>
     </row>
-    <row r="28" spans="1:11" x14ac:dyDescent="0.55000000000000004">
+    <row r="28" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A28" s="2">
         <v>2040</v>
       </c>
@@ -55121,7 +55118,7 @@
         <v>127.917537122642</v>
       </c>
     </row>
-    <row r="29" spans="1:11" ht="19" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="29" spans="1:11" ht="18.95" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A29" s="2">
         <v>2050</v>
       </c>
@@ -55151,7 +55148,7 @@
         <v>126.175348017836</v>
       </c>
     </row>
-    <row r="30" spans="1:11" x14ac:dyDescent="0.55000000000000004">
+    <row r="30" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A30" s="17"/>
       <c r="F30" s="2">
         <v>2030</v>
@@ -55168,9 +55165,9 @@
         <v>120.78356534522399</v>
       </c>
     </row>
-    <row r="31" spans="1:11" x14ac:dyDescent="0.55000000000000004">
+    <row r="31" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A31" s="26" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="B31" s="26" t="s">
         <v>98</v>
@@ -55198,7 +55195,7 @@
         <v>115.391782672612</v>
       </c>
     </row>
-    <row r="32" spans="1:11" x14ac:dyDescent="0.55000000000000004">
+    <row r="32" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A32" s="2">
         <v>2010</v>
       </c>
@@ -55228,7 +55225,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="33" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="33" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A33" s="2">
         <v>2020</v>
       </c>
@@ -55244,7 +55241,7 @@
         <v>76.3870734590121</v>
       </c>
     </row>
-    <row r="34" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="34" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A34" s="2">
         <v>2030</v>
       </c>
@@ -55260,7 +55257,7 @@
         <v>76.475990160001643</v>
       </c>
     </row>
-    <row r="35" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="35" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A35" s="2">
         <v>2040</v>
       </c>
@@ -55276,7 +55273,7 @@
         <v>76.564977227166807</v>
       </c>
     </row>
-    <row r="36" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="36" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A36" s="2">
         <v>2050</v>
       </c>
@@ -55292,59 +55289,59 @@
         <v>76.654034660507619</v>
       </c>
     </row>
-    <row r="37" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="37" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A37" s="17"/>
     </row>
-    <row r="38" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="38" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A38" s="17"/>
     </row>
-    <row r="39" spans="1:4" ht="37.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="39" spans="1:4" ht="37.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A39" s="17"/>
     </row>
-    <row r="40" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="40" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A40" s="17"/>
     </row>
-    <row r="41" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="41" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A41" s="17"/>
     </row>
-    <row r="42" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="42" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A42" s="17"/>
     </row>
-    <row r="43" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="43" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A43" s="17"/>
     </row>
-    <row r="44" spans="1:4" ht="37.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="44" spans="1:4" ht="37.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A44" s="17"/>
     </row>
-    <row r="45" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="45" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A45" s="17"/>
     </row>
-    <row r="46" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="46" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A46" s="17"/>
     </row>
-    <row r="47" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="47" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A47" s="17"/>
     </row>
-    <row r="48" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="48" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A48" s="17"/>
     </row>
-    <row r="49" spans="1:1" ht="37.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="49" spans="1:1" ht="37.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A49" s="17"/>
     </row>
-    <row r="50" spans="1:1" x14ac:dyDescent="0.55000000000000004">
+    <row r="50" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A50" s="17"/>
     </row>
-    <row r="51" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="51" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A51" s="17"/>
     </row>
-    <row r="52" spans="1:1" x14ac:dyDescent="0.55000000000000004">
+    <row r="52" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A52" s="17"/>
     </row>
-    <row r="53" spans="1:1" x14ac:dyDescent="0.55000000000000004">
+    <row r="53" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A53" s="17"/>
     </row>
-    <row r="56" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.55000000000000004"/>
-    <row r="61" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.55000000000000004"/>
+    <row r="56" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="61" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.4"/>
   </sheetData>
   <mergeCells count="7">
     <mergeCell ref="AV1:AZ1"/>
@@ -55368,7 +55365,7 @@
       <selection activeCell="O104" sqref="O104"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.55000000000000004"/>
+  <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
   <sheetData/>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -55384,9 +55381,9 @@
       <selection activeCell="Q36" sqref="Q36"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.55000000000000004"/>
+  <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
   <sheetData>
-    <row r="1" spans="1:30" x14ac:dyDescent="0.55000000000000004">
+    <row r="1" spans="1:30" x14ac:dyDescent="0.4">
       <c r="A1" s="10"/>
       <c r="B1" s="4"/>
       <c r="C1" s="177" t="s">
@@ -55422,7 +55419,7 @@
       <c r="AC1" s="173"/>
       <c r="AD1" s="174"/>
     </row>
-    <row r="2" spans="1:30" x14ac:dyDescent="0.55000000000000004">
+    <row r="2" spans="1:30" x14ac:dyDescent="0.4">
       <c r="A2" s="8"/>
       <c r="B2" s="5"/>
       <c r="C2" s="25" t="s">
@@ -55510,7 +55507,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="3" spans="1:30" x14ac:dyDescent="0.55000000000000004">
+    <row r="3" spans="1:30" x14ac:dyDescent="0.4">
       <c r="A3" s="10" t="s">
         <v>2</v>
       </c>
@@ -55550,7 +55547,7 @@
         <v>269.51474216725944</v>
       </c>
     </row>
-    <row r="4" spans="1:30" x14ac:dyDescent="0.55000000000000004">
+    <row r="4" spans="1:30" x14ac:dyDescent="0.4">
       <c r="A4" s="9"/>
       <c r="B4" s="3">
         <v>2020</v>
@@ -55588,7 +55585,7 @@
         <v>209.4235083709562</v>
       </c>
     </row>
-    <row r="5" spans="1:30" x14ac:dyDescent="0.55000000000000004">
+    <row r="5" spans="1:30" x14ac:dyDescent="0.4">
       <c r="A5" s="9"/>
       <c r="B5" s="3">
         <v>2030</v>
@@ -55626,7 +55623,7 @@
         <v>226.19302313453261</v>
       </c>
     </row>
-    <row r="6" spans="1:30" x14ac:dyDescent="0.55000000000000004">
+    <row r="6" spans="1:30" x14ac:dyDescent="0.4">
       <c r="A6" s="9"/>
       <c r="B6" s="3">
         <v>2040</v>
@@ -55664,7 +55661,7 @@
         <v>243.0572472588897</v>
       </c>
     </row>
-    <row r="7" spans="1:30" x14ac:dyDescent="0.55000000000000004">
+    <row r="7" spans="1:30" x14ac:dyDescent="0.4">
       <c r="A7" s="9"/>
       <c r="B7" s="3">
         <v>2050</v>
@@ -55702,7 +55699,7 @@
         <v>260.01618074402859</v>
       </c>
     </row>
-    <row r="8" spans="1:30" x14ac:dyDescent="0.55000000000000004">
+    <row r="8" spans="1:30" x14ac:dyDescent="0.4">
       <c r="A8" s="9" t="s">
         <v>3</v>
       </c>
@@ -55742,7 +55739,7 @@
         <v>249.02275586606822</v>
       </c>
     </row>
-    <row r="9" spans="1:30" x14ac:dyDescent="0.55000000000000004">
+    <row r="9" spans="1:30" x14ac:dyDescent="0.4">
       <c r="A9" s="9"/>
       <c r="B9" s="3">
         <v>2020</v>
@@ -55780,7 +55777,7 @@
         <v>196.15609230500615</v>
       </c>
     </row>
-    <row r="10" spans="1:30" x14ac:dyDescent="0.55000000000000004">
+    <row r="10" spans="1:30" x14ac:dyDescent="0.4">
       <c r="A10" s="9"/>
       <c r="B10" s="3">
         <v>2030</v>
@@ -55818,7 +55815,7 @@
         <v>202.28084981729302</v>
       </c>
     </row>
-    <row r="11" spans="1:30" x14ac:dyDescent="0.55000000000000004">
+    <row r="11" spans="1:30" x14ac:dyDescent="0.4">
       <c r="A11" s="9"/>
       <c r="B11" s="3">
         <v>2040</v>
@@ -55856,7 +55853,7 @@
         <v>207.1193734739293</v>
       </c>
     </row>
-    <row r="12" spans="1:30" x14ac:dyDescent="0.55000000000000004">
+    <row r="12" spans="1:30" x14ac:dyDescent="0.4">
       <c r="A12" s="9"/>
       <c r="B12" s="3">
         <v>2050</v>
@@ -55894,7 +55891,7 @@
         <v>210.67040851814829</v>
       </c>
     </row>
-    <row r="13" spans="1:30" x14ac:dyDescent="0.55000000000000004">
+    <row r="13" spans="1:30" x14ac:dyDescent="0.4">
       <c r="A13" s="9" t="s">
         <v>4</v>
       </c>
@@ -55934,7 +55931,7 @@
         <v>63.618347666356769</v>
       </c>
     </row>
-    <row r="14" spans="1:30" x14ac:dyDescent="0.55000000000000004">
+    <row r="14" spans="1:30" x14ac:dyDescent="0.4">
       <c r="A14" s="9"/>
       <c r="B14" s="3">
         <v>2020</v>
@@ -55972,7 +55969,7 @@
         <v>52.883709709806709</v>
       </c>
     </row>
-    <row r="15" spans="1:30" x14ac:dyDescent="0.55000000000000004">
+    <row r="15" spans="1:30" x14ac:dyDescent="0.4">
       <c r="A15" s="9"/>
       <c r="B15" s="3">
         <v>2030</v>
@@ -56010,7 +56007,7 @@
         <v>58.626910469997512</v>
       </c>
     </row>
-    <row r="16" spans="1:30" x14ac:dyDescent="0.55000000000000004">
+    <row r="16" spans="1:30" x14ac:dyDescent="0.4">
       <c r="A16" s="9"/>
       <c r="B16" s="3">
         <v>2040</v>
@@ -56048,7 +56045,7 @@
         <v>61.872842399221625</v>
       </c>
     </row>
-    <row r="17" spans="1:30" x14ac:dyDescent="0.55000000000000004">
+    <row r="17" spans="1:30" x14ac:dyDescent="0.4">
       <c r="A17" s="9"/>
       <c r="B17" s="3">
         <v>2050</v>
@@ -56086,7 +56083,7 @@
         <v>66.032474177397248</v>
       </c>
     </row>
-    <row r="18" spans="1:30" x14ac:dyDescent="0.55000000000000004">
+    <row r="18" spans="1:30" x14ac:dyDescent="0.4">
       <c r="A18" s="9" t="s">
         <v>5</v>
       </c>
@@ -56098,7 +56095,7 @@
       <c r="Q18" s="9"/>
       <c r="AD18" s="3"/>
     </row>
-    <row r="19" spans="1:30" x14ac:dyDescent="0.55000000000000004">
+    <row r="19" spans="1:30" x14ac:dyDescent="0.4">
       <c r="A19" s="9"/>
       <c r="B19" s="3">
         <v>2020</v>
@@ -56136,7 +56133,7 @@
         <v>60.215801887775498</v>
       </c>
     </row>
-    <row r="20" spans="1:30" x14ac:dyDescent="0.55000000000000004">
+    <row r="20" spans="1:30" x14ac:dyDescent="0.4">
       <c r="A20" s="9"/>
       <c r="B20" s="3">
         <v>2030</v>
@@ -56174,7 +56171,7 @@
         <v>57.654215780744003</v>
       </c>
     </row>
-    <row r="21" spans="1:30" x14ac:dyDescent="0.55000000000000004">
+    <row r="21" spans="1:30" x14ac:dyDescent="0.4">
       <c r="A21" s="9"/>
       <c r="B21" s="3">
         <v>2040</v>
@@ -56212,7 +56209,7 @@
         <v>55.091595535818357</v>
       </c>
     </row>
-    <row r="22" spans="1:30" x14ac:dyDescent="0.55000000000000004">
+    <row r="22" spans="1:30" x14ac:dyDescent="0.4">
       <c r="A22" s="9"/>
       <c r="B22" s="3">
         <v>2050</v>
@@ -56250,7 +56247,7 @@
         <v>52.527941152998537</v>
       </c>
     </row>
-    <row r="23" spans="1:30" x14ac:dyDescent="0.55000000000000004">
+    <row r="23" spans="1:30" x14ac:dyDescent="0.4">
       <c r="A23" s="9" t="s">
         <v>30</v>
       </c>
@@ -56370,7 +56367,7 @@
         <v>476.37955455993358</v>
       </c>
     </row>
-    <row r="24" spans="1:30" x14ac:dyDescent="0.55000000000000004">
+    <row r="24" spans="1:30" x14ac:dyDescent="0.4">
       <c r="A24" s="9"/>
       <c r="B24" s="3">
         <v>2020</v>
@@ -56488,7 +56485,7 @@
         <v>449.00553720294573</v>
       </c>
     </row>
-    <row r="25" spans="1:30" x14ac:dyDescent="0.55000000000000004">
+    <row r="25" spans="1:30" x14ac:dyDescent="0.4">
       <c r="A25" s="9"/>
       <c r="B25" s="3">
         <v>2030</v>
@@ -56606,7 +56603,7 @@
         <v>469.09978467411884</v>
       </c>
     </row>
-    <row r="26" spans="1:30" x14ac:dyDescent="0.55000000000000004">
+    <row r="26" spans="1:30" x14ac:dyDescent="0.4">
       <c r="A26" s="9"/>
       <c r="B26" s="3">
         <v>2040</v>
@@ -56724,7 +56721,7 @@
         <v>481.68602757824101</v>
       </c>
     </row>
-    <row r="27" spans="1:30" x14ac:dyDescent="0.55000000000000004">
+    <row r="27" spans="1:30" x14ac:dyDescent="0.4">
       <c r="A27" s="9"/>
       <c r="B27" s="3">
         <v>2050</v>
@@ -56842,7 +56839,7 @@
         <v>496.52581315955877</v>
       </c>
     </row>
-    <row r="28" spans="1:30" x14ac:dyDescent="0.55000000000000004">
+    <row r="28" spans="1:30" x14ac:dyDescent="0.4">
       <c r="A28" s="9" t="s">
         <v>73</v>
       </c>
@@ -56860,7 +56857,7 @@
         <v>28.775119328906975</v>
       </c>
     </row>
-    <row r="29" spans="1:30" x14ac:dyDescent="0.55000000000000004">
+    <row r="29" spans="1:30" x14ac:dyDescent="0.4">
       <c r="A29" s="9"/>
       <c r="B29" s="3">
         <v>2020</v>
@@ -56876,7 +56873,7 @@
         <v>25.99212785621209</v>
       </c>
     </row>
-    <row r="30" spans="1:30" x14ac:dyDescent="0.55000000000000004">
+    <row r="30" spans="1:30" x14ac:dyDescent="0.4">
       <c r="A30" s="9"/>
       <c r="B30" s="3">
         <v>2030</v>
@@ -56892,7 +56889,7 @@
         <v>24.881420362228166</v>
       </c>
     </row>
-    <row r="31" spans="1:30" x14ac:dyDescent="0.55000000000000004">
+    <row r="31" spans="1:30" x14ac:dyDescent="0.4">
       <c r="A31" s="9"/>
       <c r="B31" s="3">
         <v>2040</v>
@@ -56908,7 +56905,7 @@
         <v>23.770712868244242</v>
       </c>
     </row>
-    <row r="32" spans="1:30" x14ac:dyDescent="0.55000000000000004">
+    <row r="32" spans="1:30" x14ac:dyDescent="0.4">
       <c r="A32" s="9"/>
       <c r="B32" s="3">
         <v>2050</v>
@@ -56924,7 +56921,7 @@
         <v>22.660005374260319</v>
       </c>
     </row>
-    <row r="33" spans="1:30" x14ac:dyDescent="0.55000000000000004">
+    <row r="33" spans="1:30" x14ac:dyDescent="0.4">
       <c r="A33" s="9" t="s">
         <v>74</v>
       </c>
@@ -56942,7 +56939,7 @@
         <v>29.46362437612942</v>
       </c>
     </row>
-    <row r="34" spans="1:30" x14ac:dyDescent="0.55000000000000004">
+    <row r="34" spans="1:30" x14ac:dyDescent="0.4">
       <c r="A34" s="9"/>
       <c r="B34" s="3">
         <v>2020</v>
@@ -56958,7 +56955,7 @@
         <v>31.085649151718691</v>
       </c>
     </row>
-    <row r="35" spans="1:30" x14ac:dyDescent="0.55000000000000004">
+    <row r="35" spans="1:30" x14ac:dyDescent="0.4">
       <c r="A35" s="9"/>
       <c r="B35" s="3">
         <v>2030</v>
@@ -56974,7 +56971,7 @@
         <v>29.757282976422385</v>
       </c>
     </row>
-    <row r="36" spans="1:30" x14ac:dyDescent="0.55000000000000004">
+    <row r="36" spans="1:30" x14ac:dyDescent="0.4">
       <c r="A36" s="9"/>
       <c r="B36" s="3">
         <v>2040</v>
@@ -56990,7 +56987,7 @@
         <v>28.428916801126086</v>
       </c>
     </row>
-    <row r="37" spans="1:30" x14ac:dyDescent="0.55000000000000004">
+    <row r="37" spans="1:30" x14ac:dyDescent="0.4">
       <c r="A37" s="9"/>
       <c r="B37" s="3">
         <v>2050</v>
@@ -57006,7 +57003,7 @@
         <v>27.100550625829783</v>
       </c>
     </row>
-    <row r="38" spans="1:30" x14ac:dyDescent="0.55000000000000004">
+    <row r="38" spans="1:30" x14ac:dyDescent="0.4">
       <c r="A38" s="9" t="s">
         <v>75</v>
       </c>
@@ -57024,7 +57021,7 @@
         <v>-46</v>
       </c>
     </row>
-    <row r="39" spans="1:30" x14ac:dyDescent="0.55000000000000004">
+    <row r="39" spans="1:30" x14ac:dyDescent="0.4">
       <c r="A39" s="9"/>
       <c r="B39" s="3">
         <v>2020</v>
@@ -57040,7 +57037,7 @@
         <v>-46</v>
       </c>
     </row>
-    <row r="40" spans="1:30" x14ac:dyDescent="0.55000000000000004">
+    <row r="40" spans="1:30" x14ac:dyDescent="0.4">
       <c r="A40" s="9"/>
       <c r="B40" s="3">
         <v>2030</v>
@@ -57056,7 +57053,7 @@
         <v>-46</v>
       </c>
     </row>
-    <row r="41" spans="1:30" x14ac:dyDescent="0.55000000000000004">
+    <row r="41" spans="1:30" x14ac:dyDescent="0.4">
       <c r="A41" s="9"/>
       <c r="B41" s="3">
         <v>2040</v>
@@ -57072,7 +57069,7 @@
         <v>-46</v>
       </c>
     </row>
-    <row r="42" spans="1:30" x14ac:dyDescent="0.55000000000000004">
+    <row r="42" spans="1:30" x14ac:dyDescent="0.4">
       <c r="A42" s="9"/>
       <c r="B42" s="3">
         <v>2050</v>
@@ -57088,7 +57085,7 @@
         <v>-46</v>
       </c>
     </row>
-    <row r="43" spans="1:30" x14ac:dyDescent="0.55000000000000004">
+    <row r="43" spans="1:30" x14ac:dyDescent="0.4">
       <c r="A43" s="9" t="s">
         <v>28</v>
       </c>
@@ -57208,7 +57205,7 @@
         <v>1070.7741439646545</v>
       </c>
     </row>
-    <row r="44" spans="1:30" x14ac:dyDescent="0.55000000000000004">
+    <row r="44" spans="1:30" x14ac:dyDescent="0.4">
       <c r="A44" s="9"/>
       <c r="B44">
         <v>2020</v>
@@ -57326,7 +57323,7 @@
         <v>978.76242648442098</v>
       </c>
     </row>
-    <row r="45" spans="1:30" x14ac:dyDescent="0.55000000000000004">
+    <row r="45" spans="1:30" x14ac:dyDescent="0.4">
       <c r="A45" s="9"/>
       <c r="B45">
         <v>2030</v>
@@ -57444,7 +57441,7 @@
         <v>1022.4934872153367</v>
       </c>
     </row>
-    <row r="46" spans="1:30" x14ac:dyDescent="0.55000000000000004">
+    <row r="46" spans="1:30" x14ac:dyDescent="0.4">
       <c r="A46" s="9"/>
       <c r="B46">
         <v>2040</v>
@@ -57562,7 +57559,7 @@
         <v>1055.0267159154703</v>
       </c>
     </row>
-    <row r="47" spans="1:30" x14ac:dyDescent="0.55000000000000004">
+    <row r="47" spans="1:30" x14ac:dyDescent="0.4">
       <c r="A47" s="8"/>
       <c r="B47" s="5">
         <v>2050</v>

--- a/xlsx/model2.xlsx
+++ b/xlsx/model2.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\R\TA\xlsx\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{704C91D2-0E6E-4A81-A993-89F2A29E8559}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8641E319-9B82-4329-BDD7-1D5C1D9B06F5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21120" tabRatio="878" xr2:uid="{BCC5EA96-140E-4D1F-AEAE-F8AA11DA45EB}"/>
+    <workbookView xWindow="38280" yWindow="2385" windowWidth="29040" windowHeight="15720" tabRatio="878" xr2:uid="{BCC5EA96-140E-4D1F-AEAE-F8AA11DA45EB}"/>
   </bookViews>
   <sheets>
     <sheet name="シナリオ" sheetId="1" r:id="rId1"/>
@@ -40,9 +40,6 @@
     <sheet name="IND_BF" sheetId="47" state="hidden" r:id="rId25"/>
     <sheet name="LCOE" sheetId="60" state="hidden" r:id="rId26"/>
   </sheets>
-  <externalReferences>
-    <externalReference r:id="rId27"/>
-  </externalReferences>
   <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -1407,67 +1404,13 @@
     <xf numFmtId="1" fontId="0" fillId="3" borderId="6" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="179" fontId="0" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="179" fontId="0" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="179" fontId="0" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="180" fontId="0" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
@@ -1494,13 +1437,13 @@
     <xf numFmtId="180" fontId="0" fillId="2" borderId="9" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="7" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1563,14 +1506,68 @@
     <xf numFmtId="0" fontId="4" fillId="6" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="1" fontId="0" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="1" fontId="0" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="1" fontId="0" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="179" fontId="0" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="179" fontId="0" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="179" fontId="0" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1617,13 +1614,6 @@
     <dxf>
       <fill>
         <patternFill>
-          <bgColor theme="8" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
           <bgColor theme="8" tint="0.79998168889431442"/>
         </patternFill>
       </fill>
@@ -1632,6 +1622,13 @@
       <fill>
         <patternFill>
           <bgColor theme="0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="8" tint="0.39994506668294322"/>
         </patternFill>
       </fill>
     </dxf>
@@ -3751,7 +3748,7 @@
             </a:r>
             <a:r>
               <a:rPr lang="en-US" altLang="ja-JP" b="1" baseline="30000"/>
-              <a:t>5</a:t>
+              <a:t>6</a:t>
             </a:r>
             <a:endParaRPr lang="ja-JP" altLang="en-US" b="1" baseline="30000"/>
           </a:p>
@@ -4285,7 +4282,7 @@
             </a:r>
             <a:r>
               <a:rPr lang="en-US" altLang="ja-JP" b="1" baseline="30000"/>
-              <a:t>6-9</a:t>
+              <a:t>7-10</a:t>
             </a:r>
             <a:endParaRPr lang="ja-JP" altLang="en-US" b="1" baseline="30000"/>
           </a:p>
@@ -10859,19 +10856,19 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="5"/>
                 <c:pt idx="0">
-                  <c:v>1070.7741439646545</c:v>
+                  <c:v>1024.2639946178085</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>978.76242648442098</c:v>
+                  <c:v>942.06823852743798</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>1022.4934872153367</c:v>
+                  <c:v>984.39591573841176</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>1055.0267159154703</c:v>
+                  <c:v>1015.8856723562906</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>1089.5333737522215</c:v>
+                  <c:v>1049.4075686444387</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -10940,19 +10937,19 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="5"/>
                 <c:pt idx="0">
-                  <c:v>1070.7741439646545</c:v>
+                  <c:v>1024.2639946178085</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>978.76242648442098</c:v>
+                  <c:v>942.06823852743798</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>1022.4934872153367</c:v>
+                  <c:v>984.39591573841176</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>1055.0267159154703</c:v>
+                  <c:v>1015.8856723562906</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>1089.5333737522215</c:v>
+                  <c:v>1049.4075686444387</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -11021,19 +11018,19 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="5"/>
                 <c:pt idx="0">
-                  <c:v>1070.7741439646545</c:v>
+                  <c:v>1024.2639946178085</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>978.76242648442098</c:v>
+                  <c:v>942.06823852743798</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>1022.4934872153367</c:v>
+                  <c:v>984.39591573841176</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>1055.0267159154703</c:v>
+                  <c:v>1015.8856723562906</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>1089.5333737522215</c:v>
+                  <c:v>1049.4075686444387</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -12779,19 +12776,19 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="5"/>
                 <c:pt idx="0">
-                  <c:v>1070.7741439646545</c:v>
+                  <c:v>1024.2639946178085</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>978.76242648442098</c:v>
+                  <c:v>942.06823852743798</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>1022.4934872153367</c:v>
+                  <c:v>984.39591573841176</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>1055.0267159154703</c:v>
+                  <c:v>1015.8856723562906</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>1089.5333737522215</c:v>
+                  <c:v>1049.4075686444387</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -12892,19 +12889,19 @@
                       <c:formatCode>General</c:formatCode>
                       <c:ptCount val="5"/>
                       <c:pt idx="0">
-                        <c:v>1070.7741439646545</c:v>
+                        <c:v>1024.2639946178085</c:v>
                       </c:pt>
                       <c:pt idx="1">
-                        <c:v>978.76242648442098</c:v>
+                        <c:v>942.06823852743798</c:v>
                       </c:pt>
                       <c:pt idx="2">
-                        <c:v>1022.4934872153367</c:v>
+                        <c:v>984.39591573841176</c:v>
                       </c:pt>
                       <c:pt idx="3">
-                        <c:v>1055.0267159154703</c:v>
+                        <c:v>1015.8856723562906</c:v>
                       </c:pt>
                       <c:pt idx="4">
-                        <c:v>1089.5333737522215</c:v>
+                        <c:v>1049.4075686444387</c:v>
                       </c:pt>
                     </c:numCache>
                   </c:numRef>
@@ -12993,19 +12990,19 @@
                       <c:formatCode>General</c:formatCode>
                       <c:ptCount val="5"/>
                       <c:pt idx="0">
-                        <c:v>1070.7741439646545</c:v>
+                        <c:v>1024.2639946178085</c:v>
                       </c:pt>
                       <c:pt idx="1">
-                        <c:v>978.76242648442098</c:v>
+                        <c:v>942.06823852743798</c:v>
                       </c:pt>
                       <c:pt idx="2">
-                        <c:v>1022.4934872153367</c:v>
+                        <c:v>984.39591573841176</c:v>
                       </c:pt>
                       <c:pt idx="3">
-                        <c:v>1055.0267159154703</c:v>
+                        <c:v>1015.8856723562906</c:v>
                       </c:pt>
                       <c:pt idx="4">
-                        <c:v>1089.5333737522215</c:v>
+                        <c:v>1049.4075686444387</c:v>
                       </c:pt>
                     </c:numCache>
                   </c:numRef>
@@ -14475,10 +14472,10 @@
                   <c:v>260.01618074402859</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>260.01618074402859</c:v>
+                  <c:v>253.11561083538152</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>260.01618074402859</c:v>
+                  <c:v>253.11561083538152</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -14550,10 +14547,10 @@
                   <c:v>171.17582078035531</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>210.67040851814829</c:v>
+                  <c:v>188.62350530113275</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>210.67040851814829</c:v>
+                  <c:v>188.62350530113275</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -14625,10 +14622,10 @@
                   <c:v>66.032474177397248</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>66.032474177397248</c:v>
+                  <c:v>61.373388455821313</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>66.032474177397248</c:v>
+                  <c:v>61.373388455821313</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -14700,10 +14697,10 @@
                   <c:v>52.527941152998537</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>52.527941152998537</c:v>
+                  <c:v>49.012576322324165</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>52.527941152998537</c:v>
+                  <c:v>49.012576322324165</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -14778,10 +14775,10 @@
                   <c:v>495.09542778752109</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>496.52581315955877</c:v>
+                  <c:v>493.52193172968884</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>496.52581315955877</c:v>
+                  <c:v>493.52193172968884</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -18613,6 +18610,11 @@
               <a:rPr lang="ja-JP" altLang="en-US" b="1"/>
               <a:t>₂排出量</a:t>
             </a:r>
+            <a:r>
+              <a:rPr lang="en-US" altLang="ja-JP" b="1" baseline="30000"/>
+              <a:t>5</a:t>
+            </a:r>
+            <a:endParaRPr lang="ja-JP" altLang="en-US" b="1" baseline="30000"/>
           </a:p>
         </c:rich>
       </c:tx>
@@ -18711,19 +18713,19 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="5"/>
                 <c:pt idx="0">
-                  <c:v>1070.7741439646545</c:v>
+                  <c:v>1024.2639946178085</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>978.76242648442098</c:v>
+                  <c:v>942.06823852743798</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>1022.4934872153367</c:v>
+                  <c:v>984.39591573841176</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>1055.0267159154703</c:v>
+                  <c:v>1015.8856723562906</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>1089.5333737522215</c:v>
+                  <c:v>1049.4075686444387</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -18792,19 +18794,19 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="5"/>
                 <c:pt idx="0">
-                  <c:v>1070.7741439646545</c:v>
+                  <c:v>1024.2639946178085</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>978.76242648442098</c:v>
+                  <c:v>942.06823852743798</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>1022.4934872153367</c:v>
+                  <c:v>984.39591573841176</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>1055.0267159154703</c:v>
+                  <c:v>1015.8856723562906</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>1089.5333737522215</c:v>
+                  <c:v>1049.4075686444387</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -18873,19 +18875,19 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="5"/>
                 <c:pt idx="0">
-                  <c:v>1070.7741439646545</c:v>
+                  <c:v>1024.2639946178085</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>978.76242648442098</c:v>
+                  <c:v>942.06823852743798</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>1022.4934872153367</c:v>
+                  <c:v>984.39591573841176</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>1055.0267159154703</c:v>
+                  <c:v>1015.8856723562906</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>1089.5333737522215</c:v>
+                  <c:v>1049.4075686444387</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -19308,13 +19310,13 @@
                   <c:v>209.4235083709562</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>260.01618074402859</c:v>
+                  <c:v>253.11561083538152</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>260.01618074402859</c:v>
+                  <c:v>253.11561083538152</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>260.01618074402859</c:v>
+                  <c:v>253.11561083538152</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -19384,13 +19386,13 @@
                   <c:v>196.15609230500672</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>210.67040851814829</c:v>
+                  <c:v>188.62350530113275</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>210.67040851814829</c:v>
+                  <c:v>188.62350530113275</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>210.67040851814829</c:v>
+                  <c:v>188.62350530113275</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -19460,13 +19462,13 @@
                   <c:v>52.883709709806709</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>66.032474177397248</c:v>
+                  <c:v>61.373388455821313</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>66.032474177397248</c:v>
+                  <c:v>61.373388455821313</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>66.032474177397248</c:v>
+                  <c:v>61.373388455821313</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -19536,13 +19538,13 @@
                   <c:v>52.883709709806709</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>52.527941152998537</c:v>
+                  <c:v>49.012576322324165</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>52.527941152998537</c:v>
+                  <c:v>49.012576322324165</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>52.527941152998537</c:v>
+                  <c:v>49.012576322324165</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -19615,13 +19617,13 @@
                   <c:v>449.00553720294573</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>496.52581315955877</c:v>
+                  <c:v>493.52193172968884</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>496.52581315955877</c:v>
+                  <c:v>493.52193172968884</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>496.52581315955877</c:v>
+                  <c:v>493.52193172968884</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -23682,6 +23684,82 @@
           </a:r>
         </a:p>
         <a:p>
+          <a:pPr marL="228600" marR="0" lvl="0" indent="-228600" defTabSz="914400" rtl="0" eaLnBrk="1" fontAlgn="base" latinLnBrk="0" hangingPunct="1">
+            <a:lnSpc>
+              <a:spcPct val="100000"/>
+            </a:lnSpc>
+            <a:spcBef>
+              <a:spcPts val="0"/>
+            </a:spcBef>
+            <a:spcAft>
+              <a:spcPts val="0"/>
+            </a:spcAft>
+            <a:buClrTx/>
+            <a:buSzTx/>
+            <a:buFont typeface="+mj-lt"/>
+            <a:buAutoNum type="arabicPeriod"/>
+            <a:tabLst/>
+            <a:defRPr/>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ja-JP" sz="1200">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>IPCC, </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ja-JP" sz="1200" i="1">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>2006 IPCC Guidelines for National Greenhouse Gas Inventories</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ja-JP" sz="1200">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>, 2006</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ja-JP" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>.</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" altLang="ja-JP" sz="1200" b="0" i="0">
+            <a:solidFill>
+              <a:schemeClr val="dk1"/>
+            </a:solidFill>
+            <a:effectLst/>
+            <a:latin typeface="+mn-lt"/>
+            <a:ea typeface="+mn-ea"/>
+            <a:cs typeface="+mn-cs"/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
           <a:pPr marL="228600" indent="-228600" rtl="0" fontAlgn="base">
             <a:buFont typeface="+mj-lt"/>
             <a:buAutoNum type="arabicPeriod"/>
@@ -24447,118 +24525,6 @@
 </xdr:wsDr>
 </file>
 
-<file path=xl/externalLinks/externalLink1.xml><?xml version="1.0" encoding="utf-8"?>
-<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xxl21="http://schemas.microsoft.com/office/spreadsheetml/2021/extlinks2021" mc:Ignorable="x14 xxl21">
-  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
-    <xxl21:alternateUrls>
-      <xxl21:absoluteUrl r:id="rId2"/>
-    </xxl21:alternateUrls>
-    <sheetNames>
-      <sheetName val="シナリオ"/>
-      <sheetName val="最終エネルギー消費"/>
-      <sheetName val="発電電力量"/>
-      <sheetName val="一次エネルギー供給"/>
-      <sheetName val="部門別CO2排出量_表"/>
-      <sheetName val="部門別CO2排出量"/>
-      <sheetName val="COMFLOOR"/>
-      <sheetName val="GDP・POP"/>
-      <sheetName val="Intensity"/>
-      <sheetName val="Consumption(EJyr)"/>
-      <sheetName val="LOSS"/>
-      <sheetName val="sIND"/>
-      <sheetName val="sTRA"/>
-      <sheetName val="sCOM"/>
-      <sheetName val="sRES"/>
-      <sheetName val="sELE"/>
-      <sheetName val="eELE"/>
-      <sheetName val="EMF"/>
-      <sheetName val="Emissions_intensity"/>
-      <sheetName val="Emissions"/>
-      <sheetName val="IND_BF"/>
-    </sheetNames>
-    <sheetDataSet>
-      <sheetData sheetId="0"/>
-      <sheetData sheetId="1"/>
-      <sheetData sheetId="2"/>
-      <sheetData sheetId="3"/>
-      <sheetData sheetId="4"/>
-      <sheetData sheetId="5">
-        <row r="3">
-          <cell r="P3">
-            <v>269.51474216725944</v>
-          </cell>
-        </row>
-        <row r="4">
-          <cell r="P4">
-            <v>209.4235083709562</v>
-          </cell>
-        </row>
-        <row r="8">
-          <cell r="P8">
-            <v>249.02275586606845</v>
-          </cell>
-        </row>
-        <row r="9">
-          <cell r="P9">
-            <v>196.15609230500672</v>
-          </cell>
-        </row>
-        <row r="13">
-          <cell r="P13">
-            <v>63.618347666356769</v>
-          </cell>
-        </row>
-        <row r="14">
-          <cell r="P14">
-            <v>52.883709709806709</v>
-          </cell>
-        </row>
-        <row r="18">
-          <cell r="P18">
-            <v>69.588005432578569</v>
-          </cell>
-        </row>
-        <row r="28">
-          <cell r="P28">
-            <v>28.775119328906975</v>
-          </cell>
-        </row>
-        <row r="29">
-          <cell r="P29">
-            <v>25.99212785621209</v>
-          </cell>
-        </row>
-        <row r="33">
-          <cell r="P33">
-            <v>29.46362437612942</v>
-          </cell>
-        </row>
-        <row r="34">
-          <cell r="P34">
-            <v>31.085649151718691</v>
-          </cell>
-        </row>
-      </sheetData>
-      <sheetData sheetId="6"/>
-      <sheetData sheetId="7"/>
-      <sheetData sheetId="8"/>
-      <sheetData sheetId="9"/>
-      <sheetData sheetId="10"/>
-      <sheetData sheetId="11"/>
-      <sheetData sheetId="12"/>
-      <sheetData sheetId="13"/>
-      <sheetData sheetId="14"/>
-      <sheetData sheetId="15"/>
-      <sheetData sheetId="16"/>
-      <sheetData sheetId="17"/>
-      <sheetData sheetId="18"/>
-      <sheetData sheetId="19"/>
-      <sheetData sheetId="20"/>
-    </sheetDataSet>
-  </externalBook>
-</externalLink>
-</file>
-
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
 <a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office テーマ">
   <a:themeElements>
@@ -24862,9 +24828,9 @@
   <dimension ref="A1:AG80"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <pane ySplit="2" topLeftCell="A27" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="B1" sqref="B1"/>
-      <selection pane="bottomLeft" activeCell="K11" sqref="K11"/>
+      <selection pane="bottomLeft" activeCell="J37" sqref="J37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
@@ -24886,110 +24852,110 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:33" ht="18" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A1" s="151"/>
-      <c r="B1" s="152"/>
-      <c r="C1" s="153"/>
+      <c r="A1" s="133"/>
+      <c r="B1" s="134"/>
+      <c r="C1" s="135"/>
       <c r="D1" s="63" t="s">
         <v>110</v>
       </c>
       <c r="E1" s="64" t="s">
         <v>97</v>
       </c>
-      <c r="F1" s="147" t="s">
-        <v>0</v>
-      </c>
-      <c r="G1" s="148"/>
-      <c r="H1" s="147" t="s">
+      <c r="F1" s="129" t="s">
+        <v>0</v>
+      </c>
+      <c r="G1" s="130"/>
+      <c r="H1" s="129" t="s">
         <v>6</v>
       </c>
-      <c r="I1" s="148"/>
+      <c r="I1" s="130"/>
     </row>
     <row r="2" spans="1:33" ht="17.45" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A2" s="154"/>
-      <c r="B2" s="155"/>
-      <c r="C2" s="156"/>
+      <c r="A2" s="136"/>
+      <c r="B2" s="137"/>
+      <c r="C2" s="138"/>
       <c r="D2" s="65" t="s">
         <v>99</v>
       </c>
       <c r="E2" s="66" t="s">
         <v>100</v>
       </c>
-      <c r="F2" s="149" t="s">
+      <c r="F2" s="131" t="s">
         <v>100</v>
       </c>
-      <c r="G2" s="150"/>
-      <c r="H2" s="149" t="s">
+      <c r="G2" s="132"/>
+      <c r="H2" s="131" t="s">
         <v>100</v>
       </c>
-      <c r="I2" s="150"/>
+      <c r="I2" s="132"/>
     </row>
     <row r="3" spans="1:33" x14ac:dyDescent="0.4">
-      <c r="A3" s="162" t="s">
+      <c r="A3" s="144" t="s">
         <v>109</v>
       </c>
-      <c r="B3" s="164" t="s">
+      <c r="B3" s="146" t="s">
         <v>103</v>
       </c>
-      <c r="C3" s="165"/>
+      <c r="C3" s="147"/>
       <c r="D3" s="67">
         <v>867</v>
       </c>
       <c r="E3" s="68">
         <v>1067</v>
       </c>
-      <c r="F3" s="157">
+      <c r="F3" s="139">
         <f>1067</f>
         <v>1067</v>
       </c>
-      <c r="G3" s="157"/>
-      <c r="H3" s="160">
+      <c r="G3" s="139"/>
+      <c r="H3" s="142">
         <v>1067</v>
       </c>
-      <c r="I3" s="157"/>
+      <c r="I3" s="139"/>
       <c r="J3" s="12"/>
     </row>
     <row r="4" spans="1:33" x14ac:dyDescent="0.4">
-      <c r="A4" s="163"/>
-      <c r="B4" s="163" t="s">
+      <c r="A4" s="145"/>
+      <c r="B4" s="145" t="s">
         <v>102</v>
       </c>
-      <c r="C4" s="166"/>
+      <c r="C4" s="148"/>
       <c r="D4" s="69">
         <v>126</v>
       </c>
       <c r="E4" s="70">
         <v>110</v>
       </c>
-      <c r="F4" s="158">
+      <c r="F4" s="140">
         <v>110</v>
       </c>
-      <c r="G4" s="159"/>
-      <c r="H4" s="161">
+      <c r="G4" s="141"/>
+      <c r="H4" s="143">
         <v>110</v>
       </c>
-      <c r="I4" s="159"/>
+      <c r="I4" s="141"/>
       <c r="J4" s="12"/>
-      <c r="AB4" s="117" t="s">
+      <c r="AB4" s="162" t="s">
         <v>106</v>
       </c>
-      <c r="AC4" s="119">
+      <c r="AC4" s="164">
         <v>2010</v>
       </c>
-      <c r="AD4" s="121">
+      <c r="AD4" s="166">
         <v>2020</v>
       </c>
-      <c r="AE4" s="123" t="s">
+      <c r="AE4" s="168" t="s">
         <v>105</v>
       </c>
-      <c r="AF4" s="117" t="s">
+      <c r="AF4" s="162" t="s">
         <v>92</v>
       </c>
-      <c r="AG4" s="115" t="s">
+      <c r="AG4" s="160" t="s">
         <v>93</v>
       </c>
     </row>
     <row r="5" spans="1:33" ht="18" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A5" s="125" t="s">
+      <c r="A5" s="149" t="s">
         <v>1</v>
       </c>
       <c r="B5" s="71" t="s">
@@ -25002,23 +24968,23 @@
       <c r="E5" s="74">
         <v>1</v>
       </c>
-      <c r="F5" s="136">
+      <c r="F5" s="118">
         <v>1</v>
       </c>
-      <c r="G5" s="137"/>
-      <c r="H5" s="136">
+      <c r="G5" s="119"/>
+      <c r="H5" s="118">
         <v>1</v>
       </c>
-      <c r="I5" s="137"/>
-      <c r="AB5" s="118"/>
-      <c r="AC5" s="120"/>
-      <c r="AD5" s="122"/>
-      <c r="AE5" s="124"/>
-      <c r="AF5" s="118"/>
-      <c r="AG5" s="116"/>
+      <c r="I5" s="119"/>
+      <c r="AB5" s="163"/>
+      <c r="AC5" s="165"/>
+      <c r="AD5" s="167"/>
+      <c r="AE5" s="169"/>
+      <c r="AF5" s="163"/>
+      <c r="AG5" s="161"/>
     </row>
     <row r="6" spans="1:33" x14ac:dyDescent="0.4">
-      <c r="A6" s="126"/>
+      <c r="A6" s="150"/>
       <c r="B6" s="75" t="s">
         <v>3</v>
       </c>
@@ -25029,14 +24995,14 @@
       <c r="E6" s="78">
         <v>1</v>
       </c>
-      <c r="F6" s="138">
+      <c r="F6" s="120">
         <v>1</v>
       </c>
-      <c r="G6" s="139"/>
-      <c r="H6" s="138">
+      <c r="G6" s="121"/>
+      <c r="H6" s="120">
         <v>1</v>
       </c>
-      <c r="I6" s="139"/>
+      <c r="I6" s="121"/>
       <c r="AB6" s="46" t="s">
         <v>2</v>
       </c>
@@ -25049,19 +25015,19 @@
         <v>209.4235083709562</v>
       </c>
       <c r="AE6" s="36">
-        <v>260.01618074402859</v>
+        <v>253.11561083538152</v>
       </c>
       <c r="AF6" s="42">
         <f>CO2排出量!E2</f>
-        <v>260.01618074402859</v>
+        <v>253.11561083538152</v>
       </c>
       <c r="AG6" s="37">
         <f>CO2排出量!F2</f>
-        <v>260.01618074402859</v>
+        <v>253.11561083538152</v>
       </c>
     </row>
     <row r="7" spans="1:33" x14ac:dyDescent="0.4">
-      <c r="A7" s="126"/>
+      <c r="A7" s="150"/>
       <c r="B7" s="79" t="s">
         <v>4</v>
       </c>
@@ -25072,14 +25038,14 @@
       <c r="E7" s="74">
         <v>1</v>
       </c>
-      <c r="F7" s="140">
+      <c r="F7" s="122">
         <v>1</v>
       </c>
-      <c r="G7" s="141"/>
-      <c r="H7" s="140">
+      <c r="G7" s="123"/>
+      <c r="H7" s="122">
         <v>1</v>
       </c>
-      <c r="I7" s="141"/>
+      <c r="I7" s="123"/>
       <c r="AB7" s="51" t="s">
         <v>3</v>
       </c>
@@ -25092,19 +25058,19 @@
         <v>196.15609230500672</v>
       </c>
       <c r="AE7" s="35">
-        <v>210.67040851814829</v>
+        <v>188.62350530113275</v>
       </c>
       <c r="AF7" s="43">
         <f>CO2排出量!E3</f>
-        <v>210.67040851814829</v>
+        <v>188.62350530113275</v>
       </c>
       <c r="AG7" s="38">
         <f>CO2排出量!F3</f>
-        <v>210.67040851814829</v>
+        <v>188.62350530113275</v>
       </c>
     </row>
     <row r="8" spans="1:33" x14ac:dyDescent="0.4">
-      <c r="A8" s="127"/>
+      <c r="A8" s="151"/>
       <c r="B8" s="80" t="s">
         <v>5</v>
       </c>
@@ -25115,14 +25081,14 @@
       <c r="E8" s="83">
         <v>1</v>
       </c>
-      <c r="F8" s="142">
+      <c r="F8" s="124">
         <v>1</v>
       </c>
-      <c r="G8" s="143"/>
-      <c r="H8" s="142">
+      <c r="G8" s="125"/>
+      <c r="H8" s="124">
         <v>1</v>
       </c>
-      <c r="I8" s="143"/>
+      <c r="I8" s="125"/>
       <c r="AB8" s="47" t="s">
         <v>4</v>
       </c>
@@ -25135,22 +25101,22 @@
         <v>52.883709709806709</v>
       </c>
       <c r="AE8" s="34">
-        <v>66.032474177397248</v>
+        <v>61.373388455821313</v>
       </c>
       <c r="AF8" s="44">
         <f>CO2排出量!E4</f>
-        <v>66.032474177397248</v>
+        <v>61.373388455821313</v>
       </c>
       <c r="AG8" s="39">
         <f>CO2排出量!F4</f>
-        <v>66.032474177397248</v>
+        <v>61.373388455821313</v>
       </c>
     </row>
     <row r="9" spans="1:33" x14ac:dyDescent="0.4">
-      <c r="A9" s="128" t="s">
+      <c r="A9" s="152" t="s">
         <v>25</v>
       </c>
-      <c r="B9" s="144" t="s">
+      <c r="B9" s="115" t="s">
         <v>2</v>
       </c>
       <c r="C9" s="84" t="s">
@@ -25165,14 +25131,14 @@
       <c r="F9" s="87">
         <v>24</v>
       </c>
-      <c r="G9" s="133">
+      <c r="G9" s="157">
         <f>SUM(F9:F13)</f>
         <v>100</v>
       </c>
       <c r="H9" s="88">
         <v>24</v>
       </c>
-      <c r="I9" s="167">
+      <c r="I9" s="126">
         <f>SUM(H9:H13)</f>
         <v>100</v>
       </c>
@@ -25189,20 +25155,20 @@
         <v>52.883709709806709</v>
       </c>
       <c r="AE9" s="35">
-        <v>52.527941152998537</v>
+        <v>49.012576322324165</v>
       </c>
       <c r="AF9" s="43">
         <f>CO2排出量!E5</f>
-        <v>52.527941152998537</v>
+        <v>49.012576322324165</v>
       </c>
       <c r="AG9" s="38">
         <f>CO2排出量!F5</f>
-        <v>52.527941152998537</v>
+        <v>49.012576322324165</v>
       </c>
     </row>
     <row r="10" spans="1:33" x14ac:dyDescent="0.4">
-      <c r="A10" s="129"/>
-      <c r="B10" s="145"/>
+      <c r="A10" s="153"/>
+      <c r="B10" s="116"/>
       <c r="C10" s="89" t="s">
         <v>8</v>
       </c>
@@ -25215,11 +25181,11 @@
       <c r="F10" s="92">
         <v>22</v>
       </c>
-      <c r="G10" s="133"/>
+      <c r="G10" s="157"/>
       <c r="H10" s="93">
         <v>22</v>
       </c>
-      <c r="I10" s="168"/>
+      <c r="I10" s="127"/>
       <c r="J10" s="2"/>
       <c r="AB10" s="47" t="s">
         <v>30</v>
@@ -25233,20 +25199,20 @@
         <v>449.00553720294573</v>
       </c>
       <c r="AE10" s="34">
-        <v>496.52581315955877</v>
+        <v>493.52193172968884</v>
       </c>
       <c r="AF10" s="44">
         <f>CO2排出量!E6</f>
-        <v>496.52581315955877</v>
+        <v>493.52193172968884</v>
       </c>
       <c r="AG10" s="39">
         <f>CO2排出量!F6</f>
-        <v>496.52581315955877</v>
+        <v>493.52193172968884</v>
       </c>
     </row>
     <row r="11" spans="1:33" ht="19.5" x14ac:dyDescent="0.4">
-      <c r="A11" s="129"/>
-      <c r="B11" s="145"/>
+      <c r="A11" s="153"/>
+      <c r="B11" s="116"/>
       <c r="C11" s="94" t="s">
         <v>9</v>
       </c>
@@ -25259,11 +25225,11 @@
       <c r="F11" s="87">
         <v>14.000000000000002</v>
       </c>
-      <c r="G11" s="133"/>
+      <c r="G11" s="157"/>
       <c r="H11" s="88">
         <v>14.000000000000002</v>
       </c>
-      <c r="I11" s="168"/>
+      <c r="I11" s="127"/>
       <c r="J11" s="2"/>
       <c r="AB11" s="51" t="s">
         <v>111</v>
@@ -25289,8 +25255,8 @@
       </c>
     </row>
     <row r="12" spans="1:33" ht="19.5" x14ac:dyDescent="0.4">
-      <c r="A12" s="129"/>
-      <c r="B12" s="145"/>
+      <c r="A12" s="153"/>
+      <c r="B12" s="116"/>
       <c r="C12" s="89" t="s">
         <v>10</v>
       </c>
@@ -25303,11 +25269,11 @@
       <c r="F12" s="92">
         <v>4</v>
       </c>
-      <c r="G12" s="133"/>
+      <c r="G12" s="157"/>
       <c r="H12" s="93">
         <v>4</v>
       </c>
-      <c r="I12" s="168"/>
+      <c r="I12" s="127"/>
       <c r="J12" s="2"/>
       <c r="AB12" s="47" t="s">
         <v>112</v>
@@ -25333,8 +25299,8 @@
       </c>
     </row>
     <row r="13" spans="1:33" ht="19.5" x14ac:dyDescent="0.4">
-      <c r="A13" s="129"/>
-      <c r="B13" s="146"/>
+      <c r="A13" s="153"/>
+      <c r="B13" s="117"/>
       <c r="C13" s="97" t="s">
         <v>11</v>
       </c>
@@ -25347,11 +25313,11 @@
       <c r="F13" s="100">
         <v>36</v>
       </c>
-      <c r="G13" s="134"/>
+      <c r="G13" s="158"/>
       <c r="H13" s="101">
         <v>36</v>
       </c>
-      <c r="I13" s="169"/>
+      <c r="I13" s="128"/>
       <c r="J13" s="2"/>
       <c r="AB13" s="51" t="s">
         <v>113</v>
@@ -25377,8 +25343,8 @@
       </c>
     </row>
     <row r="14" spans="1:33" x14ac:dyDescent="0.4">
-      <c r="A14" s="129"/>
-      <c r="B14" s="144" t="s">
+      <c r="A14" s="153"/>
+      <c r="B14" s="115" t="s">
         <v>3</v>
       </c>
       <c r="C14" s="102" t="s">
@@ -25393,14 +25359,14 @@
       <c r="F14" s="104">
         <v>0</v>
       </c>
-      <c r="G14" s="135">
+      <c r="G14" s="159">
         <f t="shared" ref="G14" si="0">SUM(F14:F18)</f>
         <v>100</v>
       </c>
       <c r="H14" s="105">
         <v>0</v>
       </c>
-      <c r="I14" s="167">
+      <c r="I14" s="126">
         <f>SUM(H14:H18)</f>
         <v>100</v>
       </c>
@@ -25417,20 +25383,20 @@
         <v>971.43033430645278</v>
       </c>
       <c r="AE14" s="40">
-        <v>1089.5333737522215</v>
+        <v>1049.4075686444387</v>
       </c>
       <c r="AF14" s="45">
         <f>CO2排出量!E10</f>
-        <v>1089.5333737522215</v>
+        <v>1049.4075686444387</v>
       </c>
       <c r="AG14" s="41">
         <f>CO2排出量!F10</f>
-        <v>1089.5333737522215</v>
+        <v>1049.4075686444387</v>
       </c>
     </row>
     <row r="15" spans="1:33" x14ac:dyDescent="0.4">
-      <c r="A15" s="129"/>
-      <c r="B15" s="145"/>
+      <c r="A15" s="153"/>
+      <c r="B15" s="116"/>
       <c r="C15" s="94" t="s">
         <v>8</v>
       </c>
@@ -25443,16 +25409,16 @@
       <c r="F15" s="96">
         <v>97</v>
       </c>
-      <c r="G15" s="133"/>
+      <c r="G15" s="157"/>
       <c r="H15" s="88">
         <v>97</v>
       </c>
-      <c r="I15" s="168"/>
+      <c r="I15" s="127"/>
       <c r="J15" s="2"/>
     </row>
     <row r="16" spans="1:33" x14ac:dyDescent="0.4">
-      <c r="A16" s="129"/>
-      <c r="B16" s="145"/>
+      <c r="A16" s="153"/>
+      <c r="B16" s="116"/>
       <c r="C16" s="89" t="s">
         <v>9</v>
       </c>
@@ -25465,16 +25431,16 @@
       <c r="F16" s="91">
         <v>0</v>
       </c>
-      <c r="G16" s="133"/>
+      <c r="G16" s="157"/>
       <c r="H16" s="93">
         <v>0</v>
       </c>
-      <c r="I16" s="168"/>
+      <c r="I16" s="127"/>
       <c r="J16" s="2"/>
     </row>
     <row r="17" spans="1:33" x14ac:dyDescent="0.4">
-      <c r="A17" s="129"/>
-      <c r="B17" s="145"/>
+      <c r="A17" s="153"/>
+      <c r="B17" s="116"/>
       <c r="C17" s="94" t="s">
         <v>10</v>
       </c>
@@ -25487,16 +25453,16 @@
       <c r="F17" s="96">
         <v>1</v>
       </c>
-      <c r="G17" s="133"/>
+      <c r="G17" s="157"/>
       <c r="H17" s="88">
         <v>1</v>
       </c>
-      <c r="I17" s="168"/>
+      <c r="I17" s="127"/>
       <c r="J17" s="2"/>
     </row>
     <row r="18" spans="1:33" x14ac:dyDescent="0.4">
-      <c r="A18" s="129"/>
-      <c r="B18" s="146"/>
+      <c r="A18" s="153"/>
+      <c r="B18" s="117"/>
       <c r="C18" s="106" t="s">
         <v>11</v>
       </c>
@@ -25509,17 +25475,17 @@
       <c r="F18" s="108">
         <v>2</v>
       </c>
-      <c r="G18" s="134"/>
+      <c r="G18" s="158"/>
       <c r="H18" s="109">
         <v>2</v>
       </c>
-      <c r="I18" s="169"/>
+      <c r="I18" s="128"/>
       <c r="J18" s="2"/>
       <c r="AG18" s="52"/>
     </row>
     <row r="19" spans="1:33" x14ac:dyDescent="0.4">
-      <c r="A19" s="129"/>
-      <c r="B19" s="144" t="s">
+      <c r="A19" s="153"/>
+      <c r="B19" s="115" t="s">
         <v>4</v>
       </c>
       <c r="C19" s="84" t="s">
@@ -25534,22 +25500,22 @@
       <c r="F19" s="86">
         <v>0</v>
       </c>
-      <c r="G19" s="135">
+      <c r="G19" s="159">
         <f t="shared" ref="G19" si="1">SUM(F19:F23)</f>
         <v>100</v>
       </c>
       <c r="H19" s="110">
         <v>0</v>
       </c>
-      <c r="I19" s="167">
+      <c r="I19" s="126">
         <f>SUM(H19:H23)</f>
         <v>100</v>
       </c>
       <c r="J19" s="2"/>
     </row>
     <row r="20" spans="1:33" x14ac:dyDescent="0.4">
-      <c r="A20" s="129"/>
-      <c r="B20" s="145"/>
+      <c r="A20" s="153"/>
+      <c r="B20" s="116"/>
       <c r="C20" s="89" t="s">
         <v>8</v>
       </c>
@@ -25562,16 +25528,16 @@
       <c r="F20" s="91">
         <v>24</v>
       </c>
-      <c r="G20" s="133"/>
+      <c r="G20" s="157"/>
       <c r="H20" s="93">
         <v>24</v>
       </c>
-      <c r="I20" s="168"/>
+      <c r="I20" s="127"/>
       <c r="J20" s="2"/>
     </row>
     <row r="21" spans="1:33" x14ac:dyDescent="0.4">
-      <c r="A21" s="129"/>
-      <c r="B21" s="145"/>
+      <c r="A21" s="153"/>
+      <c r="B21" s="116"/>
       <c r="C21" s="94" t="s">
         <v>9</v>
       </c>
@@ -25584,16 +25550,16 @@
       <c r="F21" s="96">
         <v>16</v>
       </c>
-      <c r="G21" s="133"/>
+      <c r="G21" s="157"/>
       <c r="H21" s="88">
         <v>16</v>
       </c>
-      <c r="I21" s="168"/>
+      <c r="I21" s="127"/>
       <c r="J21" s="2"/>
     </row>
     <row r="22" spans="1:33" x14ac:dyDescent="0.4">
-      <c r="A22" s="129"/>
-      <c r="B22" s="145"/>
+      <c r="A22" s="153"/>
+      <c r="B22" s="116"/>
       <c r="C22" s="89" t="s">
         <v>10</v>
       </c>
@@ -25606,16 +25572,16 @@
       <c r="F22" s="91">
         <v>3</v>
       </c>
-      <c r="G22" s="133"/>
+      <c r="G22" s="157"/>
       <c r="H22" s="93">
         <v>3</v>
       </c>
-      <c r="I22" s="168"/>
+      <c r="I22" s="127"/>
       <c r="J22" s="2"/>
     </row>
     <row r="23" spans="1:33" x14ac:dyDescent="0.4">
-      <c r="A23" s="129"/>
-      <c r="B23" s="146"/>
+      <c r="A23" s="153"/>
+      <c r="B23" s="117"/>
       <c r="C23" s="97" t="s">
         <v>11</v>
       </c>
@@ -25628,16 +25594,16 @@
       <c r="F23" s="99">
         <v>56.999999999999993</v>
       </c>
-      <c r="G23" s="134"/>
+      <c r="G23" s="158"/>
       <c r="H23" s="101">
         <v>56.999999999999993</v>
       </c>
-      <c r="I23" s="169"/>
+      <c r="I23" s="128"/>
       <c r="J23" s="2"/>
     </row>
     <row r="24" spans="1:33" x14ac:dyDescent="0.4">
-      <c r="A24" s="129"/>
-      <c r="B24" s="144" t="s">
+      <c r="A24" s="153"/>
+      <c r="B24" s="115" t="s">
         <v>5</v>
       </c>
       <c r="C24" s="102" t="s">
@@ -25652,22 +25618,22 @@
       <c r="F24" s="104">
         <v>0</v>
       </c>
-      <c r="G24" s="135">
+      <c r="G24" s="159">
         <f t="shared" ref="G24" si="2">SUM(F24:F28)</f>
         <v>100</v>
       </c>
       <c r="H24" s="105">
         <v>0</v>
       </c>
-      <c r="I24" s="167">
+      <c r="I24" s="126">
         <f>SUM(H24:H28)</f>
         <v>100</v>
       </c>
       <c r="J24" s="2"/>
     </row>
     <row r="25" spans="1:33" x14ac:dyDescent="0.4">
-      <c r="A25" s="129"/>
-      <c r="B25" s="145"/>
+      <c r="A25" s="153"/>
+      <c r="B25" s="116"/>
       <c r="C25" s="94" t="s">
         <v>8</v>
       </c>
@@ -25680,16 +25646,16 @@
       <c r="F25" s="96">
         <v>27</v>
       </c>
-      <c r="G25" s="133"/>
+      <c r="G25" s="157"/>
       <c r="H25" s="88">
         <v>27</v>
       </c>
-      <c r="I25" s="168"/>
+      <c r="I25" s="127"/>
       <c r="J25" s="2"/>
     </row>
     <row r="26" spans="1:33" x14ac:dyDescent="0.4">
-      <c r="A26" s="129"/>
-      <c r="B26" s="145"/>
+      <c r="A26" s="153"/>
+      <c r="B26" s="116"/>
       <c r="C26" s="89" t="s">
         <v>9</v>
       </c>
@@ -25702,16 +25668,16 @@
       <c r="F26" s="91">
         <v>21</v>
       </c>
-      <c r="G26" s="133"/>
+      <c r="G26" s="157"/>
       <c r="H26" s="93">
         <v>21</v>
       </c>
-      <c r="I26" s="168"/>
+      <c r="I26" s="127"/>
       <c r="J26" s="2"/>
     </row>
     <row r="27" spans="1:33" x14ac:dyDescent="0.4">
-      <c r="A27" s="129"/>
-      <c r="B27" s="145"/>
+      <c r="A27" s="153"/>
+      <c r="B27" s="116"/>
       <c r="C27" s="94" t="s">
         <v>10</v>
       </c>
@@ -25724,16 +25690,16 @@
       <c r="F27" s="96">
         <v>0</v>
       </c>
-      <c r="G27" s="133"/>
+      <c r="G27" s="157"/>
       <c r="H27" s="88">
         <v>0</v>
       </c>
-      <c r="I27" s="168"/>
+      <c r="I27" s="127"/>
       <c r="J27" s="2"/>
     </row>
     <row r="28" spans="1:33" x14ac:dyDescent="0.4">
-      <c r="A28" s="129"/>
-      <c r="B28" s="146"/>
+      <c r="A28" s="153"/>
+      <c r="B28" s="117"/>
       <c r="C28" s="106" t="s">
         <v>11</v>
       </c>
@@ -25746,18 +25712,18 @@
       <c r="F28" s="108">
         <v>52</v>
       </c>
-      <c r="G28" s="134"/>
+      <c r="G28" s="158"/>
       <c r="H28" s="109">
         <v>52</v>
       </c>
-      <c r="I28" s="169"/>
+      <c r="I28" s="128"/>
       <c r="J28" s="2"/>
     </row>
     <row r="29" spans="1:33" x14ac:dyDescent="0.4">
-      <c r="A29" s="130" t="s">
+      <c r="A29" s="154" t="s">
         <v>26</v>
       </c>
-      <c r="B29" s="144" t="s">
+      <c r="B29" s="115" t="s">
         <v>30</v>
       </c>
       <c r="C29" s="84" t="s">
@@ -25772,22 +25738,22 @@
       <c r="F29" s="86">
         <v>31</v>
       </c>
-      <c r="G29" s="135">
+      <c r="G29" s="159">
         <f>SUM(F29:F41)</f>
         <v>100</v>
       </c>
       <c r="H29" s="110">
         <v>31</v>
       </c>
-      <c r="I29" s="167">
+      <c r="I29" s="126">
         <f>SUM(H29:H41)</f>
         <v>100</v>
       </c>
       <c r="J29" s="2"/>
     </row>
     <row r="30" spans="1:33" x14ac:dyDescent="0.4">
-      <c r="A30" s="131"/>
-      <c r="B30" s="145"/>
+      <c r="A30" s="155"/>
+      <c r="B30" s="116"/>
       <c r="C30" s="111" t="s">
         <v>76</v>
       </c>
@@ -25800,16 +25766,16 @@
       <c r="F30" s="113">
         <v>0</v>
       </c>
-      <c r="G30" s="133"/>
+      <c r="G30" s="157"/>
       <c r="H30" s="114">
         <v>0</v>
       </c>
-      <c r="I30" s="168"/>
+      <c r="I30" s="127"/>
       <c r="J30" s="2"/>
     </row>
     <row r="31" spans="1:33" x14ac:dyDescent="0.4">
-      <c r="A31" s="131"/>
-      <c r="B31" s="145"/>
+      <c r="A31" s="155"/>
+      <c r="B31" s="116"/>
       <c r="C31" s="94" t="s">
         <v>8</v>
       </c>
@@ -25822,16 +25788,16 @@
       <c r="F31" s="96">
         <v>3</v>
       </c>
-      <c r="G31" s="133"/>
+      <c r="G31" s="157"/>
       <c r="H31" s="88">
         <v>3</v>
       </c>
-      <c r="I31" s="168"/>
+      <c r="I31" s="127"/>
       <c r="J31" s="2"/>
     </row>
     <row r="32" spans="1:33" x14ac:dyDescent="0.4">
-      <c r="A32" s="131"/>
-      <c r="B32" s="145"/>
+      <c r="A32" s="155"/>
+      <c r="B32" s="116"/>
       <c r="C32" s="111" t="s">
         <v>77</v>
       </c>
@@ -25844,16 +25810,16 @@
       <c r="F32" s="113">
         <v>0</v>
       </c>
-      <c r="G32" s="133"/>
+      <c r="G32" s="157"/>
       <c r="H32" s="114">
         <v>0</v>
       </c>
-      <c r="I32" s="168"/>
+      <c r="I32" s="127"/>
       <c r="J32" s="2"/>
     </row>
     <row r="33" spans="1:10" x14ac:dyDescent="0.4">
-      <c r="A33" s="131"/>
-      <c r="B33" s="145"/>
+      <c r="A33" s="155"/>
+      <c r="B33" s="116"/>
       <c r="C33" s="94" t="s">
         <v>9</v>
       </c>
@@ -25866,16 +25832,16 @@
       <c r="F33" s="96">
         <v>40</v>
       </c>
-      <c r="G33" s="133"/>
+      <c r="G33" s="157"/>
       <c r="H33" s="88">
         <v>40</v>
       </c>
-      <c r="I33" s="168"/>
+      <c r="I33" s="127"/>
       <c r="J33" s="2"/>
     </row>
     <row r="34" spans="1:10" x14ac:dyDescent="0.4">
-      <c r="A34" s="131"/>
-      <c r="B34" s="145"/>
+      <c r="A34" s="155"/>
+      <c r="B34" s="116"/>
       <c r="C34" s="111" t="s">
         <v>78</v>
       </c>
@@ -25888,16 +25854,16 @@
       <c r="F34" s="113">
         <v>0</v>
       </c>
-      <c r="G34" s="133"/>
+      <c r="G34" s="157"/>
       <c r="H34" s="114">
         <v>0</v>
       </c>
-      <c r="I34" s="168"/>
+      <c r="I34" s="127"/>
       <c r="J34" s="2"/>
     </row>
     <row r="35" spans="1:10" x14ac:dyDescent="0.4">
-      <c r="A35" s="131"/>
-      <c r="B35" s="145"/>
+      <c r="A35" s="155"/>
+      <c r="B35" s="116"/>
       <c r="C35" s="94" t="s">
         <v>79</v>
       </c>
@@ -25910,16 +25876,16 @@
       <c r="F35" s="96">
         <v>4</v>
       </c>
-      <c r="G35" s="133"/>
+      <c r="G35" s="157"/>
       <c r="H35" s="88">
         <v>4</v>
       </c>
-      <c r="I35" s="168"/>
+      <c r="I35" s="127"/>
       <c r="J35" s="2"/>
     </row>
     <row r="36" spans="1:10" x14ac:dyDescent="0.4">
-      <c r="A36" s="131"/>
-      <c r="B36" s="145"/>
+      <c r="A36" s="155"/>
+      <c r="B36" s="116"/>
       <c r="C36" s="111" t="s">
         <v>10</v>
       </c>
@@ -25932,16 +25898,16 @@
       <c r="F36" s="113">
         <v>5</v>
       </c>
-      <c r="G36" s="133"/>
+      <c r="G36" s="157"/>
       <c r="H36" s="114">
         <v>5</v>
       </c>
-      <c r="I36" s="168"/>
+      <c r="I36" s="127"/>
       <c r="J36" s="2"/>
     </row>
     <row r="37" spans="1:10" x14ac:dyDescent="0.4">
-      <c r="A37" s="131"/>
-      <c r="B37" s="145"/>
+      <c r="A37" s="155"/>
+      <c r="B37" s="116"/>
       <c r="C37" s="94" t="s">
         <v>80</v>
       </c>
@@ -25954,16 +25920,16 @@
       <c r="F37" s="96">
         <v>0</v>
       </c>
-      <c r="G37" s="133"/>
+      <c r="G37" s="157"/>
       <c r="H37" s="88">
         <v>0</v>
       </c>
-      <c r="I37" s="168"/>
+      <c r="I37" s="127"/>
       <c r="J37" s="2"/>
     </row>
     <row r="38" spans="1:10" x14ac:dyDescent="0.4">
-      <c r="A38" s="131"/>
-      <c r="B38" s="145"/>
+      <c r="A38" s="155"/>
+      <c r="B38" s="116"/>
       <c r="C38" s="111" t="s">
         <v>81</v>
       </c>
@@ -25976,16 +25942,16 @@
       <c r="F38" s="113">
         <v>8</v>
       </c>
-      <c r="G38" s="133"/>
+      <c r="G38" s="157"/>
       <c r="H38" s="114">
         <v>8</v>
       </c>
-      <c r="I38" s="168"/>
+      <c r="I38" s="127"/>
       <c r="J38" s="2"/>
     </row>
     <row r="39" spans="1:10" x14ac:dyDescent="0.4">
-      <c r="A39" s="131"/>
-      <c r="B39" s="145"/>
+      <c r="A39" s="155"/>
+      <c r="B39" s="116"/>
       <c r="C39" s="94" t="s">
         <v>82</v>
       </c>
@@ -25998,16 +25964,16 @@
       <c r="F39" s="96">
         <v>0</v>
       </c>
-      <c r="G39" s="133"/>
+      <c r="G39" s="157"/>
       <c r="H39" s="88">
         <v>0</v>
       </c>
-      <c r="I39" s="168"/>
+      <c r="I39" s="127"/>
       <c r="J39" s="2"/>
     </row>
     <row r="40" spans="1:10" x14ac:dyDescent="0.4">
-      <c r="A40" s="131"/>
-      <c r="B40" s="145"/>
+      <c r="A40" s="155"/>
+      <c r="B40" s="116"/>
       <c r="C40" s="111" t="s">
         <v>83</v>
       </c>
@@ -26020,16 +25986,16 @@
       <c r="F40" s="113">
         <v>1</v>
       </c>
-      <c r="G40" s="133"/>
+      <c r="G40" s="157"/>
       <c r="H40" s="114">
         <v>1</v>
       </c>
-      <c r="I40" s="168"/>
+      <c r="I40" s="127"/>
       <c r="J40" s="2"/>
     </row>
     <row r="41" spans="1:10" x14ac:dyDescent="0.4">
-      <c r="A41" s="132"/>
-      <c r="B41" s="146"/>
+      <c r="A41" s="156"/>
+      <c r="B41" s="117"/>
       <c r="C41" s="97" t="s">
         <v>84</v>
       </c>
@@ -26042,11 +26008,11 @@
       <c r="F41" s="99">
         <v>8</v>
       </c>
-      <c r="G41" s="134"/>
+      <c r="G41" s="158"/>
       <c r="H41" s="101">
         <v>8</v>
       </c>
-      <c r="I41" s="169"/>
+      <c r="I41" s="128"/>
       <c r="J41" s="2"/>
     </row>
     <row r="43" spans="1:10" x14ac:dyDescent="0.4">
@@ -26109,28 +26075,12 @@
     </row>
   </sheetData>
   <mergeCells count="44">
-    <mergeCell ref="B29:B41"/>
-    <mergeCell ref="H5:I5"/>
-    <mergeCell ref="H6:I6"/>
-    <mergeCell ref="H7:I7"/>
-    <mergeCell ref="H8:I8"/>
-    <mergeCell ref="I9:I13"/>
-    <mergeCell ref="I14:I18"/>
-    <mergeCell ref="I19:I23"/>
-    <mergeCell ref="I24:I28"/>
-    <mergeCell ref="I29:I41"/>
-    <mergeCell ref="H1:I1"/>
-    <mergeCell ref="H2:I2"/>
-    <mergeCell ref="A1:C2"/>
-    <mergeCell ref="F3:G3"/>
-    <mergeCell ref="F4:G4"/>
-    <mergeCell ref="H3:I3"/>
-    <mergeCell ref="H4:I4"/>
-    <mergeCell ref="A3:A4"/>
-    <mergeCell ref="B3:C3"/>
-    <mergeCell ref="B4:C4"/>
-    <mergeCell ref="F1:G1"/>
-    <mergeCell ref="F2:G2"/>
+    <mergeCell ref="AG4:AG5"/>
+    <mergeCell ref="AB4:AB5"/>
+    <mergeCell ref="AC4:AC5"/>
+    <mergeCell ref="AD4:AD5"/>
+    <mergeCell ref="AE4:AE5"/>
+    <mergeCell ref="AF4:AF5"/>
     <mergeCell ref="A5:A8"/>
     <mergeCell ref="A9:A28"/>
     <mergeCell ref="A29:A41"/>
@@ -26147,12 +26097,28 @@
     <mergeCell ref="B14:B18"/>
     <mergeCell ref="B19:B23"/>
     <mergeCell ref="B24:B28"/>
-    <mergeCell ref="AG4:AG5"/>
-    <mergeCell ref="AB4:AB5"/>
-    <mergeCell ref="AC4:AC5"/>
-    <mergeCell ref="AD4:AD5"/>
-    <mergeCell ref="AE4:AE5"/>
-    <mergeCell ref="AF4:AF5"/>
+    <mergeCell ref="H1:I1"/>
+    <mergeCell ref="H2:I2"/>
+    <mergeCell ref="A1:C2"/>
+    <mergeCell ref="F3:G3"/>
+    <mergeCell ref="F4:G4"/>
+    <mergeCell ref="H3:I3"/>
+    <mergeCell ref="H4:I4"/>
+    <mergeCell ref="A3:A4"/>
+    <mergeCell ref="B3:C3"/>
+    <mergeCell ref="B4:C4"/>
+    <mergeCell ref="F1:G1"/>
+    <mergeCell ref="F2:G2"/>
+    <mergeCell ref="B29:B41"/>
+    <mergeCell ref="H5:I5"/>
+    <mergeCell ref="H6:I6"/>
+    <mergeCell ref="H7:I7"/>
+    <mergeCell ref="H8:I8"/>
+    <mergeCell ref="I9:I13"/>
+    <mergeCell ref="I14:I18"/>
+    <mergeCell ref="I19:I23"/>
+    <mergeCell ref="I24:I28"/>
+    <mergeCell ref="I29:I41"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <conditionalFormatting sqref="G14">
@@ -26274,15 +26240,15 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AB6:AG14">
-    <cfRule type="expression" dxfId="2" priority="1">
+    <cfRule type="expression" dxfId="1" priority="1">
       <formula>MOD(ROW(),2)=0</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="1" priority="10">
+    <cfRule type="expression" dxfId="0" priority="10">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AB4:AG5">
-    <cfRule type="expression" dxfId="0" priority="9">
+    <cfRule type="expression" dxfId="2" priority="9">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
@@ -46640,7 +46606,7 @@
   <dimension ref="A1:M2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="L40" sqref="L40"/>
+      <selection activeCell="I16" sqref="I16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10" defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
@@ -46697,10 +46663,11 @@
         <v>4.7300000000000004</v>
       </c>
       <c r="C2" s="12">
-        <v>77.400000000000006</v>
+        <v>69.3</v>
       </c>
       <c r="D2" s="12">
-        <v>3.87</v>
+        <f>69.3*0.05</f>
+        <v>3.4649999999999999</v>
       </c>
       <c r="E2" s="12">
         <v>56.1</v>
@@ -46715,8 +46682,8 @@
         <v>0</v>
       </c>
       <c r="I2" s="12">
-        <f>-79.6*0.95</f>
-        <v>-75.61999999999999</v>
+        <f>-112*0.95</f>
+        <v>-106.39999999999999</v>
       </c>
       <c r="J2" s="12">
         <v>0</v>
@@ -50953,7 +50920,7 @@
   <dimension ref="A1:F10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="L34" sqref="L34"/>
+      <selection activeCell="G25" sqref="G25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
@@ -50987,23 +50954,21 @@
         <v>2</v>
       </c>
       <c r="B2" s="28">
-        <f>[1]部門別CO2排出量!P3</f>
         <v>269.51474216725944</v>
       </c>
       <c r="C2" s="28">
-        <f>[1]部門別CO2排出量!P4</f>
         <v>209.4235083709562</v>
       </c>
       <c r="D2" s="28">
-        <v>257.81349782866999</v>
+        <v>253.11561083538152</v>
       </c>
       <c r="E2" s="28">
         <f>部門別CO2排出量!P7</f>
-        <v>260.01618074402859</v>
+        <v>253.11561083538152</v>
       </c>
       <c r="F2" s="28">
         <f>部門別CO2排出量!AD7</f>
-        <v>260.01618074402859</v>
+        <v>253.11561083538152</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.4">
@@ -51011,23 +50976,21 @@
         <v>3</v>
       </c>
       <c r="B3" s="32">
-        <f>[1]部門別CO2排出量!P8</f>
         <v>249.02275586606845</v>
       </c>
       <c r="C3" s="32">
-        <f>[1]部門別CO2排出量!P9</f>
         <v>196.15609230500672</v>
       </c>
       <c r="D3" s="32">
-        <v>170.69003462550376</v>
+        <v>188.62350530113275</v>
       </c>
       <c r="E3" s="32">
         <f>部門別CO2排出量!P12</f>
-        <v>210.67040851814829</v>
+        <v>188.62350530113275</v>
       </c>
       <c r="F3" s="32">
         <f>部門別CO2排出量!AD12</f>
-        <v>210.67040851814829</v>
+        <v>188.62350530113275</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.4">
@@ -51035,23 +50998,21 @@
         <v>4</v>
       </c>
       <c r="B4" s="28">
-        <f>[1]部門別CO2排出量!P13</f>
         <v>63.618347666356769</v>
       </c>
       <c r="C4" s="28">
-        <f>[1]部門別CO2排出量!P14</f>
         <v>52.883709709806709</v>
       </c>
       <c r="D4" s="28">
-        <v>65.1157721973603</v>
+        <v>61.373388455821313</v>
       </c>
       <c r="E4" s="28">
         <f>部門別CO2排出量!P17</f>
-        <v>66.032474177397248</v>
+        <v>61.373388455821313</v>
       </c>
       <c r="F4" s="28">
         <f>部門別CO2排出量!AD17</f>
-        <v>66.032474177397248</v>
+        <v>61.373388455821313</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.4">
@@ -51059,23 +51020,21 @@
         <v>5</v>
       </c>
       <c r="B5" s="32">
-        <f>[1]部門別CO2排出量!P18</f>
         <v>69.588005432578569</v>
       </c>
       <c r="C5" s="32">
-        <f>[1]部門別CO2排出量!P14</f>
         <v>52.883709709806709</v>
       </c>
       <c r="D5" s="32">
-        <v>52.398256859873904</v>
+        <v>49.012576322324165</v>
       </c>
       <c r="E5" s="32">
         <f>部門別CO2排出量!P22</f>
-        <v>52.527941152998537</v>
+        <v>49.012576322324165</v>
       </c>
       <c r="F5" s="32">
         <f>部門別CO2排出量!AD22</f>
-        <v>52.527941152998537</v>
+        <v>49.012576322324165</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.4">
@@ -51083,23 +51042,21 @@
         <v>30</v>
       </c>
       <c r="B6" s="28">
-        <f>部門別CO2排出量!P23</f>
         <v>476.37955455993358</v>
       </c>
       <c r="C6" s="28">
-        <f>部門別CO2排出量!P24</f>
         <v>449.00553720294573</v>
       </c>
       <c r="D6" s="28">
-        <v>502.31165964392062</v>
+        <v>493.52193172968884</v>
       </c>
       <c r="E6" s="28">
         <f>部門別CO2排出量!P27</f>
-        <v>496.52581315955877</v>
+        <v>493.52193172968884</v>
       </c>
       <c r="F6" s="28">
         <f>部門別CO2排出量!AD27</f>
-        <v>496.52581315955877</v>
+        <v>493.52193172968884</v>
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.4">
@@ -51107,15 +51064,13 @@
         <v>73</v>
       </c>
       <c r="B7" s="32">
-        <f>[1]部門別CO2排出量!P28</f>
         <v>28.775119328906975</v>
       </c>
       <c r="C7" s="32">
-        <f>[1]部門別CO2排出量!P29</f>
         <v>25.99212785621209</v>
       </c>
       <c r="D7" s="32">
-        <v>22.617687534623279</v>
+        <v>22.660005374260319</v>
       </c>
       <c r="E7" s="32">
         <f>部門別CO2排出量!P32</f>
@@ -51131,15 +51086,13 @@
         <v>74</v>
       </c>
       <c r="B8" s="28">
-        <f>[1]部門別CO2排出量!P33</f>
         <v>29.46362437612942</v>
       </c>
       <c r="C8" s="28">
-        <f>[1]部門別CO2排出量!P34</f>
         <v>31.085649151718691</v>
       </c>
       <c r="D8" s="28">
-        <v>27.049940013143782</v>
+        <v>27.100550625829783</v>
       </c>
       <c r="E8" s="28">
         <f>部門別CO2排出量!P37</f>
@@ -51177,24 +51130,21 @@
         <v>27</v>
       </c>
       <c r="B10" s="28">
-        <f>SUM(B2:B9)</f>
         <v>1140.3621493972332</v>
       </c>
       <c r="C10" s="28">
-        <f>SUM(C2:C9)</f>
         <v>971.43033430645278</v>
       </c>
       <c r="D10" s="28">
-        <f>SUM(D2:D9)</f>
-        <v>1051.9968487030956</v>
+        <v>1049.4075686444387</v>
       </c>
       <c r="E10" s="28">
         <f>SUM(E2:E9)</f>
-        <v>1089.5333737522215</v>
+        <v>1049.4075686444387</v>
       </c>
       <c r="F10" s="28">
         <f>SUM(F2:F9)</f>
-        <v>1089.5333737522215</v>
+        <v>1049.4075686444387</v>
       </c>
     </row>
   </sheetData>
@@ -51212,7 +51162,7 @@
   <dimension ref="A1:AZ61"/>
   <sheetViews>
     <sheetView zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="I28" sqref="I28"/>
+      <selection activeCell="J28" sqref="J28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
@@ -52492,15 +52442,15 @@
         <v>2010</v>
       </c>
       <c r="B11" s="2">
-        <v>1070.7741439646545</v>
+        <v>1024.2639946178085</v>
       </c>
       <c r="C11" s="2">
         <f>部門別CO2排出量!P43</f>
-        <v>1070.7741439646545</v>
+        <v>1024.2639946178085</v>
       </c>
       <c r="D11" s="2">
         <f>部門別CO2排出量!AD43</f>
-        <v>1070.7741439646545</v>
+        <v>1024.2639946178085</v>
       </c>
       <c r="F11" s="2" t="s">
         <v>2</v>
@@ -52514,15 +52464,15 @@
         <v>209.4235083709562</v>
       </c>
       <c r="I11">
-        <v>260.01618074402859</v>
+        <v>253.11561083538152</v>
       </c>
       <c r="J11">
         <f>CO2排出量!E2</f>
-        <v>260.01618074402859</v>
+        <v>253.11561083538152</v>
       </c>
       <c r="K11">
         <f>CO2排出量!F2</f>
-        <v>260.01618074402859</v>
+        <v>253.11561083538152</v>
       </c>
     </row>
     <row r="12" spans="1:52" x14ac:dyDescent="0.4">
@@ -52530,15 +52480,15 @@
         <v>2020</v>
       </c>
       <c r="B12" s="2">
-        <v>978.76242648442098</v>
+        <v>942.06823852743798</v>
       </c>
       <c r="C12" s="2">
         <f>部門別CO2排出量!P44</f>
-        <v>978.76242648442098</v>
+        <v>942.06823852743798</v>
       </c>
       <c r="D12" s="2">
         <f>部門別CO2排出量!AD44</f>
-        <v>978.76242648442098</v>
+        <v>942.06823852743798</v>
       </c>
       <c r="F12" s="2" t="s">
         <v>3</v>
@@ -52552,15 +52502,15 @@
         <v>196.15609230500672</v>
       </c>
       <c r="I12">
-        <v>210.67040851814829</v>
+        <v>188.62350530113275</v>
       </c>
       <c r="J12">
         <f>CO2排出量!E3</f>
-        <v>210.67040851814829</v>
+        <v>188.62350530113275</v>
       </c>
       <c r="K12">
         <f>CO2排出量!F3</f>
-        <v>210.67040851814829</v>
+        <v>188.62350530113275</v>
       </c>
     </row>
     <row r="13" spans="1:52" x14ac:dyDescent="0.4">
@@ -52568,15 +52518,15 @@
         <v>2030</v>
       </c>
       <c r="B13" s="2">
-        <v>1022.4934872153367</v>
+        <v>984.39591573841176</v>
       </c>
       <c r="C13" s="2">
         <f>部門別CO2排出量!P45</f>
-        <v>1022.4934872153367</v>
+        <v>984.39591573841176</v>
       </c>
       <c r="D13" s="2">
         <f>部門別CO2排出量!AD45</f>
-        <v>1022.4934872153367</v>
+        <v>984.39591573841176</v>
       </c>
       <c r="F13" s="2" t="s">
         <v>4</v>
@@ -52590,15 +52540,15 @@
         <v>52.883709709806709</v>
       </c>
       <c r="I13">
-        <v>66.032474177397248</v>
+        <v>61.373388455821313</v>
       </c>
       <c r="J13">
         <f>CO2排出量!E4</f>
-        <v>66.032474177397248</v>
+        <v>61.373388455821313</v>
       </c>
       <c r="K13">
         <f>CO2排出量!F4</f>
-        <v>66.032474177397248</v>
+        <v>61.373388455821313</v>
       </c>
     </row>
     <row r="14" spans="1:52" x14ac:dyDescent="0.4">
@@ -52606,15 +52556,15 @@
         <v>2040</v>
       </c>
       <c r="B14" s="2">
-        <v>1055.0267159154703</v>
+        <v>1015.8856723562906</v>
       </c>
       <c r="C14" s="2">
         <f>部門別CO2排出量!P46</f>
-        <v>1055.0267159154703</v>
+        <v>1015.8856723562906</v>
       </c>
       <c r="D14" s="2">
         <f>部門別CO2排出量!AD46</f>
-        <v>1055.0267159154703</v>
+        <v>1015.8856723562906</v>
       </c>
       <c r="F14" s="2" t="s">
         <v>5</v>
@@ -52628,15 +52578,15 @@
         <v>52.883709709806709</v>
       </c>
       <c r="I14">
-        <v>52.527941152998537</v>
+        <v>49.012576322324165</v>
       </c>
       <c r="J14">
         <f>CO2排出量!E5</f>
-        <v>52.527941152998537</v>
+        <v>49.012576322324165</v>
       </c>
       <c r="K14">
         <f>CO2排出量!F5</f>
-        <v>52.527941152998537</v>
+        <v>49.012576322324165</v>
       </c>
     </row>
     <row r="15" spans="1:52" x14ac:dyDescent="0.4">
@@ -52644,15 +52594,15 @@
         <v>2050</v>
       </c>
       <c r="B15" s="2">
-        <v>1089.5333737522215</v>
+        <v>1049.4075686444387</v>
       </c>
       <c r="C15" s="2">
         <f>部門別CO2排出量!P47</f>
-        <v>1089.5333737522215</v>
+        <v>1049.4075686444387</v>
       </c>
       <c r="D15" s="2">
         <f>部門別CO2排出量!AD47</f>
-        <v>1089.5333737522215</v>
+        <v>1049.4075686444387</v>
       </c>
       <c r="F15" s="2" t="s">
         <v>30</v>
@@ -52666,15 +52616,15 @@
         <v>449.00553720294573</v>
       </c>
       <c r="I15">
-        <v>496.52581315955877</v>
+        <v>493.52193172968884</v>
       </c>
       <c r="J15">
         <f>CO2排出量!E6</f>
-        <v>496.52581315955877</v>
+        <v>493.52193172968884</v>
       </c>
       <c r="K15">
         <f>CO2排出量!F6</f>
-        <v>496.52581315955877</v>
+        <v>493.52193172968884</v>
       </c>
     </row>
     <row r="16" spans="1:52" x14ac:dyDescent="0.4">
@@ -54571,11 +54521,11 @@
       </c>
       <c r="C11" s="2">
         <f>部門別CO2排出量!P43</f>
-        <v>1070.7741439646545</v>
+        <v>1024.2639946178085</v>
       </c>
       <c r="D11" s="2">
         <f>部門別CO2排出量!AD43</f>
-        <v>1070.7741439646545</v>
+        <v>1024.2639946178085</v>
       </c>
       <c r="F11" s="2" t="s">
         <v>2</v>
@@ -54593,11 +54543,11 @@
       </c>
       <c r="J11">
         <f>CO2排出量!E2</f>
-        <v>260.01618074402859</v>
+        <v>253.11561083538152</v>
       </c>
       <c r="K11">
         <f>CO2排出量!F2</f>
-        <v>260.01618074402859</v>
+        <v>253.11561083538152</v>
       </c>
     </row>
     <row r="12" spans="1:52" x14ac:dyDescent="0.4">
@@ -54609,11 +54559,11 @@
       </c>
       <c r="C12" s="2">
         <f>部門別CO2排出量!P44</f>
-        <v>978.76242648442098</v>
+        <v>942.06823852743798</v>
       </c>
       <c r="D12" s="2">
         <f>部門別CO2排出量!AD44</f>
-        <v>978.76242648442098</v>
+        <v>942.06823852743798</v>
       </c>
       <c r="F12" s="2" t="s">
         <v>3</v>
@@ -54631,11 +54581,11 @@
       </c>
       <c r="J12">
         <f>CO2排出量!E3</f>
-        <v>210.67040851814829</v>
+        <v>188.62350530113275</v>
       </c>
       <c r="K12">
         <f>CO2排出量!F3</f>
-        <v>210.67040851814829</v>
+        <v>188.62350530113275</v>
       </c>
     </row>
     <row r="13" spans="1:52" x14ac:dyDescent="0.4">
@@ -54647,11 +54597,11 @@
       </c>
       <c r="C13" s="2">
         <f>部門別CO2排出量!P45</f>
-        <v>1022.4934872153367</v>
+        <v>984.39591573841176</v>
       </c>
       <c r="D13" s="2">
         <f>部門別CO2排出量!AD45</f>
-        <v>1022.4934872153367</v>
+        <v>984.39591573841176</v>
       </c>
       <c r="F13" s="2" t="s">
         <v>4</v>
@@ -54669,11 +54619,11 @@
       </c>
       <c r="J13">
         <f>CO2排出量!E4</f>
-        <v>66.032474177397248</v>
+        <v>61.373388455821313</v>
       </c>
       <c r="K13">
         <f>CO2排出量!F4</f>
-        <v>66.032474177397248</v>
+        <v>61.373388455821313</v>
       </c>
     </row>
     <row r="14" spans="1:52" x14ac:dyDescent="0.4">
@@ -54685,11 +54635,11 @@
       </c>
       <c r="C14" s="2">
         <f>部門別CO2排出量!P46</f>
-        <v>1055.0267159154703</v>
+        <v>1015.8856723562906</v>
       </c>
       <c r="D14" s="2">
         <f>部門別CO2排出量!AD46</f>
-        <v>1055.0267159154703</v>
+        <v>1015.8856723562906</v>
       </c>
       <c r="F14" s="2" t="s">
         <v>5</v>
@@ -54707,11 +54657,11 @@
       </c>
       <c r="J14">
         <f>CO2排出量!E5</f>
-        <v>52.527941152998537</v>
+        <v>49.012576322324165</v>
       </c>
       <c r="K14">
         <f>CO2排出量!F5</f>
-        <v>52.527941152998537</v>
+        <v>49.012576322324165</v>
       </c>
     </row>
     <row r="15" spans="1:52" x14ac:dyDescent="0.4">
@@ -54723,11 +54673,11 @@
       </c>
       <c r="C15" s="2">
         <f>部門別CO2排出量!P47</f>
-        <v>1089.5333737522215</v>
+        <v>1049.4075686444387</v>
       </c>
       <c r="D15" s="2">
         <f>部門別CO2排出量!AD47</f>
-        <v>1089.5333737522215</v>
+        <v>1049.4075686444387</v>
       </c>
       <c r="F15" s="2" t="s">
         <v>30</v>
@@ -54745,11 +54695,11 @@
       </c>
       <c r="J15">
         <f>CO2排出量!E6</f>
-        <v>496.52581315955877</v>
+        <v>493.52193172968884</v>
       </c>
       <c r="K15">
         <f>CO2排出量!F6</f>
-        <v>496.52581315955877</v>
+        <v>493.52193172968884</v>
       </c>
     </row>
     <row r="16" spans="1:52" x14ac:dyDescent="0.4">
@@ -55377,7 +55327,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5ACBDC0A-B774-4127-9811-6E05EDCA9F07}">
   <dimension ref="A1:AD47"/>
   <sheetViews>
-    <sheetView topLeftCell="F1" workbookViewId="0">
+    <sheetView topLeftCell="F25" workbookViewId="0">
       <selection activeCell="Q36" sqref="Q36"/>
     </sheetView>
   </sheetViews>
@@ -55520,7 +55470,7 @@
       </c>
       <c r="E3">
         <f>最終エネルギー消費!D3*EMF!$C$2</f>
-        <v>75.40279918389281</v>
+        <v>67.511808571624954</v>
       </c>
       <c r="G3">
         <f>最終エネルギー消費!E3*EMF!$E$2</f>
@@ -55528,7 +55478,7 @@
       </c>
       <c r="P3" s="3">
         <f t="shared" ref="P3" si="0">SUM(C3:O3)</f>
-        <v>269.51474216725944</v>
+        <v>261.62375155499154</v>
       </c>
       <c r="Q3" s="9">
         <f>最終エネルギー消費!H3*EMF!$A$2</f>
@@ -55536,7 +55486,7 @@
       </c>
       <c r="S3">
         <f>最終エネルギー消費!I3*EMF!$C$2</f>
-        <v>75.40279918389281</v>
+        <v>67.511808571624954</v>
       </c>
       <c r="U3">
         <f>最終エネルギー消費!J3*EMF!$E$2</f>
@@ -55544,7 +55494,7 @@
       </c>
       <c r="AD3" s="3">
         <f t="shared" ref="AD3" si="1">SUM(Q3:AC3)</f>
-        <v>269.51474216725944</v>
+        <v>261.62375155499154</v>
       </c>
     </row>
     <row r="4" spans="1:30" x14ac:dyDescent="0.4">
@@ -55558,7 +55508,7 @@
       </c>
       <c r="E4">
         <f>最終エネルギー消費!D4*EMF!$C$2</f>
-        <v>53.323639580392673</v>
+        <v>47.743258694072502</v>
       </c>
       <c r="G4">
         <f>最終エネルギー消費!E4*EMF!$E$2</f>
@@ -55566,7 +55516,7 @@
       </c>
       <c r="P4" s="3">
         <f t="shared" ref="P4:P27" si="2">SUM(C4:O4)</f>
-        <v>209.4235083709562</v>
+        <v>203.84312748463603</v>
       </c>
       <c r="Q4" s="9">
         <f>最終エネルギー消費!H4*EMF!$A$2</f>
@@ -55574,7 +55524,7 @@
       </c>
       <c r="S4">
         <f>最終エネルギー消費!I4*EMF!$C$2</f>
-        <v>53.323639580392673</v>
+        <v>47.743258694072502</v>
       </c>
       <c r="U4">
         <f>最終エネルギー消費!J4*EMF!$E$2</f>
@@ -55582,7 +55532,7 @@
       </c>
       <c r="AD4" s="3">
         <f t="shared" ref="AD4:AD27" si="3">SUM(Q4:AC4)</f>
-        <v>209.4235083709562</v>
+        <v>203.84312748463603</v>
       </c>
     </row>
     <row r="5" spans="1:30" x14ac:dyDescent="0.4">
@@ -55596,7 +55546,7 @@
       </c>
       <c r="E5">
         <f>最終エネルギー消費!D5*EMF!$C$2</f>
-        <v>57.515686928140688</v>
+        <v>51.49660341240503</v>
       </c>
       <c r="G5">
         <f>最終エネルギー消費!E5*EMF!$E$2</f>
@@ -55604,7 +55554,7 @@
       </c>
       <c r="P5" s="3">
         <f t="shared" si="2"/>
-        <v>226.19302313453261</v>
+        <v>220.17393961879694</v>
       </c>
       <c r="Q5" s="9">
         <f>最終エネルギー消費!H5*EMF!$A$2</f>
@@ -55612,7 +55562,7 @@
       </c>
       <c r="S5">
         <f>最終エネルギー消費!I5*EMF!$C$2</f>
-        <v>57.515686928140688</v>
+        <v>51.49660341240503</v>
       </c>
       <c r="U5">
         <f>最終エネルギー消費!J5*EMF!$E$2</f>
@@ -55620,7 +55570,7 @@
       </c>
       <c r="AD5" s="3">
         <f t="shared" si="3"/>
-        <v>226.19302313453261</v>
+        <v>220.17393961879694</v>
       </c>
     </row>
     <row r="6" spans="1:30" x14ac:dyDescent="0.4">
@@ -55634,7 +55584,7 @@
       </c>
       <c r="E6">
         <f>最終エネルギー消費!D6*EMF!$C$2</f>
-        <v>61.72073344370046</v>
+        <v>55.261586920522497</v>
       </c>
       <c r="G6">
         <f>最終エネルギー消費!E6*EMF!$E$2</f>
@@ -55642,7 +55592,7 @@
       </c>
       <c r="P6" s="3">
         <f t="shared" si="2"/>
-        <v>243.0572472588897</v>
+        <v>236.59810073571174</v>
       </c>
       <c r="Q6" s="9">
         <f>最終エネルギー消費!H6*EMF!$A$2</f>
@@ -55650,7 +55600,7 @@
       </c>
       <c r="S6">
         <f>最終エネルギー消費!I6*EMF!$C$2</f>
-        <v>61.72073344370046</v>
+        <v>55.261586920522497</v>
       </c>
       <c r="U6">
         <f>最終エネルギー消費!J6*EMF!$E$2</f>
@@ -55658,7 +55608,7 @@
       </c>
       <c r="AD6" s="3">
         <f t="shared" si="3"/>
-        <v>243.0572472588897</v>
+        <v>236.59810073571174</v>
       </c>
     </row>
     <row r="7" spans="1:30" x14ac:dyDescent="0.4">
@@ -55672,7 +55622,7 @@
       </c>
       <c r="E7">
         <f>最終エネルギー消費!D7*EMF!$C$2</f>
-        <v>65.938779127072237</v>
+        <v>59.038209218425138</v>
       </c>
       <c r="G7">
         <f>最終エネルギー消費!E7*EMF!$E$2</f>
@@ -55680,7 +55630,7 @@
       </c>
       <c r="P7" s="3">
         <f t="shared" si="2"/>
-        <v>260.01618074402859</v>
+        <v>253.11561083538152</v>
       </c>
       <c r="Q7" s="9">
         <f>最終エネルギー消費!H7*EMF!$A$2</f>
@@ -55688,7 +55638,7 @@
       </c>
       <c r="S7">
         <f>最終エネルギー消費!I7*EMF!$C$2</f>
-        <v>65.938779127072237</v>
+        <v>59.038209218425138</v>
       </c>
       <c r="U7">
         <f>最終エネルギー消費!J7*EMF!$E$2</f>
@@ -55696,7 +55646,7 @@
       </c>
       <c r="AD7" s="3">
         <f t="shared" si="3"/>
-        <v>260.01618074402859</v>
+        <v>253.11561083538152</v>
       </c>
     </row>
     <row r="8" spans="1:30" x14ac:dyDescent="0.4">
@@ -55712,7 +55662,7 @@
       </c>
       <c r="E8">
         <f>最終エネルギー消費!D8*EMF!$C$2</f>
-        <v>248.78310663885517</v>
+        <v>222.7476652464168</v>
       </c>
       <c r="G8">
         <f>最終エネルギー消費!E8*EMF!$E$2</f>
@@ -55720,7 +55670,7 @@
       </c>
       <c r="P8" s="3">
         <f t="shared" ref="P8" si="4">SUM(C8:O8)</f>
-        <v>249.02275586606822</v>
+        <v>222.98731447362985</v>
       </c>
       <c r="Q8" s="9">
         <f>最終エネルギー消費!H8*EMF!$A$2</f>
@@ -55728,7 +55678,7 @@
       </c>
       <c r="S8">
         <f>最終エネルギー消費!I8*EMF!$C$2</f>
-        <v>248.78310663885517</v>
+        <v>222.7476652464168</v>
       </c>
       <c r="U8">
         <f>最終エネルギー消費!J8*EMF!$E$2</f>
@@ -55736,7 +55686,7 @@
       </c>
       <c r="AD8" s="3">
         <f t="shared" ref="AD8" si="5">SUM(Q8:AC8)</f>
-        <v>249.02275586606822</v>
+        <v>222.98731447362985</v>
       </c>
     </row>
     <row r="9" spans="1:30" x14ac:dyDescent="0.4">
@@ -55750,7 +55700,7 @@
       </c>
       <c r="E9">
         <f>最終エネルギー消費!D9*EMF!$C$2</f>
-        <v>196.09305238090133</v>
+        <v>175.5716864340628</v>
       </c>
       <c r="G9">
         <f>最終エネルギー消費!E9*EMF!$E$2</f>
@@ -55758,7 +55708,7 @@
       </c>
       <c r="P9" s="3">
         <f t="shared" si="2"/>
-        <v>196.15609230500615</v>
+        <v>175.63472635816763</v>
       </c>
       <c r="Q9" s="9">
         <f>最終エネルギー消費!H9*EMF!$A$2</f>
@@ -55766,7 +55716,7 @@
       </c>
       <c r="S9">
         <f>最終エネルギー消費!I9*EMF!$C$2</f>
-        <v>196.09305238090133</v>
+        <v>175.5716864340628</v>
       </c>
       <c r="U9">
         <f>最終エネルギー消費!J9*EMF!$E$2</f>
@@ -55774,7 +55724,7 @@
       </c>
       <c r="AD9" s="3">
         <f t="shared" si="3"/>
-        <v>196.15609230500615</v>
+        <v>175.63472635816763</v>
       </c>
     </row>
     <row r="10" spans="1:30" x14ac:dyDescent="0.4">
@@ -55788,7 +55738,7 @@
       </c>
       <c r="E10">
         <f>最終エネルギー消費!D10*EMF!$C$2</f>
-        <v>202.23752502088084</v>
+        <v>181.07313286753282</v>
       </c>
       <c r="G10">
         <f>最終エネルギー消費!E10*EMF!$E$2</f>
@@ -55796,7 +55746,7 @@
       </c>
       <c r="P10" s="3">
         <f t="shared" si="2"/>
-        <v>202.28084981729302</v>
+        <v>181.116457663945</v>
       </c>
       <c r="Q10" s="9">
         <f>最終エネルギー消費!H10*EMF!$A$2</f>
@@ -55804,7 +55754,7 @@
       </c>
       <c r="S10">
         <f>最終エネルギー消費!I10*EMF!$C$2</f>
-        <v>202.23752502088084</v>
+        <v>181.07313286753282</v>
       </c>
       <c r="U10">
         <f>最終エネルギー消費!J10*EMF!$E$2</f>
@@ -55812,7 +55762,7 @@
       </c>
       <c r="AD10" s="3">
         <f t="shared" si="3"/>
-        <v>202.28084981729302</v>
+        <v>181.116457663945</v>
       </c>
     </row>
     <row r="11" spans="1:30" x14ac:dyDescent="0.4">
@@ -55826,7 +55776,7 @@
       </c>
       <c r="E11">
         <f>最終エネルギー消費!D11*EMF!$C$2</f>
-        <v>207.09720010543484</v>
+        <v>185.42423730370325</v>
       </c>
       <c r="G11">
         <f>最終エネルギー消費!E11*EMF!$E$2</f>
@@ -55834,7 +55784,7 @@
       </c>
       <c r="P11" s="3">
         <f t="shared" si="2"/>
-        <v>207.1193734739293</v>
+        <v>185.44641067219771</v>
       </c>
       <c r="Q11" s="9">
         <f>最終エネルギー消費!H11*EMF!$A$2</f>
@@ -55842,7 +55792,7 @@
       </c>
       <c r="S11">
         <f>最終エネルギー消費!I11*EMF!$C$2</f>
-        <v>207.09720010543484</v>
+        <v>185.42423730370325</v>
       </c>
       <c r="U11">
         <f>最終エネルギー消費!J11*EMF!$E$2</f>
@@ -55850,7 +55800,7 @@
       </c>
       <c r="AD11" s="3">
         <f t="shared" si="3"/>
-        <v>207.1193734739293</v>
+        <v>185.44641067219771</v>
       </c>
     </row>
     <row r="12" spans="1:30" x14ac:dyDescent="0.4">
@@ -55864,7 +55814,7 @@
       </c>
       <c r="E12">
         <f>最終エネルギー消費!D12*EMF!$C$2</f>
-        <v>210.67040851814829</v>
+        <v>188.62350530113275</v>
       </c>
       <c r="G12">
         <f>最終エネルギー消費!E12*EMF!$E$2</f>
@@ -55872,7 +55822,7 @@
       </c>
       <c r="P12" s="3">
         <f t="shared" si="2"/>
-        <v>210.67040851814829</v>
+        <v>188.62350530113275</v>
       </c>
       <c r="Q12" s="9">
         <f>最終エネルギー消費!H12*EMF!$A$2</f>
@@ -55880,7 +55830,7 @@
       </c>
       <c r="S12">
         <f>最終エネルギー消費!I12*EMF!$C$2</f>
-        <v>210.67040851814829</v>
+        <v>188.62350530113275</v>
       </c>
       <c r="U12">
         <f>最終エネルギー消費!J12*EMF!$E$2</f>
@@ -55888,7 +55838,7 @@
       </c>
       <c r="AD12" s="3">
         <f t="shared" si="3"/>
-        <v>210.67040851814829</v>
+        <v>188.62350530113275</v>
       </c>
     </row>
     <row r="13" spans="1:30" x14ac:dyDescent="0.4">
@@ -55904,7 +55854,7 @@
       </c>
       <c r="E13">
         <f>最終エネルギー消費!D13*EMF!$C$2</f>
-        <v>42.400280288081049</v>
+        <v>37.963041653281863</v>
       </c>
       <c r="G13">
         <f>最終エネルギー消費!E13*EMF!$E$2</f>
@@ -55912,7 +55862,7 @@
       </c>
       <c r="P13" s="3">
         <f t="shared" ref="P13" si="6">SUM(C13:O13)</f>
-        <v>63.618347666356769</v>
+        <v>59.181109031557583</v>
       </c>
       <c r="Q13" s="9">
         <f>最終エネルギー消費!H13*EMF!$A$2</f>
@@ -55920,7 +55870,7 @@
       </c>
       <c r="S13">
         <f>最終エネルギー消費!I13*EMF!$C$2</f>
-        <v>42.400280288081049</v>
+        <v>37.963041653281863</v>
       </c>
       <c r="U13">
         <f>最終エネルギー消費!J13*EMF!$E$2</f>
@@ -55928,7 +55878,7 @@
       </c>
       <c r="AD13" s="3">
         <f t="shared" ref="AD13" si="7">SUM(Q13:AC13)</f>
-        <v>63.618347666356769</v>
+        <v>59.181109031557583</v>
       </c>
     </row>
     <row r="14" spans="1:30" x14ac:dyDescent="0.4">
@@ -55942,7 +55892,7 @@
       </c>
       <c r="E14">
         <f>最終エネルギー消費!D14*EMF!$C$2</f>
-        <v>35.428605890437012</v>
+        <v>31.720961087949412</v>
       </c>
       <c r="G14">
         <f>最終エネルギー消費!E14*EMF!$E$2</f>
@@ -55950,7 +55900,7 @@
       </c>
       <c r="P14" s="3">
         <f t="shared" si="2"/>
-        <v>52.883709709806709</v>
+        <v>49.176064907319116</v>
       </c>
       <c r="Q14" s="9">
         <f>最終エネルギー消費!H14*EMF!$A$2</f>
@@ -55958,7 +55908,7 @@
       </c>
       <c r="S14">
         <f>最終エネルギー消費!I14*EMF!$C$2</f>
-        <v>35.428605890437012</v>
+        <v>31.720961087949412</v>
       </c>
       <c r="U14">
         <f>最終エネルギー消費!J14*EMF!$E$2</f>
@@ -55966,7 +55916,7 @@
       </c>
       <c r="AD14" s="3">
         <f t="shared" si="3"/>
-        <v>52.883709709806709</v>
+        <v>49.176064907319116</v>
       </c>
     </row>
     <row r="15" spans="1:30" x14ac:dyDescent="0.4">
@@ -55980,7 +55930,7 @@
       </c>
       <c r="E15">
         <f>最終エネルギー消費!D15*EMF!$C$2</f>
-        <v>39.360646279934372</v>
+        <v>35.241508878545886</v>
       </c>
       <c r="G15">
         <f>最終エネルギー消費!E15*EMF!$E$2</f>
@@ -55988,7 +55938,7 @@
       </c>
       <c r="P15" s="3">
         <f t="shared" si="2"/>
-        <v>58.626910469997512</v>
+        <v>54.507773068609026</v>
       </c>
       <c r="Q15" s="9">
         <f>最終エネルギー消費!H15*EMF!$A$2</f>
@@ -55996,7 +55946,7 @@
       </c>
       <c r="S15">
         <f>最終エネルギー消費!I15*EMF!$C$2</f>
-        <v>39.360646279934372</v>
+        <v>35.241508878545886</v>
       </c>
       <c r="U15">
         <f>最終エネルギー消費!J15*EMF!$E$2</f>
@@ -56004,7 +55954,7 @@
       </c>
       <c r="AD15" s="3">
         <f t="shared" si="3"/>
-        <v>58.626910469997512</v>
+        <v>54.507773068609026</v>
       </c>
     </row>
     <row r="16" spans="1:30" x14ac:dyDescent="0.4">
@@ -56018,7 +55968,7 @@
       </c>
       <c r="E16">
         <f>最終エネルギー消費!D16*EMF!$C$2</f>
-        <v>41.628189646365335</v>
+        <v>37.271751195001514</v>
       </c>
       <c r="G16">
         <f>最終エネルギー消費!E16*EMF!$E$2</f>
@@ -56026,7 +55976,7 @@
       </c>
       <c r="P16" s="3">
         <f t="shared" si="2"/>
-        <v>61.872842399221625</v>
+        <v>57.51640394785781</v>
       </c>
       <c r="Q16" s="9">
         <f>最終エネルギー消費!H16*EMF!$A$2</f>
@@ -56034,7 +55984,7 @@
       </c>
       <c r="S16">
         <f>最終エネルギー消費!I16*EMF!$C$2</f>
-        <v>41.628189646365335</v>
+        <v>37.271751195001514</v>
       </c>
       <c r="U16">
         <f>最終エネルギー消費!J16*EMF!$E$2</f>
@@ -56042,7 +55992,7 @@
       </c>
       <c r="AD16" s="3">
         <f t="shared" si="3"/>
-        <v>61.872842399221625</v>
+        <v>57.51640394785781</v>
       </c>
     </row>
     <row r="17" spans="1:30" x14ac:dyDescent="0.4">
@@ -56056,7 +56006,7 @@
       </c>
       <c r="E17">
         <f>最終エネルギー消費!D17*EMF!$C$2</f>
-        <v>44.520152450614525</v>
+        <v>39.861066729038583</v>
       </c>
       <c r="G17">
         <f>最終エネルギー消費!E17*EMF!$E$2</f>
@@ -56064,7 +56014,7 @@
       </c>
       <c r="P17" s="3">
         <f t="shared" si="2"/>
-        <v>66.032474177397248</v>
+        <v>61.373388455821313</v>
       </c>
       <c r="Q17" s="9">
         <f>最終エネルギー消費!H17*EMF!$A$2</f>
@@ -56072,7 +56022,7 @@
       </c>
       <c r="S17">
         <f>最終エネルギー消費!I17*EMF!$C$2</f>
-        <v>44.520152450614525</v>
+        <v>39.861066729038583</v>
       </c>
       <c r="U17">
         <f>最終エネルギー消費!J17*EMF!$E$2</f>
@@ -56080,7 +56030,7 @@
       </c>
       <c r="AD17" s="3">
         <f t="shared" si="3"/>
-        <v>66.032474177397248</v>
+        <v>61.373388455821313</v>
       </c>
     </row>
     <row r="18" spans="1:30" x14ac:dyDescent="0.4">
@@ -56106,7 +56056,7 @@
       </c>
       <c r="E19">
         <f>最終エネルギー消費!D19*EMF!$C$2</f>
-        <v>38.223923354952127</v>
+        <v>34.223745329433875</v>
       </c>
       <c r="G19">
         <f>最終エネルギー消費!E19*EMF!$E$2</f>
@@ -56114,7 +56064,7 @@
       </c>
       <c r="P19" s="3">
         <f t="shared" si="2"/>
-        <v>60.215801887775498</v>
+        <v>56.215623862257246</v>
       </c>
       <c r="Q19" s="9">
         <f>最終エネルギー消費!H19*EMF!$A$2</f>
@@ -56122,7 +56072,7 @@
       </c>
       <c r="S19">
         <f>最終エネルギー消費!I19*EMF!$C$2</f>
-        <v>38.223923354952127</v>
+        <v>34.223745329433875</v>
       </c>
       <c r="U19">
         <f>最終エネルギー消費!J19*EMF!$E$2</f>
@@ -56130,7 +56080,7 @@
       </c>
       <c r="AD19" s="3">
         <f t="shared" si="3"/>
-        <v>60.215801887775498</v>
+        <v>56.215623862257246</v>
       </c>
     </row>
     <row r="20" spans="1:30" x14ac:dyDescent="0.4">
@@ -56144,7 +56094,7 @@
       </c>
       <c r="E20">
         <f>最終エネルギー消費!D20*EMF!$C$2</f>
-        <v>36.68844631173279</v>
+        <v>32.848957744225864</v>
       </c>
       <c r="G20">
         <f>最終エネルギー消費!E20*EMF!$E$2</f>
@@ -56152,7 +56102,7 @@
       </c>
       <c r="P20" s="3">
         <f t="shared" si="2"/>
-        <v>57.654215780744003</v>
+        <v>53.814727213237077</v>
       </c>
       <c r="Q20" s="9">
         <f>最終エネルギー消費!H20*EMF!$A$2</f>
@@ -56160,7 +56110,7 @@
       </c>
       <c r="S20">
         <f>最終エネルギー消費!I20*EMF!$C$2</f>
-        <v>36.68844631173279</v>
+        <v>32.848957744225864</v>
       </c>
       <c r="U20">
         <f>最終エネルギー消費!J20*EMF!$E$2</f>
@@ -56168,7 +56118,7 @@
       </c>
       <c r="AD20" s="3">
         <f t="shared" si="3"/>
-        <v>57.654215780744003</v>
+        <v>53.814727213237077</v>
       </c>
     </row>
     <row r="21" spans="1:30" x14ac:dyDescent="0.4">
@@ -56182,7 +56132,7 @@
       </c>
       <c r="E21">
         <f>最終エネルギー消費!D21*EMF!$C$2</f>
-        <v>35.144226505933794</v>
+        <v>31.466342336708159</v>
       </c>
       <c r="G21">
         <f>最終エネルギー消費!E21*EMF!$E$2</f>
@@ -56190,7 +56140,7 @@
       </c>
       <c r="P21" s="3">
         <f t="shared" si="2"/>
-        <v>55.091595535818357</v>
+        <v>51.413711366592722</v>
       </c>
       <c r="Q21" s="9">
         <f>最終エネルギー消費!H21*EMF!$A$2</f>
@@ -56198,7 +56148,7 @@
       </c>
       <c r="S21">
         <f>最終エネルギー消費!I21*EMF!$C$2</f>
-        <v>35.144226505933794</v>
+        <v>31.466342336708159</v>
       </c>
       <c r="U21">
         <f>最終エネルギー消費!J21*EMF!$E$2</f>
@@ -56206,7 +56156,7 @@
       </c>
       <c r="AD21" s="3">
         <f t="shared" si="3"/>
-        <v>55.091595535818357</v>
+        <v>51.413711366592722</v>
       </c>
     </row>
     <row r="22" spans="1:30" x14ac:dyDescent="0.4">
@@ -56220,7 +56170,7 @@
       </c>
       <c r="E22">
         <f>最終エネルギー消費!D22*EMF!$C$2</f>
-        <v>33.591263937555112</v>
+        <v>30.075899106880737</v>
       </c>
       <c r="G22">
         <f>最終エネルギー消費!E22*EMF!$E$2</f>
@@ -56228,7 +56178,7 @@
       </c>
       <c r="P22" s="3">
         <f t="shared" si="2"/>
-        <v>52.527941152998537</v>
+        <v>49.012576322324165</v>
       </c>
       <c r="Q22" s="9">
         <f>最終エネルギー消費!H22*EMF!$A$2</f>
@@ -56236,7 +56186,7 @@
       </c>
       <c r="S22">
         <f>最終エネルギー消費!I22*EMF!$C$2</f>
-        <v>33.591263937555112</v>
+        <v>30.075899106880737</v>
       </c>
       <c r="U22">
         <f>最終エネルギー消費!J22*EMF!$E$2</f>
@@ -56244,7 +56194,7 @@
       </c>
       <c r="AD22" s="3">
         <f t="shared" si="3"/>
-        <v>52.527941152998537</v>
+        <v>49.012576322324165</v>
       </c>
     </row>
     <row r="23" spans="1:30" x14ac:dyDescent="0.4">
@@ -56264,7 +56214,7 @@
       </c>
       <c r="E23">
         <f>発電電力量!D3/eELE!D$12*EMF!C$2</f>
-        <v>77.844129870141998</v>
+        <v>69.697651162801549</v>
       </c>
       <c r="F23">
         <f>発電電力量!E3/eELE!E$12*EMF!D$2</f>
@@ -56308,7 +56258,7 @@
       </c>
       <c r="P23" s="3">
         <f t="shared" ref="P23" si="8">SUM(C23:O23)</f>
-        <v>476.37955455993358</v>
+        <v>468.23307585259306</v>
       </c>
       <c r="Q23" s="9">
         <f>発電電力量!O3/eELE!B$12*EMF!A$2</f>
@@ -56320,7 +56270,7 @@
       </c>
       <c r="S23">
         <f>発電電力量!Q3/eELE!D$12*EMF!C$2</f>
-        <v>77.844129870141998</v>
+        <v>69.697651162801549</v>
       </c>
       <c r="T23">
         <f>発電電力量!R3/eELE!E$12*EMF!D$2</f>
@@ -56364,7 +56314,7 @@
       </c>
       <c r="AD23" s="3">
         <f t="shared" ref="AD23" si="9">SUM(Q23:AC23)</f>
-        <v>476.37955455993358</v>
+        <v>468.23307585259306</v>
       </c>
     </row>
     <row r="24" spans="1:30" x14ac:dyDescent="0.4">
@@ -56382,7 +56332,7 @@
       </c>
       <c r="E24">
         <f>発電電力量!D4/eELE!D$12*EMF!C$2</f>
-        <v>27.564130382266114</v>
+        <v>24.679512086447566</v>
       </c>
       <c r="F24">
         <f>発電電力量!E4/eELE!E$12*EMF!D$2</f>
@@ -56426,7 +56376,7 @@
       </c>
       <c r="P24" s="3">
         <f t="shared" si="2"/>
-        <v>449.00553720294573</v>
+        <v>446.12091890712719</v>
       </c>
       <c r="Q24" s="9">
         <f>発電電力量!O4/eELE!B$12*EMF!A$2</f>
@@ -56438,7 +56388,7 @@
       </c>
       <c r="S24">
         <f>発電電力量!Q4/eELE!D$12*EMF!C$2</f>
-        <v>27.564130382266114</v>
+        <v>24.679512086447566</v>
       </c>
       <c r="T24">
         <f>発電電力量!R4/eELE!E$12*EMF!D$2</f>
@@ -56482,7 +56432,7 @@
       </c>
       <c r="AD24" s="3">
         <f t="shared" si="3"/>
-        <v>449.00553720294573</v>
+        <v>446.12091890712719</v>
       </c>
     </row>
     <row r="25" spans="1:30" x14ac:dyDescent="0.4">
@@ -56500,7 +56450,7 @@
       </c>
       <c r="E25">
         <f>発電電力量!D5/eELE!D$12*EMF!C$2</f>
-        <v>28.241156238812895</v>
+        <v>25.285686399867355</v>
       </c>
       <c r="F25">
         <f>発電電力量!E5/eELE!E$12*EMF!D$2</f>
@@ -56544,7 +56494,7 @@
       </c>
       <c r="P25" s="3">
         <f t="shared" si="2"/>
-        <v>469.09978467411884</v>
+        <v>466.1443148351733</v>
       </c>
       <c r="Q25" s="9">
         <f>発電電力量!O5/eELE!B$12*EMF!A$2</f>
@@ -56556,7 +56506,7 @@
       </c>
       <c r="S25">
         <f>発電電力量!Q5/eELE!D$12*EMF!C$2</f>
-        <v>28.241156238812895</v>
+        <v>25.285686399867355</v>
       </c>
       <c r="T25">
         <f>発電電力量!R5/eELE!E$12*EMF!D$2</f>
@@ -56600,7 +56550,7 @@
       </c>
       <c r="AD25" s="3">
         <f t="shared" si="3"/>
-        <v>469.09978467411884</v>
+        <v>466.1443148351733</v>
       </c>
     </row>
     <row r="26" spans="1:30" x14ac:dyDescent="0.4">
@@ -56618,7 +56568,7 @@
       </c>
       <c r="E26">
         <f>発電電力量!D6/eELE!D$12*EMF!C$2</f>
-        <v>28.424066530726304</v>
+        <v>25.449454917045642</v>
       </c>
       <c r="F26">
         <f>発電電力量!E6/eELE!E$12*EMF!D$2</f>
@@ -56662,7 +56612,7 @@
       </c>
       <c r="P26" s="3">
         <f t="shared" si="2"/>
-        <v>481.68602757824101</v>
+        <v>478.71141596456039</v>
       </c>
       <c r="Q26" s="9">
         <f>発電電力量!O6/eELE!B$12*EMF!A$2</f>
@@ -56674,7 +56624,7 @@
       </c>
       <c r="S26">
         <f>発電電力量!Q6/eELE!D$12*EMF!C$2</f>
-        <v>28.424066530726304</v>
+        <v>25.449454917045642</v>
       </c>
       <c r="T26">
         <f>発電電力量!R6/eELE!E$12*EMF!D$2</f>
@@ -56718,7 +56668,7 @@
       </c>
       <c r="AD26" s="3">
         <f t="shared" si="3"/>
-        <v>481.68602757824101</v>
+        <v>478.71141596456039</v>
       </c>
     </row>
     <row r="27" spans="1:30" x14ac:dyDescent="0.4">
@@ -56736,7 +56686,7 @@
       </c>
       <c r="E27">
         <f>発電電力量!D7/eELE!D$12*EMF!C$2</f>
-        <v>28.703755885423433</v>
+        <v>25.699874455553537</v>
       </c>
       <c r="F27">
         <f>発電電力量!E7/eELE!E$12*EMF!D$2</f>
@@ -56780,7 +56730,7 @@
       </c>
       <c r="P27" s="3">
         <f t="shared" si="2"/>
-        <v>496.52581315955877</v>
+        <v>493.52193172968884</v>
       </c>
       <c r="Q27" s="9">
         <f>発電電力量!O7/eELE!B$12*EMF!A$2</f>
@@ -56792,7 +56742,7 @@
       </c>
       <c r="S27">
         <f>発電電力量!Q7/eELE!D$12*EMF!C$2</f>
-        <v>28.703755885423433</v>
+        <v>25.699874455553537</v>
       </c>
       <c r="T27">
         <f>発電電力量!R7/eELE!E$12*EMF!D$2</f>
@@ -56836,7 +56786,7 @@
       </c>
       <c r="AD27" s="3">
         <f t="shared" si="3"/>
-        <v>496.52581315955877</v>
+        <v>493.52193172968884</v>
       </c>
     </row>
     <row r="28" spans="1:30" x14ac:dyDescent="0.4">
@@ -57102,7 +57052,7 @@
       </c>
       <c r="E43">
         <f t="shared" si="10"/>
-        <v>444.43031598097105</v>
+        <v>397.92016663412517</v>
       </c>
       <c r="F43">
         <f t="shared" si="10"/>
@@ -57146,7 +57096,7 @@
       </c>
       <c r="P43" s="3">
         <f t="shared" si="10"/>
-        <v>1070.7741439646545</v>
+        <v>1024.2639946178085</v>
       </c>
       <c r="Q43" s="9">
         <f t="shared" si="10"/>
@@ -57158,7 +57108,7 @@
       </c>
       <c r="S43">
         <f t="shared" si="10"/>
-        <v>444.43031598097105</v>
+        <v>397.92016663412517</v>
       </c>
       <c r="T43">
         <f t="shared" si="10"/>
@@ -57202,7 +57152,7 @@
       </c>
       <c r="AD43" s="3">
         <f>SUM(AD3,AD8,AD13,AD18,AD23,AD28,AD33,AD38)</f>
-        <v>1070.7741439646545</v>
+        <v>1024.2639946178085</v>
       </c>
     </row>
     <row r="44" spans="1:30" x14ac:dyDescent="0.4">
@@ -57220,7 +57170,7 @@
       </c>
       <c r="E44">
         <f t="shared" si="11"/>
-        <v>350.63335158894927</v>
+        <v>313.93916363196615</v>
       </c>
       <c r="F44">
         <f t="shared" si="11"/>
@@ -57264,7 +57214,7 @@
       </c>
       <c r="P44" s="3">
         <f t="shared" si="11"/>
-        <v>978.76242648442098</v>
+        <v>942.06823852743798</v>
       </c>
       <c r="Q44" s="9">
         <f t="shared" si="11"/>
@@ -57276,7 +57226,7 @@
       </c>
       <c r="S44">
         <f t="shared" si="11"/>
-        <v>350.63335158894927</v>
+        <v>313.93916363196615</v>
       </c>
       <c r="T44">
         <f t="shared" si="11"/>
@@ -57320,7 +57270,7 @@
       </c>
       <c r="AD44" s="3">
         <f t="shared" si="11"/>
-        <v>978.76242648442098</v>
+        <v>942.06823852743798</v>
       </c>
     </row>
     <row r="45" spans="1:30" x14ac:dyDescent="0.4">
@@ -57338,7 +57288,7 @@
       </c>
       <c r="E45">
         <f t="shared" si="12"/>
-        <v>364.04346077950157</v>
+        <v>325.94588930257697</v>
       </c>
       <c r="F45">
         <f t="shared" si="12"/>
@@ -57382,7 +57332,7 @@
       </c>
       <c r="P45" s="3">
         <f t="shared" si="12"/>
-        <v>1022.4934872153367</v>
+        <v>984.39591573841176</v>
       </c>
       <c r="Q45" s="9">
         <f t="shared" si="12"/>
@@ -57394,7 +57344,7 @@
       </c>
       <c r="S45">
         <f t="shared" si="12"/>
-        <v>364.04346077950157</v>
+        <v>325.94588930257697</v>
       </c>
       <c r="T45">
         <f t="shared" si="12"/>
@@ -57438,7 +57388,7 @@
       </c>
       <c r="AD45" s="3">
         <f t="shared" si="12"/>
-        <v>1022.4934872153367</v>
+        <v>984.39591573841176</v>
       </c>
     </row>
     <row r="46" spans="1:30" x14ac:dyDescent="0.4">
@@ -57456,7 +57406,7 @@
       </c>
       <c r="E46">
         <f t="shared" si="13"/>
-        <v>374.01441623216073</v>
+        <v>334.87337267298108</v>
       </c>
       <c r="F46">
         <f t="shared" si="13"/>
@@ -57500,7 +57450,7 @@
       </c>
       <c r="P46" s="3">
         <f t="shared" si="13"/>
-        <v>1055.0267159154703</v>
+        <v>1015.8856723562906</v>
       </c>
       <c r="Q46" s="9">
         <f t="shared" si="13"/>
@@ -57512,7 +57462,7 @@
       </c>
       <c r="S46">
         <f t="shared" si="13"/>
-        <v>374.01441623216073</v>
+        <v>334.87337267298108</v>
       </c>
       <c r="T46">
         <f t="shared" si="13"/>
@@ -57556,7 +57506,7 @@
       </c>
       <c r="AD46" s="3">
         <f t="shared" si="13"/>
-        <v>1055.0267159154703</v>
+        <v>1015.8856723562906</v>
       </c>
     </row>
     <row r="47" spans="1:30" x14ac:dyDescent="0.4">
@@ -57574,7 +57524,7 @@
       </c>
       <c r="E47" s="5">
         <f t="shared" si="14"/>
-        <v>383.42435991881359</v>
+        <v>343.29855481103078</v>
       </c>
       <c r="F47" s="5">
         <f t="shared" si="14"/>
@@ -57618,7 +57568,7 @@
       </c>
       <c r="P47" s="6">
         <f t="shared" si="14"/>
-        <v>1089.5333737522215</v>
+        <v>1049.4075686444387</v>
       </c>
       <c r="Q47" s="8">
         <f t="shared" si="14"/>
@@ -57630,7 +57580,7 @@
       </c>
       <c r="S47" s="5">
         <f t="shared" si="14"/>
-        <v>383.42435991881359</v>
+        <v>343.29855481103078</v>
       </c>
       <c r="T47" s="5">
         <f t="shared" si="14"/>
@@ -57674,7 +57624,7 @@
       </c>
       <c r="AD47" s="6">
         <f t="shared" si="14"/>
-        <v>1089.5333737522215</v>
+        <v>1049.4075686444387</v>
       </c>
     </row>
   </sheetData>

--- a/xlsx/model2.xlsx
+++ b/xlsx/model2.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\R\TA\xlsx\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8641E319-9B82-4329-BDD7-1D5C1D9B06F5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{63FB9BFB-FA5E-47B7-A090-8212B690E68B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="38280" yWindow="2385" windowWidth="29040" windowHeight="15720" tabRatio="878" xr2:uid="{BCC5EA96-140E-4D1F-AEAE-F8AA11DA45EB}"/>
+    <workbookView xWindow="38280" yWindow="2385" windowWidth="29040" windowHeight="15720" tabRatio="878" activeTab="5" xr2:uid="{BCC5EA96-140E-4D1F-AEAE-F8AA11DA45EB}"/>
   </bookViews>
   <sheets>
     <sheet name="シナリオ" sheetId="1" r:id="rId1"/>
@@ -24827,8 +24827,8 @@
   </sheetPr>
   <dimension ref="A1:AG80"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
+    <sheetView topLeftCell="E1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <pane ySplit="2" topLeftCell="A51" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="J37" sqref="J37"/>
     </sheetView>
@@ -51161,8 +51161,8 @@
   </sheetPr>
   <dimension ref="A1:AZ61"/>
   <sheetViews>
-    <sheetView zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="J28" sqref="J28"/>
+    <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="E26" sqref="E26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
@@ -52959,8 +52959,8 @@
         <v>シナリオ1</v>
       </c>
       <c r="I27" s="2" t="str">
-        <f>シナリオ!H2</f>
-        <v>(2050年)</v>
+        <f>シナリオ!H1</f>
+        <v>シナリオ2</v>
       </c>
     </row>
     <row r="28" spans="1:11" x14ac:dyDescent="0.4">

--- a/xlsx/model2.xlsx
+++ b/xlsx/model2.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\R\TA\xlsx\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{63FB9BFB-FA5E-47B7-A090-8212B690E68B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0D7A29AF-6BAB-4DC6-8959-354C21DEC39E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="38280" yWindow="2385" windowWidth="29040" windowHeight="15720" tabRatio="878" activeTab="5" xr2:uid="{BCC5EA96-140E-4D1F-AEAE-F8AA11DA45EB}"/>
+    <workbookView xWindow="38280" yWindow="2385" windowWidth="29040" windowHeight="15720" tabRatio="878" xr2:uid="{BCC5EA96-140E-4D1F-AEAE-F8AA11DA45EB}"/>
   </bookViews>
   <sheets>
     <sheet name="シナリオ" sheetId="1" r:id="rId1"/>
@@ -20,8 +20,8 @@
     <sheet name="CO2排出量" sheetId="59" r:id="rId5"/>
     <sheet name="グラフ作成用" sheetId="58" r:id="rId6"/>
     <sheet name="スライド作成用" sheetId="64" state="hidden" r:id="rId7"/>
-    <sheet name="Sheet1" sheetId="62" state="hidden" r:id="rId8"/>
-    <sheet name="部門別CO2排出量" sheetId="12" state="hidden" r:id="rId9"/>
+    <sheet name="部門別CO2排出量" sheetId="12" state="hidden" r:id="rId8"/>
+    <sheet name="Sheet1" sheetId="62" state="hidden" r:id="rId9"/>
     <sheet name="GDP・POP" sheetId="30" state="hidden" r:id="rId10"/>
     <sheet name="COMFLOOR" sheetId="31" state="hidden" r:id="rId11"/>
     <sheet name="Intensity" sheetId="32" state="hidden" r:id="rId12"/>
@@ -1614,6 +1614,13 @@
     <dxf>
       <fill>
         <patternFill>
+          <bgColor theme="8" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
           <bgColor theme="8" tint="0.79998168889431442"/>
         </patternFill>
       </fill>
@@ -1622,13 +1629,6 @@
       <fill>
         <patternFill>
           <bgColor theme="0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="8" tint="0.39994506668294322"/>
         </patternFill>
       </fill>
     </dxf>
@@ -10856,7 +10856,7 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="5"/>
                 <c:pt idx="0">
-                  <c:v>1024.2639946178085</c:v>
+                  <c:v>1088.8477107592512</c:v>
                 </c:pt>
                 <c:pt idx="1">
                   <c:v>942.06823852743798</c:v>
@@ -10937,7 +10937,7 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="5"/>
                 <c:pt idx="0">
-                  <c:v>1024.2639946178085</c:v>
+                  <c:v>1088.8477107592512</c:v>
                 </c:pt>
                 <c:pt idx="1">
                   <c:v>942.06823852743798</c:v>
@@ -11018,7 +11018,7 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="5"/>
                 <c:pt idx="0">
-                  <c:v>1024.2639946178085</c:v>
+                  <c:v>1088.8477107592512</c:v>
                 </c:pt>
                 <c:pt idx="1">
                   <c:v>942.06823852743798</c:v>
@@ -12776,7 +12776,7 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="5"/>
                 <c:pt idx="0">
-                  <c:v>1024.2639946178085</c:v>
+                  <c:v>1088.8477107592512</c:v>
                 </c:pt>
                 <c:pt idx="1">
                   <c:v>942.06823852743798</c:v>
@@ -12889,7 +12889,7 @@
                       <c:formatCode>General</c:formatCode>
                       <c:ptCount val="5"/>
                       <c:pt idx="0">
-                        <c:v>1024.2639946178085</c:v>
+                        <c:v>1088.8477107592512</c:v>
                       </c:pt>
                       <c:pt idx="1">
                         <c:v>942.06823852743798</c:v>
@@ -12990,7 +12990,7 @@
                       <c:formatCode>General</c:formatCode>
                       <c:ptCount val="5"/>
                       <c:pt idx="0">
-                        <c:v>1024.2639946178085</c:v>
+                        <c:v>1088.8477107592512</c:v>
                       </c:pt>
                       <c:pt idx="1">
                         <c:v>942.06823852743798</c:v>
@@ -14463,13 +14463,13 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="5"/>
                 <c:pt idx="0">
-                  <c:v>269.51474216725944</c:v>
+                  <c:v>261.62375155499154</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>209.4235083709562</c:v>
+                  <c:v>203.84312748463603</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>260.01618074402859</c:v>
+                  <c:v>253.11561083538152</c:v>
                 </c:pt>
                 <c:pt idx="3">
                   <c:v>253.11561083538152</c:v>
@@ -14538,13 +14538,13 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="5"/>
                 <c:pt idx="0">
-                  <c:v>249.02275586606845</c:v>
+                  <c:v>222.98731447362985</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>196.15609230500672</c:v>
+                  <c:v>175.63472635816763</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>171.17582078035531</c:v>
+                  <c:v>188.62350530113275</c:v>
                 </c:pt>
                 <c:pt idx="3">
                   <c:v>188.62350530113275</c:v>
@@ -14613,13 +14613,13 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="5"/>
                 <c:pt idx="0">
-                  <c:v>63.618347666356769</c:v>
+                  <c:v>59.181109031557583</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>52.883709709806709</c:v>
+                  <c:v>49.176064907319116</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>66.032474177397248</c:v>
+                  <c:v>61.373388455821313</c:v>
                 </c:pt>
                 <c:pt idx="3">
                   <c:v>61.373388455821313</c:v>
@@ -14688,13 +14688,13 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="5"/>
                 <c:pt idx="0">
-                  <c:v>69.588005432578569</c:v>
+                  <c:v>64.583716141442622</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>52.883709709806709</c:v>
+                  <c:v>56.215623862257246</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>52.527941152998537</c:v>
+                  <c:v>49.012576322324165</c:v>
                 </c:pt>
                 <c:pt idx="3">
                   <c:v>49.012576322324165</c:v>
@@ -14766,13 +14766,13 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="5"/>
                 <c:pt idx="0">
-                  <c:v>476.37955455993358</c:v>
+                  <c:v>468.23307585259306</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>449.00553720294573</c:v>
+                  <c:v>446.12091890712719</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>495.09542778752109</c:v>
+                  <c:v>493.52193172968884</c:v>
                 </c:pt>
                 <c:pt idx="3">
                   <c:v>493.52193172968884</c:v>
@@ -18713,7 +18713,7 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="5"/>
                 <c:pt idx="0">
-                  <c:v>1024.2639946178085</c:v>
+                  <c:v>1088.8477107592512</c:v>
                 </c:pt>
                 <c:pt idx="1">
                   <c:v>942.06823852743798</c:v>
@@ -18794,7 +18794,7 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="5"/>
                 <c:pt idx="0">
-                  <c:v>1024.2639946178085</c:v>
+                  <c:v>1088.8477107592512</c:v>
                 </c:pt>
                 <c:pt idx="1">
                   <c:v>942.06823852743798</c:v>
@@ -18875,7 +18875,7 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="5"/>
                 <c:pt idx="0">
-                  <c:v>1024.2639946178085</c:v>
+                  <c:v>1088.8477107592512</c:v>
                 </c:pt>
                 <c:pt idx="1">
                   <c:v>942.06823852743798</c:v>
@@ -19304,10 +19304,10 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="5"/>
                 <c:pt idx="0">
-                  <c:v>269.51474216725944</c:v>
+                  <c:v>261.62375155499154</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>209.4235083709562</c:v>
+                  <c:v>203.84312748463603</c:v>
                 </c:pt>
                 <c:pt idx="2">
                   <c:v>253.11561083538152</c:v>
@@ -19380,10 +19380,10 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="5"/>
                 <c:pt idx="0">
-                  <c:v>249.02275586606845</c:v>
+                  <c:v>222.98731447362985</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>196.15609230500672</c:v>
+                  <c:v>175.63472635816763</c:v>
                 </c:pt>
                 <c:pt idx="2">
                   <c:v>188.62350530113275</c:v>
@@ -19456,10 +19456,10 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="5"/>
                 <c:pt idx="0">
-                  <c:v>63.618347666356769</c:v>
+                  <c:v>59.181109031557583</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>52.883709709806709</c:v>
+                  <c:v>49.176064907319116</c:v>
                 </c:pt>
                 <c:pt idx="2">
                   <c:v>61.373388455821313</c:v>
@@ -19532,10 +19532,10 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="5"/>
                 <c:pt idx="0">
-                  <c:v>69.588005432578569</c:v>
+                  <c:v>64.583716141442622</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>52.883709709806709</c:v>
+                  <c:v>56.215623862257246</c:v>
                 </c:pt>
                 <c:pt idx="2">
                   <c:v>49.012576322324165</c:v>
@@ -19611,10 +19611,10 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="5"/>
                 <c:pt idx="0">
-                  <c:v>476.37955455993358</c:v>
+                  <c:v>468.23307585259306</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>449.00553720294573</c:v>
+                  <c:v>446.12091890712719</c:v>
                 </c:pt>
                 <c:pt idx="2">
                   <c:v>493.52193172968884</c:v>
@@ -24827,10 +24827,10 @@
   </sheetPr>
   <dimension ref="A1:AG80"/>
   <sheetViews>
-    <sheetView topLeftCell="E1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <pane ySplit="2" topLeftCell="A51" activePane="bottomLeft" state="frozen"/>
+    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="B1" sqref="B1"/>
-      <selection pane="bottomLeft" activeCell="J37" sqref="J37"/>
+      <selection pane="bottomLeft" activeCell="F43" sqref="F43"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
@@ -25008,11 +25008,11 @@
       </c>
       <c r="AC6" s="36">
         <f>CO2排出量!B2</f>
-        <v>269.51474216725944</v>
+        <v>261.62375155499154</v>
       </c>
       <c r="AD6" s="42">
         <f>CO2排出量!C2</f>
-        <v>209.4235083709562</v>
+        <v>203.84312748463603</v>
       </c>
       <c r="AE6" s="36">
         <v>253.11561083538152</v>
@@ -25051,11 +25051,11 @@
       </c>
       <c r="AC7" s="35">
         <f>CO2排出量!B3</f>
-        <v>249.02275586606845</v>
+        <v>222.98731447362985</v>
       </c>
       <c r="AD7" s="43">
         <f>CO2排出量!C3</f>
-        <v>196.15609230500672</v>
+        <v>175.63472635816763</v>
       </c>
       <c r="AE7" s="35">
         <v>188.62350530113275</v>
@@ -25094,11 +25094,11 @@
       </c>
       <c r="AC8" s="34">
         <f>CO2排出量!B4</f>
-        <v>63.618347666356769</v>
+        <v>59.181109031557583</v>
       </c>
       <c r="AD8" s="44">
         <f>CO2排出量!C4</f>
-        <v>52.883709709806709</v>
+        <v>49.176064907319116</v>
       </c>
       <c r="AE8" s="34">
         <v>61.373388455821313</v>
@@ -25148,11 +25148,11 @@
       </c>
       <c r="AC9" s="35">
         <f>CO2排出量!B5</f>
-        <v>69.588005432578569</v>
+        <v>64.583716141442622</v>
       </c>
       <c r="AD9" s="43">
         <f>CO2排出量!C5</f>
-        <v>52.883709709806709</v>
+        <v>56.215623862257246</v>
       </c>
       <c r="AE9" s="35">
         <v>49.012576322324165</v>
@@ -25192,11 +25192,11 @@
       </c>
       <c r="AC10" s="34">
         <f>CO2排出量!B6</f>
-        <v>476.37955455993358</v>
+        <v>468.23307585259306</v>
       </c>
       <c r="AD10" s="44">
         <f>CO2排出量!C6</f>
-        <v>449.00553720294573</v>
+        <v>446.12091890712719</v>
       </c>
       <c r="AE10" s="34">
         <v>493.52193172968884</v>
@@ -25376,11 +25376,11 @@
       </c>
       <c r="AC14" s="40">
         <f>CO2排出量!B10</f>
-        <v>1140.3621493972332</v>
+        <v>1088.8477107592512</v>
       </c>
       <c r="AD14" s="45">
         <f>CO2排出量!C10</f>
-        <v>971.43033430645278</v>
+        <v>942.06823852743798</v>
       </c>
       <c r="AE14" s="40">
         <v>1049.4075686444387</v>
@@ -26240,15 +26240,15 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AB6:AG14">
-    <cfRule type="expression" dxfId="1" priority="1">
+    <cfRule type="expression" dxfId="2" priority="1">
       <formula>MOD(ROW(),2)=0</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="0" priority="10">
+    <cfRule type="expression" dxfId="1" priority="10">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AB4:AG5">
-    <cfRule type="expression" dxfId="2" priority="9">
+    <cfRule type="expression" dxfId="0" priority="9">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
@@ -43499,7 +43499,7 @@
   <dimension ref="A1:L27"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C3" sqref="C3"/>
+      <selection activeCell="C18" sqref="C18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
@@ -50920,7 +50920,7 @@
   <dimension ref="A1:F10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G25" sqref="G25"/>
+      <selection activeCell="C3" sqref="C3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
@@ -50954,10 +50954,12 @@
         <v>2</v>
       </c>
       <c r="B2" s="28">
-        <v>269.51474216725944</v>
+        <f>部門別CO2排出量!P3</f>
+        <v>261.62375155499154</v>
       </c>
       <c r="C2" s="28">
-        <v>209.4235083709562</v>
+        <f>部門別CO2排出量!P4</f>
+        <v>203.84312748463603</v>
       </c>
       <c r="D2" s="28">
         <v>253.11561083538152</v>
@@ -50976,10 +50978,12 @@
         <v>3</v>
       </c>
       <c r="B3" s="32">
-        <v>249.02275586606845</v>
+        <f>部門別CO2排出量!P8</f>
+        <v>222.98731447362985</v>
       </c>
       <c r="C3" s="32">
-        <v>196.15609230500672</v>
+        <f>部門別CO2排出量!P9</f>
+        <v>175.63472635816763</v>
       </c>
       <c r="D3" s="32">
         <v>188.62350530113275</v>
@@ -50998,10 +51002,12 @@
         <v>4</v>
       </c>
       <c r="B4" s="28">
-        <v>63.618347666356769</v>
+        <f>部門別CO2排出量!P13</f>
+        <v>59.181109031557583</v>
       </c>
       <c r="C4" s="28">
-        <v>52.883709709806709</v>
+        <f>部門別CO2排出量!P14</f>
+        <v>49.176064907319116</v>
       </c>
       <c r="D4" s="28">
         <v>61.373388455821313</v>
@@ -51020,10 +51026,12 @@
         <v>5</v>
       </c>
       <c r="B5" s="32">
-        <v>69.588005432578569</v>
+        <f>部門別CO2排出量!P18</f>
+        <v>64.583716141442622</v>
       </c>
       <c r="C5" s="32">
-        <v>52.883709709806709</v>
+        <f>部門別CO2排出量!P19</f>
+        <v>56.215623862257246</v>
       </c>
       <c r="D5" s="32">
         <v>49.012576322324165</v>
@@ -51042,10 +51050,12 @@
         <v>30</v>
       </c>
       <c r="B6" s="28">
-        <v>476.37955455993358</v>
+        <f>部門別CO2排出量!P23</f>
+        <v>468.23307585259306</v>
       </c>
       <c r="C6" s="28">
-        <v>449.00553720294573</v>
+        <f>部門別CO2排出量!P24</f>
+        <v>446.12091890712719</v>
       </c>
       <c r="D6" s="28">
         <v>493.52193172968884</v>
@@ -51130,10 +51140,12 @@
         <v>27</v>
       </c>
       <c r="B10" s="28">
-        <v>1140.3621493972332</v>
+        <f>SUM(B2:B9)</f>
+        <v>1088.8477107592512</v>
       </c>
       <c r="C10" s="28">
-        <v>971.43033430645278</v>
+        <f>SUM(C2:C9)</f>
+        <v>942.06823852743798</v>
       </c>
       <c r="D10" s="28">
         <v>1049.4075686444387</v>
@@ -51161,8 +51173,8 @@
   </sheetPr>
   <dimension ref="A1:AZ61"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="E26" sqref="E26"/>
+    <sheetView topLeftCell="A6" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="E24" sqref="E24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
@@ -52442,26 +52454,26 @@
         <v>2010</v>
       </c>
       <c r="B11" s="2">
-        <v>1024.2639946178085</v>
+        <v>1088.8477107592512</v>
       </c>
       <c r="C11" s="2">
         <f>部門別CO2排出量!P43</f>
-        <v>1024.2639946178085</v>
+        <v>1088.8477107592512</v>
       </c>
       <c r="D11" s="2">
         <f>部門別CO2排出量!AD43</f>
-        <v>1024.2639946178085</v>
+        <v>1088.8477107592512</v>
       </c>
       <c r="F11" s="2" t="s">
         <v>2</v>
       </c>
       <c r="G11">
         <f>CO2排出量!B2</f>
-        <v>269.51474216725944</v>
+        <v>261.62375155499154</v>
       </c>
       <c r="H11">
         <f>CO2排出量!C2</f>
-        <v>209.4235083709562</v>
+        <v>203.84312748463603</v>
       </c>
       <c r="I11">
         <v>253.11561083538152</v>
@@ -52495,11 +52507,11 @@
       </c>
       <c r="G12">
         <f>CO2排出量!B3</f>
-        <v>249.02275586606845</v>
+        <v>222.98731447362985</v>
       </c>
       <c r="H12">
         <f>CO2排出量!C3</f>
-        <v>196.15609230500672</v>
+        <v>175.63472635816763</v>
       </c>
       <c r="I12">
         <v>188.62350530113275</v>
@@ -52533,11 +52545,11 @@
       </c>
       <c r="G13">
         <f>CO2排出量!B4</f>
-        <v>63.618347666356769</v>
+        <v>59.181109031557583</v>
       </c>
       <c r="H13">
         <f>CO2排出量!C4</f>
-        <v>52.883709709806709</v>
+        <v>49.176064907319116</v>
       </c>
       <c r="I13">
         <v>61.373388455821313</v>
@@ -52571,11 +52583,11 @@
       </c>
       <c r="G14">
         <f>CO2排出量!B5</f>
-        <v>69.588005432578569</v>
+        <v>64.583716141442622</v>
       </c>
       <c r="H14">
         <f>CO2排出量!C5</f>
-        <v>52.883709709806709</v>
+        <v>56.215623862257246</v>
       </c>
       <c r="I14">
         <v>49.012576322324165</v>
@@ -52609,11 +52621,11 @@
       </c>
       <c r="G15">
         <f>CO2排出量!B6</f>
-        <v>476.37955455993358</v>
+        <v>468.23307585259306</v>
       </c>
       <c r="H15">
         <f>CO2排出量!C6</f>
-        <v>449.00553720294573</v>
+        <v>446.12091890712719</v>
       </c>
       <c r="I15">
         <v>493.52193172968884</v>
@@ -53240,8 +53252,8 @@
   </sheetPr>
   <dimension ref="A1:AZ61"/>
   <sheetViews>
-    <sheetView topLeftCell="A9" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="K27" sqref="K27"/>
+    <sheetView topLeftCell="B1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="K11" sqref="K11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
@@ -54517,29 +54529,30 @@
         <v>2010</v>
       </c>
       <c r="B11" s="2">
-        <v>1070.7741439646547</v>
+        <v>1024.2639946178085</v>
       </c>
       <c r="C11" s="2">
         <f>部門別CO2排出量!P43</f>
-        <v>1024.2639946178085</v>
+        <v>1088.8477107592512</v>
       </c>
       <c r="D11" s="2">
         <f>部門別CO2排出量!AD43</f>
-        <v>1024.2639946178085</v>
+        <v>1088.8477107592512</v>
       </c>
       <c r="F11" s="2" t="s">
         <v>2</v>
       </c>
       <c r="G11">
         <f>CO2排出量!B2</f>
-        <v>269.51474216725944</v>
+        <v>261.62375155499154</v>
       </c>
       <c r="H11">
         <f>CO2排出量!C2</f>
-        <v>209.4235083709562</v>
+        <v>203.84312748463603</v>
       </c>
       <c r="I11">
-        <v>260.01618074402859</v>
+        <f>CO2排出量!D2</f>
+        <v>253.11561083538152</v>
       </c>
       <c r="J11">
         <f>CO2排出量!E2</f>
@@ -54555,7 +54568,7 @@
         <v>2020</v>
       </c>
       <c r="B12" s="2">
-        <v>978.76242648442167</v>
+        <v>942.06823852743798</v>
       </c>
       <c r="C12" s="2">
         <f>部門別CO2排出量!P44</f>
@@ -54570,14 +54583,15 @@
       </c>
       <c r="G12">
         <f>CO2排出量!B3</f>
-        <v>249.02275586606845</v>
+        <v>222.98731447362985</v>
       </c>
       <c r="H12">
         <f>CO2排出量!C3</f>
-        <v>196.15609230500672</v>
+        <v>175.63472635816763</v>
       </c>
       <c r="I12">
-        <v>171.17582078035531</v>
+        <f>CO2排出量!D3</f>
+        <v>188.62350530113275</v>
       </c>
       <c r="J12">
         <f>CO2排出量!E3</f>
@@ -54593,7 +54607,7 @@
         <v>2030</v>
       </c>
       <c r="B13" s="2">
-        <v>1007.4537582833925</v>
+        <v>984.39591573841176</v>
       </c>
       <c r="C13" s="2">
         <f>部門別CO2排出量!P45</f>
@@ -54608,14 +54622,15 @@
       </c>
       <c r="G13">
         <f>CO2排出量!B4</f>
-        <v>63.618347666356769</v>
+        <v>59.181109031557583</v>
       </c>
       <c r="H13">
         <f>CO2排出量!C4</f>
-        <v>52.883709709806709</v>
+        <v>49.176064907319116</v>
       </c>
       <c r="I13">
-        <v>66.032474177397248</v>
+        <f>CO2排出量!D4</f>
+        <v>61.373388455821313</v>
       </c>
       <c r="J13">
         <f>CO2排出量!E4</f>
@@ -54631,7 +54646,7 @@
         <v>2040</v>
       </c>
       <c r="B14" s="2">
-        <v>1026.3482276252621</v>
+        <v>1015.8856723562906</v>
       </c>
       <c r="C14" s="2">
         <f>部門別CO2排出量!P46</f>
@@ -54646,14 +54661,15 @@
       </c>
       <c r="G14">
         <f>CO2排出量!B5</f>
-        <v>69.588005432578569</v>
+        <v>64.583716141442622</v>
       </c>
       <c r="H14">
         <f>CO2排出量!C5</f>
-        <v>52.883709709806709</v>
+        <v>56.215623862257246</v>
       </c>
       <c r="I14">
-        <v>52.527941152998537</v>
+        <f>CO2排出量!D5</f>
+        <v>49.012576322324165</v>
       </c>
       <c r="J14">
         <f>CO2排出量!E5</f>
@@ -54669,7 +54685,7 @@
         <v>2050</v>
       </c>
       <c r="B15" s="2">
-        <v>1048.6084006423907</v>
+        <v>1049.4075686444387</v>
       </c>
       <c r="C15" s="2">
         <f>部門別CO2排出量!P47</f>
@@ -54684,14 +54700,15 @@
       </c>
       <c r="G15">
         <f>CO2排出量!B6</f>
-        <v>476.37955455993358</v>
+        <v>468.23307585259306</v>
       </c>
       <c r="H15">
         <f>CO2排出量!C6</f>
-        <v>449.00553720294573</v>
+        <v>446.12091890712719</v>
       </c>
       <c r="I15">
-        <v>495.09542778752109</v>
+        <f>CO2排出量!D6</f>
+        <v>493.52193172968884</v>
       </c>
       <c r="J15">
         <f>CO2排出量!E6</f>
@@ -54719,6 +54736,7 @@
         <v>25.99212785621209</v>
       </c>
       <c r="I16">
+        <f>CO2排出量!D7</f>
         <v>22.660005374260319</v>
       </c>
       <c r="J16">
@@ -54757,6 +54775,7 @@
         <v>31.085649151718691</v>
       </c>
       <c r="I17">
+        <f>CO2排出量!D8</f>
         <v>27.100550625829783</v>
       </c>
       <c r="J17">
@@ -54795,6 +54814,7 @@
         <v>-46</v>
       </c>
       <c r="I18">
+        <f>CO2排出量!D9</f>
         <v>-46</v>
       </c>
       <c r="J18">
@@ -55308,27 +55328,11 @@
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{899B19A5-7503-4513-BF71-2D7E23416D9A}">
-  <dimension ref="A1"/>
-  <sheetViews>
-    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="O104" sqref="O104"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
-  <sheetData/>
-  <phoneticPr fontId="1"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <drawing r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5ACBDC0A-B774-4127-9811-6E05EDCA9F07}">
   <dimension ref="A1:AD47"/>
   <sheetViews>
-    <sheetView topLeftCell="F25" workbookViewId="0">
-      <selection activeCell="Q36" sqref="Q36"/>
+    <sheetView topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="P23" sqref="P23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
@@ -56040,10 +56044,38 @@
       <c r="B18">
         <v>2010</v>
       </c>
-      <c r="C18" s="9"/>
-      <c r="P18" s="3"/>
-      <c r="Q18" s="9"/>
-      <c r="AD18" s="3"/>
+      <c r="C18" s="9">
+        <f>最終エネルギー消費!C18*EMF!$A$2</f>
+        <v>0</v>
+      </c>
+      <c r="E18">
+        <f>最終エネルギー消費!D18*EMF!$C$2</f>
+        <v>42.814475046385361</v>
+      </c>
+      <c r="G18">
+        <f>最終エネルギー消費!E18*EMF!$E$2</f>
+        <v>21.769241095057257</v>
+      </c>
+      <c r="P18" s="3">
+        <f t="shared" si="2"/>
+        <v>64.583716141442622</v>
+      </c>
+      <c r="Q18" s="9">
+        <f>最終エネルギー消費!H18*EMF!$A$2</f>
+        <v>0</v>
+      </c>
+      <c r="S18">
+        <f>最終エネルギー消費!I18*EMF!$C$2</f>
+        <v>42.814475046385361</v>
+      </c>
+      <c r="U18">
+        <f>最終エネルギー消費!J18*EMF!$E$2</f>
+        <v>21.769241095057257</v>
+      </c>
+      <c r="AD18" s="3">
+        <f t="shared" si="3"/>
+        <v>64.583716141442622</v>
+      </c>
     </row>
     <row r="19" spans="1:30" x14ac:dyDescent="0.4">
       <c r="A19" s="9"/>
@@ -57052,7 +57084,7 @@
       </c>
       <c r="E43">
         <f t="shared" si="10"/>
-        <v>397.92016663412517</v>
+        <v>440.73464168051055</v>
       </c>
       <c r="F43">
         <f t="shared" si="10"/>
@@ -57060,7 +57092,7 @@
       </c>
       <c r="G43">
         <f t="shared" si="10"/>
-        <v>176.91658111172131</v>
+        <v>198.6858222067786</v>
       </c>
       <c r="H43">
         <f t="shared" si="10"/>
@@ -57075,7 +57107,7 @@
         <v>0</v>
       </c>
       <c r="K43">
-        <f t="shared" si="10"/>
+        <f>SUM(K3,K8,K13,K18,K23,K28,K33,K38)</f>
         <v>0</v>
       </c>
       <c r="L43">
@@ -57096,10 +57128,10 @@
       </c>
       <c r="P43" s="3">
         <f t="shared" si="10"/>
-        <v>1024.2639946178085</v>
+        <v>1088.8477107592512</v>
       </c>
       <c r="Q43" s="9">
-        <f t="shared" si="10"/>
+        <f>SUM(Q3,Q8,Q13,Q18,Q23,Q28,Q33,Q38)</f>
         <v>437.18850316692556</v>
       </c>
       <c r="R43">
@@ -57108,7 +57140,7 @@
       </c>
       <c r="S43">
         <f t="shared" si="10"/>
-        <v>397.92016663412517</v>
+        <v>440.73464168051055</v>
       </c>
       <c r="T43">
         <f t="shared" si="10"/>
@@ -57116,7 +57148,7 @@
       </c>
       <c r="U43">
         <f t="shared" si="10"/>
-        <v>176.91658111172131</v>
+        <v>198.6858222067786</v>
       </c>
       <c r="V43">
         <f t="shared" si="10"/>
@@ -57152,7 +57184,7 @@
       </c>
       <c r="AD43" s="3">
         <f>SUM(AD3,AD8,AD13,AD18,AD23,AD28,AD33,AD38)</f>
-        <v>1024.2639946178085</v>
+        <v>1088.8477107592512</v>
       </c>
     </row>
     <row r="44" spans="1:30" x14ac:dyDescent="0.4">
@@ -57217,7 +57249,7 @@
         <v>942.06823852743798</v>
       </c>
       <c r="Q44" s="9">
-        <f t="shared" si="11"/>
+        <f>SUM(Q4,Q9,Q14,Q19,Q24,Q29,Q34,Q39)</f>
         <v>397.28773460765638</v>
       </c>
       <c r="R44">
@@ -57635,4 +57667,20 @@
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{899B19A5-7503-4513-BF71-2D7E23416D9A}">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView topLeftCell="A76" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="K99" sqref="K99"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
+  <sheetData/>
+  <phoneticPr fontId="1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
 </file>